--- a/case_study_results/Case_study_results_MC_mean.xlsx
+++ b/case_study_results/Case_study_results_MC_mean.xlsx
@@ -633,88 +633,88 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>99.01701212239405</v>
+        <v>99.04535489710872</v>
       </c>
       <c r="C2">
-        <v>2.005093274170576</v>
+        <v>1.988332909661744</v>
       </c>
       <c r="D2">
-        <v>48.32817354689095</v>
+        <v>48.35271124800748</v>
       </c>
       <c r="E2">
-        <v>2.642393365763891</v>
+        <v>2.61242259392117</v>
       </c>
       <c r="F2">
-        <v>48.36392708513939</v>
+        <v>48.36150628219073</v>
       </c>
       <c r="G2">
-        <v>2.608848852633269</v>
+        <v>2.622639819306507</v>
       </c>
       <c r="H2">
-        <v>14.16859549022429</v>
+        <v>14.16642818912323</v>
       </c>
       <c r="I2">
-        <v>1.052899032992959</v>
+        <v>1.042053446839132</v>
       </c>
       <c r="J2">
-        <v>14.18310088070082</v>
+        <v>14.18153619359</v>
       </c>
       <c r="K2">
-        <v>1.043882442839291</v>
+        <v>1.047589438281131</v>
       </c>
       <c r="L2">
-        <v>4.720158376038818</v>
+        <v>4.723192019752802</v>
       </c>
       <c r="M2">
-        <v>0.3472318429821988</v>
+        <v>0.3456506705537403</v>
       </c>
       <c r="N2">
-        <v>9.447937301823469</v>
+        <v>9.442648618049082</v>
       </c>
       <c r="O2">
-        <v>0.6948538352523155</v>
+        <v>0.6897839392670773</v>
       </c>
       <c r="P2">
-        <v>4.723778279715452</v>
+        <v>4.722159013579406</v>
       </c>
       <c r="Q2">
-        <v>0.346104338672105</v>
+        <v>0.3504251108202771</v>
       </c>
       <c r="R2">
-        <v>13.84334650596741</v>
+        <v>13.82955178361921</v>
       </c>
       <c r="S2">
-        <v>1.237566465999416</v>
+        <v>1.230620515928891</v>
       </c>
       <c r="T2">
-        <v>9.695876501623633</v>
+        <v>9.704179694508257</v>
       </c>
       <c r="U2">
-        <v>0.8626813931697092</v>
+        <v>0.8734434873951469</v>
       </c>
       <c r="V2">
-        <v>2.078842024122152</v>
+        <v>2.077168979592952</v>
       </c>
       <c r="W2">
-        <v>0.1859884886914917</v>
+        <v>0.185860667921838</v>
       </c>
       <c r="X2">
-        <v>2.078625524552959</v>
+        <v>2.077448612006538</v>
       </c>
       <c r="Y2">
-        <v>0.1862269642906501</v>
+        <v>0.1851811089554871</v>
       </c>
       <c r="Z2">
-        <v>4.612782200956188</v>
+        <v>4.608344646768077</v>
       </c>
       <c r="AA2">
-        <v>0.4081958183458056</v>
+        <v>0.410349971601962</v>
       </c>
       <c r="AB2">
-        <v>9.229960434466841</v>
+        <v>9.228862932507315</v>
       </c>
       <c r="AC2">
-        <v>0.8209974730798416</v>
+        <v>0.8277778944142545</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -728,94 +728,94 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>108.910013229893</v>
+        <v>108.9163720009045</v>
       </c>
       <c r="C3">
-        <v>2.172493726894375</v>
+        <v>2.180684106365175</v>
       </c>
       <c r="D3">
-        <v>53.1672022426159</v>
+        <v>53.13057445903875</v>
       </c>
       <c r="E3">
-        <v>2.817671786825888</v>
+        <v>2.856537453557385</v>
       </c>
       <c r="F3">
-        <v>53.17522342356069</v>
+        <v>53.20227788650127</v>
       </c>
       <c r="G3">
-        <v>2.835040490491947</v>
+        <v>2.887905345471604</v>
       </c>
       <c r="H3">
-        <v>15.5711566737642</v>
+        <v>15.5951100639265</v>
       </c>
       <c r="I3">
-        <v>1.139318039821914</v>
+        <v>1.156168415039865</v>
       </c>
       <c r="J3">
-        <v>15.56949916801815</v>
+        <v>15.58521377124675</v>
       </c>
       <c r="K3">
-        <v>1.145844871056058</v>
+        <v>1.157366155115346</v>
       </c>
       <c r="L3">
-        <v>5.192824132652869</v>
+        <v>5.19086694240139</v>
       </c>
       <c r="M3">
-        <v>0.3823035415574997</v>
+        <v>0.3836397717585659</v>
       </c>
       <c r="N3">
-        <v>10.38088150913901</v>
+        <v>10.38749561754813</v>
       </c>
       <c r="O3">
-        <v>0.7614161014911799</v>
+        <v>0.7710383866586568</v>
       </c>
       <c r="P3">
-        <v>5.192900753919695</v>
+        <v>5.192771126153135</v>
       </c>
       <c r="Q3">
-        <v>0.3815400403162283</v>
+        <v>0.3857677825148722</v>
       </c>
       <c r="R3">
-        <v>15.20213909889663</v>
+        <v>15.21973295918592</v>
       </c>
       <c r="S3">
-        <v>1.346282207739782</v>
+        <v>1.357860035590492</v>
       </c>
       <c r="T3">
-        <v>10.63780879232722</v>
+        <v>10.65891007265218</v>
       </c>
       <c r="U3">
-        <v>0.9474130075875685</v>
+        <v>0.9550354350223176</v>
       </c>
       <c r="V3">
-        <v>2.279947331692077</v>
+        <v>2.284483058572977</v>
       </c>
       <c r="W3">
-        <v>0.2022550694875157</v>
+        <v>0.2061059026164092</v>
       </c>
       <c r="X3">
-        <v>2.282705846712461</v>
+        <v>2.281012320559805</v>
       </c>
       <c r="Y3">
-        <v>0.2041562198450025</v>
+        <v>0.2044137971429043</v>
       </c>
       <c r="Z3">
-        <v>5.066519731410109</v>
+        <v>5.067036527368849</v>
       </c>
       <c r="AA3">
-        <v>0.4513870795082606</v>
+        <v>0.4507484921170974</v>
       </c>
       <c r="AB3">
-        <v>10.13752972353941</v>
+        <v>10.14644755674083</v>
       </c>
       <c r="AC3">
-        <v>0.9000496297324483</v>
+        <v>0.9055681941435829</v>
       </c>
       <c r="AD3">
-        <v>7.468852005889844</v>
+        <v>7.473521518462906</v>
       </c>
       <c r="AE3">
-        <v>0.588284359195162</v>
+        <v>0.5862577928227236</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -823,94 +823,94 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>118.8348856394632</v>
+        <v>118.8176414809078</v>
       </c>
       <c r="C4">
-        <v>2.360931658280975</v>
+        <v>2.386794981489765</v>
       </c>
       <c r="D4">
-        <v>57.97948804949625</v>
+        <v>58.01930431253258</v>
       </c>
       <c r="E4">
-        <v>3.121881762204581</v>
+        <v>3.141001291815138</v>
       </c>
       <c r="F4">
-        <v>58.02381202797989</v>
+        <v>58.07273307811651</v>
       </c>
       <c r="G4">
-        <v>3.091090905393952</v>
+        <v>3.148051342321386</v>
       </c>
       <c r="H4">
-        <v>17.00944562318264</v>
+        <v>17.00903302193366</v>
       </c>
       <c r="I4">
-        <v>1.247904184922954</v>
+        <v>1.24708127900981</v>
       </c>
       <c r="J4">
-        <v>17.00277383252865</v>
+        <v>17.01415624636937</v>
       </c>
       <c r="K4">
-        <v>1.233453929686201</v>
+        <v>1.260009294604494</v>
       </c>
       <c r="L4">
-        <v>5.665527635285899</v>
+        <v>5.669064206551534</v>
       </c>
       <c r="M4">
-        <v>0.417652405214662</v>
+        <v>0.4206603034179899</v>
       </c>
       <c r="N4">
-        <v>11.33435047082618</v>
+        <v>11.35084870587261</v>
       </c>
       <c r="O4">
-        <v>0.8203516121810976</v>
+        <v>0.8399237811976964</v>
       </c>
       <c r="P4">
-        <v>5.664725762796473</v>
+        <v>5.667786584584576</v>
       </c>
       <c r="Q4">
-        <v>0.4131738166238966</v>
+        <v>0.4194632424486164</v>
       </c>
       <c r="R4">
-        <v>16.6077346597176</v>
+        <v>16.60988137048705</v>
       </c>
       <c r="S4">
-        <v>1.462741997479385</v>
+        <v>1.472583881256835</v>
       </c>
       <c r="T4">
-        <v>11.62935641565492</v>
+        <v>11.63457333030177</v>
       </c>
       <c r="U4">
-        <v>1.027839452226258</v>
+        <v>1.040589420523794</v>
       </c>
       <c r="V4">
-        <v>2.491198478163277</v>
+        <v>2.492987189417066</v>
       </c>
       <c r="W4">
-        <v>0.2210543208708241</v>
+        <v>0.2236565832306129</v>
       </c>
       <c r="X4">
-        <v>2.488942585844071</v>
+        <v>2.493843067025347</v>
       </c>
       <c r="Y4">
-        <v>0.2195057326719533</v>
+        <v>0.2240163904887606</v>
       </c>
       <c r="Z4">
-        <v>5.537485493746638</v>
+        <v>5.537032633690057</v>
       </c>
       <c r="AA4">
-        <v>0.4908720120563249</v>
+        <v>0.4939596257757092</v>
       </c>
       <c r="AB4">
-        <v>11.07093961589135</v>
+        <v>11.08080296995492</v>
       </c>
       <c r="AC4">
-        <v>0.9741027815590394</v>
+        <v>0.9858781015656203</v>
       </c>
       <c r="AD4">
-        <v>10.87466381105097</v>
+        <v>10.86746701792883</v>
       </c>
       <c r="AE4">
-        <v>0.6727785100045283</v>
+        <v>0.6636312210792926</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -918,94 +918,94 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>128.7583336433993</v>
+        <v>128.70689500712</v>
       </c>
       <c r="C5">
-        <v>2.561332016283102</v>
+        <v>2.583257035584313</v>
       </c>
       <c r="D5">
-        <v>62.85045812594458</v>
+        <v>62.79960197751701</v>
       </c>
       <c r="E5">
-        <v>3.405076942646291</v>
+        <v>3.423671084675624</v>
       </c>
       <c r="F5">
-        <v>62.87047648065792</v>
+        <v>62.8716804884388</v>
       </c>
       <c r="G5">
-        <v>3.403100563451926</v>
+        <v>3.401198843988186</v>
       </c>
       <c r="H5">
-        <v>18.42732565415162</v>
+        <v>18.44276563983524</v>
       </c>
       <c r="I5">
-        <v>1.352370694629854</v>
+        <v>1.360601454101123</v>
       </c>
       <c r="J5">
-        <v>18.43383939670676</v>
+        <v>18.41327486613694</v>
       </c>
       <c r="K5">
-        <v>1.361906576358368</v>
+        <v>1.345030849778977</v>
       </c>
       <c r="L5">
-        <v>6.142195733090722</v>
+        <v>6.144575187673708</v>
       </c>
       <c r="M5">
-        <v>0.4511582393201609</v>
+        <v>0.4503107722612567</v>
       </c>
       <c r="N5">
-        <v>12.28683873932569</v>
+        <v>12.28078299188721</v>
       </c>
       <c r="O5">
-        <v>0.9070021400526681</v>
+        <v>0.9094317630707699</v>
       </c>
       <c r="P5">
-        <v>6.137038579488019</v>
+        <v>6.136819111237117</v>
       </c>
       <c r="Q5">
-        <v>0.4512450029818666</v>
+        <v>0.4515230522616221</v>
       </c>
       <c r="R5">
-        <v>17.99261929199294</v>
+        <v>18.01545776558011</v>
       </c>
       <c r="S5">
-        <v>1.599313182537863</v>
+        <v>1.613538882341162</v>
       </c>
       <c r="T5">
-        <v>12.59807671641206</v>
+        <v>12.58641367811871</v>
       </c>
       <c r="U5">
-        <v>1.129082444324838</v>
+        <v>1.121524089922041</v>
       </c>
       <c r="V5">
-        <v>2.700926454591597</v>
+        <v>2.697727518235244</v>
       </c>
       <c r="W5">
-        <v>0.241977916694463</v>
+        <v>0.239282298891858</v>
       </c>
       <c r="X5">
-        <v>2.698293788133216</v>
+        <v>2.696611561288993</v>
       </c>
       <c r="Y5">
-        <v>0.2398901012868831</v>
+        <v>0.2379908841601713</v>
       </c>
       <c r="Z5">
-        <v>5.998071168517537</v>
+        <v>5.994682834398559</v>
       </c>
       <c r="AA5">
-        <v>0.5313753783985598</v>
+        <v>0.5311850841884991</v>
       </c>
       <c r="AB5">
-        <v>11.99987764621681</v>
+        <v>11.99497114419785</v>
       </c>
       <c r="AC5">
-        <v>1.070552272026692</v>
+        <v>1.070113438445507</v>
       </c>
       <c r="AD5">
-        <v>12.88504394612854</v>
+        <v>12.88249990330122</v>
       </c>
       <c r="AE5">
-        <v>0.7150402222750941</v>
+        <v>0.7169113909627229</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1013,94 +1013,94 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>138.6193301022854</v>
+        <v>138.5921826378046</v>
       </c>
       <c r="C6">
-        <v>2.783286618765012</v>
+        <v>2.765283271610985</v>
       </c>
       <c r="D6">
-        <v>67.63533082840551</v>
+        <v>67.70958113935231</v>
       </c>
       <c r="E6">
-        <v>3.661035561215966</v>
+        <v>3.654501368853108</v>
       </c>
       <c r="F6">
-        <v>67.6916847809601</v>
+        <v>67.67356019621035</v>
       </c>
       <c r="G6">
-        <v>3.65055857945102</v>
+        <v>3.643717181650527</v>
       </c>
       <c r="H6">
-        <v>19.82734591591388</v>
+        <v>19.81456319177004</v>
       </c>
       <c r="I6">
-        <v>1.456083760990498</v>
+        <v>1.464776306030565</v>
       </c>
       <c r="J6">
-        <v>19.84150412187418</v>
+        <v>19.84813948633965</v>
       </c>
       <c r="K6">
-        <v>1.463045038361389</v>
+        <v>1.460258063219651</v>
       </c>
       <c r="L6">
-        <v>6.606720446140261</v>
+        <v>6.60043358532938</v>
       </c>
       <c r="M6">
-        <v>0.484635967608855</v>
+        <v>0.4861067077191379</v>
       </c>
       <c r="N6">
-        <v>13.2206445801592</v>
+        <v>13.2080657121491</v>
       </c>
       <c r="O6">
-        <v>0.9830238930455687</v>
+        <v>0.9623229435357114</v>
       </c>
       <c r="P6">
-        <v>6.609028577784629</v>
+        <v>6.611361616203912</v>
       </c>
       <c r="Q6">
-        <v>0.492455262221221</v>
+        <v>0.4877623620388389</v>
       </c>
       <c r="R6">
-        <v>19.37911468312922</v>
+        <v>19.34252712862143</v>
       </c>
       <c r="S6">
-        <v>1.722161690951631</v>
+        <v>1.734956960103811</v>
       </c>
       <c r="T6">
-        <v>13.56335959944951</v>
+        <v>13.56367660309645</v>
       </c>
       <c r="U6">
-        <v>1.21154209523314</v>
+        <v>1.209876455240453</v>
       </c>
       <c r="V6">
-        <v>2.904750949997349</v>
+        <v>2.908866839621829</v>
       </c>
       <c r="W6">
-        <v>0.2580769687628512</v>
+        <v>0.2594185174254967</v>
       </c>
       <c r="X6">
-        <v>2.905939452844932</v>
+        <v>2.908422713245101</v>
       </c>
       <c r="Y6">
-        <v>0.2600117962207462</v>
+        <v>0.2585938479804208</v>
       </c>
       <c r="Z6">
-        <v>6.452750764632324</v>
+        <v>6.444993941383761</v>
       </c>
       <c r="AA6">
-        <v>0.5724091228665947</v>
+        <v>0.5757561350591777</v>
       </c>
       <c r="AB6">
-        <v>12.92871161280953</v>
+        <v>12.88905311674881</v>
       </c>
       <c r="AC6">
-        <v>1.160388178882933</v>
+        <v>1.144250748828609</v>
       </c>
       <c r="AD6">
-        <v>14.36757741625706</v>
+        <v>14.38113600719334</v>
       </c>
       <c r="AE6">
-        <v>0.7668940894444113</v>
+        <v>0.7704027591375384</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1108,94 +1108,94 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>148.4708489394976</v>
+        <v>148.5361898683798</v>
       </c>
       <c r="C7">
-        <v>2.956466935590235</v>
+        <v>2.978465752180231</v>
       </c>
       <c r="D7">
-        <v>72.45217167987649</v>
+        <v>72.54791289522507</v>
       </c>
       <c r="E7">
-        <v>3.848191665073148</v>
+        <v>3.911176875684314</v>
       </c>
       <c r="F7">
-        <v>72.53395130298628</v>
+        <v>72.504586902299</v>
       </c>
       <c r="G7">
-        <v>3.97911906118182</v>
+        <v>3.923457428372334</v>
       </c>
       <c r="H7">
-        <v>21.24487765082804</v>
+        <v>21.26959528727761</v>
       </c>
       <c r="I7">
-        <v>1.574677397036124</v>
+        <v>1.564282270438143</v>
       </c>
       <c r="J7">
-        <v>21.26071357419909</v>
+        <v>21.2209263313711</v>
       </c>
       <c r="K7">
-        <v>1.567770803548217</v>
+        <v>1.567193537428999</v>
       </c>
       <c r="L7">
-        <v>7.084953657508266</v>
+        <v>7.075371294420322</v>
       </c>
       <c r="M7">
-        <v>0.52411418369989</v>
+        <v>0.5222577564337463</v>
       </c>
       <c r="N7">
-        <v>14.16675112088464</v>
+        <v>14.14447426154838</v>
       </c>
       <c r="O7">
-        <v>1.048069694594215</v>
+        <v>1.044064144306996</v>
       </c>
       <c r="P7">
-        <v>7.081500782910213</v>
+        <v>7.083405918089763</v>
       </c>
       <c r="Q7">
-        <v>0.5226999598271583</v>
+        <v>0.522115512357007</v>
       </c>
       <c r="R7">
-        <v>20.77605771552129</v>
+        <v>20.7606341261623</v>
       </c>
       <c r="S7">
-        <v>1.865522605480645</v>
+        <v>1.843690357605812</v>
       </c>
       <c r="T7">
-        <v>14.52746231536711</v>
+        <v>14.50655788355081</v>
       </c>
       <c r="U7">
-        <v>1.297274226147649</v>
+        <v>1.300042633758916</v>
       </c>
       <c r="V7">
-        <v>3.116565309649165</v>
+        <v>3.10984380312989</v>
       </c>
       <c r="W7">
-        <v>0.279853233286273</v>
+        <v>0.2761258218173798</v>
       </c>
       <c r="X7">
-        <v>3.116161665031375</v>
+        <v>3.10535107055723</v>
       </c>
       <c r="Y7">
-        <v>0.2775317844759471</v>
+        <v>0.2767336480803613</v>
       </c>
       <c r="Z7">
-        <v>6.917521936624088</v>
+        <v>6.909736457271886</v>
       </c>
       <c r="AA7">
-        <v>0.6179093153955141</v>
+        <v>0.6194682545328334</v>
       </c>
       <c r="AB7">
-        <v>13.83717994366616</v>
+        <v>13.81760228182456</v>
       </c>
       <c r="AC7">
-        <v>1.239841501147451</v>
+        <v>1.238239358673558</v>
       </c>
       <c r="AD7">
-        <v>15.68539959015743</v>
+        <v>15.67987015367127</v>
       </c>
       <c r="AE7">
-        <v>0.8321390701432493</v>
+        <v>0.822806419547881</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1203,94 +1203,94 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>158.460046993886</v>
+        <v>158.4565452680426</v>
       </c>
       <c r="C8">
-        <v>3.142299293848993</v>
+        <v>3.185639507886048</v>
       </c>
       <c r="D8">
-        <v>77.39460779564386</v>
+        <v>77.41339963805392</v>
       </c>
       <c r="E8">
-        <v>4.166151197451769</v>
+        <v>4.168964110944417</v>
       </c>
       <c r="F8">
-        <v>77.40383404979376</v>
+        <v>77.40019712090218</v>
       </c>
       <c r="G8">
-        <v>4.134629388943222</v>
+        <v>4.209077441921282</v>
       </c>
       <c r="H8">
-        <v>22.67223654349041</v>
+        <v>22.6851984170159</v>
       </c>
       <c r="I8">
-        <v>1.659751136171298</v>
+        <v>1.680420331507931</v>
       </c>
       <c r="J8">
-        <v>22.6703258087736</v>
+        <v>22.6775582358492</v>
       </c>
       <c r="K8">
-        <v>1.66628344732527</v>
+        <v>1.679601827898195</v>
       </c>
       <c r="L8">
-        <v>7.557510061965161</v>
+        <v>7.556144282739812</v>
       </c>
       <c r="M8">
-        <v>0.5615054038936017</v>
+        <v>0.5602305479683866</v>
       </c>
       <c r="N8">
-        <v>15.11190704381207</v>
+        <v>15.10296525576472</v>
       </c>
       <c r="O8">
-        <v>1.099867971597989</v>
+        <v>1.107853666766674</v>
       </c>
       <c r="P8">
-        <v>7.56033873132746</v>
+        <v>7.557974252540692</v>
       </c>
       <c r="Q8">
-        <v>0.554797846625264</v>
+        <v>0.5558879938589949</v>
       </c>
       <c r="R8">
-        <v>22.14855084240229</v>
+        <v>22.15415038519472</v>
       </c>
       <c r="S8">
-        <v>1.957611123295388</v>
+        <v>1.990970637755296</v>
       </c>
       <c r="T8">
-        <v>15.50711981004312</v>
+        <v>15.49511870689725</v>
       </c>
       <c r="U8">
-        <v>1.37374774709448</v>
+        <v>1.389917826054377</v>
       </c>
       <c r="V8">
-        <v>3.32059370275102</v>
+        <v>3.320762085378989</v>
       </c>
       <c r="W8">
-        <v>0.2945722291485207</v>
+        <v>0.2978122330387788</v>
       </c>
       <c r="X8">
-        <v>3.320463757954945</v>
+        <v>3.319201899549025</v>
       </c>
       <c r="Y8">
-        <v>0.291050498292251</v>
+        <v>0.2965215118991571</v>
       </c>
       <c r="Z8">
-        <v>7.378578088984438</v>
+        <v>7.385011792890962</v>
       </c>
       <c r="AA8">
-        <v>0.6584885827569865</v>
+        <v>0.6621757803254616</v>
       </c>
       <c r="AB8">
-        <v>14.75488876861367</v>
+        <v>14.75744973974994</v>
       </c>
       <c r="AC8">
-        <v>1.304278294636847</v>
+        <v>1.311282823401937</v>
       </c>
       <c r="AD8">
-        <v>16.89382656141759</v>
+        <v>16.89152591963836</v>
       </c>
       <c r="AE8">
-        <v>0.8731472353356434</v>
+        <v>0.886821115200026</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1298,94 +1298,94 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>168.3437324573242</v>
+        <v>168.3482340303262</v>
       </c>
       <c r="C9">
-        <v>3.375613350409867</v>
+        <v>3.327577605949852</v>
       </c>
       <c r="D9">
-        <v>82.19021405280267</v>
+        <v>82.20571763798137</v>
       </c>
       <c r="E9">
-        <v>4.416251373305029</v>
+        <v>4.411748002441734</v>
       </c>
       <c r="F9">
-        <v>82.23744097726296</v>
+        <v>82.25907291028582</v>
       </c>
       <c r="G9">
-        <v>4.461889270209437</v>
+        <v>4.448828659173715</v>
       </c>
       <c r="H9">
-        <v>24.08605458488598</v>
+        <v>24.10978921772463</v>
       </c>
       <c r="I9">
-        <v>1.785441670976172</v>
+        <v>1.791654813615785</v>
       </c>
       <c r="J9">
-        <v>24.07325670138046</v>
+        <v>24.0931993104607</v>
       </c>
       <c r="K9">
-        <v>1.771290550820602</v>
+        <v>1.764516643502222</v>
       </c>
       <c r="L9">
-        <v>8.031970436740407</v>
+        <v>8.031220583812495</v>
       </c>
       <c r="M9">
-        <v>0.5898526772831211</v>
+        <v>0.5894660528322406</v>
       </c>
       <c r="N9">
-        <v>16.07308279384959</v>
+        <v>16.0598723656286</v>
       </c>
       <c r="O9">
-        <v>1.198197186407179</v>
+        <v>1.184814285259381</v>
       </c>
       <c r="P9">
-        <v>8.021418097697953</v>
+        <v>8.028261084391561</v>
       </c>
       <c r="Q9">
-        <v>0.5936788327148197</v>
+        <v>0.5950537775591163</v>
       </c>
       <c r="R9">
-        <v>23.51088282147329</v>
+        <v>23.53737680106635</v>
       </c>
       <c r="S9">
-        <v>2.093613180231642</v>
+        <v>2.10892275027274</v>
       </c>
       <c r="T9">
-        <v>16.45413693811313</v>
+        <v>16.47411647913866</v>
       </c>
       <c r="U9">
-        <v>1.461143258535899</v>
+        <v>1.468061617921919</v>
       </c>
       <c r="V9">
-        <v>3.525335823064205</v>
+        <v>3.529779426486437</v>
       </c>
       <c r="W9">
-        <v>0.312828353490732</v>
+        <v>0.3133975778506026</v>
       </c>
       <c r="X9">
-        <v>3.524990121757857</v>
+        <v>3.528578240462799</v>
       </c>
       <c r="Y9">
-        <v>0.3156261742462971</v>
+        <v>0.3127141186631153</v>
       </c>
       <c r="Z9">
-        <v>7.846726313381414</v>
+        <v>7.837782501823417</v>
       </c>
       <c r="AA9">
-        <v>0.6967218090056236</v>
+        <v>0.6963484852392845</v>
       </c>
       <c r="AB9">
-        <v>15.69294335409591</v>
+        <v>15.68911801467327</v>
       </c>
       <c r="AC9">
-        <v>1.412948756405374</v>
+        <v>1.409380605786859</v>
       </c>
       <c r="AD9">
-        <v>18.10485377381644</v>
+        <v>18.10181103982322</v>
       </c>
       <c r="AE9">
-        <v>0.9396944995293407</v>
+        <v>0.9386505475280696</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1393,94 +1393,94 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>178.2967003381152</v>
+        <v>178.2472960619915</v>
       </c>
       <c r="C10">
-        <v>3.568311373094654</v>
+        <v>3.556327877093523</v>
       </c>
       <c r="D10">
-        <v>87.02362596674615</v>
+        <v>87.08101676693204</v>
       </c>
       <c r="E10">
-        <v>4.715106596660975</v>
+        <v>4.713632272809218</v>
       </c>
       <c r="F10">
-        <v>86.9768417832809</v>
+        <v>87.02317200430439</v>
       </c>
       <c r="G10">
-        <v>4.748672080523918</v>
+        <v>4.71082208242144</v>
       </c>
       <c r="H10">
-        <v>25.47664675160683</v>
+        <v>25.5169170633752</v>
       </c>
       <c r="I10">
-        <v>1.893155843686842</v>
+        <v>1.890208977048812</v>
       </c>
       <c r="J10">
-        <v>25.48196977078776</v>
+        <v>25.48799527052557</v>
       </c>
       <c r="K10">
-        <v>1.878785106896055</v>
+        <v>1.886313602387647</v>
       </c>
       <c r="L10">
-        <v>8.496901516246252</v>
+        <v>8.491508047441782</v>
       </c>
       <c r="M10">
-        <v>0.629467750467459</v>
+        <v>0.6200481903699806</v>
       </c>
       <c r="N10">
-        <v>16.97478415279755</v>
+        <v>16.99273967113618</v>
       </c>
       <c r="O10">
-        <v>1.25685563218266</v>
+        <v>1.261106274255097</v>
       </c>
       <c r="P10">
-        <v>8.49199803222152</v>
+        <v>8.497064681780641</v>
       </c>
       <c r="Q10">
-        <v>0.6266989631625322</v>
+        <v>0.6267417955987915</v>
       </c>
       <c r="R10">
-        <v>24.87894189106736</v>
+        <v>24.89790432009851</v>
       </c>
       <c r="S10">
-        <v>2.225248345578788</v>
+        <v>2.228757989282846</v>
       </c>
       <c r="T10">
-        <v>17.41803787600583</v>
+        <v>17.41254011764142</v>
       </c>
       <c r="U10">
-        <v>1.557294214438604</v>
+        <v>1.564391596893882</v>
       </c>
       <c r="V10">
-        <v>3.732281770369353</v>
+        <v>3.735999053864173</v>
       </c>
       <c r="W10">
-        <v>0.3332068222561748</v>
+        <v>0.332636881035699</v>
       </c>
       <c r="X10">
-        <v>3.731894837144636</v>
+        <v>3.733098564201173</v>
       </c>
       <c r="Y10">
-        <v>0.3331565156614153</v>
+        <v>0.3343501583552226</v>
       </c>
       <c r="Z10">
-        <v>8.304698862110893</v>
+        <v>8.288394565098496</v>
       </c>
       <c r="AA10">
-        <v>0.7362070853982738</v>
+        <v>0.7334586317975391</v>
       </c>
       <c r="AB10">
-        <v>16.57970042977422</v>
+        <v>16.6076708487733</v>
       </c>
       <c r="AC10">
-        <v>1.475876074924237</v>
+        <v>1.491118840631368</v>
       </c>
       <c r="AD10">
-        <v>19.27987363263443</v>
+        <v>19.28225076913401</v>
       </c>
       <c r="AE10">
-        <v>1.00125338517594</v>
+        <v>1.00427391450748</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1488,94 +1488,94 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>188.1726150951758</v>
+        <v>188.1155999953319</v>
       </c>
       <c r="C11">
-        <v>3.738283383694991</v>
+        <v>3.772517575317133</v>
       </c>
       <c r="D11">
-        <v>91.82742370100736</v>
+        <v>91.81678574886465</v>
       </c>
       <c r="E11">
-        <v>4.945093818722723</v>
+        <v>4.909002757551112</v>
       </c>
       <c r="F11">
-        <v>91.89635355822566</v>
+        <v>91.79291211010747</v>
       </c>
       <c r="G11">
-        <v>4.962486782171708</v>
+        <v>4.988284115712938</v>
       </c>
       <c r="H11">
-        <v>26.92433731941402</v>
+        <v>26.88464749594245</v>
       </c>
       <c r="I11">
-        <v>1.990944703528245</v>
+        <v>2.000432554455013</v>
       </c>
       <c r="J11">
-        <v>26.90578149396443</v>
+        <v>26.90573752791679</v>
       </c>
       <c r="K11">
-        <v>1.967892158072238</v>
+        <v>1.979582680910505</v>
       </c>
       <c r="L11">
-        <v>8.96808287129379</v>
+        <v>8.958934724981498</v>
       </c>
       <c r="M11">
-        <v>0.6640056040380085</v>
+        <v>0.6653939180869596</v>
       </c>
       <c r="N11">
-        <v>17.9455728089445</v>
+        <v>17.93168820447899</v>
       </c>
       <c r="O11">
-        <v>1.311666765304371</v>
+        <v>1.324398913504627</v>
       </c>
       <c r="P11">
-        <v>8.969598281502522</v>
+        <v>8.959209835422831</v>
       </c>
       <c r="Q11">
-        <v>0.6620079153005801</v>
+        <v>0.6707538173723383</v>
       </c>
       <c r="R11">
-        <v>26.31068473764036</v>
+        <v>26.25169509087472</v>
       </c>
       <c r="S11">
-        <v>2.350778985465809</v>
+        <v>2.376197663597813</v>
       </c>
       <c r="T11">
-        <v>18.39976066717295</v>
+        <v>18.39963144613661</v>
       </c>
       <c r="U11">
-        <v>1.627611879305793</v>
+        <v>1.641063361222688</v>
       </c>
       <c r="V11">
-        <v>3.936699695907588</v>
+        <v>3.942638262893669</v>
       </c>
       <c r="W11">
-        <v>0.3476834794543724</v>
+        <v>0.3485045278154248</v>
       </c>
       <c r="X11">
-        <v>3.938433668827537</v>
+        <v>3.940037365060597</v>
       </c>
       <c r="Y11">
-        <v>0.3496745619501558</v>
+        <v>0.3507194306429454</v>
       </c>
       <c r="Z11">
-        <v>8.761354186030346</v>
+        <v>8.754425483903189</v>
       </c>
       <c r="AA11">
-        <v>0.7805949653490433</v>
+        <v>0.7899061932569763</v>
       </c>
       <c r="AB11">
-        <v>17.52301502793172</v>
+        <v>17.5231602615418</v>
       </c>
       <c r="AC11">
-        <v>1.541450168282289</v>
+        <v>1.574327615456778</v>
       </c>
       <c r="AD11">
-        <v>20.47090667448276</v>
+        <v>20.46613786944561</v>
       </c>
       <c r="AE11">
-        <v>1.05593054966413</v>
+        <v>1.059502179358817</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1583,94 +1583,94 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>198.0302282717739</v>
+        <v>197.9947000471145</v>
       </c>
       <c r="C12">
-        <v>3.936692512124853</v>
+        <v>3.981790027814771</v>
       </c>
       <c r="D12">
-        <v>96.6949313900256</v>
+        <v>96.68008688635975</v>
       </c>
       <c r="E12">
-        <v>5.197108517895835</v>
+        <v>5.229742470484153</v>
       </c>
       <c r="F12">
-        <v>96.66804769445201</v>
+        <v>96.69029196139304</v>
       </c>
       <c r="G12">
-        <v>5.26237193507025</v>
+        <v>5.194422324158649</v>
       </c>
       <c r="H12">
-        <v>28.306284080015</v>
+        <v>28.30418192906441</v>
       </c>
       <c r="I12">
-        <v>2.086816627090498</v>
+        <v>2.066368731417536</v>
       </c>
       <c r="J12">
-        <v>28.31020223906417</v>
+        <v>28.32099689923555</v>
       </c>
       <c r="K12">
-        <v>2.106788028077047</v>
+        <v>2.070846432862653</v>
       </c>
       <c r="L12">
-        <v>9.441554034383714</v>
+        <v>9.440056972985193</v>
       </c>
       <c r="M12">
-        <v>0.6887678753671468</v>
+        <v>0.6831037221999562</v>
       </c>
       <c r="N12">
-        <v>18.86582965756108</v>
+        <v>18.88537311951748</v>
       </c>
       <c r="O12">
-        <v>1.392772325420639</v>
+        <v>1.385127432438636</v>
       </c>
       <c r="P12">
-        <v>9.448880228871953</v>
+        <v>9.443746285720863</v>
       </c>
       <c r="Q12">
-        <v>0.6965795432840985</v>
+        <v>0.6884525932045679</v>
       </c>
       <c r="R12">
-        <v>27.66209696276888</v>
+        <v>27.64776645068311</v>
       </c>
       <c r="S12">
-        <v>2.450082073509878</v>
+        <v>2.454219573388009</v>
       </c>
       <c r="T12">
-        <v>19.34960905044514</v>
+        <v>19.36611036473208</v>
       </c>
       <c r="U12">
-        <v>1.740296984190082</v>
+        <v>1.71982990186299</v>
       </c>
       <c r="V12">
-        <v>4.14724176912309</v>
+        <v>4.15301677825274</v>
       </c>
       <c r="W12">
-        <v>0.3743781837830453</v>
+        <v>0.369208907748986</v>
       </c>
       <c r="X12">
-        <v>4.143516761499288</v>
+        <v>4.146839622590519</v>
       </c>
       <c r="Y12">
-        <v>0.372321821903223</v>
+        <v>0.3659342641600253</v>
       </c>
       <c r="Z12">
-        <v>9.222109830623202</v>
+        <v>9.219644123547274</v>
       </c>
       <c r="AA12">
-        <v>0.8199768026692421</v>
+        <v>0.8094046841400769</v>
       </c>
       <c r="AB12">
-        <v>18.44797455966569</v>
+        <v>18.44161857518775</v>
       </c>
       <c r="AC12">
-        <v>1.647739560256907</v>
+        <v>1.626775900485506</v>
       </c>
       <c r="AD12">
-        <v>21.64644239472304</v>
+        <v>21.66068891582504</v>
       </c>
       <c r="AE12">
-        <v>1.111514595746957</v>
+        <v>1.120610282058433</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1678,94 +1678,94 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>9.902736023528936</v>
+        <v>9.902960639022565</v>
       </c>
       <c r="C13">
-        <v>0.2005511128564727</v>
+        <v>0.1979261122851819</v>
       </c>
       <c r="D13">
-        <v>4.835993114270591</v>
+        <v>4.83810586567293</v>
       </c>
       <c r="E13">
-        <v>0.258835412113094</v>
+        <v>0.2588158878375704</v>
       </c>
       <c r="F13">
-        <v>4.831957341578622</v>
+        <v>4.8345512959843</v>
       </c>
       <c r="G13">
-        <v>0.2623498911008284</v>
+        <v>0.2620196009177443</v>
       </c>
       <c r="H13">
-        <v>1.4163522687115</v>
+        <v>1.415450831884113</v>
       </c>
       <c r="I13">
-        <v>0.1034728732476937</v>
+        <v>0.1047822493619624</v>
       </c>
       <c r="J13">
-        <v>1.416267618163084</v>
+        <v>1.417062504909907</v>
       </c>
       <c r="K13">
-        <v>0.1045033717699735</v>
+        <v>0.1033332229424574</v>
       </c>
       <c r="L13">
-        <v>0.4721093566320346</v>
+        <v>0.4721607104493808</v>
       </c>
       <c r="M13">
-        <v>0.03521667562192062</v>
+        <v>0.03512531452950243</v>
       </c>
       <c r="N13">
-        <v>0.9435605814952999</v>
+        <v>0.9442117402404386</v>
       </c>
       <c r="O13">
-        <v>0.06974590751280828</v>
+        <v>0.06988189145743831</v>
       </c>
       <c r="P13">
-        <v>0.4717979333828484</v>
+        <v>0.472267210606596</v>
       </c>
       <c r="Q13">
-        <v>0.03466771802097997</v>
+        <v>0.03436208796780761</v>
       </c>
       <c r="R13">
-        <v>1.38225783008505</v>
+        <v>1.382169324623497</v>
       </c>
       <c r="S13">
-        <v>0.1212530559854615</v>
+        <v>0.1234698191236131</v>
       </c>
       <c r="T13">
-        <v>0.9685005468530063</v>
+        <v>0.9689090011950157</v>
       </c>
       <c r="U13">
-        <v>0.08727988715113562</v>
+        <v>0.08614880621505068</v>
       </c>
       <c r="V13">
-        <v>0.2075476100441491</v>
+        <v>0.2074449921922222</v>
       </c>
       <c r="W13">
-        <v>0.01829895192001342</v>
+        <v>0.01833995325130066</v>
       </c>
       <c r="X13">
-        <v>0.2075731916709216</v>
+        <v>0.2075782587359468</v>
       </c>
       <c r="Y13">
-        <v>0.01855159588099257</v>
+        <v>0.0185395416960379</v>
       </c>
       <c r="Z13">
-        <v>0.4613117227388185</v>
+        <v>0.4610095630193782</v>
       </c>
       <c r="AA13">
-        <v>0.04130930207754476</v>
+        <v>0.04137035725184584</v>
       </c>
       <c r="AB13">
-        <v>0.9213170035725067</v>
+        <v>0.9217598344096899</v>
       </c>
       <c r="AC13">
-        <v>0.08202192355228795</v>
+        <v>0.08167676012345194</v>
       </c>
       <c r="AD13">
-        <v>22.82274140679326</v>
+        <v>22.83991268007198</v>
       </c>
       <c r="AE13">
-        <v>1.175958824979941</v>
+        <v>1.180034508650536</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1773,94 +1773,94 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>217.7567623265617</v>
+        <v>217.8248438395867</v>
       </c>
       <c r="C14">
-        <v>4.326732243329062</v>
+        <v>4.343174373488518</v>
       </c>
       <c r="D14">
-        <v>106.4159348669199</v>
+        <v>106.3374847829908</v>
       </c>
       <c r="E14">
-        <v>5.71451845287321</v>
+        <v>5.77016933670366</v>
       </c>
       <c r="F14">
-        <v>106.2671081281967</v>
+        <v>106.3661529388731</v>
       </c>
       <c r="G14">
-        <v>5.671785101111615</v>
+        <v>5.705867230833414</v>
       </c>
       <c r="H14">
-        <v>31.14977140873142</v>
+        <v>31.1518743359954</v>
       </c>
       <c r="I14">
-        <v>2.288089761617529</v>
+        <v>2.26233200890092</v>
       </c>
       <c r="J14">
-        <v>31.13843263744323</v>
+        <v>31.17137349825174</v>
       </c>
       <c r="K14">
-        <v>2.288274378806158</v>
+        <v>2.308004939441215</v>
       </c>
       <c r="L14">
-        <v>10.38176970636616</v>
+        <v>10.38145718462237</v>
       </c>
       <c r="M14">
-        <v>0.7505649964623665</v>
+        <v>0.7644349169809319</v>
       </c>
       <c r="N14">
-        <v>20.75125712971621</v>
+        <v>20.76033902748378</v>
       </c>
       <c r="O14">
-        <v>1.510820581636886</v>
+        <v>1.522549673058447</v>
       </c>
       <c r="P14">
-        <v>10.37313199333906</v>
+        <v>10.38750205442672</v>
       </c>
       <c r="Q14">
-        <v>0.7651025423473388</v>
+        <v>0.7686649654675463</v>
       </c>
       <c r="R14">
-        <v>30.42144634568507</v>
+        <v>30.41474993609573</v>
       </c>
       <c r="S14">
-        <v>2.69885718237459</v>
+        <v>2.695734179031231</v>
       </c>
       <c r="T14">
-        <v>21.27529414528544</v>
+        <v>21.31108553839854</v>
       </c>
       <c r="U14">
-        <v>1.909477836314123</v>
+        <v>1.911253267613295</v>
       </c>
       <c r="V14">
-        <v>4.560094813677561</v>
+        <v>4.570253997031362</v>
       </c>
       <c r="W14">
-        <v>0.4079993064960829</v>
+        <v>0.4074972430122017</v>
       </c>
       <c r="X14">
-        <v>4.564976031248431</v>
+        <v>4.564987473349818</v>
       </c>
       <c r="Y14">
-        <v>0.4041596130982846</v>
+        <v>0.4094268765773978</v>
       </c>
       <c r="Z14">
-        <v>10.13820701769114</v>
+        <v>10.13365451970733</v>
       </c>
       <c r="AA14">
-        <v>0.8974129577820459</v>
+        <v>0.9011492852083686</v>
       </c>
       <c r="AB14">
-        <v>20.27827349287663</v>
+        <v>20.27670772222959</v>
       </c>
       <c r="AC14">
-        <v>1.805921725973056</v>
+        <v>1.800354086962812</v>
       </c>
       <c r="AD14">
-        <v>9.057402525857722</v>
+        <v>9.061324067532111</v>
       </c>
       <c r="AE14">
-        <v>0.5500440512774423</v>
+        <v>0.5558588096955733</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1868,94 +1868,94 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>227.7753096090562</v>
+        <v>227.7093719210027</v>
       </c>
       <c r="C15">
-        <v>4.562190687423374</v>
+        <v>4.54092057517567</v>
       </c>
       <c r="D15">
-        <v>111.2155353912237</v>
+        <v>111.2485265013833</v>
       </c>
       <c r="E15">
-        <v>5.943043428397161</v>
+        <v>6.01003246489033</v>
       </c>
       <c r="F15">
-        <v>111.3159224747853</v>
+        <v>111.1052701777036</v>
       </c>
       <c r="G15">
-        <v>5.952703972196888</v>
+        <v>5.980803362361518</v>
       </c>
       <c r="H15">
-        <v>32.61289439646618</v>
+        <v>32.57003669806167</v>
       </c>
       <c r="I15">
-        <v>2.403926112498364</v>
+        <v>2.408113787116746</v>
       </c>
       <c r="J15">
-        <v>32.59385691262197</v>
+        <v>32.53791403316828</v>
       </c>
       <c r="K15">
-        <v>2.38346752523079</v>
+        <v>2.399573207211885</v>
       </c>
       <c r="L15">
-        <v>10.87480504145295</v>
+        <v>10.85788495626892</v>
       </c>
       <c r="M15">
-        <v>0.79416791747418</v>
+        <v>0.8102838967450977</v>
       </c>
       <c r="N15">
-        <v>21.75587182406663</v>
+        <v>21.6960086648655</v>
       </c>
       <c r="O15">
-        <v>1.606149831229319</v>
+        <v>1.604188181949994</v>
       </c>
       <c r="P15">
-        <v>10.87403578163322</v>
+        <v>10.84750427027988</v>
       </c>
       <c r="Q15">
-        <v>0.7976826498604968</v>
+        <v>0.8080486338493024</v>
       </c>
       <c r="R15">
-        <v>31.85378332864682</v>
+        <v>31.78871185429896</v>
       </c>
       <c r="S15">
-        <v>2.845477126397528</v>
+        <v>2.829615278909516</v>
       </c>
       <c r="T15">
-        <v>22.30017609372073</v>
+        <v>22.26516869329071</v>
       </c>
       <c r="U15">
-        <v>1.966459632254786</v>
+        <v>1.998894916886837</v>
       </c>
       <c r="V15">
-        <v>4.777238653825912</v>
+        <v>4.768222869610927</v>
       </c>
       <c r="W15">
-        <v>0.4265068263444234</v>
+        <v>0.4218946308585039</v>
       </c>
       <c r="X15">
-        <v>4.778575331540126</v>
+        <v>4.765045902677399</v>
       </c>
       <c r="Y15">
-        <v>0.4226380658785009</v>
+        <v>0.4271382501754989</v>
       </c>
       <c r="Z15">
-        <v>10.62605599275324</v>
+        <v>10.60102915887427</v>
       </c>
       <c r="AA15">
-        <v>0.9421111609082329</v>
+        <v>0.9508378031858041</v>
       </c>
       <c r="AB15">
-        <v>21.24680424678488</v>
+        <v>21.19168846030251</v>
       </c>
       <c r="AC15">
-        <v>1.908158304562095</v>
+        <v>1.890421720522398</v>
       </c>
       <c r="AD15">
-        <v>19.86078052015511</v>
+        <v>19.91035628382558</v>
       </c>
       <c r="AE15">
-        <v>1.242142088850229</v>
+        <v>1.225851922382966</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1963,94 +1963,94 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>237.719334538985</v>
+        <v>237.7020611657495</v>
       </c>
       <c r="C16">
-        <v>4.800724531249832</v>
+        <v>4.780433675715615</v>
       </c>
       <c r="D16">
-        <v>116.0267111379204</v>
+        <v>116.1229919658394</v>
       </c>
       <c r="E16">
-        <v>6.268379020746212</v>
+        <v>6.299144006551479</v>
       </c>
       <c r="F16">
-        <v>116.1101869119599</v>
+        <v>116.0103209990409</v>
       </c>
       <c r="G16">
-        <v>6.234968430461651</v>
+        <v>6.278814982632316</v>
       </c>
       <c r="H16">
-        <v>34.04318993346177</v>
+        <v>33.96701907577206</v>
       </c>
       <c r="I16">
-        <v>2.52744247811909</v>
+        <v>2.513385358003063</v>
       </c>
       <c r="J16">
-        <v>34.03042539277132</v>
+        <v>33.99299594451476</v>
       </c>
       <c r="K16">
-        <v>2.488467483419341</v>
+        <v>2.509433042148391</v>
       </c>
       <c r="L16">
-        <v>11.3440330298462</v>
+        <v>11.33663758256376</v>
       </c>
       <c r="M16">
-        <v>0.8294316030656465</v>
+        <v>0.8419764737767005</v>
       </c>
       <c r="N16">
-        <v>22.67281716439738</v>
+        <v>22.63636344327794</v>
       </c>
       <c r="O16">
-        <v>1.669633598841396</v>
+        <v>1.676066343040253</v>
       </c>
       <c r="P16">
-        <v>11.34782248686933</v>
+        <v>11.3334165163802</v>
       </c>
       <c r="Q16">
-        <v>0.8313770932930948</v>
+        <v>0.8330764519393419</v>
       </c>
       <c r="R16">
-        <v>33.24446562924185</v>
+        <v>33.15789700143866</v>
       </c>
       <c r="S16">
-        <v>3.011914645442059</v>
+        <v>2.980380119254297</v>
       </c>
       <c r="T16">
-        <v>23.25147854075621</v>
+        <v>23.25007083224095</v>
       </c>
       <c r="U16">
-        <v>2.039106905636225</v>
+        <v>2.073865983873945</v>
       </c>
       <c r="V16">
-        <v>4.984383767686844</v>
+        <v>4.9784142966949</v>
       </c>
       <c r="W16">
-        <v>0.4399221329269552</v>
+        <v>0.4406270839531907</v>
       </c>
       <c r="X16">
-        <v>4.985373261317422</v>
+        <v>4.978236522789291</v>
       </c>
       <c r="Y16">
-        <v>0.4405897145684221</v>
+        <v>0.4433475824982326</v>
       </c>
       <c r="Z16">
-        <v>11.08520765263001</v>
+        <v>11.0720428478269</v>
       </c>
       <c r="AA16">
-        <v>0.9792285258242825</v>
+        <v>0.9880591926872436</v>
       </c>
       <c r="AB16">
-        <v>22.11812600688947</v>
+        <v>22.11399770962794</v>
       </c>
       <c r="AC16">
-        <v>1.969450189773645</v>
+        <v>1.967445694336451</v>
       </c>
       <c r="AD16">
-        <v>24.31647533044894</v>
+        <v>24.34645258608608</v>
       </c>
       <c r="AE16">
-        <v>1.350097831886544</v>
+        <v>1.358385253627933</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2058,94 +2058,94 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>247.4915449285048</v>
+        <v>247.5354353256819</v>
       </c>
       <c r="C17">
-        <v>4.979655555168701</v>
+        <v>4.945474776409105</v>
       </c>
       <c r="D17">
-        <v>120.7691867005907</v>
+        <v>120.8593223268196</v>
       </c>
       <c r="E17">
-        <v>6.509972310540949</v>
+        <v>6.478938658038619</v>
       </c>
       <c r="F17">
-        <v>120.8415682762943</v>
+        <v>120.8888796793962</v>
       </c>
       <c r="G17">
-        <v>6.515055030480309</v>
+        <v>6.519434070889236</v>
       </c>
       <c r="H17">
-        <v>35.39785007941853</v>
+        <v>35.41837081810993</v>
       </c>
       <c r="I17">
-        <v>2.601553490379135</v>
+        <v>2.613600477855737</v>
       </c>
       <c r="J17">
-        <v>35.40217901226359</v>
+        <v>35.42311868455245</v>
       </c>
       <c r="K17">
-        <v>2.621947225556277</v>
+        <v>2.620856262248568</v>
       </c>
       <c r="L17">
-        <v>11.79924833906473</v>
+        <v>11.80057337382603</v>
       </c>
       <c r="M17">
-        <v>0.8681402523888333</v>
+        <v>0.8718171942264316</v>
       </c>
       <c r="N17">
-        <v>23.62171860878243</v>
+        <v>23.61763383251639</v>
       </c>
       <c r="O17">
-        <v>1.731745230556599</v>
+        <v>1.76698754534633</v>
       </c>
       <c r="P17">
-        <v>11.80654501894782</v>
+        <v>11.80253517301156</v>
       </c>
       <c r="Q17">
-        <v>0.873291481515027</v>
+        <v>0.8606311838217626</v>
       </c>
       <c r="R17">
-        <v>34.5637395851025</v>
+        <v>34.59643055973579</v>
       </c>
       <c r="S17">
-        <v>3.072933823278256</v>
+        <v>3.106416997162027</v>
       </c>
       <c r="T17">
-        <v>24.18621555400081</v>
+        <v>24.20264900636289</v>
       </c>
       <c r="U17">
-        <v>2.174287543746255</v>
+        <v>2.166539453236782</v>
       </c>
       <c r="V17">
-        <v>5.191110770415726</v>
+        <v>5.18822938618197</v>
       </c>
       <c r="W17">
-        <v>0.4655645275348249</v>
+        <v>0.4611214406063223</v>
       </c>
       <c r="X17">
-        <v>5.187491800360441</v>
+        <v>5.192164272687851</v>
       </c>
       <c r="Y17">
-        <v>0.4620606854286005</v>
+        <v>0.4690805752583814</v>
       </c>
       <c r="Z17">
-        <v>11.52304626566845</v>
+        <v>11.52899132618732</v>
       </c>
       <c r="AA17">
-        <v>1.03053221986555</v>
+        <v>1.028048251169733</v>
       </c>
       <c r="AB17">
-        <v>23.0606563318789</v>
+        <v>23.05559985881446</v>
       </c>
       <c r="AC17">
-        <v>2.043416352846474</v>
+        <v>2.075800055534015</v>
       </c>
       <c r="AD17">
-        <v>26.75226260303912</v>
+        <v>26.75737160408867</v>
       </c>
       <c r="AE17">
-        <v>1.441664904685503</v>
+        <v>1.424508694812376</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2153,94 +2153,94 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>257.4756083500435</v>
+        <v>257.445777846253</v>
       </c>
       <c r="C18">
-        <v>5.16376137327759</v>
+        <v>5.135706997339295</v>
       </c>
       <c r="D18">
-        <v>125.7652976902273</v>
+        <v>125.6904995696536</v>
       </c>
       <c r="E18">
-        <v>6.806073968604465</v>
+        <v>6.707407886670924</v>
       </c>
       <c r="F18">
-        <v>125.7031069637443</v>
+        <v>125.6225668372127</v>
       </c>
       <c r="G18">
-        <v>6.83490423868376</v>
+        <v>6.749829123043842</v>
       </c>
       <c r="H18">
-        <v>36.82334668764235</v>
+        <v>36.81912441776173</v>
       </c>
       <c r="I18">
-        <v>2.740595854079529</v>
+        <v>2.704552545024573</v>
       </c>
       <c r="J18">
-        <v>36.82497953726136</v>
+        <v>36.79921897330865</v>
       </c>
       <c r="K18">
-        <v>2.723026234321379</v>
+        <v>2.734520130422224</v>
       </c>
       <c r="L18">
-        <v>12.27850425111093</v>
+        <v>12.26314382848634</v>
       </c>
       <c r="M18">
-        <v>0.9092572677804172</v>
+        <v>0.901018469133716</v>
       </c>
       <c r="N18">
-        <v>24.53256048496788</v>
+        <v>24.53823515859994</v>
       </c>
       <c r="O18">
-        <v>1.782701272526116</v>
+        <v>1.812425557491989</v>
       </c>
       <c r="P18">
-        <v>12.26644240960642</v>
+        <v>12.27263409576381</v>
       </c>
       <c r="Q18">
-        <v>0.9061044196838839</v>
+        <v>0.9014234523572127</v>
       </c>
       <c r="R18">
-        <v>36.02218139147575</v>
+        <v>35.94278527569432</v>
       </c>
       <c r="S18">
-        <v>3.23299938887521</v>
+        <v>3.206278657325562</v>
       </c>
       <c r="T18">
-        <v>25.1797773223319</v>
+        <v>25.15050974603862</v>
       </c>
       <c r="U18">
-        <v>2.254480706514536</v>
+        <v>2.252668645272017</v>
       </c>
       <c r="V18">
-        <v>5.390992184659624</v>
+        <v>5.397200793152857</v>
       </c>
       <c r="W18">
-        <v>0.478404745313348</v>
+        <v>0.4794524863512093</v>
       </c>
       <c r="X18">
-        <v>5.395408483330939</v>
+        <v>5.389577389026684</v>
       </c>
       <c r="Y18">
-        <v>0.485089563652728</v>
+        <v>0.482473688170846</v>
       </c>
       <c r="Z18">
-        <v>11.98426814111133</v>
+        <v>11.98342081276204</v>
       </c>
       <c r="AA18">
-        <v>1.073563602794131</v>
+        <v>1.062653829679867</v>
       </c>
       <c r="AB18">
-        <v>23.96599248889947</v>
+        <v>23.95460239602064</v>
       </c>
       <c r="AC18">
-        <v>2.133240259641833</v>
+        <v>2.15574097602077</v>
       </c>
       <c r="AD18">
-        <v>28.38886862717034</v>
+        <v>28.40886922966072</v>
       </c>
       <c r="AE18">
-        <v>1.476515622491376</v>
+        <v>1.47764384992442</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2248,94 +2248,94 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>267.4730889162932</v>
+        <v>267.4125432876633</v>
       </c>
       <c r="C19">
-        <v>5.391263816859483</v>
+        <v>5.368889595279572</v>
       </c>
       <c r="D19">
-        <v>130.5389276325034</v>
+        <v>130.5424744840763</v>
       </c>
       <c r="E19">
-        <v>7.044100640606857</v>
+        <v>7.11042033235056</v>
       </c>
       <c r="F19">
-        <v>130.6569276274942</v>
+        <v>130.623726688961</v>
       </c>
       <c r="G19">
-        <v>6.984005711505826</v>
+        <v>7.103971108109191</v>
       </c>
       <c r="H19">
-        <v>38.25580679666599</v>
+        <v>38.28188343608973</v>
       </c>
       <c r="I19">
-        <v>2.810858558569691</v>
+        <v>2.844061726132921</v>
       </c>
       <c r="J19">
-        <v>38.25120699973174</v>
+        <v>38.26929753690952</v>
       </c>
       <c r="K19">
-        <v>2.808342959298381</v>
+        <v>2.828405116478707</v>
       </c>
       <c r="L19">
-        <v>12.76331212128677</v>
+        <v>12.75764186738444</v>
       </c>
       <c r="M19">
-        <v>0.9376467032072844</v>
+        <v>0.94381876653574</v>
       </c>
       <c r="N19">
-        <v>25.52288644475189</v>
+        <v>25.49362206991096</v>
       </c>
       <c r="O19">
-        <v>1.873127582213341</v>
+        <v>1.886137209852526</v>
       </c>
       <c r="P19">
-        <v>12.75391646682065</v>
+        <v>12.75485597763648</v>
       </c>
       <c r="Q19">
-        <v>0.9333898530407687</v>
+        <v>0.9441879937171787</v>
       </c>
       <c r="R19">
-        <v>37.37502221639155</v>
+        <v>37.35699575581732</v>
       </c>
       <c r="S19">
-        <v>3.313665402348723</v>
+        <v>3.333650375912531</v>
       </c>
       <c r="T19">
-        <v>26.14056105232889</v>
+        <v>26.1604669955702</v>
       </c>
       <c r="U19">
-        <v>2.318789182045723</v>
+        <v>2.328944480053432</v>
       </c>
       <c r="V19">
-        <v>5.600172398792517</v>
+        <v>5.606338898249052</v>
       </c>
       <c r="W19">
-        <v>0.4982525198480747</v>
+        <v>0.4980777726014124</v>
       </c>
       <c r="X19">
-        <v>5.599637717992788</v>
+        <v>5.599962256388378</v>
       </c>
       <c r="Y19">
-        <v>0.5002805714626863</v>
+        <v>0.5026466095538562</v>
       </c>
       <c r="Z19">
-        <v>12.45017095112531</v>
+        <v>12.46591234326214</v>
       </c>
       <c r="AA19">
-        <v>1.112373562619349</v>
+        <v>1.118633763610547</v>
       </c>
       <c r="AB19">
-        <v>24.92758690176476</v>
+        <v>24.89763676638612</v>
       </c>
       <c r="AC19">
-        <v>2.222535195768732</v>
+        <v>2.216521006352921</v>
       </c>
       <c r="AD19">
-        <v>29.75719829261444</v>
+        <v>29.79241776375402</v>
       </c>
       <c r="AE19">
-        <v>1.53584416912703</v>
+        <v>1.555721410594134</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2343,94 +2343,94 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>277.1987530160149</v>
+        <v>277.3974955836596</v>
       </c>
       <c r="C20">
-        <v>5.565095161472279</v>
+        <v>5.622293502844957</v>
       </c>
       <c r="D20">
-        <v>135.5463330641531</v>
+        <v>135.3714817279878</v>
       </c>
       <c r="E20">
-        <v>7.320897188380134</v>
+        <v>7.234468845813722</v>
       </c>
       <c r="F20">
-        <v>135.2946755998369</v>
+        <v>135.3733861013249</v>
       </c>
       <c r="G20">
-        <v>7.094329711947282</v>
+        <v>7.28654609074852</v>
       </c>
       <c r="H20">
-        <v>39.68365718941333</v>
+        <v>39.6780437563019</v>
       </c>
       <c r="I20">
-        <v>2.896413872192587</v>
+        <v>2.916644540655799</v>
       </c>
       <c r="J20">
-        <v>39.65764666880025</v>
+        <v>39.64169060525018</v>
       </c>
       <c r="K20">
-        <v>2.880878281976399</v>
+        <v>2.895543213958683</v>
       </c>
       <c r="L20">
-        <v>13.20726917550136</v>
+        <v>13.21298000544104</v>
       </c>
       <c r="M20">
-        <v>0.9535225171208942</v>
+        <v>0.9749376194583342</v>
       </c>
       <c r="N20">
-        <v>26.41087189229776</v>
+        <v>26.43706537997308</v>
       </c>
       <c r="O20">
-        <v>1.91465649228514</v>
+        <v>1.951645879396057</v>
       </c>
       <c r="P20">
-        <v>13.21554147698111</v>
+        <v>13.21199776196699</v>
       </c>
       <c r="Q20">
-        <v>0.9523338889573709</v>
+        <v>0.9708079614589677</v>
       </c>
       <c r="R20">
-        <v>38.79062140049287</v>
+        <v>38.72833118945355</v>
       </c>
       <c r="S20">
-        <v>3.435465493803023</v>
+        <v>3.44206196387209</v>
       </c>
       <c r="T20">
-        <v>27.14854576507628</v>
+        <v>27.08160329949579</v>
       </c>
       <c r="U20">
-        <v>2.387932488386721</v>
+        <v>2.386521932473268</v>
       </c>
       <c r="V20">
-        <v>5.806573106563602</v>
+        <v>5.812696639494398</v>
       </c>
       <c r="W20">
-        <v>0.5143544646787557</v>
+        <v>0.5164092869681958</v>
       </c>
       <c r="X20">
-        <v>5.808160150916249</v>
+        <v>5.808278096186893</v>
       </c>
       <c r="Y20">
-        <v>0.5150069680467507</v>
+        <v>0.513474893051824</v>
       </c>
       <c r="Z20">
-        <v>12.9100208880818</v>
+        <v>12.89905090683835</v>
       </c>
       <c r="AA20">
-        <v>1.132199020895996</v>
+        <v>1.15568963914161</v>
       </c>
       <c r="AB20">
-        <v>25.80653828155759</v>
+        <v>25.83226956732943</v>
       </c>
       <c r="AC20">
-        <v>2.280936930028316</v>
+        <v>2.315931386661315</v>
       </c>
       <c r="AD20">
-        <v>31.00976891631539</v>
+        <v>31.0163142161555</v>
       </c>
       <c r="AE20">
-        <v>1.596086174975364</v>
+        <v>1.583489740125408</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2438,94 +2438,94 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>287.1018660260295</v>
+        <v>287.2660729683654</v>
       </c>
       <c r="C21">
-        <v>5.761953276304514</v>
+        <v>5.767592911259216</v>
       </c>
       <c r="D21">
-        <v>140.1575095514624</v>
+        <v>140.2766463828138</v>
       </c>
       <c r="E21">
-        <v>7.561474685890563</v>
+        <v>7.572344700436078</v>
       </c>
       <c r="F21">
-        <v>140.1473894756215</v>
+        <v>140.3206402206713</v>
       </c>
       <c r="G21">
-        <v>7.511080593107048</v>
+        <v>7.536827847980826</v>
       </c>
       <c r="H21">
-        <v>41.0789576270988</v>
+        <v>41.14547956102932</v>
       </c>
       <c r="I21">
-        <v>3.023228336735986</v>
+        <v>3.031114820114492</v>
       </c>
       <c r="J21">
-        <v>41.04125713069771</v>
+        <v>41.13133481905876</v>
       </c>
       <c r="K21">
-        <v>3.004179320984612</v>
+        <v>3.041467764093766</v>
       </c>
       <c r="L21">
-        <v>13.68578874251325</v>
+        <v>13.70011885632458</v>
       </c>
       <c r="M21">
-        <v>0.9950008868804413</v>
+        <v>1.007207298283034</v>
       </c>
       <c r="N21">
-        <v>27.37458851762965</v>
+        <v>27.39449962827373</v>
       </c>
       <c r="O21">
-        <v>2.023521682179616</v>
+        <v>2.003177188112781</v>
       </c>
       <c r="P21">
-        <v>13.69373168032801</v>
+        <v>13.69999350292184</v>
       </c>
       <c r="Q21">
-        <v>0.9986511170808561</v>
+        <v>1.013888602847876</v>
       </c>
       <c r="R21">
-        <v>40.11608587421789</v>
+        <v>40.15172310794422</v>
       </c>
       <c r="S21">
-        <v>3.600683192352915</v>
+        <v>3.574606398443506</v>
       </c>
       <c r="T21">
-        <v>28.05170297846733</v>
+        <v>28.09352433027882</v>
       </c>
       <c r="U21">
-        <v>2.495553431210649</v>
+        <v>2.505898316913703</v>
       </c>
       <c r="V21">
-        <v>6.014827964636641</v>
+        <v>6.023760475966148</v>
       </c>
       <c r="W21">
-        <v>0.5374706148559135</v>
+        <v>0.5357652109146456</v>
       </c>
       <c r="X21">
-        <v>6.006379253145941</v>
+        <v>6.025985807456364</v>
       </c>
       <c r="Y21">
-        <v>0.5330533773073145</v>
+        <v>0.537252593324793</v>
       </c>
       <c r="Z21">
-        <v>13.3750406080796</v>
+        <v>13.38094265411751</v>
       </c>
       <c r="AA21">
-        <v>1.186792089219563</v>
+        <v>1.182753360027209</v>
       </c>
       <c r="AB21">
-        <v>26.73795113200704</v>
+        <v>26.75099727773439</v>
       </c>
       <c r="AC21">
-        <v>2.376638180163122</v>
+        <v>2.360875099162171</v>
       </c>
       <c r="AD21">
-        <v>32.17759769671538</v>
+        <v>32.2143380778753</v>
       </c>
       <c r="AE21">
-        <v>1.651427800633843</v>
+        <v>1.671996665787417</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2533,94 +2533,94 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>297.0596716745316</v>
+        <v>297.0195151539415</v>
       </c>
       <c r="C22">
-        <v>5.99785746661623</v>
+        <v>5.976968908102874</v>
       </c>
       <c r="D22">
-        <v>145.0238897124424</v>
+        <v>145.0177893529784</v>
       </c>
       <c r="E22">
-        <v>7.897053594658549</v>
+        <v>7.763338838449971</v>
       </c>
       <c r="F22">
-        <v>145.0701187975446</v>
+        <v>144.9815202628278</v>
       </c>
       <c r="G22">
-        <v>7.823130932544095</v>
+        <v>7.864944746826042</v>
       </c>
       <c r="H22">
-        <v>42.51406662048535</v>
+        <v>42.47789984180972</v>
       </c>
       <c r="I22">
-        <v>3.127174638445518</v>
+        <v>3.148187151204479</v>
       </c>
       <c r="J22">
-        <v>42.49215818880087</v>
+        <v>42.47442978354687</v>
       </c>
       <c r="K22">
-        <v>3.126313299186601</v>
+        <v>3.133680875626782</v>
       </c>
       <c r="L22">
-        <v>14.16667439424641</v>
+        <v>14.15198916467846</v>
       </c>
       <c r="M22">
-        <v>1.048997348703074</v>
+        <v>1.045984749682043</v>
       </c>
       <c r="N22">
-        <v>28.32454405545721</v>
+        <v>28.32172969138511</v>
       </c>
       <c r="O22">
-        <v>2.070150636618302</v>
+        <v>2.076868336765223</v>
       </c>
       <c r="P22">
-        <v>14.16199896408297</v>
+        <v>14.14499552626692</v>
       </c>
       <c r="Q22">
-        <v>1.040390700775728</v>
+        <v>1.04269511797</v>
       </c>
       <c r="R22">
-        <v>41.488059179164</v>
+        <v>41.47052321818499</v>
       </c>
       <c r="S22">
-        <v>3.674340407728097</v>
+        <v>3.721743632419524</v>
       </c>
       <c r="T22">
-        <v>29.06479150228483</v>
+        <v>29.04359682288753</v>
       </c>
       <c r="U22">
-        <v>2.563245729495839</v>
+        <v>2.598237201002517</v>
       </c>
       <c r="V22">
-        <v>6.231977914673823</v>
+        <v>6.217867038401906</v>
       </c>
       <c r="W22">
-        <v>0.5543511029622976</v>
+        <v>0.5513343582317943</v>
       </c>
       <c r="X22">
-        <v>6.221034083735139</v>
+        <v>6.226996210185412</v>
       </c>
       <c r="Y22">
-        <v>0.5530842800836362</v>
+        <v>0.5542856030330243</v>
       </c>
       <c r="Z22">
-        <v>13.82789315034536</v>
+        <v>13.82422042401705</v>
       </c>
       <c r="AA22">
-        <v>1.224525650348762</v>
+        <v>1.237482264426236</v>
       </c>
       <c r="AB22">
-        <v>27.670139676793</v>
+        <v>27.66091253394952</v>
       </c>
       <c r="AC22">
-        <v>2.465181363459116</v>
+        <v>2.467924424785942</v>
       </c>
       <c r="AD22">
-        <v>33.39552374576798</v>
+        <v>33.41077249204557</v>
       </c>
       <c r="AE22">
-        <v>1.737125941563343</v>
+        <v>1.713100812358349</v>
       </c>
     </row>
   </sheetData>
@@ -2706,64 +2706,64 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>48.32817354689095</v>
+        <v>48.35271124800748</v>
       </c>
       <c r="C2">
-        <v>2.642393365763891</v>
+        <v>2.61242259392117</v>
       </c>
       <c r="D2">
-        <v>48.32817354689095</v>
+        <v>48.35271124800748</v>
       </c>
       <c r="E2">
-        <v>2.642393365763891</v>
+        <v>2.61242259392117</v>
       </c>
       <c r="F2">
-        <v>4.723778279715452</v>
+        <v>4.722159013579406</v>
       </c>
       <c r="G2">
-        <v>0.346104338672105</v>
+        <v>0.3504251108202771</v>
       </c>
       <c r="H2">
-        <v>4.723778279715452</v>
+        <v>4.722159013579406</v>
       </c>
       <c r="I2">
-        <v>0.346104338672105</v>
+        <v>0.3504251108202771</v>
       </c>
       <c r="J2">
-        <v>23.53922300759106</v>
+        <v>23.53373147812745</v>
       </c>
       <c r="K2">
-        <v>1.756596078765361</v>
+        <v>1.749933498976811</v>
       </c>
       <c r="L2">
-        <v>23.53922300759106</v>
+        <v>23.53373147812745</v>
       </c>
       <c r="M2">
-        <v>1.756596078765361</v>
+        <v>1.749933498976811</v>
       </c>
       <c r="N2">
-        <v>15.92158465954514</v>
+        <v>15.9143765588684</v>
       </c>
       <c r="O2">
-        <v>1.136748546475315</v>
+        <v>1.144356718082877</v>
       </c>
       <c r="P2">
-        <v>15.92158465954514</v>
+        <v>15.9143765588684</v>
       </c>
       <c r="Q2">
-        <v>1.136748546475315</v>
+        <v>1.144356718082877</v>
       </c>
       <c r="R2">
-        <v>2.078625524552959</v>
+        <v>2.077448612006538</v>
       </c>
       <c r="S2">
-        <v>0.1862269642906501</v>
+        <v>0.1851811089554871</v>
       </c>
       <c r="T2">
-        <v>2.078625524552959</v>
+        <v>2.077448612006538</v>
       </c>
       <c r="U2">
-        <v>0.1862269642906501</v>
+        <v>0.1851811089554871</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2771,64 +2771,64 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>53.1672022426159</v>
+        <v>53.13057445903875</v>
       </c>
       <c r="C3">
-        <v>2.817671786825888</v>
+        <v>2.856537453557385</v>
       </c>
       <c r="D3">
-        <v>101.4953757895068</v>
+        <v>101.4832857070464</v>
       </c>
       <c r="E3">
-        <v>3.849870323845107</v>
+        <v>3.850253396477177</v>
       </c>
       <c r="F3">
-        <v>5.192900753919695</v>
+        <v>5.192771126153135</v>
       </c>
       <c r="G3">
-        <v>0.3815400403162283</v>
+        <v>0.3857677825148722</v>
       </c>
       <c r="H3">
-        <v>9.916679033635189</v>
+        <v>9.914930139732535</v>
       </c>
       <c r="I3">
-        <v>0.5157124548510409</v>
+        <v>0.5202331585871799</v>
       </c>
       <c r="J3">
-        <v>18.37109588533396</v>
+        <v>18.40512151337515</v>
       </c>
       <c r="K3">
-        <v>1.977860792581359</v>
+        <v>2.031764651173161</v>
       </c>
       <c r="L3">
-        <v>41.91031889292489</v>
+        <v>41.93885299150262</v>
       </c>
       <c r="M3">
-        <v>2.662903217560225</v>
+        <v>2.668285233872849</v>
       </c>
       <c r="N3">
-        <v>24.95284879253155</v>
+        <v>24.97148866114555</v>
       </c>
       <c r="O3">
-        <v>1.384517209822666</v>
+        <v>1.376430551083976</v>
       </c>
       <c r="P3">
-        <v>40.87443345207657</v>
+        <v>40.88586522001393</v>
       </c>
       <c r="Q3">
-        <v>1.776926761787097</v>
+        <v>1.775323982000155</v>
       </c>
       <c r="R3">
-        <v>2.282705846712461</v>
+        <v>2.281012320559805</v>
       </c>
       <c r="S3">
-        <v>0.2041562198450025</v>
+        <v>0.2044137971429043</v>
       </c>
       <c r="T3">
-        <v>4.361331371265425</v>
+        <v>4.358460932566362</v>
       </c>
       <c r="U3">
-        <v>0.2762241148855614</v>
+        <v>0.2747980040513529</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2836,64 +2836,64 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>57.97948804949625</v>
+        <v>58.01930431253258</v>
       </c>
       <c r="C4">
-        <v>3.121881762204581</v>
+        <v>3.141001291815138</v>
       </c>
       <c r="D4">
-        <v>159.4748638390035</v>
+        <v>159.502590019578</v>
       </c>
       <c r="E4">
-        <v>4.954865675300741</v>
+        <v>4.990865019610138</v>
       </c>
       <c r="F4">
-        <v>5.664725762796473</v>
+        <v>5.667786584584576</v>
       </c>
       <c r="G4">
-        <v>0.4131738166238966</v>
+        <v>0.4194632424486164</v>
       </c>
       <c r="H4">
-        <v>15.58140479643169</v>
+        <v>15.58271672431716</v>
       </c>
       <c r="I4">
-        <v>0.654099716014499</v>
+        <v>0.6701334436991468</v>
       </c>
       <c r="J4">
-        <v>17.36242726432154</v>
+        <v>17.37698768285993</v>
       </c>
       <c r="K4">
-        <v>2.180249150440186</v>
+        <v>2.201196658018305</v>
       </c>
       <c r="L4">
-        <v>59.27274615724676</v>
+        <v>59.31584067436276</v>
       </c>
       <c r="M4">
-        <v>3.474086765952864</v>
+        <v>3.517530266636021</v>
       </c>
       <c r="N4">
-        <v>29.97428739885212</v>
+        <v>29.97828981099082</v>
       </c>
       <c r="O4">
-        <v>1.504508464159099</v>
+        <v>1.530149674518613</v>
       </c>
       <c r="P4">
-        <v>70.848720850929</v>
+        <v>70.86415503100449</v>
       </c>
       <c r="Q4">
-        <v>2.373145344225525</v>
+        <v>2.391384382862535</v>
       </c>
       <c r="R4">
-        <v>2.488942585844071</v>
+        <v>2.493843067025347</v>
       </c>
       <c r="S4">
-        <v>0.2195057326719533</v>
+        <v>0.2240163904887606</v>
       </c>
       <c r="T4">
-        <v>6.85027395710955</v>
+        <v>6.852303999591686</v>
       </c>
       <c r="U4">
-        <v>0.350674558097786</v>
+        <v>0.353809883878441</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2901,64 +2901,64 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>62.85045812594458</v>
+        <v>62.79960197751701</v>
       </c>
       <c r="C5">
-        <v>3.405076942646291</v>
+        <v>3.423671084675624</v>
       </c>
       <c r="D5">
-        <v>222.3253219649484</v>
+        <v>222.3021919970956</v>
       </c>
       <c r="E5">
-        <v>6.00779127160998</v>
+        <v>6.070582586752121</v>
       </c>
       <c r="F5">
-        <v>6.137038579488019</v>
+        <v>6.136819111237117</v>
       </c>
       <c r="G5">
-        <v>0.4512450029818666</v>
+        <v>0.4515230522616221</v>
       </c>
       <c r="H5">
-        <v>21.71844337591966</v>
+        <v>21.71953583555419</v>
       </c>
       <c r="I5">
-        <v>0.7926156055199618</v>
+        <v>0.8043222249107</v>
       </c>
       <c r="J5">
-        <v>17.70565206227637</v>
+        <v>17.71937154039759</v>
       </c>
       <c r="K5">
-        <v>2.38394243783489</v>
+        <v>2.398780351426321</v>
       </c>
       <c r="L5">
-        <v>76.97839821952324</v>
+        <v>77.03521221476043</v>
       </c>
       <c r="M5">
-        <v>4.279882055215048</v>
+        <v>4.305600124218358</v>
       </c>
       <c r="N5">
-        <v>33.58391921545457</v>
+        <v>33.56988140013295</v>
       </c>
       <c r="O5">
-        <v>1.639498330092473</v>
+        <v>1.638171865619662</v>
       </c>
       <c r="P5">
-        <v>104.4326400663833</v>
+        <v>104.434036431138</v>
       </c>
       <c r="Q5">
-        <v>2.94440288609943</v>
+        <v>2.976052941844207</v>
       </c>
       <c r="R5">
-        <v>2.698293788133216</v>
+        <v>2.696611561288993</v>
       </c>
       <c r="S5">
-        <v>0.2398901012868831</v>
+        <v>0.2379908841601713</v>
       </c>
       <c r="T5">
-        <v>9.548567745242742</v>
+        <v>9.548915560880719</v>
       </c>
       <c r="U5">
-        <v>0.423927807177842</v>
+        <v>0.4245248403749415</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2966,64 +2966,64 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>67.63533082840551</v>
+        <v>67.70958113935231</v>
       </c>
       <c r="C6">
-        <v>3.661035561215966</v>
+        <v>3.654501368853108</v>
       </c>
       <c r="D6">
-        <v>289.9606527933528</v>
+        <v>290.011773136447</v>
       </c>
       <c r="E6">
-        <v>7.028007036574382</v>
+        <v>7.088511143943865</v>
       </c>
       <c r="F6">
-        <v>6.609028577784629</v>
+        <v>6.611361616203912</v>
       </c>
       <c r="G6">
-        <v>0.492455262221221</v>
+        <v>0.4877623620388389</v>
       </c>
       <c r="H6">
-        <v>28.32747195370431</v>
+        <v>28.33089745175803</v>
       </c>
       <c r="I6">
-        <v>0.92529065980056</v>
+        <v>0.9397929372429543</v>
       </c>
       <c r="J6">
-        <v>18.5748968663217</v>
+        <v>18.52506772452476</v>
       </c>
       <c r="K6">
-        <v>2.554079479130696</v>
+        <v>2.575999267452214</v>
       </c>
       <c r="L6">
-        <v>95.55329508584452</v>
+        <v>95.56027993928515</v>
       </c>
       <c r="M6">
-        <v>5.046735117046233</v>
+        <v>5.087405503035201</v>
       </c>
       <c r="N6">
-        <v>36.65379074369621</v>
+        <v>36.6240499049476</v>
       </c>
       <c r="O6">
-        <v>1.77534539506375</v>
+        <v>1.761920145842288</v>
       </c>
       <c r="P6">
-        <v>141.0864308100793</v>
+        <v>141.0580863360849</v>
       </c>
       <c r="Q6">
-        <v>3.490049516415207</v>
+        <v>3.533529348350799</v>
       </c>
       <c r="R6">
-        <v>2.905939452844932</v>
+        <v>2.908422713245101</v>
       </c>
       <c r="S6">
-        <v>0.2600117962207462</v>
+        <v>0.2585938479804208</v>
       </c>
       <c r="T6">
-        <v>12.45450719808763</v>
+        <v>12.45733827412577</v>
       </c>
       <c r="U6">
-        <v>0.4985598983850794</v>
+        <v>0.4960281076577734</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -3031,64 +3031,64 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>72.45217167987649</v>
+        <v>72.54791289522507</v>
       </c>
       <c r="C7">
-        <v>3.848191665073148</v>
+        <v>3.911176875684314</v>
       </c>
       <c r="D7">
-        <v>362.4128244732301</v>
+        <v>362.5596860316749</v>
       </c>
       <c r="E7">
-        <v>7.999184426139048</v>
+        <v>8.050667870984638</v>
       </c>
       <c r="F7">
-        <v>7.081500782910213</v>
+        <v>7.083405918089763</v>
       </c>
       <c r="G7">
-        <v>0.5226999598271583</v>
+        <v>0.522115512357007</v>
       </c>
       <c r="H7">
-        <v>35.40897273661466</v>
+        <v>35.41430336984801</v>
       </c>
       <c r="I7">
-        <v>1.069041286069084</v>
+        <v>1.080298402904738</v>
       </c>
       <c r="J7">
-        <v>19.61812044073101</v>
+        <v>19.58732185604179</v>
       </c>
       <c r="K7">
-        <v>2.764927097416526</v>
+        <v>2.754434065560391</v>
       </c>
       <c r="L7">
-        <v>115.1714155265759</v>
+        <v>115.1476017953265</v>
       </c>
       <c r="M7">
-        <v>5.822859730086055</v>
+        <v>5.859405751592687</v>
       </c>
       <c r="N7">
-        <v>39.55666678009692</v>
+        <v>39.51705269589762</v>
       </c>
       <c r="O7">
-        <v>1.902904656885734</v>
+        <v>1.887947521320797</v>
       </c>
       <c r="P7">
-        <v>180.6430975901771</v>
+        <v>180.5751390319833</v>
       </c>
       <c r="Q7">
-        <v>4.054707604799795</v>
+        <v>4.095066536846071</v>
       </c>
       <c r="R7">
-        <v>3.116161665031375</v>
+        <v>3.10535107055723</v>
       </c>
       <c r="S7">
-        <v>0.2775317844759471</v>
+        <v>0.2767336480803613</v>
       </c>
       <c r="T7">
-        <v>15.57066886311896</v>
+        <v>15.56268934468298</v>
       </c>
       <c r="U7">
-        <v>0.5724834770429813</v>
+        <v>0.5659672849020414</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3096,64 +3096,64 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>77.39460779564386</v>
+        <v>77.41339963805392</v>
       </c>
       <c r="C8">
-        <v>4.166151197451769</v>
+        <v>4.168964110944417</v>
       </c>
       <c r="D8">
-        <v>439.8074322688743</v>
+        <v>439.9730856697259</v>
       </c>
       <c r="E8">
-        <v>9.038266556174989</v>
+        <v>9.013479536141057</v>
       </c>
       <c r="F8">
-        <v>7.56033873132746</v>
+        <v>7.557974252540692</v>
       </c>
       <c r="G8">
-        <v>0.554797846625264</v>
+        <v>0.5558879938589949</v>
       </c>
       <c r="H8">
-        <v>42.969311467942</v>
+        <v>42.97227762238857</v>
       </c>
       <c r="I8">
-        <v>1.203505601951464</v>
+        <v>1.214561256749667</v>
       </c>
       <c r="J8">
-        <v>20.76184409102789</v>
+        <v>20.75774317245365</v>
       </c>
       <c r="K8">
-        <v>2.894311893697941</v>
+        <v>2.955864017182623</v>
       </c>
       <c r="L8">
-        <v>135.9332596176037</v>
+        <v>135.9053449677797</v>
       </c>
       <c r="M8">
-        <v>6.59056700322709</v>
+        <v>6.663072576471942</v>
       </c>
       <c r="N8">
-        <v>42.34788712176683</v>
+        <v>42.35474953765812</v>
       </c>
       <c r="O8">
-        <v>2.001989389184351</v>
+        <v>2.025047208921555</v>
       </c>
       <c r="P8">
-        <v>222.9909847119437</v>
+        <v>222.929888569642</v>
       </c>
       <c r="Q8">
-        <v>4.599952192955582</v>
+        <v>4.648286420107815</v>
       </c>
       <c r="R8">
-        <v>3.320463757954945</v>
+        <v>3.319201899549025</v>
       </c>
       <c r="S8">
-        <v>0.291050498292251</v>
+        <v>0.2965215118991571</v>
       </c>
       <c r="T8">
-        <v>18.89113262107409</v>
+        <v>18.88189124423214</v>
       </c>
       <c r="U8">
-        <v>0.6474858213292869</v>
+        <v>0.6396701547907973</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -3161,64 +3161,64 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>82.19021405280267</v>
+        <v>82.20571763798137</v>
       </c>
       <c r="C9">
-        <v>4.416251373305029</v>
+        <v>4.411748002441734</v>
       </c>
       <c r="D9">
-        <v>521.997646321674</v>
+        <v>522.1788033077094</v>
       </c>
       <c r="E9">
-        <v>10.02509779133979</v>
+        <v>9.990469880803712</v>
       </c>
       <c r="F9">
-        <v>8.021418097697953</v>
+        <v>8.028261084391561</v>
       </c>
       <c r="G9">
-        <v>0.5936788327148197</v>
+        <v>0.5950537775591163</v>
       </c>
       <c r="H9">
-        <v>50.99072956563978</v>
+        <v>51.00053870678015</v>
       </c>
       <c r="I9">
-        <v>1.343501413187283</v>
+        <v>1.352447668646385</v>
       </c>
       <c r="J9">
-        <v>21.86016598577</v>
+        <v>21.90968224038168</v>
       </c>
       <c r="K9">
-        <v>3.118724623144627</v>
+        <v>3.128295886086675</v>
       </c>
       <c r="L9">
-        <v>157.7934256033736</v>
+        <v>157.8150272081616</v>
       </c>
       <c r="M9">
-        <v>7.361277742493169</v>
+        <v>7.423036140687503</v>
       </c>
       <c r="N9">
-        <v>45.16985926435787</v>
+        <v>45.1584909828066</v>
       </c>
       <c r="O9">
-        <v>2.159085415124962</v>
+        <v>2.143166134683165</v>
       </c>
       <c r="P9">
-        <v>268.1608439763023</v>
+        <v>268.0883795524463</v>
       </c>
       <c r="Q9">
-        <v>5.166232896589976</v>
+        <v>5.227988927461761</v>
       </c>
       <c r="R9">
-        <v>3.524990121757857</v>
+        <v>3.528578240462799</v>
       </c>
       <c r="S9">
-        <v>0.3156261742462971</v>
+        <v>0.3127141186631153</v>
       </c>
       <c r="T9">
-        <v>22.41612274283178</v>
+        <v>22.41046948469485</v>
       </c>
       <c r="U9">
-        <v>0.7238582263945977</v>
+        <v>0.7133017733771229</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3226,64 +3226,64 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>87.02362596674615</v>
+        <v>87.08101676693204</v>
       </c>
       <c r="C10">
-        <v>4.715106596660975</v>
+        <v>4.713632272809218</v>
       </c>
       <c r="D10">
-        <v>609.0212722884183</v>
+        <v>609.2598200746389</v>
       </c>
       <c r="E10">
-        <v>11.02366723597896</v>
+        <v>11.00527171244175</v>
       </c>
       <c r="F10">
-        <v>8.49199803222152</v>
+        <v>8.497064681780641</v>
       </c>
       <c r="G10">
-        <v>0.6266989631625322</v>
+        <v>0.6267417955987915</v>
       </c>
       <c r="H10">
-        <v>59.48272759786134</v>
+        <v>59.49760338856071</v>
       </c>
       <c r="I10">
-        <v>1.482550827234869</v>
+        <v>1.488537937619685</v>
       </c>
       <c r="J10">
-        <v>23.01710613443857</v>
+        <v>23.02819366860582</v>
       </c>
       <c r="K10">
-        <v>3.314899496475426</v>
+        <v>3.336618014604386</v>
       </c>
       <c r="L10">
-        <v>180.810531737813</v>
+        <v>180.8432208767681</v>
       </c>
       <c r="M10">
-        <v>8.131125364532684</v>
+        <v>8.191419942672418</v>
       </c>
       <c r="N10">
-        <v>47.89655469488896</v>
+        <v>47.9143152368701</v>
       </c>
       <c r="O10">
-        <v>2.26701009845705</v>
+        <v>2.260799997308728</v>
       </c>
       <c r="P10">
-        <v>316.0573986711904</v>
+        <v>316.0026947893178</v>
       </c>
       <c r="Q10">
-        <v>5.716530535831632</v>
+        <v>5.771914469202668</v>
       </c>
       <c r="R10">
-        <v>3.731894837144636</v>
+        <v>3.733098564201173</v>
       </c>
       <c r="S10">
-        <v>0.3331565156614153</v>
+        <v>0.3343501583552226</v>
       </c>
       <c r="T10">
-        <v>26.1480175799765</v>
+        <v>26.14356804889605</v>
       </c>
       <c r="U10">
-        <v>0.80381011603612</v>
+        <v>0.7870168208768137</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3291,64 +3291,64 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>91.82742370100736</v>
+        <v>91.81678574886465</v>
       </c>
       <c r="C11">
-        <v>4.945093818722723</v>
+        <v>4.909002757551112</v>
       </c>
       <c r="D11">
-        <v>700.8486959894323</v>
+        <v>701.0766058235052</v>
       </c>
       <c r="E11">
-        <v>12.11314139017756</v>
+        <v>11.99860716052145</v>
       </c>
       <c r="F11">
-        <v>8.969598281502522</v>
+        <v>8.959209835422831</v>
       </c>
       <c r="G11">
-        <v>0.6620079153005801</v>
+        <v>0.6707538173723383</v>
       </c>
       <c r="H11">
-        <v>68.45232587936393</v>
+        <v>68.45681322398377</v>
       </c>
       <c r="I11">
-        <v>1.624097516676323</v>
+        <v>1.63521694379791</v>
       </c>
       <c r="J11">
-        <v>24.23953873033068</v>
+        <v>24.18518866756572</v>
       </c>
       <c r="K11">
-        <v>3.463756016505912</v>
+        <v>3.501234367957355</v>
       </c>
       <c r="L11">
-        <v>205.0500704681423</v>
+        <v>205.0284095443335</v>
       </c>
       <c r="M11">
-        <v>8.904904669629348</v>
+        <v>9.004850026287876</v>
       </c>
       <c r="N11">
-        <v>50.69197558435251</v>
+        <v>50.68636187778397</v>
       </c>
       <c r="O11">
-        <v>2.382695845324207</v>
+        <v>2.42744577126053</v>
       </c>
       <c r="P11">
-        <v>366.7493742555419</v>
+        <v>366.6890566671001</v>
       </c>
       <c r="Q11">
-        <v>6.250686790439961</v>
+        <v>6.340592916582831</v>
       </c>
       <c r="R11">
-        <v>3.938433668827537</v>
+        <v>3.940037365060597</v>
       </c>
       <c r="S11">
-        <v>0.3496745619501558</v>
+        <v>0.3507194306429454</v>
       </c>
       <c r="T11">
-        <v>30.08645124880402</v>
+        <v>30.08360541395671</v>
       </c>
       <c r="U11">
-        <v>0.8735950099400827</v>
+        <v>0.8574993718002838</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3356,64 +3356,64 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>96.6949313900256</v>
+        <v>96.68008688635975</v>
       </c>
       <c r="C12">
-        <v>5.197108517895835</v>
+        <v>5.229742470484153</v>
       </c>
       <c r="D12">
-        <v>797.5436273794508</v>
+        <v>797.7566927098673</v>
       </c>
       <c r="E12">
-        <v>13.17843975566206</v>
+        <v>13.03489041597532</v>
       </c>
       <c r="F12">
-        <v>9.448880228871953</v>
+        <v>9.443746285720863</v>
       </c>
       <c r="G12">
-        <v>0.6965795432840985</v>
+        <v>0.6884525932045679</v>
       </c>
       <c r="H12">
-        <v>77.90120610823587</v>
+        <v>77.90055950970446</v>
       </c>
       <c r="I12">
-        <v>1.766522015176977</v>
+        <v>1.769772682232849</v>
       </c>
       <c r="J12">
-        <v>25.3652636184911</v>
+        <v>25.35318789959021</v>
       </c>
       <c r="K12">
-        <v>3.690497761992219</v>
+        <v>3.651709677023565</v>
       </c>
       <c r="L12">
-        <v>230.415334086634</v>
+        <v>230.3815974439246</v>
       </c>
       <c r="M12">
-        <v>9.759871844852229</v>
+        <v>9.715980622148644</v>
       </c>
       <c r="N12">
-        <v>53.46376855413492</v>
+        <v>53.4749683928128</v>
       </c>
       <c r="O12">
-        <v>2.533868004754198</v>
+        <v>2.513086533660308</v>
       </c>
       <c r="P12">
-        <v>420.2131428096744</v>
+        <v>420.1640250599149</v>
       </c>
       <c r="Q12">
-        <v>6.831583480783232</v>
+        <v>6.932311532545694</v>
       </c>
       <c r="R12">
-        <v>4.143516761499288</v>
+        <v>4.146839622590519</v>
       </c>
       <c r="S12">
-        <v>0.372321821903223</v>
+        <v>0.3659342641600253</v>
       </c>
       <c r="T12">
-        <v>34.22996801030324</v>
+        <v>34.23044503654713</v>
       </c>
       <c r="U12">
-        <v>0.9527405215947011</v>
+        <v>0.9311514186988403</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3421,64 +3421,64 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>4.835993114270591</v>
+        <v>4.83810586567293</v>
       </c>
       <c r="C13">
-        <v>0.258835412113094</v>
+        <v>0.2588158878375704</v>
       </c>
       <c r="D13">
-        <v>802.379620493726</v>
+        <v>802.5947985755363</v>
       </c>
       <c r="E13">
-        <v>13.18061837002283</v>
+        <v>13.03684761026746</v>
       </c>
       <c r="F13">
-        <v>0.4717979333828484</v>
+        <v>0.472267210606596</v>
       </c>
       <c r="G13">
-        <v>0.03466771802097997</v>
+        <v>0.03436208796780761</v>
       </c>
       <c r="H13">
-        <v>78.37300404161913</v>
+        <v>78.37282672031125</v>
       </c>
       <c r="I13">
-        <v>1.766651925827124</v>
+        <v>1.770071022265662</v>
       </c>
       <c r="J13">
-        <v>-20.47198302985517</v>
+        <v>-20.48883435425349</v>
       </c>
       <c r="K13">
-        <v>1.188965131154743</v>
+        <v>1.196282149337725</v>
       </c>
       <c r="L13">
-        <v>209.9433510567789</v>
+        <v>209.8927630896707</v>
       </c>
       <c r="M13">
-        <v>9.921317263888318</v>
+        <v>9.874061023409615</v>
       </c>
       <c r="N13">
-        <v>24.41291774314875</v>
+        <v>24.43012706969328</v>
       </c>
       <c r="O13">
-        <v>1.181124671537007</v>
+        <v>1.185203590010599</v>
       </c>
       <c r="P13">
-        <v>444.6260605528265</v>
+        <v>444.5941521296085</v>
       </c>
       <c r="Q13">
-        <v>7.019903510626251</v>
+        <v>7.135678247478754</v>
       </c>
       <c r="R13">
-        <v>0.2075731916709216</v>
+        <v>0.2075782587359468</v>
       </c>
       <c r="S13">
-        <v>0.01855159588099257</v>
+        <v>0.0185395416960379</v>
       </c>
       <c r="T13">
-        <v>34.43754120197416</v>
+        <v>34.43802329528308</v>
       </c>
       <c r="U13">
-        <v>0.953051756264003</v>
+        <v>0.9316044459586099</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3486,64 +3486,64 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>106.4159348669199</v>
+        <v>106.3374847829908</v>
       </c>
       <c r="C14">
-        <v>5.71451845287321</v>
+        <v>5.77016933670366</v>
       </c>
       <c r="D14">
-        <v>908.7955553606436</v>
+        <v>908.9322833585317</v>
       </c>
       <c r="E14">
-        <v>14.38780648596593</v>
+        <v>14.33504077550697</v>
       </c>
       <c r="F14">
-        <v>10.37313199333906</v>
+        <v>10.38750205442672</v>
       </c>
       <c r="G14">
-        <v>0.7651025423473388</v>
+        <v>0.7686649654675463</v>
       </c>
       <c r="H14">
-        <v>88.74613603495807</v>
+        <v>88.76032877473733</v>
       </c>
       <c r="I14">
-        <v>1.933743394990423</v>
+        <v>1.923423998250201</v>
       </c>
       <c r="J14">
-        <v>42.63933796511259</v>
+        <v>42.66451140696231</v>
       </c>
       <c r="K14">
-        <v>3.865942020716323</v>
+        <v>3.877428002876209</v>
       </c>
       <c r="L14">
-        <v>252.5826890218923</v>
+        <v>252.5572744966326</v>
       </c>
       <c r="M14">
-        <v>10.68712166247075</v>
+        <v>10.65134918267938</v>
       </c>
       <c r="N14">
-        <v>44.03397785010315</v>
+        <v>44.0419403065002</v>
       </c>
       <c r="O14">
-        <v>2.55386141177789</v>
+        <v>2.551991811249632</v>
       </c>
       <c r="P14">
-        <v>488.6600384029301</v>
+        <v>488.6360924361077</v>
       </c>
       <c r="Q14">
-        <v>7.526468595092354</v>
+        <v>7.625864326492631</v>
       </c>
       <c r="R14">
-        <v>4.564976031248431</v>
+        <v>4.564987473349818</v>
       </c>
       <c r="S14">
-        <v>0.4041596130982846</v>
+        <v>0.4094268765773978</v>
       </c>
       <c r="T14">
-        <v>39.00251723322268</v>
+        <v>39.00301076863292</v>
       </c>
       <c r="U14">
-        <v>1.036992326764303</v>
+        <v>1.016660523332151</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3551,64 +3551,64 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>111.2155353912237</v>
+        <v>111.2485265013833</v>
       </c>
       <c r="C15">
-        <v>5.943043428397161</v>
+        <v>6.01003246489033</v>
       </c>
       <c r="D15">
-        <v>1020.011090751872</v>
+        <v>1020.18080985991</v>
       </c>
       <c r="E15">
-        <v>15.67560973524869</v>
+        <v>15.54315011505453</v>
       </c>
       <c r="F15">
-        <v>10.87403578163322</v>
+        <v>10.84750427027988</v>
       </c>
       <c r="G15">
-        <v>0.7976826498604968</v>
+        <v>0.8080486338493024</v>
       </c>
       <c r="H15">
-        <v>99.62017181659085</v>
+        <v>99.6078330450173</v>
       </c>
       <c r="I15">
-        <v>2.094976235861779</v>
+        <v>2.088861172273952</v>
       </c>
       <c r="J15">
-        <v>34.29317890221237</v>
+        <v>34.1435242637641</v>
       </c>
       <c r="K15">
-        <v>4.19611146483785</v>
+        <v>4.194353426212468</v>
       </c>
       <c r="L15">
-        <v>286.8758679241054</v>
+        <v>286.7007987603965</v>
       </c>
       <c r="M15">
-        <v>11.57505002973906</v>
+        <v>11.51862161358092</v>
       </c>
       <c r="N15">
-        <v>56.51087941351929</v>
+        <v>56.47129677261358</v>
       </c>
       <c r="O15">
-        <v>2.895377121503247</v>
+        <v>2.907395796368272</v>
       </c>
       <c r="P15">
-        <v>545.1709178164455</v>
+        <v>545.1073892087228</v>
       </c>
       <c r="Q15">
-        <v>8.12217697902447</v>
+        <v>8.220451904931949</v>
       </c>
       <c r="R15">
-        <v>4.778575331540126</v>
+        <v>4.765045902677399</v>
       </c>
       <c r="S15">
-        <v>0.4226380658785009</v>
+        <v>0.4271382501754989</v>
       </c>
       <c r="T15">
-        <v>43.78109256476277</v>
+        <v>43.7680566713103</v>
       </c>
       <c r="U15">
-        <v>1.121405419356136</v>
+        <v>1.095169453684957</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3616,64 +3616,64 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>116.0267111379204</v>
+        <v>116.1229919658394</v>
       </c>
       <c r="C16">
-        <v>6.268379020746212</v>
+        <v>6.299144006551479</v>
       </c>
       <c r="D16">
-        <v>1136.037801889788</v>
+        <v>1136.303801825754</v>
       </c>
       <c r="E16">
-        <v>16.88908821534003</v>
+        <v>16.81721577493586</v>
       </c>
       <c r="F16">
-        <v>11.34782248686933</v>
+        <v>11.3334165163802</v>
       </c>
       <c r="G16">
-        <v>0.8313770932930948</v>
+        <v>0.8330764519393419</v>
       </c>
       <c r="H16">
-        <v>110.9679943034599</v>
+        <v>110.9412495613978</v>
       </c>
       <c r="I16">
-        <v>2.26526391164293</v>
+        <v>2.239566515209585</v>
       </c>
       <c r="J16">
-        <v>32.1794688395492</v>
+        <v>32.06151524759348</v>
       </c>
       <c r="K16">
-        <v>4.411950857748483</v>
+        <v>4.44968892993642</v>
       </c>
       <c r="L16">
-        <v>319.0553367636532</v>
+        <v>318.7623140079901</v>
       </c>
       <c r="M16">
-        <v>12.48795009240428</v>
+        <v>12.38947362896379</v>
       </c>
       <c r="N16">
-        <v>62.50419275765534</v>
+        <v>62.51090744023553</v>
       </c>
       <c r="O16">
-        <v>3.025428837957726</v>
+        <v>3.051317617545529</v>
       </c>
       <c r="P16">
-        <v>607.675110574104</v>
+        <v>607.618296648955</v>
       </c>
       <c r="Q16">
-        <v>8.780746128513492</v>
+        <v>8.823409572455802</v>
       </c>
       <c r="R16">
-        <v>4.985373261317422</v>
+        <v>4.978236522789291</v>
       </c>
       <c r="S16">
-        <v>0.4405897145684221</v>
+        <v>0.4433475824982326</v>
       </c>
       <c r="T16">
-        <v>48.76646582608004</v>
+        <v>48.74629319409949</v>
       </c>
       <c r="U16">
-        <v>1.20175867459422</v>
+        <v>1.177520207272547</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3681,64 +3681,64 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>120.7691867005907</v>
+        <v>120.8593223268196</v>
       </c>
       <c r="C17">
-        <v>6.509972310540949</v>
+        <v>6.478938658038619</v>
       </c>
       <c r="D17">
-        <v>1256.80698859038</v>
+        <v>1257.163124152572</v>
       </c>
       <c r="E17">
-        <v>18.11662253384178</v>
+        <v>18.06093747885568</v>
       </c>
       <c r="F17">
-        <v>11.80654501894782</v>
+        <v>11.80253517301156</v>
       </c>
       <c r="G17">
-        <v>0.873291481515027</v>
+        <v>0.8606311838217626</v>
       </c>
       <c r="H17">
-        <v>122.7745393224079</v>
+        <v>122.7437847344096</v>
       </c>
       <c r="I17">
-        <v>2.420141240662695</v>
+        <v>2.398583712933052</v>
       </c>
       <c r="J17">
-        <v>31.99769253606399</v>
+        <v>32.04170796200999</v>
       </c>
       <c r="K17">
-        <v>4.572090482695069</v>
+        <v>4.583615845105514</v>
       </c>
       <c r="L17">
-        <v>351.0530292997159</v>
+        <v>350.8040219700002</v>
       </c>
       <c r="M17">
-        <v>13.41267096682052</v>
+        <v>13.27758215986356</v>
       </c>
       <c r="N17">
-        <v>66.52707597100199</v>
+        <v>66.53019217527192</v>
       </c>
       <c r="O17">
-        <v>3.18571258955634</v>
+        <v>3.191818187916253</v>
       </c>
       <c r="P17">
-        <v>674.2021865451026</v>
+        <v>674.1484888242317</v>
       </c>
       <c r="Q17">
-        <v>9.507614612392077</v>
+        <v>9.490520195219675</v>
       </c>
       <c r="R17">
-        <v>5.187491800360441</v>
+        <v>5.192164272687851</v>
       </c>
       <c r="S17">
-        <v>0.4620606854286005</v>
+        <v>0.4690805752583814</v>
       </c>
       <c r="T17">
-        <v>53.95395762644056</v>
+        <v>53.93845746678744</v>
       </c>
       <c r="U17">
-        <v>1.287957012831867</v>
+        <v>1.260552920914375</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3746,64 +3746,64 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>125.7652976902273</v>
+        <v>125.6904995696536</v>
       </c>
       <c r="C18">
-        <v>6.806073968604465</v>
+        <v>6.707407886670924</v>
       </c>
       <c r="D18">
-        <v>1382.572286280608</v>
+        <v>1382.853623722223</v>
       </c>
       <c r="E18">
-        <v>19.4439183590426</v>
+        <v>19.27821716559487</v>
       </c>
       <c r="F18">
-        <v>12.26644240960642</v>
+        <v>12.27263409576381</v>
       </c>
       <c r="G18">
-        <v>0.9061044196838839</v>
+        <v>0.9014234523572127</v>
       </c>
       <c r="H18">
-        <v>135.0409817320144</v>
+        <v>135.0164188301732</v>
       </c>
       <c r="I18">
-        <v>2.576215520880108</v>
+        <v>2.561327664893337</v>
       </c>
       <c r="J18">
-        <v>32.81309008663687</v>
+        <v>32.68442579207218</v>
       </c>
       <c r="K18">
-        <v>4.810227314776009</v>
+        <v>4.750938030600216</v>
       </c>
       <c r="L18">
-        <v>383.8661193863543</v>
+        <v>383.4884477620724</v>
       </c>
       <c r="M18">
-        <v>14.31273906318651</v>
+        <v>14.26197460004951</v>
       </c>
       <c r="N18">
-        <v>69.73012144184098</v>
+        <v>69.74409323159584</v>
       </c>
       <c r="O18">
-        <v>3.304117487603446</v>
+        <v>3.316346517990389</v>
       </c>
       <c r="P18">
-        <v>743.9323079869462</v>
+        <v>743.892582055828</v>
       </c>
       <c r="Q18">
-        <v>10.15479258095158</v>
+        <v>10.18289533096941</v>
       </c>
       <c r="R18">
-        <v>5.395408483330939</v>
+        <v>5.389577389026684</v>
       </c>
       <c r="S18">
-        <v>0.485089563652728</v>
+        <v>0.482473688170846</v>
       </c>
       <c r="T18">
-        <v>59.34936610977135</v>
+        <v>59.32803485581402</v>
       </c>
       <c r="U18">
-        <v>1.383511919622138</v>
+        <v>1.354273915776715</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3811,64 +3811,64 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>130.5389276325034</v>
+        <v>130.5424744840763</v>
       </c>
       <c r="C19">
-        <v>7.044100640606857</v>
+        <v>7.11042033235056</v>
       </c>
       <c r="D19">
-        <v>1513.111213913117</v>
+        <v>1513.396098206295</v>
       </c>
       <c r="E19">
-        <v>20.68575316013377</v>
+        <v>20.56027295495864</v>
       </c>
       <c r="F19">
-        <v>12.75391646682065</v>
+        <v>12.75485597763648</v>
       </c>
       <c r="G19">
-        <v>0.9333898530407687</v>
+        <v>0.9441879937171787</v>
       </c>
       <c r="H19">
-        <v>147.7948981988351</v>
+        <v>147.7712748078095</v>
       </c>
       <c r="I19">
-        <v>2.737738649740929</v>
+        <v>2.727655455155192</v>
       </c>
       <c r="J19">
-        <v>33.75838497610574</v>
+        <v>33.7250449876335</v>
       </c>
       <c r="K19">
-        <v>4.942513551387079</v>
+        <v>4.945679670113239</v>
       </c>
       <c r="L19">
-        <v>417.6245043624603</v>
+        <v>417.2134927497051</v>
       </c>
       <c r="M19">
-        <v>15.18747834429066</v>
+        <v>15.17025726295151</v>
       </c>
       <c r="N19">
-        <v>72.73512854429748</v>
+        <v>72.76230577165124</v>
       </c>
       <c r="O19">
-        <v>3.441669795285899</v>
+        <v>3.449795724127414</v>
       </c>
       <c r="P19">
-        <v>816.6674365312406</v>
+        <v>816.6548878274759</v>
       </c>
       <c r="Q19">
-        <v>10.94137459696855</v>
+        <v>10.93855830258226</v>
       </c>
       <c r="R19">
-        <v>5.599637717992788</v>
+        <v>5.599962256388378</v>
       </c>
       <c r="S19">
-        <v>0.5002805714626863</v>
+        <v>0.5026466095538562</v>
       </c>
       <c r="T19">
-        <v>64.94900382776406</v>
+        <v>64.9279971122026</v>
       </c>
       <c r="U19">
-        <v>1.471355524064167</v>
+        <v>1.447485445712006</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3876,64 +3876,64 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>135.5463330641531</v>
+        <v>135.3714817279878</v>
       </c>
       <c r="C20">
-        <v>7.320897188380134</v>
+        <v>7.234468845813722</v>
       </c>
       <c r="D20">
-        <v>1648.65754697726</v>
+        <v>1648.767579934288</v>
       </c>
       <c r="E20">
-        <v>21.89094040072879</v>
+        <v>21.80071698100835</v>
       </c>
       <c r="F20">
-        <v>13.21554147698111</v>
+        <v>13.21199776196699</v>
       </c>
       <c r="G20">
-        <v>0.9523338889573709</v>
+        <v>0.9708079614589677</v>
       </c>
       <c r="H20">
-        <v>161.0104396758163</v>
+        <v>160.9832725697773</v>
       </c>
       <c r="I20">
-        <v>2.905919279510584</v>
+        <v>2.896864902792038</v>
       </c>
       <c r="J20">
-        <v>34.92939824925386</v>
+        <v>34.79362027279385</v>
       </c>
       <c r="K20">
-        <v>5.072296641667662</v>
+        <v>5.108369250582453</v>
       </c>
       <c r="L20">
-        <v>452.5539026117136</v>
+        <v>452.0071130225001</v>
       </c>
       <c r="M20">
-        <v>16.03218722765159</v>
+        <v>16.11235546944626</v>
       </c>
       <c r="N20">
-        <v>75.53290119251815</v>
+        <v>75.56033132981753</v>
       </c>
       <c r="O20">
-        <v>3.519410465042721</v>
+        <v>3.570658851390124</v>
       </c>
       <c r="P20">
-        <v>892.2003377237664</v>
+        <v>892.2152191572942</v>
       </c>
       <c r="Q20">
-        <v>11.61368808248594</v>
+        <v>11.6164961401599</v>
       </c>
       <c r="R20">
-        <v>5.808160150916249</v>
+        <v>5.808278096186893</v>
       </c>
       <c r="S20">
-        <v>0.5150069680467507</v>
+        <v>0.513474893051824</v>
       </c>
       <c r="T20">
-        <v>70.75716397868024</v>
+        <v>70.736275208389</v>
       </c>
       <c r="U20">
-        <v>1.55940022799571</v>
+        <v>1.534879598954703</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3941,64 +3941,64 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>140.1575095514624</v>
+        <v>140.2766463828138</v>
       </c>
       <c r="C21">
-        <v>7.561474685890563</v>
+        <v>7.572344700436078</v>
       </c>
       <c r="D21">
-        <v>1788.815056528718</v>
+        <v>1789.044226317109</v>
       </c>
       <c r="E21">
-        <v>23.17173594924563</v>
+        <v>22.98744587391563</v>
       </c>
       <c r="F21">
-        <v>13.69373168032801</v>
+        <v>13.69999350292184</v>
       </c>
       <c r="G21">
-        <v>0.9986511170808561</v>
+        <v>1.013888602847876</v>
       </c>
       <c r="H21">
-        <v>174.704171356144</v>
+        <v>174.6832660726988</v>
       </c>
       <c r="I21">
-        <v>3.056998482200166</v>
+        <v>3.076030347408718</v>
       </c>
       <c r="J21">
-        <v>35.99019115596972</v>
+        <v>36.03090936034758</v>
       </c>
       <c r="K21">
-        <v>5.321627946579258</v>
+        <v>5.322985024973388</v>
       </c>
       <c r="L21">
-        <v>488.5440937676839</v>
+        <v>488.0380223828474</v>
       </c>
       <c r="M21">
-        <v>17.02067874264548</v>
+        <v>17.03548915940011</v>
       </c>
       <c r="N21">
-        <v>78.30541740143843</v>
+        <v>78.37003848569358</v>
       </c>
       <c r="O21">
-        <v>3.677116116962189</v>
+        <v>3.667643216700081</v>
       </c>
       <c r="P21">
-        <v>970.5057551252039</v>
+        <v>970.5852576429911</v>
       </c>
       <c r="Q21">
-        <v>12.2615802426234</v>
+        <v>12.29568061202502</v>
       </c>
       <c r="R21">
-        <v>6.006379253145941</v>
+        <v>6.025985807456364</v>
       </c>
       <c r="S21">
-        <v>0.5330533773073145</v>
+        <v>0.537252593324793</v>
       </c>
       <c r="T21">
-        <v>76.7635432318266</v>
+        <v>76.76226101584598</v>
       </c>
       <c r="U21">
-        <v>1.641080039337482</v>
+        <v>1.630626489626293</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -4006,64 +4006,64 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>145.0238897124424</v>
+        <v>145.0177893529784</v>
       </c>
       <c r="C22">
-        <v>7.897053594658549</v>
+        <v>7.763338838449971</v>
       </c>
       <c r="D22">
-        <v>1933.838946241167</v>
+        <v>1934.062015670076</v>
       </c>
       <c r="E22">
-        <v>24.44890010302739</v>
+        <v>24.26686154391627</v>
       </c>
       <c r="F22">
-        <v>14.16199896408297</v>
+        <v>14.14499552626692</v>
       </c>
       <c r="G22">
-        <v>1.040390700775728</v>
+        <v>1.04269511797</v>
       </c>
       <c r="H22">
-        <v>188.8661703202269</v>
+        <v>188.8282615989656</v>
       </c>
       <c r="I22">
-        <v>3.244269705737568</v>
+        <v>3.258830566918566</v>
       </c>
       <c r="J22">
-        <v>37.15732693568085</v>
+        <v>37.10334754902702</v>
       </c>
       <c r="K22">
-        <v>5.493477356934988</v>
+        <v>5.551333180055858</v>
       </c>
       <c r="L22">
-        <v>525.701420703364</v>
+        <v>525.1413699318714</v>
       </c>
       <c r="M22">
-        <v>17.97012541417406</v>
+        <v>17.96682423897887</v>
       </c>
       <c r="N22">
-        <v>81.12553448758047</v>
+        <v>81.11377248841424</v>
       </c>
       <c r="O22">
-        <v>3.826363651513016</v>
+        <v>3.82507576522303</v>
       </c>
       <c r="P22">
-        <v>1051.631289612789</v>
+        <v>1051.699030131398</v>
       </c>
       <c r="Q22">
-        <v>13.0207700162126</v>
+        <v>12.97454234816372</v>
       </c>
       <c r="R22">
-        <v>6.221034083735139</v>
+        <v>6.226996210185412</v>
       </c>
       <c r="S22">
-        <v>0.5530842800836362</v>
+        <v>0.5542856030330243</v>
       </c>
       <c r="T22">
-        <v>82.98457731556184</v>
+        <v>82.98925722603104</v>
       </c>
       <c r="U22">
-        <v>1.735827064736686</v>
+        <v>1.719918925328689</v>
       </c>
     </row>
   </sheetData>
@@ -4179,88 +4179,88 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>49.50906946460412</v>
+        <v>49.50727064625715</v>
       </c>
       <c r="C2">
-        <v>0.9871088575841848</v>
+        <v>1.005185056225975</v>
       </c>
       <c r="D2">
-        <v>24.16713794367623</v>
+        <v>24.1705855004433</v>
       </c>
       <c r="E2">
-        <v>1.301947612428363</v>
+        <v>1.316149538261277</v>
       </c>
       <c r="F2">
-        <v>24.18675830717626</v>
+        <v>24.1767593821573</v>
       </c>
       <c r="G2">
-        <v>1.302179035508764</v>
+        <v>1.292133561370659</v>
       </c>
       <c r="H2">
-        <v>7.089678350621206</v>
+        <v>7.084775306124242</v>
       </c>
       <c r="I2">
-        <v>0.5198807121294328</v>
+        <v>0.5173979212806538</v>
       </c>
       <c r="J2">
-        <v>7.082951491480897</v>
+        <v>7.082714628882751</v>
       </c>
       <c r="K2">
-        <v>0.5168123389995136</v>
+        <v>0.5190130277813851</v>
       </c>
       <c r="L2">
-        <v>2.3614743255889</v>
+        <v>2.358011713285646</v>
       </c>
       <c r="M2">
-        <v>0.1747862221991571</v>
+        <v>0.1722429295777723</v>
       </c>
       <c r="N2">
-        <v>4.725580458556965</v>
+        <v>4.721207204571328</v>
       </c>
       <c r="O2">
-        <v>0.3502928929177308</v>
+        <v>0.3451019650353159</v>
       </c>
       <c r="P2">
-        <v>2.360318034371856</v>
+        <v>2.360515077605554</v>
       </c>
       <c r="Q2">
-        <v>0.1744974287603745</v>
+        <v>0.1726565594002086</v>
       </c>
       <c r="R2">
-        <v>6.921662327503888</v>
+        <v>6.920417917861637</v>
       </c>
       <c r="S2">
-        <v>0.6203862655317225</v>
+        <v>0.60765602704693</v>
       </c>
       <c r="T2">
-        <v>4.835784073195692</v>
+        <v>4.841660012255293</v>
       </c>
       <c r="U2">
-        <v>0.4241788502753223</v>
+        <v>0.4313210284508368</v>
       </c>
       <c r="V2">
-        <v>1.037783344190158</v>
+        <v>1.037739412921864</v>
       </c>
       <c r="W2">
-        <v>0.09251731204283177</v>
+        <v>0.0922024375475306</v>
       </c>
       <c r="X2">
-        <v>1.037284382388525</v>
+        <v>1.038333020732934</v>
       </c>
       <c r="Y2">
-        <v>0.09287840469968103</v>
+        <v>0.09316491413852163</v>
       </c>
       <c r="Z2">
-        <v>2.307737095742776</v>
+        <v>2.303320158937191</v>
       </c>
       <c r="AA2">
-        <v>0.2069677954760886</v>
+        <v>0.2017544408707205</v>
       </c>
       <c r="AB2">
-        <v>4.612891990030974</v>
+        <v>4.614199533640977</v>
       </c>
       <c r="AC2">
-        <v>0.4132061846771926</v>
+        <v>0.4085269191815563</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -4274,94 +4274,94 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>54.47016781854626</v>
+        <v>54.47237128216838</v>
       </c>
       <c r="C3">
-        <v>1.081993353528573</v>
+        <v>1.091329906798087</v>
       </c>
       <c r="D3">
-        <v>26.58547488474276</v>
+        <v>26.60710862296651</v>
       </c>
       <c r="E3">
-        <v>1.442103504184082</v>
+        <v>1.429402084936852</v>
       </c>
       <c r="F3">
-        <v>26.61455609684372</v>
+        <v>26.61871285337972</v>
       </c>
       <c r="G3">
-        <v>1.443363167243231</v>
+        <v>1.434704462229971</v>
       </c>
       <c r="H3">
-        <v>7.803644731865972</v>
+        <v>7.798661649799545</v>
       </c>
       <c r="I3">
-        <v>0.5749107707678051</v>
+        <v>0.5764606349636109</v>
       </c>
       <c r="J3">
-        <v>7.800219106566945</v>
+        <v>7.801141509251973</v>
       </c>
       <c r="K3">
-        <v>0.577608427573937</v>
+        <v>0.5730778012442228</v>
       </c>
       <c r="L3">
-        <v>2.600284128758623</v>
+        <v>2.598189909181063</v>
       </c>
       <c r="M3">
-        <v>0.1922995163583643</v>
+        <v>0.1920312312961583</v>
       </c>
       <c r="N3">
-        <v>5.197152716631642</v>
+        <v>5.196772175617754</v>
       </c>
       <c r="O3">
-        <v>0.3860195720256019</v>
+        <v>0.3811098762002408</v>
       </c>
       <c r="P3">
-        <v>2.601329820964759</v>
+        <v>2.598868326700244</v>
       </c>
       <c r="Q3">
-        <v>0.1909688449094047</v>
+        <v>0.190801039118795</v>
       </c>
       <c r="R3">
-        <v>7.622070642144501</v>
+        <v>7.61368188858418</v>
       </c>
       <c r="S3">
-        <v>0.6876503649295734</v>
+        <v>0.6788202312150667</v>
       </c>
       <c r="T3">
-        <v>5.334788785488172</v>
+        <v>5.328419747380232</v>
       </c>
       <c r="U3">
-        <v>0.4795196399058453</v>
+        <v>0.4705431443695634</v>
       </c>
       <c r="V3">
-        <v>1.142645780492056</v>
+        <v>1.14241603144533</v>
       </c>
       <c r="W3">
-        <v>0.1018332146844253</v>
+        <v>0.1010913043715494</v>
       </c>
       <c r="X3">
-        <v>1.142294028927376</v>
+        <v>1.142368940997138</v>
       </c>
       <c r="Y3">
-        <v>0.1024933647365435</v>
+        <v>0.1013189163684916</v>
       </c>
       <c r="Z3">
-        <v>2.53931295521032</v>
+        <v>2.537829441208657</v>
       </c>
       <c r="AA3">
-        <v>0.2263494484023285</v>
+        <v>0.2289251692769328</v>
       </c>
       <c r="AB3">
-        <v>5.076843698018858</v>
+        <v>5.072757079535791</v>
       </c>
       <c r="AC3">
-        <v>0.4553695778862897</v>
+        <v>0.4525184554214356</v>
       </c>
       <c r="AD3">
-        <v>7.468852005889844</v>
+        <v>7.473521518462906</v>
       </c>
       <c r="AE3">
-        <v>0.588284359195162</v>
+        <v>0.5862577928227236</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -4369,94 +4369,94 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>59.42098699260737</v>
+        <v>59.42719328322779</v>
       </c>
       <c r="C4">
-        <v>1.177193535246573</v>
+        <v>1.178661747764487</v>
       </c>
       <c r="D4">
-        <v>29.02243949185162</v>
+        <v>29.01200455065863</v>
       </c>
       <c r="E4">
-        <v>1.561162462895689</v>
+        <v>1.559575117463872</v>
       </c>
       <c r="F4">
-        <v>29.00385973902273</v>
+        <v>28.9949102362672</v>
       </c>
       <c r="G4">
-        <v>1.564242796902842</v>
+        <v>1.571516954814784</v>
       </c>
       <c r="H4">
-        <v>8.493946383261035</v>
+        <v>8.495961141318411</v>
       </c>
       <c r="I4">
-        <v>0.6273526722637512</v>
+        <v>0.6300665304426455</v>
       </c>
       <c r="J4">
-        <v>8.501595476996766</v>
+        <v>8.491987670193817</v>
       </c>
       <c r="K4">
-        <v>0.6249963692328728</v>
+        <v>0.623684476289188</v>
       </c>
       <c r="L4">
-        <v>2.83310515691293</v>
+        <v>2.831955841416297</v>
       </c>
       <c r="M4">
-        <v>0.2078416960264236</v>
+        <v>0.2081898591176012</v>
       </c>
       <c r="N4">
-        <v>5.661070844462364</v>
+        <v>5.662160235529688</v>
       </c>
       <c r="O4">
-        <v>0.4143026385413001</v>
+        <v>0.4169285909565456</v>
       </c>
       <c r="P4">
-        <v>2.83289489109084</v>
+        <v>2.832446627739391</v>
       </c>
       <c r="Q4">
-        <v>0.2059680748255167</v>
+        <v>0.2082678831706241</v>
       </c>
       <c r="R4">
-        <v>8.287603850030999</v>
+        <v>8.299835654419786</v>
       </c>
       <c r="S4">
-        <v>0.7458424639911049</v>
+        <v>0.7446071290148449</v>
       </c>
       <c r="T4">
-        <v>5.815594778749315</v>
+        <v>5.802901590141033</v>
       </c>
       <c r="U4">
-        <v>0.5184641013463346</v>
+        <v>0.5153983454612627</v>
       </c>
       <c r="V4">
-        <v>1.245677872200134</v>
+        <v>1.244496795544494</v>
       </c>
       <c r="W4">
-        <v>0.1110364225585066</v>
+        <v>0.1116943431975461</v>
       </c>
       <c r="X4">
-        <v>1.245017586489374</v>
+        <v>1.24463827401805</v>
       </c>
       <c r="Y4">
-        <v>0.1106447316981368</v>
+        <v>0.1112451947312542</v>
       </c>
       <c r="Z4">
-        <v>2.769088267843098</v>
+        <v>2.764862915981785</v>
       </c>
       <c r="AA4">
-        <v>0.2435470999345658</v>
+        <v>0.2462511608696953</v>
       </c>
       <c r="AB4">
-        <v>5.529700071272461</v>
+        <v>5.52902942083741</v>
       </c>
       <c r="AC4">
-        <v>0.4898157702720939</v>
+        <v>0.4941972291053785</v>
       </c>
       <c r="AD4">
-        <v>10.87466381105097</v>
+        <v>10.86746701792883</v>
       </c>
       <c r="AE4">
-        <v>0.6727785100045283</v>
+        <v>0.6636312210792926</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -4464,94 +4464,94 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>64.36010925704927</v>
+        <v>64.35234065213524</v>
       </c>
       <c r="C5">
-        <v>1.304940154260812</v>
+        <v>1.280557673960253</v>
       </c>
       <c r="D5">
-        <v>31.42284612335283</v>
+        <v>31.44145333606459</v>
       </c>
       <c r="E5">
-        <v>1.694240574092508</v>
+        <v>1.680423644448429</v>
       </c>
       <c r="F5">
-        <v>31.38530062647988</v>
+        <v>31.41922990434423</v>
       </c>
       <c r="G5">
-        <v>1.69003990284931</v>
+        <v>1.715320055107107</v>
       </c>
       <c r="H5">
-        <v>9.196008620347339</v>
+        <v>9.210924759280386</v>
       </c>
       <c r="I5">
-        <v>0.6805905266713249</v>
+        <v>0.6878294601826141</v>
       </c>
       <c r="J5">
-        <v>9.18969363604471</v>
+        <v>9.207924867215873</v>
       </c>
       <c r="K5">
-        <v>0.6703016998025947</v>
+        <v>0.6844428948123605</v>
       </c>
       <c r="L5">
-        <v>3.067738994812244</v>
+        <v>3.06908177484936</v>
       </c>
       <c r="M5">
-        <v>0.2268364132824846</v>
+        <v>0.2263154425833413</v>
       </c>
       <c r="N5">
-        <v>6.126253838058699</v>
+        <v>6.131260572487071</v>
       </c>
       <c r="O5">
-        <v>0.4493173875431472</v>
+        <v>0.4552309201959454</v>
       </c>
       <c r="P5">
-        <v>3.064997610823725</v>
+        <v>3.068811771415092</v>
       </c>
       <c r="Q5">
-        <v>0.2246607502904527</v>
+        <v>0.2270524111216044</v>
       </c>
       <c r="R5">
-        <v>8.978323207291977</v>
+        <v>8.988579693807795</v>
       </c>
       <c r="S5">
-        <v>0.7992213117506582</v>
+        <v>0.805943790977364</v>
       </c>
       <c r="T5">
-        <v>6.278222848782227</v>
+        <v>6.290750397650169</v>
       </c>
       <c r="U5">
-        <v>0.5553594465925821</v>
+        <v>0.5643802909825583</v>
       </c>
       <c r="V5">
-        <v>1.346026101275988</v>
+        <v>1.34854698904398</v>
       </c>
       <c r="W5">
-        <v>0.1196863831242179</v>
+        <v>0.1207097850649278</v>
       </c>
       <c r="X5">
-        <v>1.345935766658787</v>
+        <v>1.349369617351607</v>
       </c>
       <c r="Y5">
-        <v>0.1190847100318453</v>
+        <v>0.1204079795558951</v>
       </c>
       <c r="Z5">
-        <v>2.995998847484839</v>
+        <v>2.996363187935563</v>
       </c>
       <c r="AA5">
-        <v>0.2681124639585007</v>
+        <v>0.2664525499305785</v>
       </c>
       <c r="AB5">
-        <v>5.982865605276166</v>
+        <v>5.98991553994765</v>
       </c>
       <c r="AC5">
-        <v>0.533010334391474</v>
+        <v>0.5380919666158673</v>
       </c>
       <c r="AD5">
-        <v>12.88504394612854</v>
+        <v>12.88249990330122</v>
       </c>
       <c r="AE5">
-        <v>0.7150402222750941</v>
+        <v>0.7169113909627229</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -4559,94 +4559,94 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>69.32362784099132</v>
+        <v>69.30515164618868</v>
       </c>
       <c r="C6">
-        <v>1.398074236791843</v>
+        <v>1.399451602229756</v>
       </c>
       <c r="D6">
-        <v>33.84061846477253</v>
+        <v>33.84366916537795</v>
       </c>
       <c r="E6">
-        <v>1.813361587132534</v>
+        <v>1.817352684877325</v>
       </c>
       <c r="F6">
-        <v>33.85235105305513</v>
+        <v>33.83100709115853</v>
       </c>
       <c r="G6">
-        <v>1.845162121405626</v>
+        <v>1.826174469883933</v>
       </c>
       <c r="H6">
-        <v>9.916121936840735</v>
+        <v>9.911007923956266</v>
       </c>
       <c r="I6">
-        <v>0.733063767568371</v>
+        <v>0.7349839081930907</v>
       </c>
       <c r="J6">
-        <v>9.924748011116135</v>
+        <v>9.913764818452325</v>
       </c>
       <c r="K6">
-        <v>0.7346952133631903</v>
+        <v>0.7277566466882173</v>
       </c>
       <c r="L6">
-        <v>3.303603100762745</v>
+        <v>3.304925527126015</v>
       </c>
       <c r="M6">
-        <v>0.2441015373424931</v>
+        <v>0.2461780437481851</v>
       </c>
       <c r="N6">
-        <v>6.611699656533272</v>
+        <v>6.606417208618578</v>
       </c>
       <c r="O6">
-        <v>0.4896828308993935</v>
+        <v>0.4837160680987938</v>
       </c>
       <c r="P6">
-        <v>3.307631440003218</v>
+        <v>3.308916863679176</v>
       </c>
       <c r="Q6">
-        <v>0.2439672600749736</v>
+        <v>0.2442107111847876</v>
       </c>
       <c r="R6">
-        <v>9.684763072613872</v>
+        <v>9.678923660943573</v>
       </c>
       <c r="S6">
-        <v>0.8619537434748423</v>
+        <v>0.8647608455163514</v>
       </c>
       <c r="T6">
-        <v>6.78446853468842</v>
+        <v>6.774180517252078</v>
       </c>
       <c r="U6">
-        <v>0.6072299929618027</v>
+        <v>0.6016995639235173</v>
       </c>
       <c r="V6">
-        <v>1.452977203930911</v>
+        <v>1.451496032105971</v>
       </c>
       <c r="W6">
-        <v>0.1301212328183612</v>
+        <v>0.1301684473120456</v>
       </c>
       <c r="X6">
-        <v>1.452842821245528</v>
+        <v>1.452501661560706</v>
       </c>
       <c r="Y6">
-        <v>0.1302927152491832</v>
+        <v>0.1282177332855985</v>
       </c>
       <c r="Z6">
-        <v>3.226514509440514</v>
+        <v>3.225757750307005</v>
       </c>
       <c r="AA6">
-        <v>0.2872965261392458</v>
+        <v>0.2872127270303356</v>
       </c>
       <c r="AB6">
-        <v>6.451065384449981</v>
+        <v>6.454340798207927</v>
       </c>
       <c r="AC6">
-        <v>0.5768400140856803</v>
+        <v>0.5683821022870456</v>
       </c>
       <c r="AD6">
-        <v>14.36757741625706</v>
+        <v>14.38113600719334</v>
       </c>
       <c r="AE6">
-        <v>0.7668940894444113</v>
+        <v>0.7704027591375384</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -4654,94 +4654,94 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>74.25272954497319</v>
+        <v>74.26540617466453</v>
       </c>
       <c r="C7">
-        <v>1.491741053915621</v>
+        <v>1.493116566966686</v>
       </c>
       <c r="D7">
-        <v>36.27195940906727</v>
+        <v>36.26458332002873</v>
       </c>
       <c r="E7">
-        <v>1.965353079283861</v>
+        <v>1.974636560714615</v>
       </c>
       <c r="F7">
-        <v>36.24419711800911</v>
+        <v>36.23794588109008</v>
       </c>
       <c r="G7">
-        <v>1.965106828909387</v>
+        <v>1.95115116439513</v>
       </c>
       <c r="H7">
-        <v>10.61588923969697</v>
+        <v>10.60948487061399</v>
       </c>
       <c r="I7">
-        <v>0.7810656859208163</v>
+        <v>0.7779183863798821</v>
       </c>
       <c r="J7">
-        <v>10.61331010550158</v>
+        <v>10.61034216690079</v>
       </c>
       <c r="K7">
-        <v>0.778349417613288</v>
+        <v>0.7727670690887686</v>
       </c>
       <c r="L7">
-        <v>3.539537432781124</v>
+        <v>3.538486353423284</v>
       </c>
       <c r="M7">
-        <v>0.258671132430813</v>
+        <v>0.2610172914911169</v>
       </c>
       <c r="N7">
-        <v>7.077133953515117</v>
+        <v>7.079171582540233</v>
       </c>
       <c r="O7">
-        <v>0.5260353399886607</v>
+        <v>0.5178474771138974</v>
       </c>
       <c r="P7">
-        <v>3.539083969775634</v>
+        <v>3.539851114853284</v>
       </c>
       <c r="Q7">
-        <v>0.2610953851970334</v>
+        <v>0.2632273588802984</v>
       </c>
       <c r="R7">
-        <v>10.35668243814648</v>
+        <v>10.35889122246831</v>
       </c>
       <c r="S7">
-        <v>0.9194238028822331</v>
+        <v>0.9309378032199348</v>
       </c>
       <c r="T7">
-        <v>7.255459925082012</v>
+        <v>7.25198257598194</v>
       </c>
       <c r="U7">
-        <v>0.6409637234359826</v>
+        <v>0.633783788445925</v>
       </c>
       <c r="V7">
-        <v>1.554090945072579</v>
+        <v>1.554770575954571</v>
       </c>
       <c r="W7">
-        <v>0.1385752493602197</v>
+        <v>0.1365627443895263</v>
       </c>
       <c r="X7">
-        <v>1.554125706144306</v>
+        <v>1.554698960450892</v>
       </c>
       <c r="Y7">
-        <v>0.1393759095047429</v>
+        <v>0.1378700226641275</v>
       </c>
       <c r="Z7">
-        <v>3.455864109317293</v>
+        <v>3.454251027480765</v>
       </c>
       <c r="AA7">
-        <v>0.3066786520977416</v>
+        <v>0.3049596258172637</v>
       </c>
       <c r="AB7">
-        <v>6.910363319195688</v>
+        <v>6.916476332206064</v>
       </c>
       <c r="AC7">
-        <v>0.6214065748479534</v>
+        <v>0.6144470863985007</v>
       </c>
       <c r="AD7">
-        <v>15.68539959015743</v>
+        <v>15.67987015367127</v>
       </c>
       <c r="AE7">
-        <v>0.8321390701432493</v>
+        <v>0.822806419547881</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -4749,94 +4749,94 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>79.22152648734865</v>
+        <v>79.19019610079461</v>
       </c>
       <c r="C8">
-        <v>1.574563805219665</v>
+        <v>1.576590407749196</v>
       </c>
       <c r="D8">
-        <v>38.70764135413076</v>
+        <v>38.67362702206937</v>
       </c>
       <c r="E8">
-        <v>2.075645967473808</v>
+        <v>2.07641403470666</v>
       </c>
       <c r="F8">
-        <v>38.69303263276264</v>
+        <v>38.70528781647547</v>
       </c>
       <c r="G8">
-        <v>2.083073619228689</v>
+        <v>2.075127866108068</v>
       </c>
       <c r="H8">
-        <v>11.33037854805297</v>
+        <v>11.33613627988272</v>
       </c>
       <c r="I8">
-        <v>0.8341454657025277</v>
+        <v>0.8340588377935043</v>
       </c>
       <c r="J8">
-        <v>11.33535362764363</v>
+        <v>11.33266671686643</v>
       </c>
       <c r="K8">
-        <v>0.83337678495053</v>
+        <v>0.8195332981126014</v>
       </c>
       <c r="L8">
-        <v>3.781497770124663</v>
+        <v>3.776696300920288</v>
       </c>
       <c r="M8">
-        <v>0.2768732154277307</v>
+        <v>0.2755551908174925</v>
       </c>
       <c r="N8">
-        <v>7.554266229590045</v>
+        <v>7.558719134289118</v>
       </c>
       <c r="O8">
-        <v>0.5601592474506318</v>
+        <v>0.5593218921666643</v>
       </c>
       <c r="P8">
-        <v>3.78073642110785</v>
+        <v>3.781609942555344</v>
       </c>
       <c r="Q8">
-        <v>0.2790022824521493</v>
+        <v>0.277156592807116</v>
       </c>
       <c r="R8">
-        <v>11.0649283757081</v>
+        <v>11.07150514259082</v>
       </c>
       <c r="S8">
-        <v>0.9824452175625386</v>
+        <v>0.9862067199226213</v>
       </c>
       <c r="T8">
-        <v>7.757371068178293</v>
+        <v>7.746539129455388</v>
       </c>
       <c r="U8">
-        <v>0.6889222023913903</v>
+        <v>0.6786173907897438</v>
       </c>
       <c r="V8">
-        <v>1.660214070998542</v>
+        <v>1.659691387451879</v>
       </c>
       <c r="W8">
-        <v>0.1473446237232932</v>
+        <v>0.1462716242941061</v>
       </c>
       <c r="X8">
-        <v>1.65996529703444</v>
+        <v>1.659454714796151</v>
       </c>
       <c r="Y8">
-        <v>0.1482707004189</v>
+        <v>0.1466293993030377</v>
       </c>
       <c r="Z8">
-        <v>3.694218971501728</v>
+        <v>3.690398019007596</v>
       </c>
       <c r="AA8">
-        <v>0.3279138721191388</v>
+        <v>0.3279104599694908</v>
       </c>
       <c r="AB8">
-        <v>7.376428447438341</v>
+        <v>7.379397926586181</v>
       </c>
       <c r="AC8">
-        <v>0.6607329987794729</v>
+        <v>0.6596272037593838</v>
       </c>
       <c r="AD8">
-        <v>16.89382656141759</v>
+        <v>16.89152591963836</v>
       </c>
       <c r="AE8">
-        <v>0.8731472353356434</v>
+        <v>0.886821115200026</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -4844,94 +4844,94 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>84.18635504786043</v>
+        <v>84.16788944983372</v>
       </c>
       <c r="C9">
-        <v>1.678877769278806</v>
+        <v>1.665027210740256</v>
       </c>
       <c r="D9">
-        <v>41.11922546788918</v>
+        <v>41.08730778703196</v>
       </c>
       <c r="E9">
-        <v>2.209764345873838</v>
+        <v>2.197564690023892</v>
       </c>
       <c r="F9">
-        <v>41.08748001409206</v>
+        <v>41.10049730618022</v>
       </c>
       <c r="G9">
-        <v>2.21378428674372</v>
+        <v>2.207095430312052</v>
       </c>
       <c r="H9">
-        <v>12.03994103052236</v>
+        <v>12.03848515857266</v>
       </c>
       <c r="I9">
-        <v>0.8790683930429878</v>
+        <v>0.8875640842729935</v>
       </c>
       <c r="J9">
-        <v>12.02977986832386</v>
+        <v>12.03628653512624</v>
       </c>
       <c r="K9">
-        <v>0.8795537260994517</v>
+        <v>0.8843179987881509</v>
       </c>
       <c r="L9">
-        <v>4.015573919640327</v>
+        <v>4.014608154542417</v>
       </c>
       <c r="M9">
-        <v>0.2953415450984864</v>
+        <v>0.2949844191572247</v>
       </c>
       <c r="N9">
-        <v>8.026976120734737</v>
+        <v>8.02578769274524</v>
       </c>
       <c r="O9">
-        <v>0.5908347043824445</v>
+        <v>0.5892396024579188</v>
       </c>
       <c r="P9">
-        <v>4.009301627184644</v>
+        <v>4.013324849460767</v>
       </c>
       <c r="Q9">
-        <v>0.2959661986907051</v>
+        <v>0.2949282726402903</v>
       </c>
       <c r="R9">
-        <v>11.75225278188949</v>
+        <v>11.75376179371771</v>
       </c>
       <c r="S9">
-        <v>1.045353954882985</v>
+        <v>1.05024037420605</v>
       </c>
       <c r="T9">
-        <v>8.22431093204559</v>
+        <v>8.227896378560965</v>
       </c>
       <c r="U9">
-        <v>0.7255524229161922</v>
+        <v>0.7311369500594711</v>
       </c>
       <c r="V9">
-        <v>1.761017411094284</v>
+        <v>1.762941339540274</v>
       </c>
       <c r="W9">
-        <v>0.1570519674881753</v>
+        <v>0.1563341212919901</v>
       </c>
       <c r="X9">
-        <v>1.764680879287938</v>
+        <v>1.761752523748357</v>
       </c>
       <c r="Y9">
-        <v>0.1552817419098202</v>
+        <v>0.1557970613134809</v>
       </c>
       <c r="Z9">
-        <v>3.919406158810376</v>
+        <v>3.921987989254385</v>
       </c>
       <c r="AA9">
-        <v>0.3506836898506832</v>
+        <v>0.3486543392617051</v>
       </c>
       <c r="AB9">
-        <v>7.834415975709885</v>
+        <v>7.842463145085174</v>
       </c>
       <c r="AC9">
-        <v>0.6967227447486815</v>
+        <v>0.6969978331795943</v>
       </c>
       <c r="AD9">
-        <v>18.10485377381644</v>
+        <v>18.10181103982322</v>
       </c>
       <c r="AE9">
-        <v>0.9396944995293407</v>
+        <v>0.9386505475280696</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -4939,94 +4939,94 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>89.08447304223</v>
+        <v>89.14093189963188</v>
       </c>
       <c r="C10">
-        <v>1.77360288682819</v>
+        <v>1.782249919131782</v>
       </c>
       <c r="D10">
-        <v>43.52671080955093</v>
+        <v>43.51847197514499</v>
       </c>
       <c r="E10">
-        <v>2.347287187124788</v>
+        <v>2.323544301648425</v>
       </c>
       <c r="F10">
-        <v>43.53283626522266</v>
+        <v>43.5365914810564</v>
       </c>
       <c r="G10">
-        <v>2.345429530740868</v>
+        <v>2.346444222000567</v>
       </c>
       <c r="H10">
-        <v>12.75016461733927</v>
+        <v>12.76136370755673</v>
       </c>
       <c r="I10">
-        <v>0.9443888751863897</v>
+        <v>0.9359523533774126</v>
       </c>
       <c r="J10">
-        <v>12.76652781473966</v>
+        <v>12.74799418794206</v>
       </c>
       <c r="K10">
-        <v>0.9371248791703245</v>
+        <v>0.9365065949108591</v>
       </c>
       <c r="L10">
-        <v>4.252702586571492</v>
+        <v>4.251783856468549</v>
       </c>
       <c r="M10">
-        <v>0.3127050606699726</v>
+        <v>0.3107947772406403</v>
       </c>
       <c r="N10">
-        <v>8.506034846221596</v>
+        <v>8.505424686956818</v>
       </c>
       <c r="O10">
-        <v>0.6302351819241954</v>
+        <v>0.6315499017616432</v>
       </c>
       <c r="P10">
-        <v>4.250859753176464</v>
+        <v>4.253790926462812</v>
       </c>
       <c r="Q10">
-        <v>0.310379479489849</v>
+        <v>0.3134873242653246</v>
       </c>
       <c r="R10">
-        <v>12.45111072189325</v>
+        <v>12.46090985257107</v>
       </c>
       <c r="S10">
-        <v>1.104957985116139</v>
+        <v>1.112308513268726</v>
       </c>
       <c r="T10">
-        <v>8.725026586261464</v>
+        <v>8.706431850102613</v>
       </c>
       <c r="U10">
-        <v>0.7720885638748866</v>
+        <v>0.7722647986391784</v>
       </c>
       <c r="V10">
-        <v>1.869279869236994</v>
+        <v>1.868080231465475</v>
       </c>
       <c r="W10">
-        <v>0.165736873637637</v>
+        <v>0.1664176361380522</v>
       </c>
       <c r="X10">
-        <v>1.868621474240218</v>
+        <v>1.867874150441259</v>
       </c>
       <c r="Y10">
-        <v>0.1667222963680379</v>
+        <v>0.1655643209427407</v>
       </c>
       <c r="Z10">
-        <v>4.151781764477078</v>
+        <v>4.15013075280295</v>
       </c>
       <c r="AA10">
-        <v>0.3697500888874143</v>
+        <v>0.3682803865182622</v>
       </c>
       <c r="AB10">
-        <v>8.309559173216639</v>
+        <v>8.306921881832345</v>
       </c>
       <c r="AC10">
-        <v>0.7387303553533634</v>
+        <v>0.7410972101311667</v>
       </c>
       <c r="AD10">
-        <v>19.27987363263443</v>
+        <v>19.28225076913401</v>
       </c>
       <c r="AE10">
-        <v>1.00125338517594</v>
+        <v>1.00427391450748</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -5034,94 +5034,94 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>94.06209133668845</v>
+        <v>94.06091076848134</v>
       </c>
       <c r="C11">
-        <v>1.880595260274337</v>
+        <v>1.854618658985199</v>
       </c>
       <c r="D11">
-        <v>45.95547203919958</v>
+        <v>45.94397725403972</v>
       </c>
       <c r="E11">
-        <v>2.460555954007318</v>
+        <v>2.479864869720396</v>
       </c>
       <c r="F11">
-        <v>45.93299544227703</v>
+        <v>45.99743635939175</v>
       </c>
       <c r="G11">
-        <v>2.454767998960969</v>
+        <v>2.453874093853381</v>
       </c>
       <c r="H11">
-        <v>13.44977192207642</v>
+        <v>13.46886079133162</v>
       </c>
       <c r="I11">
-        <v>0.986104661511644</v>
+        <v>0.9857567293282415</v>
       </c>
       <c r="J11">
-        <v>13.4543933013032</v>
+        <v>13.46971388707267</v>
       </c>
       <c r="K11">
-        <v>0.9850583536586495</v>
+        <v>0.9904178934503149</v>
       </c>
       <c r="L11">
-        <v>4.484631674386392</v>
+        <v>4.4947389786389</v>
       </c>
       <c r="M11">
-        <v>0.3296566988925774</v>
+        <v>0.3284734495418593</v>
       </c>
       <c r="N11">
-        <v>8.96860879695266</v>
+        <v>8.981017844202688</v>
       </c>
       <c r="O11">
-        <v>0.6567288795244234</v>
+        <v>0.6531258110184942</v>
       </c>
       <c r="P11">
-        <v>4.481056735256829</v>
+        <v>4.494691693441036</v>
       </c>
       <c r="Q11">
-        <v>0.3275008873776784</v>
+        <v>0.3289022387224578</v>
       </c>
       <c r="R11">
-        <v>13.13965999248587</v>
+        <v>13.15330032243658</v>
       </c>
       <c r="S11">
-        <v>1.170940060348213</v>
+        <v>1.166225840639382</v>
       </c>
       <c r="T11">
-        <v>9.203631029898805</v>
+        <v>9.213489397067443</v>
       </c>
       <c r="U11">
-        <v>0.8131374033851604</v>
+        <v>0.8201582288063123</v>
       </c>
       <c r="V11">
-        <v>1.970125098659904</v>
+        <v>1.974010863682396</v>
       </c>
       <c r="W11">
-        <v>0.1722890753197464</v>
+        <v>0.1781588177500935</v>
       </c>
       <c r="X11">
-        <v>1.970177162379521</v>
+        <v>1.973466516388294</v>
       </c>
       <c r="Y11">
-        <v>0.1741809996938185</v>
+        <v>0.1753016890818752</v>
       </c>
       <c r="Z11">
-        <v>4.37894097901295</v>
+        <v>4.39084868443145</v>
       </c>
       <c r="AA11">
-        <v>0.3926363042146304</v>
+        <v>0.3881426496646943</v>
       </c>
       <c r="AB11">
-        <v>8.757203002498374</v>
+        <v>8.774886981486095</v>
       </c>
       <c r="AC11">
-        <v>0.7785814640689708</v>
+        <v>0.776237940723296</v>
       </c>
       <c r="AD11">
-        <v>20.47090667448276</v>
+        <v>20.46613786944561</v>
       </c>
       <c r="AE11">
-        <v>1.05593054966413</v>
+        <v>1.059502179358817</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -5129,94 +5129,94 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>99.00323533956411</v>
+        <v>99.02891865718416</v>
       </c>
       <c r="C12">
-        <v>1.966593214236819</v>
+        <v>1.993149042496652</v>
       </c>
       <c r="D12">
-        <v>48.34612029334809</v>
+        <v>48.37089950464804</v>
       </c>
       <c r="E12">
-        <v>2.613128465677596</v>
+        <v>2.599196737983406</v>
       </c>
       <c r="F12">
-        <v>48.34428495075357</v>
+        <v>48.39971477424852</v>
       </c>
       <c r="G12">
-        <v>2.626624983481376</v>
+        <v>2.573545990429039</v>
       </c>
       <c r="H12">
-        <v>14.16980078475782</v>
+        <v>14.18109144256909</v>
       </c>
       <c r="I12">
-        <v>1.039626459305468</v>
+        <v>1.041160892938502</v>
       </c>
       <c r="J12">
-        <v>14.16300387873719</v>
+        <v>14.18741348489036</v>
       </c>
       <c r="K12">
-        <v>1.041510443043908</v>
+        <v>1.045833509699713</v>
       </c>
       <c r="L12">
-        <v>4.718584149859471</v>
+        <v>4.72418487647391</v>
       </c>
       <c r="M12">
-        <v>0.3506189191626772</v>
+        <v>0.344451649119272</v>
       </c>
       <c r="N12">
-        <v>9.443054131569282</v>
+        <v>9.452480136469203</v>
       </c>
       <c r="O12">
-        <v>0.6933421604806936</v>
+        <v>0.6929185050720013</v>
       </c>
       <c r="P12">
-        <v>4.719083493407012</v>
+        <v>4.727967598008231</v>
       </c>
       <c r="Q12">
-        <v>0.3472415453202252</v>
+        <v>0.3531588573894129</v>
       </c>
       <c r="R12">
-        <v>13.83942897366659</v>
+        <v>13.84849944329829</v>
       </c>
       <c r="S12">
-        <v>1.231176063384963</v>
+        <v>1.243786891860483</v>
       </c>
       <c r="T12">
-        <v>9.679046442718692</v>
+        <v>9.689646545722244</v>
       </c>
       <c r="U12">
-        <v>0.8580434597822996</v>
+        <v>0.865872197704978</v>
       </c>
       <c r="V12">
-        <v>2.073461690793267</v>
+        <v>2.079257233490802</v>
       </c>
       <c r="W12">
-        <v>0.183599976364636</v>
+        <v>0.1845245343497453</v>
       </c>
       <c r="X12">
-        <v>2.075045433288238</v>
+        <v>2.078926863127775</v>
       </c>
       <c r="Y12">
-        <v>0.1853144167450345</v>
+        <v>0.1858359301009932</v>
       </c>
       <c r="Z12">
-        <v>4.608543305682318</v>
+        <v>4.611758496163215</v>
       </c>
       <c r="AA12">
-        <v>0.4142304674418634</v>
+        <v>0.4114361754440934</v>
       </c>
       <c r="AB12">
-        <v>9.220662718084785</v>
+        <v>9.241685828062929</v>
       </c>
       <c r="AC12">
-        <v>0.8188031596320207</v>
+        <v>0.823895334648809</v>
       </c>
       <c r="AD12">
-        <v>21.64644239472304</v>
+        <v>21.66068891582504</v>
       </c>
       <c r="AE12">
-        <v>1.111514595746957</v>
+        <v>1.120610282058433</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -5224,94 +5224,94 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>4.950729774381892</v>
+        <v>4.951795526075212</v>
       </c>
       <c r="C13">
-        <v>0.09836766491024458</v>
+        <v>0.09907365608201824</v>
       </c>
       <c r="D13">
-        <v>2.417482945497894</v>
+        <v>2.419863201362102</v>
       </c>
       <c r="E13">
-        <v>0.1311944002906007</v>
+        <v>0.1293030482702163</v>
       </c>
       <c r="F13">
-        <v>2.417195913999863</v>
+        <v>2.416106161333573</v>
       </c>
       <c r="G13">
-        <v>0.130274765143667</v>
+        <v>0.1300997433616127</v>
       </c>
       <c r="H13">
-        <v>0.7078142059901511</v>
+        <v>0.7086229840776509</v>
       </c>
       <c r="I13">
-        <v>0.05196901363185056</v>
+        <v>0.05286478271156902</v>
       </c>
       <c r="J13">
-        <v>0.7079461748948299</v>
+        <v>0.707929583962902</v>
       </c>
       <c r="K13">
-        <v>0.05205107516491996</v>
+        <v>0.05204366398603794</v>
       </c>
       <c r="L13">
-        <v>0.2361012648854047</v>
+        <v>0.2359569960728733</v>
       </c>
       <c r="M13">
-        <v>0.0172329155505965</v>
+        <v>0.01748969239646651</v>
       </c>
       <c r="N13">
-        <v>0.4719651952769133</v>
+        <v>0.4718820855021481</v>
       </c>
       <c r="O13">
-        <v>0.03464068968638367</v>
+        <v>0.03509765714490024</v>
       </c>
       <c r="P13">
-        <v>0.2359987089167864</v>
+        <v>0.2359786859540196</v>
       </c>
       <c r="Q13">
-        <v>0.01733090500734028</v>
+        <v>0.01717791960291978</v>
       </c>
       <c r="R13">
-        <v>0.691668044512763</v>
+        <v>0.6919446436906169</v>
       </c>
       <c r="S13">
-        <v>0.06131294428527898</v>
+        <v>0.06160979099444207</v>
       </c>
       <c r="T13">
-        <v>0.4838329740702716</v>
+        <v>0.4840067940047017</v>
       </c>
       <c r="U13">
-        <v>0.04289721952245879</v>
+        <v>0.04292931429580899</v>
       </c>
       <c r="V13">
-        <v>0.1037071719024908</v>
+        <v>0.1036517282289869</v>
       </c>
       <c r="W13">
-        <v>0.009139188739826144</v>
+        <v>0.009257272615297392</v>
       </c>
       <c r="X13">
-        <v>0.103744889635229</v>
+        <v>0.1037333616850255</v>
       </c>
       <c r="Y13">
-        <v>0.009196153492790109</v>
+        <v>0.009215254210715798</v>
       </c>
       <c r="Z13">
-        <v>0.2305783844041244</v>
+        <v>0.2306067907623163</v>
       </c>
       <c r="AA13">
-        <v>0.02034487433155914</v>
+        <v>0.02060655275713394</v>
       </c>
       <c r="AB13">
-        <v>0.4609158190457295</v>
+        <v>0.4606339678514172</v>
       </c>
       <c r="AC13">
-        <v>0.04119186394729732</v>
+        <v>0.04153453740608227</v>
       </c>
       <c r="AD13">
-        <v>22.82274140679326</v>
+        <v>22.83991268007198</v>
       </c>
       <c r="AE13">
-        <v>1.175958824979941</v>
+        <v>1.180034508650536</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -5319,94 +5319,94 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>108.9014879139402</v>
+        <v>108.9186826982102</v>
       </c>
       <c r="C14">
-        <v>2.202176485328468</v>
+        <v>2.153719460726197</v>
       </c>
       <c r="D14">
-        <v>53.18477162792924</v>
+        <v>53.16035994988142</v>
       </c>
       <c r="E14">
-        <v>2.849638740349516</v>
+        <v>2.817330581659465</v>
       </c>
       <c r="F14">
-        <v>53.16862068489336</v>
+        <v>53.24182847007883</v>
       </c>
       <c r="G14">
-        <v>2.88592962459151</v>
+        <v>2.856314684080473</v>
       </c>
       <c r="H14">
-        <v>15.57314764646899</v>
+        <v>15.59582376223233</v>
       </c>
       <c r="I14">
-        <v>1.15226687898068</v>
+        <v>1.1336669131628</v>
       </c>
       <c r="J14">
-        <v>15.57266077563927</v>
+        <v>15.60212554006391</v>
       </c>
       <c r="K14">
-        <v>1.146610615119049</v>
+        <v>1.144821465407503</v>
       </c>
       <c r="L14">
-        <v>5.193824696625801</v>
+        <v>5.19854271359223</v>
       </c>
       <c r="M14">
-        <v>0.383427626455279</v>
+        <v>0.3817779717222746</v>
       </c>
       <c r="N14">
-        <v>10.38783873624314</v>
+        <v>10.39404015001857</v>
       </c>
       <c r="O14">
-        <v>0.7687530805749835</v>
+        <v>0.762722820647993</v>
       </c>
       <c r="P14">
-        <v>5.192036579037193</v>
+        <v>5.197697942668454</v>
       </c>
       <c r="Q14">
-        <v>0.38170633365566</v>
+        <v>0.3835424595441362</v>
       </c>
       <c r="R14">
-        <v>15.18939176520179</v>
+        <v>15.23264940943903</v>
       </c>
       <c r="S14">
-        <v>1.358443733839741</v>
+        <v>1.345192280245286</v>
       </c>
       <c r="T14">
-        <v>10.64238714518344</v>
+        <v>10.67082569313672</v>
       </c>
       <c r="U14">
-        <v>0.9424163169408581</v>
+        <v>0.9359527084730183</v>
       </c>
       <c r="V14">
-        <v>2.282632131228518</v>
+        <v>2.285622628033213</v>
       </c>
       <c r="W14">
-        <v>0.2036779119042061</v>
+        <v>0.2029923824121799</v>
       </c>
       <c r="X14">
-        <v>2.280879647343721</v>
+        <v>2.284589387119467</v>
       </c>
       <c r="Y14">
-        <v>0.2022978831778085</v>
+        <v>0.2016399161921286</v>
       </c>
       <c r="Z14">
-        <v>5.074196110236636</v>
+        <v>5.078484845958742</v>
       </c>
       <c r="AA14">
-        <v>0.4556904081895318</v>
+        <v>0.4530218267580898</v>
       </c>
       <c r="AB14">
-        <v>10.1478760178617</v>
+        <v>10.14873629681351</v>
       </c>
       <c r="AC14">
-        <v>0.9042605735374449</v>
+        <v>0.9028139507019762</v>
       </c>
       <c r="AD14">
-        <v>9.057402525857722</v>
+        <v>9.061324067532111</v>
       </c>
       <c r="AE14">
-        <v>0.5500440512774423</v>
+        <v>0.5558588096955733</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -5414,94 +5414,94 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>113.8859920842646</v>
+        <v>113.9140750505083</v>
       </c>
       <c r="C15">
-        <v>2.26459499615579</v>
+        <v>2.285057436434568</v>
       </c>
       <c r="D15">
-        <v>55.62483406572571</v>
+        <v>55.67852634818491</v>
       </c>
       <c r="E15">
-        <v>2.985728065397237</v>
+        <v>2.984294878973275</v>
       </c>
       <c r="F15">
-        <v>55.59157228168994</v>
+        <v>55.63561830751134</v>
       </c>
       <c r="G15">
-        <v>2.953887874358175</v>
+        <v>3.006315546428175</v>
       </c>
       <c r="H15">
-        <v>16.28959182827185</v>
+        <v>16.30836189641374</v>
       </c>
       <c r="I15">
-        <v>1.188507848984137</v>
+        <v>1.194750206039733</v>
       </c>
       <c r="J15">
-        <v>16.29573675194676</v>
+        <v>16.3062790235699</v>
       </c>
       <c r="K15">
-        <v>1.184792696193279</v>
+        <v>1.21569425794707</v>
       </c>
       <c r="L15">
-        <v>5.431894945118512</v>
+        <v>5.434518116406937</v>
       </c>
       <c r="M15">
-        <v>0.3958602753648709</v>
+        <v>0.4017798143388832</v>
       </c>
       <c r="N15">
-        <v>10.86175691239617</v>
+        <v>10.86951382568343</v>
       </c>
       <c r="O15">
-        <v>0.7955946960609387</v>
+        <v>0.7957797280044244</v>
       </c>
       <c r="P15">
-        <v>5.426036066992842</v>
+        <v>5.431431121573374</v>
       </c>
       <c r="Q15">
-        <v>0.3946294413090917</v>
+        <v>0.3991351100844753</v>
       </c>
       <c r="R15">
-        <v>15.89835416966063</v>
+        <v>15.92558605114331</v>
       </c>
       <c r="S15">
-        <v>1.40908190377788</v>
+        <v>1.411157298112673</v>
       </c>
       <c r="T15">
-        <v>11.14826825125934</v>
+        <v>11.13905332541226</v>
       </c>
       <c r="U15">
-        <v>0.9901242008995099</v>
+        <v>0.9894850454977</v>
       </c>
       <c r="V15">
-        <v>2.386601873392117</v>
+        <v>2.390156239532073</v>
       </c>
       <c r="W15">
-        <v>0.2100689738039426</v>
+        <v>0.2142357997463524</v>
       </c>
       <c r="X15">
-        <v>2.386785327708543</v>
+        <v>2.389149499185024</v>
       </c>
       <c r="Y15">
-        <v>0.2109426123431336</v>
+        <v>0.2145742337716733</v>
       </c>
       <c r="Z15">
-        <v>5.304765030718269</v>
+        <v>5.309361399643108</v>
       </c>
       <c r="AA15">
-        <v>0.4717746133884844</v>
+        <v>0.4775214763892137</v>
       </c>
       <c r="AB15">
-        <v>10.60094029137827</v>
+        <v>10.61777351739118</v>
       </c>
       <c r="AC15">
-        <v>0.9392972350242832</v>
+        <v>0.9459213398713828</v>
       </c>
       <c r="AD15">
-        <v>19.86078052015511</v>
+        <v>19.91035628382558</v>
       </c>
       <c r="AE15">
-        <v>1.242142088850229</v>
+        <v>1.225851922382966</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -5509,94 +5509,94 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>118.8613636385635</v>
+        <v>118.8306150739722</v>
       </c>
       <c r="C16">
-        <v>2.376682646842697</v>
+        <v>2.371766346909387</v>
       </c>
       <c r="D16">
-        <v>58.01806425735679</v>
+        <v>58.03688429308893</v>
       </c>
       <c r="E16">
-        <v>3.145600181096881</v>
+        <v>3.116901292238076</v>
       </c>
       <c r="F16">
-        <v>58.05999234462896</v>
+        <v>58.02515327191878</v>
       </c>
       <c r="G16">
-        <v>3.171727142284777</v>
+        <v>3.103406175259865</v>
       </c>
       <c r="H16">
-        <v>17.01374006667565</v>
+        <v>16.99143587847541</v>
       </c>
       <c r="I16">
-        <v>1.267458271486218</v>
+        <v>1.250171989124276</v>
       </c>
       <c r="J16">
-        <v>17.01131439225958</v>
+        <v>17.0007416009081</v>
       </c>
       <c r="K16">
-        <v>1.269106016007249</v>
+        <v>1.251940750298433</v>
       </c>
       <c r="L16">
-        <v>5.676332146454143</v>
+        <v>5.666129742350495</v>
       </c>
       <c r="M16">
-        <v>0.4261672167147833</v>
+        <v>0.4151497805288656</v>
       </c>
       <c r="N16">
-        <v>11.34220205674281</v>
+        <v>11.33198736705827</v>
       </c>
       <c r="O16">
-        <v>0.8370949473336381</v>
+        <v>0.8375257467363545</v>
       </c>
       <c r="P16">
-        <v>5.672393487344127</v>
+        <v>5.669093527539546</v>
       </c>
       <c r="Q16">
-        <v>0.4231370250997544</v>
+        <v>0.4179696811601001</v>
       </c>
       <c r="R16">
-        <v>16.60876015666601</v>
+        <v>16.60061329812645</v>
       </c>
       <c r="S16">
-        <v>1.507265566302863</v>
+        <v>1.483571382572247</v>
       </c>
       <c r="T16">
-        <v>11.62465689105223</v>
+        <v>11.62391299616794</v>
       </c>
       <c r="U16">
-        <v>1.037511777572147</v>
+        <v>1.026414064846155</v>
       </c>
       <c r="V16">
-        <v>2.491514050850317</v>
+        <v>2.490629382855355</v>
       </c>
       <c r="W16">
-        <v>0.2235614238182902</v>
+        <v>0.223561130375616</v>
       </c>
       <c r="X16">
-        <v>2.491250233196992</v>
+        <v>2.489416347885276</v>
       </c>
       <c r="Y16">
-        <v>0.2241162875878017</v>
+        <v>0.2223830968414756</v>
       </c>
       <c r="Z16">
-        <v>5.541700377200611</v>
+        <v>5.530662262573613</v>
       </c>
       <c r="AA16">
-        <v>0.5012192998237606</v>
+        <v>0.491341961433262</v>
       </c>
       <c r="AB16">
-        <v>11.07509878171708</v>
+        <v>11.06582078412278</v>
       </c>
       <c r="AC16">
-        <v>0.9879089177714262</v>
+        <v>0.9997023773356042</v>
       </c>
       <c r="AD16">
-        <v>24.31647533044894</v>
+        <v>24.34645258608608</v>
       </c>
       <c r="AE16">
-        <v>1.350097831886544</v>
+        <v>1.358385253627933</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -5604,94 +5604,94 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>123.7766839582175</v>
+        <v>123.7913442978219</v>
       </c>
       <c r="C17">
-        <v>2.4787972377974</v>
+        <v>2.485853205785541</v>
       </c>
       <c r="D17">
-        <v>60.37395751390901</v>
+        <v>60.47258175626235</v>
       </c>
       <c r="E17">
-        <v>3.245162341682067</v>
+        <v>3.260793743894819</v>
       </c>
       <c r="F17">
-        <v>60.44453680314785</v>
+        <v>60.43594292093217</v>
       </c>
       <c r="G17">
-        <v>3.248109983963936</v>
+        <v>3.261555977814128</v>
       </c>
       <c r="H17">
-        <v>17.69297348591756</v>
+        <v>17.70887154856027</v>
       </c>
       <c r="I17">
-        <v>1.300470929531325</v>
+        <v>1.29873442106486</v>
       </c>
       <c r="J17">
-        <v>17.69464787348371</v>
+        <v>17.70708523075373</v>
       </c>
       <c r="K17">
-        <v>1.288861254601724</v>
+        <v>1.303797732855716</v>
       </c>
       <c r="L17">
-        <v>5.908438248850618</v>
+        <v>5.901024858451286</v>
       </c>
       <c r="M17">
-        <v>0.4315256105009204</v>
+        <v>0.4357349692875632</v>
       </c>
       <c r="N17">
-        <v>11.81015709217877</v>
+        <v>11.80219484845785</v>
       </c>
       <c r="O17">
-        <v>0.8684920284718056</v>
+        <v>0.8602183097501074</v>
       </c>
       <c r="P17">
-        <v>5.906025843819884</v>
+        <v>5.899971444600451</v>
       </c>
       <c r="Q17">
-        <v>0.4379158121677144</v>
+        <v>0.4351176056107408</v>
       </c>
       <c r="R17">
-        <v>17.28509819125676</v>
+        <v>17.28544946883308</v>
       </c>
       <c r="S17">
-        <v>1.536482538788504</v>
+        <v>1.526958863446498</v>
       </c>
       <c r="T17">
-        <v>12.08950045687177</v>
+        <v>12.11629748550449</v>
       </c>
       <c r="U17">
-        <v>1.076686951035585</v>
+        <v>1.078812212945733</v>
       </c>
       <c r="V17">
-        <v>2.590784889658081</v>
+        <v>2.594050575133911</v>
       </c>
       <c r="W17">
-        <v>0.2302131013097473</v>
+        <v>0.2340236940259996</v>
       </c>
       <c r="X17">
-        <v>2.592794682891263</v>
+        <v>2.594817452664604</v>
       </c>
       <c r="Y17">
-        <v>0.2302702161936977</v>
+        <v>0.2308201152795888</v>
       </c>
       <c r="Z17">
-        <v>5.766607634256714</v>
+        <v>5.765258790445606</v>
       </c>
       <c r="AA17">
-        <v>0.5087889695991999</v>
+        <v>0.5119821201743185</v>
       </c>
       <c r="AB17">
-        <v>11.54533553785113</v>
+        <v>11.52154579773216</v>
       </c>
       <c r="AC17">
-        <v>1.030114425726134</v>
+        <v>1.01641314759001</v>
       </c>
       <c r="AD17">
-        <v>26.75226260303912</v>
+        <v>26.75737160408867</v>
       </c>
       <c r="AE17">
-        <v>1.441664904685503</v>
+        <v>1.424508694812376</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -5699,94 +5699,94 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>128.7363227644075</v>
+        <v>128.7180755639116</v>
       </c>
       <c r="C18">
-        <v>2.554716278223141</v>
+        <v>2.559895810291365</v>
       </c>
       <c r="D18">
-        <v>62.92119498448157</v>
+        <v>62.80487583336124</v>
       </c>
       <c r="E18">
-        <v>3.383459253967587</v>
+        <v>3.387548505391572</v>
       </c>
       <c r="F18">
-        <v>62.85515980721537</v>
+        <v>62.88971442870005</v>
       </c>
       <c r="G18">
-        <v>3.383443201290045</v>
+        <v>3.421449462335981</v>
       </c>
       <c r="H18">
-        <v>18.41007877020535</v>
+        <v>18.43628173474627</v>
       </c>
       <c r="I18">
-        <v>1.377412854288333</v>
+        <v>1.376482460395908</v>
       </c>
       <c r="J18">
-        <v>18.41314358687312</v>
+        <v>18.44762999853758</v>
       </c>
       <c r="K18">
-        <v>1.351369433553242</v>
+        <v>1.370019053307181</v>
       </c>
       <c r="L18">
-        <v>6.137876470089066</v>
+        <v>6.144099271202319</v>
       </c>
       <c r="M18">
-        <v>0.4543138231621524</v>
+        <v>0.4549676541254032</v>
       </c>
       <c r="N18">
-        <v>12.27034135705848</v>
+        <v>12.29160679109649</v>
       </c>
       <c r="O18">
-        <v>0.9085891010832273</v>
+        <v>0.8999204714692061</v>
       </c>
       <c r="P18">
-        <v>6.138497805752468</v>
+        <v>6.138239683854783</v>
       </c>
       <c r="Q18">
-        <v>0.4515096368577712</v>
+        <v>0.4539286808817978</v>
       </c>
       <c r="R18">
-        <v>17.99164916374316</v>
+        <v>18.00424438449395</v>
       </c>
       <c r="S18">
-        <v>1.61394837263909</v>
+        <v>1.62379115458147</v>
       </c>
       <c r="T18">
-        <v>12.58252750397039</v>
+        <v>12.61282802914378</v>
       </c>
       <c r="U18">
-        <v>1.118082924205024</v>
+        <v>1.131607498480326</v>
       </c>
       <c r="V18">
-        <v>2.697626845521238</v>
+        <v>2.701308979176281</v>
       </c>
       <c r="W18">
-        <v>0.2412477970809986</v>
+        <v>0.2416733512978655</v>
       </c>
       <c r="X18">
-        <v>2.697026522538595</v>
+        <v>2.703544885886094</v>
       </c>
       <c r="Y18">
-        <v>0.2376662864513014</v>
+        <v>0.2417805437760517</v>
       </c>
       <c r="Z18">
-        <v>5.990468386540241</v>
+        <v>5.992813800899799</v>
       </c>
       <c r="AA18">
-        <v>0.5353723052367717</v>
+        <v>0.53880745772392</v>
       </c>
       <c r="AB18">
-        <v>11.98100207384096</v>
+        <v>12.00914205054078</v>
       </c>
       <c r="AC18">
-        <v>1.070162838259819</v>
+        <v>1.078897418745609</v>
       </c>
       <c r="AD18">
-        <v>28.38886862717034</v>
+        <v>28.40886922966072</v>
       </c>
       <c r="AE18">
-        <v>1.476515622491376</v>
+        <v>1.47764384992442</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -5794,94 +5794,94 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>133.678585919495</v>
+        <v>133.61846057593</v>
       </c>
       <c r="C19">
-        <v>2.663583410798558</v>
+        <v>2.669509992023442</v>
       </c>
       <c r="D19">
-        <v>65.22775122356542</v>
+        <v>65.31058913130613</v>
       </c>
       <c r="E19">
-        <v>3.471084794934518</v>
+        <v>3.488463260480653</v>
       </c>
       <c r="F19">
-        <v>65.26563850425669</v>
+        <v>65.2397172513321</v>
       </c>
       <c r="G19">
-        <v>3.4990387515366</v>
+        <v>3.527948303684934</v>
       </c>
       <c r="H19">
-        <v>19.12201609748152</v>
+        <v>19.1126323713011</v>
       </c>
       <c r="I19">
-        <v>1.393210367976913</v>
+        <v>1.395809503767663</v>
       </c>
       <c r="J19">
-        <v>19.12244751086345</v>
+        <v>19.12353812472816</v>
       </c>
       <c r="K19">
-        <v>1.40261300774128</v>
+        <v>1.399465665177008</v>
       </c>
       <c r="L19">
-        <v>6.380386502347259</v>
+        <v>6.373997322610022</v>
       </c>
       <c r="M19">
-        <v>0.4711786142610359</v>
+        <v>0.4697176656983551</v>
       </c>
       <c r="N19">
-        <v>12.74821193951084</v>
+        <v>12.74431934158793</v>
       </c>
       <c r="O19">
-        <v>0.933897142797381</v>
+        <v>0.9400353734324325</v>
       </c>
       <c r="P19">
-        <v>6.374783314418337</v>
+        <v>6.375907917570041</v>
       </c>
       <c r="Q19">
-        <v>0.4699555968556928</v>
+        <v>0.4736308519052036</v>
       </c>
       <c r="R19">
-        <v>18.67400874934471</v>
+        <v>18.66526561943533</v>
       </c>
       <c r="S19">
-        <v>1.649519069290011</v>
+        <v>1.657658330039924</v>
       </c>
       <c r="T19">
-        <v>13.08103607779314</v>
+        <v>13.07759456528603</v>
       </c>
       <c r="U19">
-        <v>1.174529862627478</v>
+        <v>1.146770103782937</v>
       </c>
       <c r="V19">
-        <v>2.802142960519995</v>
+        <v>2.800871481578304</v>
       </c>
       <c r="W19">
-        <v>0.2486231326145405</v>
+        <v>0.247622545075947</v>
       </c>
       <c r="X19">
-        <v>2.802697677040135</v>
+        <v>2.802700409550238</v>
       </c>
       <c r="Y19">
-        <v>0.250107736157596</v>
+        <v>0.2509886188616268</v>
       </c>
       <c r="Z19">
-        <v>6.229110373746999</v>
+        <v>6.220467889677307</v>
       </c>
       <c r="AA19">
-        <v>0.5500868207203684</v>
+        <v>0.5525666167646315</v>
       </c>
       <c r="AB19">
-        <v>12.44237672335367</v>
+        <v>12.44442165857329</v>
       </c>
       <c r="AC19">
-        <v>1.095250391466903</v>
+        <v>1.107777907749578</v>
       </c>
       <c r="AD19">
-        <v>29.75719829261444</v>
+        <v>29.79241776375402</v>
       </c>
       <c r="AE19">
-        <v>1.53584416912703</v>
+        <v>1.555721410594134</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -5889,94 +5889,94 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>138.6247360740919</v>
+        <v>138.6227979467565</v>
       </c>
       <c r="C20">
-        <v>2.75910447910202</v>
+        <v>2.768710545959054</v>
       </c>
       <c r="D20">
-        <v>67.65240314946003</v>
+        <v>67.71409862344801</v>
       </c>
       <c r="E20">
-        <v>3.639627126501651</v>
+        <v>3.64856936704164</v>
       </c>
       <c r="F20">
-        <v>67.60439201704423</v>
+        <v>67.68247579102594</v>
       </c>
       <c r="G20">
-        <v>3.65132527967639</v>
+        <v>3.660444584619321</v>
       </c>
       <c r="H20">
-        <v>19.80581207446179</v>
+        <v>19.83710338454266</v>
       </c>
       <c r="I20">
-        <v>1.464721637403378</v>
+        <v>1.485738327502601</v>
       </c>
       <c r="J20">
-        <v>19.80299331480153</v>
+        <v>19.82654675201905</v>
       </c>
       <c r="K20">
-        <v>1.453184954086551</v>
+        <v>1.459173414956181</v>
       </c>
       <c r="L20">
-        <v>6.601676143580977</v>
+        <v>6.605748742593764</v>
       </c>
       <c r="M20">
-        <v>0.4828532775826453</v>
+        <v>0.4863818870427448</v>
       </c>
       <c r="N20">
-        <v>13.2072711541243</v>
+        <v>13.20508627914652</v>
       </c>
       <c r="O20">
-        <v>0.9747679659622095</v>
+        <v>0.9750786093549199</v>
       </c>
       <c r="P20">
-        <v>6.601680392686297</v>
+        <v>6.613587604504667</v>
       </c>
       <c r="Q20">
-        <v>0.4880284044884781</v>
+        <v>0.4900783457500437</v>
       </c>
       <c r="R20">
-        <v>19.33002040734965</v>
+        <v>19.37836161360862</v>
       </c>
       <c r="S20">
-        <v>1.704439690259384</v>
+        <v>1.764593363234065</v>
       </c>
       <c r="T20">
-        <v>13.54088116786186</v>
+        <v>13.54680943717724</v>
       </c>
       <c r="U20">
-        <v>1.21269390183167</v>
+        <v>1.196514137124532</v>
       </c>
       <c r="V20">
-        <v>2.898040529998779</v>
+        <v>2.906902117087612</v>
       </c>
       <c r="W20">
-        <v>0.2586966792845045</v>
+        <v>0.2579479392798105</v>
       </c>
       <c r="X20">
-        <v>2.902717749030207</v>
+        <v>2.90299842639348</v>
       </c>
       <c r="Y20">
-        <v>0.2579109329616922</v>
+        <v>0.2603403622230842</v>
       </c>
       <c r="Z20">
-        <v>6.446665995813359</v>
+        <v>6.451260565054731</v>
       </c>
       <c r="AA20">
-        <v>0.5729293889220681</v>
+        <v>0.5702722656817415</v>
       </c>
       <c r="AB20">
-        <v>12.89206906243997</v>
+        <v>12.8980592583143</v>
       </c>
       <c r="AC20">
-        <v>1.150423466434632</v>
+        <v>1.146362940767456</v>
       </c>
       <c r="AD20">
-        <v>31.00976891631539</v>
+        <v>31.0163142161555</v>
       </c>
       <c r="AE20">
-        <v>1.596086174975364</v>
+        <v>1.583489740125408</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -5984,94 +5984,94 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>143.5866092356779</v>
+        <v>143.621931463725</v>
       </c>
       <c r="C21">
-        <v>2.872965401219671</v>
+        <v>2.854188686195507</v>
       </c>
       <c r="D21">
-        <v>70.09506181017386</v>
+        <v>70.1430054063907</v>
       </c>
       <c r="E21">
-        <v>3.758615379003688</v>
+        <v>3.772618673515965</v>
       </c>
       <c r="F21">
-        <v>70.11958335169716</v>
+        <v>70.18744394496531</v>
       </c>
       <c r="G21">
-        <v>3.808783420252685</v>
+        <v>3.759573662766861</v>
       </c>
       <c r="H21">
-        <v>20.55990439389279</v>
+        <v>20.55774960521991</v>
       </c>
       <c r="I21">
-        <v>1.535580093526471</v>
+        <v>1.50422922716562</v>
       </c>
       <c r="J21">
-        <v>20.53463598804823</v>
+        <v>20.56345912708136</v>
       </c>
       <c r="K21">
-        <v>1.521264545509242</v>
+        <v>1.496132253772889</v>
       </c>
       <c r="L21">
-        <v>6.849714389863902</v>
+        <v>6.854823520719576</v>
       </c>
       <c r="M21">
-        <v>0.5089189302303475</v>
+        <v>0.5068821513451</v>
       </c>
       <c r="N21">
-        <v>13.69664443877209</v>
+        <v>13.70665236091836</v>
       </c>
       <c r="O21">
-        <v>1.011650686295509</v>
+        <v>1.011912404010793</v>
       </c>
       <c r="P21">
-        <v>6.85202814033924</v>
+        <v>6.854205384681451</v>
       </c>
       <c r="Q21">
-        <v>0.5039274647471881</v>
+        <v>0.5051123344093726</v>
       </c>
       <c r="R21">
-        <v>20.07943318808812</v>
+        <v>20.0763920702436</v>
       </c>
       <c r="S21">
-        <v>1.819341558959619</v>
+        <v>1.791624141103749</v>
       </c>
       <c r="T21">
-        <v>14.03577580518906</v>
+        <v>14.04254781989368</v>
       </c>
       <c r="U21">
-        <v>1.261892186598807</v>
+        <v>1.246168547575581</v>
       </c>
       <c r="V21">
-        <v>3.008712461843372</v>
+        <v>3.012257808843475</v>
       </c>
       <c r="W21">
-        <v>0.2672883205085761</v>
+        <v>0.2649145172966696</v>
       </c>
       <c r="X21">
-        <v>3.010662220192679</v>
+        <v>3.013231181437012</v>
       </c>
       <c r="Y21">
-        <v>0.2721259265285488</v>
+        <v>0.2676027448421215</v>
       </c>
       <c r="Z21">
-        <v>6.684294923365321</v>
+        <v>6.694241578894049</v>
       </c>
       <c r="AA21">
-        <v>0.6032800491842834</v>
+        <v>0.6006304456556547</v>
       </c>
       <c r="AB21">
-        <v>13.37588323135662</v>
+        <v>13.38679592954811</v>
       </c>
       <c r="AC21">
-        <v>1.195256226432082</v>
+        <v>1.196859294769863</v>
       </c>
       <c r="AD21">
-        <v>32.17759769671538</v>
+        <v>32.2143380778753</v>
       </c>
       <c r="AE21">
-        <v>1.651427800633843</v>
+        <v>1.671996665787417</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6079,94 +6079,94 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>148.5333805533784</v>
+        <v>148.5213772145116</v>
       </c>
       <c r="C22">
-        <v>2.965685587083024</v>
+        <v>2.957672985098956</v>
       </c>
       <c r="D22">
-        <v>72.54161044981574</v>
+        <v>72.51303869297907</v>
       </c>
       <c r="E22">
-        <v>3.879025873700766</v>
+        <v>3.907209890292695</v>
       </c>
       <c r="F22">
-        <v>72.5909642696115</v>
+        <v>72.45563171083907</v>
       </c>
       <c r="G22">
-        <v>3.923252842111299</v>
+        <v>3.906492604276537</v>
       </c>
       <c r="H22">
-        <v>21.26330088555582</v>
+        <v>21.20102586690797</v>
       </c>
       <c r="I22">
-        <v>1.575274270848364</v>
+        <v>1.56472260062987</v>
       </c>
       <c r="J22">
-        <v>21.28601080091126</v>
+        <v>21.23480289540912</v>
       </c>
       <c r="K22">
-        <v>1.560027348756945</v>
+        <v>1.572044801770708</v>
       </c>
       <c r="L22">
-        <v>7.087949657151963</v>
+        <v>7.07777316172247</v>
       </c>
       <c r="M22">
-        <v>0.5254309956392751</v>
+        <v>0.5231701804471816</v>
       </c>
       <c r="N22">
-        <v>14.18067658389469</v>
+        <v>14.14647797379572</v>
       </c>
       <c r="O22">
-        <v>1.033994733974687</v>
+        <v>1.033960854020326</v>
       </c>
       <c r="P22">
-        <v>7.090764985820521</v>
+        <v>7.069142909232506</v>
       </c>
       <c r="Q22">
-        <v>0.5198255662529531</v>
+        <v>0.5147375742382322</v>
       </c>
       <c r="R22">
-        <v>20.76166617365335</v>
+        <v>20.69910023548253</v>
       </c>
       <c r="S22">
-        <v>1.844048067298934</v>
+        <v>1.829203072572791</v>
       </c>
       <c r="T22">
-        <v>14.54699918370495</v>
+        <v>14.52171373241743</v>
       </c>
       <c r="U22">
-        <v>1.295405064657436</v>
+        <v>1.300851041045389</v>
       </c>
       <c r="V22">
-        <v>3.117922099998685</v>
+        <v>3.112363940808653</v>
       </c>
       <c r="W22">
-        <v>0.2768799756328468</v>
+        <v>0.2803094367664871</v>
       </c>
       <c r="X22">
-        <v>3.119660374657722</v>
+        <v>3.110190081367484</v>
       </c>
       <c r="Y22">
-        <v>0.2756536302200323</v>
+        <v>0.2777339992084993</v>
       </c>
       <c r="Z22">
-        <v>6.918572548354497</v>
+        <v>6.907533485403832</v>
       </c>
       <c r="AA22">
-        <v>0.6228586797333963</v>
+        <v>0.6156820048873203</v>
       </c>
       <c r="AB22">
-        <v>13.84567899442649</v>
+        <v>13.80457149142605</v>
       </c>
       <c r="AC22">
-        <v>1.229488876203387</v>
+        <v>1.221750796580983</v>
       </c>
       <c r="AD22">
-        <v>33.39552374576798</v>
+        <v>33.41077249204557</v>
       </c>
       <c r="AE22">
-        <v>1.737125941563343</v>
+        <v>1.713100812358349</v>
       </c>
     </row>
   </sheetData>
@@ -6252,64 +6252,64 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>24.16713794367623</v>
+        <v>24.1705855004433</v>
       </c>
       <c r="C2">
-        <v>1.301947612428363</v>
+        <v>1.316149538261277</v>
       </c>
       <c r="D2">
-        <v>24.16713794367623</v>
+        <v>24.1705855004433</v>
       </c>
       <c r="E2">
-        <v>1.301947612428363</v>
+        <v>1.316149538261277</v>
       </c>
       <c r="F2">
-        <v>2.360318034371856</v>
+        <v>2.360515077605554</v>
       </c>
       <c r="G2">
-        <v>0.1744974287603745</v>
+        <v>0.1726565594002086</v>
       </c>
       <c r="H2">
-        <v>2.360318034371856</v>
+        <v>2.360515077605554</v>
       </c>
       <c r="I2">
-        <v>0.1744974287603745</v>
+        <v>0.1726565594002086</v>
       </c>
       <c r="J2">
-        <v>11.75744640069962</v>
+        <v>11.76207793011691</v>
       </c>
       <c r="K2">
-        <v>0.8721002241188229</v>
+        <v>0.8635409064266688</v>
       </c>
       <c r="L2">
-        <v>11.75744640069962</v>
+        <v>11.76207793011691</v>
       </c>
       <c r="M2">
-        <v>0.8721002241188229</v>
+        <v>0.8635409064266688</v>
       </c>
       <c r="N2">
-        <v>7.958412429963876</v>
+        <v>7.955259105500082</v>
       </c>
       <c r="O2">
-        <v>0.5715224819175675</v>
+        <v>0.5616783988185462</v>
       </c>
       <c r="P2">
-        <v>7.958412429963876</v>
+        <v>7.955259105500082</v>
       </c>
       <c r="Q2">
-        <v>0.5715224819175675</v>
+        <v>0.5616783988185462</v>
       </c>
       <c r="R2">
-        <v>1.037284382388525</v>
+        <v>1.038333020732934</v>
       </c>
       <c r="S2">
-        <v>0.09287840469968103</v>
+        <v>0.09316491413852163</v>
       </c>
       <c r="T2">
-        <v>1.037284382388525</v>
+        <v>1.038333020732934</v>
       </c>
       <c r="U2">
-        <v>0.09287840469968103</v>
+        <v>0.09316491413852163</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6317,64 +6317,64 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>26.58547488474276</v>
+        <v>26.60710862296651</v>
       </c>
       <c r="C3">
-        <v>1.442103504184082</v>
+        <v>1.429402084936852</v>
       </c>
       <c r="D3">
-        <v>50.75261282841895</v>
+        <v>50.77769412340967</v>
       </c>
       <c r="E3">
-        <v>1.934242755395186</v>
+        <v>1.935368913838647</v>
       </c>
       <c r="F3">
-        <v>2.601329820964759</v>
+        <v>2.598868326700244</v>
       </c>
       <c r="G3">
-        <v>0.1909688449094047</v>
+        <v>0.190801039118795</v>
       </c>
       <c r="H3">
-        <v>4.961647855336623</v>
+        <v>4.959383404305808</v>
       </c>
       <c r="I3">
-        <v>0.2585518544132768</v>
+        <v>0.2562009624427402</v>
       </c>
       <c r="J3">
-        <v>5.488007421742868</v>
+        <v>5.468580117501441</v>
       </c>
       <c r="K3">
-        <v>1.139316429670997</v>
+        <v>1.125192447903479</v>
       </c>
       <c r="L3">
-        <v>17.24545382244241</v>
+        <v>17.23065804761838</v>
       </c>
       <c r="M3">
-        <v>1.046425591582684</v>
+        <v>1.029262700375862</v>
       </c>
       <c r="N3">
-        <v>16.22765443961103</v>
+        <v>16.22652407065263</v>
       </c>
       <c r="O3">
-        <v>0.8661526189431081</v>
+        <v>0.8565282834578037</v>
       </c>
       <c r="P3">
-        <v>24.18606686957499</v>
+        <v>24.18178317615277</v>
       </c>
       <c r="Q3">
-        <v>1.206511331572101</v>
+        <v>1.185908570138329</v>
       </c>
       <c r="R3">
-        <v>1.142294028927376</v>
+        <v>1.142368940997138</v>
       </c>
       <c r="S3">
-        <v>0.1024933647365435</v>
+        <v>0.1013189163684916</v>
       </c>
       <c r="T3">
-        <v>2.179578411315902</v>
+        <v>2.180701961730075</v>
       </c>
       <c r="U3">
-        <v>0.1383315685575134</v>
+        <v>0.1390083863794994</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -6382,64 +6382,64 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>29.02243949185162</v>
+        <v>29.01200455065863</v>
       </c>
       <c r="C4">
-        <v>1.561162462895689</v>
+        <v>1.559575117463872</v>
       </c>
       <c r="D4">
-        <v>79.77505232027069</v>
+        <v>79.78969867406842</v>
       </c>
       <c r="E4">
-        <v>2.478763572823558</v>
+        <v>2.476640179638823</v>
       </c>
       <c r="F4">
-        <v>2.83289489109084</v>
+        <v>2.832446627739391</v>
       </c>
       <c r="G4">
-        <v>0.2059680748255167</v>
+        <v>0.2082678831706241</v>
       </c>
       <c r="H4">
-        <v>7.794542746427446</v>
+        <v>7.791830032045191</v>
       </c>
       <c r="I4">
-        <v>0.3268640200395103</v>
+        <v>0.3308182542978783</v>
       </c>
       <c r="J4">
-        <v>3.228534817729356</v>
+        <v>3.235270226631976</v>
       </c>
       <c r="K4">
-        <v>1.259894839380351</v>
+        <v>1.244469984710961</v>
       </c>
       <c r="L4">
-        <v>20.47398864017186</v>
+        <v>20.4659282742503</v>
       </c>
       <c r="M4">
-        <v>1.177304131366149</v>
+        <v>1.181438007916003</v>
       </c>
       <c r="N4">
-        <v>20.4191300223667</v>
+        <v>20.40585615029259</v>
       </c>
       <c r="O4">
-        <v>0.9498849128388356</v>
+        <v>0.9542600922969701</v>
       </c>
       <c r="P4">
-        <v>44.60519689194165</v>
+        <v>44.58763932644531</v>
       </c>
       <c r="Q4">
-        <v>1.788308131263687</v>
+        <v>1.782243641093475</v>
       </c>
       <c r="R4">
-        <v>1.245017586489374</v>
+        <v>1.24463827401805</v>
       </c>
       <c r="S4">
-        <v>0.1106447316981368</v>
+        <v>0.1112451947312542</v>
       </c>
       <c r="T4">
-        <v>3.424595997805278</v>
+        <v>3.42534023574812</v>
       </c>
       <c r="U4">
-        <v>0.1768523285821477</v>
+        <v>0.177446332195143</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6447,64 +6447,64 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>31.42284612335283</v>
+        <v>31.44145333606459</v>
       </c>
       <c r="C5">
-        <v>1.694240574092508</v>
+        <v>1.680423644448429</v>
       </c>
       <c r="D5">
-        <v>111.1978984436241</v>
+        <v>111.2311520101326</v>
       </c>
       <c r="E5">
-        <v>3.027577651878167</v>
+        <v>2.999095220978636</v>
       </c>
       <c r="F5">
-        <v>3.064997610823725</v>
+        <v>3.068811771415092</v>
       </c>
       <c r="G5">
-        <v>0.2246607502904527</v>
+        <v>0.2270524111216044</v>
       </c>
       <c r="H5">
-        <v>10.85954035725115</v>
+        <v>10.8606418034603</v>
       </c>
       <c r="I5">
-        <v>0.3978671089150392</v>
+        <v>0.4010488028817625</v>
       </c>
       <c r="J5">
-        <v>2.371502109945688</v>
+        <v>2.396830188156698</v>
       </c>
       <c r="K5">
-        <v>1.334990703337117</v>
+        <v>1.342821609929082</v>
       </c>
       <c r="L5">
-        <v>22.84549075011741</v>
+        <v>22.86275846240702</v>
       </c>
       <c r="M5">
-        <v>1.303025835302586</v>
+        <v>1.316350868563366</v>
       </c>
       <c r="N5">
-        <v>23.20993450016554</v>
+        <v>23.2173256202284</v>
       </c>
       <c r="O5">
-        <v>1.032921091554647</v>
+        <v>1.030107421612496</v>
       </c>
       <c r="P5">
-        <v>67.81513139210718</v>
+        <v>67.80496494667376</v>
       </c>
       <c r="Q5">
-        <v>2.34429375658123</v>
+        <v>2.327895688000726</v>
       </c>
       <c r="R5">
-        <v>1.345935766658787</v>
+        <v>1.349369617351607</v>
       </c>
       <c r="S5">
-        <v>0.1190847100318453</v>
+        <v>0.1204079795558951</v>
       </c>
       <c r="T5">
-        <v>4.770531764464051</v>
+        <v>4.774709853099729</v>
       </c>
       <c r="U5">
-        <v>0.2146854161830119</v>
+        <v>0.2117102992791601</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -6512,64 +6512,64 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>33.84061846477253</v>
+        <v>33.84366916537795</v>
       </c>
       <c r="C6">
-        <v>1.813361587132534</v>
+        <v>1.817352684877325</v>
       </c>
       <c r="D6">
-        <v>145.038516908396</v>
+        <v>145.0748211755114</v>
       </c>
       <c r="E6">
-        <v>3.516554749646538</v>
+        <v>3.504259082994672</v>
       </c>
       <c r="F6">
-        <v>3.307631440003218</v>
+        <v>3.308916863679176</v>
       </c>
       <c r="G6">
-        <v>0.2439672600749736</v>
+        <v>0.2442107111847876</v>
       </c>
       <c r="H6">
-        <v>14.16717179725449</v>
+        <v>14.16955866713948</v>
       </c>
       <c r="I6">
-        <v>0.4713433459221487</v>
+        <v>0.471730405416645</v>
       </c>
       <c r="J6">
-        <v>2.101654191045165</v>
+        <v>2.07196817100235</v>
       </c>
       <c r="K6">
-        <v>1.450836601530514</v>
+        <v>1.449860794876616</v>
       </c>
       <c r="L6">
-        <v>24.94714494116271</v>
+        <v>24.93472663340943</v>
       </c>
       <c r="M6">
-        <v>1.428742155746351</v>
+        <v>1.432366676136246</v>
       </c>
       <c r="N6">
-        <v>25.4981345140786</v>
+        <v>25.5127305878142</v>
       </c>
       <c r="O6">
-        <v>1.109587329798085</v>
+        <v>1.096744104208182</v>
       </c>
       <c r="P6">
-        <v>93.3132659061859</v>
+        <v>93.31769553448804</v>
       </c>
       <c r="Q6">
-        <v>2.868438693254223</v>
+        <v>2.842625463561328</v>
       </c>
       <c r="R6">
-        <v>1.452842821245528</v>
+        <v>1.452501661560706</v>
       </c>
       <c r="S6">
-        <v>0.1302927152491832</v>
+        <v>0.1282177332855985</v>
       </c>
       <c r="T6">
-        <v>6.223374585709626</v>
+        <v>6.227211514660434</v>
       </c>
       <c r="U6">
-        <v>0.2510330388037368</v>
+        <v>0.247767564176282</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -6577,64 +6577,64 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>36.27195940906727</v>
+        <v>36.26458332002873</v>
       </c>
       <c r="C7">
-        <v>1.965353079283861</v>
+        <v>1.974636560714615</v>
       </c>
       <c r="D7">
-        <v>181.3104763174636</v>
+        <v>181.3394044955401</v>
       </c>
       <c r="E7">
-        <v>4.036530176001921</v>
+        <v>4.034568618362828</v>
       </c>
       <c r="F7">
-        <v>3.539083969775634</v>
+        <v>3.539851114853284</v>
       </c>
       <c r="G7">
-        <v>0.2610953851970334</v>
+        <v>0.2632273588802984</v>
       </c>
       <c r="H7">
-        <v>17.70625576703009</v>
+        <v>17.70940978199268</v>
       </c>
       <c r="I7">
-        <v>0.5362656074509969</v>
+        <v>0.5405857443941025</v>
       </c>
       <c r="J7">
-        <v>1.926742773071037</v>
+        <v>1.931003644778914</v>
       </c>
       <c r="K7">
-        <v>1.569046281903747</v>
+        <v>1.539796109490808</v>
       </c>
       <c r="L7">
-        <v>26.87388771423366</v>
+        <v>26.8657302781884</v>
       </c>
       <c r="M7">
-        <v>1.523785569400959</v>
+        <v>1.558721479787156</v>
       </c>
       <c r="N7">
-        <v>27.60571796374291</v>
+        <v>27.60536808931269</v>
       </c>
       <c r="O7">
-        <v>1.182983298567249</v>
+        <v>1.177586363962854</v>
       </c>
       <c r="P7">
-        <v>120.9189838699291</v>
+        <v>120.9230636238012</v>
       </c>
       <c r="Q7">
-        <v>3.384241590123865</v>
+        <v>3.324864882927322</v>
       </c>
       <c r="R7">
-        <v>1.554125706144306</v>
+        <v>1.554698960450892</v>
       </c>
       <c r="S7">
-        <v>0.1393759095047429</v>
+        <v>0.1378700226641275</v>
       </c>
       <c r="T7">
-        <v>7.777500291853871</v>
+        <v>7.781910475111358</v>
       </c>
       <c r="U7">
-        <v>0.2869431305494466</v>
+        <v>0.282987227933669</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -6642,64 +6642,64 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>38.70764135413076</v>
+        <v>38.67362702206937</v>
       </c>
       <c r="C8">
-        <v>2.075645967473808</v>
+        <v>2.07641403470666</v>
       </c>
       <c r="D8">
-        <v>220.0181176715931</v>
+        <v>220.0130315176094</v>
       </c>
       <c r="E8">
-        <v>4.553997270257066</v>
+        <v>4.556647103629389</v>
       </c>
       <c r="F8">
-        <v>3.78073642110785</v>
+        <v>3.781609942555344</v>
       </c>
       <c r="G8">
-        <v>0.2790022824521493</v>
+        <v>0.277156592807116</v>
       </c>
       <c r="H8">
-        <v>21.48699218813791</v>
+        <v>21.49101972454809</v>
       </c>
       <c r="I8">
-        <v>0.6062643669224909</v>
+        <v>0.6053289842575471</v>
       </c>
       <c r="J8">
-        <v>1.928472882468814</v>
+        <v>1.926518352407862</v>
       </c>
       <c r="K8">
-        <v>1.629456349495158</v>
+        <v>1.639669411513399</v>
       </c>
       <c r="L8">
-        <v>28.8023605967026</v>
+        <v>28.79224863059617</v>
       </c>
       <c r="M8">
-        <v>1.647622532607927</v>
+        <v>1.653784266792148</v>
       </c>
       <c r="N8">
-        <v>29.62468805135611</v>
+        <v>29.62101325268411</v>
       </c>
       <c r="O8">
-        <v>1.266000437293267</v>
+        <v>1.270563139262544</v>
       </c>
       <c r="P8">
-        <v>150.5436719212851</v>
+        <v>150.5440768764857</v>
       </c>
       <c r="Q8">
-        <v>3.884867151177501</v>
+        <v>3.819615039410423</v>
       </c>
       <c r="R8">
-        <v>1.65996529703444</v>
+        <v>1.659454714796151</v>
       </c>
       <c r="S8">
-        <v>0.1482707004189</v>
+        <v>0.1466293993030377</v>
       </c>
       <c r="T8">
-        <v>9.437465588888314</v>
+        <v>9.441365189907488</v>
       </c>
       <c r="U8">
-        <v>0.3224798296946579</v>
+        <v>0.3171674921441731</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -6707,64 +6707,64 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>41.11922546788918</v>
+        <v>41.08730778703196</v>
       </c>
       <c r="C9">
-        <v>2.209764345873838</v>
+        <v>2.197564690023892</v>
       </c>
       <c r="D9">
-        <v>261.1373431394822</v>
+        <v>261.1003393046427</v>
       </c>
       <c r="E9">
-        <v>5.065528778207769</v>
+        <v>5.063903218451952</v>
       </c>
       <c r="F9">
-        <v>4.009301627184644</v>
+        <v>4.013324849460767</v>
       </c>
       <c r="G9">
-        <v>0.2959661986907051</v>
+        <v>0.2949282726402903</v>
       </c>
       <c r="H9">
-        <v>25.49629381532248</v>
+        <v>25.50434457400889</v>
       </c>
       <c r="I9">
-        <v>0.6716832233962557</v>
+        <v>0.6728151310550261</v>
       </c>
       <c r="J9">
-        <v>1.871709940118591</v>
+        <v>1.879847132455293</v>
       </c>
       <c r="K9">
-        <v>1.751816776208208</v>
+        <v>1.753322106355628</v>
       </c>
       <c r="L9">
-        <v>30.67407053682114</v>
+        <v>30.6720957630514</v>
       </c>
       <c r="M9">
-        <v>1.762469304382105</v>
+        <v>1.775278399945937</v>
       </c>
       <c r="N9">
-        <v>31.61969331943094</v>
+        <v>31.62920351370311</v>
       </c>
       <c r="O9">
-        <v>1.341356033678569</v>
+        <v>1.340568651498333</v>
       </c>
       <c r="P9">
-        <v>182.1633652407164</v>
+        <v>182.1732803901877</v>
       </c>
       <c r="Q9">
-        <v>4.359276504429218</v>
+        <v>4.312725708544241</v>
       </c>
       <c r="R9">
-        <v>1.764680879287938</v>
+        <v>1.761752523748357</v>
       </c>
       <c r="S9">
-        <v>0.1552817419098202</v>
+        <v>0.1557970613134809</v>
       </c>
       <c r="T9">
-        <v>11.20214646817627</v>
+        <v>11.20311771365585</v>
       </c>
       <c r="U9">
-        <v>0.3566032628854469</v>
+        <v>0.3522951791311199</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6772,64 +6772,64 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>43.52671080955093</v>
+        <v>43.51847197514499</v>
       </c>
       <c r="C10">
-        <v>2.347287187124788</v>
+        <v>2.323544301648425</v>
       </c>
       <c r="D10">
-        <v>304.6640539490336</v>
+        <v>304.6188112797849</v>
       </c>
       <c r="E10">
-        <v>5.590545568413416</v>
+        <v>5.574960360598872</v>
       </c>
       <c r="F10">
-        <v>4.250859753176464</v>
+        <v>4.253790926462812</v>
       </c>
       <c r="G10">
-        <v>0.310379479489849</v>
+        <v>0.3134873242653246</v>
       </c>
       <c r="H10">
-        <v>29.74715356849914</v>
+        <v>29.75813550047164</v>
       </c>
       <c r="I10">
-        <v>0.7366309177703459</v>
+        <v>0.7450252464594235</v>
       </c>
       <c r="J10">
-        <v>1.896263675520206</v>
+        <v>1.885090933539665</v>
       </c>
       <c r="K10">
-        <v>1.856885866217999</v>
+        <v>1.86530840007634</v>
       </c>
       <c r="L10">
-        <v>32.57033421234135</v>
+        <v>32.55718669659124</v>
       </c>
       <c r="M10">
-        <v>1.867130293756815</v>
+        <v>1.888739997025142</v>
       </c>
       <c r="N10">
-        <v>33.61049443956518</v>
+        <v>33.60738363523466</v>
       </c>
       <c r="O10">
-        <v>1.419607002510989</v>
+        <v>1.428594756111305</v>
       </c>
       <c r="P10">
-        <v>215.773859680282</v>
+        <v>215.7806640254235</v>
       </c>
       <c r="Q10">
-        <v>4.839832979221415</v>
+        <v>4.81775830451164</v>
       </c>
       <c r="R10">
-        <v>1.868621474240218</v>
+        <v>1.867874150441259</v>
       </c>
       <c r="S10">
-        <v>0.1667222963680379</v>
+        <v>0.1655643209427407</v>
       </c>
       <c r="T10">
-        <v>13.07076794241645</v>
+        <v>13.0709918640971</v>
       </c>
       <c r="U10">
-        <v>0.395687636760172</v>
+        <v>0.3910271531882512</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -6837,64 +6837,64 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>45.95547203919958</v>
+        <v>45.94397725403972</v>
       </c>
       <c r="C11">
-        <v>2.460555954007318</v>
+        <v>2.479864869720396</v>
       </c>
       <c r="D11">
-        <v>350.6195259882334</v>
+        <v>350.5627885338264</v>
       </c>
       <c r="E11">
-        <v>6.125794800103641</v>
+        <v>6.078480128065411</v>
       </c>
       <c r="F11">
-        <v>4.481056735256829</v>
+        <v>4.494691693441036</v>
       </c>
       <c r="G11">
-        <v>0.3275008873776784</v>
+        <v>0.3289022387224578</v>
       </c>
       <c r="H11">
-        <v>34.22821030375589</v>
+        <v>34.25282719391266</v>
       </c>
       <c r="I11">
-        <v>0.8031077833571598</v>
+        <v>0.8125600307039926</v>
       </c>
       <c r="J11">
-        <v>1.872384347901936</v>
+        <v>1.90065185005846</v>
       </c>
       <c r="K11">
-        <v>1.964575668327431</v>
+        <v>1.954004757549659</v>
       </c>
       <c r="L11">
-        <v>34.44271856024341</v>
+        <v>34.45783854664963</v>
       </c>
       <c r="M11">
-        <v>1.977189255996787</v>
+        <v>1.984342643018668</v>
       </c>
       <c r="N11">
-        <v>35.57717575465397</v>
+        <v>35.60588439904546</v>
       </c>
       <c r="O11">
-        <v>1.506084071530574</v>
+        <v>1.504658265190152</v>
       </c>
       <c r="P11">
-        <v>251.3510354349351</v>
+        <v>251.3865484244679</v>
       </c>
       <c r="Q11">
-        <v>5.348541548600144</v>
+        <v>5.329796344946057</v>
       </c>
       <c r="R11">
-        <v>1.970177162379521</v>
+        <v>1.973466516388294</v>
       </c>
       <c r="S11">
-        <v>0.1741809996938185</v>
+        <v>0.1753016890818752</v>
       </c>
       <c r="T11">
-        <v>15.04094510479596</v>
+        <v>15.0444583804854</v>
       </c>
       <c r="U11">
-        <v>0.4315681936902585</v>
+        <v>0.4291409347745728</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -6902,64 +6902,64 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>48.34612029334809</v>
+        <v>48.37089950464804</v>
       </c>
       <c r="C12">
-        <v>2.613128465677596</v>
+        <v>2.599196737983406</v>
       </c>
       <c r="D12">
-        <v>398.9656462815822</v>
+        <v>398.9336880384728</v>
       </c>
       <c r="E12">
-        <v>6.635551204110837</v>
+        <v>6.623999999598729</v>
       </c>
       <c r="F12">
-        <v>4.719083493407012</v>
+        <v>4.727967598008231</v>
       </c>
       <c r="G12">
-        <v>0.3472415453202252</v>
+        <v>0.3531588573894129</v>
       </c>
       <c r="H12">
-        <v>38.94729379716284</v>
+        <v>38.98079479192094</v>
       </c>
       <c r="I12">
-        <v>0.878318883335003</v>
+        <v>0.8852760281217509</v>
       </c>
       <c r="J12">
-        <v>1.872033021662259</v>
+        <v>1.877457073195485</v>
       </c>
       <c r="K12">
-        <v>2.068011551056795</v>
+        <v>2.088120795663508</v>
       </c>
       <c r="L12">
-        <v>36.31475158190564</v>
+        <v>36.3352956198452</v>
       </c>
       <c r="M12">
-        <v>2.078209815504898</v>
+        <v>2.094758197955365</v>
       </c>
       <c r="N12">
-        <v>37.54911010928318</v>
+        <v>37.59339047354199</v>
       </c>
       <c r="O12">
-        <v>1.597677429661913</v>
+        <v>1.598991245564224</v>
       </c>
       <c r="P12">
-        <v>288.9001455442192</v>
+        <v>288.9799388980101</v>
       </c>
       <c r="Q12">
-        <v>5.88718316202169</v>
+        <v>5.862046332720173</v>
       </c>
       <c r="R12">
-        <v>2.075045433288238</v>
+        <v>2.078926863127775</v>
       </c>
       <c r="S12">
-        <v>0.1853144167450345</v>
+        <v>0.1858359301009932</v>
       </c>
       <c r="T12">
-        <v>17.11599053808419</v>
+        <v>17.12338524361318</v>
       </c>
       <c r="U12">
-        <v>0.4691276414817178</v>
+        <v>0.4663796371133588</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -6967,64 +6967,64 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>2.417482945497894</v>
+        <v>2.419863201362102</v>
       </c>
       <c r="C13">
-        <v>0.1311944002906007</v>
+        <v>0.1293030482702163</v>
       </c>
       <c r="D13">
-        <v>401.3831292270801</v>
+        <v>401.353551239837</v>
       </c>
       <c r="E13">
-        <v>6.634258013801836</v>
+        <v>6.624994647995463</v>
       </c>
       <c r="F13">
-        <v>0.2359987089167864</v>
+        <v>0.2359786859540196</v>
       </c>
       <c r="G13">
-        <v>0.01733090500734028</v>
+        <v>0.01717791960291978</v>
       </c>
       <c r="H13">
-        <v>39.1832925060795</v>
+        <v>39.2167734778749</v>
       </c>
       <c r="I13">
-        <v>0.8783561333860078</v>
+        <v>0.8852301328198684</v>
       </c>
       <c r="J13">
-        <v>-21.64724038821024</v>
+        <v>-21.66396124237671</v>
       </c>
       <c r="K13">
-        <v>1.180689507921021</v>
+        <v>1.182653137898978</v>
       </c>
       <c r="L13">
-        <v>14.66751119369528</v>
+        <v>14.67133437746845</v>
       </c>
       <c r="M13">
-        <v>1.216199158872344</v>
+        <v>1.227937117108564</v>
       </c>
       <c r="N13">
-        <v>23.61794278214563</v>
+        <v>23.6348051669147</v>
       </c>
       <c r="O13">
-        <v>1.177137562087858</v>
+        <v>1.18141046218412</v>
       </c>
       <c r="P13">
-        <v>312.5180883263636</v>
+        <v>312.6147440649249</v>
       </c>
       <c r="Q13">
-        <v>6.300813470637875</v>
+        <v>6.267617960855375</v>
       </c>
       <c r="R13">
-        <v>0.103744889635229</v>
+        <v>0.1037333616850255</v>
       </c>
       <c r="S13">
-        <v>0.009196153492790109</v>
+        <v>0.009215254210715798</v>
       </c>
       <c r="T13">
-        <v>17.2197354277194</v>
+        <v>17.2271186052982</v>
       </c>
       <c r="U13">
-        <v>0.4691514433449479</v>
+        <v>0.4664445921117993</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -7032,64 +7032,64 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>53.18477162792924</v>
+        <v>53.16035994988142</v>
       </c>
       <c r="C14">
-        <v>2.849638740349516</v>
+        <v>2.817330581659465</v>
       </c>
       <c r="D14">
-        <v>454.5679008550097</v>
+        <v>454.5139111897184</v>
       </c>
       <c r="E14">
-        <v>7.218781107680584</v>
+        <v>7.163475477369388</v>
       </c>
       <c r="F14">
-        <v>5.192036579037193</v>
+        <v>5.197697942668454</v>
       </c>
       <c r="G14">
-        <v>0.38170633365566</v>
+        <v>0.3835424595441362</v>
       </c>
       <c r="H14">
-        <v>44.37532908511669</v>
+        <v>44.41447142054334</v>
       </c>
       <c r="I14">
-        <v>0.9603891506119165</v>
+        <v>0.9597004658235313</v>
       </c>
       <c r="J14">
-        <v>16.77437638452747</v>
+        <v>16.84215103504372</v>
       </c>
       <c r="K14">
-        <v>1.993921153700829</v>
+        <v>1.977786650038974</v>
       </c>
       <c r="L14">
-        <v>31.44188757822262</v>
+        <v>31.5134854125121</v>
       </c>
       <c r="M14">
-        <v>2.060404930341916</v>
+        <v>2.031488333857997</v>
       </c>
       <c r="N14">
-        <v>26.5621067851845</v>
+        <v>26.57416783833749</v>
       </c>
       <c r="O14">
-        <v>1.378176231357484</v>
+        <v>1.359258944436262</v>
       </c>
       <c r="P14">
-        <v>339.080195111547</v>
+        <v>339.1889119032629</v>
       </c>
       <c r="Q14">
-        <v>6.566787519295191</v>
+        <v>6.533707624811781</v>
       </c>
       <c r="R14">
-        <v>2.280879647343721</v>
+        <v>2.284589387119467</v>
       </c>
       <c r="S14">
-        <v>0.2022978831778085</v>
+        <v>0.2016399161921286</v>
       </c>
       <c r="T14">
-        <v>19.50061507506319</v>
+        <v>19.51170799241766</v>
       </c>
       <c r="U14">
-        <v>0.5113116257387134</v>
+        <v>0.509233539148104</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -7097,64 +7097,64 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>55.62483406572571</v>
+        <v>55.67852634818491</v>
       </c>
       <c r="C15">
-        <v>2.985728065397237</v>
+        <v>2.984294878973275</v>
       </c>
       <c r="D15">
-        <v>510.1927349207346</v>
+        <v>510.1924375379053</v>
       </c>
       <c r="E15">
-        <v>7.803708928865358</v>
+        <v>7.738368507522319</v>
       </c>
       <c r="F15">
-        <v>5.426036066992842</v>
+        <v>5.431431121573374</v>
       </c>
       <c r="G15">
-        <v>0.3946294413090917</v>
+        <v>0.3991351100844753</v>
       </c>
       <c r="H15">
-        <v>49.80136515210971</v>
+        <v>49.84590254211692</v>
       </c>
       <c r="I15">
-        <v>1.037098510131127</v>
+        <v>1.039646119445638</v>
       </c>
       <c r="J15">
-        <v>7.185841900764901</v>
+        <v>7.154283092729984</v>
       </c>
       <c r="K15">
-        <v>2.362530058666725</v>
+        <v>2.347476686550915</v>
       </c>
       <c r="L15">
-        <v>38.62772947898755</v>
+        <v>38.66776850524217</v>
       </c>
       <c r="M15">
-        <v>2.253276891213908</v>
+        <v>2.261318369955141</v>
       </c>
       <c r="N15">
-        <v>38.15308771564354</v>
+        <v>38.22764744039225</v>
       </c>
       <c r="O15">
-        <v>1.802343604100378</v>
+        <v>1.789018491372008</v>
       </c>
       <c r="P15">
-        <v>377.2332828271926</v>
+        <v>377.4165593436531</v>
       </c>
       <c r="Q15">
-        <v>7.037637014682327</v>
+        <v>6.974863894242484</v>
       </c>
       <c r="R15">
-        <v>2.386785327708543</v>
+        <v>2.389149499185024</v>
       </c>
       <c r="S15">
-        <v>0.2109426123431336</v>
+        <v>0.2145742337716733</v>
       </c>
       <c r="T15">
-        <v>21.8874004027716</v>
+        <v>21.90085749160279</v>
       </c>
       <c r="U15">
-        <v>0.5541774224308438</v>
+        <v>0.548917161234986</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -7162,64 +7162,64 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>58.01806425735679</v>
+        <v>58.03688429308893</v>
       </c>
       <c r="C16">
-        <v>3.145600181096881</v>
+        <v>3.116901292238076</v>
       </c>
       <c r="D16">
-        <v>568.2107991780924</v>
+        <v>568.2293218309902</v>
       </c>
       <c r="E16">
-        <v>8.470132434601137</v>
+        <v>8.386943900238181</v>
       </c>
       <c r="F16">
-        <v>5.672393487344127</v>
+        <v>5.669093527539546</v>
       </c>
       <c r="G16">
-        <v>0.4231370250997544</v>
+        <v>0.4179696811601001</v>
       </c>
       <c r="H16">
-        <v>55.47375863945379</v>
+        <v>55.51499606965662</v>
       </c>
       <c r="I16">
-        <v>1.121676082319063</v>
+        <v>1.118587964451405</v>
       </c>
       <c r="J16">
-        <v>3.916941717269411</v>
+        <v>3.878073708208233</v>
       </c>
       <c r="K16">
-        <v>2.518942449798687</v>
+        <v>2.501515469199787</v>
       </c>
       <c r="L16">
-        <v>42.54467119625701</v>
+        <v>42.54584221345036</v>
       </c>
       <c r="M16">
-        <v>2.471373454847194</v>
+        <v>2.468626573901826</v>
       </c>
       <c r="N16">
-        <v>43.42478854021705</v>
+        <v>43.43356501563775</v>
       </c>
       <c r="O16">
-        <v>1.934323386564514</v>
+        <v>1.940693825561306</v>
       </c>
       <c r="P16">
-        <v>420.6580713674104</v>
+        <v>420.8501243592909</v>
       </c>
       <c r="Q16">
-        <v>7.596141203025871</v>
+        <v>7.487977662041311</v>
       </c>
       <c r="R16">
-        <v>2.491250233196992</v>
+        <v>2.489416347885276</v>
       </c>
       <c r="S16">
-        <v>0.2241162875878017</v>
+        <v>0.2223830968414756</v>
       </c>
       <c r="T16">
-        <v>24.37865063596886</v>
+        <v>24.3902738394879</v>
       </c>
       <c r="U16">
-        <v>0.6001183213604609</v>
+        <v>0.5922547318991999</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -7227,64 +7227,64 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>60.37395751390901</v>
+        <v>60.47258175626235</v>
       </c>
       <c r="C17">
-        <v>3.245162341682067</v>
+        <v>3.260793743894819</v>
       </c>
       <c r="D17">
-        <v>628.5847566919971</v>
+        <v>628.7019035872588</v>
       </c>
       <c r="E17">
-        <v>9.056249440245715</v>
+        <v>8.916996899785703</v>
       </c>
       <c r="F17">
-        <v>5.906025843819884</v>
+        <v>5.899971444600451</v>
       </c>
       <c r="G17">
-        <v>0.4379158121677144</v>
+        <v>0.4351176056107408</v>
       </c>
       <c r="H17">
-        <v>61.37978448327377</v>
+        <v>61.4149675142565</v>
       </c>
       <c r="I17">
-        <v>1.199823309468957</v>
+        <v>1.206103021949268</v>
       </c>
       <c r="J17">
-        <v>2.622336045089332</v>
+        <v>2.644375350248899</v>
       </c>
       <c r="K17">
-        <v>2.607241094112875</v>
+        <v>2.573841971657131</v>
       </c>
       <c r="L17">
-        <v>45.16700724134657</v>
+        <v>45.19021756369919</v>
       </c>
       <c r="M17">
-        <v>2.588968047320908</v>
+        <v>2.602543641961714</v>
       </c>
       <c r="N17">
-        <v>46.6549906648051</v>
+        <v>46.63822676740021</v>
       </c>
       <c r="O17">
-        <v>2.036945559125889</v>
+        <v>2.025453042741841</v>
       </c>
       <c r="P17">
-        <v>467.3130620322119</v>
+        <v>467.4883511266937</v>
       </c>
       <c r="Q17">
-        <v>8.193279606345577</v>
+        <v>8.105501582444703</v>
       </c>
       <c r="R17">
-        <v>2.592794682891263</v>
+        <v>2.594817452664604</v>
       </c>
       <c r="S17">
-        <v>0.2302702161936977</v>
+        <v>0.2308201152795888</v>
       </c>
       <c r="T17">
-        <v>26.97144531886001</v>
+        <v>26.9850912921526</v>
       </c>
       <c r="U17">
-        <v>0.6429089990797676</v>
+        <v>0.6367419052394713</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -7292,64 +7292,64 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>62.92119498448157</v>
+        <v>62.80487583336124</v>
       </c>
       <c r="C18">
-        <v>3.383459253967587</v>
+        <v>3.387548505391572</v>
       </c>
       <c r="D18">
-        <v>691.5059516764823</v>
+        <v>691.5067794206175</v>
       </c>
       <c r="E18">
-        <v>9.740230636230809</v>
+        <v>9.469315240966811</v>
       </c>
       <c r="F18">
-        <v>6.138497805752468</v>
+        <v>6.138239683854783</v>
       </c>
       <c r="G18">
-        <v>0.4515096368577712</v>
+        <v>0.4539286808817978</v>
       </c>
       <c r="H18">
-        <v>67.51828228902626</v>
+        <v>67.55320719811151</v>
       </c>
       <c r="I18">
-        <v>1.27861509096695</v>
+        <v>1.286173411074912</v>
       </c>
       <c r="J18">
-        <v>2.18530804054302</v>
+        <v>2.208203183976896</v>
       </c>
       <c r="K18">
-        <v>2.730955842703271</v>
+        <v>2.725567245130836</v>
       </c>
       <c r="L18">
-        <v>47.35231528188951</v>
+        <v>47.39842074767604</v>
       </c>
       <c r="M18">
-        <v>2.73262610349164</v>
+        <v>2.755669248722577</v>
       </c>
       <c r="N18">
-        <v>49.05796593307264</v>
+        <v>49.11213406027762</v>
       </c>
       <c r="O18">
-        <v>2.084202645223389</v>
+        <v>2.105326974711835</v>
       </c>
       <c r="P18">
-        <v>516.3710279652888</v>
+        <v>516.6004851869722</v>
       </c>
       <c r="Q18">
-        <v>8.756448424966347</v>
+        <v>8.711046358002339</v>
       </c>
       <c r="R18">
-        <v>2.697026522538595</v>
+        <v>2.703544885886094</v>
       </c>
       <c r="S18">
-        <v>0.2376662864513014</v>
+        <v>0.2417805437760517</v>
       </c>
       <c r="T18">
-        <v>29.66847184139871</v>
+        <v>29.68863617803863</v>
       </c>
       <c r="U18">
-        <v>0.6875734954923199</v>
+        <v>0.678761241709429</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -7357,64 +7357,64 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>65.22775122356542</v>
+        <v>65.31058913130613</v>
       </c>
       <c r="C19">
-        <v>3.471084794934518</v>
+        <v>3.488463260480653</v>
       </c>
       <c r="D19">
-        <v>756.7337029000465</v>
+        <v>756.817368551923</v>
       </c>
       <c r="E19">
-        <v>10.38079667987573</v>
+        <v>10.09643772727696</v>
       </c>
       <c r="F19">
-        <v>6.374783314418337</v>
+        <v>6.375907917570041</v>
       </c>
       <c r="G19">
-        <v>0.4699555968556928</v>
+        <v>0.4736308519052036</v>
       </c>
       <c r="H19">
-        <v>73.89306560344464</v>
+        <v>73.92911511568148</v>
       </c>
       <c r="I19">
-        <v>1.357209102483613</v>
+        <v>1.372263968116896</v>
       </c>
       <c r="J19">
-        <v>1.997846534523421</v>
+        <v>1.95044242096736</v>
       </c>
       <c r="K19">
-        <v>2.784590117530971</v>
+        <v>2.815657109078219</v>
       </c>
       <c r="L19">
-        <v>49.35016181641284</v>
+        <v>49.34886316864338</v>
       </c>
       <c r="M19">
-        <v>2.866342718231556</v>
+        <v>2.806804336737788</v>
       </c>
       <c r="N19">
-        <v>51.23082835023513</v>
+        <v>51.25817879358292</v>
       </c>
       <c r="O19">
-        <v>2.171237040116455</v>
+        <v>2.175486430150355</v>
       </c>
       <c r="P19">
-        <v>567.6018563155222</v>
+        <v>567.8586639805542</v>
       </c>
       <c r="Q19">
-        <v>9.339386909721716</v>
+        <v>9.329858028740228</v>
       </c>
       <c r="R19">
-        <v>2.802697677040135</v>
+        <v>2.802700409550238</v>
       </c>
       <c r="S19">
-        <v>0.250107736157596</v>
+        <v>0.2509886188616268</v>
       </c>
       <c r="T19">
-        <v>32.47116951843859</v>
+        <v>32.49133658758898</v>
       </c>
       <c r="U19">
-        <v>0.730946787513382</v>
+        <v>0.7281142485163501</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -7422,64 +7422,64 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>67.65240314946003</v>
+        <v>67.71409862344801</v>
       </c>
       <c r="C20">
-        <v>3.639627126501651</v>
+        <v>3.64856936704164</v>
       </c>
       <c r="D20">
-        <v>824.3861060495069</v>
+        <v>824.5314671753702</v>
       </c>
       <c r="E20">
-        <v>11.00958213814079</v>
+        <v>10.72373385457129</v>
       </c>
       <c r="F20">
-        <v>6.601680392686297</v>
+        <v>6.613587604504667</v>
       </c>
       <c r="G20">
-        <v>0.4880284044884781</v>
+        <v>0.4900783457500437</v>
       </c>
       <c r="H20">
-        <v>80.49474599613066</v>
+        <v>80.54270272018634</v>
       </c>
       <c r="I20">
-        <v>1.448049925582071</v>
+        <v>1.458545742070916</v>
       </c>
       <c r="J20">
-        <v>1.861132658896372</v>
+        <v>1.908856834630358</v>
       </c>
       <c r="K20">
-        <v>2.878869573089337</v>
+        <v>2.955735752332623</v>
       </c>
       <c r="L20">
-        <v>51.21129447530942</v>
+        <v>51.2577200032739</v>
       </c>
       <c r="M20">
-        <v>2.973514656517819</v>
+        <v>2.979544013558556</v>
       </c>
       <c r="N20">
-        <v>53.24654450456755</v>
+        <v>53.27253615661218</v>
       </c>
       <c r="O20">
-        <v>2.271328871158984</v>
+        <v>2.238666633609249</v>
       </c>
       <c r="P20">
-        <v>620.8484008200888</v>
+        <v>621.1312001371651</v>
       </c>
       <c r="Q20">
-        <v>9.971127818818736</v>
+        <v>9.965147790704933</v>
       </c>
       <c r="R20">
-        <v>2.902717749030207</v>
+        <v>2.90299842639348</v>
       </c>
       <c r="S20">
-        <v>0.2579109329616922</v>
+        <v>0.2603403622230842</v>
       </c>
       <c r="T20">
-        <v>35.37388726746899</v>
+        <v>35.39433501398232</v>
       </c>
       <c r="U20">
-        <v>0.7796842730259881</v>
+        <v>0.7702173478678644</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -7487,64 +7487,64 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>70.09506181017386</v>
+        <v>70.1430054063907</v>
       </c>
       <c r="C21">
-        <v>3.758615379003688</v>
+        <v>3.772618673515965</v>
       </c>
       <c r="D21">
-        <v>894.481167859682</v>
+        <v>894.6744725817636</v>
       </c>
       <c r="E21">
-        <v>11.64645733884908</v>
+        <v>11.39443298984246</v>
       </c>
       <c r="F21">
-        <v>6.85202814033924</v>
+        <v>6.854205384681451</v>
       </c>
       <c r="G21">
-        <v>0.5039274647471881</v>
+        <v>0.5051123344093726</v>
       </c>
       <c r="H21">
-        <v>87.34677413646996</v>
+        <v>87.39690810486807</v>
       </c>
       <c r="I21">
-        <v>1.537467428580256</v>
+        <v>1.538674065365617</v>
       </c>
       <c r="J21">
-        <v>1.93761129656178</v>
+        <v>1.904601812261931</v>
       </c>
       <c r="K21">
-        <v>3.054486780422047</v>
+        <v>3.036792005138978</v>
       </c>
       <c r="L21">
-        <v>53.14890577187089</v>
+        <v>53.1623218155358</v>
       </c>
       <c r="M21">
-        <v>3.10608809997574</v>
+        <v>3.061301221472035</v>
       </c>
       <c r="N21">
-        <v>55.24648831328074</v>
+        <v>55.30763339516117</v>
       </c>
       <c r="O21">
-        <v>2.345000548970501</v>
+        <v>2.344491777405067</v>
       </c>
       <c r="P21">
-        <v>676.0948891333737</v>
+        <v>676.4388335323257</v>
       </c>
       <c r="Q21">
-        <v>10.60075487419828</v>
+        <v>10.61950033281277</v>
       </c>
       <c r="R21">
-        <v>3.010662220192679</v>
+        <v>3.013231181437012</v>
       </c>
       <c r="S21">
-        <v>0.2721259265285488</v>
+        <v>0.2676027448421215</v>
       </c>
       <c r="T21">
-        <v>38.38454948766164</v>
+        <v>38.40756619541928</v>
       </c>
       <c r="U21">
-        <v>0.8228598300386577</v>
+        <v>0.8197003077055125</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -7552,64 +7552,64 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>72.54161044981574</v>
+        <v>72.51303869297907</v>
       </c>
       <c r="C22">
-        <v>3.879025873700766</v>
+        <v>3.907209890292695</v>
       </c>
       <c r="D22">
-        <v>967.0227783094989</v>
+        <v>967.1875112747356</v>
       </c>
       <c r="E22">
-        <v>12.22091492057155</v>
+        <v>12.1215011004297</v>
       </c>
       <c r="F22">
-        <v>7.090764985820521</v>
+        <v>7.069142909232506</v>
       </c>
       <c r="G22">
-        <v>0.5198255662529531</v>
+        <v>0.5147375742382322</v>
       </c>
       <c r="H22">
-        <v>94.43753912229035</v>
+        <v>94.46605101410024</v>
       </c>
       <c r="I22">
-        <v>1.622118203779415</v>
+        <v>1.621469877100757</v>
       </c>
       <c r="J22">
-        <v>1.913141611590284</v>
+        <v>1.810041475854673</v>
       </c>
       <c r="K22">
-        <v>3.138782121152788</v>
+        <v>3.113061795770465</v>
       </c>
       <c r="L22">
-        <v>55.06204738346117</v>
+        <v>54.97236329139024</v>
       </c>
       <c r="M22">
-        <v>3.185828134532803</v>
+        <v>3.17270592597315</v>
       </c>
       <c r="N22">
-        <v>57.27769738854769</v>
+        <v>57.23524140968395</v>
       </c>
       <c r="O22">
-        <v>2.433391818051778</v>
+        <v>2.404518033981847</v>
       </c>
       <c r="P22">
-        <v>733.3725865219203</v>
+        <v>733.6740749420084</v>
       </c>
       <c r="Q22">
-        <v>11.2293206530739</v>
+        <v>11.27896712988224</v>
       </c>
       <c r="R22">
-        <v>3.119660374657722</v>
+        <v>3.110190081367484</v>
       </c>
       <c r="S22">
-        <v>0.2756536302200323</v>
+        <v>0.2777339992084993</v>
       </c>
       <c r="T22">
-        <v>41.50420986231939</v>
+        <v>41.51775627678683</v>
       </c>
       <c r="U22">
-        <v>0.8678225210451687</v>
+        <v>0.8653866836226298</v>
       </c>
     </row>
   </sheetData>

--- a/case_study_results/Case_study_results_MC_mean.xlsx
+++ b/case_study_results/Case_study_results_MC_mean.xlsx
@@ -633,88 +633,88 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>99.04535489710872</v>
+        <v>97.67849343644806</v>
       </c>
       <c r="C2">
-        <v>1.988332909661744</v>
+        <v>4.931980634693811</v>
       </c>
       <c r="D2">
-        <v>48.35271124800748</v>
+        <v>47.71000129422978</v>
       </c>
       <c r="E2">
-        <v>2.61242259392117</v>
+        <v>3.407260698708934</v>
       </c>
       <c r="F2">
-        <v>48.36150628219073</v>
+        <v>47.72267955628504</v>
       </c>
       <c r="G2">
-        <v>2.622639819306507</v>
+        <v>3.405194985415749</v>
       </c>
       <c r="H2">
-        <v>14.16642818912323</v>
+        <v>13.98078978788539</v>
       </c>
       <c r="I2">
-        <v>1.042053446839132</v>
+        <v>1.217176055796523</v>
       </c>
       <c r="J2">
-        <v>14.18153619359</v>
+        <v>13.98920386926702</v>
       </c>
       <c r="K2">
-        <v>1.047589438281131</v>
+        <v>1.228296041604053</v>
       </c>
       <c r="L2">
-        <v>4.723192019752802</v>
+        <v>4.662663190860075</v>
       </c>
       <c r="M2">
-        <v>0.3456506705537403</v>
+        <v>0.4071044058060783</v>
       </c>
       <c r="N2">
-        <v>9.442648618049082</v>
+        <v>9.316444110911036</v>
       </c>
       <c r="O2">
-        <v>0.6897839392670773</v>
+        <v>0.8117233615223146</v>
       </c>
       <c r="P2">
-        <v>4.722159013579406</v>
+        <v>4.659927735183987</v>
       </c>
       <c r="Q2">
-        <v>0.3504251108202771</v>
+        <v>0.4070774456863494</v>
       </c>
       <c r="R2">
-        <v>13.82955178361921</v>
+        <v>13.652507426077</v>
       </c>
       <c r="S2">
-        <v>1.230620515928891</v>
+        <v>1.367607719708368</v>
       </c>
       <c r="T2">
-        <v>9.704179694508257</v>
+        <v>9.570925655684835</v>
       </c>
       <c r="U2">
-        <v>0.8734434873951469</v>
+        <v>0.9720086568913392</v>
       </c>
       <c r="V2">
-        <v>2.077168979592952</v>
+        <v>2.049557631944927</v>
       </c>
       <c r="W2">
-        <v>0.185860667921838</v>
+        <v>0.2080168742856777</v>
       </c>
       <c r="X2">
-        <v>2.077448612006538</v>
+        <v>2.048497877901295</v>
       </c>
       <c r="Y2">
-        <v>0.1851811089554871</v>
+        <v>0.2055389899766147</v>
       </c>
       <c r="Z2">
-        <v>4.608344646768077</v>
+        <v>4.553846664383162</v>
       </c>
       <c r="AA2">
-        <v>0.410349971601962</v>
+        <v>0.4556329649594633</v>
       </c>
       <c r="AB2">
-        <v>9.228862932507315</v>
+        <v>9.094939278979201</v>
       </c>
       <c r="AC2">
-        <v>0.8277778944142545</v>
+        <v>0.9058815975891762</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -728,94 +728,94 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>108.9163720009045</v>
+        <v>107.4690496953855</v>
       </c>
       <c r="C3">
-        <v>2.180684106365175</v>
+        <v>5.368871335507748</v>
       </c>
       <c r="D3">
-        <v>53.13057445903875</v>
+        <v>52.50023805868221</v>
       </c>
       <c r="E3">
-        <v>2.856537453557385</v>
+        <v>3.705936958010723</v>
       </c>
       <c r="F3">
-        <v>53.20227788650127</v>
+        <v>52.48519301566041</v>
       </c>
       <c r="G3">
-        <v>2.887905345471604</v>
+        <v>3.715546489771008</v>
       </c>
       <c r="H3">
-        <v>15.5951100639265</v>
+        <v>15.38011553576558</v>
       </c>
       <c r="I3">
-        <v>1.156168415039865</v>
+        <v>1.342253845540057</v>
       </c>
       <c r="J3">
-        <v>15.58521377124675</v>
+        <v>15.39420539650378</v>
       </c>
       <c r="K3">
-        <v>1.157366155115346</v>
+        <v>1.337804497801032</v>
       </c>
       <c r="L3">
-        <v>5.19086694240139</v>
+        <v>5.123345417748355</v>
       </c>
       <c r="M3">
-        <v>0.3836397717585659</v>
+        <v>0.4455237112909392</v>
       </c>
       <c r="N3">
-        <v>10.38749561754813</v>
+        <v>10.24135845737844</v>
       </c>
       <c r="O3">
-        <v>0.7710383866586568</v>
+        <v>0.8931609655953323</v>
       </c>
       <c r="P3">
-        <v>5.192771126153135</v>
+        <v>5.122338159520852</v>
       </c>
       <c r="Q3">
-        <v>0.3857677825148722</v>
+        <v>0.4428987762041502</v>
       </c>
       <c r="R3">
-        <v>15.21973295918592</v>
+        <v>15.00897689759501</v>
       </c>
       <c r="S3">
-        <v>1.357860035590492</v>
+        <v>1.516793973855104</v>
       </c>
       <c r="T3">
-        <v>10.65891007265218</v>
+        <v>10.52137492695841</v>
       </c>
       <c r="U3">
-        <v>0.9550354350223176</v>
+        <v>1.047622421845072</v>
       </c>
       <c r="V3">
-        <v>2.284483058572977</v>
+        <v>2.253409259365414</v>
       </c>
       <c r="W3">
-        <v>0.2061059026164092</v>
+        <v>0.2263381941153235</v>
       </c>
       <c r="X3">
-        <v>2.281012320559805</v>
+        <v>2.253467174628278</v>
       </c>
       <c r="Y3">
-        <v>0.2044137971429043</v>
+        <v>0.2255298516238676</v>
       </c>
       <c r="Z3">
-        <v>5.067036527368849</v>
+        <v>5.00196719553855</v>
       </c>
       <c r="AA3">
-        <v>0.4507484921170974</v>
+        <v>0.5084272672897167</v>
       </c>
       <c r="AB3">
-        <v>10.14644755674083</v>
+        <v>9.991768326366497</v>
       </c>
       <c r="AC3">
-        <v>0.9055681941435829</v>
+        <v>0.9974199711009176</v>
       </c>
       <c r="AD3">
-        <v>7.473521518462906</v>
+        <v>7.372348945243116</v>
       </c>
       <c r="AE3">
-        <v>0.5862577928227236</v>
+        <v>0.6755443536789376</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -823,94 +823,94 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>118.8176414809078</v>
+        <v>117.2310724260548</v>
       </c>
       <c r="C4">
-        <v>2.386794981489765</v>
+        <v>5.884620203735124</v>
       </c>
       <c r="D4">
-        <v>58.01930431253258</v>
+        <v>57.21600520979531</v>
       </c>
       <c r="E4">
-        <v>3.141001291815138</v>
+        <v>4.049990557065615</v>
       </c>
       <c r="F4">
-        <v>58.07273307811651</v>
+        <v>57.23780785019127</v>
       </c>
       <c r="G4">
-        <v>3.148051342321386</v>
+        <v>4.047529566295427</v>
       </c>
       <c r="H4">
-        <v>17.00903302193366</v>
+        <v>16.78217734806928</v>
       </c>
       <c r="I4">
-        <v>1.24708127900981</v>
+        <v>1.45623295843772</v>
       </c>
       <c r="J4">
-        <v>17.01415624636937</v>
+        <v>16.76766834775838</v>
       </c>
       <c r="K4">
-        <v>1.260009294604494</v>
+        <v>1.454602694990292</v>
       </c>
       <c r="L4">
-        <v>5.669064206551534</v>
+        <v>5.58879391272129</v>
       </c>
       <c r="M4">
-        <v>0.4206603034179899</v>
+        <v>0.4821074919767904</v>
       </c>
       <c r="N4">
-        <v>11.35084870587261</v>
+        <v>11.18665055878799</v>
       </c>
       <c r="O4">
-        <v>0.8399237811976964</v>
+        <v>0.9663092401808451</v>
       </c>
       <c r="P4">
-        <v>5.667786584584576</v>
+        <v>5.589173509459273</v>
       </c>
       <c r="Q4">
-        <v>0.4194632424486164</v>
+        <v>0.4772397923351098</v>
       </c>
       <c r="R4">
-        <v>16.60988137048705</v>
+        <v>16.39468233711406</v>
       </c>
       <c r="S4">
-        <v>1.472583881256835</v>
+        <v>1.65287861082793</v>
       </c>
       <c r="T4">
-        <v>11.63457333030177</v>
+        <v>11.46835105631324</v>
       </c>
       <c r="U4">
-        <v>1.040589420523794</v>
+        <v>1.162132632197844</v>
       </c>
       <c r="V4">
-        <v>2.492987189417066</v>
+        <v>2.455821852417531</v>
       </c>
       <c r="W4">
-        <v>0.2236565832306129</v>
+        <v>0.2460570080882765</v>
       </c>
       <c r="X4">
-        <v>2.493843067025347</v>
+        <v>2.455003809766163</v>
       </c>
       <c r="Y4">
-        <v>0.2240163904887606</v>
+        <v>0.2472135546561783</v>
       </c>
       <c r="Z4">
-        <v>5.537032633690057</v>
+        <v>5.458884610035663</v>
       </c>
       <c r="AA4">
-        <v>0.4939596257757092</v>
+        <v>0.543818952767931</v>
       </c>
       <c r="AB4">
-        <v>11.08080296995492</v>
+        <v>10.93344820662499</v>
       </c>
       <c r="AC4">
-        <v>0.9858781015656203</v>
+        <v>1.095580388768803</v>
       </c>
       <c r="AD4">
-        <v>10.86746701792883</v>
+        <v>10.71232535502633</v>
       </c>
       <c r="AE4">
-        <v>0.6636312210792926</v>
+        <v>0.764195839620385</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -918,94 +918,94 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>128.70689500712</v>
+        <v>126.9128595335928</v>
       </c>
       <c r="C5">
-        <v>2.583257035584313</v>
+        <v>6.308190151723359</v>
       </c>
       <c r="D5">
-        <v>62.79960197751701</v>
+        <v>61.9445189530291</v>
       </c>
       <c r="E5">
-        <v>3.423671084675624</v>
+        <v>4.391190660448544</v>
       </c>
       <c r="F5">
-        <v>62.8716804884388</v>
+        <v>61.97702707775538</v>
       </c>
       <c r="G5">
-        <v>3.401198843988186</v>
+        <v>4.386785551197963</v>
       </c>
       <c r="H5">
-        <v>18.44276563983524</v>
+        <v>18.17799458779467</v>
       </c>
       <c r="I5">
-        <v>1.360601454101123</v>
+        <v>1.58534901868183</v>
       </c>
       <c r="J5">
-        <v>18.41327486613694</v>
+        <v>18.17857075577584</v>
       </c>
       <c r="K5">
-        <v>1.345030849778977</v>
+        <v>1.576012242133278</v>
       </c>
       <c r="L5">
-        <v>6.144575187673708</v>
+        <v>6.050767486061236</v>
       </c>
       <c r="M5">
-        <v>0.4503107722612567</v>
+        <v>0.5248711388015647</v>
       </c>
       <c r="N5">
-        <v>12.28078299188721</v>
+        <v>12.10643874483971</v>
       </c>
       <c r="O5">
-        <v>0.9094317630707699</v>
+        <v>1.057704158702454</v>
       </c>
       <c r="P5">
-        <v>6.136819111237117</v>
+        <v>6.047441997961969</v>
       </c>
       <c r="Q5">
-        <v>0.4515230522616221</v>
+        <v>0.5254342723255465</v>
       </c>
       <c r="R5">
-        <v>18.01545776558011</v>
+        <v>17.74617970551801</v>
       </c>
       <c r="S5">
-        <v>1.613538882341162</v>
+        <v>1.781365482160449</v>
       </c>
       <c r="T5">
-        <v>12.58641367811871</v>
+        <v>12.4196262654344</v>
       </c>
       <c r="U5">
-        <v>1.121524089922041</v>
+        <v>1.254633267208279</v>
       </c>
       <c r="V5">
-        <v>2.697727518235244</v>
+        <v>2.660998498719005</v>
       </c>
       <c r="W5">
-        <v>0.239282298891858</v>
+        <v>0.2672038019988918</v>
       </c>
       <c r="X5">
-        <v>2.696611561288993</v>
+        <v>2.664850311458526</v>
       </c>
       <c r="Y5">
-        <v>0.2379908841601713</v>
+        <v>0.2683804114805649</v>
       </c>
       <c r="Z5">
-        <v>5.994682834398559</v>
+        <v>5.908892707451269</v>
       </c>
       <c r="AA5">
-        <v>0.5311850841884991</v>
+        <v>0.5905444484560779</v>
       </c>
       <c r="AB5">
-        <v>11.99497114419785</v>
+        <v>11.83083346026622</v>
       </c>
       <c r="AC5">
-        <v>1.070113438445507</v>
+        <v>1.186858386216143</v>
       </c>
       <c r="AD5">
-        <v>12.88249990330122</v>
+        <v>12.70032711717295</v>
       </c>
       <c r="AE5">
-        <v>0.7169113909627229</v>
+        <v>0.823795894493962</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1013,94 +1013,94 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>138.5921826378046</v>
+        <v>136.6469179875126</v>
       </c>
       <c r="C6">
-        <v>2.765283271610985</v>
+        <v>6.810600217698586</v>
       </c>
       <c r="D6">
-        <v>67.70958113935231</v>
+        <v>66.73192903215161</v>
       </c>
       <c r="E6">
-        <v>3.654501368853108</v>
+        <v>4.731942937619205</v>
       </c>
       <c r="F6">
-        <v>67.67356019621035</v>
+        <v>66.7349956822284</v>
       </c>
       <c r="G6">
-        <v>3.643717181650527</v>
+        <v>4.754805328965299</v>
       </c>
       <c r="H6">
-        <v>19.81456319177004</v>
+        <v>19.53967549800243</v>
       </c>
       <c r="I6">
-        <v>1.464776306030565</v>
+        <v>1.705342895306732</v>
       </c>
       <c r="J6">
-        <v>19.84813948633965</v>
+        <v>19.5608134583154</v>
       </c>
       <c r="K6">
-        <v>1.460258063219651</v>
+        <v>1.724495707794357</v>
       </c>
       <c r="L6">
-        <v>6.60043358532938</v>
+        <v>6.514498637919232</v>
       </c>
       <c r="M6">
-        <v>0.4861067077191379</v>
+        <v>0.5670619220766443</v>
       </c>
       <c r="N6">
-        <v>13.2080657121491</v>
+        <v>13.02626724431786</v>
       </c>
       <c r="O6">
-        <v>0.9623229435357114</v>
+        <v>1.147595274721482</v>
       </c>
       <c r="P6">
-        <v>6.611361616203912</v>
+        <v>6.518312700843218</v>
       </c>
       <c r="Q6">
-        <v>0.4877623620388389</v>
+        <v>0.5718533202039047</v>
       </c>
       <c r="R6">
-        <v>19.34252712862143</v>
+        <v>19.07565332575725</v>
       </c>
       <c r="S6">
-        <v>1.734956960103811</v>
+        <v>1.928680338163154</v>
       </c>
       <c r="T6">
-        <v>13.56367660309645</v>
+        <v>13.37197135334621</v>
       </c>
       <c r="U6">
-        <v>1.209876455240453</v>
+        <v>1.354923761362716</v>
       </c>
       <c r="V6">
-        <v>2.908866839621829</v>
+        <v>2.866743085220864</v>
       </c>
       <c r="W6">
-        <v>0.2594185174254967</v>
+        <v>0.2888707342921314</v>
       </c>
       <c r="X6">
-        <v>2.908422713245101</v>
+        <v>2.863110298165759</v>
       </c>
       <c r="Y6">
-        <v>0.2585938479804208</v>
+        <v>0.2925387273302901</v>
       </c>
       <c r="Z6">
-        <v>6.444993941383761</v>
+        <v>6.357502572373698</v>
       </c>
       <c r="AA6">
-        <v>0.5757561350591777</v>
+        <v>0.6385736797379331</v>
       </c>
       <c r="AB6">
-        <v>12.88905311674881</v>
+        <v>12.72255869022288</v>
       </c>
       <c r="AC6">
-        <v>1.144250748828609</v>
+        <v>1.288233049587784</v>
       </c>
       <c r="AD6">
-        <v>14.38113600719334</v>
+        <v>14.18271696622134</v>
       </c>
       <c r="AE6">
-        <v>0.7704027591375384</v>
+        <v>0.8838762394311076</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1108,94 +1108,94 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>148.5361898683798</v>
+        <v>146.4201018466202</v>
       </c>
       <c r="C7">
-        <v>2.978465752180231</v>
+        <v>7.331997696413489</v>
       </c>
       <c r="D7">
-        <v>72.54791289522507</v>
+        <v>71.46612421117167</v>
       </c>
       <c r="E7">
-        <v>3.911176875684314</v>
+        <v>5.034235676279882</v>
       </c>
       <c r="F7">
-        <v>72.504586902299</v>
+        <v>71.4809808981619</v>
       </c>
       <c r="G7">
-        <v>3.923457428372334</v>
+        <v>5.022783423171558</v>
       </c>
       <c r="H7">
-        <v>21.26959528727761</v>
+        <v>20.93897590922656</v>
       </c>
       <c r="I7">
-        <v>1.564282270438143</v>
+        <v>1.814459535922169</v>
       </c>
       <c r="J7">
-        <v>21.2209263313711</v>
+        <v>20.93711931518088</v>
       </c>
       <c r="K7">
-        <v>1.567193537428999</v>
+        <v>1.810213391411621</v>
       </c>
       <c r="L7">
-        <v>7.075371294420322</v>
+        <v>6.979709172075223</v>
       </c>
       <c r="M7">
-        <v>0.5222577564337463</v>
+        <v>0.5991497607923655</v>
       </c>
       <c r="N7">
-        <v>14.14447426154838</v>
+        <v>13.98137129478802</v>
       </c>
       <c r="O7">
-        <v>1.044064144306996</v>
+        <v>1.206489703845426</v>
       </c>
       <c r="P7">
-        <v>7.083405918089763</v>
+        <v>6.980232917066878</v>
       </c>
       <c r="Q7">
-        <v>0.522115512357007</v>
+        <v>0.598617126653965</v>
       </c>
       <c r="R7">
-        <v>20.7606341261623</v>
+        <v>20.44307940634074</v>
       </c>
       <c r="S7">
-        <v>1.843690357605812</v>
+        <v>2.058212874340541</v>
       </c>
       <c r="T7">
-        <v>14.50655788355081</v>
+        <v>14.3246345432041</v>
       </c>
       <c r="U7">
-        <v>1.300042633758916</v>
+        <v>1.427990284084225</v>
       </c>
       <c r="V7">
-        <v>3.10984380312989</v>
+        <v>3.06627733282392</v>
       </c>
       <c r="W7">
-        <v>0.2761258218173798</v>
+        <v>0.3063337408521753</v>
       </c>
       <c r="X7">
-        <v>3.10535107055723</v>
+        <v>3.067776901140571</v>
       </c>
       <c r="Y7">
-        <v>0.2767336480803613</v>
+        <v>0.309507855471685</v>
       </c>
       <c r="Z7">
-        <v>6.909736457271886</v>
+        <v>6.809798728908872</v>
       </c>
       <c r="AA7">
-        <v>0.6194682545328334</v>
+        <v>0.6769386226635449</v>
       </c>
       <c r="AB7">
-        <v>13.81760228182456</v>
+        <v>13.65074283592537</v>
       </c>
       <c r="AC7">
-        <v>1.238239358673558</v>
+        <v>1.368472264776675</v>
       </c>
       <c r="AD7">
-        <v>15.67987015367127</v>
+        <v>15.45790832273801</v>
       </c>
       <c r="AE7">
-        <v>0.822806419547881</v>
+        <v>0.955228303307546</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1203,94 +1203,94 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>158.4565452680426</v>
+        <v>156.1490888456432</v>
       </c>
       <c r="C8">
-        <v>3.185639507886048</v>
+        <v>7.754088908970128</v>
       </c>
       <c r="D8">
-        <v>77.41339963805392</v>
+        <v>76.1960582157725</v>
       </c>
       <c r="E8">
-        <v>4.168964110944417</v>
+        <v>5.3228439847163</v>
       </c>
       <c r="F8">
-        <v>77.40019712090218</v>
+        <v>76.2205688059944</v>
       </c>
       <c r="G8">
-        <v>4.209077441921282</v>
+        <v>5.440445719964557</v>
       </c>
       <c r="H8">
-        <v>22.6851984170159</v>
+        <v>22.32413051362839</v>
       </c>
       <c r="I8">
-        <v>1.680420331507931</v>
+        <v>1.947615532477032</v>
       </c>
       <c r="J8">
-        <v>22.6775582358492</v>
+        <v>22.31100309962218</v>
       </c>
       <c r="K8">
-        <v>1.679601827898195</v>
+        <v>1.938226900919125</v>
       </c>
       <c r="L8">
-        <v>7.556144282739812</v>
+        <v>7.447847810100168</v>
       </c>
       <c r="M8">
-        <v>0.5602305479683866</v>
+        <v>0.6509794246312437</v>
       </c>
       <c r="N8">
-        <v>15.10296525576472</v>
+        <v>14.89405797340814</v>
       </c>
       <c r="O8">
-        <v>1.107853666766674</v>
+        <v>1.304229057044297</v>
       </c>
       <c r="P8">
-        <v>7.557974252540692</v>
+        <v>7.446508727396949</v>
       </c>
       <c r="Q8">
-        <v>0.5558879938589949</v>
+        <v>0.6570686615395465</v>
       </c>
       <c r="R8">
-        <v>22.15415038519472</v>
+        <v>21.77580588989996</v>
       </c>
       <c r="S8">
-        <v>1.990970637755296</v>
+        <v>2.194669706018219</v>
       </c>
       <c r="T8">
-        <v>15.49511870689725</v>
+        <v>15.25370250837401</v>
       </c>
       <c r="U8">
-        <v>1.389917826054377</v>
+        <v>1.535682033888799</v>
       </c>
       <c r="V8">
-        <v>3.320762085378989</v>
+        <v>3.26419603732946</v>
       </c>
       <c r="W8">
-        <v>0.2978122330387788</v>
+        <v>0.3283263852336324</v>
       </c>
       <c r="X8">
-        <v>3.319201899549025</v>
+        <v>3.268788847093142</v>
       </c>
       <c r="Y8">
-        <v>0.2965215118991571</v>
+        <v>0.3275846996565692</v>
       </c>
       <c r="Z8">
-        <v>7.385011792890962</v>
+        <v>7.273011032811583</v>
       </c>
       <c r="AA8">
-        <v>0.6621757803254616</v>
+        <v>0.7306978967380643</v>
       </c>
       <c r="AB8">
-        <v>14.75744973974994</v>
+        <v>14.55506704911751</v>
       </c>
       <c r="AC8">
-        <v>1.311282823401937</v>
+        <v>1.455241391556121</v>
       </c>
       <c r="AD8">
-        <v>16.89152591963836</v>
+        <v>16.69918496683835</v>
       </c>
       <c r="AE8">
-        <v>0.886821115200026</v>
+        <v>1.03455507951063</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1298,94 +1298,94 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>168.3482340303262</v>
+        <v>165.9562658086908</v>
       </c>
       <c r="C9">
-        <v>3.327577605949852</v>
+        <v>8.361176386865283</v>
       </c>
       <c r="D9">
-        <v>82.20571763798137</v>
+        <v>80.93696249434218</v>
       </c>
       <c r="E9">
-        <v>4.411748002441734</v>
+        <v>5.731195871756846</v>
       </c>
       <c r="F9">
-        <v>82.25907291028582</v>
+        <v>81.02888197587681</v>
       </c>
       <c r="G9">
-        <v>4.448828659173715</v>
+        <v>5.656330122916373</v>
       </c>
       <c r="H9">
-        <v>24.10978921772463</v>
+        <v>23.73937681353509</v>
       </c>
       <c r="I9">
-        <v>1.791654813615785</v>
+        <v>2.040110962260095</v>
       </c>
       <c r="J9">
-        <v>24.0931993104607</v>
+        <v>23.75498876672323</v>
       </c>
       <c r="K9">
-        <v>1.764516643502222</v>
+        <v>2.045318118512273</v>
       </c>
       <c r="L9">
-        <v>8.031220583812495</v>
+        <v>7.909387547468564</v>
       </c>
       <c r="M9">
-        <v>0.5894660528322406</v>
+        <v>0.6879044387434307</v>
       </c>
       <c r="N9">
-        <v>16.0598723656286</v>
+        <v>15.83890864346364</v>
       </c>
       <c r="O9">
-        <v>1.184814285259381</v>
+        <v>1.362009655540148</v>
       </c>
       <c r="P9">
-        <v>8.028261084391561</v>
+        <v>7.914220539611475</v>
       </c>
       <c r="Q9">
-        <v>0.5950537775591163</v>
+        <v>0.6776674080135168</v>
       </c>
       <c r="R9">
-        <v>23.53737680106635</v>
+        <v>23.18576383307029</v>
       </c>
       <c r="S9">
-        <v>2.10892275027274</v>
+        <v>2.322109024113031</v>
       </c>
       <c r="T9">
-        <v>16.47411647913866</v>
+        <v>16.23386374697989</v>
       </c>
       <c r="U9">
-        <v>1.468061617921919</v>
+        <v>1.620521377486078</v>
       </c>
       <c r="V9">
-        <v>3.529779426486437</v>
+        <v>3.479236651686254</v>
       </c>
       <c r="W9">
-        <v>0.3133975778506026</v>
+        <v>0.3471132516623116</v>
       </c>
       <c r="X9">
-        <v>3.528578240462799</v>
+        <v>3.481299927257099</v>
       </c>
       <c r="Y9">
-        <v>0.3127141186631153</v>
+        <v>0.3489303661527067</v>
       </c>
       <c r="Z9">
-        <v>7.837782501823417</v>
+        <v>7.725723538376863</v>
       </c>
       <c r="AA9">
-        <v>0.6963484852392845</v>
+        <v>0.7732795614353258</v>
       </c>
       <c r="AB9">
-        <v>15.68911801467327</v>
+        <v>15.45520466952656</v>
       </c>
       <c r="AC9">
-        <v>1.409380605786859</v>
+        <v>1.541955212754239</v>
       </c>
       <c r="AD9">
-        <v>18.10181103982322</v>
+        <v>17.88397211981506</v>
       </c>
       <c r="AE9">
-        <v>0.9386505475280696</v>
+        <v>1.09160365005955</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1393,94 +1393,94 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>178.2472960619915</v>
+        <v>175.6666034419184</v>
       </c>
       <c r="C10">
-        <v>3.556327877093523</v>
+        <v>8.778584257166253</v>
       </c>
       <c r="D10">
-        <v>87.08101676693204</v>
+        <v>85.85058659766943</v>
       </c>
       <c r="E10">
-        <v>4.713632272809218</v>
+        <v>6.040451379391639</v>
       </c>
       <c r="F10">
-        <v>87.02317200430439</v>
+        <v>85.78848546973316</v>
       </c>
       <c r="G10">
-        <v>4.71082208242144</v>
+        <v>6.0776456743336</v>
       </c>
       <c r="H10">
-        <v>25.5169170633752</v>
+        <v>25.1219245734015</v>
       </c>
       <c r="I10">
-        <v>1.890208977048812</v>
+        <v>2.187858646019474</v>
       </c>
       <c r="J10">
-        <v>25.48799527052557</v>
+        <v>25.13265619943946</v>
       </c>
       <c r="K10">
-        <v>1.886313602387647</v>
+        <v>2.190816144206597</v>
       </c>
       <c r="L10">
-        <v>8.491508047441782</v>
+        <v>8.364604928416764</v>
       </c>
       <c r="M10">
-        <v>0.6200481903699806</v>
+        <v>0.7285596203659983</v>
       </c>
       <c r="N10">
-        <v>16.99273967113618</v>
+        <v>16.74728547395789</v>
       </c>
       <c r="O10">
-        <v>1.261106274255097</v>
+        <v>1.453790919627458</v>
       </c>
       <c r="P10">
-        <v>8.497064681780641</v>
+        <v>8.37513740235314</v>
       </c>
       <c r="Q10">
-        <v>0.6267417955987915</v>
+        <v>0.7214917552425488</v>
       </c>
       <c r="R10">
-        <v>24.89790432009851</v>
+        <v>24.52523831596102</v>
       </c>
       <c r="S10">
-        <v>2.228757989282846</v>
+        <v>2.457552634423607</v>
       </c>
       <c r="T10">
-        <v>17.41254011764142</v>
+        <v>17.18054252355309</v>
       </c>
       <c r="U10">
-        <v>1.564391596893882</v>
+        <v>1.710156000539431</v>
       </c>
       <c r="V10">
-        <v>3.735999053864173</v>
+        <v>3.678928192793042</v>
       </c>
       <c r="W10">
-        <v>0.332636881035699</v>
+        <v>0.3710363331893051</v>
       </c>
       <c r="X10">
-        <v>3.733098564201173</v>
+        <v>3.678808198702273</v>
       </c>
       <c r="Y10">
-        <v>0.3343501583552226</v>
+        <v>0.369653944517303</v>
       </c>
       <c r="Z10">
-        <v>8.288394565098496</v>
+        <v>8.167144955195011</v>
       </c>
       <c r="AA10">
-        <v>0.7334586317975391</v>
+        <v>0.8197413840036117</v>
       </c>
       <c r="AB10">
-        <v>16.6076708487733</v>
+        <v>16.36004032757204</v>
       </c>
       <c r="AC10">
-        <v>1.491118840631368</v>
+        <v>1.642849681137918</v>
       </c>
       <c r="AD10">
-        <v>19.28225076913401</v>
+        <v>19.02987187843658</v>
       </c>
       <c r="AE10">
-        <v>1.00427391450748</v>
+        <v>1.164443409680608</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1488,94 +1488,94 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>188.1155999953319</v>
+        <v>185.6810170651285</v>
       </c>
       <c r="C11">
-        <v>3.772517575317133</v>
+        <v>9.271083608517639</v>
       </c>
       <c r="D11">
-        <v>91.81678574886465</v>
+        <v>90.69423337572861</v>
       </c>
       <c r="E11">
-        <v>4.909002757551112</v>
+        <v>6.437005148980842</v>
       </c>
       <c r="F11">
-        <v>91.79291211010747</v>
+        <v>90.61134995426217</v>
       </c>
       <c r="G11">
-        <v>4.988284115712938</v>
+        <v>6.416777969304062</v>
       </c>
       <c r="H11">
-        <v>26.88464749594245</v>
+        <v>26.52562967549614</v>
       </c>
       <c r="I11">
-        <v>2.000432554455013</v>
+        <v>2.341188811338852</v>
       </c>
       <c r="J11">
-        <v>26.90573752791679</v>
+        <v>26.54722495392874</v>
       </c>
       <c r="K11">
-        <v>1.979582680910505</v>
+        <v>2.301722375469065</v>
       </c>
       <c r="L11">
-        <v>8.958934724981498</v>
+        <v>8.841010940841626</v>
       </c>
       <c r="M11">
-        <v>0.6653939180869596</v>
+        <v>0.7636374151272086</v>
       </c>
       <c r="N11">
-        <v>17.93168820447899</v>
+        <v>17.71009773065237</v>
       </c>
       <c r="O11">
-        <v>1.324398913504627</v>
+        <v>1.527937136875428</v>
       </c>
       <c r="P11">
-        <v>8.959209835422831</v>
+        <v>8.849497457947237</v>
       </c>
       <c r="Q11">
-        <v>0.6707538173723383</v>
+        <v>0.7703131746134636</v>
       </c>
       <c r="R11">
-        <v>26.25169509087472</v>
+        <v>25.91730782389694</v>
       </c>
       <c r="S11">
-        <v>2.376197663597813</v>
+        <v>2.633976554264951</v>
       </c>
       <c r="T11">
-        <v>18.39963144613661</v>
+        <v>18.14317774113335</v>
       </c>
       <c r="U11">
-        <v>1.641063361222688</v>
+        <v>1.807617524285968</v>
       </c>
       <c r="V11">
-        <v>3.942638262893669</v>
+        <v>3.889684761913048</v>
       </c>
       <c r="W11">
-        <v>0.3485045278154248</v>
+        <v>0.3885108508421009</v>
       </c>
       <c r="X11">
-        <v>3.940037365060597</v>
+        <v>3.888028752357878</v>
       </c>
       <c r="Y11">
-        <v>0.3507194306429454</v>
+        <v>0.391571195205915</v>
       </c>
       <c r="Z11">
-        <v>8.754425483903189</v>
+        <v>8.639679011264253</v>
       </c>
       <c r="AA11">
-        <v>0.7899061932569763</v>
+        <v>0.8672794811223905</v>
       </c>
       <c r="AB11">
-        <v>17.5231602615418</v>
+        <v>17.29891889661817</v>
       </c>
       <c r="AC11">
-        <v>1.574327615456778</v>
+        <v>1.729850954623757</v>
       </c>
       <c r="AD11">
-        <v>20.46613786944561</v>
+        <v>20.20015365059482</v>
       </c>
       <c r="AE11">
-        <v>1.059502179358817</v>
+        <v>1.229454834664053</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1583,94 +1583,94 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>197.9947000471145</v>
+        <v>195.3434971091164</v>
       </c>
       <c r="C12">
-        <v>3.981790027814771</v>
+        <v>9.849497126232462</v>
       </c>
       <c r="D12">
-        <v>96.68008688635975</v>
+        <v>95.39318754625303</v>
       </c>
       <c r="E12">
-        <v>5.229742470484153</v>
+        <v>6.777581768798567</v>
       </c>
       <c r="F12">
-        <v>96.69029196139304</v>
+        <v>95.34979863737843</v>
       </c>
       <c r="G12">
-        <v>5.194422324158649</v>
+        <v>6.752529193491484</v>
       </c>
       <c r="H12">
-        <v>28.30418192906441</v>
+        <v>27.937026498452</v>
       </c>
       <c r="I12">
-        <v>2.066368731417536</v>
+        <v>2.427754059945258</v>
       </c>
       <c r="J12">
-        <v>28.32099689923555</v>
+        <v>27.94331586565363</v>
       </c>
       <c r="K12">
-        <v>2.070846432862653</v>
+        <v>2.431156696306357</v>
       </c>
       <c r="L12">
-        <v>9.440056972985193</v>
+        <v>9.306016826450639</v>
       </c>
       <c r="M12">
-        <v>0.6831037221999562</v>
+        <v>0.8026654600130749</v>
       </c>
       <c r="N12">
-        <v>18.88537311951748</v>
+        <v>18.61992570957205</v>
       </c>
       <c r="O12">
-        <v>1.385127432438636</v>
+        <v>1.6199825394872</v>
       </c>
       <c r="P12">
-        <v>9.443746285720863</v>
+        <v>9.307485501501702</v>
       </c>
       <c r="Q12">
-        <v>0.6884525932045679</v>
+        <v>0.8086028789099253</v>
       </c>
       <c r="R12">
-        <v>27.64776645068311</v>
+        <v>27.26582318616436</v>
       </c>
       <c r="S12">
-        <v>2.454219573388009</v>
+        <v>2.73086770511303</v>
       </c>
       <c r="T12">
-        <v>19.36611036473208</v>
+        <v>19.09087526720059</v>
       </c>
       <c r="U12">
-        <v>1.71982990186299</v>
+        <v>1.932131843534748</v>
       </c>
       <c r="V12">
-        <v>4.15301677825274</v>
+        <v>4.095377165888474</v>
       </c>
       <c r="W12">
-        <v>0.369208907748986</v>
+        <v>0.4105067513610147</v>
       </c>
       <c r="X12">
-        <v>4.146839622590519</v>
+        <v>4.094791789550492</v>
       </c>
       <c r="Y12">
-        <v>0.3659342641600253</v>
+        <v>0.4125707031643359</v>
       </c>
       <c r="Z12">
-        <v>9.219644123547274</v>
+        <v>9.094919094251955</v>
       </c>
       <c r="AA12">
-        <v>0.8094046841400769</v>
+        <v>0.9036707218631197</v>
       </c>
       <c r="AB12">
-        <v>18.44161857518775</v>
+        <v>18.17428313977379</v>
       </c>
       <c r="AC12">
-        <v>1.626775900485506</v>
+        <v>1.825776134821596</v>
       </c>
       <c r="AD12">
-        <v>21.66068891582504</v>
+        <v>21.33496252231171</v>
       </c>
       <c r="AE12">
-        <v>1.120610282058433</v>
+        <v>1.293758492403544</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1678,94 +1678,94 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>9.902960639022565</v>
+        <v>9.760078089340343</v>
       </c>
       <c r="C13">
-        <v>0.1979261122851819</v>
+        <v>0.4910924594484246</v>
       </c>
       <c r="D13">
-        <v>4.83810586567293</v>
+        <v>4.768471330286225</v>
       </c>
       <c r="E13">
-        <v>0.2588158878375704</v>
+        <v>0.3344051815401589</v>
       </c>
       <c r="F13">
-        <v>4.8345512959843</v>
+        <v>4.76756499530712</v>
       </c>
       <c r="G13">
-        <v>0.2620196009177443</v>
+        <v>0.3379507984297281</v>
       </c>
       <c r="H13">
-        <v>1.415450831884113</v>
+        <v>1.39743093547606</v>
       </c>
       <c r="I13">
-        <v>0.1047822493619624</v>
+        <v>0.1217765759575207</v>
       </c>
       <c r="J13">
-        <v>1.417062504909907</v>
+        <v>1.396373748460661</v>
       </c>
       <c r="K13">
-        <v>0.1033332229424574</v>
+        <v>0.1215278166094527</v>
       </c>
       <c r="L13">
-        <v>0.4721607104493808</v>
+        <v>0.4654235419045305</v>
       </c>
       <c r="M13">
-        <v>0.03512531452950243</v>
+        <v>0.04023250089122585</v>
       </c>
       <c r="N13">
-        <v>0.9442117402404386</v>
+        <v>0.9314350814694424</v>
       </c>
       <c r="O13">
-        <v>0.06988189145743831</v>
+        <v>0.08047961525707534</v>
       </c>
       <c r="P13">
-        <v>0.472267210606596</v>
+        <v>0.4654918432307258</v>
       </c>
       <c r="Q13">
-        <v>0.03436208796780761</v>
+        <v>0.04040408509441308</v>
       </c>
       <c r="R13">
-        <v>1.382169324623497</v>
+        <v>1.365026776322102</v>
       </c>
       <c r="S13">
-        <v>0.1234698191236131</v>
+        <v>0.1377310571224477</v>
       </c>
       <c r="T13">
-        <v>0.9689090011950157</v>
+        <v>0.9545969005967956</v>
       </c>
       <c r="U13">
-        <v>0.08614880621505068</v>
+        <v>0.09643703514439027</v>
       </c>
       <c r="V13">
-        <v>0.2074449921922222</v>
+        <v>0.2044400960795777</v>
       </c>
       <c r="W13">
-        <v>0.01833995325130066</v>
+        <v>0.02054123438529558</v>
       </c>
       <c r="X13">
-        <v>0.2075782587359468</v>
+        <v>0.204471314411708</v>
       </c>
       <c r="Y13">
-        <v>0.0185395416960379</v>
+        <v>0.02055510091225659</v>
       </c>
       <c r="Z13">
-        <v>0.4610095630193782</v>
+        <v>0.454551098698508</v>
       </c>
       <c r="AA13">
-        <v>0.04137035725184584</v>
+        <v>0.04550891234965194</v>
       </c>
       <c r="AB13">
-        <v>0.9217598344096899</v>
+        <v>0.9086274108987138</v>
       </c>
       <c r="AC13">
-        <v>0.08167676012345194</v>
+        <v>0.09089308064456093</v>
       </c>
       <c r="AD13">
-        <v>22.83991268007198</v>
+        <v>22.48654108696284</v>
       </c>
       <c r="AE13">
-        <v>1.180034508650536</v>
+        <v>1.360618173981611</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1773,94 +1773,94 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>217.8248438395867</v>
+        <v>214.8113957858982</v>
       </c>
       <c r="C14">
-        <v>4.343174373488518</v>
+        <v>10.64640805111347</v>
       </c>
       <c r="D14">
-        <v>106.3374847829908</v>
+        <v>104.9232366340188</v>
       </c>
       <c r="E14">
-        <v>5.77016933670366</v>
+        <v>7.355998111615529</v>
       </c>
       <c r="F14">
-        <v>106.3661529388731</v>
+        <v>104.8614133621236</v>
       </c>
       <c r="G14">
-        <v>5.705867230833414</v>
+        <v>7.354190948217155</v>
       </c>
       <c r="H14">
-        <v>31.1518743359954</v>
+        <v>30.73219126191001</v>
       </c>
       <c r="I14">
-        <v>2.26233200890092</v>
+        <v>2.652707872828179</v>
       </c>
       <c r="J14">
-        <v>31.17137349825174</v>
+        <v>30.73564280876719</v>
       </c>
       <c r="K14">
-        <v>2.308004939441215</v>
+        <v>2.647065427733064</v>
       </c>
       <c r="L14">
-        <v>10.38145718462237</v>
+        <v>10.22544993103826</v>
       </c>
       <c r="M14">
-        <v>0.7644349169809319</v>
+        <v>0.8857229342597387</v>
       </c>
       <c r="N14">
-        <v>20.76033902748378</v>
+        <v>20.48367464736302</v>
       </c>
       <c r="O14">
-        <v>1.522549673058447</v>
+        <v>1.768098380003768</v>
       </c>
       <c r="P14">
-        <v>10.38750205442672</v>
+        <v>10.23014255704009</v>
       </c>
       <c r="Q14">
-        <v>0.7686649654675463</v>
+        <v>0.8864459726335885</v>
       </c>
       <c r="R14">
-        <v>30.41474993609573</v>
+        <v>30.02879409409802</v>
       </c>
       <c r="S14">
-        <v>2.695734179031231</v>
+        <v>3.005949901582108</v>
       </c>
       <c r="T14">
-        <v>21.31108553839854</v>
+        <v>20.99489890490699</v>
       </c>
       <c r="U14">
-        <v>1.911253267613295</v>
+        <v>2.097394715923897</v>
       </c>
       <c r="V14">
-        <v>4.570253997031362</v>
+        <v>4.504381784858157</v>
       </c>
       <c r="W14">
-        <v>0.4074972430122017</v>
+        <v>0.4494138787197352</v>
       </c>
       <c r="X14">
-        <v>4.564987473349818</v>
+        <v>4.50062655735077</v>
       </c>
       <c r="Y14">
-        <v>0.4094268765773978</v>
+        <v>0.449235490477256</v>
       </c>
       <c r="Z14">
-        <v>10.13365451970733</v>
+        <v>9.984541979742456</v>
       </c>
       <c r="AA14">
-        <v>0.9011492852083686</v>
+        <v>0.9961265223547358</v>
       </c>
       <c r="AB14">
-        <v>20.27670772222959</v>
+        <v>20.00285490125553</v>
       </c>
       <c r="AC14">
-        <v>1.800354086962812</v>
+        <v>1.994605089850489</v>
       </c>
       <c r="AD14">
-        <v>9.061324067532111</v>
+        <v>8.914652296237389</v>
       </c>
       <c r="AE14">
-        <v>0.5558588096955733</v>
+        <v>0.6015901249780607</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1868,94 +1868,94 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>227.7093719210027</v>
+        <v>224.6401855184596</v>
       </c>
       <c r="C15">
-        <v>4.54092057517567</v>
+        <v>11.16189253228384</v>
       </c>
       <c r="D15">
-        <v>111.2485265013833</v>
+        <v>109.6205154405548</v>
       </c>
       <c r="E15">
-        <v>6.01003246489033</v>
+        <v>7.654302196056959</v>
       </c>
       <c r="F15">
-        <v>111.1052701777036</v>
+        <v>109.7615495639412</v>
       </c>
       <c r="G15">
-        <v>5.980803362361518</v>
+        <v>7.748856416579356</v>
       </c>
       <c r="H15">
-        <v>32.57003669806167</v>
+        <v>32.15322082121273</v>
       </c>
       <c r="I15">
-        <v>2.408113787116746</v>
+        <v>2.766738577136466</v>
       </c>
       <c r="J15">
-        <v>32.53791403316828</v>
+        <v>32.18099969268525</v>
       </c>
       <c r="K15">
-        <v>2.399573207211885</v>
+        <v>2.779753137285263</v>
       </c>
       <c r="L15">
-        <v>10.85788495626892</v>
+        <v>10.71550229207643</v>
       </c>
       <c r="M15">
-        <v>0.8102838967450977</v>
+        <v>0.9241460669732597</v>
       </c>
       <c r="N15">
-        <v>21.6960086648655</v>
+        <v>21.44451214811414</v>
       </c>
       <c r="O15">
-        <v>1.604188181949994</v>
+        <v>1.863089970860824</v>
       </c>
       <c r="P15">
-        <v>10.84750427027988</v>
+        <v>10.7160850887032</v>
       </c>
       <c r="Q15">
-        <v>0.8080486338493024</v>
+        <v>0.9277468457774742</v>
       </c>
       <c r="R15">
-        <v>31.78871185429896</v>
+        <v>31.40511895610637</v>
       </c>
       <c r="S15">
-        <v>2.829615278909516</v>
+        <v>3.133782381726991</v>
       </c>
       <c r="T15">
-        <v>22.26516869329071</v>
+        <v>21.99476309774843</v>
       </c>
       <c r="U15">
-        <v>1.998894916886837</v>
+        <v>2.192307903450349</v>
       </c>
       <c r="V15">
-        <v>4.768222869610927</v>
+        <v>4.711709497877968</v>
       </c>
       <c r="W15">
-        <v>0.4218946308585039</v>
+        <v>0.4722705385931796</v>
       </c>
       <c r="X15">
-        <v>4.765045902677399</v>
+        <v>4.711279305836434</v>
       </c>
       <c r="Y15">
-        <v>0.4271382501754989</v>
+        <v>0.4671612939087724</v>
       </c>
       <c r="Z15">
-        <v>10.60102915887427</v>
+        <v>10.4642255808768</v>
       </c>
       <c r="AA15">
-        <v>0.9508378031858041</v>
+        <v>1.045053990489774</v>
       </c>
       <c r="AB15">
-        <v>21.19168846030251</v>
+        <v>20.92752946304008</v>
       </c>
       <c r="AC15">
-        <v>1.890421720522398</v>
+        <v>2.099973270882854</v>
       </c>
       <c r="AD15">
-        <v>19.91035628382558</v>
+        <v>19.60109520517362</v>
       </c>
       <c r="AE15">
-        <v>1.225851922382966</v>
+        <v>1.434085793125583</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1963,94 +1963,94 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>237.7020611657495</v>
+        <v>234.1691329985586</v>
       </c>
       <c r="C16">
-        <v>4.780433675715615</v>
+        <v>11.82422007439742</v>
       </c>
       <c r="D16">
-        <v>116.1229919658394</v>
+        <v>114.1979210916049</v>
       </c>
       <c r="E16">
-        <v>6.299144006551479</v>
+        <v>8.055223027451857</v>
       </c>
       <c r="F16">
-        <v>116.0103209990409</v>
+        <v>114.3700936477728</v>
       </c>
       <c r="G16">
-        <v>6.278814982632316</v>
+        <v>8.175933493972618</v>
       </c>
       <c r="H16">
-        <v>33.96701907577206</v>
+        <v>33.50260614197365</v>
       </c>
       <c r="I16">
-        <v>2.513385358003063</v>
+        <v>2.930952034557207</v>
       </c>
       <c r="J16">
-        <v>33.99299594451476</v>
+        <v>33.51747265872685</v>
       </c>
       <c r="K16">
-        <v>2.509433042148391</v>
+        <v>2.955022997467125</v>
       </c>
       <c r="L16">
-        <v>11.33663758256376</v>
+        <v>11.16356973614392</v>
       </c>
       <c r="M16">
-        <v>0.8419764737767005</v>
+        <v>0.9791774353250605</v>
       </c>
       <c r="N16">
-        <v>22.63636344327794</v>
+        <v>22.34365763077763</v>
       </c>
       <c r="O16">
-        <v>1.676066343040253</v>
+        <v>1.939228485749483</v>
       </c>
       <c r="P16">
-        <v>11.3334165163802</v>
+        <v>11.1795499224939</v>
       </c>
       <c r="Q16">
-        <v>0.8330764519393419</v>
+        <v>0.9752416543477082</v>
       </c>
       <c r="R16">
-        <v>33.15789700143866</v>
+        <v>32.67688386675013</v>
       </c>
       <c r="S16">
-        <v>2.980380119254297</v>
+        <v>3.275244615113863</v>
       </c>
       <c r="T16">
-        <v>23.25007083224095</v>
+        <v>22.92435071646238</v>
       </c>
       <c r="U16">
-        <v>2.073865983873945</v>
+        <v>2.317381816852479</v>
       </c>
       <c r="V16">
-        <v>4.9784142966949</v>
+        <v>4.914612804164506</v>
       </c>
       <c r="W16">
-        <v>0.4406270839531907</v>
+        <v>0.4980151612040119</v>
       </c>
       <c r="X16">
-        <v>4.978236522789291</v>
+        <v>4.911234190285851</v>
       </c>
       <c r="Y16">
-        <v>0.4433475824982326</v>
+        <v>0.4958647353531061</v>
       </c>
       <c r="Z16">
-        <v>11.0720428478269</v>
+        <v>10.89924982458976</v>
       </c>
       <c r="AA16">
-        <v>0.9880591926872436</v>
+        <v>1.108345664190942</v>
       </c>
       <c r="AB16">
-        <v>22.11399770962794</v>
+        <v>21.80667532753686</v>
       </c>
       <c r="AC16">
-        <v>1.967445694336451</v>
+        <v>2.189131014128607</v>
       </c>
       <c r="AD16">
-        <v>24.34645258608608</v>
+        <v>23.96864383276632</v>
       </c>
       <c r="AE16">
-        <v>1.358385253627933</v>
+        <v>1.589757420619669</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2058,94 +2058,94 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>247.5354353256819</v>
+        <v>244.087539419083</v>
       </c>
       <c r="C17">
-        <v>4.945474776409105</v>
+        <v>12.29423886650597</v>
       </c>
       <c r="D17">
-        <v>120.8593223268196</v>
+        <v>119.2095767918735</v>
       </c>
       <c r="E17">
-        <v>6.478938658038619</v>
+        <v>8.421079296541937</v>
       </c>
       <c r="F17">
-        <v>120.8888796793962</v>
+        <v>119.1580966394139</v>
       </c>
       <c r="G17">
-        <v>6.519434070889236</v>
+        <v>8.454141339106936</v>
       </c>
       <c r="H17">
-        <v>35.41837081810993</v>
+        <v>34.92320367875021</v>
       </c>
       <c r="I17">
-        <v>2.613600477855737</v>
+        <v>3.047758552344657</v>
       </c>
       <c r="J17">
-        <v>35.42311868455245</v>
+        <v>34.91267629428238</v>
       </c>
       <c r="K17">
-        <v>2.620856262248568</v>
+        <v>3.036466211815779</v>
       </c>
       <c r="L17">
-        <v>11.80057337382603</v>
+        <v>11.63450844519636</v>
       </c>
       <c r="M17">
-        <v>0.8718171942264316</v>
+        <v>1.012558835091154</v>
       </c>
       <c r="N17">
-        <v>23.61763383251639</v>
+        <v>23.2708467261197</v>
       </c>
       <c r="O17">
-        <v>1.76698754534633</v>
+        <v>2.022984612348492</v>
       </c>
       <c r="P17">
-        <v>11.80253517301156</v>
+        <v>11.63829285277766</v>
       </c>
       <c r="Q17">
-        <v>0.8606311838217626</v>
+        <v>1.016957711064765</v>
       </c>
       <c r="R17">
-        <v>34.59643055973579</v>
+        <v>34.09902473006778</v>
       </c>
       <c r="S17">
-        <v>3.106416997162027</v>
+        <v>3.467456165566963</v>
       </c>
       <c r="T17">
-        <v>24.20264900636289</v>
+        <v>23.86855569874113</v>
       </c>
       <c r="U17">
-        <v>2.166539453236782</v>
+        <v>2.390826819924688</v>
       </c>
       <c r="V17">
-        <v>5.18822938618197</v>
+        <v>5.111489377229284</v>
       </c>
       <c r="W17">
-        <v>0.4611214406063223</v>
+        <v>0.5149955934543849</v>
       </c>
       <c r="X17">
-        <v>5.192164272687851</v>
+        <v>5.116348685540753</v>
       </c>
       <c r="Y17">
-        <v>0.4690805752583814</v>
+        <v>0.516423043530968</v>
       </c>
       <c r="Z17">
-        <v>11.52899132618732</v>
+        <v>11.36146149466519</v>
       </c>
       <c r="AA17">
-        <v>1.028048251169733</v>
+        <v>1.138678789507294</v>
       </c>
       <c r="AB17">
-        <v>23.05559985881446</v>
+        <v>22.72239590828765</v>
       </c>
       <c r="AC17">
-        <v>2.075800055534015</v>
+        <v>2.291437356522303</v>
       </c>
       <c r="AD17">
-        <v>26.75737160408867</v>
+        <v>26.38058780390211</v>
       </c>
       <c r="AE17">
-        <v>1.424508694812376</v>
+        <v>1.637632828116999</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2153,94 +2153,94 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>257.445777846253</v>
+        <v>254.0548995706282</v>
       </c>
       <c r="C18">
-        <v>5.135706997339295</v>
+        <v>12.68701827581386</v>
       </c>
       <c r="D18">
-        <v>125.6904995696536</v>
+        <v>124.0503606138534</v>
       </c>
       <c r="E18">
-        <v>6.707407886670924</v>
+        <v>8.740844854833822</v>
       </c>
       <c r="F18">
-        <v>125.6225668372127</v>
+        <v>124.0510203756533</v>
       </c>
       <c r="G18">
-        <v>6.749829123043842</v>
+        <v>8.814375378409569</v>
       </c>
       <c r="H18">
-        <v>36.81912441776173</v>
+        <v>36.334741374359</v>
       </c>
       <c r="I18">
-        <v>2.704552545024573</v>
+        <v>3.18327623589393</v>
       </c>
       <c r="J18">
-        <v>36.79921897330865</v>
+        <v>36.3419117695603</v>
       </c>
       <c r="K18">
-        <v>2.734520130422224</v>
+        <v>3.158423471502819</v>
       </c>
       <c r="L18">
-        <v>12.26314382848634</v>
+        <v>12.1169787992865</v>
       </c>
       <c r="M18">
-        <v>0.901018469133716</v>
+        <v>1.05383819434858</v>
       </c>
       <c r="N18">
-        <v>24.53823515859994</v>
+        <v>24.22936618229897</v>
       </c>
       <c r="O18">
-        <v>1.812425557491989</v>
+        <v>2.123739441991367</v>
       </c>
       <c r="P18">
-        <v>12.27263409576381</v>
+        <v>12.10414539634156</v>
       </c>
       <c r="Q18">
-        <v>0.9014234523572127</v>
+        <v>1.053012935597556</v>
       </c>
       <c r="R18">
-        <v>35.94278527569432</v>
+        <v>35.49723057334552</v>
       </c>
       <c r="S18">
-        <v>3.206278657325562</v>
+        <v>3.584431404266858</v>
       </c>
       <c r="T18">
-        <v>25.15050974603862</v>
+        <v>24.83063771666643</v>
       </c>
       <c r="U18">
-        <v>2.252668645272017</v>
+        <v>2.481697219684859</v>
       </c>
       <c r="V18">
-        <v>5.397200793152857</v>
+        <v>5.321142981476153</v>
       </c>
       <c r="W18">
-        <v>0.4794524863512093</v>
+        <v>0.535617370945432</v>
       </c>
       <c r="X18">
-        <v>5.389577389026684</v>
+        <v>5.324406865194416</v>
       </c>
       <c r="Y18">
-        <v>0.482473688170846</v>
+        <v>0.5348346254914962</v>
       </c>
       <c r="Z18">
-        <v>11.98342081276204</v>
+        <v>11.82129759780273</v>
       </c>
       <c r="AA18">
-        <v>1.062653829679867</v>
+        <v>1.178647649787134</v>
       </c>
       <c r="AB18">
-        <v>23.95460239602064</v>
+        <v>23.64958513886906</v>
       </c>
       <c r="AC18">
-        <v>2.15574097602077</v>
+        <v>2.378978717308799</v>
       </c>
       <c r="AD18">
-        <v>28.40886922966072</v>
+        <v>27.99514944731339</v>
       </c>
       <c r="AE18">
-        <v>1.47764384992442</v>
+        <v>1.691098315843784</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2248,94 +2248,94 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>267.4125432876633</v>
+        <v>263.5316735194092</v>
       </c>
       <c r="C19">
-        <v>5.368889595279572</v>
+        <v>13.12012568191924</v>
       </c>
       <c r="D19">
-        <v>130.5424744840763</v>
+        <v>128.5398623931006</v>
       </c>
       <c r="E19">
-        <v>7.11042033235056</v>
+        <v>9.087343638369935</v>
       </c>
       <c r="F19">
-        <v>130.623726688961</v>
+        <v>128.6468350753207</v>
       </c>
       <c r="G19">
-        <v>7.103971108109191</v>
+        <v>9.057478510728942</v>
       </c>
       <c r="H19">
-        <v>38.28188343608973</v>
+        <v>37.67837211625556</v>
       </c>
       <c r="I19">
-        <v>2.844061726132921</v>
+        <v>3.277864753840103</v>
       </c>
       <c r="J19">
-        <v>38.26929753690952</v>
+        <v>37.65684357962831</v>
       </c>
       <c r="K19">
-        <v>2.828405116478707</v>
+        <v>3.244084627365581</v>
       </c>
       <c r="L19">
-        <v>12.75764186738444</v>
+        <v>12.56467308403488</v>
       </c>
       <c r="M19">
-        <v>0.94381876653574</v>
+        <v>1.086705352633025</v>
       </c>
       <c r="N19">
-        <v>25.49362206991096</v>
+        <v>25.13701835167214</v>
       </c>
       <c r="O19">
-        <v>1.886137209852526</v>
+        <v>2.172402743690142</v>
       </c>
       <c r="P19">
-        <v>12.75485597763648</v>
+        <v>12.5633970925507</v>
       </c>
       <c r="Q19">
-        <v>0.9441879937171787</v>
+        <v>1.091079306047103</v>
       </c>
       <c r="R19">
-        <v>37.35699575581732</v>
+        <v>36.80109439157537</v>
       </c>
       <c r="S19">
-        <v>3.333650375912531</v>
+        <v>3.694363486945925</v>
       </c>
       <c r="T19">
-        <v>26.1604669955702</v>
+        <v>25.7358038438077</v>
       </c>
       <c r="U19">
-        <v>2.328944480053432</v>
+        <v>2.568470428437429</v>
       </c>
       <c r="V19">
-        <v>5.606338898249052</v>
+        <v>5.516073362904057</v>
       </c>
       <c r="W19">
-        <v>0.4980777726014124</v>
+        <v>0.5466751775246869</v>
       </c>
       <c r="X19">
-        <v>5.599962256388378</v>
+        <v>5.517587617285335</v>
       </c>
       <c r="Y19">
-        <v>0.5026466095538562</v>
+        <v>0.5484651367437964</v>
       </c>
       <c r="Z19">
-        <v>12.46591234326214</v>
+        <v>12.27142621242666</v>
       </c>
       <c r="AA19">
-        <v>1.118633763610547</v>
+        <v>1.218535521130483</v>
       </c>
       <c r="AB19">
-        <v>24.89763676638612</v>
+        <v>24.55288495568188</v>
       </c>
       <c r="AC19">
-        <v>2.216521006352921</v>
+        <v>2.456169716254337</v>
       </c>
       <c r="AD19">
-        <v>29.79241776375402</v>
+        <v>29.3716627338768</v>
       </c>
       <c r="AE19">
-        <v>1.555721410594134</v>
+        <v>1.769151107493949</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2343,94 +2343,94 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>277.3974955836596</v>
+        <v>273.3501309818226</v>
       </c>
       <c r="C20">
-        <v>5.622293502844957</v>
+        <v>13.63041872704246</v>
       </c>
       <c r="D20">
-        <v>135.3714817279878</v>
+        <v>133.4643455346672</v>
       </c>
       <c r="E20">
-        <v>7.234468845813722</v>
+        <v>9.434643189618894</v>
       </c>
       <c r="F20">
-        <v>135.3733861013249</v>
+        <v>133.4258922843381</v>
       </c>
       <c r="G20">
-        <v>7.28654609074852</v>
+        <v>9.497978064183537</v>
       </c>
       <c r="H20">
-        <v>39.6780437563019</v>
+        <v>39.05339497889323</v>
       </c>
       <c r="I20">
-        <v>2.916644540655799</v>
+        <v>3.405685542321219</v>
       </c>
       <c r="J20">
-        <v>39.64169060525018</v>
+        <v>39.11254508323146</v>
       </c>
       <c r="K20">
-        <v>2.895543213958683</v>
+        <v>3.428324745014658</v>
       </c>
       <c r="L20">
-        <v>13.21298000544104</v>
+        <v>13.03038308684851</v>
       </c>
       <c r="M20">
-        <v>0.9749376194583342</v>
+        <v>1.133740399166218</v>
       </c>
       <c r="N20">
-        <v>26.43706537997308</v>
+        <v>26.03398745375664</v>
       </c>
       <c r="O20">
-        <v>1.951645879396057</v>
+        <v>2.267317825324724</v>
       </c>
       <c r="P20">
-        <v>13.21199776196699</v>
+        <v>13.03386129632247</v>
       </c>
       <c r="Q20">
-        <v>0.9708079614589677</v>
+        <v>1.124258050985049</v>
       </c>
       <c r="R20">
-        <v>38.72833118945355</v>
+        <v>38.1366328046951</v>
       </c>
       <c r="S20">
-        <v>3.44206196387209</v>
+        <v>3.833293304854217</v>
       </c>
       <c r="T20">
-        <v>27.08160329949579</v>
+        <v>26.72997256804176</v>
       </c>
       <c r="U20">
-        <v>2.386521932473268</v>
+        <v>2.682385981876711</v>
       </c>
       <c r="V20">
-        <v>5.812696639494398</v>
+        <v>5.735719314593344</v>
       </c>
       <c r="W20">
-        <v>0.5164092869681958</v>
+        <v>0.583619602798673</v>
       </c>
       <c r="X20">
-        <v>5.808278096186893</v>
+        <v>5.736066823987209</v>
       </c>
       <c r="Y20">
-        <v>0.513474893051824</v>
+        <v>0.5810465397524337</v>
       </c>
       <c r="Z20">
-        <v>12.89905090683835</v>
+        <v>12.7116573266458</v>
       </c>
       <c r="AA20">
-        <v>1.15568963914161</v>
+        <v>1.266791336197036</v>
       </c>
       <c r="AB20">
-        <v>25.83226956732943</v>
+        <v>25.42772928228856</v>
       </c>
       <c r="AC20">
-        <v>2.315931386661315</v>
+        <v>2.570036434102814</v>
       </c>
       <c r="AD20">
-        <v>31.0163142161555</v>
+        <v>30.5715353274513</v>
       </c>
       <c r="AE20">
-        <v>1.583489740125408</v>
+        <v>1.854055473074594</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2438,94 +2438,94 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>287.2660729683654</v>
+        <v>283.2420208878725</v>
       </c>
       <c r="C21">
-        <v>5.767592911259216</v>
+        <v>14.02348826670024</v>
       </c>
       <c r="D21">
-        <v>140.2766463828138</v>
+        <v>138.3255885231114</v>
       </c>
       <c r="E21">
-        <v>7.572344700436078</v>
+        <v>9.733766152967508</v>
       </c>
       <c r="F21">
-        <v>140.3206402206713</v>
+        <v>138.3827833219141</v>
       </c>
       <c r="G21">
-        <v>7.536827847980826</v>
+        <v>9.760021028376277</v>
       </c>
       <c r="H21">
-        <v>41.14547956102932</v>
+        <v>40.50341265742044</v>
       </c>
       <c r="I21">
-        <v>3.031114820114492</v>
+        <v>3.498298336662687</v>
       </c>
       <c r="J21">
-        <v>41.13133481905876</v>
+        <v>40.54444626654233</v>
       </c>
       <c r="K21">
-        <v>3.041467764093766</v>
+        <v>3.529023282456474</v>
       </c>
       <c r="L21">
-        <v>13.70011885632458</v>
+        <v>13.51692438301697</v>
       </c>
       <c r="M21">
-        <v>1.007207298283034</v>
+        <v>1.169907927371885</v>
       </c>
       <c r="N21">
-        <v>27.39449962827373</v>
+        <v>27.04027476902565</v>
       </c>
       <c r="O21">
-        <v>2.003177188112781</v>
+        <v>2.369623559347062</v>
       </c>
       <c r="P21">
-        <v>13.69999350292184</v>
+        <v>13.50596823031548</v>
       </c>
       <c r="Q21">
-        <v>1.013888602847876</v>
+        <v>1.171362084154382</v>
       </c>
       <c r="R21">
-        <v>40.15172310794422</v>
+        <v>39.53199804946729</v>
       </c>
       <c r="S21">
-        <v>3.574606398443506</v>
+        <v>3.941099435547305</v>
       </c>
       <c r="T21">
-        <v>28.09352433027882</v>
+        <v>27.70639525100345</v>
       </c>
       <c r="U21">
-        <v>2.505898316913703</v>
+        <v>2.778253956596076</v>
       </c>
       <c r="V21">
-        <v>6.023760475966148</v>
+        <v>5.936044645990652</v>
       </c>
       <c r="W21">
-        <v>0.5357652109146456</v>
+        <v>0.5971028230732687</v>
       </c>
       <c r="X21">
-        <v>6.025985807456364</v>
+        <v>5.937956891350723</v>
       </c>
       <c r="Y21">
-        <v>0.537252593324793</v>
+        <v>0.5927747798513341</v>
       </c>
       <c r="Z21">
-        <v>13.38094265411751</v>
+        <v>13.19841249188899</v>
       </c>
       <c r="AA21">
-        <v>1.182753360027209</v>
+        <v>1.31441049446449</v>
       </c>
       <c r="AB21">
-        <v>26.75099727773439</v>
+        <v>26.4038790444319</v>
       </c>
       <c r="AC21">
-        <v>2.360875099162171</v>
+        <v>2.669206901550822</v>
       </c>
       <c r="AD21">
-        <v>32.2143380778753</v>
+        <v>31.76620797508791</v>
       </c>
       <c r="AE21">
-        <v>1.671996665787417</v>
+        <v>1.92905710470004</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2533,94 +2533,94 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>297.0195151539415</v>
+        <v>293.093333053042</v>
       </c>
       <c r="C22">
-        <v>5.976968908102874</v>
+        <v>14.55981260198738</v>
       </c>
       <c r="D22">
-        <v>145.0177893529784</v>
+        <v>143.0848852776929</v>
       </c>
       <c r="E22">
-        <v>7.763338838449971</v>
+        <v>10.07405916807217</v>
       </c>
       <c r="F22">
-        <v>144.9815202628278</v>
+        <v>143.1503636173892</v>
       </c>
       <c r="G22">
-        <v>7.864944746826042</v>
+        <v>10.1203586304982</v>
       </c>
       <c r="H22">
-        <v>42.47789984180972</v>
+        <v>41.94515659102909</v>
       </c>
       <c r="I22">
-        <v>3.148187151204479</v>
+        <v>3.631584340960294</v>
       </c>
       <c r="J22">
-        <v>42.47442978354687</v>
+        <v>41.9202244027485</v>
       </c>
       <c r="K22">
-        <v>3.133680875626782</v>
+        <v>3.656878340479992</v>
       </c>
       <c r="L22">
-        <v>14.15198916467846</v>
+        <v>13.96788174447804</v>
       </c>
       <c r="M22">
-        <v>1.045984749682043</v>
+        <v>1.204151857113321</v>
       </c>
       <c r="N22">
-        <v>28.32172969138511</v>
+        <v>27.97144541605044</v>
       </c>
       <c r="O22">
-        <v>2.076868336765223</v>
+        <v>2.436029900662725</v>
       </c>
       <c r="P22">
-        <v>14.14499552626692</v>
+        <v>13.97089344933339</v>
       </c>
       <c r="Q22">
-        <v>1.04269511797</v>
+        <v>1.217564767453766</v>
       </c>
       <c r="R22">
-        <v>41.47052321818499</v>
+        <v>40.95446805367963</v>
       </c>
       <c r="S22">
-        <v>3.721743632419524</v>
+        <v>4.103142035048388</v>
       </c>
       <c r="T22">
-        <v>29.04359682288753</v>
+        <v>28.66990569636933</v>
       </c>
       <c r="U22">
-        <v>2.598237201002517</v>
+        <v>2.873694800748638</v>
       </c>
       <c r="V22">
-        <v>6.217867038401906</v>
+        <v>6.140291575328671</v>
       </c>
       <c r="W22">
-        <v>0.5513343582317943</v>
+        <v>0.6180121853715844</v>
       </c>
       <c r="X22">
-        <v>6.226996210185412</v>
+        <v>6.141485852423127</v>
       </c>
       <c r="Y22">
-        <v>0.5542856030330243</v>
+        <v>0.6148893636820442</v>
       </c>
       <c r="Z22">
-        <v>13.82422042401705</v>
+        <v>13.64144394593365</v>
       </c>
       <c r="AA22">
-        <v>1.237482264426236</v>
+        <v>1.358564655487728</v>
       </c>
       <c r="AB22">
-        <v>27.66091253394952</v>
+        <v>27.3185349999338</v>
       </c>
       <c r="AC22">
-        <v>2.467924424785942</v>
+        <v>2.731455603944711</v>
       </c>
       <c r="AD22">
-        <v>33.41077249204557</v>
+        <v>32.94851582396804</v>
       </c>
       <c r="AE22">
-        <v>1.713100812358349</v>
+        <v>2.007661521777218</v>
       </c>
     </row>
   </sheetData>
@@ -2706,64 +2706,64 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>48.35271124800748</v>
+        <v>47.71000129422978</v>
       </c>
       <c r="C2">
-        <v>2.61242259392117</v>
+        <v>3.407260698708934</v>
       </c>
       <c r="D2">
-        <v>48.35271124800748</v>
+        <v>47.71000129422978</v>
       </c>
       <c r="E2">
-        <v>2.61242259392117</v>
+        <v>3.407260698708934</v>
       </c>
       <c r="F2">
-        <v>4.722159013579406</v>
+        <v>4.659927735183987</v>
       </c>
       <c r="G2">
-        <v>0.3504251108202771</v>
+        <v>0.4070774456863494</v>
       </c>
       <c r="H2">
-        <v>4.722159013579406</v>
+        <v>4.659927735183987</v>
       </c>
       <c r="I2">
-        <v>0.3504251108202771</v>
+        <v>0.4070774456863494</v>
       </c>
       <c r="J2">
-        <v>23.53373147812745</v>
+        <v>23.22343308176188</v>
       </c>
       <c r="K2">
-        <v>1.749933498976811</v>
+        <v>2.041439834185943</v>
       </c>
       <c r="L2">
-        <v>23.53373147812745</v>
+        <v>23.22343308176188</v>
       </c>
       <c r="M2">
-        <v>1.749933498976811</v>
+        <v>2.041439834185943</v>
       </c>
       <c r="N2">
-        <v>15.9143765588684</v>
+        <v>15.69834357530726</v>
       </c>
       <c r="O2">
-        <v>1.144356718082877</v>
+        <v>1.325152101165906</v>
       </c>
       <c r="P2">
-        <v>15.9143765588684</v>
+        <v>15.69834357530726</v>
       </c>
       <c r="Q2">
-        <v>1.144356718082877</v>
+        <v>1.325152101165906</v>
       </c>
       <c r="R2">
-        <v>2.077448612006538</v>
+        <v>2.048497877901295</v>
       </c>
       <c r="S2">
-        <v>0.1851811089554871</v>
+        <v>0.2055389899766147</v>
       </c>
       <c r="T2">
-        <v>2.077448612006538</v>
+        <v>2.048497877901295</v>
       </c>
       <c r="U2">
-        <v>0.1851811089554871</v>
+        <v>0.2055389899766147</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2771,64 +2771,64 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>53.13057445903875</v>
+        <v>52.50023805868221</v>
       </c>
       <c r="C3">
-        <v>2.856537453557385</v>
+        <v>3.705936958010723</v>
       </c>
       <c r="D3">
-        <v>101.4832857070464</v>
+        <v>100.2102393529113</v>
       </c>
       <c r="E3">
-        <v>3.850253396477177</v>
+        <v>5.021322906550283</v>
       </c>
       <c r="F3">
-        <v>5.192771126153135</v>
+        <v>5.122338159520852</v>
       </c>
       <c r="G3">
-        <v>0.3857677825148722</v>
+        <v>0.4428987762041502</v>
       </c>
       <c r="H3">
-        <v>9.914930139732535</v>
+        <v>9.782265894704921</v>
       </c>
       <c r="I3">
-        <v>0.5202331585871799</v>
+        <v>0.6000425268552263</v>
       </c>
       <c r="J3">
-        <v>18.40512151337515</v>
+        <v>18.1580028793102</v>
       </c>
       <c r="K3">
-        <v>2.031764651173161</v>
+        <v>2.332922721194169</v>
       </c>
       <c r="L3">
-        <v>41.93885299150262</v>
+        <v>41.3814359610722</v>
       </c>
       <c r="M3">
-        <v>2.668285233872849</v>
+        <v>3.073692826001237</v>
       </c>
       <c r="N3">
-        <v>24.97148866114555</v>
+        <v>24.61949372651367</v>
       </c>
       <c r="O3">
-        <v>1.376430551083976</v>
+        <v>1.610292604841105</v>
       </c>
       <c r="P3">
-        <v>40.88586522001393</v>
+        <v>40.31783730182106</v>
       </c>
       <c r="Q3">
-        <v>1.775323982000155</v>
+        <v>2.079667391796395</v>
       </c>
       <c r="R3">
-        <v>2.281012320559805</v>
+        <v>2.253467174628278</v>
       </c>
       <c r="S3">
-        <v>0.2044137971429043</v>
+        <v>0.2255298516238676</v>
       </c>
       <c r="T3">
-        <v>4.358460932566362</v>
+        <v>4.301965052529585</v>
       </c>
       <c r="U3">
-        <v>0.2747980040513529</v>
+        <v>0.3041646359255185</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2836,64 +2836,64 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>58.01930431253258</v>
+        <v>57.21600520979531</v>
       </c>
       <c r="C4">
-        <v>3.141001291815138</v>
+        <v>4.049990557065615</v>
       </c>
       <c r="D4">
-        <v>159.502590019578</v>
+        <v>157.4262445627079</v>
       </c>
       <c r="E4">
-        <v>4.990865019610138</v>
+        <v>6.487598915879007</v>
       </c>
       <c r="F4">
-        <v>5.667786584584576</v>
+        <v>5.589173509459273</v>
       </c>
       <c r="G4">
-        <v>0.4194632424486164</v>
+        <v>0.4772397923351098</v>
       </c>
       <c r="H4">
-        <v>15.58271672431716</v>
+        <v>15.37143940416419</v>
       </c>
       <c r="I4">
-        <v>0.6701334436991468</v>
+        <v>0.7626611782578661</v>
       </c>
       <c r="J4">
-        <v>17.37698768285993</v>
+        <v>17.15070803840095</v>
       </c>
       <c r="K4">
-        <v>2.201196658018305</v>
+        <v>2.568424654713685</v>
       </c>
       <c r="L4">
-        <v>59.31584067436276</v>
+        <v>58.53214399947321</v>
       </c>
       <c r="M4">
-        <v>3.517530266636021</v>
+        <v>4.041829876404836</v>
       </c>
       <c r="N4">
-        <v>29.97828981099082</v>
+        <v>29.56048002410466</v>
       </c>
       <c r="O4">
-        <v>1.530149674518613</v>
+        <v>1.769261486446357</v>
       </c>
       <c r="P4">
-        <v>70.86415503100449</v>
+        <v>69.87831732592562</v>
       </c>
       <c r="Q4">
-        <v>2.391384382862535</v>
+        <v>2.776760636160823</v>
       </c>
       <c r="R4">
-        <v>2.493843067025347</v>
+        <v>2.455003809766163</v>
       </c>
       <c r="S4">
-        <v>0.2240163904887606</v>
+        <v>0.2472135546561783</v>
       </c>
       <c r="T4">
-        <v>6.852303999591686</v>
+        <v>6.756968862295725</v>
       </c>
       <c r="U4">
-        <v>0.353809883878441</v>
+        <v>0.3880824751600359</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2901,64 +2901,64 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>62.79960197751701</v>
+        <v>61.9445189530291</v>
       </c>
       <c r="C5">
-        <v>3.423671084675624</v>
+        <v>4.391190660448544</v>
       </c>
       <c r="D5">
-        <v>222.3021919970956</v>
+        <v>219.3707635157362</v>
       </c>
       <c r="E5">
-        <v>6.070582586752121</v>
+        <v>7.833841156932075</v>
       </c>
       <c r="F5">
-        <v>6.136819111237117</v>
+        <v>6.047441997961969</v>
       </c>
       <c r="G5">
-        <v>0.4515230522616221</v>
+        <v>0.5254342723255465</v>
       </c>
       <c r="H5">
-        <v>21.71953583555419</v>
+        <v>21.41888140212614</v>
       </c>
       <c r="I5">
-        <v>0.8043222249107</v>
+        <v>0.9269014262472339</v>
       </c>
       <c r="J5">
-        <v>17.71937154039759</v>
+        <v>17.46547885377952</v>
       </c>
       <c r="K5">
-        <v>2.398780351426321</v>
+        <v>2.757319286070848</v>
       </c>
       <c r="L5">
-        <v>77.03521221476043</v>
+        <v>75.99762285325225</v>
       </c>
       <c r="M5">
-        <v>4.305600124218358</v>
+        <v>4.958721089415983</v>
       </c>
       <c r="N5">
-        <v>33.56988140013295</v>
+        <v>33.10105178360935</v>
       </c>
       <c r="O5">
-        <v>1.638171865619662</v>
+        <v>1.914428224644172</v>
       </c>
       <c r="P5">
-        <v>104.434036431138</v>
+        <v>102.9793691095351</v>
       </c>
       <c r="Q5">
-        <v>2.976052941844207</v>
+        <v>3.470855841919145</v>
       </c>
       <c r="R5">
-        <v>2.696611561288993</v>
+        <v>2.664850311458526</v>
       </c>
       <c r="S5">
-        <v>0.2379908841601713</v>
+        <v>0.2683804114805649</v>
       </c>
       <c r="T5">
-        <v>9.548915560880719</v>
+        <v>9.421819173754223</v>
       </c>
       <c r="U5">
-        <v>0.4245248403749415</v>
+        <v>0.4724243987703552</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2966,64 +2966,64 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>67.70958113935231</v>
+        <v>66.73192903215161</v>
       </c>
       <c r="C6">
-        <v>3.654501368853108</v>
+        <v>4.731942937619205</v>
       </c>
       <c r="D6">
-        <v>290.011773136447</v>
+        <v>286.1026925478888</v>
       </c>
       <c r="E6">
-        <v>7.088511143943865</v>
+        <v>9.137265702598713</v>
       </c>
       <c r="F6">
-        <v>6.611361616203912</v>
+        <v>6.518312700843218</v>
       </c>
       <c r="G6">
-        <v>0.4877623620388389</v>
+        <v>0.5718533202039047</v>
       </c>
       <c r="H6">
-        <v>28.33089745175803</v>
+        <v>27.93719410296921</v>
       </c>
       <c r="I6">
-        <v>0.9397929372429543</v>
+        <v>1.091015190385442</v>
       </c>
       <c r="J6">
-        <v>18.52506772452476</v>
+        <v>18.264907712882</v>
       </c>
       <c r="K6">
-        <v>2.575999267452214</v>
+        <v>2.990166566990986</v>
       </c>
       <c r="L6">
-        <v>95.56027993928515</v>
+        <v>94.26253056613454</v>
       </c>
       <c r="M6">
-        <v>5.087405503035201</v>
+        <v>5.803786462120018</v>
       </c>
       <c r="N6">
-        <v>36.6240499049476</v>
+        <v>36.129521314039</v>
       </c>
       <c r="O6">
-        <v>1.761920145842288</v>
+        <v>2.083125441330254</v>
       </c>
       <c r="P6">
-        <v>141.0580863360849</v>
+        <v>139.108890423574</v>
       </c>
       <c r="Q6">
-        <v>3.533529348350799</v>
+        <v>4.151515333801767</v>
       </c>
       <c r="R6">
-        <v>2.908422713245101</v>
+        <v>2.863110298165759</v>
       </c>
       <c r="S6">
-        <v>0.2585938479804208</v>
+        <v>0.2925387273302901</v>
       </c>
       <c r="T6">
-        <v>12.45733827412577</v>
+        <v>12.28492947192004</v>
       </c>
       <c r="U6">
-        <v>0.4960281076577734</v>
+        <v>0.5559639051757923</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -3031,64 +3031,64 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>72.54791289522507</v>
+        <v>71.46612421117167</v>
       </c>
       <c r="C7">
-        <v>3.911176875684314</v>
+        <v>5.034235676279882</v>
       </c>
       <c r="D7">
-        <v>362.5596860316749</v>
+        <v>357.5688167590595</v>
       </c>
       <c r="E7">
-        <v>8.050667870984638</v>
+        <v>10.37860671215516</v>
       </c>
       <c r="F7">
-        <v>7.083405918089763</v>
+        <v>6.980232917066878</v>
       </c>
       <c r="G7">
-        <v>0.522115512357007</v>
+        <v>0.598617126653965</v>
       </c>
       <c r="H7">
-        <v>35.41430336984801</v>
+        <v>34.91742702003602</v>
       </c>
       <c r="I7">
-        <v>1.080298402904738</v>
+        <v>1.247938552664722</v>
       </c>
       <c r="J7">
-        <v>19.58732185604179</v>
+        <v>19.30980562680692</v>
       </c>
       <c r="K7">
-        <v>2.754434065560391</v>
+        <v>3.187017720183674</v>
       </c>
       <c r="L7">
-        <v>115.1476017953265</v>
+        <v>113.5723361929418</v>
       </c>
       <c r="M7">
-        <v>5.859405751592687</v>
+        <v>6.700285747413624</v>
       </c>
       <c r="N7">
-        <v>39.51705269589762</v>
+        <v>38.98472722039624</v>
       </c>
       <c r="O7">
-        <v>1.887947521320797</v>
+        <v>2.198545870910359</v>
       </c>
       <c r="P7">
-        <v>180.5751390319833</v>
+        <v>178.0936176439692</v>
       </c>
       <c r="Q7">
-        <v>4.095066536846071</v>
+        <v>4.812272328890682</v>
       </c>
       <c r="R7">
-        <v>3.10535107055723</v>
+        <v>3.067776901140571</v>
       </c>
       <c r="S7">
-        <v>0.2767336480803613</v>
+        <v>0.309507855471685</v>
       </c>
       <c r="T7">
-        <v>15.56268934468298</v>
+        <v>15.3527063730606</v>
       </c>
       <c r="U7">
-        <v>0.5659672849020414</v>
+        <v>0.6374733884813757</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3096,64 +3096,64 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>77.41339963805392</v>
+        <v>76.1960582157725</v>
       </c>
       <c r="C8">
-        <v>4.168964110944417</v>
+        <v>5.3228439847163</v>
       </c>
       <c r="D8">
-        <v>439.9730856697259</v>
+        <v>433.7648749748308</v>
       </c>
       <c r="E8">
-        <v>9.013479536141057</v>
+        <v>11.69055509408267</v>
       </c>
       <c r="F8">
-        <v>7.557974252540692</v>
+        <v>7.446508727396949</v>
       </c>
       <c r="G8">
-        <v>0.5558879938589949</v>
+        <v>0.6570686615395465</v>
       </c>
       <c r="H8">
-        <v>42.97227762238857</v>
+        <v>42.36393574743332</v>
       </c>
       <c r="I8">
-        <v>1.214561256749667</v>
+        <v>1.400974675871563</v>
       </c>
       <c r="J8">
-        <v>20.75774317245365</v>
+        <v>20.33032343143568</v>
       </c>
       <c r="K8">
-        <v>2.955864017182623</v>
+        <v>3.423007530876411</v>
       </c>
       <c r="L8">
-        <v>135.9053449677797</v>
+        <v>133.902659624377</v>
       </c>
       <c r="M8">
-        <v>6.663072576471942</v>
+        <v>7.608127481645888</v>
       </c>
       <c r="N8">
-        <v>42.35474953765812</v>
+        <v>41.79145908609672</v>
       </c>
       <c r="O8">
-        <v>2.025047208921555</v>
+        <v>2.362252747442622</v>
       </c>
       <c r="P8">
-        <v>222.929888569642</v>
+        <v>219.8850767300662</v>
       </c>
       <c r="Q8">
-        <v>4.648286420107815</v>
+        <v>5.470807306737041</v>
       </c>
       <c r="R8">
-        <v>3.319201899549025</v>
+        <v>3.268788847093142</v>
       </c>
       <c r="S8">
-        <v>0.2965215118991571</v>
+        <v>0.3275846996565692</v>
       </c>
       <c r="T8">
-        <v>18.88189124423214</v>
+        <v>18.62149522015376</v>
       </c>
       <c r="U8">
-        <v>0.6396701547907973</v>
+        <v>0.7184071434433098</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -3161,64 +3161,64 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>82.20571763798137</v>
+        <v>80.93696249434218</v>
       </c>
       <c r="C9">
-        <v>4.411748002441734</v>
+        <v>5.731195871756846</v>
       </c>
       <c r="D9">
-        <v>522.1788033077094</v>
+        <v>514.7018374691735</v>
       </c>
       <c r="E9">
-        <v>9.990469880803712</v>
+        <v>13.05670668333424</v>
       </c>
       <c r="F9">
-        <v>8.028261084391561</v>
+        <v>7.914220539611475</v>
       </c>
       <c r="G9">
-        <v>0.5950537775591163</v>
+        <v>0.6776674080135168</v>
       </c>
       <c r="H9">
-        <v>51.00053870678015</v>
+        <v>50.2781562870446</v>
       </c>
       <c r="I9">
-        <v>1.352447668646385</v>
+        <v>1.566100532049048</v>
       </c>
       <c r="J9">
-        <v>21.90968224038168</v>
+        <v>21.53565546023516</v>
       </c>
       <c r="K9">
-        <v>3.128295886086675</v>
+        <v>3.587318798688874</v>
       </c>
       <c r="L9">
-        <v>157.8150272081616</v>
+        <v>155.438315084612</v>
       </c>
       <c r="M9">
-        <v>7.423036140687503</v>
+        <v>8.497902537115662</v>
       </c>
       <c r="N9">
-        <v>45.1584909828066</v>
+        <v>44.54413697940468</v>
       </c>
       <c r="O9">
-        <v>2.143166134683165</v>
+        <v>2.501055788747998</v>
       </c>
       <c r="P9">
-        <v>268.0883795524463</v>
+        <v>264.4292137094727</v>
       </c>
       <c r="Q9">
-        <v>5.227988927461761</v>
+        <v>6.136525617518089</v>
       </c>
       <c r="R9">
-        <v>3.528578240462799</v>
+        <v>3.481299927257099</v>
       </c>
       <c r="S9">
-        <v>0.3127141186631153</v>
+        <v>0.3489303661527067</v>
       </c>
       <c r="T9">
-        <v>22.41046948469485</v>
+        <v>22.10279514741081</v>
       </c>
       <c r="U9">
-        <v>0.7133017733771229</v>
+        <v>0.7977417934758533</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3226,64 +3226,64 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>87.08101676693204</v>
+        <v>85.85058659766943</v>
       </c>
       <c r="C10">
-        <v>4.713632272809218</v>
+        <v>6.040451379391639</v>
       </c>
       <c r="D10">
-        <v>609.2598200746389</v>
+        <v>600.5524240668411</v>
       </c>
       <c r="E10">
-        <v>11.00527171244175</v>
+        <v>14.38210232318224</v>
       </c>
       <c r="F10">
-        <v>8.497064681780641</v>
+        <v>8.37513740235314</v>
       </c>
       <c r="G10">
-        <v>0.6267417955987915</v>
+        <v>0.7214917552425488</v>
       </c>
       <c r="H10">
-        <v>59.49760338856071</v>
+        <v>58.65329368939784</v>
       </c>
       <c r="I10">
-        <v>1.488537937619685</v>
+        <v>1.728001671967932</v>
       </c>
       <c r="J10">
-        <v>23.02819366860582</v>
+        <v>22.67590896107746</v>
       </c>
       <c r="K10">
-        <v>3.336618014604386</v>
+        <v>3.807230325716463</v>
       </c>
       <c r="L10">
-        <v>180.8432208767681</v>
+        <v>178.11422404569</v>
       </c>
       <c r="M10">
-        <v>8.191419942672418</v>
+        <v>9.371103656073307</v>
       </c>
       <c r="N10">
-        <v>47.9143152368701</v>
+        <v>47.23598535399653</v>
       </c>
       <c r="O10">
-        <v>2.260799997308728</v>
+        <v>2.675764571110878</v>
       </c>
       <c r="P10">
-        <v>316.0026947893178</v>
+        <v>311.6651990634679</v>
       </c>
       <c r="Q10">
-        <v>5.771914469202668</v>
+        <v>6.805622724065197</v>
       </c>
       <c r="R10">
-        <v>3.733098564201173</v>
+        <v>3.678808198702273</v>
       </c>
       <c r="S10">
-        <v>0.3343501583552226</v>
+        <v>0.369653944517303</v>
       </c>
       <c r="T10">
-        <v>26.14356804889605</v>
+        <v>25.78160334611318</v>
       </c>
       <c r="U10">
-        <v>0.7870168208768137</v>
+        <v>0.8766587665414862</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3291,64 +3291,64 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>91.81678574886465</v>
+        <v>90.69423337572861</v>
       </c>
       <c r="C11">
-        <v>4.909002757551112</v>
+        <v>6.437005148980842</v>
       </c>
       <c r="D11">
-        <v>701.0766058235052</v>
+        <v>691.246657442572</v>
       </c>
       <c r="E11">
-        <v>11.99860716052145</v>
+        <v>15.80610545510914</v>
       </c>
       <c r="F11">
-        <v>8.959209835422831</v>
+        <v>8.849497457947237</v>
       </c>
       <c r="G11">
-        <v>0.6707538173723383</v>
+        <v>0.7703131746134636</v>
       </c>
       <c r="H11">
-        <v>68.45681322398377</v>
+        <v>67.50279114734481</v>
       </c>
       <c r="I11">
-        <v>1.63521694379791</v>
+        <v>1.899974452895248</v>
       </c>
       <c r="J11">
-        <v>24.18518866756572</v>
+        <v>23.86033191443542</v>
       </c>
       <c r="K11">
-        <v>3.501234367957355</v>
+        <v>4.064366834712358</v>
       </c>
       <c r="L11">
-        <v>205.0284095443335</v>
+        <v>201.974555960126</v>
       </c>
       <c r="M11">
-        <v>9.004850026287876</v>
+        <v>10.30164102000332</v>
       </c>
       <c r="N11">
-        <v>50.68636187778397</v>
+        <v>50.02843632039036</v>
       </c>
       <c r="O11">
-        <v>2.42744577126053</v>
+        <v>2.801872486343181</v>
       </c>
       <c r="P11">
-        <v>366.6890566671001</v>
+        <v>361.6936353838581</v>
       </c>
       <c r="Q11">
-        <v>6.340592916582831</v>
+        <v>7.457365758665708</v>
       </c>
       <c r="R11">
-        <v>3.940037365060597</v>
+        <v>3.888028752357878</v>
       </c>
       <c r="S11">
-        <v>0.3507194306429454</v>
+        <v>0.391571195205915</v>
       </c>
       <c r="T11">
-        <v>30.08360541395671</v>
+        <v>29.66963209847114</v>
       </c>
       <c r="U11">
-        <v>0.8574993718002838</v>
+        <v>0.9622363597247784</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3356,64 +3356,64 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>96.68008688635975</v>
+        <v>95.39318754625303</v>
       </c>
       <c r="C12">
-        <v>5.229742470484153</v>
+        <v>6.777581768798567</v>
       </c>
       <c r="D12">
-        <v>797.7566927098673</v>
+        <v>786.6398449888231</v>
       </c>
       <c r="E12">
-        <v>13.03489041597532</v>
+        <v>17.2886425383318</v>
       </c>
       <c r="F12">
-        <v>9.443746285720863</v>
+        <v>9.307485501501702</v>
       </c>
       <c r="G12">
-        <v>0.6884525932045679</v>
+        <v>0.8086028789099253</v>
       </c>
       <c r="H12">
-        <v>77.90055950970446</v>
+        <v>76.8102766488464</v>
       </c>
       <c r="I12">
-        <v>1.769772682232849</v>
+        <v>2.073498973506709</v>
       </c>
       <c r="J12">
-        <v>25.35318789959021</v>
+        <v>25.02173593105337</v>
       </c>
       <c r="K12">
-        <v>3.651709677023565</v>
+        <v>4.238068380697848</v>
       </c>
       <c r="L12">
-        <v>230.3815974439246</v>
+        <v>226.9962918911784</v>
       </c>
       <c r="M12">
-        <v>9.715980622148644</v>
+        <v>11.20979998506193</v>
       </c>
       <c r="N12">
-        <v>53.4749683928128</v>
+        <v>52.69954192222595</v>
       </c>
       <c r="O12">
-        <v>2.513086533660308</v>
+        <v>2.981121170113497</v>
       </c>
       <c r="P12">
-        <v>420.1640250599149</v>
+        <v>414.3931773060843</v>
       </c>
       <c r="Q12">
-        <v>6.932311532545694</v>
+        <v>8.160649834918869</v>
       </c>
       <c r="R12">
-        <v>4.146839622590519</v>
+        <v>4.094791789550492</v>
       </c>
       <c r="S12">
-        <v>0.3659342641600253</v>
+        <v>0.4125707031643359</v>
       </c>
       <c r="T12">
-        <v>34.23044503654713</v>
+        <v>33.76442388802142</v>
       </c>
       <c r="U12">
-        <v>0.9311514186988403</v>
+        <v>1.050650286285876</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3421,64 +3421,64 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>4.83810586567293</v>
+        <v>4.768471330286225</v>
       </c>
       <c r="C13">
-        <v>0.2588158878375704</v>
+        <v>0.3344051815401589</v>
       </c>
       <c r="D13">
-        <v>802.5947985755363</v>
+        <v>791.4083163191158</v>
       </c>
       <c r="E13">
-        <v>13.03684761026746</v>
+        <v>17.2897728105608</v>
       </c>
       <c r="F13">
-        <v>0.472267210606596</v>
+        <v>0.4654918432307258</v>
       </c>
       <c r="G13">
-        <v>0.03436208796780761</v>
+        <v>0.04040408509441308</v>
       </c>
       <c r="H13">
-        <v>78.37282672031125</v>
+        <v>77.27576849207765</v>
       </c>
       <c r="I13">
-        <v>1.770071022265662</v>
+        <v>2.074260578757007</v>
       </c>
       <c r="J13">
-        <v>-20.48883435425349</v>
+        <v>-20.1669174100439</v>
       </c>
       <c r="K13">
-        <v>1.196282149337725</v>
+        <v>1.375812056656989</v>
       </c>
       <c r="L13">
-        <v>209.8927630896707</v>
+        <v>206.8293744811346</v>
       </c>
       <c r="M13">
-        <v>9.874061023409615</v>
+        <v>11.39925951032892</v>
       </c>
       <c r="N13">
-        <v>24.43012706969328</v>
+        <v>24.05415969263966</v>
       </c>
       <c r="O13">
-        <v>1.185203590010599</v>
+        <v>1.368877992497172</v>
       </c>
       <c r="P13">
-        <v>444.5941521296085</v>
+        <v>438.4473369987238</v>
       </c>
       <c r="Q13">
-        <v>7.135678247478754</v>
+        <v>8.378741564709298</v>
       </c>
       <c r="R13">
-        <v>0.2075782587359468</v>
+        <v>0.204471314411708</v>
       </c>
       <c r="S13">
-        <v>0.0185395416960379</v>
+        <v>0.02055510091225659</v>
       </c>
       <c r="T13">
-        <v>34.43802329528308</v>
+        <v>33.96889520243327</v>
       </c>
       <c r="U13">
-        <v>0.9316044459586099</v>
+        <v>1.050929258092506</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3486,64 +3486,64 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>106.3374847829908</v>
+        <v>104.9232366340188</v>
       </c>
       <c r="C14">
-        <v>5.77016933670366</v>
+        <v>7.355998111615529</v>
       </c>
       <c r="D14">
-        <v>908.9322833585317</v>
+        <v>896.3315529531294</v>
       </c>
       <c r="E14">
-        <v>14.33504077550697</v>
+        <v>18.73461328419421</v>
       </c>
       <c r="F14">
-        <v>10.38750205442672</v>
+        <v>10.23014255704009</v>
       </c>
       <c r="G14">
-        <v>0.7686649654675463</v>
+        <v>0.8864459726335885</v>
       </c>
       <c r="H14">
-        <v>88.76032877473733</v>
+        <v>87.50591104911751</v>
       </c>
       <c r="I14">
-        <v>1.923423998250201</v>
+        <v>2.247103156894562</v>
       </c>
       <c r="J14">
-        <v>42.66451140696231</v>
+        <v>42.10904070276764</v>
       </c>
       <c r="K14">
-        <v>3.877428002876209</v>
+        <v>4.490326503183086</v>
       </c>
       <c r="L14">
-        <v>252.5572744966326</v>
+        <v>248.9384151839016</v>
       </c>
       <c r="M14">
-        <v>10.65134918267938</v>
+        <v>12.28801072073223</v>
       </c>
       <c r="N14">
-        <v>44.0419403065002</v>
+        <v>43.40643096209363</v>
       </c>
       <c r="O14">
-        <v>2.551991811249632</v>
+        <v>2.969568160581272</v>
       </c>
       <c r="P14">
-        <v>488.6360924361077</v>
+        <v>481.8537679608181</v>
       </c>
       <c r="Q14">
-        <v>7.625864326492631</v>
+        <v>8.931148481203168</v>
       </c>
       <c r="R14">
-        <v>4.564987473349818</v>
+        <v>4.50062655735077</v>
       </c>
       <c r="S14">
-        <v>0.4094268765773978</v>
+        <v>0.449235490477256</v>
       </c>
       <c r="T14">
-        <v>39.00301076863292</v>
+        <v>38.46952175978389</v>
       </c>
       <c r="U14">
-        <v>1.016660523332151</v>
+        <v>1.135598454538773</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3551,64 +3551,64 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>111.2485265013833</v>
+        <v>109.6205154405548</v>
       </c>
       <c r="C15">
-        <v>6.01003246489033</v>
+        <v>7.654302196056959</v>
       </c>
       <c r="D15">
-        <v>1020.18080985991</v>
+        <v>1005.952068393686</v>
       </c>
       <c r="E15">
-        <v>15.54315011505453</v>
+        <v>20.09287747067209</v>
       </c>
       <c r="F15">
-        <v>10.84750427027988</v>
+        <v>10.7160850887032</v>
       </c>
       <c r="G15">
-        <v>0.8080486338493024</v>
+        <v>0.9277468457774742</v>
       </c>
       <c r="H15">
-        <v>99.6078330450173</v>
+        <v>98.22199613782054</v>
       </c>
       <c r="I15">
-        <v>2.088861172273952</v>
+        <v>2.43283894019886</v>
       </c>
       <c r="J15">
-        <v>34.1435242637641</v>
+        <v>33.79878684868116</v>
       </c>
       <c r="K15">
-        <v>4.194353426212468</v>
+        <v>4.86495124169012</v>
       </c>
       <c r="L15">
-        <v>286.7007987603965</v>
+        <v>282.7372020325851</v>
       </c>
       <c r="M15">
-        <v>11.51862161358092</v>
+        <v>13.28514215435723</v>
       </c>
       <c r="N15">
-        <v>56.47129677261358</v>
+        <v>55.70455974696836</v>
       </c>
       <c r="O15">
-        <v>2.907395796368272</v>
+        <v>3.360500060280747</v>
       </c>
       <c r="P15">
-        <v>545.1073892087228</v>
+        <v>537.5583277077852</v>
       </c>
       <c r="Q15">
-        <v>8.220451904931949</v>
+        <v>9.618982255134672</v>
       </c>
       <c r="R15">
-        <v>4.765045902677399</v>
+        <v>4.711279305836434</v>
       </c>
       <c r="S15">
-        <v>0.4271382501754989</v>
+        <v>0.4671612939087724</v>
       </c>
       <c r="T15">
-        <v>43.7680566713103</v>
+        <v>43.18080106562023</v>
       </c>
       <c r="U15">
-        <v>1.095169453684957</v>
+        <v>1.227055558283643</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3616,64 +3616,64 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>116.1229919658394</v>
+        <v>114.1979210916049</v>
       </c>
       <c r="C16">
-        <v>6.299144006551479</v>
+        <v>8.055223027451857</v>
       </c>
       <c r="D16">
-        <v>1136.303801825754</v>
+        <v>1120.14998948529</v>
       </c>
       <c r="E16">
-        <v>16.81721577493586</v>
+        <v>21.68844665174602</v>
       </c>
       <c r="F16">
-        <v>11.3334165163802</v>
+        <v>11.1795499224939</v>
       </c>
       <c r="G16">
-        <v>0.8330764519393419</v>
+        <v>0.9752416543477082</v>
       </c>
       <c r="H16">
-        <v>110.9412495613978</v>
+        <v>109.4015460603147</v>
       </c>
       <c r="I16">
-        <v>2.239566515209585</v>
+        <v>2.619715786152553</v>
       </c>
       <c r="J16">
-        <v>32.06151524759348</v>
+        <v>31.63259075044617</v>
       </c>
       <c r="K16">
-        <v>4.44968892993642</v>
+        <v>5.112738868929303</v>
       </c>
       <c r="L16">
-        <v>318.7623140079901</v>
+        <v>314.3697927830295</v>
       </c>
       <c r="M16">
-        <v>12.38947362896379</v>
+        <v>14.21970126449562</v>
       </c>
       <c r="N16">
-        <v>62.51090744023553</v>
+        <v>61.58918178905746</v>
       </c>
       <c r="O16">
-        <v>3.051317617545529</v>
+        <v>3.604995009502772</v>
       </c>
       <c r="P16">
-        <v>607.618296648955</v>
+        <v>599.1475094968449</v>
       </c>
       <c r="Q16">
-        <v>8.823409572455802</v>
+        <v>10.34543839988233</v>
       </c>
       <c r="R16">
-        <v>4.978236522789291</v>
+        <v>4.911234190285851</v>
       </c>
       <c r="S16">
-        <v>0.4433475824982326</v>
+        <v>0.4958647353531061</v>
       </c>
       <c r="T16">
-        <v>48.74629319409949</v>
+        <v>48.09203525590604</v>
       </c>
       <c r="U16">
-        <v>1.177520207272547</v>
+        <v>1.319318140505689</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3681,64 +3681,64 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>120.8593223268196</v>
+        <v>119.2095767918735</v>
       </c>
       <c r="C17">
-        <v>6.478938658038619</v>
+        <v>8.421079296541937</v>
       </c>
       <c r="D17">
-        <v>1257.163124152572</v>
+        <v>1239.35956627716</v>
       </c>
       <c r="E17">
-        <v>18.06093747885568</v>
+        <v>23.3113887462613</v>
       </c>
       <c r="F17">
-        <v>11.80253517301156</v>
+        <v>11.63829285277766</v>
       </c>
       <c r="G17">
-        <v>0.8606311838217626</v>
+        <v>1.016957711064765</v>
       </c>
       <c r="H17">
-        <v>122.7437847344096</v>
+        <v>121.0398389130924</v>
       </c>
       <c r="I17">
-        <v>2.398583712933052</v>
+        <v>2.80025711993976</v>
       </c>
       <c r="J17">
-        <v>32.04170796200999</v>
+        <v>31.58699262490676</v>
       </c>
       <c r="K17">
-        <v>4.583615845105514</v>
+        <v>5.3520608271213</v>
       </c>
       <c r="L17">
-        <v>350.8040219700002</v>
+        <v>345.9567854079374</v>
       </c>
       <c r="M17">
-        <v>13.27758215986356</v>
+        <v>15.24878489795304</v>
       </c>
       <c r="N17">
-        <v>66.53019217527192</v>
+        <v>65.57593458408437</v>
       </c>
       <c r="O17">
-        <v>3.191818187916253</v>
+        <v>3.734974876558214</v>
       </c>
       <c r="P17">
-        <v>674.1484888242317</v>
+        <v>664.7234440809257</v>
       </c>
       <c r="Q17">
-        <v>9.490520195219675</v>
+        <v>11.09540746978498</v>
       </c>
       <c r="R17">
-        <v>5.192164272687851</v>
+        <v>5.116348685540753</v>
       </c>
       <c r="S17">
-        <v>0.4690805752583814</v>
+        <v>0.516423043530968</v>
       </c>
       <c r="T17">
-        <v>53.93845746678744</v>
+        <v>53.20838394144677</v>
       </c>
       <c r="U17">
-        <v>1.260552920914375</v>
+        <v>1.418183106802828</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3746,64 +3746,64 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>125.6904995696536</v>
+        <v>124.0503606138534</v>
       </c>
       <c r="C18">
-        <v>6.707407886670924</v>
+        <v>8.740844854833822</v>
       </c>
       <c r="D18">
-        <v>1382.853623722223</v>
+        <v>1363.409926891016</v>
       </c>
       <c r="E18">
-        <v>19.27821716559487</v>
+        <v>24.92509422185794</v>
       </c>
       <c r="F18">
-        <v>12.27263409576381</v>
+        <v>12.10414539634156</v>
       </c>
       <c r="G18">
-        <v>0.9014234523572127</v>
+        <v>1.053012935597556</v>
       </c>
       <c r="H18">
-        <v>135.0164188301732</v>
+        <v>133.1439843094332</v>
       </c>
       <c r="I18">
-        <v>2.561327664893337</v>
+        <v>2.991714381019933</v>
       </c>
       <c r="J18">
-        <v>32.68442579207218</v>
+        <v>32.33271884269882</v>
       </c>
       <c r="K18">
-        <v>4.750938030600216</v>
+        <v>5.53995951310391</v>
       </c>
       <c r="L18">
-        <v>383.4884477620724</v>
+        <v>378.2895042506359</v>
       </c>
       <c r="M18">
-        <v>14.26197460004951</v>
+        <v>16.39965354079423</v>
       </c>
       <c r="N18">
-        <v>69.74409323159584</v>
+        <v>68.78717516546145</v>
       </c>
       <c r="O18">
-        <v>3.316346517990389</v>
+        <v>3.869982067132312</v>
       </c>
       <c r="P18">
-        <v>743.892582055828</v>
+        <v>733.5106192463882</v>
       </c>
       <c r="Q18">
-        <v>10.18289533096941</v>
+        <v>11.89747218481838</v>
       </c>
       <c r="R18">
-        <v>5.389577389026684</v>
+        <v>5.324406865194416</v>
       </c>
       <c r="S18">
-        <v>0.482473688170846</v>
+        <v>0.5348346254914962</v>
       </c>
       <c r="T18">
-        <v>59.32803485581402</v>
+        <v>58.53279080664124</v>
       </c>
       <c r="U18">
-        <v>1.354273915776715</v>
+        <v>1.517308003774573</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3811,64 +3811,64 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>130.5424744840763</v>
+        <v>128.5398623931006</v>
       </c>
       <c r="C19">
-        <v>7.11042033235056</v>
+        <v>9.087343638369935</v>
       </c>
       <c r="D19">
-        <v>1513.396098206295</v>
+        <v>1491.949789284112</v>
       </c>
       <c r="E19">
-        <v>20.56027295495864</v>
+        <v>26.58393039681458</v>
       </c>
       <c r="F19">
-        <v>12.75485597763648</v>
+        <v>12.5633970925507</v>
       </c>
       <c r="G19">
-        <v>0.9441879937171787</v>
+        <v>1.091079306047103</v>
       </c>
       <c r="H19">
-        <v>147.7712748078095</v>
+        <v>145.7073814019845</v>
       </c>
       <c r="I19">
-        <v>2.727655455155192</v>
+        <v>3.186169017733548</v>
       </c>
       <c r="J19">
-        <v>33.7250449876335</v>
+        <v>33.16523550150617</v>
       </c>
       <c r="K19">
-        <v>4.945679670113239</v>
+        <v>5.720800760107354</v>
       </c>
       <c r="L19">
-        <v>417.2134927497051</v>
+        <v>411.4547397521407</v>
       </c>
       <c r="M19">
-        <v>15.17025726295151</v>
+        <v>17.41752183924361</v>
       </c>
       <c r="N19">
-        <v>72.76230577165124</v>
+        <v>71.71204726488963</v>
       </c>
       <c r="O19">
-        <v>3.449795724127414</v>
+        <v>3.980482942788752</v>
       </c>
       <c r="P19">
-        <v>816.6548878274759</v>
+        <v>805.2226665112727</v>
       </c>
       <c r="Q19">
-        <v>10.93855830258226</v>
+        <v>12.66503343263551</v>
       </c>
       <c r="R19">
-        <v>5.599962256388378</v>
+        <v>5.517587617285335</v>
       </c>
       <c r="S19">
-        <v>0.5026466095538562</v>
+        <v>0.5484651367437964</v>
       </c>
       <c r="T19">
-        <v>64.9279971122026</v>
+        <v>64.05037842392693</v>
       </c>
       <c r="U19">
-        <v>1.447485445712006</v>
+        <v>1.613232209288715</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3876,64 +3876,64 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>135.3714817279878</v>
+        <v>133.4643455346672</v>
       </c>
       <c r="C20">
-        <v>7.234468845813722</v>
+        <v>9.434643189618894</v>
       </c>
       <c r="D20">
-        <v>1648.767579934288</v>
+        <v>1625.414134818787</v>
       </c>
       <c r="E20">
-        <v>21.80071698100835</v>
+        <v>28.3052661587412</v>
       </c>
       <c r="F20">
-        <v>13.21199776196699</v>
+        <v>13.03386129632247</v>
       </c>
       <c r="G20">
-        <v>0.9708079614589677</v>
+        <v>1.124258050985049</v>
       </c>
       <c r="H20">
-        <v>160.9832725697773</v>
+        <v>158.7412426983074</v>
       </c>
       <c r="I20">
-        <v>2.896864902792038</v>
+        <v>3.370566045266588</v>
       </c>
       <c r="J20">
-        <v>34.79362027279385</v>
+        <v>34.29507004528587</v>
       </c>
       <c r="K20">
-        <v>5.108369250582453</v>
+        <v>5.982095674901713</v>
       </c>
       <c r="L20">
-        <v>452.0071130225001</v>
+        <v>445.7498097974299</v>
       </c>
       <c r="M20">
-        <v>16.11235546944626</v>
+        <v>18.5193701178148</v>
       </c>
       <c r="N20">
-        <v>75.56033132981753</v>
+        <v>74.44664125097884</v>
       </c>
       <c r="O20">
-        <v>3.570658851390124</v>
+        <v>4.196691939839013</v>
       </c>
       <c r="P20">
-        <v>892.2152191572942</v>
+        <v>879.6693077622551</v>
       </c>
       <c r="Q20">
-        <v>11.6164961401599</v>
+        <v>13.57566581712326</v>
       </c>
       <c r="R20">
-        <v>5.808278096186893</v>
+        <v>5.736066823987209</v>
       </c>
       <c r="S20">
-        <v>0.513474893051824</v>
+        <v>0.5810465397524337</v>
       </c>
       <c r="T20">
-        <v>70.736275208389</v>
+        <v>69.78644524791419</v>
       </c>
       <c r="U20">
-        <v>1.534879598954703</v>
+        <v>1.71742903839111</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3941,64 +3941,64 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>140.2766463828138</v>
+        <v>138.3255885231114</v>
       </c>
       <c r="C21">
-        <v>7.572344700436078</v>
+        <v>9.733766152967508</v>
       </c>
       <c r="D21">
-        <v>1789.044226317109</v>
+        <v>1763.739723341895</v>
       </c>
       <c r="E21">
-        <v>22.98744587391563</v>
+        <v>29.94891513448629</v>
       </c>
       <c r="F21">
-        <v>13.69999350292184</v>
+        <v>13.50596823031548</v>
       </c>
       <c r="G21">
-        <v>1.013888602847876</v>
+        <v>1.171362084154382</v>
       </c>
       <c r="H21">
-        <v>174.6832660726988</v>
+        <v>172.2472109286229</v>
       </c>
       <c r="I21">
-        <v>3.076030347408718</v>
+        <v>3.56259536627394</v>
       </c>
       <c r="J21">
-        <v>36.03090936034758</v>
+        <v>35.47218532538273</v>
       </c>
       <c r="K21">
-        <v>5.322985024973388</v>
+        <v>6.164494122988533</v>
       </c>
       <c r="L21">
-        <v>488.0380223828474</v>
+        <v>481.2219951228091</v>
       </c>
       <c r="M21">
-        <v>17.03548915940011</v>
+        <v>19.65273249261688</v>
       </c>
       <c r="N21">
-        <v>78.37003848569358</v>
+        <v>77.30454415739929</v>
       </c>
       <c r="O21">
-        <v>3.667643216700081</v>
+        <v>4.327029954314632</v>
       </c>
       <c r="P21">
-        <v>970.5852576429911</v>
+        <v>956.9738519196561</v>
       </c>
       <c r="Q21">
-        <v>12.29568061202502</v>
+        <v>14.37225811275508</v>
       </c>
       <c r="R21">
-        <v>6.025985807456364</v>
+        <v>5.937956891350723</v>
       </c>
       <c r="S21">
-        <v>0.537252593324793</v>
+        <v>0.5927747798513341</v>
       </c>
       <c r="T21">
-        <v>76.76226101584598</v>
+        <v>75.72440213926457</v>
       </c>
       <c r="U21">
-        <v>1.630626489626293</v>
+        <v>1.813695820597923</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -4006,64 +4006,64 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>145.0177893529784</v>
+        <v>143.0848852776929</v>
       </c>
       <c r="C22">
-        <v>7.763338838449971</v>
+        <v>10.07405916807217</v>
       </c>
       <c r="D22">
-        <v>1934.062015670076</v>
+        <v>1906.824608619594</v>
       </c>
       <c r="E22">
-        <v>24.26686154391627</v>
+        <v>31.64905165442322</v>
       </c>
       <c r="F22">
-        <v>14.14499552626692</v>
+        <v>13.97089344933339</v>
       </c>
       <c r="G22">
-        <v>1.04269511797</v>
+        <v>1.217564767453766</v>
       </c>
       <c r="H22">
-        <v>188.8282615989656</v>
+        <v>186.2181043779559</v>
       </c>
       <c r="I22">
-        <v>3.258830566918566</v>
+        <v>3.759349985379325</v>
       </c>
       <c r="J22">
-        <v>37.10334754902702</v>
+        <v>36.67585792608124</v>
       </c>
       <c r="K22">
-        <v>5.551333180055858</v>
+        <v>6.417795376067832</v>
       </c>
       <c r="L22">
-        <v>525.1413699318714</v>
+        <v>517.897853048892</v>
       </c>
       <c r="M22">
-        <v>17.96682423897887</v>
+        <v>20.83961264677558</v>
       </c>
       <c r="N22">
-        <v>81.11377248841424</v>
+        <v>80.04878634516395</v>
       </c>
       <c r="O22">
-        <v>3.82507576522303</v>
+        <v>4.462463947640988</v>
       </c>
       <c r="P22">
-        <v>1051.699030131398</v>
+        <v>1037.022638264825</v>
       </c>
       <c r="Q22">
-        <v>12.97454234816372</v>
+        <v>15.2168103827556</v>
       </c>
       <c r="R22">
-        <v>6.226996210185412</v>
+        <v>6.141485852423127</v>
       </c>
       <c r="S22">
-        <v>0.5542856030330243</v>
+        <v>0.6148893636820442</v>
       </c>
       <c r="T22">
-        <v>82.98925722603104</v>
+        <v>81.86588799168759</v>
       </c>
       <c r="U22">
-        <v>1.719918925328689</v>
+        <v>1.922062596163819</v>
       </c>
     </row>
   </sheetData>
@@ -4179,88 +4179,88 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>49.50727064625715</v>
+        <v>48.80925329529008</v>
       </c>
       <c r="C2">
-        <v>1.005185056225975</v>
+        <v>2.457555747385645</v>
       </c>
       <c r="D2">
-        <v>24.1705855004433</v>
+        <v>23.82785365152854</v>
       </c>
       <c r="E2">
-        <v>1.316149538261277</v>
+        <v>1.694729103695906</v>
       </c>
       <c r="F2">
-        <v>24.1767593821573</v>
+        <v>23.83597837878848</v>
       </c>
       <c r="G2">
-        <v>1.292133561370659</v>
+        <v>1.69176270235172</v>
       </c>
       <c r="H2">
-        <v>7.084775306124242</v>
+        <v>6.984562380180415</v>
       </c>
       <c r="I2">
-        <v>0.5173979212806538</v>
+        <v>0.609308584050542</v>
       </c>
       <c r="J2">
-        <v>7.082714628882751</v>
+        <v>6.981907171035822</v>
       </c>
       <c r="K2">
-        <v>0.5190130277813851</v>
+        <v>0.6027709709685992</v>
       </c>
       <c r="L2">
-        <v>2.358011713285646</v>
+        <v>2.327227962996976</v>
       </c>
       <c r="M2">
-        <v>0.1722429295777723</v>
+        <v>0.2038911297961079</v>
       </c>
       <c r="N2">
-        <v>4.721207204571328</v>
+        <v>4.653716956028402</v>
       </c>
       <c r="O2">
-        <v>0.3451019650353159</v>
+        <v>0.4040048758123139</v>
       </c>
       <c r="P2">
-        <v>2.360515077605554</v>
+        <v>2.326823025719923</v>
       </c>
       <c r="Q2">
-        <v>0.1726565594002086</v>
+        <v>0.2024111522079088</v>
       </c>
       <c r="R2">
-        <v>6.920417917861637</v>
+        <v>6.824941693537173</v>
       </c>
       <c r="S2">
-        <v>0.60765602704693</v>
+        <v>0.6894759033240122</v>
       </c>
       <c r="T2">
-        <v>4.841660012255293</v>
+        <v>4.771721422997707</v>
       </c>
       <c r="U2">
-        <v>0.4313210284508368</v>
+        <v>0.4752080629980051</v>
       </c>
       <c r="V2">
-        <v>1.037739412921864</v>
+        <v>1.022225688357852</v>
       </c>
       <c r="W2">
-        <v>0.0922024375475306</v>
+        <v>0.1011906529899712</v>
       </c>
       <c r="X2">
-        <v>1.038333020732934</v>
+        <v>1.022867418052589</v>
       </c>
       <c r="Y2">
-        <v>0.09316491413852163</v>
+        <v>0.1020621227039167</v>
       </c>
       <c r="Z2">
-        <v>2.303320158937191</v>
+        <v>2.273269739754908</v>
       </c>
       <c r="AA2">
-        <v>0.2017544408707205</v>
+        <v>0.2313202732614774</v>
       </c>
       <c r="AB2">
-        <v>4.614199533640977</v>
+        <v>4.544912290040805</v>
       </c>
       <c r="AC2">
-        <v>0.4085269191815563</v>
+        <v>0.4561030212179737</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -4274,94 +4274,94 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>54.47237128216838</v>
+        <v>53.72293479203306</v>
       </c>
       <c r="C3">
-        <v>1.091329906798087</v>
+        <v>2.685510130862124</v>
       </c>
       <c r="D3">
-        <v>26.60710862296651</v>
+        <v>26.21978410225616</v>
       </c>
       <c r="E3">
-        <v>1.429402084936852</v>
+        <v>1.850316195303996</v>
       </c>
       <c r="F3">
-        <v>26.61871285337972</v>
+        <v>26.21188002545402</v>
       </c>
       <c r="G3">
-        <v>1.434704462229971</v>
+        <v>1.855013181662396</v>
       </c>
       <c r="H3">
-        <v>7.798661649799545</v>
+        <v>7.682306797432594</v>
       </c>
       <c r="I3">
-        <v>0.5764606349636109</v>
+        <v>0.6700457999389836</v>
       </c>
       <c r="J3">
-        <v>7.801141509251973</v>
+        <v>7.680086858268255</v>
       </c>
       <c r="K3">
-        <v>0.5730778012442228</v>
+        <v>0.6617770518562311</v>
       </c>
       <c r="L3">
-        <v>2.598189909181063</v>
+        <v>2.561068879734574</v>
       </c>
       <c r="M3">
-        <v>0.1920312312961583</v>
+        <v>0.2241487748444294</v>
       </c>
       <c r="N3">
-        <v>5.196772175617754</v>
+        <v>5.117944626217168</v>
       </c>
       <c r="O3">
-        <v>0.3811098762002408</v>
+        <v>0.4427169403831082</v>
       </c>
       <c r="P3">
-        <v>2.598868326700244</v>
+        <v>2.559942721218232</v>
       </c>
       <c r="Q3">
-        <v>0.190801039118795</v>
+        <v>0.2219467191042289</v>
       </c>
       <c r="R3">
-        <v>7.61368188858418</v>
+        <v>7.498472112254733</v>
       </c>
       <c r="S3">
-        <v>0.6788202312150667</v>
+        <v>0.7532360989218569</v>
       </c>
       <c r="T3">
-        <v>5.328419747380232</v>
+        <v>5.252585354269153</v>
       </c>
       <c r="U3">
-        <v>0.4705431443695634</v>
+        <v>0.5254185086692742</v>
       </c>
       <c r="V3">
-        <v>1.14241603144533</v>
+        <v>1.124445163541861</v>
       </c>
       <c r="W3">
-        <v>0.1010913043715494</v>
+        <v>0.1121712608453345</v>
       </c>
       <c r="X3">
-        <v>1.142368940997138</v>
+        <v>1.124389962407401</v>
       </c>
       <c r="Y3">
-        <v>0.1013189163684916</v>
+        <v>0.1125287396604348</v>
       </c>
       <c r="Z3">
-        <v>2.537829441208657</v>
+        <v>2.503137803791127</v>
       </c>
       <c r="AA3">
-        <v>0.2289251692769328</v>
+        <v>0.2521426045260703</v>
       </c>
       <c r="AB3">
-        <v>5.072757079535791</v>
+        <v>4.997173085053579</v>
       </c>
       <c r="AC3">
-        <v>0.4525184554214356</v>
+        <v>0.5001364519798414</v>
       </c>
       <c r="AD3">
-        <v>7.473521518462906</v>
+        <v>7.372348945243116</v>
       </c>
       <c r="AE3">
-        <v>0.5862577928227236</v>
+        <v>0.6755443536789376</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -4369,94 +4369,94 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>59.42719328322779</v>
+        <v>58.56888307865979</v>
       </c>
       <c r="C4">
-        <v>1.178661747764487</v>
+        <v>2.940908768837628</v>
       </c>
       <c r="D4">
-        <v>29.01200455065863</v>
+        <v>28.57747252487511</v>
       </c>
       <c r="E4">
-        <v>1.559575117463872</v>
+        <v>2.005889532145547</v>
       </c>
       <c r="F4">
-        <v>28.9949102362672</v>
+        <v>28.60193630974818</v>
       </c>
       <c r="G4">
-        <v>1.571516954814784</v>
+        <v>2.004301059249477</v>
       </c>
       <c r="H4">
-        <v>8.495961141318411</v>
+        <v>8.374769113347844</v>
       </c>
       <c r="I4">
-        <v>0.6300665304426455</v>
+        <v>0.7207772708379274</v>
       </c>
       <c r="J4">
-        <v>8.491987670193817</v>
+        <v>8.38042214558109</v>
       </c>
       <c r="K4">
-        <v>0.623684476289188</v>
+        <v>0.7230894561431567</v>
       </c>
       <c r="L4">
-        <v>2.831955841416297</v>
+        <v>2.793694402071992</v>
       </c>
       <c r="M4">
-        <v>0.2081898591176012</v>
+        <v>0.2389125882106412</v>
       </c>
       <c r="N4">
-        <v>5.662160235529688</v>
+        <v>5.585810690513625</v>
       </c>
       <c r="O4">
-        <v>0.4169285909565456</v>
+        <v>0.4811163791313467</v>
       </c>
       <c r="P4">
-        <v>2.832446627739391</v>
+        <v>2.7914265025987</v>
       </c>
       <c r="Q4">
-        <v>0.2082678831706241</v>
+        <v>0.2388044259334863</v>
       </c>
       <c r="R4">
-        <v>8.299835654419786</v>
+        <v>8.175517402245898</v>
       </c>
       <c r="S4">
-        <v>0.7446071290148449</v>
+        <v>0.8109846811204946</v>
       </c>
       <c r="T4">
-        <v>5.802901590141033</v>
+        <v>5.72646592543585</v>
       </c>
       <c r="U4">
-        <v>0.5153983454612627</v>
+        <v>0.5703763441495024</v>
       </c>
       <c r="V4">
-        <v>1.244496795544494</v>
+        <v>1.226663643575775</v>
       </c>
       <c r="W4">
-        <v>0.1116943431975461</v>
+        <v>0.1228160120092476</v>
       </c>
       <c r="X4">
-        <v>1.24463827401805</v>
+        <v>1.227791537020719</v>
       </c>
       <c r="Y4">
-        <v>0.1112451947312542</v>
+        <v>0.1223237987615386</v>
       </c>
       <c r="Z4">
-        <v>2.764862915981785</v>
+        <v>2.728090887594458</v>
       </c>
       <c r="AA4">
-        <v>0.2462511608696953</v>
+        <v>0.2698284914453558</v>
       </c>
       <c r="AB4">
-        <v>5.52902942083741</v>
+        <v>5.452112635477403</v>
       </c>
       <c r="AC4">
-        <v>0.4941972291053785</v>
+        <v>0.5433213180297731</v>
       </c>
       <c r="AD4">
-        <v>10.86746701792883</v>
+        <v>10.71232535502633</v>
       </c>
       <c r="AE4">
-        <v>0.6636312210792926</v>
+        <v>0.764195839620385</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -4464,94 +4464,94 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>64.35234065213524</v>
+        <v>63.4307236061882</v>
       </c>
       <c r="C5">
-        <v>1.280557673960253</v>
+        <v>3.175638210773021</v>
       </c>
       <c r="D5">
-        <v>31.44145333606459</v>
+        <v>30.95570605487256</v>
       </c>
       <c r="E5">
-        <v>1.680423644448429</v>
+        <v>2.189098999479619</v>
       </c>
       <c r="F5">
-        <v>31.41922990434423</v>
+        <v>30.96833120623112</v>
       </c>
       <c r="G5">
-        <v>1.715320055107107</v>
+        <v>2.195514446550046</v>
       </c>
       <c r="H5">
-        <v>9.210924759280386</v>
+        <v>9.082198093300132</v>
       </c>
       <c r="I5">
-        <v>0.6878294601826141</v>
+        <v>0.784655121259439</v>
       </c>
       <c r="J5">
-        <v>9.207924867215873</v>
+        <v>9.077225838708678</v>
       </c>
       <c r="K5">
-        <v>0.6844428948123605</v>
+        <v>0.786585708847899</v>
       </c>
       <c r="L5">
-        <v>3.06908177484936</v>
+        <v>3.024497117516799</v>
       </c>
       <c r="M5">
-        <v>0.2263154425833413</v>
+        <v>0.2627951530916082</v>
       </c>
       <c r="N5">
-        <v>6.131260572487071</v>
+        <v>6.049799730262658</v>
       </c>
       <c r="O5">
-        <v>0.4552309201959454</v>
+        <v>0.5267211276371901</v>
       </c>
       <c r="P5">
-        <v>3.068811771415092</v>
+        <v>3.023861712148889</v>
       </c>
       <c r="Q5">
-        <v>0.2270524111216044</v>
+        <v>0.2660028866920433</v>
       </c>
       <c r="R5">
-        <v>8.988579693807795</v>
+        <v>8.867673910447163</v>
       </c>
       <c r="S5">
-        <v>0.805943790977364</v>
+        <v>0.8872798568744437</v>
       </c>
       <c r="T5">
-        <v>6.290750397650169</v>
+        <v>6.201585481365893</v>
       </c>
       <c r="U5">
-        <v>0.5643802909825583</v>
+        <v>0.6183613892588097</v>
       </c>
       <c r="V5">
-        <v>1.34854698904398</v>
+        <v>1.331233205851057</v>
       </c>
       <c r="W5">
-        <v>0.1207097850649278</v>
+        <v>0.1336277192445307</v>
       </c>
       <c r="X5">
-        <v>1.349369617351607</v>
+        <v>1.329351704767826</v>
       </c>
       <c r="Y5">
-        <v>0.1204079795558951</v>
+        <v>0.1332372945272269</v>
       </c>
       <c r="Z5">
-        <v>2.996363187935563</v>
+        <v>2.952465604273938</v>
       </c>
       <c r="AA5">
-        <v>0.2664525499305785</v>
+        <v>0.2956875073702518</v>
       </c>
       <c r="AB5">
-        <v>5.98991553994765</v>
+        <v>5.907809440418666</v>
       </c>
       <c r="AC5">
-        <v>0.5380919666158673</v>
+        <v>0.5903146967122377</v>
       </c>
       <c r="AD5">
-        <v>12.88249990330122</v>
+        <v>12.70032711717295</v>
       </c>
       <c r="AE5">
-        <v>0.7169113909627229</v>
+        <v>0.823795894493962</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -4559,94 +4559,94 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>69.30515164618868</v>
+        <v>68.34504211324091</v>
       </c>
       <c r="C6">
-        <v>1.399451602229756</v>
+        <v>3.398958614725042</v>
       </c>
       <c r="D6">
-        <v>33.84366916537795</v>
+        <v>33.36338573578822</v>
       </c>
       <c r="E6">
-        <v>1.817352684877325</v>
+        <v>2.371705843155515</v>
       </c>
       <c r="F6">
-        <v>33.83100709115853</v>
+        <v>33.35045464716092</v>
       </c>
       <c r="G6">
-        <v>1.826174469883933</v>
+        <v>2.338647693886615</v>
       </c>
       <c r="H6">
-        <v>9.911007923956266</v>
+        <v>9.772502416773982</v>
       </c>
       <c r="I6">
-        <v>0.7349839081930907</v>
+        <v>0.8444426654025646</v>
       </c>
       <c r="J6">
-        <v>9.913764818452325</v>
+        <v>9.769458256618449</v>
       </c>
       <c r="K6">
-        <v>0.7277566466882173</v>
+        <v>0.835718587955335</v>
       </c>
       <c r="L6">
-        <v>3.304925527126015</v>
+        <v>3.254567717817388</v>
       </c>
       <c r="M6">
-        <v>0.2461780437481851</v>
+        <v>0.2812933730313768</v>
       </c>
       <c r="N6">
-        <v>6.606417208618578</v>
+        <v>6.515299724220901</v>
       </c>
       <c r="O6">
-        <v>0.4837160680987938</v>
+        <v>0.5678309517423724</v>
       </c>
       <c r="P6">
-        <v>3.308916863679176</v>
+        <v>3.259827649261895</v>
       </c>
       <c r="Q6">
-        <v>0.2442107111847876</v>
+        <v>0.2835026526462335</v>
       </c>
       <c r="R6">
-        <v>9.678923660943573</v>
+        <v>9.540535957628363</v>
       </c>
       <c r="S6">
-        <v>0.8647608455163514</v>
+        <v>0.9516968373901921</v>
       </c>
       <c r="T6">
-        <v>6.774180517252078</v>
+        <v>6.67544350811084</v>
       </c>
       <c r="U6">
-        <v>0.6016995639235173</v>
+        <v>0.6677100263423007</v>
       </c>
       <c r="V6">
-        <v>1.451496032105971</v>
+        <v>1.430605668508405</v>
       </c>
       <c r="W6">
-        <v>0.1301684473120456</v>
+        <v>0.141003546007597</v>
       </c>
       <c r="X6">
-        <v>1.452501661560706</v>
+        <v>1.4313366539763</v>
       </c>
       <c r="Y6">
-        <v>0.1282177332855985</v>
+        <v>0.1416243482965075</v>
       </c>
       <c r="Z6">
-        <v>3.225757750307005</v>
+        <v>3.177722699558152</v>
       </c>
       <c r="AA6">
-        <v>0.2872127270303356</v>
+        <v>0.3177569506518093</v>
       </c>
       <c r="AB6">
-        <v>6.454340798207927</v>
+        <v>6.362990999844879</v>
       </c>
       <c r="AC6">
-        <v>0.5683821022870456</v>
+        <v>0.6412269942671424</v>
       </c>
       <c r="AD6">
-        <v>14.38113600719334</v>
+        <v>14.18271696622134</v>
       </c>
       <c r="AE6">
-        <v>0.7704027591375384</v>
+        <v>0.8838762394311076</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -4654,94 +4654,94 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>74.26540617466453</v>
+        <v>73.26896409758827</v>
       </c>
       <c r="C7">
-        <v>1.493116566966686</v>
+        <v>3.702614915938611</v>
       </c>
       <c r="D7">
-        <v>36.26458332002873</v>
+        <v>35.74602339887515</v>
       </c>
       <c r="E7">
-        <v>1.974636560714615</v>
+        <v>2.532125944164668</v>
       </c>
       <c r="F7">
-        <v>36.23794588109008</v>
+        <v>35.8179422449778</v>
       </c>
       <c r="G7">
-        <v>1.95115116439513</v>
+        <v>2.567218474412557</v>
       </c>
       <c r="H7">
-        <v>10.60948487061399</v>
+        <v>10.48895931195622</v>
       </c>
       <c r="I7">
-        <v>0.7779183863798821</v>
+        <v>0.9182337184020417</v>
       </c>
       <c r="J7">
-        <v>10.61034216690079</v>
+        <v>10.49612536040878</v>
       </c>
       <c r="K7">
-        <v>0.7727670690887686</v>
+        <v>0.9245167946550761</v>
       </c>
       <c r="L7">
-        <v>3.538486353423284</v>
+        <v>3.497448624595833</v>
       </c>
       <c r="M7">
-        <v>0.2610172914911169</v>
+        <v>0.3070962436896381</v>
       </c>
       <c r="N7">
-        <v>7.079171582540233</v>
+        <v>6.995439124769332</v>
       </c>
       <c r="O7">
-        <v>0.5178474771138974</v>
+        <v>0.6141103301183096</v>
       </c>
       <c r="P7">
-        <v>3.539851114853284</v>
+        <v>3.501264140502916</v>
       </c>
       <c r="Q7">
-        <v>0.2632273588802984</v>
+        <v>0.3076290132823349</v>
       </c>
       <c r="R7">
-        <v>10.35889122246831</v>
+        <v>10.25204627569366</v>
       </c>
       <c r="S7">
-        <v>0.9309378032199348</v>
+        <v>1.030877278461277</v>
       </c>
       <c r="T7">
-        <v>7.25198257598194</v>
+        <v>7.181726427648938</v>
       </c>
       <c r="U7">
-        <v>0.633783788445925</v>
+        <v>0.7267040106238321</v>
       </c>
       <c r="V7">
-        <v>1.554770575954571</v>
+        <v>1.537736673886156</v>
       </c>
       <c r="W7">
-        <v>0.1365627443895263</v>
+        <v>0.1554577056312991</v>
       </c>
       <c r="X7">
-        <v>1.554698960450892</v>
+        <v>1.538285752210946</v>
       </c>
       <c r="Y7">
-        <v>0.1378700226641275</v>
+        <v>0.1568432421188651</v>
       </c>
       <c r="Z7">
-        <v>3.454251027480765</v>
+        <v>3.416248045161046</v>
       </c>
       <c r="AA7">
-        <v>0.3049596258172637</v>
+        <v>0.3464077791091277</v>
       </c>
       <c r="AB7">
-        <v>6.916476332206064</v>
+        <v>6.836304392428143</v>
       </c>
       <c r="AC7">
-        <v>0.6144470863985007</v>
+        <v>0.6947589616481371</v>
       </c>
       <c r="AD7">
-        <v>15.67987015367127</v>
+        <v>15.45790832273801</v>
       </c>
       <c r="AE7">
-        <v>0.822806419547881</v>
+        <v>0.955228303307546</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -4749,94 +4749,94 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>79.19019610079461</v>
+        <v>78.19878107126628</v>
       </c>
       <c r="C8">
-        <v>1.576590407749196</v>
+        <v>3.872656751053814</v>
       </c>
       <c r="D8">
-        <v>38.67362702206937</v>
+        <v>38.20825589759313</v>
       </c>
       <c r="E8">
-        <v>2.07641403470666</v>
+        <v>2.675203899697078</v>
       </c>
       <c r="F8">
-        <v>38.70528781647547</v>
+        <v>38.19614902835229</v>
       </c>
       <c r="G8">
-        <v>2.075127866108068</v>
+        <v>2.668270588875628</v>
       </c>
       <c r="H8">
-        <v>11.33613627988272</v>
+        <v>11.18724301975677</v>
       </c>
       <c r="I8">
-        <v>0.8340588377935043</v>
+        <v>0.9608556752170732</v>
       </c>
       <c r="J8">
-        <v>11.33266671686643</v>
+        <v>11.19939342896015</v>
       </c>
       <c r="K8">
-        <v>0.8195332981126014</v>
+        <v>0.9675502723874161</v>
       </c>
       <c r="L8">
-        <v>3.776696300920288</v>
+        <v>3.726939584288218</v>
       </c>
       <c r="M8">
-        <v>0.2755551908174925</v>
+        <v>0.3172552563615185</v>
       </c>
       <c r="N8">
-        <v>7.558719134289118</v>
+        <v>7.460570462155745</v>
       </c>
       <c r="O8">
-        <v>0.5593218921666643</v>
+        <v>0.6427117225057966</v>
       </c>
       <c r="P8">
-        <v>3.781609942555344</v>
+        <v>3.731105298953163</v>
       </c>
       <c r="Q8">
-        <v>0.277156592807116</v>
+        <v>0.3250781780617737</v>
       </c>
       <c r="R8">
-        <v>11.07150514259082</v>
+        <v>10.92606690725612</v>
       </c>
       <c r="S8">
-        <v>0.9862067199226213</v>
+        <v>1.093493974217953</v>
       </c>
       <c r="T8">
-        <v>7.746539129455388</v>
+        <v>7.659338767162919</v>
       </c>
       <c r="U8">
-        <v>0.6786173907897438</v>
+        <v>0.7596327249309509</v>
       </c>
       <c r="V8">
-        <v>1.659691387451879</v>
+        <v>1.640733467043232</v>
       </c>
       <c r="W8">
-        <v>0.1462716242941061</v>
+        <v>0.1656005614805336</v>
       </c>
       <c r="X8">
-        <v>1.659454714796151</v>
+        <v>1.641147774336905</v>
       </c>
       <c r="Y8">
-        <v>0.1466293993030377</v>
+        <v>0.1643242308457728</v>
       </c>
       <c r="Z8">
-        <v>3.690398019007596</v>
+        <v>3.639156311222295</v>
       </c>
       <c r="AA8">
-        <v>0.3279104599694908</v>
+        <v>0.3588271079539935</v>
       </c>
       <c r="AB8">
-        <v>7.379397926586181</v>
+        <v>7.288544438245201</v>
       </c>
       <c r="AC8">
-        <v>0.6596272037593838</v>
+        <v>0.7205506752161457</v>
       </c>
       <c r="AD8">
-        <v>16.89152591963836</v>
+        <v>16.69918496683835</v>
       </c>
       <c r="AE8">
-        <v>0.886821115200026</v>
+        <v>1.03455507951063</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -4844,94 +4844,94 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>84.16788944983372</v>
+        <v>82.98815612349281</v>
       </c>
       <c r="C9">
-        <v>1.665027210740256</v>
+        <v>4.171423526666759</v>
       </c>
       <c r="D9">
-        <v>41.08730778703196</v>
+        <v>40.51146177464906</v>
       </c>
       <c r="E9">
-        <v>2.197564690023892</v>
+        <v>2.870067800671818</v>
       </c>
       <c r="F9">
-        <v>41.10049730618022</v>
+        <v>40.50205588389571</v>
       </c>
       <c r="G9">
-        <v>2.207095430312052</v>
+        <v>2.86625205030521</v>
       </c>
       <c r="H9">
-        <v>12.03848515857266</v>
+        <v>11.86015489313479</v>
       </c>
       <c r="I9">
-        <v>0.8875640842729935</v>
+        <v>1.028352996447714</v>
       </c>
       <c r="J9">
-        <v>12.03628653512624</v>
+        <v>11.87697575521554</v>
       </c>
       <c r="K9">
-        <v>0.8843179987881509</v>
+        <v>1.023807262538705</v>
       </c>
       <c r="L9">
-        <v>4.014608154542417</v>
+        <v>3.952619917219337</v>
       </c>
       <c r="M9">
-        <v>0.2949844191572247</v>
+        <v>0.3419837718302051</v>
       </c>
       <c r="N9">
-        <v>8.02578769274524</v>
+        <v>7.909932159406815</v>
       </c>
       <c r="O9">
-        <v>0.5892396024579188</v>
+        <v>0.6822484732021599</v>
       </c>
       <c r="P9">
-        <v>4.013324849460767</v>
+        <v>3.949794294193317</v>
       </c>
       <c r="Q9">
-        <v>0.2949282726402903</v>
+        <v>0.3432141024206416</v>
       </c>
       <c r="R9">
-        <v>11.75376179371771</v>
+        <v>11.58627458473859</v>
       </c>
       <c r="S9">
-        <v>1.05024037420605</v>
+        <v>1.159709471732819</v>
       </c>
       <c r="T9">
-        <v>8.227896378560965</v>
+        <v>8.122370041264144</v>
       </c>
       <c r="U9">
-        <v>0.7311369500594711</v>
+        <v>0.8110592238360147</v>
       </c>
       <c r="V9">
-        <v>1.762941339540274</v>
+        <v>1.739849191781638</v>
       </c>
       <c r="W9">
-        <v>0.1563341212919901</v>
+        <v>0.1728176738568758</v>
       </c>
       <c r="X9">
-        <v>1.761752523748357</v>
+        <v>1.740320541576183</v>
       </c>
       <c r="Y9">
-        <v>0.1557970613134809</v>
+        <v>0.1748158136166992</v>
       </c>
       <c r="Z9">
-        <v>3.921987989254385</v>
+        <v>3.859243788062748</v>
       </c>
       <c r="AA9">
-        <v>0.3486543392617051</v>
+        <v>0.3834786736807489</v>
       </c>
       <c r="AB9">
-        <v>7.842463145085174</v>
+        <v>7.719691743941516</v>
       </c>
       <c r="AC9">
-        <v>0.6969978331795943</v>
+        <v>0.7703560485815448</v>
       </c>
       <c r="AD9">
-        <v>18.10181103982322</v>
+        <v>17.88397211981506</v>
       </c>
       <c r="AE9">
-        <v>0.9386505475280696</v>
+        <v>1.09160365005955</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -4939,94 +4939,94 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>89.14093189963188</v>
+        <v>87.84867191288174</v>
       </c>
       <c r="C10">
-        <v>1.782249919131782</v>
+        <v>4.456345045686149</v>
       </c>
       <c r="D10">
-        <v>43.51847197514499</v>
+        <v>42.86657572807166</v>
       </c>
       <c r="E10">
-        <v>2.323544301648425</v>
+        <v>3.036809934830831</v>
       </c>
       <c r="F10">
-        <v>43.5365914810564</v>
+        <v>42.91536954092466</v>
       </c>
       <c r="G10">
-        <v>2.346444222000567</v>
+        <v>3.059404330538432</v>
       </c>
       <c r="H10">
-        <v>12.76136370755673</v>
+        <v>12.56829462179881</v>
       </c>
       <c r="I10">
-        <v>0.9359523533774126</v>
+        <v>1.094391941757582</v>
       </c>
       <c r="J10">
-        <v>12.74799418794206</v>
+        <v>12.5794721330428</v>
       </c>
       <c r="K10">
-        <v>0.9365065949108591</v>
+        <v>1.102303554507555</v>
       </c>
       <c r="L10">
-        <v>4.251783856468549</v>
+        <v>4.188351535267873</v>
       </c>
       <c r="M10">
-        <v>0.3107947772406403</v>
+        <v>0.3638065014356372</v>
       </c>
       <c r="N10">
-        <v>8.505424686956818</v>
+        <v>8.378640132655097</v>
       </c>
       <c r="O10">
-        <v>0.6315499017616432</v>
+        <v>0.7254946191034002</v>
       </c>
       <c r="P10">
-        <v>4.253790926462812</v>
+        <v>4.191789380801555</v>
       </c>
       <c r="Q10">
-        <v>0.3134873242653246</v>
+        <v>0.3624672189192688</v>
       </c>
       <c r="R10">
-        <v>12.46090985257107</v>
+        <v>12.2864344775795</v>
       </c>
       <c r="S10">
-        <v>1.112308513268726</v>
+        <v>1.232261038895698</v>
       </c>
       <c r="T10">
-        <v>8.706431850102613</v>
+        <v>8.604226769981953</v>
       </c>
       <c r="U10">
-        <v>0.7722647986391784</v>
+        <v>0.8608439253323688</v>
       </c>
       <c r="V10">
-        <v>1.868080231465475</v>
+        <v>1.841364228272053</v>
       </c>
       <c r="W10">
-        <v>0.1664176361380522</v>
+        <v>0.1865355407648237</v>
       </c>
       <c r="X10">
-        <v>1.867874150441259</v>
+        <v>1.842545713052247</v>
       </c>
       <c r="Y10">
-        <v>0.1655643209427407</v>
+        <v>0.1856349190865635</v>
       </c>
       <c r="Z10">
-        <v>4.15013075280295</v>
+        <v>4.08959340499096</v>
       </c>
       <c r="AA10">
-        <v>0.3682803865182622</v>
+        <v>0.4094365518292977</v>
       </c>
       <c r="AB10">
-        <v>8.306921881832345</v>
+        <v>8.176396699273582</v>
       </c>
       <c r="AC10">
-        <v>0.7410972101311667</v>
+        <v>0.8140740702664675</v>
       </c>
       <c r="AD10">
-        <v>19.28225076913401</v>
+        <v>19.02987187843658</v>
       </c>
       <c r="AE10">
-        <v>1.00427391450748</v>
+        <v>1.164443409680608</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -5034,94 +5034,94 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>94.06091076848134</v>
+        <v>92.77247364020231</v>
       </c>
       <c r="C11">
-        <v>1.854618658985199</v>
+        <v>4.652433324212297</v>
       </c>
       <c r="D11">
-        <v>45.94397725403972</v>
+        <v>45.32976163204476</v>
       </c>
       <c r="E11">
-        <v>2.479864869720396</v>
+        <v>3.210171221581759</v>
       </c>
       <c r="F11">
-        <v>45.99743635939175</v>
+        <v>45.26540000365787</v>
       </c>
       <c r="G11">
-        <v>2.453874093853381</v>
+        <v>3.198189679008713</v>
       </c>
       <c r="H11">
-        <v>13.46886079133162</v>
+        <v>13.24519378159563</v>
       </c>
       <c r="I11">
-        <v>0.9857567293282415</v>
+        <v>1.142329862893029</v>
       </c>
       <c r="J11">
-        <v>13.46971388707267</v>
+        <v>13.27012570393099</v>
       </c>
       <c r="K11">
-        <v>0.9904178934503149</v>
+        <v>1.144482691356445</v>
       </c>
       <c r="L11">
-        <v>4.4947389786389</v>
+        <v>4.424803106791752</v>
       </c>
       <c r="M11">
-        <v>0.3284734495418593</v>
+        <v>0.3881721222374211</v>
       </c>
       <c r="N11">
-        <v>8.981017844202688</v>
+        <v>8.840343564620861</v>
       </c>
       <c r="O11">
-        <v>0.6531258110184942</v>
+        <v>0.769745423937798</v>
       </c>
       <c r="P11">
-        <v>4.494691693441036</v>
+        <v>4.424091967551223</v>
       </c>
       <c r="Q11">
-        <v>0.3289022387224578</v>
+        <v>0.3846355866367447</v>
       </c>
       <c r="R11">
-        <v>13.15330032243658</v>
+        <v>12.9343885298674</v>
       </c>
       <c r="S11">
-        <v>1.166225840639382</v>
+        <v>1.301798127407759</v>
       </c>
       <c r="T11">
-        <v>9.213489397067443</v>
+        <v>9.07254917484533</v>
       </c>
       <c r="U11">
-        <v>0.8201582288063123</v>
+        <v>0.8994034484053935</v>
       </c>
       <c r="V11">
-        <v>1.974010863682396</v>
+        <v>1.944978715118663</v>
       </c>
       <c r="W11">
-        <v>0.1781588177500935</v>
+        <v>0.193287707034809</v>
       </c>
       <c r="X11">
-        <v>1.973466516388294</v>
+        <v>1.944446631233554</v>
       </c>
       <c r="Y11">
-        <v>0.1753016890818752</v>
+        <v>0.1925035370784889</v>
       </c>
       <c r="Z11">
-        <v>4.39084868443145</v>
+        <v>4.318782960756447</v>
       </c>
       <c r="AA11">
-        <v>0.3881426496646943</v>
+        <v>0.4320936658924327</v>
       </c>
       <c r="AB11">
-        <v>8.774886981486095</v>
+        <v>8.628438087495729</v>
       </c>
       <c r="AC11">
-        <v>0.776237940723296</v>
+        <v>0.8634384560682222</v>
       </c>
       <c r="AD11">
-        <v>20.46613786944561</v>
+        <v>20.20015365059482</v>
       </c>
       <c r="AE11">
-        <v>1.059502179358817</v>
+        <v>1.229454834664053</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -5129,94 +5129,94 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>99.02891865718416</v>
+        <v>97.64570777626837</v>
       </c>
       <c r="C12">
-        <v>1.993149042496652</v>
+        <v>4.85530631979046</v>
       </c>
       <c r="D12">
-        <v>48.37089950464804</v>
+        <v>47.70662620206335</v>
       </c>
       <c r="E12">
-        <v>2.599196737983406</v>
+        <v>3.348854652148053</v>
       </c>
       <c r="F12">
-        <v>48.39971477424852</v>
+        <v>47.6692702103704</v>
       </c>
       <c r="G12">
-        <v>2.573545990429039</v>
+        <v>3.334989076098451</v>
       </c>
       <c r="H12">
-        <v>14.18109144256909</v>
+        <v>13.96071590535195</v>
       </c>
       <c r="I12">
-        <v>1.041160892938502</v>
+        <v>1.206518079047171</v>
       </c>
       <c r="J12">
-        <v>14.18741348489036</v>
+        <v>13.96994323156276</v>
       </c>
       <c r="K12">
-        <v>1.045833509699713</v>
+        <v>1.208015673768588</v>
       </c>
       <c r="L12">
-        <v>4.72418487647391</v>
+        <v>4.65747209242604</v>
       </c>
       <c r="M12">
-        <v>0.344451649119272</v>
+        <v>0.4020088547064273</v>
       </c>
       <c r="N12">
-        <v>9.452480136469203</v>
+        <v>9.313821985785479</v>
       </c>
       <c r="O12">
-        <v>0.6929185050720013</v>
+        <v>0.807445076182966</v>
       </c>
       <c r="P12">
-        <v>4.727967598008231</v>
+        <v>4.655757691234943</v>
       </c>
       <c r="Q12">
-        <v>0.3531588573894129</v>
+        <v>0.4000943347625681</v>
       </c>
       <c r="R12">
-        <v>13.84849944329829</v>
+        <v>13.61910686093979</v>
       </c>
       <c r="S12">
-        <v>1.243786891860483</v>
+        <v>1.359782705345286</v>
       </c>
       <c r="T12">
-        <v>9.689646545722244</v>
+        <v>9.547206972486967</v>
       </c>
       <c r="U12">
-        <v>0.865872197704978</v>
+        <v>0.9566765730289627</v>
       </c>
       <c r="V12">
-        <v>2.079257233490802</v>
+        <v>2.047434935059273</v>
       </c>
       <c r="W12">
-        <v>0.1845245343497453</v>
+        <v>0.2067472987964479</v>
       </c>
       <c r="X12">
-        <v>2.078926863127775</v>
+        <v>2.046126610669214</v>
       </c>
       <c r="Y12">
-        <v>0.1858359301009932</v>
+        <v>0.2047336149926236</v>
       </c>
       <c r="Z12">
-        <v>4.611758496163215</v>
+        <v>4.544899097450364</v>
       </c>
       <c r="AA12">
-        <v>0.4114361754440934</v>
+        <v>0.4501010235479672</v>
       </c>
       <c r="AB12">
-        <v>9.241685828062929</v>
+        <v>9.092161800791713</v>
       </c>
       <c r="AC12">
-        <v>0.823895334648809</v>
+        <v>0.9111664515700296</v>
       </c>
       <c r="AD12">
-        <v>21.66068891582504</v>
+        <v>21.33496252231171</v>
       </c>
       <c r="AE12">
-        <v>1.120610282058433</v>
+        <v>1.293758492403544</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -5224,94 +5224,94 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>4.951795526075212</v>
+        <v>4.878719751007314</v>
       </c>
       <c r="C13">
-        <v>0.09907365608201824</v>
+        <v>0.2431333000053809</v>
       </c>
       <c r="D13">
-        <v>2.419863201362102</v>
+        <v>2.382521286200851</v>
       </c>
       <c r="E13">
-        <v>0.1293030482702163</v>
+        <v>0.1689034644271898</v>
       </c>
       <c r="F13">
-        <v>2.416106161333573</v>
+        <v>2.383062172367914</v>
       </c>
       <c r="G13">
-        <v>0.1300997433616127</v>
+        <v>0.1679089803407633</v>
       </c>
       <c r="H13">
-        <v>0.7086229840776509</v>
+        <v>0.6979250827156683</v>
       </c>
       <c r="I13">
-        <v>0.05286478271156902</v>
+        <v>0.05970122427463091</v>
       </c>
       <c r="J13">
-        <v>0.707929583962902</v>
+        <v>0.6980744944975202</v>
       </c>
       <c r="K13">
-        <v>0.05204366398603794</v>
+        <v>0.06024083032244969</v>
       </c>
       <c r="L13">
-        <v>0.2359569960728733</v>
+        <v>0.2327778593578734</v>
       </c>
       <c r="M13">
-        <v>0.01748969239646651</v>
+        <v>0.01998702904605267</v>
       </c>
       <c r="N13">
-        <v>0.4718820855021481</v>
+        <v>0.465528963730461</v>
       </c>
       <c r="O13">
-        <v>0.03509765714490024</v>
+        <v>0.0405216279561879</v>
       </c>
       <c r="P13">
-        <v>0.2359786859540196</v>
+        <v>0.2326636057396475</v>
       </c>
       <c r="Q13">
-        <v>0.01717791960291978</v>
+        <v>0.02006929027996958</v>
       </c>
       <c r="R13">
-        <v>0.6919446436906169</v>
+        <v>0.6815827792752704</v>
       </c>
       <c r="S13">
-        <v>0.06160979099444207</v>
+        <v>0.067089318485021</v>
       </c>
       <c r="T13">
-        <v>0.4840067940047017</v>
+        <v>0.4769227087956291</v>
       </c>
       <c r="U13">
-        <v>0.04292931429580899</v>
+        <v>0.0475973579958595</v>
       </c>
       <c r="V13">
-        <v>0.1036517282289869</v>
+        <v>0.1023453215080477</v>
       </c>
       <c r="W13">
-        <v>0.009257272615297392</v>
+        <v>0.01030751681669178</v>
       </c>
       <c r="X13">
-        <v>0.1037333616850255</v>
+        <v>0.1023450137468797</v>
       </c>
       <c r="Y13">
-        <v>0.009215254210715798</v>
+        <v>0.01019508640621835</v>
       </c>
       <c r="Z13">
-        <v>0.2306067907623163</v>
+        <v>0.2274175267159643</v>
       </c>
       <c r="AA13">
-        <v>0.02060655275713394</v>
+        <v>0.02274876455481485</v>
       </c>
       <c r="AB13">
-        <v>0.4606339678514172</v>
+        <v>0.4546459695911441</v>
       </c>
       <c r="AC13">
-        <v>0.04153453740608227</v>
+        <v>0.04559898503342257</v>
       </c>
       <c r="AD13">
-        <v>22.83991268007198</v>
+        <v>22.48654108696284</v>
       </c>
       <c r="AE13">
-        <v>1.180034508650536</v>
+        <v>1.360618173981611</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -5319,94 +5319,94 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>108.9186826982102</v>
+        <v>107.4736381169197</v>
       </c>
       <c r="C14">
-        <v>2.153719460726197</v>
+        <v>5.376058599391959</v>
       </c>
       <c r="D14">
-        <v>53.16035994988142</v>
+        <v>52.45506855173492</v>
       </c>
       <c r="E14">
-        <v>2.817330581659465</v>
+        <v>3.683617635694338</v>
       </c>
       <c r="F14">
-        <v>53.24182847007883</v>
+        <v>52.44536625882642</v>
       </c>
       <c r="G14">
-        <v>2.856314684080473</v>
+        <v>3.685165195164106</v>
       </c>
       <c r="H14">
-        <v>15.59582376223233</v>
+        <v>15.35973998739149</v>
       </c>
       <c r="I14">
-        <v>1.1336669131628</v>
+        <v>1.331934864293293</v>
       </c>
       <c r="J14">
-        <v>15.60212554006391</v>
+        <v>15.36072679181633</v>
       </c>
       <c r="K14">
-        <v>1.144821465407503</v>
+        <v>1.32968999036294</v>
       </c>
       <c r="L14">
-        <v>5.19854271359223</v>
+        <v>5.122221675432288</v>
       </c>
       <c r="M14">
-        <v>0.3817779717222746</v>
+        <v>0.4400057536962225</v>
       </c>
       <c r="N14">
-        <v>10.39404015001857</v>
+        <v>10.24388741689886</v>
       </c>
       <c r="O14">
-        <v>0.762722820647993</v>
+        <v>0.8786321988521183</v>
       </c>
       <c r="P14">
-        <v>5.197697942668454</v>
+        <v>5.122712442368339</v>
       </c>
       <c r="Q14">
-        <v>0.3835424595441362</v>
+        <v>0.446534468613713</v>
       </c>
       <c r="R14">
-        <v>15.23264940943903</v>
+        <v>15.00210851255416</v>
       </c>
       <c r="S14">
-        <v>1.345192280245286</v>
+        <v>1.496546809216356</v>
       </c>
       <c r="T14">
-        <v>10.67082569313672</v>
+        <v>10.49375258905377</v>
       </c>
       <c r="U14">
-        <v>0.9359527084730183</v>
+        <v>1.055818079990038</v>
       </c>
       <c r="V14">
-        <v>2.285622628033213</v>
+        <v>2.250388363675724</v>
       </c>
       <c r="W14">
-        <v>0.2029923824121799</v>
+        <v>0.2233775242381548</v>
       </c>
       <c r="X14">
-        <v>2.284589387119467</v>
+        <v>2.248899429465136</v>
       </c>
       <c r="Y14">
-        <v>0.2016399161921286</v>
+        <v>0.2238405306650775</v>
       </c>
       <c r="Z14">
-        <v>5.078484845958742</v>
+        <v>5.0026069275058</v>
       </c>
       <c r="AA14">
-        <v>0.4530218267580898</v>
+        <v>0.4953173463537348</v>
       </c>
       <c r="AB14">
-        <v>10.14873629681351</v>
+        <v>10.00253631157611</v>
       </c>
       <c r="AC14">
-        <v>0.9028139507019762</v>
+        <v>0.9974111855541044</v>
       </c>
       <c r="AD14">
-        <v>9.061324067532111</v>
+        <v>8.914652296237389</v>
       </c>
       <c r="AE14">
-        <v>0.5558588096955733</v>
+        <v>0.6015901249780607</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -5414,94 +5414,94 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>113.9140750505083</v>
+        <v>112.3076454520722</v>
       </c>
       <c r="C15">
-        <v>2.285057436434568</v>
+        <v>5.697436157291886</v>
       </c>
       <c r="D15">
-        <v>55.67852634818491</v>
+        <v>54.79273254651196</v>
       </c>
       <c r="E15">
-        <v>2.984294878973275</v>
+        <v>3.903927487873921</v>
       </c>
       <c r="F15">
-        <v>55.63561830751134</v>
+        <v>54.81066229055462</v>
       </c>
       <c r="G15">
-        <v>3.006315546428175</v>
+        <v>3.906330446295296</v>
       </c>
       <c r="H15">
-        <v>16.30836189641374</v>
+        <v>16.05422636631974</v>
       </c>
       <c r="I15">
-        <v>1.194750206039733</v>
+        <v>1.396818347967499</v>
       </c>
       <c r="J15">
-        <v>16.3062790235699</v>
+        <v>16.05267965932958</v>
       </c>
       <c r="K15">
-        <v>1.21569425794707</v>
+        <v>1.395648742201041</v>
       </c>
       <c r="L15">
-        <v>5.434518116406937</v>
+        <v>5.351484750332886</v>
       </c>
       <c r="M15">
-        <v>0.4017798143388832</v>
+        <v>0.4681251008859642</v>
       </c>
       <c r="N15">
-        <v>10.86951382568343</v>
+        <v>10.70778999753124</v>
       </c>
       <c r="O15">
-        <v>0.7957797280044244</v>
+        <v>0.9246905742878162</v>
       </c>
       <c r="P15">
-        <v>5.431431121573374</v>
+        <v>5.355442415816198</v>
       </c>
       <c r="Q15">
-        <v>0.3991351100844753</v>
+        <v>0.4693792827746096</v>
       </c>
       <c r="R15">
-        <v>15.92558605114331</v>
+        <v>15.67781241411335</v>
       </c>
       <c r="S15">
-        <v>1.411157298112673</v>
+        <v>1.586820244467954</v>
       </c>
       <c r="T15">
-        <v>11.13905332541226</v>
+        <v>10.9649050221551</v>
       </c>
       <c r="U15">
-        <v>0.9894850454977</v>
+        <v>1.10320168374756</v>
       </c>
       <c r="V15">
-        <v>2.390156239532073</v>
+        <v>2.351043936726543</v>
       </c>
       <c r="W15">
-        <v>0.2142357997463524</v>
+        <v>0.2373603760690825</v>
       </c>
       <c r="X15">
-        <v>2.389149499185024</v>
+        <v>2.353006171387542</v>
       </c>
       <c r="Y15">
-        <v>0.2145742337716733</v>
+        <v>0.2363571028192178</v>
       </c>
       <c r="Z15">
-        <v>5.309361399643108</v>
+        <v>5.224140393165233</v>
       </c>
       <c r="AA15">
-        <v>0.4775214763892137</v>
+        <v>0.5224415063481286</v>
       </c>
       <c r="AB15">
-        <v>10.61777351739118</v>
+        <v>10.46311264751236</v>
       </c>
       <c r="AC15">
-        <v>0.9459213398713828</v>
+        <v>1.052291680680712</v>
       </c>
       <c r="AD15">
-        <v>19.91035628382558</v>
+        <v>19.60109520517362</v>
       </c>
       <c r="AE15">
-        <v>1.225851922382966</v>
+        <v>1.434085793125583</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -5509,94 +5509,94 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>118.8306150739722</v>
+        <v>117.2242022568911</v>
       </c>
       <c r="C16">
-        <v>2.371766346909387</v>
+        <v>5.895624043139456</v>
       </c>
       <c r="D16">
-        <v>58.03688429308893</v>
+        <v>57.19920528476242</v>
       </c>
       <c r="E16">
-        <v>3.116901292238076</v>
+        <v>4.051495947836426</v>
       </c>
       <c r="F16">
-        <v>58.02515327191878</v>
+        <v>57.24563972778914</v>
       </c>
       <c r="G16">
-        <v>3.103406175259865</v>
+        <v>4.059020739900846</v>
       </c>
       <c r="H16">
-        <v>16.99143587847541</v>
+        <v>16.77487680181124</v>
       </c>
       <c r="I16">
-        <v>1.250171989124276</v>
+        <v>1.449208858295912</v>
       </c>
       <c r="J16">
-        <v>17.0007416009081</v>
+        <v>16.77278921720366</v>
       </c>
       <c r="K16">
-        <v>1.251940750298433</v>
+        <v>1.462260023902758</v>
       </c>
       <c r="L16">
-        <v>5.666129742350495</v>
+        <v>5.586652172691286</v>
       </c>
       <c r="M16">
-        <v>0.4151497805288656</v>
+        <v>0.4856543469603785</v>
       </c>
       <c r="N16">
-        <v>11.33198736705827</v>
+        <v>11.1733071570317</v>
       </c>
       <c r="O16">
-        <v>0.8375257467363545</v>
+        <v>0.976922086154521</v>
       </c>
       <c r="P16">
-        <v>5.669093527539546</v>
+        <v>5.591420914951569</v>
       </c>
       <c r="Q16">
-        <v>0.4179696811601001</v>
+        <v>0.4859938993609632</v>
       </c>
       <c r="R16">
-        <v>16.60061329812645</v>
+        <v>16.38004813570285</v>
       </c>
       <c r="S16">
-        <v>1.483571382572247</v>
+        <v>1.616406155168665</v>
       </c>
       <c r="T16">
-        <v>11.62391299616794</v>
+        <v>11.46405550955902</v>
       </c>
       <c r="U16">
-        <v>1.026414064846155</v>
+        <v>1.149681187215438</v>
       </c>
       <c r="V16">
-        <v>2.490629382855355</v>
+        <v>2.45814131198846</v>
       </c>
       <c r="W16">
-        <v>0.223561130375616</v>
+        <v>0.2483618532667849</v>
       </c>
       <c r="X16">
-        <v>2.489416347885276</v>
+        <v>2.458233329164105</v>
       </c>
       <c r="Y16">
-        <v>0.2223830968414756</v>
+        <v>0.2468238357067699</v>
       </c>
       <c r="Z16">
-        <v>5.530662262573613</v>
+        <v>5.450466239403572</v>
       </c>
       <c r="AA16">
-        <v>0.491341961433262</v>
+        <v>0.5517306312181556</v>
       </c>
       <c r="AB16">
-        <v>11.06582078412278</v>
+        <v>10.90471441373062</v>
       </c>
       <c r="AC16">
-        <v>0.9997023773356042</v>
+        <v>1.099294901783121</v>
       </c>
       <c r="AD16">
-        <v>24.34645258608608</v>
+        <v>23.96864383276632</v>
       </c>
       <c r="AE16">
-        <v>1.358385253627933</v>
+        <v>1.589757420619669</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -5604,94 +5604,94 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>123.7913442978219</v>
+        <v>122.0242928547442</v>
       </c>
       <c r="C17">
-        <v>2.485853205785541</v>
+        <v>6.072528158072254</v>
       </c>
       <c r="D17">
-        <v>60.47258175626235</v>
+        <v>59.53566139547785</v>
       </c>
       <c r="E17">
-        <v>3.260793743894819</v>
+        <v>4.212309336616427</v>
       </c>
       <c r="F17">
-        <v>60.43594292093217</v>
+        <v>59.58344824006362</v>
       </c>
       <c r="G17">
-        <v>3.261555977814128</v>
+        <v>4.190140243302955</v>
       </c>
       <c r="H17">
-        <v>17.70887154856027</v>
+        <v>17.45786329752674</v>
       </c>
       <c r="I17">
-        <v>1.29873442106486</v>
+        <v>1.493034435727749</v>
       </c>
       <c r="J17">
-        <v>17.70708523075373</v>
+        <v>17.43665211332343</v>
       </c>
       <c r="K17">
-        <v>1.303797732855716</v>
+        <v>1.504313361610608</v>
       </c>
       <c r="L17">
-        <v>5.901024858451286</v>
+        <v>5.814256340541179</v>
       </c>
       <c r="M17">
-        <v>0.4357349692875632</v>
+        <v>0.5046473309801314</v>
       </c>
       <c r="N17">
-        <v>11.80219484845785</v>
+        <v>11.65260320816996</v>
       </c>
       <c r="O17">
-        <v>0.8602183097501074</v>
+        <v>1.011900132451374</v>
       </c>
       <c r="P17">
-        <v>5.899971444600451</v>
+        <v>5.814822933712761</v>
       </c>
       <c r="Q17">
-        <v>0.4351176056107408</v>
+        <v>0.4972645431639177</v>
       </c>
       <c r="R17">
-        <v>17.28544946883308</v>
+        <v>17.04867090229644</v>
       </c>
       <c r="S17">
-        <v>1.526958863446498</v>
+        <v>1.685640002924564</v>
       </c>
       <c r="T17">
-        <v>12.11629748550449</v>
+        <v>11.91496695188984</v>
       </c>
       <c r="U17">
-        <v>1.078812212945733</v>
+        <v>1.197817337240353</v>
       </c>
       <c r="V17">
-        <v>2.594050575133911</v>
+        <v>2.55345969784528</v>
       </c>
       <c r="W17">
-        <v>0.2340236940259996</v>
+        <v>0.2553185485771327</v>
       </c>
       <c r="X17">
-        <v>2.594817452664604</v>
+        <v>2.555127580163853</v>
       </c>
       <c r="Y17">
-        <v>0.2308201152795888</v>
+        <v>0.2543633421645163</v>
       </c>
       <c r="Z17">
-        <v>5.765258790445606</v>
+        <v>5.677465821096767</v>
       </c>
       <c r="AA17">
-        <v>0.5119821201743185</v>
+        <v>0.5681601767382439</v>
       </c>
       <c r="AB17">
-        <v>11.52154579773216</v>
+        <v>11.38413428130903</v>
       </c>
       <c r="AC17">
-        <v>1.01641314759001</v>
+        <v>1.143625256286535</v>
       </c>
       <c r="AD17">
-        <v>26.75737160408867</v>
+        <v>26.38058780390211</v>
       </c>
       <c r="AE17">
-        <v>1.424508694812376</v>
+        <v>1.637632828116999</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -5699,94 +5699,94 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>128.7180755639116</v>
+        <v>126.988669735416</v>
       </c>
       <c r="C18">
-        <v>2.559895810291365</v>
+        <v>6.391094366314693</v>
       </c>
       <c r="D18">
-        <v>62.80487583336124</v>
+        <v>61.93754583513444</v>
       </c>
       <c r="E18">
-        <v>3.387548505391572</v>
+        <v>4.404355327199986</v>
       </c>
       <c r="F18">
-        <v>62.88971442870005</v>
+        <v>62.03088841836065</v>
       </c>
       <c r="G18">
-        <v>3.421449462335981</v>
+        <v>4.391762981885353</v>
       </c>
       <c r="H18">
-        <v>18.43628173474627</v>
+        <v>18.17345202994068</v>
       </c>
       <c r="I18">
-        <v>1.376482460395908</v>
+        <v>1.573732232218662</v>
       </c>
       <c r="J18">
-        <v>18.44762999853758</v>
+        <v>18.19808021286366</v>
       </c>
       <c r="K18">
-        <v>1.370019053307181</v>
+        <v>1.570493445242453</v>
       </c>
       <c r="L18">
-        <v>6.144099271202319</v>
+        <v>6.053076593689693</v>
       </c>
       <c r="M18">
-        <v>0.4549676541254032</v>
+        <v>0.5272716353711557</v>
       </c>
       <c r="N18">
-        <v>12.29160679109649</v>
+        <v>12.11945459931568</v>
       </c>
       <c r="O18">
-        <v>0.8999204714692061</v>
+        <v>1.064409017679933</v>
       </c>
       <c r="P18">
-        <v>6.138239683854783</v>
+        <v>6.054756944101524</v>
       </c>
       <c r="Q18">
-        <v>0.4539286808817978</v>
+        <v>0.5229101287239564</v>
       </c>
       <c r="R18">
-        <v>18.00424438449395</v>
+        <v>17.7480002416435</v>
       </c>
       <c r="S18">
-        <v>1.62379115458147</v>
+        <v>1.765667952820967</v>
       </c>
       <c r="T18">
-        <v>12.61282802914378</v>
+        <v>12.44245222061599</v>
       </c>
       <c r="U18">
-        <v>1.131607498480326</v>
+        <v>1.238969922187185</v>
       </c>
       <c r="V18">
-        <v>2.701308979176281</v>
+        <v>2.66703239635783</v>
       </c>
       <c r="W18">
-        <v>0.2416733512978655</v>
+        <v>0.2672038497136003</v>
       </c>
       <c r="X18">
-        <v>2.703544885886094</v>
+        <v>2.665721196587269</v>
       </c>
       <c r="Y18">
-        <v>0.2417805437760517</v>
+        <v>0.2664506123283641</v>
       </c>
       <c r="Z18">
-        <v>5.992813800899799</v>
+        <v>5.907965555653614</v>
       </c>
       <c r="AA18">
-        <v>0.53880745772392</v>
+        <v>0.5934304516845493</v>
       </c>
       <c r="AB18">
-        <v>12.00914205054078</v>
+        <v>11.83978652987346</v>
       </c>
       <c r="AC18">
-        <v>1.078897418745609</v>
+        <v>1.205667171201902</v>
       </c>
       <c r="AD18">
-        <v>28.40886922966072</v>
+        <v>27.99514944731339</v>
       </c>
       <c r="AE18">
-        <v>1.47764384992442</v>
+        <v>1.691098315843784</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -5794,94 +5794,94 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>133.61846057593</v>
+        <v>131.8206679333928</v>
       </c>
       <c r="C19">
-        <v>2.669509992023442</v>
+        <v>6.532401506761635</v>
       </c>
       <c r="D19">
-        <v>65.31058913130613</v>
+        <v>64.35156826521754</v>
       </c>
       <c r="E19">
-        <v>3.488463260480653</v>
+        <v>4.541734128145903</v>
       </c>
       <c r="F19">
-        <v>65.2397172513321</v>
+        <v>64.31034957470051</v>
       </c>
       <c r="G19">
-        <v>3.527948303684934</v>
+        <v>4.544748550628749</v>
       </c>
       <c r="H19">
-        <v>19.1126323713011</v>
+        <v>18.8486952563016</v>
       </c>
       <c r="I19">
-        <v>1.395809503767663</v>
+        <v>1.639175236075155</v>
       </c>
       <c r="J19">
-        <v>19.12353812472816</v>
+        <v>18.84007012801202</v>
       </c>
       <c r="K19">
-        <v>1.399465665177008</v>
+        <v>1.624172134715462</v>
       </c>
       <c r="L19">
-        <v>6.373997322610022</v>
+        <v>6.283940324889599</v>
       </c>
       <c r="M19">
-        <v>0.4697176656983551</v>
+        <v>0.5486110779138941</v>
       </c>
       <c r="N19">
-        <v>12.74431934158793</v>
+        <v>12.56544066992333</v>
       </c>
       <c r="O19">
-        <v>0.9400353734324325</v>
+        <v>1.08962002180805</v>
       </c>
       <c r="P19">
-        <v>6.375907917570041</v>
+        <v>6.279945650224317</v>
       </c>
       <c r="Q19">
-        <v>0.4736308519052036</v>
+        <v>0.544785348694264</v>
       </c>
       <c r="R19">
-        <v>18.66526561943533</v>
+        <v>18.40344003546861</v>
       </c>
       <c r="S19">
-        <v>1.657658330039924</v>
+        <v>1.844007635105607</v>
       </c>
       <c r="T19">
-        <v>13.07759456528603</v>
+        <v>12.88004436753275</v>
       </c>
       <c r="U19">
-        <v>1.146770103782937</v>
+        <v>1.279115054813564</v>
       </c>
       <c r="V19">
-        <v>2.800871481578304</v>
+        <v>2.760771576536877</v>
       </c>
       <c r="W19">
-        <v>0.247622545075947</v>
+        <v>0.2761523801252294</v>
       </c>
       <c r="X19">
-        <v>2.802700409550238</v>
+        <v>2.757400496712327</v>
       </c>
       <c r="Y19">
-        <v>0.2509886188616268</v>
+        <v>0.2759841670583768</v>
       </c>
       <c r="Z19">
-        <v>6.220467889677307</v>
+        <v>6.136428782476042</v>
       </c>
       <c r="AA19">
-        <v>0.5525666167646315</v>
+        <v>0.6154734027247198</v>
       </c>
       <c r="AB19">
-        <v>12.44442165857329</v>
+        <v>12.27038679872479</v>
       </c>
       <c r="AC19">
-        <v>1.107777907749578</v>
+        <v>1.224920108793176</v>
       </c>
       <c r="AD19">
-        <v>29.79241776375402</v>
+        <v>29.3716627338768</v>
       </c>
       <c r="AE19">
-        <v>1.555721410594134</v>
+        <v>1.769151107493949</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -5889,94 +5889,94 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>138.6227979467565</v>
+        <v>136.700669712922</v>
       </c>
       <c r="C20">
-        <v>2.768710545959054</v>
+        <v>6.815961482421176</v>
       </c>
       <c r="D20">
-        <v>67.71409862344801</v>
+        <v>66.80680186284521</v>
       </c>
       <c r="E20">
-        <v>3.64856936704164</v>
+        <v>4.711475413689504</v>
       </c>
       <c r="F20">
-        <v>67.68247579102594</v>
+        <v>66.73845284922163</v>
       </c>
       <c r="G20">
-        <v>3.660444584619321</v>
+        <v>4.763576319079645</v>
       </c>
       <c r="H20">
-        <v>19.83710338454266</v>
+        <v>19.54714201379176</v>
       </c>
       <c r="I20">
-        <v>1.485738327502601</v>
+        <v>1.715431113966357</v>
       </c>
       <c r="J20">
-        <v>19.82654675201905</v>
+        <v>19.56439611496673</v>
       </c>
       <c r="K20">
-        <v>1.459173414956181</v>
+        <v>1.7117993454963</v>
       </c>
       <c r="L20">
-        <v>6.605748742593764</v>
+        <v>6.519081925309709</v>
       </c>
       <c r="M20">
-        <v>0.4863818870427448</v>
+        <v>0.5667996788433981</v>
       </c>
       <c r="N20">
-        <v>13.20508627914652</v>
+        <v>13.03496013640611</v>
       </c>
       <c r="O20">
-        <v>0.9750786093549199</v>
+        <v>1.134651350445807</v>
       </c>
       <c r="P20">
-        <v>6.613587604504667</v>
+        <v>6.515840256589682</v>
       </c>
       <c r="Q20">
-        <v>0.4900783457500437</v>
+        <v>0.5710745229233068</v>
       </c>
       <c r="R20">
-        <v>19.37836161360862</v>
+        <v>19.09882344472439</v>
       </c>
       <c r="S20">
-        <v>1.764593363234065</v>
+        <v>1.926130284675153</v>
       </c>
       <c r="T20">
-        <v>13.54680943717724</v>
+        <v>13.37351101015606</v>
       </c>
       <c r="U20">
-        <v>1.196514137124532</v>
+        <v>1.351813662503431</v>
       </c>
       <c r="V20">
-        <v>2.906902117087612</v>
+        <v>2.866156428706222</v>
       </c>
       <c r="W20">
-        <v>0.2579479392798105</v>
+        <v>0.2882716533338802</v>
       </c>
       <c r="X20">
-        <v>2.90299842639348</v>
+        <v>2.868952985299087</v>
       </c>
       <c r="Y20">
-        <v>0.2603403622230842</v>
+        <v>0.2902272034985223</v>
       </c>
       <c r="Z20">
-        <v>6.451260565054731</v>
+        <v>6.366326535297996</v>
       </c>
       <c r="AA20">
-        <v>0.5702722656817415</v>
+        <v>0.6392109594562432</v>
       </c>
       <c r="AB20">
-        <v>12.8980592583143</v>
+        <v>12.72763150880735</v>
       </c>
       <c r="AC20">
-        <v>1.146362940767456</v>
+        <v>1.277457617291229</v>
       </c>
       <c r="AD20">
-        <v>31.0163142161555</v>
+        <v>30.5715353274513</v>
       </c>
       <c r="AE20">
-        <v>1.583489740125408</v>
+        <v>1.854055473074594</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -5984,94 +5984,94 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>143.621931463725</v>
+        <v>141.678843569049</v>
       </c>
       <c r="C21">
-        <v>2.854188686195507</v>
+        <v>7.156218120256796</v>
       </c>
       <c r="D21">
-        <v>70.1430054063907</v>
+        <v>69.14868406953603</v>
       </c>
       <c r="E21">
-        <v>3.772618673515965</v>
+        <v>4.936847058391118</v>
       </c>
       <c r="F21">
-        <v>70.18744394496531</v>
+        <v>69.19048004574069</v>
       </c>
       <c r="G21">
-        <v>3.759573662766861</v>
+        <v>4.926050758776291</v>
       </c>
       <c r="H21">
-        <v>20.55774960521991</v>
+        <v>20.26885624295259</v>
       </c>
       <c r="I21">
-        <v>1.50422922716562</v>
+        <v>1.767484092574214</v>
       </c>
       <c r="J21">
-        <v>20.56345912708136</v>
+        <v>20.26806427601239</v>
       </c>
       <c r="K21">
-        <v>1.496132253772889</v>
+        <v>1.771351913405722</v>
       </c>
       <c r="L21">
-        <v>6.854823520719576</v>
+        <v>6.756647727762013</v>
       </c>
       <c r="M21">
-        <v>0.5068821513451</v>
+        <v>0.5847906946242921</v>
       </c>
       <c r="N21">
-        <v>13.70665236091836</v>
+        <v>13.51064996271786</v>
       </c>
       <c r="O21">
-        <v>1.011912404010793</v>
+        <v>1.169303309915986</v>
       </c>
       <c r="P21">
-        <v>6.854205384681451</v>
+        <v>6.75542659745118</v>
       </c>
       <c r="Q21">
-        <v>0.5051123344093726</v>
+        <v>0.5876692450938527</v>
       </c>
       <c r="R21">
-        <v>20.0763920702436</v>
+        <v>19.8027048926677</v>
       </c>
       <c r="S21">
-        <v>1.791624141103749</v>
+        <v>2.007098569927122</v>
       </c>
       <c r="T21">
-        <v>14.04254781989368</v>
+        <v>13.84637336987194</v>
       </c>
       <c r="U21">
-        <v>1.246168547575581</v>
+        <v>1.40406503009354</v>
       </c>
       <c r="V21">
-        <v>3.012257808843475</v>
+        <v>2.970934634280255</v>
       </c>
       <c r="W21">
-        <v>0.2649145172966696</v>
+        <v>0.3004059492641439</v>
       </c>
       <c r="X21">
-        <v>3.013231181437012</v>
+        <v>2.96789505011537</v>
       </c>
       <c r="Y21">
-        <v>0.2676027448421215</v>
+        <v>0.2966385556788367</v>
       </c>
       <c r="Z21">
-        <v>6.694241578894049</v>
+        <v>6.59481251514266</v>
       </c>
       <c r="AA21">
-        <v>0.6006304456556547</v>
+        <v>0.6597787528084789</v>
       </c>
       <c r="AB21">
-        <v>13.38679592954811</v>
+        <v>13.19691218534633</v>
       </c>
       <c r="AC21">
-        <v>1.196859294769863</v>
+        <v>1.321062231256705</v>
       </c>
       <c r="AD21">
-        <v>32.2143380778753</v>
+        <v>31.76620797508791</v>
       </c>
       <c r="AE21">
-        <v>1.671996665787417</v>
+        <v>1.92905710470004</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6079,94 +6079,94 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>148.5213772145116</v>
+        <v>146.4459530472811</v>
       </c>
       <c r="C22">
-        <v>2.957672985098956</v>
+        <v>7.371230306512162</v>
       </c>
       <c r="D22">
-        <v>72.51303869297907</v>
+        <v>71.5159961135427</v>
       </c>
       <c r="E22">
-        <v>3.907209890292695</v>
+        <v>5.14102274827082</v>
       </c>
       <c r="F22">
-        <v>72.45563171083907</v>
+        <v>71.5121431422838</v>
       </c>
       <c r="G22">
-        <v>3.906492604276537</v>
+        <v>5.047589239926785</v>
       </c>
       <c r="H22">
-        <v>21.20102586690797</v>
+        <v>20.96094510760034</v>
       </c>
       <c r="I22">
-        <v>1.56472260062987</v>
+        <v>1.813298005250282</v>
       </c>
       <c r="J22">
-        <v>21.23480289540912</v>
+        <v>20.94134873800368</v>
       </c>
       <c r="K22">
-        <v>1.572044801770708</v>
+        <v>1.814418984056295</v>
       </c>
       <c r="L22">
-        <v>7.07777316172247</v>
+        <v>6.984006323967068</v>
       </c>
       <c r="M22">
-        <v>0.5231701804471816</v>
+        <v>0.6094946091043619</v>
       </c>
       <c r="N22">
-        <v>14.14647797379572</v>
+        <v>13.96882623253527</v>
       </c>
       <c r="O22">
-        <v>1.033960854020326</v>
+        <v>1.219140200515741</v>
       </c>
       <c r="P22">
-        <v>7.069142909232506</v>
+        <v>6.985768157492709</v>
       </c>
       <c r="Q22">
-        <v>0.5147375742382322</v>
+        <v>0.6043997167731834</v>
       </c>
       <c r="R22">
-        <v>20.69910023548253</v>
+        <v>20.46835086862589</v>
       </c>
       <c r="S22">
-        <v>1.829203072572791</v>
+        <v>2.066309531996834</v>
       </c>
       <c r="T22">
-        <v>14.52171373241743</v>
+        <v>14.31929158702333</v>
       </c>
       <c r="U22">
-        <v>1.300851041045389</v>
+        <v>1.44306453554611</v>
       </c>
       <c r="V22">
-        <v>3.112363940808653</v>
+        <v>3.068813828590507</v>
       </c>
       <c r="W22">
-        <v>0.2803094367664871</v>
+        <v>0.3105496765144617</v>
       </c>
       <c r="X22">
-        <v>3.110190081367484</v>
+        <v>3.068052692280147</v>
       </c>
       <c r="Y22">
-        <v>0.2777339992084993</v>
+        <v>0.3059852218877083</v>
       </c>
       <c r="Z22">
-        <v>6.907533485403832</v>
+        <v>6.824201697906945</v>
       </c>
       <c r="AA22">
-        <v>0.6156820048873203</v>
+        <v>0.6906959029020954</v>
       </c>
       <c r="AB22">
-        <v>13.80457149142605</v>
+        <v>13.64122371138314</v>
       </c>
       <c r="AC22">
-        <v>1.221750796580983</v>
+        <v>1.364644804054186</v>
       </c>
       <c r="AD22">
-        <v>33.41077249204557</v>
+        <v>32.94851582396804</v>
       </c>
       <c r="AE22">
-        <v>1.713100812358349</v>
+        <v>2.007661521777218</v>
       </c>
     </row>
   </sheetData>
@@ -6252,64 +6252,64 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>24.1705855004433</v>
+        <v>23.82785365152854</v>
       </c>
       <c r="C2">
-        <v>1.316149538261277</v>
+        <v>1.694729103695906</v>
       </c>
       <c r="D2">
-        <v>24.1705855004433</v>
+        <v>23.82785365152854</v>
       </c>
       <c r="E2">
-        <v>1.316149538261277</v>
+        <v>1.694729103695906</v>
       </c>
       <c r="F2">
-        <v>2.360515077605554</v>
+        <v>2.326823025719923</v>
       </c>
       <c r="G2">
-        <v>0.1726565594002086</v>
+        <v>0.2024111522079088</v>
       </c>
       <c r="H2">
-        <v>2.360515077605554</v>
+        <v>2.326823025719923</v>
       </c>
       <c r="I2">
-        <v>0.1726565594002086</v>
+        <v>0.2024111522079088</v>
       </c>
       <c r="J2">
-        <v>11.76207793011691</v>
+        <v>11.59666311653487</v>
       </c>
       <c r="K2">
-        <v>0.8635409064266688</v>
+        <v>1.012232509748553</v>
       </c>
       <c r="L2">
-        <v>11.76207793011691</v>
+        <v>11.59666311653487</v>
       </c>
       <c r="M2">
-        <v>0.8635409064266688</v>
+        <v>1.012232509748553</v>
       </c>
       <c r="N2">
-        <v>7.955259105500082</v>
+        <v>7.840407718153541</v>
       </c>
       <c r="O2">
-        <v>0.5616783988185462</v>
+        <v>0.6701985444462222</v>
       </c>
       <c r="P2">
-        <v>7.955259105500082</v>
+        <v>7.840407718153541</v>
       </c>
       <c r="Q2">
-        <v>0.5616783988185462</v>
+        <v>0.6701985444462222</v>
       </c>
       <c r="R2">
-        <v>1.038333020732934</v>
+        <v>1.022867418052589</v>
       </c>
       <c r="S2">
-        <v>0.09316491413852163</v>
+        <v>0.1020621227039167</v>
       </c>
       <c r="T2">
-        <v>1.038333020732934</v>
+        <v>1.022867418052589</v>
       </c>
       <c r="U2">
-        <v>0.09316491413852163</v>
+        <v>0.1020621227039167</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6317,64 +6317,64 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>26.60710862296651</v>
+        <v>26.21978410225616</v>
       </c>
       <c r="C3">
-        <v>1.429402084936852</v>
+        <v>1.850316195303996</v>
       </c>
       <c r="D3">
-        <v>50.77769412340967</v>
+        <v>50.04763775378453</v>
       </c>
       <c r="E3">
-        <v>1.935368913838647</v>
+        <v>2.477083056552207</v>
       </c>
       <c r="F3">
-        <v>2.598868326700244</v>
+        <v>2.559942721218232</v>
       </c>
       <c r="G3">
-        <v>0.190801039118795</v>
+        <v>0.2219467191042289</v>
       </c>
       <c r="H3">
-        <v>4.959383404305808</v>
+        <v>4.886765746938137</v>
       </c>
       <c r="I3">
-        <v>0.2562009624427402</v>
+        <v>0.2988024938826706</v>
       </c>
       <c r="J3">
-        <v>5.468580117501441</v>
+        <v>5.378708521280767</v>
       </c>
       <c r="K3">
-        <v>1.125192447903479</v>
+        <v>1.300332770864809</v>
       </c>
       <c r="L3">
-        <v>17.23065804761838</v>
+        <v>16.97537163781559</v>
       </c>
       <c r="M3">
-        <v>1.029262700375862</v>
+        <v>1.191380329405734</v>
       </c>
       <c r="N3">
-        <v>16.22652407065263</v>
+        <v>15.99710499762975</v>
       </c>
       <c r="O3">
-        <v>0.8565282834578037</v>
+        <v>1.001146710462647</v>
       </c>
       <c r="P3">
-        <v>24.18178317615277</v>
+        <v>23.83751271578325</v>
       </c>
       <c r="Q3">
-        <v>1.185908570138329</v>
+        <v>1.435097581281589</v>
       </c>
       <c r="R3">
-        <v>1.142368940997138</v>
+        <v>1.124389962407401</v>
       </c>
       <c r="S3">
-        <v>0.1013189163684916</v>
+        <v>0.1125287396604348</v>
       </c>
       <c r="T3">
-        <v>2.180701961730075</v>
+        <v>2.147257380459982</v>
       </c>
       <c r="U3">
-        <v>0.1390083863794994</v>
+        <v>0.1513277238864415</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -6382,64 +6382,64 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>29.01200455065863</v>
+        <v>28.57747252487511</v>
       </c>
       <c r="C4">
-        <v>1.559575117463872</v>
+        <v>2.005889532145547</v>
       </c>
       <c r="D4">
-        <v>79.78969867406842</v>
+        <v>78.62511027865983</v>
       </c>
       <c r="E4">
-        <v>2.476640179638823</v>
+        <v>3.179370405627226</v>
       </c>
       <c r="F4">
-        <v>2.832446627739391</v>
+        <v>2.7914265025987</v>
       </c>
       <c r="G4">
-        <v>0.2082678831706241</v>
+        <v>0.2388044259334863</v>
       </c>
       <c r="H4">
-        <v>7.791830032045191</v>
+        <v>7.678192249536859</v>
       </c>
       <c r="I4">
-        <v>0.3308182542978783</v>
+        <v>0.3838889403762391</v>
       </c>
       <c r="J4">
-        <v>3.235270226631976</v>
+        <v>3.189657972655382</v>
       </c>
       <c r="K4">
-        <v>1.244469984710961</v>
+        <v>1.410587261630286</v>
       </c>
       <c r="L4">
-        <v>20.4659282742503</v>
+        <v>20.16502961047108</v>
       </c>
       <c r="M4">
-        <v>1.181438007916003</v>
+        <v>1.341939002084601</v>
       </c>
       <c r="N4">
-        <v>20.40585615029259</v>
+        <v>20.11919252167392</v>
       </c>
       <c r="O4">
-        <v>0.9542600922969701</v>
+        <v>1.106574624633129</v>
       </c>
       <c r="P4">
-        <v>44.58763932644531</v>
+        <v>43.95670523745711</v>
       </c>
       <c r="Q4">
-        <v>1.782243641093475</v>
+        <v>2.142374945725709</v>
       </c>
       <c r="R4">
-        <v>1.24463827401805</v>
+        <v>1.227791537020719</v>
       </c>
       <c r="S4">
-        <v>0.1112451947312542</v>
+        <v>0.1223237987615386</v>
       </c>
       <c r="T4">
-        <v>3.42534023574812</v>
+        <v>3.375048917480708</v>
       </c>
       <c r="U4">
-        <v>0.177446332195143</v>
+        <v>0.1954641052111355</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6447,64 +6447,64 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>31.44145333606459</v>
+        <v>30.95570605487256</v>
       </c>
       <c r="C5">
-        <v>1.680423644448429</v>
+        <v>2.189098999479619</v>
       </c>
       <c r="D5">
-        <v>111.2311520101326</v>
+        <v>109.5808163335318</v>
       </c>
       <c r="E5">
-        <v>2.999095220978636</v>
+        <v>3.8584029791107</v>
       </c>
       <c r="F5">
-        <v>3.068811771415092</v>
+        <v>3.023861712148889</v>
       </c>
       <c r="G5">
-        <v>0.2270524111216044</v>
+        <v>0.2660028866920433</v>
       </c>
       <c r="H5">
-        <v>10.8606418034603</v>
+        <v>10.70205396168577</v>
       </c>
       <c r="I5">
-        <v>0.4010488028817625</v>
+        <v>0.4670402873061355</v>
       </c>
       <c r="J5">
-        <v>2.396830188156698</v>
+        <v>2.368932274640181</v>
       </c>
       <c r="K5">
-        <v>1.342821609929082</v>
+        <v>1.555195411211266</v>
       </c>
       <c r="L5">
-        <v>22.86275846240702</v>
+        <v>22.53396188511113</v>
       </c>
       <c r="M5">
-        <v>1.316350868563366</v>
+        <v>1.47203124367613</v>
       </c>
       <c r="N5">
-        <v>23.2173256202284</v>
+        <v>22.89183536771656</v>
       </c>
       <c r="O5">
-        <v>1.030107421612496</v>
+        <v>1.181136644171867</v>
       </c>
       <c r="P5">
-        <v>67.80496494667376</v>
+        <v>66.84854060517367</v>
       </c>
       <c r="Q5">
-        <v>2.327895688000726</v>
+        <v>2.792718032983378</v>
       </c>
       <c r="R5">
-        <v>1.349369617351607</v>
+        <v>1.329351704767826</v>
       </c>
       <c r="S5">
-        <v>0.1204079795558951</v>
+        <v>0.1332372945272269</v>
       </c>
       <c r="T5">
-        <v>4.774709853099729</v>
+        <v>4.704400622248552</v>
       </c>
       <c r="U5">
-        <v>0.2117102992791601</v>
+        <v>0.2355906496727687</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -6512,64 +6512,64 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>33.84366916537795</v>
+        <v>33.36338573578822</v>
       </c>
       <c r="C6">
-        <v>1.817352684877325</v>
+        <v>2.371705843155515</v>
       </c>
       <c r="D6">
-        <v>145.0748211755114</v>
+        <v>142.9442020693206</v>
       </c>
       <c r="E6">
-        <v>3.504259082994672</v>
+        <v>4.560493574123702</v>
       </c>
       <c r="F6">
-        <v>3.308916863679176</v>
+        <v>3.259827649261895</v>
       </c>
       <c r="G6">
-        <v>0.2442107111847876</v>
+        <v>0.2835026526462335</v>
       </c>
       <c r="H6">
-        <v>14.16955866713948</v>
+        <v>13.9618816109476</v>
       </c>
       <c r="I6">
-        <v>0.471730405416645</v>
+        <v>0.5478996467805809</v>
       </c>
       <c r="J6">
-        <v>2.07196817100235</v>
+        <v>2.033262499517875</v>
       </c>
       <c r="K6">
-        <v>1.449860794876616</v>
+        <v>1.649525033016469</v>
       </c>
       <c r="L6">
-        <v>24.93472663340943</v>
+        <v>24.56722438462902</v>
       </c>
       <c r="M6">
-        <v>1.432366676136246</v>
+        <v>1.611401335419741</v>
       </c>
       <c r="N6">
-        <v>25.5127305878142</v>
+        <v>25.15403633413285</v>
       </c>
       <c r="O6">
-        <v>1.096744104208182</v>
+        <v>1.296963081198659</v>
       </c>
       <c r="P6">
-        <v>93.31769553448804</v>
+        <v>92.00257693930637</v>
       </c>
       <c r="Q6">
-        <v>2.842625463561328</v>
+        <v>3.42526080292812</v>
       </c>
       <c r="R6">
-        <v>1.452501661560706</v>
+        <v>1.4313366539763</v>
       </c>
       <c r="S6">
-        <v>0.1282177332855985</v>
+        <v>0.1416243482965075</v>
       </c>
       <c r="T6">
-        <v>6.227211514660434</v>
+        <v>6.135737276224828</v>
       </c>
       <c r="U6">
-        <v>0.247767564176282</v>
+        <v>0.2762637676220824</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -6577,64 +6577,64 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>36.26458332002873</v>
+        <v>35.74602339887515</v>
       </c>
       <c r="C7">
-        <v>1.974636560714615</v>
+        <v>2.532125944164668</v>
       </c>
       <c r="D7">
-        <v>181.3394044955401</v>
+        <v>178.6902254681949</v>
       </c>
       <c r="E7">
-        <v>4.034568618362828</v>
+        <v>5.24021825225092</v>
       </c>
       <c r="F7">
-        <v>3.539851114853284</v>
+        <v>3.501264140502916</v>
       </c>
       <c r="G7">
-        <v>0.2632273588802984</v>
+        <v>0.3076290132823349</v>
       </c>
       <c r="H7">
-        <v>17.70940978199268</v>
+        <v>17.46314575145056</v>
       </c>
       <c r="I7">
-        <v>0.5405857443941025</v>
+        <v>0.6279583214962128</v>
       </c>
       <c r="J7">
-        <v>1.931003644778914</v>
+        <v>1.975864380604554</v>
       </c>
       <c r="K7">
-        <v>1.539796109490808</v>
+        <v>1.801561270185124</v>
       </c>
       <c r="L7">
-        <v>26.8657302781884</v>
+        <v>26.54308876523366</v>
       </c>
       <c r="M7">
-        <v>1.558721479787156</v>
+        <v>1.75468505071916</v>
       </c>
       <c r="N7">
-        <v>27.60536808931269</v>
+        <v>27.2481974342135</v>
       </c>
       <c r="O7">
-        <v>1.177586363962854</v>
+        <v>1.399684300079975</v>
       </c>
       <c r="P7">
-        <v>120.9230636238012</v>
+        <v>119.2507743735197</v>
       </c>
       <c r="Q7">
-        <v>3.324864882927322</v>
+        <v>4.039421872690188</v>
       </c>
       <c r="R7">
-        <v>1.554698960450892</v>
+        <v>1.538285752210946</v>
       </c>
       <c r="S7">
-        <v>0.1378700226641275</v>
+        <v>0.1568432421188651</v>
       </c>
       <c r="T7">
-        <v>7.781910475111358</v>
+        <v>7.67402302843581</v>
       </c>
       <c r="U7">
-        <v>0.282987227933669</v>
+        <v>0.3178947586943339</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -6642,64 +6642,64 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>38.67362702206937</v>
+        <v>38.20825589759313</v>
       </c>
       <c r="C8">
-        <v>2.07641403470666</v>
+        <v>2.675203899697078</v>
       </c>
       <c r="D8">
-        <v>220.0130315176094</v>
+        <v>216.8984813657889</v>
       </c>
       <c r="E8">
-        <v>4.556647103629389</v>
+        <v>5.904325691662748</v>
       </c>
       <c r="F8">
-        <v>3.781609942555344</v>
+        <v>3.731105298953163</v>
       </c>
       <c r="G8">
-        <v>0.277156592807116</v>
+        <v>0.3250781780617737</v>
       </c>
       <c r="H8">
-        <v>21.49101972454809</v>
+        <v>21.19425105040375</v>
       </c>
       <c r="I8">
-        <v>0.6053289842575471</v>
+        <v>0.7036792166089899</v>
       </c>
       <c r="J8">
-        <v>1.926518352407862</v>
+        <v>1.88622070758069</v>
       </c>
       <c r="K8">
-        <v>1.639669411513399</v>
+        <v>1.905070300854971</v>
       </c>
       <c r="L8">
-        <v>28.79224863059617</v>
+        <v>28.42930947281428</v>
       </c>
       <c r="M8">
-        <v>1.653784266792148</v>
+        <v>1.863167762513016</v>
       </c>
       <c r="N8">
-        <v>29.62101325268411</v>
+        <v>29.26761918334907</v>
       </c>
       <c r="O8">
-        <v>1.270563139262544</v>
+        <v>1.480570472089346</v>
       </c>
       <c r="P8">
-        <v>150.5440768764857</v>
+        <v>148.5183935568696</v>
       </c>
       <c r="Q8">
-        <v>3.819615039410423</v>
+        <v>4.65067928159796</v>
       </c>
       <c r="R8">
-        <v>1.659454714796151</v>
+        <v>1.641147774336905</v>
       </c>
       <c r="S8">
-        <v>0.1466293993030377</v>
+        <v>0.1643242308457728</v>
       </c>
       <c r="T8">
-        <v>9.441365189907488</v>
+        <v>9.315170802772675</v>
       </c>
       <c r="U8">
-        <v>0.3171674921441731</v>
+        <v>0.3592541257782375</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -6707,64 +6707,64 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>41.08730778703196</v>
+        <v>40.51146177464906</v>
       </c>
       <c r="C9">
-        <v>2.197564690023892</v>
+        <v>2.870067800671818</v>
       </c>
       <c r="D9">
-        <v>261.1003393046427</v>
+        <v>257.4099431404377</v>
       </c>
       <c r="E9">
-        <v>5.063903218451952</v>
+        <v>6.570593048272083</v>
       </c>
       <c r="F9">
-        <v>4.013324849460767</v>
+        <v>3.949794294193317</v>
       </c>
       <c r="G9">
-        <v>0.2949282726402903</v>
+        <v>0.3432141024206416</v>
       </c>
       <c r="H9">
-        <v>25.50434457400889</v>
+        <v>25.14404534459707</v>
       </c>
       <c r="I9">
-        <v>0.6728151310550261</v>
+        <v>0.7838992574536556</v>
       </c>
       <c r="J9">
-        <v>1.879847132455293</v>
+        <v>1.82467250618782</v>
       </c>
       <c r="K9">
-        <v>1.753322106355628</v>
+        <v>2.028226380904706</v>
       </c>
       <c r="L9">
-        <v>30.6720957630514</v>
+        <v>30.25398197900209</v>
       </c>
       <c r="M9">
-        <v>1.775278399945937</v>
+        <v>2.003390444894226</v>
       </c>
       <c r="N9">
-        <v>31.62920351370311</v>
+        <v>31.20275684360089</v>
       </c>
       <c r="O9">
-        <v>1.340568651498333</v>
+        <v>1.575331496158162</v>
       </c>
       <c r="P9">
-        <v>182.1732803901877</v>
+        <v>179.7211504004701</v>
       </c>
       <c r="Q9">
-        <v>4.312725708544241</v>
+        <v>5.262384062144157</v>
       </c>
       <c r="R9">
-        <v>1.761752523748357</v>
+        <v>1.740320541576183</v>
       </c>
       <c r="S9">
-        <v>0.1557970613134809</v>
+        <v>0.1748158136166992</v>
       </c>
       <c r="T9">
-        <v>11.20311771365585</v>
+        <v>11.05549134434886</v>
       </c>
       <c r="U9">
-        <v>0.3522951791311199</v>
+        <v>0.4001915689739867</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6772,64 +6772,64 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>43.51847197514499</v>
+        <v>42.86657572807166</v>
       </c>
       <c r="C10">
-        <v>2.323544301648425</v>
+        <v>3.036809934830831</v>
       </c>
       <c r="D10">
-        <v>304.6188112797849</v>
+        <v>300.2765188685093</v>
       </c>
       <c r="E10">
-        <v>5.574960360598872</v>
+        <v>7.247310341196149</v>
       </c>
       <c r="F10">
-        <v>4.253790926462812</v>
+        <v>4.191789380801555</v>
       </c>
       <c r="G10">
-        <v>0.3134873242653246</v>
+        <v>0.3624672189192688</v>
       </c>
       <c r="H10">
-        <v>29.75813550047164</v>
+        <v>29.33583472539842</v>
       </c>
       <c r="I10">
-        <v>0.7450252464594235</v>
+        <v>0.8595985788545615</v>
       </c>
       <c r="J10">
-        <v>1.885090933539665</v>
+        <v>1.860789369124868</v>
       </c>
       <c r="K10">
-        <v>1.86530840007634</v>
+        <v>2.169572962471431</v>
       </c>
       <c r="L10">
-        <v>32.55718669659124</v>
+        <v>32.11477134812686</v>
       </c>
       <c r="M10">
-        <v>1.888739997025142</v>
+        <v>2.108032121215736</v>
       </c>
       <c r="N10">
-        <v>33.60738363523466</v>
+        <v>33.13722621097308</v>
       </c>
       <c r="O10">
-        <v>1.428594756111305</v>
+        <v>1.670566514393526</v>
       </c>
       <c r="P10">
-        <v>215.7806640254235</v>
+        <v>212.8583766114425</v>
       </c>
       <c r="Q10">
-        <v>4.81775830451164</v>
+        <v>5.865148762988276</v>
       </c>
       <c r="R10">
-        <v>1.867874150441259</v>
+        <v>1.842545713052247</v>
       </c>
       <c r="S10">
-        <v>0.1655643209427407</v>
+        <v>0.1856349190865635</v>
       </c>
       <c r="T10">
-        <v>13.0709918640971</v>
+        <v>12.89803705740112</v>
       </c>
       <c r="U10">
-        <v>0.3910271531882512</v>
+        <v>0.4396874199237141</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -6837,64 +6837,64 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>45.94397725403972</v>
+        <v>45.32976163204476</v>
       </c>
       <c r="C11">
-        <v>2.479864869720396</v>
+        <v>3.210171221581759</v>
       </c>
       <c r="D11">
-        <v>350.5627885338264</v>
+        <v>345.6062805005549</v>
       </c>
       <c r="E11">
-        <v>6.078480128065411</v>
+        <v>7.923486313534723</v>
       </c>
       <c r="F11">
-        <v>4.494691693441036</v>
+        <v>4.424091967551223</v>
       </c>
       <c r="G11">
-        <v>0.3289022387224578</v>
+        <v>0.3846355866367447</v>
       </c>
       <c r="H11">
-        <v>34.25282719391266</v>
+        <v>33.75992669294975</v>
       </c>
       <c r="I11">
-        <v>0.8125600307039926</v>
+        <v>0.9463526352872753</v>
       </c>
       <c r="J11">
-        <v>1.90065185005846</v>
+        <v>1.806784054117939</v>
       </c>
       <c r="K11">
-        <v>1.954004757549659</v>
+        <v>2.287119642656975</v>
       </c>
       <c r="L11">
-        <v>34.45783854664963</v>
+        <v>33.92155540224493</v>
       </c>
       <c r="M11">
-        <v>1.984342643018668</v>
+        <v>2.233007577326938</v>
       </c>
       <c r="N11">
-        <v>35.60588439904546</v>
+        <v>35.09235341396562</v>
       </c>
       <c r="O11">
-        <v>1.504658265190152</v>
+        <v>1.749554589414649</v>
       </c>
       <c r="P11">
-        <v>251.3865484244679</v>
+        <v>247.9507300254082</v>
       </c>
       <c r="Q11">
-        <v>5.329796344946057</v>
+        <v>6.470485171961247</v>
       </c>
       <c r="R11">
-        <v>1.973466516388294</v>
+        <v>1.944446631233554</v>
       </c>
       <c r="S11">
-        <v>0.1753016890818752</v>
+        <v>0.1925035370784889</v>
       </c>
       <c r="T11">
-        <v>15.0444583804854</v>
+        <v>14.8424836886347</v>
       </c>
       <c r="U11">
-        <v>0.4291409347745728</v>
+        <v>0.4794850966907833</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -6902,64 +6902,64 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>48.37089950464804</v>
+        <v>47.70662620206335</v>
       </c>
       <c r="C12">
-        <v>2.599196737983406</v>
+        <v>3.348854652148053</v>
       </c>
       <c r="D12">
-        <v>398.9336880384728</v>
+        <v>393.3129067026174</v>
       </c>
       <c r="E12">
-        <v>6.623999999598729</v>
+        <v>8.622996001134721</v>
       </c>
       <c r="F12">
-        <v>4.727967598008231</v>
+        <v>4.655757691234943</v>
       </c>
       <c r="G12">
-        <v>0.3531588573894129</v>
+        <v>0.4000943347625681</v>
       </c>
       <c r="H12">
-        <v>38.98079479192094</v>
+        <v>38.41568438418462</v>
       </c>
       <c r="I12">
-        <v>0.8852760281217509</v>
+        <v>1.033956259331526</v>
       </c>
       <c r="J12">
-        <v>1.877457073195485</v>
+        <v>1.831351311115026</v>
       </c>
       <c r="K12">
-        <v>2.088120795663508</v>
+        <v>2.405086515482787</v>
       </c>
       <c r="L12">
-        <v>36.3352956198452</v>
+        <v>35.75290671335996</v>
       </c>
       <c r="M12">
-        <v>2.094758197955365</v>
+        <v>2.342940667234684</v>
       </c>
       <c r="N12">
-        <v>37.59339047354199</v>
+        <v>37.01945835561325</v>
       </c>
       <c r="O12">
-        <v>1.598991245564224</v>
+        <v>1.846819650925523</v>
       </c>
       <c r="P12">
-        <v>288.9799388980101</v>
+        <v>284.9701883810208</v>
       </c>
       <c r="Q12">
-        <v>5.862046332720173</v>
+        <v>7.089279816660055</v>
       </c>
       <c r="R12">
-        <v>2.078926863127775</v>
+        <v>2.046126610669214</v>
       </c>
       <c r="S12">
-        <v>0.1858359301009932</v>
+        <v>0.2047336149926236</v>
       </c>
       <c r="T12">
-        <v>17.12338524361318</v>
+        <v>16.88861029930385</v>
       </c>
       <c r="U12">
-        <v>0.4663796371133588</v>
+        <v>0.5219369937687534</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -6967,64 +6967,64 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>2.419863201362102</v>
+        <v>2.382521286200851</v>
       </c>
       <c r="C13">
-        <v>0.1293030482702163</v>
+        <v>0.1689034644271898</v>
       </c>
       <c r="D13">
-        <v>401.353551239837</v>
+        <v>395.6954279888188</v>
       </c>
       <c r="E13">
-        <v>6.624994647995463</v>
+        <v>8.624961634448237</v>
       </c>
       <c r="F13">
-        <v>0.2359786859540196</v>
+        <v>0.2326636057396475</v>
       </c>
       <c r="G13">
-        <v>0.01717791960291978</v>
+        <v>0.02006929027996958</v>
       </c>
       <c r="H13">
-        <v>39.2167734778749</v>
+        <v>38.64834798992434</v>
       </c>
       <c r="I13">
-        <v>0.8852301328198684</v>
+        <v>1.034159528340414</v>
       </c>
       <c r="J13">
-        <v>-21.66396124237671</v>
+        <v>-21.32803559889176</v>
       </c>
       <c r="K13">
-        <v>1.182653137898978</v>
+        <v>1.365914237862463</v>
       </c>
       <c r="L13">
-        <v>14.67133437746845</v>
+        <v>14.4248711144681</v>
       </c>
       <c r="M13">
-        <v>1.227937117108564</v>
+        <v>1.270939419072018</v>
       </c>
       <c r="N13">
-        <v>23.6348051669147</v>
+        <v>23.27094990477796</v>
       </c>
       <c r="O13">
-        <v>1.18141046218412</v>
+        <v>1.361308949966448</v>
       </c>
       <c r="P13">
-        <v>312.6147440649249</v>
+        <v>308.2411382858003</v>
       </c>
       <c r="Q13">
-        <v>6.267617960855375</v>
+        <v>7.588628906893805</v>
       </c>
       <c r="R13">
-        <v>0.1037333616850255</v>
+        <v>0.1023450137468797</v>
       </c>
       <c r="S13">
-        <v>0.009215254210715798</v>
+        <v>0.01019508640621835</v>
       </c>
       <c r="T13">
-        <v>17.2271186052982</v>
+        <v>16.99095531305074</v>
       </c>
       <c r="U13">
-        <v>0.4664445921117993</v>
+        <v>0.5220797277072987</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -7032,64 +7032,64 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>53.16035994988142</v>
+        <v>52.45506855173492</v>
       </c>
       <c r="C14">
-        <v>2.817330581659465</v>
+        <v>3.683617635694338</v>
       </c>
       <c r="D14">
-        <v>454.5139111897184</v>
+        <v>448.150496540553</v>
       </c>
       <c r="E14">
-        <v>7.163475477369388</v>
+        <v>9.346097024119739</v>
       </c>
       <c r="F14">
-        <v>5.197697942668454</v>
+        <v>5.122712442368339</v>
       </c>
       <c r="G14">
-        <v>0.3835424595441362</v>
+        <v>0.446534468613713</v>
       </c>
       <c r="H14">
-        <v>44.41447142054334</v>
+        <v>43.77106043229274</v>
       </c>
       <c r="I14">
-        <v>0.9597004658235313</v>
+        <v>1.123791813651821</v>
       </c>
       <c r="J14">
-        <v>16.84215103504372</v>
+        <v>16.58120880537053</v>
       </c>
       <c r="K14">
-        <v>1.977786650038974</v>
+        <v>2.295384557565714</v>
       </c>
       <c r="L14">
-        <v>31.5134854125121</v>
+        <v>31.00607991983858</v>
       </c>
       <c r="M14">
-        <v>2.031488333857997</v>
+        <v>2.333573199176565</v>
       </c>
       <c r="N14">
-        <v>26.57416783833749</v>
+        <v>26.17018389899509</v>
       </c>
       <c r="O14">
-        <v>1.359258944436262</v>
+        <v>1.569236289319844</v>
       </c>
       <c r="P14">
-        <v>339.1889119032629</v>
+        <v>334.4113221847949</v>
       </c>
       <c r="Q14">
-        <v>6.533707624811781</v>
+        <v>7.917845982733176</v>
       </c>
       <c r="R14">
-        <v>2.284589387119467</v>
+        <v>2.248899429465136</v>
       </c>
       <c r="S14">
-        <v>0.2016399161921286</v>
+        <v>0.2238405306650775</v>
       </c>
       <c r="T14">
-        <v>19.51170799241766</v>
+        <v>19.23985474251585</v>
       </c>
       <c r="U14">
-        <v>0.509233539148104</v>
+        <v>0.5685482186796026</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -7097,64 +7097,64 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>55.67852634818491</v>
+        <v>54.79273254651196</v>
       </c>
       <c r="C15">
-        <v>2.984294878973275</v>
+        <v>3.903927487873921</v>
       </c>
       <c r="D15">
-        <v>510.1924375379053</v>
+        <v>502.9432290870661</v>
       </c>
       <c r="E15">
-        <v>7.738368507522319</v>
+        <v>10.14813233167649</v>
       </c>
       <c r="F15">
-        <v>5.431431121573374</v>
+        <v>5.355442415816198</v>
       </c>
       <c r="G15">
-        <v>0.3991351100844753</v>
+        <v>0.4693792827746096</v>
       </c>
       <c r="H15">
-        <v>49.84590254211692</v>
+        <v>49.12650284810888</v>
       </c>
       <c r="I15">
-        <v>1.039646119445638</v>
+        <v>1.219779405820742</v>
       </c>
       <c r="J15">
-        <v>7.154283092729984</v>
+        <v>7.041622231094865</v>
       </c>
       <c r="K15">
-        <v>2.347476686550915</v>
+        <v>2.750551142662597</v>
       </c>
       <c r="L15">
-        <v>38.66776850524217</v>
+        <v>38.04770215093353</v>
       </c>
       <c r="M15">
-        <v>2.261318369955141</v>
+        <v>2.630200162884335</v>
       </c>
       <c r="N15">
-        <v>38.22764744039225</v>
+        <v>37.63939218257786</v>
       </c>
       <c r="O15">
-        <v>1.789018491372008</v>
+        <v>2.108762630462257</v>
       </c>
       <c r="P15">
-        <v>377.4165593436531</v>
+        <v>372.0507143673732</v>
       </c>
       <c r="Q15">
-        <v>6.974863894242484</v>
+        <v>8.478663613623469</v>
       </c>
       <c r="R15">
-        <v>2.389149499185024</v>
+        <v>2.353006171387542</v>
       </c>
       <c r="S15">
-        <v>0.2145742337716733</v>
+        <v>0.2363571028192178</v>
       </c>
       <c r="T15">
-        <v>21.90085749160279</v>
+        <v>21.59286091390353</v>
       </c>
       <c r="U15">
-        <v>0.548917161234986</v>
+        <v>0.6151928841725566</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -7162,64 +7162,64 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>58.03688429308893</v>
+        <v>57.19920528476242</v>
       </c>
       <c r="C16">
-        <v>3.116901292238076</v>
+        <v>4.051495947836426</v>
       </c>
       <c r="D16">
-        <v>568.2293218309902</v>
+        <v>560.1424343718305</v>
       </c>
       <c r="E16">
-        <v>8.386943900238181</v>
+        <v>10.88415936281469</v>
       </c>
       <c r="F16">
-        <v>5.669093527539546</v>
+        <v>5.591420914951569</v>
       </c>
       <c r="G16">
-        <v>0.4179696811601001</v>
+        <v>0.4859938993609632</v>
       </c>
       <c r="H16">
-        <v>55.51499606965662</v>
+        <v>54.7179237630607</v>
       </c>
       <c r="I16">
-        <v>1.118587964451405</v>
+        <v>1.313558832895849</v>
       </c>
       <c r="J16">
-        <v>3.878073708208233</v>
+        <v>3.875459812495627</v>
       </c>
       <c r="K16">
-        <v>2.501515469199787</v>
+        <v>2.866722052782421</v>
       </c>
       <c r="L16">
-        <v>42.54584221345036</v>
+        <v>41.92316196342909</v>
       </c>
       <c r="M16">
-        <v>2.468626573901826</v>
+        <v>2.783744548852672</v>
       </c>
       <c r="N16">
-        <v>43.43356501563775</v>
+        <v>42.78196579788901</v>
       </c>
       <c r="O16">
-        <v>1.940693825561306</v>
+        <v>2.271423766269312</v>
       </c>
       <c r="P16">
-        <v>420.8501243592909</v>
+        <v>414.8326801652622</v>
       </c>
       <c r="Q16">
-        <v>7.487977662041311</v>
+        <v>9.152255763358099</v>
       </c>
       <c r="R16">
-        <v>2.489416347885276</v>
+        <v>2.458233329164105</v>
       </c>
       <c r="S16">
-        <v>0.2223830968414756</v>
+        <v>0.2468238357067699</v>
       </c>
       <c r="T16">
-        <v>24.3902738394879</v>
+        <v>24.0510942430675</v>
       </c>
       <c r="U16">
-        <v>0.5922547318991999</v>
+        <v>0.6658002478014785</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -7227,64 +7227,64 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>60.47258175626235</v>
+        <v>59.53566139547785</v>
       </c>
       <c r="C17">
-        <v>3.260793743894819</v>
+        <v>4.212309336616427</v>
       </c>
       <c r="D17">
-        <v>628.7019035872588</v>
+        <v>619.6780957673064</v>
       </c>
       <c r="E17">
-        <v>8.916996899785703</v>
+        <v>11.62279936928076</v>
       </c>
       <c r="F17">
-        <v>5.899971444600451</v>
+        <v>5.814822933712761</v>
       </c>
       <c r="G17">
-        <v>0.4351176056107408</v>
+        <v>0.4972645431639177</v>
       </c>
       <c r="H17">
-        <v>61.4149675142565</v>
+        <v>60.53274669677323</v>
       </c>
       <c r="I17">
-        <v>1.206103021949268</v>
+        <v>1.404793793951957</v>
       </c>
       <c r="J17">
-        <v>2.644375350248899</v>
+        <v>2.5830500502841</v>
       </c>
       <c r="K17">
-        <v>2.573841971657131</v>
+        <v>3.00672844458356</v>
       </c>
       <c r="L17">
-        <v>45.19021756369919</v>
+        <v>44.50621201371308</v>
       </c>
       <c r="M17">
-        <v>2.602543641961714</v>
+        <v>2.886811978818095</v>
       </c>
       <c r="N17">
-        <v>46.63822676740021</v>
+        <v>45.99564760415304</v>
       </c>
       <c r="O17">
-        <v>2.025453042741841</v>
+        <v>2.311461368216584</v>
       </c>
       <c r="P17">
-        <v>467.4883511266937</v>
+        <v>460.8283277694149</v>
       </c>
       <c r="Q17">
-        <v>8.105501582444703</v>
+        <v>9.865692092828741</v>
       </c>
       <c r="R17">
-        <v>2.594817452664604</v>
+        <v>2.555127580163853</v>
       </c>
       <c r="S17">
-        <v>0.2308201152795888</v>
+        <v>0.2543633421645163</v>
       </c>
       <c r="T17">
-        <v>26.9850912921526</v>
+        <v>26.60622182323136</v>
       </c>
       <c r="U17">
-        <v>0.6367419052394713</v>
+        <v>0.7116199403510367</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -7292,64 +7292,64 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>62.80487583336124</v>
+        <v>61.93754583513444</v>
       </c>
       <c r="C18">
-        <v>3.387548505391572</v>
+        <v>4.404355327199986</v>
       </c>
       <c r="D18">
-        <v>691.5067794206175</v>
+        <v>681.6156416024379</v>
       </c>
       <c r="E18">
-        <v>9.469315240966811</v>
+        <v>12.40008454567573</v>
       </c>
       <c r="F18">
-        <v>6.138239683854783</v>
+        <v>6.054756944101524</v>
       </c>
       <c r="G18">
-        <v>0.4539286808817978</v>
+        <v>0.5229101287239564</v>
       </c>
       <c r="H18">
-        <v>67.55320719811151</v>
+        <v>66.58750364087476</v>
       </c>
       <c r="I18">
-        <v>1.286173411074912</v>
+        <v>1.504628096320892</v>
       </c>
       <c r="J18">
-        <v>2.208203183976896</v>
+        <v>2.195303014945987</v>
       </c>
       <c r="K18">
-        <v>2.725567245130836</v>
+        <v>3.118729589925455</v>
       </c>
       <c r="L18">
-        <v>47.39842074767604</v>
+        <v>46.70151502865924</v>
       </c>
       <c r="M18">
-        <v>2.755669248722577</v>
+        <v>3.041581996752021</v>
       </c>
       <c r="N18">
-        <v>49.11213406027762</v>
+        <v>48.40993392919829</v>
       </c>
       <c r="O18">
-        <v>2.105326974711835</v>
+        <v>2.427481225274507</v>
       </c>
       <c r="P18">
-        <v>516.6004851869722</v>
+        <v>509.2382616986143</v>
       </c>
       <c r="Q18">
-        <v>8.711046358002339</v>
+        <v>10.60677238558234</v>
       </c>
       <c r="R18">
-        <v>2.703544885886094</v>
+        <v>2.665721196587269</v>
       </c>
       <c r="S18">
-        <v>0.2417805437760517</v>
+        <v>0.2664506123283641</v>
       </c>
       <c r="T18">
-        <v>29.68863617803863</v>
+        <v>29.27194301981867</v>
       </c>
       <c r="U18">
-        <v>0.678761241709429</v>
+        <v>0.7606284186656884</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -7357,64 +7357,64 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>65.31058913130613</v>
+        <v>64.35156826521754</v>
       </c>
       <c r="C19">
-        <v>3.488463260480653</v>
+        <v>4.541734128145903</v>
       </c>
       <c r="D19">
-        <v>756.817368551923</v>
+        <v>745.9672098676574</v>
       </c>
       <c r="E19">
-        <v>10.09643772727696</v>
+        <v>13.19471257295484</v>
       </c>
       <c r="F19">
-        <v>6.375907917570041</v>
+        <v>6.279945650224317</v>
       </c>
       <c r="G19">
-        <v>0.4736308519052036</v>
+        <v>0.544785348694264</v>
       </c>
       <c r="H19">
-        <v>73.92911511568148</v>
+        <v>72.86744929109967</v>
       </c>
       <c r="I19">
-        <v>1.372263968116896</v>
+        <v>1.60355086973955</v>
       </c>
       <c r="J19">
-        <v>1.95044242096736</v>
+        <v>1.911821669124586</v>
       </c>
       <c r="K19">
-        <v>2.815657109078219</v>
+        <v>3.206899532507522</v>
       </c>
       <c r="L19">
-        <v>49.34886316864338</v>
+        <v>48.61333669778386</v>
       </c>
       <c r="M19">
-        <v>2.806804336737788</v>
+        <v>3.182987212216205</v>
       </c>
       <c r="N19">
-        <v>51.25817879358292</v>
+        <v>50.53924989161438</v>
       </c>
       <c r="O19">
-        <v>2.175486430150355</v>
+        <v>2.52797718697107</v>
       </c>
       <c r="P19">
-        <v>567.8586639805542</v>
+        <v>559.7775115902276</v>
       </c>
       <c r="Q19">
-        <v>9.329858028740228</v>
+        <v>11.36015111907556</v>
       </c>
       <c r="R19">
-        <v>2.802700409550238</v>
+        <v>2.757400496712327</v>
       </c>
       <c r="S19">
-        <v>0.2509886188616268</v>
+        <v>0.2759841670583768</v>
       </c>
       <c r="T19">
-        <v>32.49133658758898</v>
+        <v>32.02934351653101</v>
       </c>
       <c r="U19">
-        <v>0.7281142485163501</v>
+        <v>0.8186851269507693</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -7422,64 +7422,64 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>67.71409862344801</v>
+        <v>66.80680186284521</v>
       </c>
       <c r="C20">
-        <v>3.64856936704164</v>
+        <v>4.711475413689504</v>
       </c>
       <c r="D20">
-        <v>824.5314671753702</v>
+        <v>812.7740117305</v>
       </c>
       <c r="E20">
-        <v>10.72373385457129</v>
+        <v>13.97441729216115</v>
       </c>
       <c r="F20">
-        <v>6.613587604504667</v>
+        <v>6.515840256589682</v>
       </c>
       <c r="G20">
-        <v>0.4900783457500437</v>
+        <v>0.5710745229233068</v>
       </c>
       <c r="H20">
-        <v>80.54270272018634</v>
+        <v>79.38328954768861</v>
       </c>
       <c r="I20">
-        <v>1.458545742070916</v>
+        <v>1.698431721060235</v>
       </c>
       <c r="J20">
-        <v>1.908856834630358</v>
+        <v>1.900799127429017</v>
       </c>
       <c r="K20">
-        <v>2.955735752332623</v>
+        <v>3.411335057945129</v>
       </c>
       <c r="L20">
-        <v>51.2577200032739</v>
+        <v>50.51413582521257</v>
       </c>
       <c r="M20">
-        <v>2.979544013558556</v>
+        <v>3.310371932279909</v>
       </c>
       <c r="N20">
-        <v>53.27253615661218</v>
+        <v>52.53164980026281</v>
       </c>
       <c r="O20">
-        <v>2.238666633609249</v>
+        <v>2.631944467214377</v>
       </c>
       <c r="P20">
-        <v>621.1312001371651</v>
+        <v>612.3091613904877</v>
       </c>
       <c r="Q20">
-        <v>9.965147790704933</v>
+        <v>12.13700879785037</v>
       </c>
       <c r="R20">
-        <v>2.90299842639348</v>
+        <v>2.868952985299087</v>
       </c>
       <c r="S20">
-        <v>0.2603403622230842</v>
+        <v>0.2902272034985223</v>
       </c>
       <c r="T20">
-        <v>35.39433501398232</v>
+        <v>34.89829650183009</v>
       </c>
       <c r="U20">
-        <v>0.7702173478678644</v>
+        <v>0.8648570652493707</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -7487,64 +7487,64 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>70.1430054063907</v>
+        <v>69.14868406953603</v>
       </c>
       <c r="C21">
-        <v>3.772618673515965</v>
+        <v>4.936847058391118</v>
       </c>
       <c r="D21">
-        <v>894.6744725817636</v>
+        <v>881.9226958000373</v>
       </c>
       <c r="E21">
-        <v>11.39443298984246</v>
+        <v>14.80669861985647</v>
       </c>
       <c r="F21">
-        <v>6.854205384681451</v>
+        <v>6.75542659745118</v>
       </c>
       <c r="G21">
-        <v>0.5051123344093726</v>
+        <v>0.5876692450938527</v>
       </c>
       <c r="H21">
-        <v>87.39690810486807</v>
+        <v>86.13871614514012</v>
       </c>
       <c r="I21">
-        <v>1.538674065365617</v>
+        <v>1.79602961064828</v>
       </c>
       <c r="J21">
-        <v>1.904601812261931</v>
+        <v>1.882870287451582</v>
       </c>
       <c r="K21">
-        <v>3.036792005138978</v>
+        <v>3.548113223985135</v>
       </c>
       <c r="L21">
-        <v>53.1623218155358</v>
+        <v>52.39700611266422</v>
       </c>
       <c r="M21">
-        <v>3.061301221472035</v>
+        <v>3.473433977525995</v>
       </c>
       <c r="N21">
-        <v>55.30763339516117</v>
+        <v>54.52886730985746</v>
       </c>
       <c r="O21">
-        <v>2.344491777405067</v>
+        <v>2.732052979083059</v>
       </c>
       <c r="P21">
-        <v>676.4388335323257</v>
+        <v>666.838028700349</v>
       </c>
       <c r="Q21">
-        <v>10.61950033281277</v>
+        <v>12.91581433895134</v>
       </c>
       <c r="R21">
-        <v>3.013231181437012</v>
+        <v>2.96789505011537</v>
       </c>
       <c r="S21">
-        <v>0.2676027448421215</v>
+        <v>0.2966385556788367</v>
       </c>
       <c r="T21">
-        <v>38.40756619541928</v>
+        <v>37.86619155194537</v>
       </c>
       <c r="U21">
-        <v>0.8197003077055125</v>
+        <v>0.9170030297971686</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -7552,64 +7552,64 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>72.51303869297907</v>
+        <v>71.5159961135427</v>
       </c>
       <c r="C22">
-        <v>3.907209890292695</v>
+        <v>5.14102274827082</v>
       </c>
       <c r="D22">
-        <v>967.1875112747356</v>
+        <v>953.4386919135832</v>
       </c>
       <c r="E22">
-        <v>12.1215011004297</v>
+        <v>15.70369452712003</v>
       </c>
       <c r="F22">
-        <v>7.069142909232506</v>
+        <v>6.985768157492709</v>
       </c>
       <c r="G22">
-        <v>0.5147375742382322</v>
+        <v>0.6043997167731834</v>
       </c>
       <c r="H22">
-        <v>94.46605101410024</v>
+        <v>93.12448430263294</v>
       </c>
       <c r="I22">
-        <v>1.621469877100757</v>
+        <v>1.898480474418396</v>
       </c>
       <c r="J22">
-        <v>1.810041475854673</v>
+        <v>1.839126631681352</v>
       </c>
       <c r="K22">
-        <v>3.113061795770465</v>
+        <v>3.645167065734534</v>
       </c>
       <c r="L22">
-        <v>54.97236329139024</v>
+        <v>54.2361327443458</v>
       </c>
       <c r="M22">
-        <v>3.17270592597315</v>
+        <v>3.547871119710534</v>
       </c>
       <c r="N22">
-        <v>57.23524140968395</v>
+        <v>56.48275506184805</v>
       </c>
       <c r="O22">
-        <v>2.404518033981847</v>
+        <v>2.827031012349463</v>
       </c>
       <c r="P22">
-        <v>733.6740749420084</v>
+        <v>723.3207837621951</v>
       </c>
       <c r="Q22">
-        <v>11.27896712988224</v>
+        <v>13.70745113429521</v>
       </c>
       <c r="R22">
-        <v>3.110190081367484</v>
+        <v>3.068052692280147</v>
       </c>
       <c r="S22">
-        <v>0.2777339992084993</v>
+        <v>0.3059852218877083</v>
       </c>
       <c r="T22">
-        <v>41.51775627678683</v>
+        <v>40.93424424422538</v>
       </c>
       <c r="U22">
-        <v>0.8653866836226298</v>
+        <v>0.968816683953446</v>
       </c>
     </row>
   </sheetData>

--- a/case_study_results/Case_study_results_MC_mean.xlsx
+++ b/case_study_results/Case_study_results_MC_mean.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="MC_FlowDict_Biomass" sheetId="1" r:id="rId1"/>
-    <sheet name="MC_StockDict_Biomass" sheetId="2" r:id="rId2"/>
+    <sheet name="MC_FlowDict_Good" sheetId="1" r:id="rId1"/>
+    <sheet name="MC_StockDict_Good" sheetId="2" r:id="rId2"/>
     <sheet name="MC_FlowDict_Carbon" sheetId="3" r:id="rId3"/>
     <sheet name="MC_StockDict_Carbon" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -633,88 +633,88 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>97.67849343644806</v>
+        <v>97.68315726060075</v>
       </c>
       <c r="C2">
-        <v>4.931980634693811</v>
+        <v>4.844476327488333</v>
       </c>
       <c r="D2">
-        <v>47.71000129422978</v>
+        <v>47.72338051965068</v>
       </c>
       <c r="E2">
-        <v>3.407260698708934</v>
+        <v>3.391970947048117</v>
       </c>
       <c r="F2">
-        <v>47.72267955628504</v>
+        <v>47.64468066676578</v>
       </c>
       <c r="G2">
-        <v>3.405194985415749</v>
+        <v>3.361939657033141</v>
       </c>
       <c r="H2">
-        <v>13.98078978788539</v>
+        <v>13.96562553045176</v>
       </c>
       <c r="I2">
-        <v>1.217176055796523</v>
+        <v>1.205888948813249</v>
       </c>
       <c r="J2">
-        <v>13.98920386926702</v>
+        <v>13.96321070557988</v>
       </c>
       <c r="K2">
-        <v>1.228296041604053</v>
+        <v>1.202197062977555</v>
       </c>
       <c r="L2">
-        <v>4.662663190860075</v>
+        <v>4.653876431670621</v>
       </c>
       <c r="M2">
-        <v>0.4071044058060783</v>
+        <v>0.405777810674541</v>
       </c>
       <c r="N2">
-        <v>9.316444110911036</v>
+        <v>9.303807035910273</v>
       </c>
       <c r="O2">
-        <v>0.8117233615223146</v>
+        <v>0.805161844198038</v>
       </c>
       <c r="P2">
-        <v>4.659927735183987</v>
+        <v>4.651150542440535</v>
       </c>
       <c r="Q2">
-        <v>0.4070774456863494</v>
+        <v>0.4046798990259574</v>
       </c>
       <c r="R2">
-        <v>13.652507426077</v>
+        <v>13.6366270506385</v>
       </c>
       <c r="S2">
-        <v>1.367607719708368</v>
+        <v>1.363825572378861</v>
       </c>
       <c r="T2">
-        <v>9.570925655684835</v>
+        <v>9.546564618749402</v>
       </c>
       <c r="U2">
-        <v>0.9720086568913392</v>
+        <v>0.9569063211797406</v>
       </c>
       <c r="V2">
-        <v>2.049557631944927</v>
+        <v>2.046676072284674</v>
       </c>
       <c r="W2">
-        <v>0.2080168742856777</v>
+        <v>0.2053500309884933</v>
       </c>
       <c r="X2">
-        <v>2.048497877901295</v>
+        <v>2.045600385880147</v>
       </c>
       <c r="Y2">
-        <v>0.2055389899766147</v>
+        <v>0.2020810848195409</v>
       </c>
       <c r="Z2">
-        <v>4.553846664383162</v>
+        <v>4.546599574325669</v>
       </c>
       <c r="AA2">
-        <v>0.4556329649594633</v>
+        <v>0.4579995583345682</v>
       </c>
       <c r="AB2">
-        <v>9.094939278979201</v>
+        <v>9.082493741908241</v>
       </c>
       <c r="AC2">
-        <v>0.9058815975891762</v>
+        <v>0.913775043797991</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -728,94 +728,94 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>107.4690496953855</v>
+        <v>107.4999799108608</v>
       </c>
       <c r="C3">
-        <v>5.368871335507748</v>
+        <v>5.333962560944331</v>
       </c>
       <c r="D3">
-        <v>52.50023805868221</v>
+        <v>52.46675744330265</v>
       </c>
       <c r="E3">
-        <v>3.705936958010723</v>
+        <v>3.728464019988526</v>
       </c>
       <c r="F3">
-        <v>52.48519301566041</v>
+        <v>52.47018579697657</v>
       </c>
       <c r="G3">
-        <v>3.715546489771008</v>
+        <v>3.662313110365205</v>
       </c>
       <c r="H3">
-        <v>15.38011553576558</v>
+        <v>15.36348564810022</v>
       </c>
       <c r="I3">
-        <v>1.342253845540057</v>
+        <v>1.319142946668338</v>
       </c>
       <c r="J3">
-        <v>15.39420539650378</v>
+        <v>15.37725722878531</v>
       </c>
       <c r="K3">
-        <v>1.337804497801032</v>
+        <v>1.311959269196772</v>
       </c>
       <c r="L3">
-        <v>5.123345417748355</v>
+        <v>5.128086980106336</v>
       </c>
       <c r="M3">
-        <v>0.4455237112909392</v>
+        <v>0.4411444562805611</v>
       </c>
       <c r="N3">
-        <v>10.24135845737844</v>
+        <v>10.24746130862732</v>
       </c>
       <c r="O3">
-        <v>0.8931609655953323</v>
+        <v>0.8821221588293368</v>
       </c>
       <c r="P3">
-        <v>5.122338159520852</v>
+        <v>5.123745454311624</v>
       </c>
       <c r="Q3">
-        <v>0.4428987762041502</v>
+        <v>0.4407277443142343</v>
       </c>
       <c r="R3">
-        <v>15.00897689759501</v>
+        <v>15.0062690541803</v>
       </c>
       <c r="S3">
-        <v>1.516793973855104</v>
+        <v>1.507876519925806</v>
       </c>
       <c r="T3">
-        <v>10.52137492695841</v>
+        <v>10.51527527040031</v>
       </c>
       <c r="U3">
-        <v>1.047622421845072</v>
+        <v>1.040384523506886</v>
       </c>
       <c r="V3">
-        <v>2.253409259365414</v>
+        <v>2.250590734494568</v>
       </c>
       <c r="W3">
-        <v>0.2263381941153235</v>
+        <v>0.2221695992820394</v>
       </c>
       <c r="X3">
-        <v>2.253467174628278</v>
+        <v>2.253461747514483</v>
       </c>
       <c r="Y3">
-        <v>0.2255298516238676</v>
+        <v>0.2229190836859074</v>
       </c>
       <c r="Z3">
-        <v>5.00196719553855</v>
+        <v>5.006359547831645</v>
       </c>
       <c r="AA3">
-        <v>0.5084272672897167</v>
+        <v>0.4999572993742571</v>
       </c>
       <c r="AB3">
-        <v>9.991768326366497</v>
+        <v>10.00862963391957</v>
       </c>
       <c r="AC3">
-        <v>0.9974199711009176</v>
+        <v>0.9928701983508448</v>
       </c>
       <c r="AD3">
-        <v>7.372348945243116</v>
+        <v>7.368155785575724</v>
       </c>
       <c r="AE3">
-        <v>0.6755443536789376</v>
+        <v>0.6845912462682704</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -823,94 +823,94 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>117.2310724260548</v>
+        <v>117.0886844932693</v>
       </c>
       <c r="C4">
-        <v>5.884620203735124</v>
+        <v>5.804913916764229</v>
       </c>
       <c r="D4">
-        <v>57.21600520979531</v>
+        <v>57.14937024497296</v>
       </c>
       <c r="E4">
-        <v>4.049990557065615</v>
+        <v>4.04019669809808</v>
       </c>
       <c r="F4">
-        <v>57.23780785019127</v>
+        <v>57.21560268390577</v>
       </c>
       <c r="G4">
-        <v>4.047529566295427</v>
+        <v>4.032495204766978</v>
       </c>
       <c r="H4">
-        <v>16.78217734806928</v>
+        <v>16.76158040815135</v>
       </c>
       <c r="I4">
-        <v>1.45623295843772</v>
+        <v>1.45374455252666</v>
       </c>
       <c r="J4">
-        <v>16.76766834775838</v>
+        <v>16.75898727863443</v>
       </c>
       <c r="K4">
-        <v>1.454602694990292</v>
+        <v>1.4525614404661</v>
       </c>
       <c r="L4">
-        <v>5.58879391272129</v>
+        <v>5.59021437836166</v>
       </c>
       <c r="M4">
-        <v>0.4821074919767904</v>
+        <v>0.4870408603027037</v>
       </c>
       <c r="N4">
-        <v>11.18665055878799</v>
+        <v>11.17457666523501</v>
       </c>
       <c r="O4">
-        <v>0.9663092401808451</v>
+        <v>0.9681912191243051</v>
       </c>
       <c r="P4">
-        <v>5.589173509459273</v>
+        <v>5.578352898197692</v>
       </c>
       <c r="Q4">
-        <v>0.4772397923351098</v>
+        <v>0.4792879383990687</v>
       </c>
       <c r="R4">
-        <v>16.39468233711406</v>
+        <v>16.3584227707492</v>
       </c>
       <c r="S4">
-        <v>1.65287861082793</v>
+        <v>1.646129499623449</v>
       </c>
       <c r="T4">
-        <v>11.46835105631324</v>
+        <v>11.46262947073411</v>
       </c>
       <c r="U4">
-        <v>1.162132632197844</v>
+        <v>1.144911435248645</v>
       </c>
       <c r="V4">
-        <v>2.455821852417531</v>
+        <v>2.455669153050422</v>
       </c>
       <c r="W4">
-        <v>0.2460570080882765</v>
+        <v>0.2469364171693575</v>
       </c>
       <c r="X4">
-        <v>2.455003809766163</v>
+        <v>2.454622350928514</v>
       </c>
       <c r="Y4">
-        <v>0.2472135546561783</v>
+        <v>0.2443820280458912</v>
       </c>
       <c r="Z4">
-        <v>5.458884610035663</v>
+        <v>5.463360596619428</v>
       </c>
       <c r="AA4">
-        <v>0.543818952767931</v>
+        <v>0.5464826477907769</v>
       </c>
       <c r="AB4">
-        <v>10.93344820662499</v>
+        <v>10.91690348357831</v>
       </c>
       <c r="AC4">
-        <v>1.095580388768803</v>
+        <v>1.098319574508232</v>
       </c>
       <c r="AD4">
-        <v>10.71232535502633</v>
+        <v>10.70674171193367</v>
       </c>
       <c r="AE4">
-        <v>0.764195839620385</v>
+        <v>0.7670908437931688</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -918,94 +918,94 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>126.9128595335928</v>
+        <v>126.846932461862</v>
       </c>
       <c r="C5">
-        <v>6.308190151723359</v>
+        <v>6.344885245972601</v>
       </c>
       <c r="D5">
-        <v>61.9445189530291</v>
+        <v>61.91598069636821</v>
       </c>
       <c r="E5">
-        <v>4.391190660448544</v>
+        <v>4.389800904904306</v>
       </c>
       <c r="F5">
-        <v>61.97702707775538</v>
+        <v>61.91692780631982</v>
       </c>
       <c r="G5">
-        <v>4.386785551197963</v>
+        <v>4.419703462398845</v>
       </c>
       <c r="H5">
-        <v>18.17799458779467</v>
+        <v>18.1556135237589</v>
       </c>
       <c r="I5">
-        <v>1.58534901868183</v>
+        <v>1.588771468690505</v>
       </c>
       <c r="J5">
-        <v>18.17857075577584</v>
+        <v>18.12678086879939</v>
       </c>
       <c r="K5">
-        <v>1.576012242133278</v>
+        <v>1.58617112081601</v>
       </c>
       <c r="L5">
-        <v>6.050767486061236</v>
+        <v>6.045328894233404</v>
       </c>
       <c r="M5">
-        <v>0.5248711388015647</v>
+        <v>0.5272437213195189</v>
       </c>
       <c r="N5">
-        <v>12.10643874483971</v>
+        <v>12.08421642041775</v>
       </c>
       <c r="O5">
-        <v>1.057704158702454</v>
+        <v>1.054888326214252</v>
       </c>
       <c r="P5">
-        <v>6.047441997961969</v>
+        <v>6.047006827375775</v>
       </c>
       <c r="Q5">
-        <v>0.5254342723255465</v>
+        <v>0.5230126909783159</v>
       </c>
       <c r="R5">
-        <v>17.74617970551801</v>
+        <v>17.72684990756796</v>
       </c>
       <c r="S5">
-        <v>1.781365482160449</v>
+        <v>1.778452601054604</v>
       </c>
       <c r="T5">
-        <v>12.4196262654344</v>
+        <v>12.40377150891795</v>
       </c>
       <c r="U5">
-        <v>1.254633267208279</v>
+        <v>1.24955238479809</v>
       </c>
       <c r="V5">
-        <v>2.660998498719005</v>
+        <v>2.652360580659209</v>
       </c>
       <c r="W5">
-        <v>0.2672038019988918</v>
+        <v>0.2661871604021431</v>
       </c>
       <c r="X5">
-        <v>2.664850311458526</v>
+        <v>2.654613705218538</v>
       </c>
       <c r="Y5">
-        <v>0.2683804114805649</v>
+        <v>0.2690910648782788</v>
       </c>
       <c r="Z5">
-        <v>5.908892707451269</v>
+        <v>5.900413140931412</v>
       </c>
       <c r="AA5">
-        <v>0.5905444484560779</v>
+        <v>0.5929936725591208</v>
       </c>
       <c r="AB5">
-        <v>11.83083346026622</v>
+        <v>11.80472994790948</v>
       </c>
       <c r="AC5">
-        <v>1.186858386216143</v>
+        <v>1.187497809116342</v>
       </c>
       <c r="AD5">
-        <v>12.70032711717295</v>
+        <v>12.69582919216973</v>
       </c>
       <c r="AE5">
-        <v>0.823795894493962</v>
+        <v>0.8138035129510648</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1013,94 +1013,94 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>136.6469179875126</v>
+        <v>136.5705129247857</v>
       </c>
       <c r="C6">
-        <v>6.810600217698586</v>
+        <v>6.75970612173507</v>
       </c>
       <c r="D6">
-        <v>66.73192903215161</v>
+        <v>66.69055644726139</v>
       </c>
       <c r="E6">
-        <v>4.731942937619205</v>
+        <v>4.688418466570812</v>
       </c>
       <c r="F6">
-        <v>66.7349956822284</v>
+        <v>66.73313593262561</v>
       </c>
       <c r="G6">
-        <v>4.754805328965299</v>
+        <v>4.649175108912045</v>
       </c>
       <c r="H6">
-        <v>19.53967549800243</v>
+        <v>19.54980108606982</v>
       </c>
       <c r="I6">
-        <v>1.705342895306732</v>
+        <v>1.689407366541243</v>
       </c>
       <c r="J6">
-        <v>19.5608134583154</v>
+        <v>19.55463759248638</v>
       </c>
       <c r="K6">
-        <v>1.724495707794357</v>
+        <v>1.672606049189457</v>
       </c>
       <c r="L6">
-        <v>6.514498637919232</v>
+        <v>6.521620389017065</v>
       </c>
       <c r="M6">
-        <v>0.5670619220766443</v>
+        <v>0.5641852162505951</v>
       </c>
       <c r="N6">
-        <v>13.02626724431786</v>
+        <v>13.04442352084233</v>
       </c>
       <c r="O6">
-        <v>1.147595274721482</v>
+        <v>1.118692284419742</v>
       </c>
       <c r="P6">
-        <v>6.518312700843218</v>
+        <v>6.510062976029635</v>
       </c>
       <c r="Q6">
-        <v>0.5718533202039047</v>
+        <v>0.5555453790349753</v>
       </c>
       <c r="R6">
-        <v>19.07565332575725</v>
+        <v>19.08086449778672</v>
       </c>
       <c r="S6">
-        <v>1.928680338163154</v>
+        <v>1.886044130573799</v>
       </c>
       <c r="T6">
-        <v>13.37197135334621</v>
+        <v>13.36606135097504</v>
       </c>
       <c r="U6">
-        <v>1.354923761362716</v>
+        <v>1.31750866461807</v>
       </c>
       <c r="V6">
-        <v>2.866743085220864</v>
+        <v>2.865430353754571</v>
       </c>
       <c r="W6">
-        <v>0.2888707342921314</v>
+        <v>0.2841932635535515</v>
       </c>
       <c r="X6">
-        <v>2.863110298165759</v>
+        <v>2.864105273515941</v>
       </c>
       <c r="Y6">
-        <v>0.2925387273302901</v>
+        <v>0.2820244053905548</v>
       </c>
       <c r="Z6">
-        <v>6.357502572373698</v>
+        <v>6.370128558034181</v>
       </c>
       <c r="AA6">
-        <v>0.6385736797379331</v>
+        <v>0.6394672199393368</v>
       </c>
       <c r="AB6">
-        <v>12.72255869022288</v>
+        <v>12.74534564521791</v>
       </c>
       <c r="AC6">
-        <v>1.288233049587784</v>
+        <v>1.264025251263064</v>
       </c>
       <c r="AD6">
-        <v>14.18271696622134</v>
+        <v>14.17297833577554</v>
       </c>
       <c r="AE6">
-        <v>0.8838762394311076</v>
+        <v>0.8835724436042283</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1108,94 +1108,94 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>146.4201018466202</v>
+        <v>146.5267656094836</v>
       </c>
       <c r="C7">
-        <v>7.331997696413489</v>
+        <v>7.30547244146561</v>
       </c>
       <c r="D7">
-        <v>71.46612421117167</v>
+        <v>71.55186643944782</v>
       </c>
       <c r="E7">
-        <v>5.034235676279882</v>
+        <v>5.071090581304462</v>
       </c>
       <c r="F7">
-        <v>71.4809808981619</v>
+        <v>71.54018533470837</v>
       </c>
       <c r="G7">
-        <v>5.022783423171558</v>
+        <v>5.054600251853232</v>
       </c>
       <c r="H7">
-        <v>20.93897590922656</v>
+        <v>20.95908526821945</v>
       </c>
       <c r="I7">
-        <v>1.814459535922169</v>
+        <v>1.819001043070207</v>
       </c>
       <c r="J7">
-        <v>20.93711931518088</v>
+        <v>20.97247913229295</v>
       </c>
       <c r="K7">
-        <v>1.810213391411621</v>
+        <v>1.824941722419326</v>
       </c>
       <c r="L7">
-        <v>6.979709172075223</v>
+        <v>6.990191278357714</v>
       </c>
       <c r="M7">
-        <v>0.5991497607923655</v>
+        <v>0.6084725437122434</v>
       </c>
       <c r="N7">
-        <v>13.98137129478802</v>
+        <v>13.97037361091941</v>
       </c>
       <c r="O7">
-        <v>1.206489703845426</v>
+        <v>1.209305747717153</v>
       </c>
       <c r="P7">
-        <v>6.980232917066878</v>
+        <v>6.987848768172535</v>
       </c>
       <c r="Q7">
-        <v>0.598617126653965</v>
+        <v>0.6033387808170776</v>
       </c>
       <c r="R7">
-        <v>20.44307940634074</v>
+        <v>20.46845315384227</v>
       </c>
       <c r="S7">
-        <v>2.058212874340541</v>
+        <v>2.056046345422741</v>
       </c>
       <c r="T7">
-        <v>14.3246345432041</v>
+        <v>14.33265411237959</v>
       </c>
       <c r="U7">
-        <v>1.427990284084225</v>
+        <v>1.427106985298055</v>
       </c>
       <c r="V7">
-        <v>3.06627733282392</v>
+        <v>3.073075611430011</v>
       </c>
       <c r="W7">
-        <v>0.3063337408521753</v>
+        <v>0.3081106578678851</v>
       </c>
       <c r="X7">
-        <v>3.067776901140571</v>
+        <v>3.072686734878488</v>
       </c>
       <c r="Y7">
-        <v>0.309507855471685</v>
+        <v>0.3075381041165265</v>
       </c>
       <c r="Z7">
-        <v>6.809798728908872</v>
+        <v>6.822580393810157</v>
       </c>
       <c r="AA7">
-        <v>0.6769386226635449</v>
+        <v>0.6860221378268152</v>
       </c>
       <c r="AB7">
-        <v>13.65074283592537</v>
+        <v>13.64248915230988</v>
       </c>
       <c r="AC7">
-        <v>1.368472264776675</v>
+        <v>1.365661150812247</v>
       </c>
       <c r="AD7">
-        <v>15.45790832273801</v>
+        <v>15.45487332909488</v>
       </c>
       <c r="AE7">
-        <v>0.955228303307546</v>
+        <v>0.9632805916581081</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1203,94 +1203,94 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>156.1490888456432</v>
+        <v>156.1848726418374</v>
       </c>
       <c r="C8">
-        <v>7.754088908970128</v>
+        <v>7.781030611014761</v>
       </c>
       <c r="D8">
-        <v>76.1960582157725</v>
+        <v>76.26554081771557</v>
       </c>
       <c r="E8">
-        <v>5.3228439847163</v>
+        <v>5.415004973206933</v>
       </c>
       <c r="F8">
-        <v>76.2205688059944</v>
+        <v>76.2304871400553</v>
       </c>
       <c r="G8">
-        <v>5.440445719964557</v>
+        <v>5.434189769268445</v>
       </c>
       <c r="H8">
-        <v>22.32413051362839</v>
+        <v>22.31276818144923</v>
       </c>
       <c r="I8">
-        <v>1.947615532477032</v>
+        <v>1.948024335872671</v>
       </c>
       <c r="J8">
-        <v>22.31100309962218</v>
+        <v>22.322713815559</v>
       </c>
       <c r="K8">
-        <v>1.938226900919125</v>
+        <v>1.941662205787937</v>
       </c>
       <c r="L8">
-        <v>7.447847810100168</v>
+        <v>7.444377961916651</v>
       </c>
       <c r="M8">
-        <v>0.6509794246312437</v>
+        <v>0.6518818134078537</v>
       </c>
       <c r="N8">
-        <v>14.89405797340814</v>
+        <v>14.88461268148798</v>
       </c>
       <c r="O8">
-        <v>1.304229057044297</v>
+        <v>1.297250635969219</v>
       </c>
       <c r="P8">
-        <v>7.446508727396949</v>
+        <v>7.444249047902053</v>
       </c>
       <c r="Q8">
-        <v>0.6570686615395465</v>
+        <v>0.6496532127440464</v>
       </c>
       <c r="R8">
-        <v>21.77580588989996</v>
+        <v>21.78782983918718</v>
       </c>
       <c r="S8">
-        <v>2.194669706018219</v>
+        <v>2.187531519396166</v>
       </c>
       <c r="T8">
-        <v>15.25370250837401</v>
+        <v>15.26449172131452</v>
       </c>
       <c r="U8">
-        <v>1.535682033888799</v>
+        <v>1.529403310828618</v>
       </c>
       <c r="V8">
-        <v>3.26419603732946</v>
+        <v>3.270806935856406</v>
       </c>
       <c r="W8">
-        <v>0.3283263852336324</v>
+        <v>0.3317697617626746</v>
       </c>
       <c r="X8">
-        <v>3.268788847093142</v>
+        <v>3.267722229766366</v>
       </c>
       <c r="Y8">
-        <v>0.3275846996565692</v>
+        <v>0.3297172279240871</v>
       </c>
       <c r="Z8">
-        <v>7.273011032811583</v>
+        <v>7.266512655892159</v>
       </c>
       <c r="AA8">
-        <v>0.7306978967380643</v>
+        <v>0.728927099616726</v>
       </c>
       <c r="AB8">
-        <v>14.55506704911751</v>
+        <v>14.54696655227376</v>
       </c>
       <c r="AC8">
-        <v>1.455241391556121</v>
+        <v>1.477133862083572</v>
       </c>
       <c r="AD8">
-        <v>16.69918496683835</v>
+        <v>16.68358807642494</v>
       </c>
       <c r="AE8">
-        <v>1.03455507951063</v>
+        <v>1.025915226558094</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1298,94 +1298,94 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>165.9562658086908</v>
+        <v>166.0194743236419</v>
       </c>
       <c r="C9">
-        <v>8.361176386865283</v>
+        <v>8.381057021214582</v>
       </c>
       <c r="D9">
-        <v>80.93696249434218</v>
+        <v>80.97331991996714</v>
       </c>
       <c r="E9">
-        <v>5.731195871756846</v>
+        <v>5.814527522313528</v>
       </c>
       <c r="F9">
-        <v>81.02888197587681</v>
+        <v>81.03321790255646</v>
       </c>
       <c r="G9">
-        <v>5.656330122916373</v>
+        <v>5.7973273059794</v>
       </c>
       <c r="H9">
-        <v>23.73937681353509</v>
+        <v>23.74356712271661</v>
       </c>
       <c r="I9">
-        <v>2.040110962260095</v>
+        <v>2.078199781173059</v>
       </c>
       <c r="J9">
-        <v>23.75498876672323</v>
+        <v>23.75248300554667</v>
       </c>
       <c r="K9">
-        <v>2.045318118512273</v>
+        <v>2.087129245340771</v>
       </c>
       <c r="L9">
-        <v>7.909387547468564</v>
+        <v>7.916081604343498</v>
       </c>
       <c r="M9">
-        <v>0.6879044387434307</v>
+        <v>0.6974273804425692</v>
       </c>
       <c r="N9">
-        <v>15.83890864346364</v>
+        <v>15.83177054262648</v>
       </c>
       <c r="O9">
-        <v>1.362009655540148</v>
+        <v>1.398507985604165</v>
       </c>
       <c r="P9">
-        <v>7.914220539611475</v>
+        <v>7.917437579482851</v>
       </c>
       <c r="Q9">
-        <v>0.6776674080135168</v>
+        <v>0.6862078713997326</v>
       </c>
       <c r="R9">
-        <v>23.18576383307029</v>
+        <v>23.17014865186867</v>
       </c>
       <c r="S9">
-        <v>2.322109024113031</v>
+        <v>2.353524168600779</v>
       </c>
       <c r="T9">
-        <v>16.23386374697989</v>
+        <v>16.22572801421606</v>
       </c>
       <c r="U9">
-        <v>1.620521377486078</v>
+        <v>1.641550471102239</v>
       </c>
       <c r="V9">
-        <v>3.479236651686254</v>
+        <v>3.479401870042318</v>
       </c>
       <c r="W9">
-        <v>0.3471132516623116</v>
+        <v>0.3498632733805184</v>
       </c>
       <c r="X9">
-        <v>3.481299927257099</v>
+        <v>3.474563819652189</v>
       </c>
       <c r="Y9">
-        <v>0.3489303661527067</v>
+        <v>0.3504363228337662</v>
       </c>
       <c r="Z9">
-        <v>7.725723538376863</v>
+        <v>7.733669775639899</v>
       </c>
       <c r="AA9">
-        <v>0.7732795614353258</v>
+        <v>0.7914948249097317</v>
       </c>
       <c r="AB9">
-        <v>15.45520466952656</v>
+        <v>15.46659456334293</v>
       </c>
       <c r="AC9">
-        <v>1.541955212754239</v>
+        <v>1.560989320626252</v>
       </c>
       <c r="AD9">
-        <v>17.88397211981506</v>
+        <v>17.859547965598</v>
       </c>
       <c r="AE9">
-        <v>1.09160365005955</v>
+        <v>1.093229915544613</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1393,94 +1393,94 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>175.6666034419184</v>
+        <v>175.8717798629194</v>
       </c>
       <c r="C10">
-        <v>8.778584257166253</v>
+        <v>8.810213253153279</v>
       </c>
       <c r="D10">
-        <v>85.85058659766943</v>
+        <v>85.89868606706543</v>
       </c>
       <c r="E10">
-        <v>6.040451379391639</v>
+        <v>6.058483153766512</v>
       </c>
       <c r="F10">
-        <v>85.78848546973316</v>
+        <v>85.93556073498242</v>
       </c>
       <c r="G10">
-        <v>6.0776456743336</v>
+        <v>6.10528122598943</v>
       </c>
       <c r="H10">
-        <v>25.1219245734015</v>
+        <v>25.17546122149175</v>
       </c>
       <c r="I10">
-        <v>2.187858646019474</v>
+        <v>2.190209455679724</v>
       </c>
       <c r="J10">
-        <v>25.13265619943946</v>
+        <v>25.19067841797684</v>
       </c>
       <c r="K10">
-        <v>2.190816144206597</v>
+        <v>2.180853434816485</v>
       </c>
       <c r="L10">
-        <v>8.364604928416764</v>
+        <v>8.392617290234988</v>
       </c>
       <c r="M10">
-        <v>0.7285596203659983</v>
+        <v>0.7304266271198995</v>
       </c>
       <c r="N10">
-        <v>16.74728547395789</v>
+        <v>16.77645922626674</v>
       </c>
       <c r="O10">
-        <v>1.453790919627458</v>
+        <v>1.453443577384761</v>
       </c>
       <c r="P10">
-        <v>8.37513740235314</v>
+        <v>8.396837600742366</v>
       </c>
       <c r="Q10">
-        <v>0.7214917552425488</v>
+        <v>0.7289700395991967</v>
       </c>
       <c r="R10">
-        <v>24.52523831596102</v>
+        <v>24.58132705219057</v>
       </c>
       <c r="S10">
-        <v>2.457552634423607</v>
+        <v>2.462330513789323</v>
       </c>
       <c r="T10">
-        <v>17.18054252355309</v>
+        <v>17.21250445055155</v>
       </c>
       <c r="U10">
-        <v>1.710156000539431</v>
+        <v>1.717798252150587</v>
       </c>
       <c r="V10">
-        <v>3.678928192793042</v>
+        <v>3.689825884300994</v>
       </c>
       <c r="W10">
-        <v>0.3710363331893051</v>
+        <v>0.3710864215437481</v>
       </c>
       <c r="X10">
-        <v>3.678808198702273</v>
+        <v>3.690583077043434</v>
       </c>
       <c r="Y10">
-        <v>0.369653944517303</v>
+        <v>0.3707396741651903</v>
       </c>
       <c r="Z10">
-        <v>8.167144955195011</v>
+        <v>8.201578278680682</v>
       </c>
       <c r="AA10">
-        <v>0.8197413840036117</v>
+        <v>0.8218924382014567</v>
       </c>
       <c r="AB10">
-        <v>16.36004032757204</v>
+        <v>16.38242693783606</v>
       </c>
       <c r="AC10">
-        <v>1.642849681137918</v>
+        <v>1.637284573172439</v>
       </c>
       <c r="AD10">
-        <v>19.02987187843658</v>
+        <v>19.02892981571738</v>
       </c>
       <c r="AE10">
-        <v>1.164443409680608</v>
+        <v>1.16558516905241</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1488,94 +1488,94 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>185.6810170651285</v>
+        <v>185.6437667652706</v>
       </c>
       <c r="C11">
-        <v>9.271083608517639</v>
+        <v>9.239851398669323</v>
       </c>
       <c r="D11">
-        <v>90.69423337572861</v>
+        <v>90.62148662815297</v>
       </c>
       <c r="E11">
-        <v>6.437005148980842</v>
+        <v>6.377014725757021</v>
       </c>
       <c r="F11">
-        <v>90.61134995426217</v>
+        <v>90.61831709806992</v>
       </c>
       <c r="G11">
-        <v>6.416777969304062</v>
+        <v>6.391574659337879</v>
       </c>
       <c r="H11">
-        <v>26.52562967549614</v>
+        <v>26.55571202744601</v>
       </c>
       <c r="I11">
-        <v>2.341188811338852</v>
+        <v>2.27316144381657</v>
       </c>
       <c r="J11">
-        <v>26.54722495392874</v>
+        <v>26.52477381321614</v>
       </c>
       <c r="K11">
-        <v>2.301722375469065</v>
+        <v>2.288543543830139</v>
       </c>
       <c r="L11">
-        <v>8.841010940841626</v>
+        <v>8.84825337782871</v>
       </c>
       <c r="M11">
-        <v>0.7636374151272086</v>
+        <v>0.764969315172258</v>
       </c>
       <c r="N11">
-        <v>17.71009773065237</v>
+        <v>17.69973598954239</v>
       </c>
       <c r="O11">
-        <v>1.527937136875428</v>
+        <v>1.527593515339456</v>
       </c>
       <c r="P11">
-        <v>8.849497457947237</v>
+        <v>8.855886647490795</v>
       </c>
       <c r="Q11">
-        <v>0.7703131746134636</v>
+        <v>0.7660577163139415</v>
       </c>
       <c r="R11">
-        <v>25.91730782389694</v>
+        <v>25.95986832073707</v>
       </c>
       <c r="S11">
-        <v>2.633976554264951</v>
+        <v>2.552538929067938</v>
       </c>
       <c r="T11">
-        <v>18.14317774113335</v>
+        <v>18.11175241055502</v>
       </c>
       <c r="U11">
-        <v>1.807617524285968</v>
+        <v>1.807878193546204</v>
       </c>
       <c r="V11">
-        <v>3.889684761913048</v>
+        <v>3.88664088994948</v>
       </c>
       <c r="W11">
-        <v>0.3885108508421009</v>
+        <v>0.3865932939914069</v>
       </c>
       <c r="X11">
-        <v>3.888028752357878</v>
+        <v>3.887631886797168</v>
       </c>
       <c r="Y11">
-        <v>0.391571195205915</v>
+        <v>0.3873283810028086</v>
       </c>
       <c r="Z11">
-        <v>8.639679011264253</v>
+        <v>8.637020498482727</v>
       </c>
       <c r="AA11">
-        <v>0.8672794811223905</v>
+        <v>0.8693287412047193</v>
       </c>
       <c r="AB11">
-        <v>17.29891889661817</v>
+        <v>17.28802148877364</v>
       </c>
       <c r="AC11">
-        <v>1.729850954623757</v>
+        <v>1.724738187469277</v>
       </c>
       <c r="AD11">
-        <v>20.20015365059482</v>
+        <v>20.1798162207439</v>
       </c>
       <c r="AE11">
-        <v>1.229454834664053</v>
+        <v>1.216782664107201</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1583,94 +1583,94 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>195.3434971091164</v>
+        <v>195.3205732961485</v>
       </c>
       <c r="C12">
-        <v>9.849497126232462</v>
+        <v>9.72494212308157</v>
       </c>
       <c r="D12">
-        <v>95.39318754625303</v>
+        <v>95.31586805145658</v>
       </c>
       <c r="E12">
-        <v>6.777581768798567</v>
+        <v>6.67832054223016</v>
       </c>
       <c r="F12">
-        <v>95.34979863737843</v>
+        <v>95.42419994110072</v>
       </c>
       <c r="G12">
-        <v>6.752529193491484</v>
+        <v>6.805590227548558</v>
       </c>
       <c r="H12">
-        <v>27.937026498452</v>
+        <v>27.95445056889975</v>
       </c>
       <c r="I12">
-        <v>2.427754059945258</v>
+        <v>2.440940224354863</v>
       </c>
       <c r="J12">
-        <v>27.94331586565363</v>
+        <v>27.95660279749524</v>
       </c>
       <c r="K12">
-        <v>2.431156696306357</v>
+        <v>2.431403963469185</v>
       </c>
       <c r="L12">
-        <v>9.306016826450639</v>
+        <v>9.322398207294617</v>
       </c>
       <c r="M12">
-        <v>0.8026654600130749</v>
+        <v>0.8121227326953098</v>
       </c>
       <c r="N12">
-        <v>18.61992570957205</v>
+        <v>18.6308168853282</v>
       </c>
       <c r="O12">
-        <v>1.6199825394872</v>
+        <v>1.638326420394173</v>
       </c>
       <c r="P12">
-        <v>9.307485501501702</v>
+        <v>9.318301745843895</v>
       </c>
       <c r="Q12">
-        <v>0.8086028789099253</v>
+        <v>0.8161784970034296</v>
       </c>
       <c r="R12">
-        <v>27.26582318616436</v>
+        <v>27.30157770974791</v>
       </c>
       <c r="S12">
-        <v>2.73086770511303</v>
+        <v>2.726208143416704</v>
       </c>
       <c r="T12">
-        <v>19.09087526720059</v>
+        <v>19.1088266977928</v>
       </c>
       <c r="U12">
-        <v>1.932131843534748</v>
+        <v>1.916954083753347</v>
       </c>
       <c r="V12">
-        <v>4.095377165888474</v>
+        <v>4.093502307868456</v>
       </c>
       <c r="W12">
-        <v>0.4105067513610147</v>
+        <v>0.4121646742342502</v>
       </c>
       <c r="X12">
-        <v>4.094791789550492</v>
+        <v>4.096473411407988</v>
       </c>
       <c r="Y12">
-        <v>0.4125707031643359</v>
+        <v>0.4100634418167761</v>
       </c>
       <c r="Z12">
-        <v>9.094919094251955</v>
+        <v>9.106837460294583</v>
       </c>
       <c r="AA12">
-        <v>0.9036707218631197</v>
+        <v>0.9095772748352475</v>
       </c>
       <c r="AB12">
-        <v>18.17428313977379</v>
+        <v>18.18645262208891</v>
       </c>
       <c r="AC12">
-        <v>1.825776134821596</v>
+        <v>1.837950408973784</v>
       </c>
       <c r="AD12">
-        <v>21.33496252231171</v>
+        <v>21.35369320020526</v>
       </c>
       <c r="AE12">
-        <v>1.293758492403544</v>
+        <v>1.295722822129171</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1678,94 +1678,94 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>9.760078089340343</v>
+        <v>9.773646747703646</v>
       </c>
       <c r="C13">
-        <v>0.4910924594484246</v>
+        <v>0.485252432406541</v>
       </c>
       <c r="D13">
-        <v>4.768471330286225</v>
+        <v>4.773023600361858</v>
       </c>
       <c r="E13">
-        <v>0.3344051815401589</v>
+        <v>0.336868134567627</v>
       </c>
       <c r="F13">
-        <v>4.76756499530712</v>
+        <v>4.771869739191751</v>
       </c>
       <c r="G13">
-        <v>0.3379507984297281</v>
+        <v>0.3366027507201426</v>
       </c>
       <c r="H13">
-        <v>1.39743093547606</v>
+        <v>1.398672870126207</v>
       </c>
       <c r="I13">
-        <v>0.1217765759575207</v>
+        <v>0.1202542538710446</v>
       </c>
       <c r="J13">
-        <v>1.396373748460661</v>
+        <v>1.39903803420847</v>
       </c>
       <c r="K13">
-        <v>0.1215278166094527</v>
+        <v>0.1206410081149758</v>
       </c>
       <c r="L13">
-        <v>0.4654235419045305</v>
+        <v>0.4655505170625525</v>
       </c>
       <c r="M13">
-        <v>0.04023250089122585</v>
+        <v>0.03987375626164184</v>
       </c>
       <c r="N13">
-        <v>0.9314350814694424</v>
+        <v>0.932280704634964</v>
       </c>
       <c r="O13">
-        <v>0.08047961525707534</v>
+        <v>0.08131925140383081</v>
       </c>
       <c r="P13">
-        <v>0.4654918432307258</v>
+        <v>0.4660865794825312</v>
       </c>
       <c r="Q13">
-        <v>0.04040408509441308</v>
+        <v>0.04051137802255833</v>
       </c>
       <c r="R13">
-        <v>1.365026776322102</v>
+        <v>1.365356699113033</v>
       </c>
       <c r="S13">
-        <v>0.1377310571224477</v>
+        <v>0.1353274390634078</v>
       </c>
       <c r="T13">
-        <v>0.9545969005967956</v>
+        <v>0.956154258341964</v>
       </c>
       <c r="U13">
-        <v>0.09643703514439027</v>
+        <v>0.09532643335715525</v>
       </c>
       <c r="V13">
-        <v>0.2044400960795777</v>
+        <v>0.2049138273568462</v>
       </c>
       <c r="W13">
-        <v>0.02054123438529558</v>
+        <v>0.02038015981881133</v>
       </c>
       <c r="X13">
-        <v>0.204471314411708</v>
+        <v>0.2047042887724999</v>
       </c>
       <c r="Y13">
-        <v>0.02055510091225659</v>
+        <v>0.0204869731882583</v>
       </c>
       <c r="Z13">
-        <v>0.454551098698508</v>
+        <v>0.4546457301048235</v>
       </c>
       <c r="AA13">
-        <v>0.04550891234965194</v>
+        <v>0.04487979542667998</v>
       </c>
       <c r="AB13">
-        <v>0.9086274108987138</v>
+        <v>0.9114096234112025</v>
       </c>
       <c r="AC13">
-        <v>0.09089308064456093</v>
+        <v>0.09165690000803466</v>
       </c>
       <c r="AD13">
-        <v>22.48654108696284</v>
+        <v>22.5166686406116</v>
       </c>
       <c r="AE13">
-        <v>1.360618173981611</v>
+        <v>1.368554393194534</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1773,94 +1773,94 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>214.8113957858982</v>
+        <v>214.8417054849822</v>
       </c>
       <c r="C14">
-        <v>10.64640805111347</v>
+        <v>10.59597376404074</v>
       </c>
       <c r="D14">
-        <v>104.9232366340188</v>
+        <v>104.888025756371</v>
       </c>
       <c r="E14">
-        <v>7.355998111615529</v>
+        <v>7.2996719995267</v>
       </c>
       <c r="F14">
-        <v>104.8614133621236</v>
+        <v>104.9371598688431</v>
       </c>
       <c r="G14">
-        <v>7.354190948217155</v>
+        <v>7.330649824769964</v>
       </c>
       <c r="H14">
-        <v>30.73219126191001</v>
+        <v>30.72647416499017</v>
       </c>
       <c r="I14">
-        <v>2.652707872828179</v>
+        <v>2.637495399473988</v>
       </c>
       <c r="J14">
-        <v>30.73564280876719</v>
+        <v>30.70790643397734</v>
       </c>
       <c r="K14">
-        <v>2.647065427733064</v>
+        <v>2.64033073449832</v>
       </c>
       <c r="L14">
-        <v>10.22544993103826</v>
+        <v>10.23959035465376</v>
       </c>
       <c r="M14">
-        <v>0.8857229342597387</v>
+        <v>0.8774972500064268</v>
       </c>
       <c r="N14">
-        <v>20.48367464736302</v>
+        <v>20.47714967112094</v>
       </c>
       <c r="O14">
-        <v>1.768098380003768</v>
+        <v>1.781570937446514</v>
       </c>
       <c r="P14">
-        <v>10.23014255704009</v>
+        <v>10.24319546520589</v>
       </c>
       <c r="Q14">
-        <v>0.8864459726335885</v>
+        <v>0.875389803750199</v>
       </c>
       <c r="R14">
-        <v>30.02879409409802</v>
+        <v>30.00835813077056</v>
       </c>
       <c r="S14">
-        <v>3.005949901582108</v>
+        <v>2.975732815303742</v>
       </c>
       <c r="T14">
-        <v>20.99489890490699</v>
+        <v>20.98060935058923</v>
       </c>
       <c r="U14">
-        <v>2.097394715923897</v>
+        <v>2.093276856538269</v>
       </c>
       <c r="V14">
-        <v>4.504381784858157</v>
+        <v>4.498206837012043</v>
       </c>
       <c r="W14">
-        <v>0.4494138787197352</v>
+        <v>0.4441278859303963</v>
       </c>
       <c r="X14">
-        <v>4.50062655735077</v>
+        <v>4.493975674511363</v>
       </c>
       <c r="Y14">
-        <v>0.449235490477256</v>
+        <v>0.4469382337761971</v>
       </c>
       <c r="Z14">
-        <v>9.984541979742456</v>
+        <v>10.00545598085799</v>
       </c>
       <c r="AA14">
-        <v>0.9961265223547358</v>
+        <v>0.9939545013537671</v>
       </c>
       <c r="AB14">
-        <v>20.00285490125553</v>
+        <v>20.0044696446874</v>
       </c>
       <c r="AC14">
-        <v>1.994605089850489</v>
+        <v>2.013330470447922</v>
       </c>
       <c r="AD14">
-        <v>8.914652296237389</v>
+        <v>8.92852938373051</v>
       </c>
       <c r="AE14">
-        <v>0.6015901249780607</v>
+        <v>0.6077678480671124</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1868,94 +1868,94 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>224.6401855184596</v>
+        <v>224.6616468491734</v>
       </c>
       <c r="C15">
-        <v>11.16189253228384</v>
+        <v>11.2056668045992</v>
       </c>
       <c r="D15">
-        <v>109.6205154405548</v>
+        <v>109.796189683582</v>
       </c>
       <c r="E15">
-        <v>7.654302196056959</v>
+        <v>7.792750456665888</v>
       </c>
       <c r="F15">
-        <v>109.7615495639412</v>
+        <v>109.6644732761595</v>
       </c>
       <c r="G15">
-        <v>7.748856416579356</v>
+        <v>7.825009228264806</v>
       </c>
       <c r="H15">
-        <v>32.15322082121273</v>
+        <v>32.123726552484</v>
       </c>
       <c r="I15">
-        <v>2.766738577136466</v>
+        <v>2.824300760326184</v>
       </c>
       <c r="J15">
-        <v>32.18099969268525</v>
+        <v>32.11151851749099</v>
       </c>
       <c r="K15">
-        <v>2.779753137285263</v>
+        <v>2.806821239339191</v>
       </c>
       <c r="L15">
-        <v>10.71550229207643</v>
+        <v>10.70985228122962</v>
       </c>
       <c r="M15">
-        <v>0.9241460669732597</v>
+        <v>0.9305879368236676</v>
       </c>
       <c r="N15">
-        <v>21.44451214811414</v>
+        <v>21.40748521574286</v>
       </c>
       <c r="O15">
-        <v>1.863089970860824</v>
+        <v>1.856883106992507</v>
       </c>
       <c r="P15">
-        <v>10.7160850887032</v>
+        <v>10.71380314816736</v>
       </c>
       <c r="Q15">
-        <v>0.9277468457774742</v>
+        <v>0.9353830648719804</v>
       </c>
       <c r="R15">
-        <v>31.40511895610637</v>
+        <v>31.36714260359792</v>
       </c>
       <c r="S15">
-        <v>3.133782381726991</v>
+        <v>3.166816452861034</v>
       </c>
       <c r="T15">
-        <v>21.99476309774843</v>
+        <v>21.96703369071476</v>
       </c>
       <c r="U15">
-        <v>2.192307903450349</v>
+        <v>2.212123020686254</v>
       </c>
       <c r="V15">
-        <v>4.711709497877968</v>
+        <v>4.707051869911735</v>
       </c>
       <c r="W15">
-        <v>0.4722705385931796</v>
+        <v>0.4750193489691705</v>
       </c>
       <c r="X15">
-        <v>4.711279305836434</v>
+        <v>4.702073949895019</v>
       </c>
       <c r="Y15">
-        <v>0.4671612939087724</v>
+        <v>0.4702009368760078</v>
       </c>
       <c r="Z15">
-        <v>10.4642255808768</v>
+        <v>10.45592205859838</v>
       </c>
       <c r="AA15">
-        <v>1.045053990489774</v>
+        <v>1.053001880724064</v>
       </c>
       <c r="AB15">
-        <v>20.92752946304008</v>
+        <v>20.91439962511186</v>
       </c>
       <c r="AC15">
-        <v>2.099973270882854</v>
+        <v>2.107066125994079</v>
       </c>
       <c r="AD15">
-        <v>19.60109520517362</v>
+        <v>19.61979678996686</v>
       </c>
       <c r="AE15">
-        <v>1.434085793125583</v>
+        <v>1.444083604896225</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1963,94 +1963,94 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>234.1691329985586</v>
+        <v>234.2956437888963</v>
       </c>
       <c r="C16">
-        <v>11.82422007439742</v>
+        <v>11.81597192560938</v>
       </c>
       <c r="D16">
-        <v>114.1979210916049</v>
+        <v>114.4697605972943</v>
       </c>
       <c r="E16">
-        <v>8.055223027451857</v>
+        <v>8.069205164351706</v>
       </c>
       <c r="F16">
-        <v>114.3700936477728</v>
+        <v>114.4121575891766</v>
       </c>
       <c r="G16">
-        <v>8.175933493972618</v>
+        <v>8.136677806413468</v>
       </c>
       <c r="H16">
-        <v>33.50260614197365</v>
+        <v>33.51401591627006</v>
       </c>
       <c r="I16">
-        <v>2.930952034557207</v>
+        <v>2.908243466650118</v>
       </c>
       <c r="J16">
-        <v>33.51747265872685</v>
+        <v>33.552070285982</v>
       </c>
       <c r="K16">
-        <v>2.955022997467125</v>
+        <v>2.925519194660659</v>
       </c>
       <c r="L16">
-        <v>11.16356973614392</v>
+        <v>11.17966111638212</v>
       </c>
       <c r="M16">
-        <v>0.9791774353250605</v>
+        <v>0.9728997799945195</v>
       </c>
       <c r="N16">
-        <v>22.34365763077763</v>
+        <v>22.32814418301204</v>
       </c>
       <c r="O16">
-        <v>1.939228485749483</v>
+        <v>1.942179984242197</v>
       </c>
       <c r="P16">
-        <v>11.1795499224939</v>
+        <v>11.16915433064526</v>
       </c>
       <c r="Q16">
-        <v>0.9752416543477082</v>
+        <v>0.9787243528468959</v>
       </c>
       <c r="R16">
-        <v>32.67688386675013</v>
+        <v>32.75460905162304</v>
       </c>
       <c r="S16">
-        <v>3.275244615113863</v>
+        <v>3.295199391528989</v>
       </c>
       <c r="T16">
-        <v>22.92435071646238</v>
+        <v>22.93936231360221</v>
       </c>
       <c r="U16">
-        <v>2.317381816852479</v>
+        <v>2.308121584073811</v>
       </c>
       <c r="V16">
-        <v>4.914612804164506</v>
+        <v>4.91488106516873</v>
       </c>
       <c r="W16">
-        <v>0.4980151612040119</v>
+        <v>0.4928359819450551</v>
       </c>
       <c r="X16">
-        <v>4.911234190285851</v>
+        <v>4.913531689965978</v>
       </c>
       <c r="Y16">
-        <v>0.4958647353531061</v>
+        <v>0.4916434983622058</v>
       </c>
       <c r="Z16">
-        <v>10.89924982458976</v>
+        <v>10.92012176135455</v>
       </c>
       <c r="AA16">
-        <v>1.108345664190942</v>
+        <v>1.099726848821691</v>
       </c>
       <c r="AB16">
-        <v>21.80667532753686</v>
+        <v>21.80444534585792</v>
       </c>
       <c r="AC16">
-        <v>2.189131014128607</v>
+        <v>2.18315443063826</v>
       </c>
       <c r="AD16">
-        <v>23.96864383276632</v>
+        <v>24.00019696517437</v>
       </c>
       <c r="AE16">
-        <v>1.589757420619669</v>
+        <v>1.574592646183936</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2058,94 +2058,94 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>244.087539419083</v>
+        <v>244.004972862531</v>
       </c>
       <c r="C17">
-        <v>12.29423886650597</v>
+        <v>12.28576413480627</v>
       </c>
       <c r="D17">
-        <v>119.2095767918735</v>
+        <v>119.1688053624976</v>
       </c>
       <c r="E17">
-        <v>8.421079296541937</v>
+        <v>8.448555761489171</v>
       </c>
       <c r="F17">
-        <v>119.1580966394139</v>
+        <v>119.1718804273348</v>
       </c>
       <c r="G17">
-        <v>8.454141339106936</v>
+        <v>8.457266165968495</v>
       </c>
       <c r="H17">
-        <v>34.92320367875021</v>
+        <v>34.89542407301762</v>
       </c>
       <c r="I17">
-        <v>3.047758552344657</v>
+        <v>3.04603437446437</v>
       </c>
       <c r="J17">
-        <v>34.91267629428238</v>
+        <v>34.87777760237228</v>
       </c>
       <c r="K17">
-        <v>3.036466211815779</v>
+        <v>3.018397159431641</v>
       </c>
       <c r="L17">
-        <v>11.63450844519636</v>
+        <v>11.64850143978098</v>
       </c>
       <c r="M17">
-        <v>1.012558835091154</v>
+        <v>1.014851869655963</v>
       </c>
       <c r="N17">
-        <v>23.2708467261197</v>
+        <v>23.26840535490009</v>
       </c>
       <c r="O17">
-        <v>2.022984612348492</v>
+        <v>2.012811887302833</v>
       </c>
       <c r="P17">
-        <v>11.63829285277766</v>
+        <v>11.64290132727022</v>
       </c>
       <c r="Q17">
-        <v>1.016957711064765</v>
+        <v>1.004717180843059</v>
       </c>
       <c r="R17">
-        <v>34.09902473006778</v>
+        <v>34.0397703939591</v>
       </c>
       <c r="S17">
-        <v>3.467456165566963</v>
+        <v>3.39933208520641</v>
       </c>
       <c r="T17">
-        <v>23.86855569874113</v>
+        <v>23.84548502199455</v>
       </c>
       <c r="U17">
-        <v>2.390826819924688</v>
+        <v>2.360538640990793</v>
       </c>
       <c r="V17">
-        <v>5.111489377229284</v>
+        <v>5.107680004981011</v>
       </c>
       <c r="W17">
-        <v>0.5149955934543849</v>
+        <v>0.5088177490280044</v>
       </c>
       <c r="X17">
-        <v>5.116348685540753</v>
+        <v>5.112434599818985</v>
       </c>
       <c r="Y17">
-        <v>0.516423043530968</v>
+        <v>0.5095594055980721</v>
       </c>
       <c r="Z17">
-        <v>11.36146149466519</v>
+        <v>11.37701503477315</v>
       </c>
       <c r="AA17">
-        <v>1.138678789507294</v>
+        <v>1.144059611766884</v>
       </c>
       <c r="AB17">
-        <v>22.72239590828765</v>
+        <v>22.71948755982101</v>
       </c>
       <c r="AC17">
-        <v>2.291437356522303</v>
+        <v>2.273789589878921</v>
       </c>
       <c r="AD17">
-        <v>26.38058780390211</v>
+        <v>26.36410039076626</v>
       </c>
       <c r="AE17">
-        <v>1.637632828116999</v>
+        <v>1.664010320657584</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2153,94 +2153,94 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>254.0548995706282</v>
+        <v>253.9039278119924</v>
       </c>
       <c r="C18">
-        <v>12.68701827581386</v>
+        <v>12.55948824384052</v>
       </c>
       <c r="D18">
-        <v>124.0503606138534</v>
+        <v>123.9224444383995</v>
       </c>
       <c r="E18">
-        <v>8.740844854833822</v>
+        <v>8.820973292279151</v>
       </c>
       <c r="F18">
-        <v>124.0510203756533</v>
+        <v>123.9622979230436</v>
       </c>
       <c r="G18">
-        <v>8.814375378409569</v>
+        <v>8.654302006097637</v>
       </c>
       <c r="H18">
-        <v>36.334741374359</v>
+        <v>36.32441469965745</v>
       </c>
       <c r="I18">
-        <v>3.18327623589393</v>
+        <v>3.124617204109494</v>
       </c>
       <c r="J18">
-        <v>36.3419117695603</v>
+        <v>36.3307622050264</v>
       </c>
       <c r="K18">
-        <v>3.158423471502819</v>
+        <v>3.133104938085344</v>
       </c>
       <c r="L18">
-        <v>12.1169787992865</v>
+        <v>12.10826314894246</v>
       </c>
       <c r="M18">
-        <v>1.05383819434858</v>
+        <v>1.042860778450265</v>
       </c>
       <c r="N18">
-        <v>24.22936618229897</v>
+        <v>24.19560027955335</v>
       </c>
       <c r="O18">
-        <v>2.123739441991367</v>
+        <v>2.076655883998317</v>
       </c>
       <c r="P18">
-        <v>12.10414539634156</v>
+        <v>12.10628603710483</v>
       </c>
       <c r="Q18">
-        <v>1.053012935597556</v>
+        <v>1.04458684366437</v>
       </c>
       <c r="R18">
-        <v>35.49723057334552</v>
+        <v>35.45840949474967</v>
       </c>
       <c r="S18">
-        <v>3.584431404266858</v>
+        <v>3.549992562999473</v>
       </c>
       <c r="T18">
-        <v>24.83063771666643</v>
+        <v>24.84513543829954</v>
       </c>
       <c r="U18">
-        <v>2.481697219684859</v>
+        <v>2.47664251201974</v>
       </c>
       <c r="V18">
-        <v>5.321142981476153</v>
+        <v>5.323119726826036</v>
       </c>
       <c r="W18">
-        <v>0.535617370945432</v>
+        <v>0.5321684277759251</v>
       </c>
       <c r="X18">
-        <v>5.324406865194416</v>
+        <v>5.32075760973309</v>
       </c>
       <c r="Y18">
-        <v>0.5348346254914962</v>
+        <v>0.5298316637293191</v>
       </c>
       <c r="Z18">
-        <v>11.82129759780273</v>
+        <v>11.82636796927518</v>
       </c>
       <c r="AA18">
-        <v>1.178647649787134</v>
+        <v>1.180574186698435</v>
       </c>
       <c r="AB18">
-        <v>23.64958513886906</v>
+        <v>23.6196100565639</v>
       </c>
       <c r="AC18">
-        <v>2.378978717308799</v>
+        <v>2.347354148592698</v>
       </c>
       <c r="AD18">
-        <v>27.99514944731339</v>
+        <v>27.96490186418922</v>
       </c>
       <c r="AE18">
-        <v>1.691098315843784</v>
+        <v>1.726018478674219</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2248,94 +2248,94 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>263.5316735194092</v>
+        <v>263.5141079013231</v>
       </c>
       <c r="C19">
-        <v>13.12012568191924</v>
+        <v>13.20097197807847</v>
       </c>
       <c r="D19">
-        <v>128.5398623931006</v>
+        <v>128.7312466169371</v>
       </c>
       <c r="E19">
-        <v>9.087343638369935</v>
+        <v>9.158080897294086</v>
       </c>
       <c r="F19">
-        <v>128.6468350753207</v>
+        <v>128.6914776349437</v>
       </c>
       <c r="G19">
-        <v>9.057478510728942</v>
+        <v>9.069621516957124</v>
       </c>
       <c r="H19">
-        <v>37.67837211625556</v>
+        <v>37.72757062948132</v>
       </c>
       <c r="I19">
-        <v>3.277864753840103</v>
+        <v>3.263578246471599</v>
       </c>
       <c r="J19">
-        <v>37.65684357962831</v>
+        <v>37.69550834192502</v>
       </c>
       <c r="K19">
-        <v>3.244084627365581</v>
+        <v>3.238732621030961</v>
       </c>
       <c r="L19">
-        <v>12.56467308403488</v>
+        <v>12.5587832686396</v>
       </c>
       <c r="M19">
-        <v>1.086705352633025</v>
+        <v>1.090231504440106</v>
       </c>
       <c r="N19">
-        <v>25.13701835167214</v>
+        <v>25.13695739880981</v>
       </c>
       <c r="O19">
-        <v>2.172402743690142</v>
+        <v>2.18669799517183</v>
       </c>
       <c r="P19">
-        <v>12.5633970925507</v>
+        <v>12.55930972561721</v>
       </c>
       <c r="Q19">
-        <v>1.091079306047103</v>
+        <v>1.09627213717298</v>
       </c>
       <c r="R19">
-        <v>36.80109439157537</v>
+        <v>36.82945167429199</v>
       </c>
       <c r="S19">
-        <v>3.694363486945925</v>
+        <v>3.653796611966681</v>
       </c>
       <c r="T19">
-        <v>25.7358038438077</v>
+        <v>25.76659871465641</v>
       </c>
       <c r="U19">
-        <v>2.568470428437429</v>
+        <v>2.56264868541031</v>
       </c>
       <c r="V19">
-        <v>5.516073362904057</v>
+        <v>5.527524904899892</v>
       </c>
       <c r="W19">
-        <v>0.5466751775246869</v>
+        <v>0.550352430174999</v>
       </c>
       <c r="X19">
-        <v>5.517587617285335</v>
+        <v>5.522082054959893</v>
       </c>
       <c r="Y19">
-        <v>0.5484651367437964</v>
+        <v>0.5514953558782516</v>
       </c>
       <c r="Z19">
-        <v>12.27142621242666</v>
+        <v>12.25184162742676</v>
       </c>
       <c r="AA19">
-        <v>1.218535521130483</v>
+        <v>1.216620818790156</v>
       </c>
       <c r="AB19">
-        <v>24.55288495568188</v>
+        <v>24.56225737540131</v>
       </c>
       <c r="AC19">
-        <v>2.456169716254337</v>
+        <v>2.475867652771688</v>
       </c>
       <c r="AD19">
-        <v>29.3716627338768</v>
+        <v>29.33063928243339</v>
       </c>
       <c r="AE19">
-        <v>1.769151107493949</v>
+        <v>1.777606465508533</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2343,94 +2343,94 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>273.3501309818226</v>
+        <v>273.463293060288</v>
       </c>
       <c r="C20">
-        <v>13.63041872704246</v>
+        <v>13.66527999499943</v>
       </c>
       <c r="D20">
-        <v>133.4643455346672</v>
+        <v>133.5249771512233</v>
       </c>
       <c r="E20">
-        <v>9.434643189618894</v>
+        <v>9.47172167573606</v>
       </c>
       <c r="F20">
-        <v>133.4258922843381</v>
+        <v>133.4622841248598</v>
       </c>
       <c r="G20">
-        <v>9.497978064183537</v>
+        <v>9.398922596833366</v>
       </c>
       <c r="H20">
-        <v>39.05339497889323</v>
+        <v>39.11716311026209</v>
       </c>
       <c r="I20">
-        <v>3.405685542321219</v>
+        <v>3.371065130745208</v>
       </c>
       <c r="J20">
-        <v>39.11254508323146</v>
+        <v>39.12294632352649</v>
       </c>
       <c r="K20">
-        <v>3.428324745014658</v>
+        <v>3.393702783762495</v>
       </c>
       <c r="L20">
-        <v>13.03038308684851</v>
+        <v>13.01794132876746</v>
       </c>
       <c r="M20">
-        <v>1.133740399166218</v>
+        <v>1.125121778687908</v>
       </c>
       <c r="N20">
-        <v>26.03398745375664</v>
+        <v>26.04675380003627</v>
       </c>
       <c r="O20">
-        <v>2.267317825324724</v>
+        <v>2.26156334370321</v>
       </c>
       <c r="P20">
-        <v>13.03386129632247</v>
+        <v>13.02963044817942</v>
       </c>
       <c r="Q20">
-        <v>1.124258050985049</v>
+        <v>1.116961349311888</v>
       </c>
       <c r="R20">
-        <v>38.1366328046951</v>
+        <v>38.20806909870372</v>
       </c>
       <c r="S20">
-        <v>3.833293304854217</v>
+        <v>3.800657862045989</v>
       </c>
       <c r="T20">
-        <v>26.72997256804176</v>
+        <v>26.7345961770862</v>
       </c>
       <c r="U20">
-        <v>2.682385981876711</v>
+        <v>2.680181119645213</v>
       </c>
       <c r="V20">
-        <v>5.735719314593344</v>
+        <v>5.730947237341171</v>
       </c>
       <c r="W20">
-        <v>0.583619602798673</v>
+        <v>0.5723712251452865</v>
       </c>
       <c r="X20">
-        <v>5.736066823987209</v>
+        <v>5.734743972392686</v>
       </c>
       <c r="Y20">
-        <v>0.5810465397524337</v>
+        <v>0.5722140068264827</v>
       </c>
       <c r="Z20">
-        <v>12.7116573266458</v>
+        <v>12.71611214413977</v>
       </c>
       <c r="AA20">
-        <v>1.266791336197036</v>
+        <v>1.269490306756347</v>
       </c>
       <c r="AB20">
-        <v>25.42772928228856</v>
+        <v>25.41248580881878</v>
       </c>
       <c r="AC20">
-        <v>2.570036434102814</v>
+        <v>2.546110098711912</v>
       </c>
       <c r="AD20">
-        <v>30.5715353274513</v>
+        <v>30.58404886809275</v>
       </c>
       <c r="AE20">
-        <v>1.854055473074594</v>
+        <v>1.837405396340571</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2438,94 +2438,94 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>283.2420208878725</v>
+        <v>283.1896077580124</v>
       </c>
       <c r="C21">
-        <v>14.02348826670024</v>
+        <v>14.20507895838255</v>
       </c>
       <c r="D21">
-        <v>138.3255885231114</v>
+        <v>138.1652993243335</v>
       </c>
       <c r="E21">
-        <v>9.733766152967508</v>
+        <v>9.659981547496606</v>
       </c>
       <c r="F21">
-        <v>138.3827833219141</v>
+        <v>138.2603543212453</v>
       </c>
       <c r="G21">
-        <v>9.760021028376277</v>
+        <v>9.895391847761264</v>
       </c>
       <c r="H21">
-        <v>40.50341265742044</v>
+        <v>40.50520942766124</v>
       </c>
       <c r="I21">
-        <v>3.498298336662687</v>
+        <v>3.532586914090071</v>
       </c>
       <c r="J21">
-        <v>40.54444626654233</v>
+        <v>40.53352983409942</v>
       </c>
       <c r="K21">
-        <v>3.529023282456474</v>
+        <v>3.55673326119974</v>
       </c>
       <c r="L21">
-        <v>13.51692438301697</v>
+        <v>13.50711264102229</v>
       </c>
       <c r="M21">
-        <v>1.169907927371885</v>
+        <v>1.179855940664291</v>
       </c>
       <c r="N21">
-        <v>27.04027476902565</v>
+        <v>26.99011326528636</v>
       </c>
       <c r="O21">
-        <v>2.369623559347062</v>
+        <v>2.335154589648841</v>
       </c>
       <c r="P21">
-        <v>13.50596823031548</v>
+        <v>13.49613330536629</v>
       </c>
       <c r="Q21">
-        <v>1.171362084154382</v>
+        <v>1.187432522803979</v>
       </c>
       <c r="R21">
-        <v>39.53199804946729</v>
+        <v>39.54017597351871</v>
       </c>
       <c r="S21">
-        <v>3.941099435547305</v>
+        <v>3.972431165702621</v>
       </c>
       <c r="T21">
-        <v>27.70639525100345</v>
+        <v>27.71359547327201</v>
       </c>
       <c r="U21">
-        <v>2.778253956596076</v>
+        <v>2.813945604794076</v>
       </c>
       <c r="V21">
-        <v>5.936044645990652</v>
+        <v>5.934308666470969</v>
       </c>
       <c r="W21">
-        <v>0.5971028230732687</v>
+        <v>0.5989754380458826</v>
       </c>
       <c r="X21">
-        <v>5.937956891350723</v>
+        <v>5.939631791380488</v>
       </c>
       <c r="Y21">
-        <v>0.5927747798513341</v>
+        <v>0.5981547105402578</v>
       </c>
       <c r="Z21">
-        <v>13.19841249188899</v>
+        <v>13.17563584863595</v>
       </c>
       <c r="AA21">
-        <v>1.31441049446449</v>
+        <v>1.329651469500115</v>
       </c>
       <c r="AB21">
-        <v>26.4038790444319</v>
+        <v>26.35945708208117</v>
       </c>
       <c r="AC21">
-        <v>2.669206901550822</v>
+        <v>2.665546152394008</v>
       </c>
       <c r="AD21">
-        <v>31.76620797508791</v>
+        <v>31.73030149042418</v>
       </c>
       <c r="AE21">
-        <v>1.92905710470004</v>
+        <v>1.904999987709259</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2533,94 +2533,94 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>293.093333053042</v>
+        <v>292.7764720141634</v>
       </c>
       <c r="C22">
-        <v>14.55981260198738</v>
+        <v>14.63125245142319</v>
       </c>
       <c r="D22">
-        <v>143.0848852776929</v>
+        <v>142.9915822248621</v>
       </c>
       <c r="E22">
-        <v>10.07405916807217</v>
+        <v>10.05884875247148</v>
       </c>
       <c r="F22">
-        <v>143.1503636173892</v>
+        <v>143.0216134287163</v>
       </c>
       <c r="G22">
-        <v>10.1203586304982</v>
+        <v>10.11325933289812</v>
       </c>
       <c r="H22">
-        <v>41.94515659102909</v>
+        <v>41.90820764479848</v>
       </c>
       <c r="I22">
-        <v>3.631584340960294</v>
+        <v>3.637867153518841</v>
       </c>
       <c r="J22">
-        <v>41.9202244027485</v>
+        <v>41.91163708218241</v>
       </c>
       <c r="K22">
-        <v>3.656878340479992</v>
+        <v>3.631158854242322</v>
       </c>
       <c r="L22">
-        <v>13.96788174447804</v>
+        <v>13.97697801452409</v>
       </c>
       <c r="M22">
-        <v>1.204151857113321</v>
+        <v>1.208735320246781</v>
       </c>
       <c r="N22">
-        <v>27.97144541605044</v>
+        <v>27.9437527932997</v>
       </c>
       <c r="O22">
-        <v>2.436029900662725</v>
+        <v>2.431645410069116</v>
       </c>
       <c r="P22">
-        <v>13.97089344933339</v>
+        <v>13.96779498096736</v>
       </c>
       <c r="Q22">
-        <v>1.217564767453766</v>
+        <v>1.218825143144408</v>
       </c>
       <c r="R22">
-        <v>40.95446805367963</v>
+        <v>40.93994085943595</v>
       </c>
       <c r="S22">
-        <v>4.103142035048388</v>
+        <v>4.09027785080628</v>
       </c>
       <c r="T22">
-        <v>28.66990569636933</v>
+        <v>28.66000321086687</v>
       </c>
       <c r="U22">
-        <v>2.873694800748638</v>
+        <v>2.865087589810087</v>
       </c>
       <c r="V22">
-        <v>6.140291575328671</v>
+        <v>6.14481994904349</v>
       </c>
       <c r="W22">
-        <v>0.6180121853715844</v>
+        <v>0.6184396640279174</v>
       </c>
       <c r="X22">
-        <v>6.141485852423127</v>
+        <v>6.136846716471763</v>
       </c>
       <c r="Y22">
-        <v>0.6148893636820442</v>
+        <v>0.6079910717158389</v>
       </c>
       <c r="Z22">
-        <v>13.64144394593365</v>
+        <v>13.65285239299819</v>
       </c>
       <c r="AA22">
-        <v>1.358564655487728</v>
+        <v>1.368017736781351</v>
       </c>
       <c r="AB22">
-        <v>27.3185349999338</v>
+        <v>27.28194509283602</v>
       </c>
       <c r="AC22">
-        <v>2.731455603944711</v>
+        <v>2.737266759170334</v>
       </c>
       <c r="AD22">
-        <v>32.94851582396804</v>
+        <v>32.90648852780614</v>
       </c>
       <c r="AE22">
-        <v>2.007661521777218</v>
+        <v>1.979305631935833</v>
       </c>
     </row>
   </sheetData>
@@ -2706,64 +2706,64 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>47.71000129422978</v>
+        <v>47.72338051965068</v>
       </c>
       <c r="C2">
-        <v>3.407260698708934</v>
+        <v>3.391970947048117</v>
       </c>
       <c r="D2">
-        <v>47.71000129422978</v>
+        <v>47.72338051965068</v>
       </c>
       <c r="E2">
-        <v>3.407260698708934</v>
+        <v>3.391970947048117</v>
       </c>
       <c r="F2">
-        <v>4.659927735183987</v>
+        <v>4.651150542440535</v>
       </c>
       <c r="G2">
-        <v>0.4070774456863494</v>
+        <v>0.4046798990259574</v>
       </c>
       <c r="H2">
-        <v>4.659927735183987</v>
+        <v>4.651150542440535</v>
       </c>
       <c r="I2">
-        <v>0.4070774456863494</v>
+        <v>0.4046798990259574</v>
       </c>
       <c r="J2">
-        <v>23.22343308176188</v>
+        <v>23.18319166938799</v>
       </c>
       <c r="K2">
-        <v>2.041439834185943</v>
+        <v>2.020467114895485</v>
       </c>
       <c r="L2">
-        <v>23.22343308176188</v>
+        <v>23.18319166938799</v>
       </c>
       <c r="M2">
-        <v>2.041439834185943</v>
+        <v>2.020467114895485</v>
       </c>
       <c r="N2">
-        <v>15.69834357530726</v>
+        <v>15.67576938851865</v>
       </c>
       <c r="O2">
-        <v>1.325152101165906</v>
+        <v>1.335672402636186</v>
       </c>
       <c r="P2">
-        <v>15.69834357530726</v>
+        <v>15.67576938851865</v>
       </c>
       <c r="Q2">
-        <v>1.325152101165906</v>
+        <v>1.335672402636186</v>
       </c>
       <c r="R2">
-        <v>2.048497877901295</v>
+        <v>2.045600385880147</v>
       </c>
       <c r="S2">
-        <v>0.2055389899766147</v>
+        <v>0.2020810848195409</v>
       </c>
       <c r="T2">
-        <v>2.048497877901295</v>
+        <v>2.045600385880147</v>
       </c>
       <c r="U2">
-        <v>0.2055389899766147</v>
+        <v>0.2020810848195409</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2771,64 +2771,64 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>52.50023805868221</v>
+        <v>52.46675744330265</v>
       </c>
       <c r="C3">
-        <v>3.705936958010723</v>
+        <v>3.728464019988526</v>
       </c>
       <c r="D3">
-        <v>100.2102393529113</v>
+        <v>100.1901379629532</v>
       </c>
       <c r="E3">
-        <v>5.021322906550283</v>
+        <v>5.027856667142395</v>
       </c>
       <c r="F3">
-        <v>5.122338159520852</v>
+        <v>5.123745454311624</v>
       </c>
       <c r="G3">
-        <v>0.4428987762041502</v>
+        <v>0.4407277443142343</v>
       </c>
       <c r="H3">
-        <v>9.782265894704921</v>
+        <v>9.774895996752145</v>
       </c>
       <c r="I3">
-        <v>0.6000425268552263</v>
+        <v>0.6034910759566472</v>
       </c>
       <c r="J3">
-        <v>18.1580028793102</v>
+        <v>18.15338853900486</v>
       </c>
       <c r="K3">
-        <v>2.332922721194169</v>
+        <v>2.316885979143897</v>
       </c>
       <c r="L3">
-        <v>41.3814359610722</v>
+        <v>41.33658020839277</v>
       </c>
       <c r="M3">
-        <v>3.073692826001237</v>
+        <v>3.093543690444875</v>
       </c>
       <c r="N3">
-        <v>24.61949372651367</v>
+        <v>24.6337357018214</v>
       </c>
       <c r="O3">
-        <v>1.610292604841105</v>
+        <v>1.602518834851535</v>
       </c>
       <c r="P3">
-        <v>40.31783730182106</v>
+        <v>40.30950509034005</v>
       </c>
       <c r="Q3">
-        <v>2.079667391796395</v>
+        <v>2.088105983372718</v>
       </c>
       <c r="R3">
-        <v>2.253467174628278</v>
+        <v>2.253461747514483</v>
       </c>
       <c r="S3">
-        <v>0.2255298516238676</v>
+        <v>0.2229190836859074</v>
       </c>
       <c r="T3">
-        <v>4.301965052529585</v>
+        <v>4.299062133394633</v>
       </c>
       <c r="U3">
-        <v>0.3041646359255185</v>
+        <v>0.3008017531452682</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2836,64 +2836,64 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>57.21600520979531</v>
+        <v>57.14937024497296</v>
       </c>
       <c r="C4">
-        <v>4.049990557065615</v>
+        <v>4.04019669809808</v>
       </c>
       <c r="D4">
-        <v>157.4262445627079</v>
+        <v>157.3395082079263</v>
       </c>
       <c r="E4">
-        <v>6.487598915879007</v>
+        <v>6.473146848325313</v>
       </c>
       <c r="F4">
-        <v>5.589173509459273</v>
+        <v>5.578352898197692</v>
       </c>
       <c r="G4">
-        <v>0.4772397923351098</v>
+        <v>0.4792879383990687</v>
       </c>
       <c r="H4">
-        <v>15.37143940416419</v>
+        <v>15.35324889494984</v>
       </c>
       <c r="I4">
-        <v>0.7626611782578661</v>
+        <v>0.7701959034473248</v>
       </c>
       <c r="J4">
-        <v>17.15070803840095</v>
+        <v>17.1143105295497</v>
       </c>
       <c r="K4">
-        <v>2.568424654713685</v>
+        <v>2.5437562758284</v>
       </c>
       <c r="L4">
-        <v>58.53214399947321</v>
+        <v>58.45089073794263</v>
       </c>
       <c r="M4">
-        <v>4.041829876404836</v>
+        <v>4.052204541156516</v>
       </c>
       <c r="N4">
-        <v>29.56048002410466</v>
+        <v>29.54267494518175</v>
       </c>
       <c r="O4">
-        <v>1.769261486446357</v>
+        <v>1.776572073068898</v>
       </c>
       <c r="P4">
-        <v>69.87831732592562</v>
+        <v>69.85218003552215</v>
       </c>
       <c r="Q4">
-        <v>2.776760636160823</v>
+        <v>2.807466498665439</v>
       </c>
       <c r="R4">
-        <v>2.455003809766163</v>
+        <v>2.454622350928514</v>
       </c>
       <c r="S4">
-        <v>0.2472135546561783</v>
+        <v>0.2443820280458912</v>
       </c>
       <c r="T4">
-        <v>6.756968862295725</v>
+        <v>6.753684484323109</v>
       </c>
       <c r="U4">
-        <v>0.3880824751600359</v>
+        <v>0.385930698354458</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2901,64 +2901,64 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>61.9445189530291</v>
+        <v>61.91598069636821</v>
       </c>
       <c r="C5">
-        <v>4.391190660448544</v>
+        <v>4.389800904904306</v>
       </c>
       <c r="D5">
-        <v>219.3707635157362</v>
+        <v>219.2554889042946</v>
       </c>
       <c r="E5">
-        <v>7.833841156932075</v>
+        <v>7.830181838465704</v>
       </c>
       <c r="F5">
-        <v>6.047441997961969</v>
+        <v>6.047006827375775</v>
       </c>
       <c r="G5">
-        <v>0.5254342723255465</v>
+        <v>0.5230126909783159</v>
       </c>
       <c r="H5">
-        <v>21.41888140212614</v>
+        <v>21.40025572232557</v>
       </c>
       <c r="I5">
-        <v>0.9269014262472339</v>
+        <v>0.9300722995778062</v>
       </c>
       <c r="J5">
-        <v>17.46547885377952</v>
+        <v>17.43479222431617</v>
       </c>
       <c r="K5">
-        <v>2.757319286070848</v>
+        <v>2.757913171262953</v>
       </c>
       <c r="L5">
-        <v>75.99762285325225</v>
+        <v>75.88568296225863</v>
       </c>
       <c r="M5">
-        <v>4.958721089415983</v>
+        <v>4.934283798816299</v>
       </c>
       <c r="N5">
-        <v>33.10105178360935</v>
+        <v>33.05333286166985</v>
       </c>
       <c r="O5">
-        <v>1.914428224644172</v>
+        <v>1.923390827080797</v>
       </c>
       <c r="P5">
-        <v>102.9793691095351</v>
+        <v>102.905512897192</v>
       </c>
       <c r="Q5">
-        <v>3.470855841919145</v>
+        <v>3.482809947717293</v>
       </c>
       <c r="R5">
-        <v>2.664850311458526</v>
+        <v>2.654613705218538</v>
       </c>
       <c r="S5">
-        <v>0.2683804114805649</v>
+        <v>0.2690910648782788</v>
       </c>
       <c r="T5">
-        <v>9.421819173754223</v>
+        <v>9.408298189541741</v>
       </c>
       <c r="U5">
-        <v>0.4724243987703552</v>
+        <v>0.4694201318788717</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2966,64 +2966,64 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>66.73192903215161</v>
+        <v>66.69055644726139</v>
       </c>
       <c r="C6">
-        <v>4.731942937619205</v>
+        <v>4.688418466570812</v>
       </c>
       <c r="D6">
-        <v>286.1026925478888</v>
+        <v>285.9460453515559</v>
       </c>
       <c r="E6">
-        <v>9.137265702598713</v>
+        <v>9.11705658971626</v>
       </c>
       <c r="F6">
-        <v>6.518312700843218</v>
+        <v>6.510062976029635</v>
       </c>
       <c r="G6">
-        <v>0.5718533202039047</v>
+        <v>0.5555453790349753</v>
       </c>
       <c r="H6">
-        <v>27.93719410296921</v>
+        <v>27.9103186983553</v>
       </c>
       <c r="I6">
-        <v>1.091015190385442</v>
+        <v>1.085691173209115</v>
       </c>
       <c r="J6">
-        <v>18.264907712882</v>
+        <v>18.27394751298617</v>
       </c>
       <c r="K6">
-        <v>2.990166566990986</v>
+        <v>2.898130580869074</v>
       </c>
       <c r="L6">
-        <v>94.26253056613454</v>
+        <v>94.15963047524474</v>
       </c>
       <c r="M6">
-        <v>5.803786462120018</v>
+        <v>5.763141866923171</v>
       </c>
       <c r="N6">
-        <v>36.129521314039</v>
+        <v>36.15388289278225</v>
       </c>
       <c r="O6">
-        <v>2.083125441330254</v>
+        <v>2.046784023365431</v>
       </c>
       <c r="P6">
-        <v>139.108890423574</v>
+        <v>139.059395789974</v>
       </c>
       <c r="Q6">
-        <v>4.151515333801767</v>
+        <v>4.128015219446025</v>
       </c>
       <c r="R6">
-        <v>2.863110298165759</v>
+        <v>2.864105273515941</v>
       </c>
       <c r="S6">
-        <v>0.2925387273302901</v>
+        <v>0.2820244053905548</v>
       </c>
       <c r="T6">
-        <v>12.28492947192004</v>
+        <v>12.27240346305766</v>
       </c>
       <c r="U6">
-        <v>0.5559639051757923</v>
+        <v>0.5425367520703558</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -3031,64 +3031,64 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>71.46612421117167</v>
+        <v>71.55186643944782</v>
       </c>
       <c r="C7">
-        <v>5.034235676279882</v>
+        <v>5.071090581304462</v>
       </c>
       <c r="D7">
-        <v>357.5688167590595</v>
+        <v>357.4979117910041</v>
       </c>
       <c r="E7">
-        <v>10.37860671215516</v>
+        <v>10.41590477691832</v>
       </c>
       <c r="F7">
-        <v>6.980232917066878</v>
+        <v>6.987848768172535</v>
       </c>
       <c r="G7">
-        <v>0.598617126653965</v>
+        <v>0.6033387808170776</v>
       </c>
       <c r="H7">
-        <v>34.91742702003602</v>
+        <v>34.89816746652753</v>
       </c>
       <c r="I7">
-        <v>1.247938552664722</v>
+        <v>1.237984789994567</v>
       </c>
       <c r="J7">
-        <v>19.30980562680692</v>
+        <v>19.34623393712707</v>
       </c>
       <c r="K7">
-        <v>3.187017720183674</v>
+        <v>3.186790315496309</v>
       </c>
       <c r="L7">
-        <v>113.5723361929418</v>
+        <v>113.5058644123717</v>
       </c>
       <c r="M7">
-        <v>6.700285747413624</v>
+        <v>6.633391122688959</v>
       </c>
       <c r="N7">
-        <v>38.98472722039624</v>
+        <v>38.99301848664494</v>
       </c>
       <c r="O7">
-        <v>2.198545870910359</v>
+        <v>2.219695530461598</v>
       </c>
       <c r="P7">
-        <v>178.0936176439692</v>
+        <v>178.0524142766193</v>
       </c>
       <c r="Q7">
-        <v>4.812272328890682</v>
+        <v>4.766975741547844</v>
       </c>
       <c r="R7">
-        <v>3.067776901140571</v>
+        <v>3.072686734878488</v>
       </c>
       <c r="S7">
-        <v>0.309507855471685</v>
+        <v>0.3075381041165265</v>
       </c>
       <c r="T7">
-        <v>15.3527063730606</v>
+        <v>15.34509019793615</v>
       </c>
       <c r="U7">
-        <v>0.6374733884813757</v>
+        <v>0.6193509164986777</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3096,64 +3096,64 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>76.1960582157725</v>
+        <v>76.26554081771557</v>
       </c>
       <c r="C8">
-        <v>5.3228439847163</v>
+        <v>5.415004973206933</v>
       </c>
       <c r="D8">
-        <v>433.7648749748308</v>
+        <v>433.7634526087192</v>
       </c>
       <c r="E8">
-        <v>11.69055509408267</v>
+        <v>11.7446554087222</v>
       </c>
       <c r="F8">
-        <v>7.446508727396949</v>
+        <v>7.444249047902053</v>
       </c>
       <c r="G8">
-        <v>0.6570686615395465</v>
+        <v>0.6496532127440464</v>
       </c>
       <c r="H8">
-        <v>42.36393574743332</v>
+        <v>42.34241651442984</v>
       </c>
       <c r="I8">
-        <v>1.400974675871563</v>
+        <v>1.400799467167477</v>
       </c>
       <c r="J8">
-        <v>20.33032343143568</v>
+        <v>20.36873348407685</v>
       </c>
       <c r="K8">
-        <v>3.423007530876411</v>
+        <v>3.395430751738352</v>
       </c>
       <c r="L8">
-        <v>133.902659624377</v>
+        <v>133.8745978964489</v>
       </c>
       <c r="M8">
-        <v>7.608127481645888</v>
+        <v>7.558650571560992</v>
       </c>
       <c r="N8">
-        <v>41.79145908609672</v>
+        <v>41.7678742204472</v>
       </c>
       <c r="O8">
-        <v>2.362252747442622</v>
+        <v>2.387119286148673</v>
       </c>
       <c r="P8">
-        <v>219.8850767300662</v>
+        <v>219.8202884970659</v>
       </c>
       <c r="Q8">
-        <v>5.470807306737041</v>
+        <v>5.458011698779996</v>
       </c>
       <c r="R8">
-        <v>3.268788847093142</v>
+        <v>3.267722229766366</v>
       </c>
       <c r="S8">
-        <v>0.3275846996565692</v>
+        <v>0.3297172279240871</v>
       </c>
       <c r="T8">
-        <v>18.62149522015376</v>
+        <v>18.61281242770249</v>
       </c>
       <c r="U8">
-        <v>0.7184071434433098</v>
+        <v>0.697999407066258</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -3161,64 +3161,64 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>80.93696249434218</v>
+        <v>80.97331991996714</v>
       </c>
       <c r="C9">
-        <v>5.731195871756846</v>
+        <v>5.814527522313528</v>
       </c>
       <c r="D9">
-        <v>514.7018374691735</v>
+        <v>514.7367725286853</v>
       </c>
       <c r="E9">
-        <v>13.05670668333424</v>
+        <v>13.01814520810763</v>
       </c>
       <c r="F9">
-        <v>7.914220539611475</v>
+        <v>7.917437579482851</v>
       </c>
       <c r="G9">
-        <v>0.6776674080135168</v>
+        <v>0.6862078713997326</v>
       </c>
       <c r="H9">
-        <v>50.2781562870446</v>
+        <v>50.25985409391271</v>
       </c>
       <c r="I9">
-        <v>1.566100532049048</v>
+        <v>1.547888633240531</v>
       </c>
       <c r="J9">
-        <v>21.53565546023516</v>
+        <v>21.53632870048668</v>
       </c>
       <c r="K9">
-        <v>3.587318798688874</v>
+        <v>3.65192270362609</v>
       </c>
       <c r="L9">
-        <v>155.438315084612</v>
+        <v>155.410926596935</v>
       </c>
       <c r="M9">
-        <v>8.497902537115662</v>
+        <v>8.471495963151423</v>
       </c>
       <c r="N9">
-        <v>44.54413697940468</v>
+        <v>44.53921417462326</v>
       </c>
       <c r="O9">
-        <v>2.501055788747998</v>
+        <v>2.541318830545152</v>
       </c>
       <c r="P9">
-        <v>264.4292137094727</v>
+        <v>264.3595026716893</v>
       </c>
       <c r="Q9">
-        <v>6.136525617518089</v>
+        <v>6.111468227672019</v>
       </c>
       <c r="R9">
-        <v>3.481299927257099</v>
+        <v>3.474563819652189</v>
       </c>
       <c r="S9">
-        <v>0.3489303661527067</v>
+        <v>0.3504363228337662</v>
       </c>
       <c r="T9">
-        <v>22.10279514741081</v>
+        <v>22.08737624735473</v>
       </c>
       <c r="U9">
-        <v>0.7977417934758533</v>
+        <v>0.7818038747364692</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3226,64 +3226,64 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>85.85058659766943</v>
+        <v>85.89868606706543</v>
       </c>
       <c r="C10">
-        <v>6.040451379391639</v>
+        <v>6.058483153766512</v>
       </c>
       <c r="D10">
-        <v>600.5524240668411</v>
+        <v>600.6354585957511</v>
       </c>
       <c r="E10">
-        <v>14.38210232318224</v>
+        <v>14.45431904052498</v>
       </c>
       <c r="F10">
-        <v>8.37513740235314</v>
+        <v>8.396837600742366</v>
       </c>
       <c r="G10">
-        <v>0.7214917552425488</v>
+        <v>0.7289700395991967</v>
       </c>
       <c r="H10">
-        <v>58.65329368939784</v>
+        <v>58.65669169465482</v>
       </c>
       <c r="I10">
-        <v>1.728001671967932</v>
+        <v>1.720831735944193</v>
       </c>
       <c r="J10">
-        <v>22.67590896107746</v>
+        <v>22.76490168702458</v>
       </c>
       <c r="K10">
-        <v>3.807230325716463</v>
+        <v>3.802102542465178</v>
       </c>
       <c r="L10">
-        <v>178.11422404569</v>
+        <v>178.1758282839602</v>
       </c>
       <c r="M10">
-        <v>9.371103656073307</v>
+        <v>9.440771184190751</v>
       </c>
       <c r="N10">
-        <v>47.23598535399653</v>
+        <v>47.3027609165351</v>
       </c>
       <c r="O10">
-        <v>2.675764571110878</v>
+        <v>2.666736567678924</v>
       </c>
       <c r="P10">
-        <v>311.6651990634679</v>
+        <v>311.6622635882251</v>
       </c>
       <c r="Q10">
-        <v>6.805622724065197</v>
+        <v>6.815673811473935</v>
       </c>
       <c r="R10">
-        <v>3.678808198702273</v>
+        <v>3.690583077043434</v>
       </c>
       <c r="S10">
-        <v>0.369653944517303</v>
+        <v>0.3707396741651903</v>
       </c>
       <c r="T10">
-        <v>25.78160334611318</v>
+        <v>25.77795932439811</v>
       </c>
       <c r="U10">
-        <v>0.8766587665414862</v>
+        <v>0.8664071667277494</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3291,64 +3291,64 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>90.69423337572861</v>
+        <v>90.62148662815297</v>
       </c>
       <c r="C11">
-        <v>6.437005148980842</v>
+        <v>6.377014725757021</v>
       </c>
       <c r="D11">
-        <v>691.246657442572</v>
+        <v>691.2569452239013</v>
       </c>
       <c r="E11">
-        <v>15.80610545510914</v>
+        <v>15.84957573177663</v>
       </c>
       <c r="F11">
-        <v>8.849497457947237</v>
+        <v>8.855886647490795</v>
       </c>
       <c r="G11">
-        <v>0.7703131746134636</v>
+        <v>0.7660577163139415</v>
       </c>
       <c r="H11">
-        <v>67.50279114734481</v>
+        <v>67.51257834214589</v>
       </c>
       <c r="I11">
-        <v>1.899974452895248</v>
+        <v>1.893351151319712</v>
       </c>
       <c r="J11">
-        <v>23.86033191443542</v>
+        <v>23.89180451054823</v>
       </c>
       <c r="K11">
-        <v>4.064366834712358</v>
+        <v>3.956011369369583</v>
       </c>
       <c r="L11">
-        <v>201.974555960126</v>
+        <v>202.0676327945086</v>
       </c>
       <c r="M11">
-        <v>10.30164102000332</v>
+        <v>10.34361240181467</v>
       </c>
       <c r="N11">
-        <v>50.02843632039036</v>
+        <v>49.9914990979496</v>
       </c>
       <c r="O11">
-        <v>2.801872486343181</v>
+        <v>2.825017315619021</v>
       </c>
       <c r="P11">
-        <v>361.6936353838581</v>
+        <v>361.6537626861739</v>
       </c>
       <c r="Q11">
-        <v>7.457365758665708</v>
+        <v>7.490583053503995</v>
       </c>
       <c r="R11">
-        <v>3.888028752357878</v>
+        <v>3.887631886797168</v>
       </c>
       <c r="S11">
-        <v>0.391571195205915</v>
+        <v>0.3873283810028086</v>
       </c>
       <c r="T11">
-        <v>29.66963209847114</v>
+        <v>29.66559121119513</v>
       </c>
       <c r="U11">
-        <v>0.9622363597247784</v>
+        <v>0.951782759830504</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3356,64 +3356,64 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>95.39318754625303</v>
+        <v>95.31586805145658</v>
       </c>
       <c r="C12">
-        <v>6.777581768798567</v>
+        <v>6.67832054223016</v>
       </c>
       <c r="D12">
-        <v>786.6398449888231</v>
+        <v>786.572813275358</v>
       </c>
       <c r="E12">
-        <v>17.2886425383318</v>
+        <v>17.15649924310126</v>
       </c>
       <c r="F12">
-        <v>9.307485501501702</v>
+        <v>9.318301745843895</v>
       </c>
       <c r="G12">
-        <v>0.8086028789099253</v>
+        <v>0.8161784970034296</v>
       </c>
       <c r="H12">
-        <v>76.8102766488464</v>
+        <v>76.83088008798993</v>
       </c>
       <c r="I12">
-        <v>2.073498973506709</v>
+        <v>2.068314858265721</v>
       </c>
       <c r="J12">
-        <v>25.02173593105337</v>
+        <v>25.05671120733547</v>
       </c>
       <c r="K12">
-        <v>4.238068380697848</v>
+        <v>4.267501732957949</v>
       </c>
       <c r="L12">
-        <v>226.9962918911784</v>
+        <v>227.1243440018439</v>
       </c>
       <c r="M12">
-        <v>11.20979998506193</v>
+        <v>11.30524268189834</v>
       </c>
       <c r="N12">
-        <v>52.69954192222595</v>
+        <v>52.74048559045736</v>
       </c>
       <c r="O12">
-        <v>2.981121170113497</v>
+        <v>2.974501725303794</v>
       </c>
       <c r="P12">
-        <v>414.3931773060843</v>
+        <v>414.3942482766307</v>
       </c>
       <c r="Q12">
-        <v>8.160649834918869</v>
+        <v>8.200638318821833</v>
       </c>
       <c r="R12">
-        <v>4.094791789550492</v>
+        <v>4.096473411407988</v>
       </c>
       <c r="S12">
-        <v>0.4125707031643359</v>
+        <v>0.4100634418167761</v>
       </c>
       <c r="T12">
-        <v>33.76442388802142</v>
+        <v>33.76206462260311</v>
       </c>
       <c r="U12">
-        <v>1.050650286285876</v>
+        <v>1.04495536584797</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3421,64 +3421,64 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>4.768471330286225</v>
+        <v>4.773023600361858</v>
       </c>
       <c r="C13">
-        <v>0.3344051815401589</v>
+        <v>0.336868134567627</v>
       </c>
       <c r="D13">
-        <v>791.4083163191158</v>
+        <v>791.345836875721</v>
       </c>
       <c r="E13">
-        <v>17.2897728105608</v>
+        <v>17.16213997769206</v>
       </c>
       <c r="F13">
-        <v>0.4654918432307258</v>
+        <v>0.4660865794825312</v>
       </c>
       <c r="G13">
-        <v>0.04040408509441308</v>
+        <v>0.04051137802255833</v>
       </c>
       <c r="H13">
-        <v>77.27576849207765</v>
+        <v>77.2969666674724</v>
       </c>
       <c r="I13">
-        <v>2.074260578757007</v>
+        <v>2.068585126969464</v>
       </c>
       <c r="J13">
-        <v>-20.1669174100439</v>
+        <v>-20.19515768315668</v>
       </c>
       <c r="K13">
-        <v>1.375812056656989</v>
+        <v>1.384539580376395</v>
       </c>
       <c r="L13">
-        <v>206.8293744811346</v>
+        <v>206.9291863186876</v>
       </c>
       <c r="M13">
-        <v>11.39925951032892</v>
+        <v>11.47905646253618</v>
       </c>
       <c r="N13">
-        <v>24.05415969263966</v>
+        <v>24.08763782148453</v>
       </c>
       <c r="O13">
-        <v>1.368877992497172</v>
+        <v>1.374565387592461</v>
       </c>
       <c r="P13">
-        <v>438.4473369987238</v>
+        <v>438.4818860981169</v>
       </c>
       <c r="Q13">
-        <v>8.378741564709298</v>
+        <v>8.438990759411165</v>
       </c>
       <c r="R13">
-        <v>0.204471314411708</v>
+        <v>0.2047042887724999</v>
       </c>
       <c r="S13">
-        <v>0.02055510091225659</v>
+        <v>0.0204869731882583</v>
       </c>
       <c r="T13">
-        <v>33.96889520243327</v>
+        <v>33.96676891137587</v>
       </c>
       <c r="U13">
-        <v>1.050929258092506</v>
+        <v>1.04522101605403</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3486,64 +3486,64 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>104.9232366340188</v>
+        <v>104.888025756371</v>
       </c>
       <c r="C14">
-        <v>7.355998111615529</v>
+        <v>7.2996719995267</v>
       </c>
       <c r="D14">
-        <v>896.3315529531294</v>
+        <v>896.2338626320911</v>
       </c>
       <c r="E14">
-        <v>18.73461328419421</v>
+        <v>18.6862880380047</v>
       </c>
       <c r="F14">
-        <v>10.23014255704009</v>
+        <v>10.24319546520589</v>
       </c>
       <c r="G14">
-        <v>0.8864459726335885</v>
+        <v>0.875389803750199</v>
       </c>
       <c r="H14">
-        <v>87.50591104911751</v>
+        <v>87.54016213267839</v>
       </c>
       <c r="I14">
-        <v>2.247103156894562</v>
+        <v>2.246053353276285</v>
       </c>
       <c r="J14">
-        <v>42.10904070276764</v>
+        <v>42.06043809762915</v>
       </c>
       <c r="K14">
-        <v>4.490326503183086</v>
+        <v>4.423293436576746</v>
       </c>
       <c r="L14">
-        <v>248.9384151839016</v>
+        <v>248.9896244163166</v>
       </c>
       <c r="M14">
-        <v>12.28801072073223</v>
+        <v>12.36040676894419</v>
       </c>
       <c r="N14">
-        <v>43.40643096209363</v>
+        <v>43.43666184628788</v>
       </c>
       <c r="O14">
-        <v>2.969568160581272</v>
+        <v>2.990265232179546</v>
       </c>
       <c r="P14">
-        <v>481.8537679608181</v>
+        <v>481.9185479444047</v>
       </c>
       <c r="Q14">
-        <v>8.931148481203168</v>
+        <v>9.023393300420668</v>
       </c>
       <c r="R14">
-        <v>4.50062655735077</v>
+        <v>4.493975674511363</v>
       </c>
       <c r="S14">
-        <v>0.449235490477256</v>
+        <v>0.4469382337761971</v>
       </c>
       <c r="T14">
-        <v>38.46952175978389</v>
+        <v>38.46074458588711</v>
       </c>
       <c r="U14">
-        <v>1.135598454538773</v>
+        <v>1.132965384909614</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3551,64 +3551,64 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>109.6205154405548</v>
+        <v>109.796189683582</v>
       </c>
       <c r="C15">
-        <v>7.654302196056959</v>
+        <v>7.792750456665888</v>
       </c>
       <c r="D15">
-        <v>1005.952068393686</v>
+        <v>1006.030052315678</v>
       </c>
       <c r="E15">
-        <v>20.09287747067209</v>
+        <v>20.34157352776811</v>
       </c>
       <c r="F15">
-        <v>10.7160850887032</v>
+        <v>10.71380314816736</v>
       </c>
       <c r="G15">
-        <v>0.9277468457774742</v>
+        <v>0.9353830648719804</v>
       </c>
       <c r="H15">
-        <v>98.22199613782054</v>
+        <v>98.25396528084508</v>
       </c>
       <c r="I15">
-        <v>2.43283894019886</v>
+        <v>2.432176652737201</v>
       </c>
       <c r="J15">
-        <v>33.79878684868116</v>
+        <v>33.71437950434581</v>
       </c>
       <c r="K15">
-        <v>4.86495124169012</v>
+        <v>4.881880847664094</v>
       </c>
       <c r="L15">
-        <v>282.7372020325851</v>
+        <v>282.7040039206641</v>
       </c>
       <c r="M15">
-        <v>13.28514215435723</v>
+        <v>13.40686503884199</v>
       </c>
       <c r="N15">
-        <v>55.70455974696836</v>
+        <v>55.69717034358858</v>
       </c>
       <c r="O15">
-        <v>3.360500060280747</v>
+        <v>3.417170912082247</v>
       </c>
       <c r="P15">
-        <v>537.5583277077852</v>
+        <v>537.6157182879932</v>
       </c>
       <c r="Q15">
-        <v>9.618982255134672</v>
+        <v>9.739074954301095</v>
       </c>
       <c r="R15">
-        <v>4.711279305836434</v>
+        <v>4.702073949895019</v>
       </c>
       <c r="S15">
-        <v>0.4671612939087724</v>
+        <v>0.4702009368760078</v>
       </c>
       <c r="T15">
-        <v>43.18080106562023</v>
+        <v>43.16281853578238</v>
       </c>
       <c r="U15">
-        <v>1.227055558283643</v>
+        <v>1.230657457844585</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3616,64 +3616,64 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>114.1979210916049</v>
+        <v>114.4697605972943</v>
       </c>
       <c r="C16">
-        <v>8.055223027451857</v>
+        <v>8.069205164351706</v>
       </c>
       <c r="D16">
-        <v>1120.14998948529</v>
+        <v>1120.499812912972</v>
       </c>
       <c r="E16">
-        <v>21.68844665174602</v>
+        <v>22.1112847335169</v>
       </c>
       <c r="F16">
-        <v>11.1795499224939</v>
+        <v>11.16915433064526</v>
       </c>
       <c r="G16">
-        <v>0.9752416543477082</v>
+        <v>0.9787243528468959</v>
       </c>
       <c r="H16">
-        <v>109.4015460603147</v>
+        <v>109.4231196114912</v>
       </c>
       <c r="I16">
-        <v>2.619715786152553</v>
+        <v>2.613998639119345</v>
       </c>
       <c r="J16">
-        <v>31.63259075044617</v>
+        <v>31.69377440005071</v>
       </c>
       <c r="K16">
-        <v>5.112738868929303</v>
+        <v>5.129156123190249</v>
       </c>
       <c r="L16">
-        <v>314.3697927830295</v>
+        <v>314.3977783207131</v>
       </c>
       <c r="M16">
-        <v>14.21970126449562</v>
+        <v>14.49654619522838</v>
       </c>
       <c r="N16">
-        <v>61.58918178905746</v>
+        <v>61.63964513755566</v>
       </c>
       <c r="O16">
-        <v>3.604995009502772</v>
+        <v>3.580433903132782</v>
       </c>
       <c r="P16">
-        <v>599.1475094968449</v>
+        <v>599.2553634255462</v>
       </c>
       <c r="Q16">
-        <v>10.34543839988233</v>
+        <v>10.44446316444032</v>
       </c>
       <c r="R16">
-        <v>4.911234190285851</v>
+        <v>4.913531689965978</v>
       </c>
       <c r="S16">
-        <v>0.4958647353531061</v>
+        <v>0.4916434983622058</v>
       </c>
       <c r="T16">
-        <v>48.09203525590604</v>
+        <v>48.07635022574805</v>
       </c>
       <c r="U16">
-        <v>1.319318140505689</v>
+        <v>1.321816007819943</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3681,64 +3681,64 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>119.2095767918735</v>
+        <v>119.1688053624976</v>
       </c>
       <c r="C17">
-        <v>8.421079296541937</v>
+        <v>8.448555761489171</v>
       </c>
       <c r="D17">
-        <v>1239.35956627716</v>
+        <v>1239.668618275471</v>
       </c>
       <c r="E17">
-        <v>23.3113887462613</v>
+        <v>23.7720191865156</v>
       </c>
       <c r="F17">
-        <v>11.63829285277766</v>
+        <v>11.64290132727022</v>
       </c>
       <c r="G17">
-        <v>1.016957711064765</v>
+        <v>1.004717180843059</v>
       </c>
       <c r="H17">
-        <v>121.0398389130924</v>
+        <v>121.0660209387604</v>
       </c>
       <c r="I17">
-        <v>2.80025711993976</v>
+        <v>2.805098071657916</v>
       </c>
       <c r="J17">
-        <v>31.58699262490676</v>
+        <v>31.52115502518748</v>
       </c>
       <c r="K17">
-        <v>5.3520608271213</v>
+        <v>5.280546723039746</v>
       </c>
       <c r="L17">
-        <v>345.9567854079374</v>
+        <v>345.918933345899</v>
       </c>
       <c r="M17">
-        <v>15.24878489795304</v>
+        <v>15.56788051336554</v>
       </c>
       <c r="N17">
-        <v>65.57593458408437</v>
+        <v>65.5682829903418</v>
       </c>
       <c r="O17">
-        <v>3.734974876558214</v>
+        <v>3.724755712154185</v>
       </c>
       <c r="P17">
-        <v>664.7234440809257</v>
+        <v>664.8236464158906</v>
       </c>
       <c r="Q17">
-        <v>11.09540746978498</v>
+        <v>11.16252390475</v>
       </c>
       <c r="R17">
-        <v>5.116348685540753</v>
+        <v>5.112434599818985</v>
       </c>
       <c r="S17">
-        <v>0.516423043530968</v>
+        <v>0.5095594055980721</v>
       </c>
       <c r="T17">
-        <v>53.20838394144677</v>
+        <v>53.18878482556715</v>
       </c>
       <c r="U17">
-        <v>1.418183106802828</v>
+        <v>1.411330882997337</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3746,64 +3746,64 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>124.0503606138534</v>
+        <v>123.9224444383995</v>
       </c>
       <c r="C18">
-        <v>8.740844854833822</v>
+        <v>8.820973292279151</v>
       </c>
       <c r="D18">
-        <v>1363.409926891016</v>
+        <v>1363.591062713868</v>
       </c>
       <c r="E18">
-        <v>24.92509422185794</v>
+        <v>25.31354429732108</v>
       </c>
       <c r="F18">
-        <v>12.10414539634156</v>
+        <v>12.10628603710483</v>
       </c>
       <c r="G18">
-        <v>1.053012935597556</v>
+        <v>1.04458684366437</v>
       </c>
       <c r="H18">
-        <v>133.1439843094332</v>
+        <v>133.1723069758661</v>
       </c>
       <c r="I18">
-        <v>2.991714381019933</v>
+        <v>2.99040391226581</v>
       </c>
       <c r="J18">
-        <v>32.33271884269882</v>
+        <v>32.33864306886018</v>
       </c>
       <c r="K18">
-        <v>5.53995951310391</v>
+        <v>5.488484665161324</v>
       </c>
       <c r="L18">
-        <v>378.2895042506359</v>
+        <v>378.2575764147632</v>
       </c>
       <c r="M18">
-        <v>16.39965354079423</v>
+        <v>16.57056814601729</v>
       </c>
       <c r="N18">
-        <v>68.78717516546145</v>
+        <v>68.73399961685425</v>
       </c>
       <c r="O18">
-        <v>3.869982067132312</v>
+        <v>3.872236062547388</v>
       </c>
       <c r="P18">
-        <v>733.5106192463882</v>
+        <v>733.5576460327458</v>
       </c>
       <c r="Q18">
-        <v>11.89747218481838</v>
+        <v>12.00410634674459</v>
       </c>
       <c r="R18">
-        <v>5.324406865194416</v>
+        <v>5.32075760973309</v>
       </c>
       <c r="S18">
-        <v>0.5348346254914962</v>
+        <v>0.5298316637293191</v>
       </c>
       <c r="T18">
-        <v>58.53279080664124</v>
+        <v>58.50954243530025</v>
       </c>
       <c r="U18">
-        <v>1.517308003774573</v>
+        <v>1.509357996103978</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3811,64 +3811,64 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>128.5398623931006</v>
+        <v>128.7312466169371</v>
       </c>
       <c r="C19">
-        <v>9.087343638369935</v>
+        <v>9.158080897294086</v>
       </c>
       <c r="D19">
-        <v>1491.949789284112</v>
+        <v>1492.322309330809</v>
       </c>
       <c r="E19">
-        <v>26.58393039681458</v>
+        <v>26.73200934401931</v>
       </c>
       <c r="F19">
-        <v>12.5633970925507</v>
+        <v>12.55930972561721</v>
       </c>
       <c r="G19">
-        <v>1.091079306047103</v>
+        <v>1.09627213717298</v>
       </c>
       <c r="H19">
-        <v>145.7073814019845</v>
+        <v>145.7316167014831</v>
       </c>
       <c r="I19">
-        <v>3.186169017733548</v>
+        <v>3.178253487876507</v>
       </c>
       <c r="J19">
-        <v>33.16523550150617</v>
+        <v>33.2654111065151</v>
       </c>
       <c r="K19">
-        <v>5.720800760107354</v>
+        <v>5.67670461404436</v>
       </c>
       <c r="L19">
-        <v>411.4547397521407</v>
+        <v>411.5229875212748</v>
       </c>
       <c r="M19">
-        <v>17.41752183924361</v>
+        <v>17.55535016170109</v>
       </c>
       <c r="N19">
-        <v>71.71204726488963</v>
+        <v>71.6722631901615</v>
       </c>
       <c r="O19">
-        <v>3.980482942788752</v>
+        <v>4.006871467371709</v>
       </c>
       <c r="P19">
-        <v>805.2226665112727</v>
+        <v>805.2299092229051</v>
       </c>
       <c r="Q19">
-        <v>12.66503343263551</v>
+        <v>12.75429238324569</v>
       </c>
       <c r="R19">
-        <v>5.517587617285335</v>
+        <v>5.522082054959893</v>
       </c>
       <c r="S19">
-        <v>0.5484651367437964</v>
+        <v>0.5514953558782516</v>
       </c>
       <c r="T19">
-        <v>64.05037842392693</v>
+        <v>64.03162449025979</v>
       </c>
       <c r="U19">
-        <v>1.613232209288715</v>
+        <v>1.599163104043241</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3876,64 +3876,64 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>133.4643455346672</v>
+        <v>133.5249771512233</v>
       </c>
       <c r="C20">
-        <v>9.434643189618894</v>
+        <v>9.47172167573606</v>
       </c>
       <c r="D20">
-        <v>1625.414134818787</v>
+        <v>1625.847286482022</v>
       </c>
       <c r="E20">
-        <v>28.3052661587412</v>
+        <v>28.22157158457847</v>
       </c>
       <c r="F20">
-        <v>13.03386129632247</v>
+        <v>13.02963044817942</v>
       </c>
       <c r="G20">
-        <v>1.124258050985049</v>
+        <v>1.116961349311888</v>
       </c>
       <c r="H20">
-        <v>158.7412426983074</v>
+        <v>158.7612471496629</v>
       </c>
       <c r="I20">
-        <v>3.370566045266588</v>
+        <v>3.368456524384893</v>
       </c>
       <c r="J20">
-        <v>34.29507004528587</v>
+        <v>34.35861640769698</v>
       </c>
       <c r="K20">
-        <v>5.982095674901713</v>
+        <v>5.923431875180813</v>
       </c>
       <c r="L20">
-        <v>445.7498097974299</v>
+        <v>445.8816039289717</v>
       </c>
       <c r="M20">
-        <v>18.5193701178148</v>
+        <v>18.59926487576747</v>
       </c>
       <c r="N20">
-        <v>74.44664125097884</v>
+        <v>74.44359405839258</v>
       </c>
       <c r="O20">
-        <v>4.196691939839013</v>
+        <v>4.138851382140277</v>
       </c>
       <c r="P20">
-        <v>879.6693077622551</v>
+        <v>879.6735032812983</v>
       </c>
       <c r="Q20">
-        <v>13.57566581712326</v>
+        <v>13.55270418468285</v>
       </c>
       <c r="R20">
-        <v>5.736066823987209</v>
+        <v>5.734743972392686</v>
       </c>
       <c r="S20">
-        <v>0.5810465397524337</v>
+        <v>0.5722140068264827</v>
       </c>
       <c r="T20">
-        <v>69.78644524791419</v>
+        <v>69.76636846265251</v>
       </c>
       <c r="U20">
-        <v>1.71742903839111</v>
+        <v>1.696867110921132</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3941,64 +3941,64 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>138.3255885231114</v>
+        <v>138.1652993243335</v>
       </c>
       <c r="C21">
-        <v>9.733766152967508</v>
+        <v>9.659981547496606</v>
       </c>
       <c r="D21">
-        <v>1763.739723341895</v>
+        <v>1764.012585806354</v>
       </c>
       <c r="E21">
-        <v>29.94891513448629</v>
+        <v>29.95989889103472</v>
       </c>
       <c r="F21">
-        <v>13.50596823031548</v>
+        <v>13.49613330536629</v>
       </c>
       <c r="G21">
-        <v>1.171362084154382</v>
+        <v>1.187432522803979</v>
       </c>
       <c r="H21">
-        <v>172.2472109286229</v>
+        <v>172.2573804550289</v>
       </c>
       <c r="I21">
-        <v>3.56259536627394</v>
+        <v>3.570523483421713</v>
       </c>
       <c r="J21">
-        <v>35.47218532538273</v>
+        <v>35.52346995636687</v>
       </c>
       <c r="K21">
-        <v>6.164494122988533</v>
+        <v>6.238484300803495</v>
       </c>
       <c r="L21">
-        <v>481.2219951228091</v>
+        <v>481.4050738853406</v>
       </c>
       <c r="M21">
-        <v>19.65273249261688</v>
+        <v>19.74416798412155</v>
       </c>
       <c r="N21">
-        <v>77.30454415739929</v>
+        <v>77.19970308761194</v>
       </c>
       <c r="O21">
-        <v>4.327029954314632</v>
+        <v>4.31507102735252</v>
       </c>
       <c r="P21">
-        <v>956.9738519196561</v>
+        <v>956.8732063689121</v>
       </c>
       <c r="Q21">
-        <v>14.37225811275508</v>
+        <v>14.31440998927622</v>
       </c>
       <c r="R21">
-        <v>5.937956891350723</v>
+        <v>5.939631791380488</v>
       </c>
       <c r="S21">
-        <v>0.5927747798513341</v>
+        <v>0.5981547105402578</v>
       </c>
       <c r="T21">
-        <v>75.72440213926457</v>
+        <v>75.70600025403299</v>
       </c>
       <c r="U21">
-        <v>1.813695820597923</v>
+        <v>1.796920057973981</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -4006,64 +4006,64 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>143.0848852776929</v>
+        <v>142.9915822248621</v>
       </c>
       <c r="C22">
-        <v>10.07405916807217</v>
+        <v>10.05884875247148</v>
       </c>
       <c r="D22">
-        <v>1906.824608619594</v>
+        <v>1907.004168031219</v>
       </c>
       <c r="E22">
-        <v>31.64905165442322</v>
+        <v>31.4734840647508</v>
       </c>
       <c r="F22">
-        <v>13.97089344933339</v>
+        <v>13.96779498096736</v>
       </c>
       <c r="G22">
-        <v>1.217564767453766</v>
+        <v>1.218825143144408</v>
       </c>
       <c r="H22">
-        <v>186.2181043779559</v>
+        <v>186.2251754359964</v>
       </c>
       <c r="I22">
-        <v>3.759349985379325</v>
+        <v>3.785959180504452</v>
       </c>
       <c r="J22">
-        <v>36.67585792608124</v>
+        <v>36.69345554249684</v>
       </c>
       <c r="K22">
-        <v>6.417795376067832</v>
+        <v>6.370395985080004</v>
       </c>
       <c r="L22">
-        <v>517.897853048892</v>
+        <v>518.0985294278381</v>
       </c>
       <c r="M22">
-        <v>20.83961264677558</v>
+        <v>20.92713271604027</v>
       </c>
       <c r="N22">
-        <v>80.04878634516395</v>
+        <v>79.98610596268375</v>
       </c>
       <c r="O22">
-        <v>4.462463947640988</v>
+        <v>4.447226622566181</v>
       </c>
       <c r="P22">
-        <v>1037.022638264825</v>
+        <v>1036.859312331595</v>
       </c>
       <c r="Q22">
-        <v>15.2168103827556</v>
+        <v>15.11212880918248</v>
       </c>
       <c r="R22">
-        <v>6.141485852423127</v>
+        <v>6.136846716471763</v>
       </c>
       <c r="S22">
-        <v>0.6148893636820442</v>
+        <v>0.6079910717158389</v>
       </c>
       <c r="T22">
-        <v>81.86588799168759</v>
+        <v>81.84284697050501</v>
       </c>
       <c r="U22">
-        <v>1.922062596163819</v>
+        <v>1.900697365915254</v>
       </c>
     </row>
   </sheetData>
@@ -4179,88 +4179,88 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>48.80925329529008</v>
+        <v>48.85880231666237</v>
       </c>
       <c r="C2">
-        <v>2.457555747385645</v>
+        <v>2.441083235500024</v>
       </c>
       <c r="D2">
-        <v>23.82785365152854</v>
+        <v>23.83934889084612</v>
       </c>
       <c r="E2">
-        <v>1.694729103695906</v>
+        <v>1.673695146380692</v>
       </c>
       <c r="F2">
-        <v>23.83597837878848</v>
+        <v>23.84486059550029</v>
       </c>
       <c r="G2">
-        <v>1.69176270235172</v>
+        <v>1.70471484283822</v>
       </c>
       <c r="H2">
-        <v>6.984562380180415</v>
+        <v>6.982858671978227</v>
       </c>
       <c r="I2">
-        <v>0.609308584050542</v>
+        <v>0.6148263279517509</v>
       </c>
       <c r="J2">
-        <v>6.981907171035822</v>
+        <v>6.983184316925626</v>
       </c>
       <c r="K2">
-        <v>0.6027709709685992</v>
+        <v>0.605682726417751</v>
       </c>
       <c r="L2">
-        <v>2.327227962996976</v>
+        <v>2.328206200012108</v>
       </c>
       <c r="M2">
-        <v>0.2038911297961079</v>
+        <v>0.2037470286299886</v>
       </c>
       <c r="N2">
-        <v>4.653716956028402</v>
+        <v>4.654218033807644</v>
       </c>
       <c r="O2">
-        <v>0.4040048758123139</v>
+        <v>0.4013094227143862</v>
       </c>
       <c r="P2">
-        <v>2.326823025719923</v>
+        <v>2.327878050309708</v>
       </c>
       <c r="Q2">
-        <v>0.2024111522079088</v>
+        <v>0.2018929399522275</v>
       </c>
       <c r="R2">
-        <v>6.824941693537173</v>
+        <v>6.817434156822253</v>
       </c>
       <c r="S2">
-        <v>0.6894759033240122</v>
+        <v>0.693825374175065</v>
       </c>
       <c r="T2">
-        <v>4.771721422997707</v>
+        <v>4.773266359671004</v>
       </c>
       <c r="U2">
-        <v>0.4752080629980051</v>
+        <v>0.4767621245210815</v>
       </c>
       <c r="V2">
-        <v>1.022225688357852</v>
+        <v>1.022598418743837</v>
       </c>
       <c r="W2">
-        <v>0.1011906529899712</v>
+        <v>0.1023953804843202</v>
       </c>
       <c r="X2">
-        <v>1.022867418052589</v>
+        <v>1.023035112486554</v>
       </c>
       <c r="Y2">
-        <v>0.1020621227039167</v>
+        <v>0.1034584375761074</v>
       </c>
       <c r="Z2">
-        <v>2.273269739754908</v>
+        <v>2.275380469625495</v>
       </c>
       <c r="AA2">
-        <v>0.2313202732614774</v>
+        <v>0.2284077234599796</v>
       </c>
       <c r="AB2">
-        <v>4.544912290040805</v>
+        <v>4.543167382260197</v>
       </c>
       <c r="AC2">
-        <v>0.4561030212179737</v>
+        <v>0.4530370987540126</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -4274,94 +4274,94 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>53.72293479203306</v>
+        <v>53.66244482902702</v>
       </c>
       <c r="C3">
-        <v>2.685510130862124</v>
+        <v>2.698798036697948</v>
       </c>
       <c r="D3">
-        <v>26.21978410225616</v>
+        <v>26.20131296316591</v>
       </c>
       <c r="E3">
-        <v>1.850316195303996</v>
+        <v>1.870208781639657</v>
       </c>
       <c r="F3">
-        <v>26.21188002545402</v>
+        <v>26.19359739101999</v>
       </c>
       <c r="G3">
-        <v>1.855013181662396</v>
+        <v>1.870932908759439</v>
       </c>
       <c r="H3">
-        <v>7.682306797432594</v>
+        <v>7.673537510691391</v>
       </c>
       <c r="I3">
-        <v>0.6700457999389836</v>
+        <v>0.6683919844846122</v>
       </c>
       <c r="J3">
-        <v>7.680086858268255</v>
+        <v>7.676936067894347</v>
       </c>
       <c r="K3">
-        <v>0.6617770518562311</v>
+        <v>0.6709193390237812</v>
       </c>
       <c r="L3">
-        <v>2.561068879734574</v>
+        <v>2.558363007464211</v>
       </c>
       <c r="M3">
-        <v>0.2241487748444294</v>
+        <v>0.2231322591437109</v>
       </c>
       <c r="N3">
-        <v>5.117944626217168</v>
+        <v>5.116676377953051</v>
       </c>
       <c r="O3">
-        <v>0.4427169403831082</v>
+        <v>0.4466094960903918</v>
       </c>
       <c r="P3">
-        <v>2.559942721218232</v>
+        <v>2.559327163567774</v>
       </c>
       <c r="Q3">
-        <v>0.2219467191042289</v>
+        <v>0.2215946422838719</v>
       </c>
       <c r="R3">
-        <v>7.498472112254733</v>
+        <v>7.495328812385451</v>
       </c>
       <c r="S3">
-        <v>0.7532360989218569</v>
+        <v>0.7499265953692029</v>
       </c>
       <c r="T3">
-        <v>5.252585354269153</v>
+        <v>5.249817661816127</v>
       </c>
       <c r="U3">
-        <v>0.5254185086692742</v>
+        <v>0.5324219802791065</v>
       </c>
       <c r="V3">
-        <v>1.124445163541861</v>
+        <v>1.12542703765752</v>
       </c>
       <c r="W3">
-        <v>0.1121712608453345</v>
+        <v>0.1131131627632628</v>
       </c>
       <c r="X3">
-        <v>1.124389962407401</v>
+        <v>1.125177866304825</v>
       </c>
       <c r="Y3">
-        <v>0.1125287396604348</v>
+        <v>0.1133810159544935</v>
       </c>
       <c r="Z3">
-        <v>2.503137803791127</v>
+        <v>2.498989667235449</v>
       </c>
       <c r="AA3">
-        <v>0.2521426045260703</v>
+        <v>0.251951472830499</v>
       </c>
       <c r="AB3">
-        <v>4.997173085053579</v>
+        <v>5.000313895647589</v>
       </c>
       <c r="AC3">
-        <v>0.5001364519798414</v>
+        <v>0.5022860831752302</v>
       </c>
       <c r="AD3">
-        <v>7.372348945243116</v>
+        <v>7.368155785575724</v>
       </c>
       <c r="AE3">
-        <v>0.6755443536789376</v>
+        <v>0.6845912462682704</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -4369,94 +4369,94 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>58.56888307865979</v>
+        <v>58.58165944113302</v>
       </c>
       <c r="C4">
-        <v>2.940908768837628</v>
+        <v>2.922614524092395</v>
       </c>
       <c r="D4">
-        <v>28.57747252487511</v>
+        <v>28.61358814806866</v>
       </c>
       <c r="E4">
-        <v>2.005889532145547</v>
+        <v>2.039756771227545</v>
       </c>
       <c r="F4">
-        <v>28.60193630974818</v>
+        <v>28.58863123708901</v>
       </c>
       <c r="G4">
-        <v>2.004301059249477</v>
+        <v>2.008413162760531</v>
       </c>
       <c r="H4">
-        <v>8.374769113347844</v>
+        <v>8.370246355154086</v>
       </c>
       <c r="I4">
-        <v>0.7207772708379274</v>
+        <v>0.7160944352057222</v>
       </c>
       <c r="J4">
-        <v>8.38042214558109</v>
+        <v>8.368220298186388</v>
       </c>
       <c r="K4">
-        <v>0.7230894561431567</v>
+        <v>0.7172992255347379</v>
       </c>
       <c r="L4">
-        <v>2.793694402071992</v>
+        <v>2.793532760797372</v>
       </c>
       <c r="M4">
-        <v>0.2389125882106412</v>
+        <v>0.2399530099066636</v>
       </c>
       <c r="N4">
-        <v>5.585810690513625</v>
+        <v>5.579613396728309</v>
       </c>
       <c r="O4">
-        <v>0.4811163791313467</v>
+        <v>0.4777662789024608</v>
       </c>
       <c r="P4">
-        <v>2.7914265025987</v>
+        <v>2.790400492080999</v>
       </c>
       <c r="Q4">
-        <v>0.2388044259334863</v>
+        <v>0.2411640682067452</v>
       </c>
       <c r="R4">
-        <v>8.175517402245898</v>
+        <v>8.174129331804179</v>
       </c>
       <c r="S4">
-        <v>0.8109846811204946</v>
+        <v>0.8093744689084958</v>
       </c>
       <c r="T4">
-        <v>5.72646592543585</v>
+        <v>5.725156623210959</v>
       </c>
       <c r="U4">
-        <v>0.5703763441495024</v>
+        <v>0.5702517020739961</v>
       </c>
       <c r="V4">
-        <v>1.226663643575775</v>
+        <v>1.22513461999468</v>
       </c>
       <c r="W4">
-        <v>0.1228160120092476</v>
+        <v>0.120653247422765</v>
       </c>
       <c r="X4">
-        <v>1.227791537020719</v>
+        <v>1.224926340612097</v>
       </c>
       <c r="Y4">
-        <v>0.1223237987615386</v>
+        <v>0.1215693785564938</v>
       </c>
       <c r="Z4">
-        <v>2.728090887594458</v>
+        <v>2.727962089655385</v>
       </c>
       <c r="AA4">
-        <v>0.2698284914453558</v>
+        <v>0.2717188946931677</v>
       </c>
       <c r="AB4">
-        <v>5.452112635477403</v>
+        <v>5.452661912717883</v>
       </c>
       <c r="AC4">
-        <v>0.5433213180297731</v>
+        <v>0.5424523012333001</v>
       </c>
       <c r="AD4">
-        <v>10.71232535502633</v>
+        <v>10.70674171193367</v>
       </c>
       <c r="AE4">
-        <v>0.764195839620385</v>
+        <v>0.7670908437931688</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -4464,94 +4464,94 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>63.4307236061882</v>
+        <v>63.45657331173202</v>
       </c>
       <c r="C5">
-        <v>3.175638210773021</v>
+        <v>3.179455833464651</v>
       </c>
       <c r="D5">
-        <v>30.95570605487256</v>
+        <v>30.97694714311913</v>
       </c>
       <c r="E5">
-        <v>2.189098999479619</v>
+        <v>2.189762378319373</v>
       </c>
       <c r="F5">
-        <v>30.96833120623112</v>
+        <v>30.975442491041</v>
       </c>
       <c r="G5">
-        <v>2.195514446550046</v>
+        <v>2.200609648220971</v>
       </c>
       <c r="H5">
-        <v>9.082198093300132</v>
+        <v>9.068372163150304</v>
       </c>
       <c r="I5">
-        <v>0.784655121259439</v>
+        <v>0.7899960820344532</v>
       </c>
       <c r="J5">
-        <v>9.077225838708678</v>
+        <v>9.073009250269122</v>
       </c>
       <c r="K5">
-        <v>0.786585708847899</v>
+        <v>0.7859704901966098</v>
       </c>
       <c r="L5">
-        <v>3.024497117516799</v>
+        <v>3.025216263513461</v>
       </c>
       <c r="M5">
-        <v>0.2627951530916082</v>
+        <v>0.2619552981577725</v>
       </c>
       <c r="N5">
-        <v>6.049799730262658</v>
+        <v>6.052301240499945</v>
       </c>
       <c r="O5">
-        <v>0.5267211276371901</v>
+        <v>0.5257865263865753</v>
       </c>
       <c r="P5">
-        <v>3.023861712148889</v>
+        <v>3.024013808989005</v>
       </c>
       <c r="Q5">
-        <v>0.2660028866920433</v>
+        <v>0.2626017452228119</v>
       </c>
       <c r="R5">
-        <v>8.867673910447163</v>
+        <v>8.854452461091173</v>
       </c>
       <c r="S5">
-        <v>0.8872798568744437</v>
+        <v>0.8873501746714861</v>
       </c>
       <c r="T5">
-        <v>6.201585481365893</v>
+        <v>6.202494228718334</v>
       </c>
       <c r="U5">
-        <v>0.6183613892588097</v>
+        <v>0.6198223219121415</v>
       </c>
       <c r="V5">
-        <v>1.331233205851057</v>
+        <v>1.328110676427962</v>
       </c>
       <c r="W5">
-        <v>0.1336277192445307</v>
+        <v>0.1339869892241699</v>
       </c>
       <c r="X5">
-        <v>1.329351704767826</v>
+        <v>1.330046559759953</v>
       </c>
       <c r="Y5">
-        <v>0.1332372945272269</v>
+        <v>0.1335696403855789</v>
       </c>
       <c r="Z5">
-        <v>2.952465604273938</v>
+        <v>2.953372136019699</v>
       </c>
       <c r="AA5">
-        <v>0.2956875073702518</v>
+        <v>0.2942357555456281</v>
       </c>
       <c r="AB5">
-        <v>5.907809440418666</v>
+        <v>5.912409326392255</v>
       </c>
       <c r="AC5">
-        <v>0.5903146967122377</v>
+        <v>0.5944694941174367</v>
       </c>
       <c r="AD5">
-        <v>12.70032711717295</v>
+        <v>12.69582919216973</v>
       </c>
       <c r="AE5">
-        <v>0.823795894493962</v>
+        <v>0.8138035129510648</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -4559,94 +4559,94 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>68.34504211324091</v>
+        <v>68.35365741101563</v>
       </c>
       <c r="C6">
-        <v>3.398958614725042</v>
+        <v>3.428291895780375</v>
       </c>
       <c r="D6">
-        <v>33.36338573578822</v>
+        <v>33.37817479029346</v>
       </c>
       <c r="E6">
-        <v>2.371705843155515</v>
+        <v>2.373388416331832</v>
       </c>
       <c r="F6">
-        <v>33.35045464716092</v>
+        <v>33.35584303292833</v>
       </c>
       <c r="G6">
-        <v>2.338647693886615</v>
+        <v>2.366936465043343</v>
       </c>
       <c r="H6">
-        <v>9.772502416773982</v>
+        <v>9.769584976695286</v>
       </c>
       <c r="I6">
-        <v>0.8444426654025646</v>
+        <v>0.8500011517338564</v>
       </c>
       <c r="J6">
-        <v>9.769458256618449</v>
+        <v>9.771838360662217</v>
       </c>
       <c r="K6">
-        <v>0.835718587955335</v>
+        <v>0.8482982307025341</v>
       </c>
       <c r="L6">
-        <v>3.254567717817388</v>
+        <v>3.256964887937828</v>
       </c>
       <c r="M6">
-        <v>0.2812933730313768</v>
+        <v>0.2801751377558432</v>
       </c>
       <c r="N6">
-        <v>6.515299724220901</v>
+        <v>6.517467772310988</v>
       </c>
       <c r="O6">
-        <v>0.5678309517423724</v>
+        <v>0.5638757834956027</v>
       </c>
       <c r="P6">
-        <v>3.259827649261895</v>
+        <v>3.258071594086681</v>
       </c>
       <c r="Q6">
-        <v>0.2835026526462335</v>
+        <v>0.2846201089234843</v>
       </c>
       <c r="R6">
-        <v>9.540535957628363</v>
+        <v>9.541517881991608</v>
       </c>
       <c r="S6">
-        <v>0.9516968373901921</v>
+        <v>0.9558411030391166</v>
       </c>
       <c r="T6">
-        <v>6.67544350811084</v>
+        <v>6.675154315278735</v>
       </c>
       <c r="U6">
-        <v>0.6677100263423007</v>
+        <v>0.673302420627477</v>
       </c>
       <c r="V6">
-        <v>1.430605668508405</v>
+        <v>1.431787023626945</v>
       </c>
       <c r="W6">
-        <v>0.141003546007597</v>
+        <v>0.1441845331931506</v>
       </c>
       <c r="X6">
-        <v>1.4313366539763</v>
+        <v>1.431850952419496</v>
       </c>
       <c r="Y6">
-        <v>0.1416243482965075</v>
+        <v>0.1443346005416986</v>
       </c>
       <c r="Z6">
-        <v>3.177722699558152</v>
+        <v>3.180520371345895</v>
       </c>
       <c r="AA6">
-        <v>0.3177569506518093</v>
+        <v>0.3185165064380387</v>
       </c>
       <c r="AB6">
-        <v>6.362990999844879</v>
+        <v>6.366805161476428</v>
       </c>
       <c r="AC6">
-        <v>0.6412269942671424</v>
+        <v>0.6379286154396194</v>
       </c>
       <c r="AD6">
-        <v>14.18271696622134</v>
+        <v>14.17297833577554</v>
       </c>
       <c r="AE6">
-        <v>0.8838762394311076</v>
+        <v>0.8835724436042283</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -4654,94 +4654,94 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>73.26896409758827</v>
+        <v>73.2551045255651</v>
       </c>
       <c r="C7">
-        <v>3.702614915938611</v>
+        <v>3.646949503954847</v>
       </c>
       <c r="D7">
-        <v>35.74602339887515</v>
+        <v>35.7550159934607</v>
       </c>
       <c r="E7">
-        <v>2.532125944164668</v>
+        <v>2.511461992752144</v>
       </c>
       <c r="F7">
-        <v>35.8179422449778</v>
+        <v>35.78866696202122</v>
       </c>
       <c r="G7">
-        <v>2.567218474412557</v>
+        <v>2.554611277540694</v>
       </c>
       <c r="H7">
-        <v>10.48895931195622</v>
+        <v>10.48183043158882</v>
       </c>
       <c r="I7">
-        <v>0.9182337184020417</v>
+        <v>0.9120085576978509</v>
       </c>
       <c r="J7">
-        <v>10.49612536040878</v>
+        <v>10.47489592382707</v>
       </c>
       <c r="K7">
-        <v>0.9245167946550761</v>
+        <v>0.9068452166651858</v>
       </c>
       <c r="L7">
-        <v>3.497448624595833</v>
+        <v>3.495003184051436</v>
       </c>
       <c r="M7">
-        <v>0.3070962436896381</v>
+        <v>0.3032492388212542</v>
       </c>
       <c r="N7">
-        <v>6.995439124769332</v>
+        <v>6.993724785502033</v>
       </c>
       <c r="O7">
-        <v>0.6141103301183096</v>
+        <v>0.6136511379493641</v>
       </c>
       <c r="P7">
-        <v>3.501264140502916</v>
+        <v>3.497729731846857</v>
       </c>
       <c r="Q7">
-        <v>0.3076290132823349</v>
+        <v>0.3048485468076253</v>
       </c>
       <c r="R7">
-        <v>10.25204627569366</v>
+        <v>10.24417430542929</v>
       </c>
       <c r="S7">
-        <v>1.030877278461277</v>
+        <v>1.029753733655642</v>
       </c>
       <c r="T7">
-        <v>7.181726427648938</v>
+        <v>7.166913027891495</v>
       </c>
       <c r="U7">
-        <v>0.7267040106238321</v>
+        <v>0.7149642901258484</v>
       </c>
       <c r="V7">
-        <v>1.537736673886156</v>
+        <v>1.534549879009047</v>
       </c>
       <c r="W7">
-        <v>0.1554577056312991</v>
+        <v>0.1541443100319639</v>
       </c>
       <c r="X7">
-        <v>1.538285752210946</v>
+        <v>1.534054193034177</v>
       </c>
       <c r="Y7">
-        <v>0.1568432421188651</v>
+        <v>0.1536265265435528</v>
       </c>
       <c r="Z7">
-        <v>3.416248045161046</v>
+        <v>3.413836698075603</v>
       </c>
       <c r="AA7">
-        <v>0.3464077791091277</v>
+        <v>0.3440095216254989</v>
       </c>
       <c r="AB7">
-        <v>6.836304392428143</v>
+        <v>6.824199265535285</v>
       </c>
       <c r="AC7">
-        <v>0.6947589616481371</v>
+        <v>0.6873622676987883</v>
       </c>
       <c r="AD7">
-        <v>15.45790832273801</v>
+        <v>15.45487332909488</v>
       </c>
       <c r="AE7">
-        <v>0.955228303307546</v>
+        <v>0.9632805916581081</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -4749,94 +4749,94 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>78.19878107126628</v>
+        <v>78.13153719692583</v>
       </c>
       <c r="C8">
-        <v>3.872656751053814</v>
+        <v>3.959912776135319</v>
       </c>
       <c r="D8">
-        <v>38.20825589759313</v>
+        <v>38.16221924722015</v>
       </c>
       <c r="E8">
-        <v>2.675203899697078</v>
+        <v>2.706387735552109</v>
       </c>
       <c r="F8">
-        <v>38.19614902835229</v>
+        <v>38.16174783037066</v>
       </c>
       <c r="G8">
-        <v>2.668270588875628</v>
+        <v>2.727471048470757</v>
       </c>
       <c r="H8">
-        <v>11.18724301975677</v>
+        <v>11.17564733468208</v>
       </c>
       <c r="I8">
-        <v>0.9608556752170732</v>
+        <v>0.9677134216828868</v>
       </c>
       <c r="J8">
-        <v>11.19939342896015</v>
+        <v>11.1804281340522</v>
       </c>
       <c r="K8">
-        <v>0.9675502723874161</v>
+        <v>0.9731398442731439</v>
       </c>
       <c r="L8">
-        <v>3.726939584288218</v>
+        <v>3.726689519224469</v>
       </c>
       <c r="M8">
-        <v>0.3172552563615185</v>
+        <v>0.3244569486033004</v>
       </c>
       <c r="N8">
-        <v>7.460570462155745</v>
+        <v>7.449100523453684</v>
       </c>
       <c r="O8">
-        <v>0.6427117225057966</v>
+        <v>0.64408540549422</v>
       </c>
       <c r="P8">
-        <v>3.731105298953163</v>
+        <v>3.730494310626359</v>
       </c>
       <c r="Q8">
-        <v>0.3250781780617737</v>
+        <v>0.3253938512155624</v>
       </c>
       <c r="R8">
-        <v>10.92606690725612</v>
+        <v>10.91367610195996</v>
       </c>
       <c r="S8">
-        <v>1.093493974217953</v>
+        <v>1.088589276426847</v>
       </c>
       <c r="T8">
-        <v>7.659338767162919</v>
+        <v>7.642045953041189</v>
       </c>
       <c r="U8">
-        <v>0.7596327249309509</v>
+        <v>0.7688423886552277</v>
       </c>
       <c r="V8">
-        <v>1.640733467043232</v>
+        <v>1.637417207347509</v>
       </c>
       <c r="W8">
-        <v>0.1656005614805336</v>
+        <v>0.1634809302867276</v>
       </c>
       <c r="X8">
-        <v>1.641147774336905</v>
+        <v>1.638967320134614</v>
       </c>
       <c r="Y8">
-        <v>0.1643242308457728</v>
+        <v>0.164573599075419</v>
       </c>
       <c r="Z8">
-        <v>3.639156311222295</v>
+        <v>3.639290104294377</v>
       </c>
       <c r="AA8">
-        <v>0.3588271079539935</v>
+        <v>0.3688851732761754</v>
       </c>
       <c r="AB8">
-        <v>7.288544438245201</v>
+        <v>7.273075798792993</v>
       </c>
       <c r="AC8">
-        <v>0.7205506752161457</v>
+        <v>0.7320470752332571</v>
       </c>
       <c r="AD8">
-        <v>16.69918496683835</v>
+        <v>16.68358807642494</v>
       </c>
       <c r="AE8">
-        <v>1.03455507951063</v>
+        <v>1.025915226558094</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -4844,94 +4844,94 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>82.98815612349281</v>
+        <v>82.99930027851232</v>
       </c>
       <c r="C9">
-        <v>4.171423526666759</v>
+        <v>4.142567905167456</v>
       </c>
       <c r="D9">
-        <v>40.51146177464906</v>
+        <v>40.54332829244034</v>
       </c>
       <c r="E9">
-        <v>2.870067800671818</v>
+        <v>2.856937836649164</v>
       </c>
       <c r="F9">
-        <v>40.50205588389571</v>
+        <v>40.54938587304557</v>
       </c>
       <c r="G9">
-        <v>2.86625205030521</v>
+        <v>2.852546056766903</v>
       </c>
       <c r="H9">
-        <v>11.86015489313479</v>
+        <v>11.87465510427154</v>
       </c>
       <c r="I9">
-        <v>1.028352996447714</v>
+        <v>1.023249418253663</v>
       </c>
       <c r="J9">
-        <v>11.87697575521554</v>
+        <v>11.88501593819986</v>
       </c>
       <c r="K9">
-        <v>1.023807262538705</v>
+        <v>1.032369735804514</v>
       </c>
       <c r="L9">
-        <v>3.952619917219337</v>
+        <v>3.960602347521534</v>
       </c>
       <c r="M9">
-        <v>0.3419837718302051</v>
+        <v>0.3409610436317232</v>
       </c>
       <c r="N9">
-        <v>7.909932159406815</v>
+        <v>7.922305306491599</v>
       </c>
       <c r="O9">
-        <v>0.6822484732021599</v>
+        <v>0.6879970262979519</v>
       </c>
       <c r="P9">
-        <v>3.949794294193317</v>
+        <v>3.960970054162832</v>
       </c>
       <c r="Q9">
-        <v>0.3432141024206416</v>
+        <v>0.342766112684938</v>
       </c>
       <c r="R9">
-        <v>11.58627458473859</v>
+        <v>11.59059448831713</v>
       </c>
       <c r="S9">
-        <v>1.159709471732819</v>
+        <v>1.163911834045191</v>
       </c>
       <c r="T9">
-        <v>8.122370041264144</v>
+        <v>8.129658374562991</v>
       </c>
       <c r="U9">
-        <v>0.8110592238360147</v>
+        <v>0.8196143314798738</v>
       </c>
       <c r="V9">
-        <v>1.739849191781638</v>
+        <v>1.741746938847464</v>
       </c>
       <c r="W9">
-        <v>0.1728176738568758</v>
+        <v>0.1740639377501635</v>
       </c>
       <c r="X9">
-        <v>1.740320541576183</v>
+        <v>1.741005636455297</v>
       </c>
       <c r="Y9">
-        <v>0.1748158136166992</v>
+        <v>0.1745673284618234</v>
       </c>
       <c r="Z9">
-        <v>3.859243788062748</v>
+        <v>3.866849239845474</v>
       </c>
       <c r="AA9">
-        <v>0.3834786736807489</v>
+        <v>0.3868431356568303</v>
       </c>
       <c r="AB9">
-        <v>7.719691743941516</v>
+        <v>7.734721470534494</v>
       </c>
       <c r="AC9">
-        <v>0.7703560485815448</v>
+        <v>0.7762032745387214</v>
       </c>
       <c r="AD9">
-        <v>17.88397211981506</v>
+        <v>17.859547965598</v>
       </c>
       <c r="AE9">
-        <v>1.09160365005955</v>
+        <v>1.093229915544613</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -4939,94 +4939,94 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>87.84867191288174</v>
+        <v>87.81194230710933</v>
       </c>
       <c r="C10">
-        <v>4.456345045686149</v>
+        <v>4.437134843768931</v>
       </c>
       <c r="D10">
-        <v>42.86657572807166</v>
+        <v>42.90487951981443</v>
       </c>
       <c r="E10">
-        <v>3.036809934830831</v>
+        <v>3.084755424777731</v>
       </c>
       <c r="F10">
-        <v>42.91536954092466</v>
+        <v>42.8795420728513</v>
       </c>
       <c r="G10">
-        <v>3.059404330538432</v>
+        <v>3.035992637408577</v>
       </c>
       <c r="H10">
-        <v>12.56829462179881</v>
+        <v>12.56706142631985</v>
       </c>
       <c r="I10">
-        <v>1.094391941757582</v>
+        <v>1.083033634173116</v>
       </c>
       <c r="J10">
-        <v>12.5794721330428</v>
+        <v>12.55755118251955</v>
       </c>
       <c r="K10">
-        <v>1.102303554507555</v>
+        <v>1.095387726033793</v>
       </c>
       <c r="L10">
-        <v>4.188351535267873</v>
+        <v>4.187669439723948</v>
       </c>
       <c r="M10">
-        <v>0.3638065014356372</v>
+        <v>0.3655469878736552</v>
       </c>
       <c r="N10">
-        <v>8.378640132655097</v>
+        <v>8.377072083674253</v>
       </c>
       <c r="O10">
-        <v>0.7254946191034002</v>
+        <v>0.7204975600038783</v>
       </c>
       <c r="P10">
-        <v>4.191789380801555</v>
+        <v>4.187087470693892</v>
       </c>
       <c r="Q10">
-        <v>0.3624672189192688</v>
+        <v>0.3607262565580906</v>
       </c>
       <c r="R10">
-        <v>12.2864344775795</v>
+        <v>12.27510284837671</v>
       </c>
       <c r="S10">
-        <v>1.232261038895698</v>
+        <v>1.217777327204229</v>
       </c>
       <c r="T10">
-        <v>8.604226769981953</v>
+        <v>8.584829910302954</v>
       </c>
       <c r="U10">
-        <v>0.8608439253323688</v>
+        <v>0.8606721776086895</v>
       </c>
       <c r="V10">
-        <v>1.841364228272053</v>
+        <v>1.840505426658764</v>
       </c>
       <c r="W10">
-        <v>0.1865355407648237</v>
+        <v>0.1834534642072641</v>
       </c>
       <c r="X10">
-        <v>1.842545713052247</v>
+        <v>1.839047539996164</v>
       </c>
       <c r="Y10">
-        <v>0.1856349190865635</v>
+        <v>0.1849338477518497</v>
       </c>
       <c r="Z10">
-        <v>4.08959340499096</v>
+        <v>4.092873818732073</v>
       </c>
       <c r="AA10">
-        <v>0.4094365518292977</v>
+        <v>0.4169109270957909</v>
       </c>
       <c r="AB10">
-        <v>8.176396699273582</v>
+        <v>8.179094140860986</v>
       </c>
       <c r="AC10">
-        <v>0.8140740702664675</v>
+        <v>0.817247311108062</v>
       </c>
       <c r="AD10">
-        <v>19.02987187843658</v>
+        <v>19.02892981571738</v>
       </c>
       <c r="AE10">
-        <v>1.164443409680608</v>
+        <v>1.16558516905241</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -5034,94 +5034,94 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>92.77247364020231</v>
+        <v>92.77539122774415</v>
       </c>
       <c r="C11">
-        <v>4.652433324212297</v>
+        <v>4.633844946284367</v>
       </c>
       <c r="D11">
-        <v>45.32976163204476</v>
+        <v>45.31052540647645</v>
       </c>
       <c r="E11">
-        <v>3.210171221581759</v>
+        <v>3.182370764068783</v>
       </c>
       <c r="F11">
-        <v>45.26540000365787</v>
+        <v>45.33621828123012</v>
       </c>
       <c r="G11">
-        <v>3.198189679008713</v>
+        <v>3.210476608961303</v>
       </c>
       <c r="H11">
-        <v>13.24519378159563</v>
+        <v>13.28575209751232</v>
       </c>
       <c r="I11">
-        <v>1.142329862893029</v>
+        <v>1.150209476443674</v>
       </c>
       <c r="J11">
-        <v>13.27012570393099</v>
+        <v>13.27193164601468</v>
       </c>
       <c r="K11">
-        <v>1.144482691356445</v>
+        <v>1.149311486589847</v>
       </c>
       <c r="L11">
-        <v>4.424803106791752</v>
+        <v>4.427512230608383</v>
       </c>
       <c r="M11">
-        <v>0.3881721222374211</v>
+        <v>0.3829780099349298</v>
       </c>
       <c r="N11">
-        <v>8.840343564620861</v>
+        <v>8.856970523242252</v>
       </c>
       <c r="O11">
-        <v>0.769745423937798</v>
+        <v>0.7691339714853401</v>
       </c>
       <c r="P11">
-        <v>4.424091967551223</v>
+        <v>4.424424474210697</v>
       </c>
       <c r="Q11">
-        <v>0.3846355866367447</v>
+        <v>0.3784424612701126</v>
       </c>
       <c r="R11">
-        <v>12.9343885298674</v>
+        <v>12.96937448828948</v>
       </c>
       <c r="S11">
-        <v>1.301798127407759</v>
+        <v>1.299533530014994</v>
       </c>
       <c r="T11">
-        <v>9.07254917484533</v>
+        <v>9.078566411055464</v>
       </c>
       <c r="U11">
-        <v>0.8994034484053935</v>
+        <v>0.9083583923719327</v>
       </c>
       <c r="V11">
-        <v>1.944978715118663</v>
+        <v>1.942465791101388</v>
       </c>
       <c r="W11">
-        <v>0.193287707034809</v>
+        <v>0.1930200075274589</v>
       </c>
       <c r="X11">
-        <v>1.944446631233554</v>
+        <v>1.941567057818116</v>
       </c>
       <c r="Y11">
-        <v>0.1925035370784889</v>
+        <v>0.1958086504177281</v>
       </c>
       <c r="Z11">
-        <v>4.318782960756447</v>
+        <v>4.325905196333502</v>
       </c>
       <c r="AA11">
-        <v>0.4320936658924327</v>
+        <v>0.4320485551577495</v>
       </c>
       <c r="AB11">
-        <v>8.628438087495729</v>
+        <v>8.65711071109193</v>
       </c>
       <c r="AC11">
-        <v>0.8634384560682222</v>
+        <v>0.8757301636122308</v>
       </c>
       <c r="AD11">
-        <v>20.20015365059482</v>
+        <v>20.1798162207439</v>
       </c>
       <c r="AE11">
-        <v>1.229454834664053</v>
+        <v>1.216782664107201</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -5129,94 +5129,94 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>97.64570777626837</v>
+        <v>97.67138448994166</v>
       </c>
       <c r="C12">
-        <v>4.85530631979046</v>
+        <v>4.865533001977621</v>
       </c>
       <c r="D12">
-        <v>47.70662620206335</v>
+        <v>47.6718360744141</v>
       </c>
       <c r="E12">
-        <v>3.348854652148053</v>
+        <v>3.401118657575636</v>
       </c>
       <c r="F12">
-        <v>47.6692702103704</v>
+        <v>47.7093741339008</v>
       </c>
       <c r="G12">
-        <v>3.334989076098451</v>
+        <v>3.351424001085542</v>
       </c>
       <c r="H12">
-        <v>13.96071590535195</v>
+        <v>13.98144089231127</v>
       </c>
       <c r="I12">
-        <v>1.206518079047171</v>
+        <v>1.204511324966461</v>
       </c>
       <c r="J12">
-        <v>13.96994323156276</v>
+        <v>13.96946821321585</v>
       </c>
       <c r="K12">
-        <v>1.208015673768588</v>
+        <v>1.190911851174461</v>
       </c>
       <c r="L12">
-        <v>4.65747209242604</v>
+        <v>4.660175419652296</v>
       </c>
       <c r="M12">
-        <v>0.4020088547064273</v>
+        <v>0.3982121417645182</v>
       </c>
       <c r="N12">
-        <v>9.313821985785479</v>
+        <v>9.3165449083097</v>
       </c>
       <c r="O12">
-        <v>0.807445076182966</v>
+        <v>0.8045552575831851</v>
       </c>
       <c r="P12">
-        <v>4.655757691234943</v>
+        <v>4.655762753712263</v>
       </c>
       <c r="Q12">
-        <v>0.4000943347625681</v>
+        <v>0.3999676948539322</v>
       </c>
       <c r="R12">
-        <v>13.61910686093979</v>
+        <v>13.65858091905893</v>
       </c>
       <c r="S12">
-        <v>1.359782705345286</v>
+        <v>1.378491481601265</v>
       </c>
       <c r="T12">
-        <v>9.547206972486967</v>
+        <v>9.546694138673082</v>
       </c>
       <c r="U12">
-        <v>0.9566765730289627</v>
+        <v>0.9461627772093113</v>
       </c>
       <c r="V12">
-        <v>2.047434935059273</v>
+        <v>2.0480608987263</v>
       </c>
       <c r="W12">
-        <v>0.2067472987964479</v>
+        <v>0.2037693189385348</v>
       </c>
       <c r="X12">
-        <v>2.046126610669214</v>
+        <v>2.044200189160263</v>
       </c>
       <c r="Y12">
-        <v>0.2047336149926236</v>
+        <v>0.2015087097897112</v>
       </c>
       <c r="Z12">
-        <v>4.544899097450364</v>
+        <v>4.553144988959339</v>
       </c>
       <c r="AA12">
-        <v>0.4501010235479672</v>
+        <v>0.451288923693878</v>
       </c>
       <c r="AB12">
-        <v>9.092161800791713</v>
+        <v>9.099356005940171</v>
       </c>
       <c r="AC12">
-        <v>0.9111664515700296</v>
+        <v>0.9008025413420336</v>
       </c>
       <c r="AD12">
-        <v>21.33496252231171</v>
+        <v>21.35369320020526</v>
       </c>
       <c r="AE12">
-        <v>1.293758492403544</v>
+        <v>1.295722822129171</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -5224,94 +5224,94 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>4.878719751007314</v>
+        <v>4.888908442003017</v>
       </c>
       <c r="C13">
-        <v>0.2431333000053809</v>
+        <v>0.2429050354809058</v>
       </c>
       <c r="D13">
-        <v>2.382521286200851</v>
+        <v>2.385452737264762</v>
       </c>
       <c r="E13">
-        <v>0.1689034644271898</v>
+        <v>0.16892220301017</v>
       </c>
       <c r="F13">
-        <v>2.383062172367914</v>
+        <v>2.385621741774833</v>
       </c>
       <c r="G13">
-        <v>0.1679089803407633</v>
+        <v>0.1690718476453066</v>
       </c>
       <c r="H13">
-        <v>0.6979250827156683</v>
+        <v>0.6990778089315935</v>
       </c>
       <c r="I13">
-        <v>0.05970122427463091</v>
+        <v>0.06098659913665447</v>
       </c>
       <c r="J13">
-        <v>0.6980744944975202</v>
+        <v>0.6993333315840706</v>
       </c>
       <c r="K13">
-        <v>0.06024083032244969</v>
+        <v>0.06094693156116382</v>
       </c>
       <c r="L13">
-        <v>0.2327778593578734</v>
+        <v>0.2329998052781108</v>
       </c>
       <c r="M13">
-        <v>0.01998702904605267</v>
+        <v>0.02034542997952563</v>
       </c>
       <c r="N13">
-        <v>0.465528963730461</v>
+        <v>0.4655310662253923</v>
       </c>
       <c r="O13">
-        <v>0.0405216279561879</v>
+        <v>0.04044083838075389</v>
       </c>
       <c r="P13">
-        <v>0.2326636057396475</v>
+        <v>0.2329960948363246</v>
       </c>
       <c r="Q13">
-        <v>0.02006929027996958</v>
+        <v>0.02045538334038292</v>
       </c>
       <c r="R13">
-        <v>0.6815827792752704</v>
+        <v>0.6826959468446537</v>
       </c>
       <c r="S13">
-        <v>0.067089318485021</v>
+        <v>0.06852995603923365</v>
       </c>
       <c r="T13">
-        <v>0.4769227087956291</v>
+        <v>0.4780768820143115</v>
       </c>
       <c r="U13">
-        <v>0.0475973579958595</v>
+        <v>0.04853064650690287</v>
       </c>
       <c r="V13">
-        <v>0.1023453215080477</v>
+        <v>0.1024600633779349</v>
       </c>
       <c r="W13">
-        <v>0.01030751681669178</v>
+        <v>0.01022919407106179</v>
       </c>
       <c r="X13">
-        <v>0.1023450137468797</v>
+        <v>0.1024358177702716</v>
       </c>
       <c r="Y13">
-        <v>0.01019508640621835</v>
+        <v>0.0103960134190661</v>
       </c>
       <c r="Z13">
-        <v>0.2274175267159643</v>
+        <v>0.2277273636960765</v>
       </c>
       <c r="AA13">
-        <v>0.02274876455481485</v>
+        <v>0.02308768571143932</v>
       </c>
       <c r="AB13">
-        <v>0.4546459695911441</v>
+        <v>0.4547381528616491</v>
       </c>
       <c r="AC13">
-        <v>0.04559898503342257</v>
+        <v>0.04561265598408499</v>
       </c>
       <c r="AD13">
-        <v>22.48654108696284</v>
+        <v>22.5166686406116</v>
       </c>
       <c r="AE13">
-        <v>1.360618173981611</v>
+        <v>1.368554393194534</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -5319,94 +5319,94 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>107.4736381169197</v>
+        <v>107.3737674504554</v>
       </c>
       <c r="C14">
-        <v>5.376058599391959</v>
+        <v>5.462903712605258</v>
       </c>
       <c r="D14">
-        <v>52.45506855173492</v>
+        <v>52.43665009047493</v>
       </c>
       <c r="E14">
-        <v>3.683617635694338</v>
+        <v>3.716881061024001</v>
       </c>
       <c r="F14">
-        <v>52.44536625882642</v>
+        <v>52.46844123779479</v>
       </c>
       <c r="G14">
-        <v>3.685165195164106</v>
+        <v>3.768629111566671</v>
       </c>
       <c r="H14">
-        <v>15.35973998739149</v>
+        <v>15.37137274135088</v>
       </c>
       <c r="I14">
-        <v>1.331934864293293</v>
+        <v>1.343373591817229</v>
       </c>
       <c r="J14">
-        <v>15.36072679181633</v>
+        <v>15.37954405431693</v>
       </c>
       <c r="K14">
-        <v>1.32968999036294</v>
+        <v>1.352673034813471</v>
       </c>
       <c r="L14">
-        <v>5.122221675432288</v>
+        <v>5.121536914351312</v>
       </c>
       <c r="M14">
-        <v>0.4400057536962225</v>
+        <v>0.4487098253872129</v>
       </c>
       <c r="N14">
-        <v>10.24388741689886</v>
+        <v>10.25380386739591</v>
       </c>
       <c r="O14">
-        <v>0.8786321988521183</v>
+        <v>0.8958209520602185</v>
       </c>
       <c r="P14">
-        <v>5.122712442368339</v>
+        <v>5.121375985573139</v>
       </c>
       <c r="Q14">
-        <v>0.446534468613713</v>
+        <v>0.4502225368715025</v>
       </c>
       <c r="R14">
-        <v>15.00210851255416</v>
+        <v>15.00872768049984</v>
       </c>
       <c r="S14">
-        <v>1.496546809216356</v>
+        <v>1.515071541705905</v>
       </c>
       <c r="T14">
-        <v>10.49375258905377</v>
+        <v>10.509821248525</v>
       </c>
       <c r="U14">
-        <v>1.055818079990038</v>
+        <v>1.061412535043442</v>
       </c>
       <c r="V14">
-        <v>2.250388363675724</v>
+        <v>2.252805652399864</v>
       </c>
       <c r="W14">
-        <v>0.2233775242381548</v>
+        <v>0.2285211353252782</v>
       </c>
       <c r="X14">
-        <v>2.248899429465136</v>
+        <v>2.251060369729089</v>
       </c>
       <c r="Y14">
-        <v>0.2238405306650775</v>
+        <v>0.2295509220928913</v>
       </c>
       <c r="Z14">
-        <v>5.0026069275058</v>
+        <v>4.99696519773862</v>
       </c>
       <c r="AA14">
-        <v>0.4953173463537348</v>
+        <v>0.5012296906366744</v>
       </c>
       <c r="AB14">
-        <v>10.00253631157611</v>
+        <v>10.01143327297784</v>
       </c>
       <c r="AC14">
-        <v>0.9974111855541044</v>
+        <v>1.011341606629251</v>
       </c>
       <c r="AD14">
-        <v>8.914652296237389</v>
+        <v>8.92852938373051</v>
       </c>
       <c r="AE14">
-        <v>0.6015901249780607</v>
+        <v>0.6077678480671124</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -5414,94 +5414,94 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>112.3076454520722</v>
+        <v>112.3296593076788</v>
       </c>
       <c r="C15">
-        <v>5.697436157291886</v>
+        <v>5.702338444227999</v>
       </c>
       <c r="D15">
-        <v>54.79273254651196</v>
+        <v>54.85608922991028</v>
       </c>
       <c r="E15">
-        <v>3.903927487873921</v>
+        <v>3.883325824114611</v>
       </c>
       <c r="F15">
-        <v>54.81066229055462</v>
+        <v>54.86002587803488</v>
       </c>
       <c r="G15">
-        <v>3.906330446295296</v>
+        <v>3.896308747786983</v>
       </c>
       <c r="H15">
-        <v>16.05422636631974</v>
+        <v>16.07704029744539</v>
       </c>
       <c r="I15">
-        <v>1.396818347967499</v>
+        <v>1.390264549387496</v>
       </c>
       <c r="J15">
-        <v>16.05267965932958</v>
+        <v>16.06416552559251</v>
       </c>
       <c r="K15">
-        <v>1.395648742201041</v>
+        <v>1.39416787363131</v>
       </c>
       <c r="L15">
-        <v>5.351484750332886</v>
+        <v>5.353839635324522</v>
       </c>
       <c r="M15">
-        <v>0.4681251008859642</v>
+        <v>0.4663703078588876</v>
       </c>
       <c r="N15">
-        <v>10.70778999753124</v>
+        <v>10.71035088627369</v>
       </c>
       <c r="O15">
-        <v>0.9246905742878162</v>
+        <v>0.9330650392530663</v>
       </c>
       <c r="P15">
-        <v>5.355442415816198</v>
+        <v>5.358291673727682</v>
       </c>
       <c r="Q15">
-        <v>0.4693792827746096</v>
+        <v>0.4687354063434357</v>
       </c>
       <c r="R15">
-        <v>15.67781241411335</v>
+        <v>15.696164724567</v>
       </c>
       <c r="S15">
-        <v>1.586820244467954</v>
+        <v>1.565429966464184</v>
       </c>
       <c r="T15">
-        <v>10.9649050221551</v>
+        <v>10.98407909479102</v>
       </c>
       <c r="U15">
-        <v>1.10320168374756</v>
+        <v>1.095640492957874</v>
       </c>
       <c r="V15">
-        <v>2.351043936726543</v>
+        <v>2.351919219562995</v>
       </c>
       <c r="W15">
-        <v>0.2373603760690825</v>
+        <v>0.2352497676169327</v>
       </c>
       <c r="X15">
-        <v>2.353006171387542</v>
+        <v>2.355420737283616</v>
       </c>
       <c r="Y15">
-        <v>0.2363571028192178</v>
+        <v>0.2367239290331715</v>
       </c>
       <c r="Z15">
-        <v>5.224140393165233</v>
+        <v>5.229212562453284</v>
       </c>
       <c r="AA15">
-        <v>0.5224415063481286</v>
+        <v>0.5275681138949119</v>
       </c>
       <c r="AB15">
-        <v>10.46311264751236</v>
+        <v>10.45975241794456</v>
       </c>
       <c r="AC15">
-        <v>1.052291680680712</v>
+        <v>1.048700880408073</v>
       </c>
       <c r="AD15">
-        <v>19.60109520517362</v>
+        <v>19.61979678996686</v>
       </c>
       <c r="AE15">
-        <v>1.434085793125583</v>
+        <v>1.444083604896225</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -5509,94 +5509,94 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>117.2242022568911</v>
+        <v>117.1165864606771</v>
       </c>
       <c r="C16">
-        <v>5.895624043139456</v>
+        <v>5.888976138185006</v>
       </c>
       <c r="D16">
-        <v>57.19920528476242</v>
+        <v>57.17844623858382</v>
       </c>
       <c r="E16">
-        <v>4.051495947836426</v>
+        <v>4.099734224929174</v>
       </c>
       <c r="F16">
-        <v>57.24563972778914</v>
+        <v>57.18135032672171</v>
       </c>
       <c r="G16">
-        <v>4.059020739900846</v>
+        <v>4.065134248370619</v>
       </c>
       <c r="H16">
-        <v>16.77487680181124</v>
+        <v>16.73898434672034</v>
       </c>
       <c r="I16">
-        <v>1.449208858295912</v>
+        <v>1.467947480538262</v>
       </c>
       <c r="J16">
-        <v>16.77278921720366</v>
+        <v>16.76142717408564</v>
       </c>
       <c r="K16">
-        <v>1.462260023902758</v>
+        <v>1.458369495415692</v>
       </c>
       <c r="L16">
-        <v>5.586652172691286</v>
+        <v>5.581512737579739</v>
       </c>
       <c r="M16">
-        <v>0.4856543469603785</v>
+        <v>0.4842916097522309</v>
       </c>
       <c r="N16">
-        <v>11.1733071570317</v>
+        <v>11.16704290456767</v>
       </c>
       <c r="O16">
-        <v>0.976922086154521</v>
+        <v>0.9757329900962936</v>
       </c>
       <c r="P16">
-        <v>5.591420914951569</v>
+        <v>5.58322700120165</v>
       </c>
       <c r="Q16">
-        <v>0.4859938993609632</v>
+        <v>0.484715293953198</v>
       </c>
       <c r="R16">
-        <v>16.38004813570285</v>
+        <v>16.34735428065722</v>
       </c>
       <c r="S16">
-        <v>1.616406155168665</v>
+        <v>1.661044116267933</v>
       </c>
       <c r="T16">
-        <v>11.46405550955902</v>
+        <v>11.45276855297345</v>
       </c>
       <c r="U16">
-        <v>1.149681187215438</v>
+        <v>1.146284484933748</v>
       </c>
       <c r="V16">
-        <v>2.45814131198846</v>
+        <v>2.455618432514936</v>
       </c>
       <c r="W16">
-        <v>0.2483618532667849</v>
+        <v>0.2465366493332475</v>
       </c>
       <c r="X16">
-        <v>2.458233329164105</v>
+        <v>2.453918393204948</v>
       </c>
       <c r="Y16">
-        <v>0.2468238357067699</v>
+        <v>0.2452959611236084</v>
       </c>
       <c r="Z16">
-        <v>5.450466239403572</v>
+        <v>5.451563495343115</v>
       </c>
       <c r="AA16">
-        <v>0.5517306312181556</v>
+        <v>0.5478320492625235</v>
       </c>
       <c r="AB16">
-        <v>10.90471441373062</v>
+        <v>10.91131911746311</v>
       </c>
       <c r="AC16">
-        <v>1.099294901783121</v>
+        <v>1.100688455070236</v>
       </c>
       <c r="AD16">
-        <v>23.96864383276632</v>
+        <v>24.00019696517437</v>
       </c>
       <c r="AE16">
-        <v>1.589757420619669</v>
+        <v>1.574592646183936</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -5604,94 +5604,94 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>122.0242928547442</v>
+        <v>122.0350076476364</v>
       </c>
       <c r="C17">
-        <v>6.072528158072254</v>
+        <v>6.100992039840315</v>
       </c>
       <c r="D17">
-        <v>59.53566139547785</v>
+        <v>59.54278976260128</v>
       </c>
       <c r="E17">
-        <v>4.212309336616427</v>
+        <v>4.212087174039156</v>
       </c>
       <c r="F17">
-        <v>59.58344824006362</v>
+        <v>59.53021076024566</v>
       </c>
       <c r="G17">
-        <v>4.190140243302955</v>
+        <v>4.197525667451606</v>
       </c>
       <c r="H17">
-        <v>17.45786329752674</v>
+        <v>17.43302851779739</v>
       </c>
       <c r="I17">
-        <v>1.493034435727749</v>
+        <v>1.522456124999841</v>
       </c>
       <c r="J17">
-        <v>17.43665211332343</v>
+        <v>17.44224058263755</v>
       </c>
       <c r="K17">
-        <v>1.504313361610608</v>
+        <v>1.506374807202524</v>
       </c>
       <c r="L17">
-        <v>5.814256340541179</v>
+        <v>5.81303395028572</v>
       </c>
       <c r="M17">
-        <v>0.5046473309801314</v>
+        <v>0.5007586186725548</v>
       </c>
       <c r="N17">
-        <v>11.65260320816996</v>
+        <v>11.62668832736843</v>
       </c>
       <c r="O17">
-        <v>1.011900132451374</v>
+        <v>1.004443106739384</v>
       </c>
       <c r="P17">
-        <v>5.814822933712761</v>
+        <v>5.813604256387123</v>
       </c>
       <c r="Q17">
-        <v>0.4972645431639177</v>
+        <v>0.5023554283981135</v>
       </c>
       <c r="R17">
-        <v>17.04867090229644</v>
+        <v>17.01241927996123</v>
       </c>
       <c r="S17">
-        <v>1.685640002924564</v>
+        <v>1.710926226694927</v>
       </c>
       <c r="T17">
-        <v>11.91496695188984</v>
+        <v>11.91463816322415</v>
       </c>
       <c r="U17">
-        <v>1.197817337240353</v>
+        <v>1.193056274052514</v>
       </c>
       <c r="V17">
-        <v>2.55345969784528</v>
+        <v>2.554901549588472</v>
       </c>
       <c r="W17">
-        <v>0.2553185485771327</v>
+        <v>0.2532656866475373</v>
       </c>
       <c r="X17">
-        <v>2.555127580163853</v>
+        <v>2.555381304407556</v>
       </c>
       <c r="Y17">
-        <v>0.2543633421645163</v>
+        <v>0.2533227081736418</v>
       </c>
       <c r="Z17">
-        <v>5.677465821096767</v>
+        <v>5.677350791363521</v>
       </c>
       <c r="AA17">
-        <v>0.5681601767382439</v>
+        <v>0.5630463226027538</v>
       </c>
       <c r="AB17">
-        <v>11.38413428130903</v>
+        <v>11.35553240383864</v>
       </c>
       <c r="AC17">
-        <v>1.143625256286535</v>
+        <v>1.145120721594252</v>
       </c>
       <c r="AD17">
-        <v>26.38058780390211</v>
+        <v>26.36410039076626</v>
       </c>
       <c r="AE17">
-        <v>1.637632828116999</v>
+        <v>1.664010320657584</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -5699,94 +5699,94 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>126.988669735416</v>
+        <v>127.0383057609607</v>
       </c>
       <c r="C18">
-        <v>6.391094366314693</v>
+        <v>6.377349800192116</v>
       </c>
       <c r="D18">
-        <v>61.93754583513444</v>
+        <v>62.04295087796543</v>
       </c>
       <c r="E18">
-        <v>4.404355327199986</v>
+        <v>4.414387323663642</v>
       </c>
       <c r="F18">
-        <v>62.03088841836065</v>
+        <v>62.00787553907457</v>
       </c>
       <c r="G18">
-        <v>4.391762981885353</v>
+        <v>4.396027392242194</v>
       </c>
       <c r="H18">
-        <v>18.17345202994068</v>
+        <v>18.16012512210639</v>
       </c>
       <c r="I18">
-        <v>1.573732232218662</v>
+        <v>1.586238323054247</v>
       </c>
       <c r="J18">
-        <v>18.19808021286366</v>
+        <v>18.16896748332725</v>
       </c>
       <c r="K18">
-        <v>1.570493445242453</v>
+        <v>1.575761802917137</v>
       </c>
       <c r="L18">
-        <v>6.053076593689693</v>
+        <v>6.049558776347811</v>
       </c>
       <c r="M18">
-        <v>0.5272716353711557</v>
+        <v>0.5282720199503265</v>
       </c>
       <c r="N18">
-        <v>12.11945459931568</v>
+        <v>12.10802584944263</v>
       </c>
       <c r="O18">
-        <v>1.064409017679933</v>
+        <v>1.053830567255149</v>
       </c>
       <c r="P18">
-        <v>6.054756944101524</v>
+        <v>6.053975483994565</v>
       </c>
       <c r="Q18">
-        <v>0.5229101287239564</v>
+        <v>0.5292332410705399</v>
       </c>
       <c r="R18">
-        <v>17.7480002416435</v>
+        <v>17.72734270825823</v>
       </c>
       <c r="S18">
-        <v>1.765667952820967</v>
+        <v>1.789111254683355</v>
       </c>
       <c r="T18">
-        <v>12.44245222061599</v>
+        <v>12.41624126121362</v>
       </c>
       <c r="U18">
-        <v>1.238969922187185</v>
+        <v>1.24536960696109</v>
       </c>
       <c r="V18">
-        <v>2.66703239635783</v>
+        <v>2.659920125781965</v>
       </c>
       <c r="W18">
-        <v>0.2672038497136003</v>
+        <v>0.2664750498421601</v>
       </c>
       <c r="X18">
-        <v>2.665721196587269</v>
+        <v>2.661708618187751</v>
       </c>
       <c r="Y18">
-        <v>0.2664506123283641</v>
+        <v>0.2668674669321967</v>
       </c>
       <c r="Z18">
-        <v>5.907965555653614</v>
+        <v>5.911513196626155</v>
       </c>
       <c r="AA18">
-        <v>0.5934304516845493</v>
+        <v>0.5936955505663468</v>
       </c>
       <c r="AB18">
-        <v>11.83978652987346</v>
+        <v>11.82210897730477</v>
       </c>
       <c r="AC18">
-        <v>1.205667171201902</v>
+        <v>1.182783710140455</v>
       </c>
       <c r="AD18">
-        <v>27.99514944731339</v>
+        <v>27.96490186418922</v>
       </c>
       <c r="AE18">
-        <v>1.691098315843784</v>
+        <v>1.726018478674219</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -5794,94 +5794,94 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>131.8206679333928</v>
+        <v>131.8238391590343</v>
       </c>
       <c r="C19">
-        <v>6.532401506761635</v>
+        <v>6.514236635214457</v>
       </c>
       <c r="D19">
-        <v>64.35156826521754</v>
+        <v>64.3140497674304</v>
       </c>
       <c r="E19">
-        <v>4.541734128145903</v>
+        <v>4.546887884339941</v>
       </c>
       <c r="F19">
-        <v>64.31034957470051</v>
+        <v>64.39140115208956</v>
       </c>
       <c r="G19">
-        <v>4.544748550628749</v>
+        <v>4.541254180086678</v>
       </c>
       <c r="H19">
-        <v>18.8486952563016</v>
+        <v>18.88142553172547</v>
       </c>
       <c r="I19">
-        <v>1.639175236075155</v>
+        <v>1.632950401351457</v>
       </c>
       <c r="J19">
-        <v>18.84007012801202</v>
+        <v>18.86218781095328</v>
       </c>
       <c r="K19">
-        <v>1.624172134715462</v>
+        <v>1.630905495161681</v>
       </c>
       <c r="L19">
-        <v>6.283940324889599</v>
+        <v>6.286025442151836</v>
       </c>
       <c r="M19">
-        <v>0.5486110779138941</v>
+        <v>0.5409810018108904</v>
       </c>
       <c r="N19">
-        <v>12.56544066992333</v>
+        <v>12.57481544754298</v>
       </c>
       <c r="O19">
-        <v>1.08962002180805</v>
+        <v>1.09307707589201</v>
       </c>
       <c r="P19">
-        <v>6.279945650224317</v>
+        <v>6.284766099031955</v>
       </c>
       <c r="Q19">
-        <v>0.544785348694264</v>
+        <v>0.5489106772101043</v>
       </c>
       <c r="R19">
-        <v>18.40344003546861</v>
+        <v>18.43882936026921</v>
       </c>
       <c r="S19">
-        <v>1.844007635105607</v>
+        <v>1.833495070067271</v>
       </c>
       <c r="T19">
-        <v>12.88004436753275</v>
+        <v>12.88902222698767</v>
       </c>
       <c r="U19">
-        <v>1.279115054813564</v>
+        <v>1.307691228996812</v>
       </c>
       <c r="V19">
-        <v>2.760771576536877</v>
+        <v>2.764720571862784</v>
       </c>
       <c r="W19">
-        <v>0.2761523801252294</v>
+        <v>0.2772209218168322</v>
       </c>
       <c r="X19">
-        <v>2.757400496712327</v>
+        <v>2.764754167077525</v>
       </c>
       <c r="Y19">
-        <v>0.2759841670583768</v>
+        <v>0.2774475143118234</v>
       </c>
       <c r="Z19">
-        <v>6.136428782476042</v>
+        <v>6.145948874808177</v>
       </c>
       <c r="AA19">
-        <v>0.6154734027247198</v>
+        <v>0.6145609730818246</v>
       </c>
       <c r="AB19">
-        <v>12.27038679872479</v>
+        <v>12.28455776290583</v>
       </c>
       <c r="AC19">
-        <v>1.224920108793176</v>
+        <v>1.225875598216735</v>
       </c>
       <c r="AD19">
-        <v>29.3716627338768</v>
+        <v>29.33063928243339</v>
       </c>
       <c r="AE19">
-        <v>1.769151107493949</v>
+        <v>1.777606465508533</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -5889,94 +5889,94 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>136.700669712922</v>
+        <v>136.6804858025287</v>
       </c>
       <c r="C20">
-        <v>6.815961482421176</v>
+        <v>6.828511599246098</v>
       </c>
       <c r="D20">
-        <v>66.80680186284521</v>
+        <v>66.71269399115533</v>
       </c>
       <c r="E20">
-        <v>4.711475413689504</v>
+        <v>4.690450984455704</v>
       </c>
       <c r="F20">
-        <v>66.73845284922163</v>
+        <v>66.65587577230848</v>
       </c>
       <c r="G20">
-        <v>4.763576319079645</v>
+        <v>4.648091178844023</v>
       </c>
       <c r="H20">
-        <v>19.54714201379176</v>
+        <v>19.53085584421886</v>
       </c>
       <c r="I20">
-        <v>1.715431113966357</v>
+        <v>1.668196456532769</v>
       </c>
       <c r="J20">
-        <v>19.56439611496673</v>
+        <v>19.54129430337798</v>
       </c>
       <c r="K20">
-        <v>1.7117993454963</v>
+        <v>1.679716740703738</v>
       </c>
       <c r="L20">
-        <v>6.519081925309709</v>
+        <v>6.515015775181906</v>
       </c>
       <c r="M20">
-        <v>0.5667996788433981</v>
+        <v>0.559251043771343</v>
       </c>
       <c r="N20">
-        <v>13.03496013640611</v>
+        <v>13.00951291986274</v>
       </c>
       <c r="O20">
-        <v>1.134651350445807</v>
+        <v>1.121421213119141</v>
       </c>
       <c r="P20">
-        <v>6.515840256589682</v>
+        <v>6.508234265257164</v>
       </c>
       <c r="Q20">
-        <v>0.5710745229233068</v>
+        <v>0.5561355908821475</v>
       </c>
       <c r="R20">
-        <v>19.09882344472439</v>
+        <v>19.05524086147599</v>
       </c>
       <c r="S20">
-        <v>1.926130284675153</v>
+        <v>1.901217638332255</v>
       </c>
       <c r="T20">
-        <v>13.37351101015606</v>
+        <v>13.35412276258364</v>
       </c>
       <c r="U20">
-        <v>1.351813662503431</v>
+        <v>1.325781036544047</v>
       </c>
       <c r="V20">
-        <v>2.866156428706222</v>
+        <v>2.863225585650869</v>
       </c>
       <c r="W20">
-        <v>0.2882716533338802</v>
+        <v>0.2847140133438222</v>
       </c>
       <c r="X20">
-        <v>2.868952985299087</v>
+        <v>2.862836011363663</v>
       </c>
       <c r="Y20">
-        <v>0.2902272034985223</v>
+        <v>0.284051704627575</v>
       </c>
       <c r="Z20">
-        <v>6.366326535297996</v>
+        <v>6.359981797623753</v>
       </c>
       <c r="AA20">
-        <v>0.6392109594562432</v>
+        <v>0.6290391075307548</v>
       </c>
       <c r="AB20">
-        <v>12.72763150880735</v>
+        <v>12.71053359369477</v>
       </c>
       <c r="AC20">
-        <v>1.277457617291229</v>
+        <v>1.259578160916831</v>
       </c>
       <c r="AD20">
-        <v>30.5715353274513</v>
+        <v>30.58404886809275</v>
       </c>
       <c r="AE20">
-        <v>1.854055473074594</v>
+        <v>1.837405396340571</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -5984,94 +5984,94 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>141.678843569049</v>
+        <v>141.5910764575802</v>
       </c>
       <c r="C21">
-        <v>7.156218120256796</v>
+        <v>7.093975834245374</v>
       </c>
       <c r="D21">
-        <v>69.14868406953603</v>
+        <v>69.08109947043485</v>
       </c>
       <c r="E21">
-        <v>4.936847058391118</v>
+        <v>4.869684133020578</v>
       </c>
       <c r="F21">
-        <v>69.19048004574069</v>
+        <v>69.13715285282977</v>
       </c>
       <c r="G21">
-        <v>4.926050758776291</v>
+        <v>4.832340735668357</v>
       </c>
       <c r="H21">
-        <v>20.26885624295259</v>
+        <v>20.24866651385648</v>
       </c>
       <c r="I21">
-        <v>1.767484092574214</v>
+        <v>1.743840682150901</v>
       </c>
       <c r="J21">
-        <v>20.26806427601239</v>
+        <v>20.24700533985743</v>
       </c>
       <c r="K21">
-        <v>1.771351913405722</v>
+        <v>1.749537851488141</v>
       </c>
       <c r="L21">
-        <v>6.756647727762013</v>
+        <v>6.752184740557523</v>
       </c>
       <c r="M21">
-        <v>0.5847906946242921</v>
+        <v>0.5872288503580837</v>
       </c>
       <c r="N21">
-        <v>13.51064996271786</v>
+        <v>13.50972750359676</v>
       </c>
       <c r="O21">
-        <v>1.169303309915986</v>
+        <v>1.160738978473722</v>
       </c>
       <c r="P21">
-        <v>6.75542659745118</v>
+        <v>6.752770251276498</v>
       </c>
       <c r="Q21">
-        <v>0.5876692450938527</v>
+        <v>0.5755540398553901</v>
       </c>
       <c r="R21">
-        <v>19.8027048926677</v>
+        <v>19.76445955653124</v>
       </c>
       <c r="S21">
-        <v>2.007098569927122</v>
+        <v>1.96052381550334</v>
       </c>
       <c r="T21">
-        <v>13.84637336987194</v>
+        <v>13.83750056911724</v>
       </c>
       <c r="U21">
-        <v>1.40406503009354</v>
+        <v>1.392948579600466</v>
       </c>
       <c r="V21">
-        <v>2.970934634280255</v>
+        <v>2.965275910466432</v>
       </c>
       <c r="W21">
-        <v>0.3004059492641439</v>
+        <v>0.2921019334426541</v>
       </c>
       <c r="X21">
-        <v>2.96789505011537</v>
+        <v>2.968284767347083</v>
       </c>
       <c r="Y21">
-        <v>0.2966385556788367</v>
+        <v>0.2951700904011333</v>
       </c>
       <c r="Z21">
-        <v>6.59481251514266</v>
+        <v>6.596635495973685</v>
       </c>
       <c r="AA21">
-        <v>0.6597787528084789</v>
+        <v>0.6610874012164022</v>
       </c>
       <c r="AB21">
-        <v>13.19691218534633</v>
+        <v>13.2046170687972</v>
       </c>
       <c r="AC21">
-        <v>1.321062231256705</v>
+        <v>1.312695798228617</v>
       </c>
       <c r="AD21">
-        <v>31.76620797508791</v>
+        <v>31.73030149042418</v>
       </c>
       <c r="AE21">
-        <v>1.92905710470004</v>
+        <v>1.904999987709259</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6079,94 +6079,94 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>146.4459530472811</v>
+        <v>146.4392944097335</v>
       </c>
       <c r="C22">
-        <v>7.371230306512162</v>
+        <v>7.258166181257426</v>
       </c>
       <c r="D22">
-        <v>71.5159961135427</v>
+        <v>71.44539000492829</v>
       </c>
       <c r="E22">
-        <v>5.14102274827082</v>
+        <v>5.078350986081107</v>
       </c>
       <c r="F22">
-        <v>71.5121431422838</v>
+        <v>71.52695796347949</v>
       </c>
       <c r="G22">
-        <v>5.047589239926785</v>
+        <v>5.030646169285047</v>
       </c>
       <c r="H22">
-        <v>20.96094510760034</v>
+        <v>20.96026196078707</v>
       </c>
       <c r="I22">
-        <v>1.813298005250282</v>
+        <v>1.807258952190467</v>
       </c>
       <c r="J22">
-        <v>20.94134873800368</v>
+        <v>20.94183185887954</v>
       </c>
       <c r="K22">
-        <v>1.814418984056295</v>
+        <v>1.807840628983214</v>
       </c>
       <c r="L22">
-        <v>6.984006323967068</v>
+        <v>6.983760159939747</v>
       </c>
       <c r="M22">
-        <v>0.6094946091043619</v>
+        <v>0.6016438812597684</v>
       </c>
       <c r="N22">
-        <v>13.96882623253527</v>
+        <v>13.96677229932196</v>
       </c>
       <c r="O22">
-        <v>1.219140200515741</v>
+        <v>1.206796963044551</v>
       </c>
       <c r="P22">
-        <v>6.985768157492709</v>
+        <v>6.985358927774109</v>
       </c>
       <c r="Q22">
-        <v>0.6043997167731834</v>
+        <v>0.6008017586673196</v>
       </c>
       <c r="R22">
-        <v>20.46835086862589</v>
+        <v>20.45947541355573</v>
       </c>
       <c r="S22">
-        <v>2.066309531996834</v>
+        <v>2.036990214700679</v>
       </c>
       <c r="T22">
-        <v>14.31929158702333</v>
+        <v>14.31847080416055</v>
       </c>
       <c r="U22">
-        <v>1.44306453554611</v>
+        <v>1.417540916014613</v>
       </c>
       <c r="V22">
-        <v>3.068813828590507</v>
+        <v>3.065695100245968</v>
       </c>
       <c r="W22">
-        <v>0.3105496765144617</v>
+        <v>0.3067003521645011</v>
       </c>
       <c r="X22">
-        <v>3.068052692280147</v>
+        <v>3.068029645202896</v>
       </c>
       <c r="Y22">
-        <v>0.3059852218877083</v>
+        <v>0.3072316060286903</v>
       </c>
       <c r="Z22">
-        <v>6.824201697906945</v>
+        <v>6.820580030879926</v>
       </c>
       <c r="AA22">
-        <v>0.6906959029020954</v>
+        <v>0.6859173908397765</v>
       </c>
       <c r="AB22">
-        <v>13.64122371138314</v>
+        <v>13.62584744415543</v>
       </c>
       <c r="AC22">
-        <v>1.364644804054186</v>
+        <v>1.358145436362945</v>
       </c>
       <c r="AD22">
-        <v>32.94851582396804</v>
+        <v>32.90648852780614</v>
       </c>
       <c r="AE22">
-        <v>2.007661521777218</v>
+        <v>1.979305631935833</v>
       </c>
     </row>
   </sheetData>
@@ -6252,64 +6252,64 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>23.82785365152854</v>
+        <v>23.83934889084612</v>
       </c>
       <c r="C2">
-        <v>1.694729103695906</v>
+        <v>1.673695146380692</v>
       </c>
       <c r="D2">
-        <v>23.82785365152854</v>
+        <v>23.83934889084612</v>
       </c>
       <c r="E2">
-        <v>1.694729103695906</v>
+        <v>1.673695146380692</v>
       </c>
       <c r="F2">
-        <v>2.326823025719923</v>
+        <v>2.327878050309708</v>
       </c>
       <c r="G2">
-        <v>0.2024111522079088</v>
+        <v>0.2018929399522275</v>
       </c>
       <c r="H2">
-        <v>2.326823025719923</v>
+        <v>2.327878050309708</v>
       </c>
       <c r="I2">
-        <v>0.2024111522079088</v>
+        <v>0.2018929399522275</v>
       </c>
       <c r="J2">
-        <v>11.59666311653487</v>
+        <v>11.59070051649327</v>
       </c>
       <c r="K2">
-        <v>1.012232509748553</v>
+        <v>1.021690785012018</v>
       </c>
       <c r="L2">
-        <v>11.59666311653487</v>
+        <v>11.59070051649327</v>
       </c>
       <c r="M2">
-        <v>1.012232509748553</v>
+        <v>1.021690785012018</v>
       </c>
       <c r="N2">
-        <v>7.840407718153541</v>
+        <v>7.84114627062953</v>
       </c>
       <c r="O2">
-        <v>0.6701985444462222</v>
+        <v>0.6629929188839886</v>
       </c>
       <c r="P2">
-        <v>7.840407718153541</v>
+        <v>7.84114627062953</v>
       </c>
       <c r="Q2">
-        <v>0.6701985444462222</v>
+        <v>0.6629929188839886</v>
       </c>
       <c r="R2">
-        <v>1.022867418052589</v>
+        <v>1.023035112486554</v>
       </c>
       <c r="S2">
-        <v>0.1020621227039167</v>
+        <v>0.1034584375761074</v>
       </c>
       <c r="T2">
-        <v>1.022867418052589</v>
+        <v>1.023035112486554</v>
       </c>
       <c r="U2">
-        <v>0.1020621227039167</v>
+        <v>0.1034584375761074</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6317,64 +6317,64 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>26.21978410225616</v>
+        <v>26.20131296316591</v>
       </c>
       <c r="C3">
-        <v>1.850316195303996</v>
+        <v>1.870208781639657</v>
       </c>
       <c r="D3">
-        <v>50.04763775378453</v>
+        <v>50.04066185401212</v>
       </c>
       <c r="E3">
-        <v>2.477083056552207</v>
+        <v>2.518772685883819</v>
       </c>
       <c r="F3">
-        <v>2.559942721218232</v>
+        <v>2.559327163567774</v>
       </c>
       <c r="G3">
-        <v>0.2219467191042289</v>
+        <v>0.2215946422838719</v>
       </c>
       <c r="H3">
-        <v>4.886765746938137</v>
+        <v>4.887205213877474</v>
       </c>
       <c r="I3">
-        <v>0.2988024938826706</v>
+        <v>0.2994447759229218</v>
       </c>
       <c r="J3">
-        <v>5.378708521280767</v>
+        <v>5.376990688625854</v>
       </c>
       <c r="K3">
-        <v>1.300332770864809</v>
+        <v>1.309804926890138</v>
       </c>
       <c r="L3">
-        <v>16.97537163781559</v>
+        <v>16.96769120511916</v>
       </c>
       <c r="M3">
-        <v>1.191380329405734</v>
+        <v>1.189499601198796</v>
       </c>
       <c r="N3">
-        <v>15.99710499762975</v>
+        <v>15.99288638611622</v>
       </c>
       <c r="O3">
-        <v>1.001146710462647</v>
+        <v>0.9985332180928886</v>
       </c>
       <c r="P3">
-        <v>23.83751271578325</v>
+        <v>23.83403265674586</v>
       </c>
       <c r="Q3">
-        <v>1.435097581281589</v>
+        <v>1.427945569923081</v>
       </c>
       <c r="R3">
-        <v>1.124389962407401</v>
+        <v>1.125177866304825</v>
       </c>
       <c r="S3">
-        <v>0.1125287396604348</v>
+        <v>0.1133810159544935</v>
       </c>
       <c r="T3">
-        <v>2.147257380459982</v>
+        <v>2.148212978791381</v>
       </c>
       <c r="U3">
-        <v>0.1513277238864415</v>
+        <v>0.1534754237893899</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -6382,64 +6382,64 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>28.57747252487511</v>
+        <v>28.61358814806866</v>
       </c>
       <c r="C4">
-        <v>2.005889532145547</v>
+        <v>2.039756771227545</v>
       </c>
       <c r="D4">
-        <v>78.62511027865983</v>
+        <v>78.6542500020802</v>
       </c>
       <c r="E4">
-        <v>3.179370405627226</v>
+        <v>3.246740343582285</v>
       </c>
       <c r="F4">
-        <v>2.7914265025987</v>
+        <v>2.790400492080999</v>
       </c>
       <c r="G4">
-        <v>0.2388044259334863</v>
+        <v>0.2411640682067452</v>
       </c>
       <c r="H4">
-        <v>7.678192249536859</v>
+        <v>7.677605705958457</v>
       </c>
       <c r="I4">
-        <v>0.3838889403762391</v>
+        <v>0.3852263384839921</v>
       </c>
       <c r="J4">
-        <v>3.189657972655382</v>
+        <v>3.192544243081548</v>
       </c>
       <c r="K4">
-        <v>1.410587261630286</v>
+        <v>1.422314117616757</v>
       </c>
       <c r="L4">
-        <v>20.16502961047108</v>
+        <v>20.16023544820064</v>
       </c>
       <c r="M4">
-        <v>1.341939002084601</v>
+        <v>1.33307350538139</v>
       </c>
       <c r="N4">
-        <v>20.11919252167392</v>
+        <v>20.11250033430165</v>
       </c>
       <c r="O4">
-        <v>1.106574624633129</v>
+        <v>1.102855682255576</v>
       </c>
       <c r="P4">
-        <v>43.95670523745711</v>
+        <v>43.94653299104731</v>
       </c>
       <c r="Q4">
-        <v>2.142374945725709</v>
+        <v>2.138388284219915</v>
       </c>
       <c r="R4">
-        <v>1.227791537020719</v>
+        <v>1.224926340612097</v>
       </c>
       <c r="S4">
-        <v>0.1223237987615386</v>
+        <v>0.1215693785564938</v>
       </c>
       <c r="T4">
-        <v>3.375048917480708</v>
+        <v>3.373139319403497</v>
       </c>
       <c r="U4">
-        <v>0.1954641052111355</v>
+        <v>0.1962447129785999</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6447,64 +6447,64 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>30.95570605487256</v>
+        <v>30.97694714311913</v>
       </c>
       <c r="C5">
-        <v>2.189098999479619</v>
+        <v>2.189762378319373</v>
       </c>
       <c r="D5">
-        <v>109.5808163335318</v>
+        <v>109.6311971451995</v>
       </c>
       <c r="E5">
-        <v>3.8584029791107</v>
+        <v>3.941907955949299</v>
       </c>
       <c r="F5">
-        <v>3.023861712148889</v>
+        <v>3.024013808989005</v>
       </c>
       <c r="G5">
-        <v>0.2660028866920433</v>
+        <v>0.2626017452228119</v>
       </c>
       <c r="H5">
-        <v>10.70205396168577</v>
+        <v>10.70161951494747</v>
       </c>
       <c r="I5">
-        <v>0.4670402873061355</v>
+        <v>0.4655051978791852</v>
       </c>
       <c r="J5">
-        <v>2.368932274640181</v>
+        <v>2.361117497639742</v>
       </c>
       <c r="K5">
-        <v>1.555195411211266</v>
+        <v>1.55023852416296</v>
       </c>
       <c r="L5">
-        <v>22.53396188511113</v>
+        <v>22.52135294584036</v>
       </c>
       <c r="M5">
-        <v>1.47203124367613</v>
+        <v>1.482497641472168</v>
       </c>
       <c r="N5">
-        <v>22.89183536771656</v>
+        <v>22.88972133100971</v>
       </c>
       <c r="O5">
-        <v>1.181136644171867</v>
+        <v>1.186558908201305</v>
       </c>
       <c r="P5">
-        <v>66.84854060517367</v>
+        <v>66.8362543220573</v>
       </c>
       <c r="Q5">
-        <v>2.792718032983378</v>
+        <v>2.794252044912483</v>
       </c>
       <c r="R5">
-        <v>1.329351704767826</v>
+        <v>1.330046559759953</v>
       </c>
       <c r="S5">
-        <v>0.1332372945272269</v>
+        <v>0.1335696403855789</v>
       </c>
       <c r="T5">
-        <v>4.704400622248552</v>
+        <v>4.703185879163429</v>
       </c>
       <c r="U5">
-        <v>0.2355906496727687</v>
+        <v>0.2392679149857329</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -6512,64 +6512,64 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>33.36338573578822</v>
+        <v>33.37817479029346</v>
       </c>
       <c r="C6">
-        <v>2.371705843155515</v>
+        <v>2.373388416331832</v>
       </c>
       <c r="D6">
-        <v>142.9442020693206</v>
+        <v>143.0093719354932</v>
       </c>
       <c r="E6">
-        <v>4.560493574123702</v>
+        <v>4.608234038308804</v>
       </c>
       <c r="F6">
-        <v>3.259827649261895</v>
+        <v>3.258071594086681</v>
       </c>
       <c r="G6">
-        <v>0.2835026526462335</v>
+        <v>0.2846201089234843</v>
       </c>
       <c r="H6">
-        <v>13.9618816109476</v>
+        <v>13.95969110903422</v>
       </c>
       <c r="I6">
-        <v>0.5478996467805809</v>
+        <v>0.5470401449023746</v>
       </c>
       <c r="J6">
-        <v>2.033262499517875</v>
+        <v>2.043693861494862</v>
       </c>
       <c r="K6">
-        <v>1.649525033016469</v>
+        <v>1.668123228229693</v>
       </c>
       <c r="L6">
-        <v>24.56722438462902</v>
+        <v>24.56504680733528</v>
       </c>
       <c r="M6">
-        <v>1.611401335419741</v>
+        <v>1.628455044707964</v>
       </c>
       <c r="N6">
-        <v>25.15403633413285</v>
+        <v>25.15209089222478</v>
       </c>
       <c r="O6">
-        <v>1.296963081198659</v>
+        <v>1.286771128302334</v>
       </c>
       <c r="P6">
-        <v>92.00257693930637</v>
+        <v>91.98834521428167</v>
       </c>
       <c r="Q6">
-        <v>3.42526080292812</v>
+        <v>3.406366360002846</v>
       </c>
       <c r="R6">
-        <v>1.4313366539763</v>
+        <v>1.431850952419496</v>
       </c>
       <c r="S6">
-        <v>0.1416243482965075</v>
+        <v>0.1443346005416986</v>
       </c>
       <c r="T6">
-        <v>6.135737276224828</v>
+        <v>6.135036831582923</v>
       </c>
       <c r="U6">
-        <v>0.2762637676220824</v>
+        <v>0.2789236205944165</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -6577,64 +6577,64 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>35.74602339887515</v>
+        <v>35.7550159934607</v>
       </c>
       <c r="C7">
-        <v>2.532125944164668</v>
+        <v>2.511461992752144</v>
       </c>
       <c r="D7">
-        <v>178.6902254681949</v>
+        <v>178.7643879289541</v>
       </c>
       <c r="E7">
-        <v>5.24021825225092</v>
+        <v>5.249972997821045</v>
       </c>
       <c r="F7">
-        <v>3.501264140502916</v>
+        <v>3.497729731846857</v>
       </c>
       <c r="G7">
-        <v>0.3076290132823349</v>
+        <v>0.3048485468076253</v>
       </c>
       <c r="H7">
-        <v>17.46314575145056</v>
+        <v>17.457420840881</v>
       </c>
       <c r="I7">
-        <v>0.6279583214962128</v>
+        <v>0.6238541593284833</v>
       </c>
       <c r="J7">
-        <v>1.975864380604554</v>
+        <v>1.956214004226053</v>
       </c>
       <c r="K7">
-        <v>1.801561270185124</v>
+        <v>1.795607937644347</v>
       </c>
       <c r="L7">
-        <v>26.54308876523366</v>
+        <v>26.52126081156138</v>
       </c>
       <c r="M7">
-        <v>1.75468505071916</v>
+        <v>1.743363901896542</v>
       </c>
       <c r="N7">
-        <v>27.2481974342135</v>
+        <v>27.22745917171463</v>
       </c>
       <c r="O7">
-        <v>1.399684300079975</v>
+        <v>1.389891277874462</v>
       </c>
       <c r="P7">
-        <v>119.2507743735197</v>
+        <v>119.2158043859971</v>
       </c>
       <c r="Q7">
-        <v>4.039421872690188</v>
+        <v>4.003572119989477</v>
       </c>
       <c r="R7">
-        <v>1.538285752210946</v>
+        <v>1.534054193034177</v>
       </c>
       <c r="S7">
-        <v>0.1568432421188651</v>
+        <v>0.1536265265435528</v>
       </c>
       <c r="T7">
-        <v>7.67402302843581</v>
+        <v>7.669091024617094</v>
       </c>
       <c r="U7">
-        <v>0.3178947586943339</v>
+        <v>0.3188380721002904</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -6642,64 +6642,64 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <v>38.20825589759313</v>
+        <v>38.16221924722015</v>
       </c>
       <c r="C8">
-        <v>2.675203899697078</v>
+        <v>2.706387735552109</v>
       </c>
       <c r="D8">
-        <v>216.8984813657889</v>
+        <v>216.9266071761742</v>
       </c>
       <c r="E8">
-        <v>5.904325691662748</v>
+        <v>5.929540726295984</v>
       </c>
       <c r="F8">
-        <v>3.731105298953163</v>
+        <v>3.730494310626359</v>
       </c>
       <c r="G8">
-        <v>0.3250781780617737</v>
+        <v>0.3253938512155624</v>
       </c>
       <c r="H8">
-        <v>21.19425105040375</v>
+        <v>21.18791515150736</v>
       </c>
       <c r="I8">
-        <v>0.7036792166089899</v>
+        <v>0.7035397165393196</v>
       </c>
       <c r="J8">
-        <v>1.88622070758069</v>
+        <v>1.872133978576237</v>
       </c>
       <c r="K8">
-        <v>1.905070300854971</v>
+        <v>1.917809016509605</v>
       </c>
       <c r="L8">
-        <v>28.42930947281428</v>
+        <v>28.39339479013758</v>
       </c>
       <c r="M8">
-        <v>1.863167762513016</v>
+        <v>1.864057596603315</v>
       </c>
       <c r="N8">
-        <v>29.26761918334907</v>
+        <v>29.23337118685969</v>
       </c>
       <c r="O8">
-        <v>1.480570472089346</v>
+        <v>1.476712616577224</v>
       </c>
       <c r="P8">
-        <v>148.5183935568696</v>
+        <v>148.4491755728559</v>
       </c>
       <c r="Q8">
-        <v>4.65067928159796</v>
+        <v>4.606612590043148</v>
       </c>
       <c r="R8">
-        <v>1.641147774336905</v>
+        <v>1.638967320134614</v>
       </c>
       <c r="S8">
-        <v>0.1643242308457728</v>
+        <v>0.164573599075419</v>
       </c>
       <c r="T8">
-        <v>9.315170802772675</v>
+        <v>9.308058344751695</v>
       </c>
       <c r="U8">
-        <v>0.3592541257782375</v>
+        <v>0.3598541305941959</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -6707,64 +6707,64 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <v>40.51146177464906</v>
+        <v>40.54332829244034</v>
       </c>
       <c r="C9">
-        <v>2.870067800671818</v>
+        <v>2.856937836649164</v>
       </c>
       <c r="D9">
-        <v>257.4099431404377</v>
+        <v>257.4699354686157</v>
       </c>
       <c r="E9">
-        <v>6.570593048272083</v>
+        <v>6.636387153985032</v>
       </c>
       <c r="F9">
-        <v>3.949794294193317</v>
+        <v>3.960970054162832</v>
       </c>
       <c r="G9">
-        <v>0.3432141024206416</v>
+        <v>0.342766112684938</v>
       </c>
       <c r="H9">
-        <v>25.14404534459707</v>
+        <v>25.14888520567024</v>
       </c>
       <c r="I9">
-        <v>0.7838992574536556</v>
+        <v>0.7788308666607471</v>
       </c>
       <c r="J9">
-        <v>1.82467250618782</v>
+        <v>1.860704897282056</v>
       </c>
       <c r="K9">
-        <v>2.028226380904706</v>
+        <v>2.033429261303489</v>
       </c>
       <c r="L9">
-        <v>30.25398197900209</v>
+        <v>30.25409968741963</v>
       </c>
       <c r="M9">
-        <v>2.003390444894226</v>
+        <v>1.98912090280083</v>
       </c>
       <c r="N9">
-        <v>31.20275684360089</v>
+        <v>31.20286561482562</v>
       </c>
       <c r="O9">
-        <v>1.575331496158162</v>
+        <v>1.583415456201577</v>
       </c>
       <c r="P9">
-        <v>179.7211504004701</v>
+        <v>179.652041187682</v>
       </c>
       <c r="Q9">
-        <v>5.262384062144157</v>
+        <v>5.207641938575887</v>
       </c>
       <c r="R9">
-        <v>1.740320541576183</v>
+        <v>1.741005636455297</v>
       </c>
       <c r="S9">
-        <v>0.1748158136166992</v>
+        <v>0.1745673284618234</v>
       </c>
       <c r="T9">
-        <v>11.05549134434886</v>
+        <v>11.04906398120704</v>
       </c>
       <c r="U9">
-        <v>0.4001915689739867</v>
+        <v>0.4019318838338701</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6772,64 +6772,64 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <v>42.86657572807166</v>
+        <v>42.90487951981443</v>
       </c>
       <c r="C10">
-        <v>3.036809934830831</v>
+        <v>3.084755424777731</v>
       </c>
       <c r="D10">
-        <v>300.2765188685093</v>
+        <v>300.3748149884301</v>
       </c>
       <c r="E10">
-        <v>7.247310341196149</v>
+        <v>7.278675295942604</v>
       </c>
       <c r="F10">
-        <v>4.191789380801555</v>
+        <v>4.187087470693892</v>
       </c>
       <c r="G10">
-        <v>0.3624672189192688</v>
+        <v>0.3607262565580906</v>
       </c>
       <c r="H10">
-        <v>29.33583472539842</v>
+        <v>29.33597267636406</v>
       </c>
       <c r="I10">
-        <v>0.8595985788545615</v>
+        <v>0.8594023799149724</v>
       </c>
       <c r="J10">
-        <v>1.860789369124868</v>
+        <v>1.83100294296221</v>
       </c>
       <c r="K10">
-        <v>2.169572962471431</v>
+        <v>2.182417195019668</v>
       </c>
       <c r="L10">
-        <v>32.11477134812686</v>
+        <v>32.08510263038173</v>
       </c>
       <c r="M10">
-        <v>2.108032121215736</v>
+        <v>2.075034005741254</v>
       </c>
       <c r="N10">
-        <v>33.13722621097308</v>
+        <v>33.14140320196933</v>
       </c>
       <c r="O10">
-        <v>1.670566514393526</v>
+        <v>1.659778688431338</v>
       </c>
       <c r="P10">
-        <v>212.8583766114425</v>
+        <v>212.7934443896521</v>
       </c>
       <c r="Q10">
-        <v>5.865148762988276</v>
+        <v>5.833538570231492</v>
       </c>
       <c r="R10">
-        <v>1.842545713052247</v>
+        <v>1.839047539996164</v>
       </c>
       <c r="S10">
-        <v>0.1856349190865635</v>
+        <v>0.1849338477518497</v>
       </c>
       <c r="T10">
-        <v>12.89803705740112</v>
+        <v>12.88811152120322</v>
       </c>
       <c r="U10">
-        <v>0.4396874199237141</v>
+        <v>0.4455176986142822</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -6837,64 +6837,64 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <v>45.32976163204476</v>
+        <v>45.31052540647645</v>
       </c>
       <c r="C11">
-        <v>3.210171221581759</v>
+        <v>3.182370764068783</v>
       </c>
       <c r="D11">
-        <v>345.6062805005549</v>
+        <v>345.6853403949044</v>
       </c>
       <c r="E11">
-        <v>7.923486313534723</v>
+        <v>7.955661238981159</v>
       </c>
       <c r="F11">
-        <v>4.424091967551223</v>
+        <v>4.424424474210697</v>
       </c>
       <c r="G11">
-        <v>0.3846355866367447</v>
+        <v>0.3784424612701126</v>
       </c>
       <c r="H11">
-        <v>33.75992669294975</v>
+        <v>33.76039715057473</v>
       </c>
       <c r="I11">
-        <v>0.9463526352872753</v>
+        <v>0.9389090060517025</v>
       </c>
       <c r="J11">
-        <v>1.806784054117939</v>
+        <v>1.86812467860113</v>
       </c>
       <c r="K11">
-        <v>2.287119642656975</v>
+        <v>2.27774978033219</v>
       </c>
       <c r="L11">
-        <v>33.92155540224493</v>
+        <v>33.95322730898307</v>
       </c>
       <c r="M11">
-        <v>2.233007577326938</v>
+        <v>2.225048207829717</v>
       </c>
       <c r="N11">
-        <v>35.09235341396562</v>
+        <v>35.10529791927046</v>
       </c>
       <c r="O11">
-        <v>1.749554589414649</v>
+        <v>1.757261084922977</v>
       </c>
       <c r="P11">
-        <v>247.9507300254082</v>
+        <v>247.8987423089224</v>
       </c>
       <c r="Q11">
-        <v>6.470485171961247</v>
+        <v>6.465350441865806</v>
       </c>
       <c r="R11">
-        <v>1.944446631233554</v>
+        <v>1.941567057818116</v>
       </c>
       <c r="S11">
-        <v>0.1925035370784889</v>
+        <v>0.1958086504177281</v>
       </c>
       <c r="T11">
-        <v>14.8424836886347</v>
+        <v>14.82967857902133</v>
       </c>
       <c r="U11">
-        <v>0.4794850966907833</v>
+        <v>0.485994267323569</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -6902,64 +6902,64 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <v>47.70662620206335</v>
+        <v>47.6718360744141</v>
       </c>
       <c r="C12">
-        <v>3.348854652148053</v>
+        <v>3.401118657575636</v>
       </c>
       <c r="D12">
-        <v>393.3129067026174</v>
+        <v>393.3571764693197</v>
       </c>
       <c r="E12">
-        <v>8.622996001134721</v>
+        <v>8.643391169064609</v>
       </c>
       <c r="F12">
-        <v>4.655757691234943</v>
+        <v>4.655762753712263</v>
       </c>
       <c r="G12">
-        <v>0.4000943347625681</v>
+        <v>0.3999676948539322</v>
       </c>
       <c r="H12">
-        <v>38.41568438418462</v>
+        <v>38.41615990428701</v>
       </c>
       <c r="I12">
-        <v>1.033956259331526</v>
+        <v>1.019673368802979</v>
       </c>
       <c r="J12">
-        <v>1.831351311115026</v>
+        <v>1.851581857526812</v>
       </c>
       <c r="K12">
-        <v>2.405086515482787</v>
+        <v>2.418919319098801</v>
       </c>
       <c r="L12">
-        <v>35.75290671335996</v>
+        <v>35.80480916650971</v>
       </c>
       <c r="M12">
-        <v>2.342940667234684</v>
+        <v>2.365902201103174</v>
       </c>
       <c r="N12">
-        <v>37.01945835561325</v>
+        <v>37.05425509383125</v>
       </c>
       <c r="O12">
-        <v>1.846819650925523</v>
+        <v>1.838474145402389</v>
       </c>
       <c r="P12">
-        <v>284.9701883810208</v>
+        <v>284.9529974027528</v>
       </c>
       <c r="Q12">
-        <v>7.089279816660055</v>
+        <v>7.079445206157484</v>
       </c>
       <c r="R12">
-        <v>2.046126610669214</v>
+        <v>2.044200189160263</v>
       </c>
       <c r="S12">
-        <v>0.2047336149926236</v>
+        <v>0.2015087097897112</v>
       </c>
       <c r="T12">
-        <v>16.88861029930385</v>
+        <v>16.87387876818157</v>
       </c>
       <c r="U12">
-        <v>0.5219369937687534</v>
+        <v>0.5256065721086544</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -6967,64 +6967,64 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <v>2.382521286200851</v>
+        <v>2.385452737264762</v>
       </c>
       <c r="C13">
-        <v>0.1689034644271898</v>
+        <v>0.16892220301017</v>
       </c>
       <c r="D13">
-        <v>395.6954279888188</v>
+        <v>395.7426292065837</v>
       </c>
       <c r="E13">
-        <v>8.624961634448237</v>
+        <v>8.644717059449301</v>
       </c>
       <c r="F13">
-        <v>0.2326636057396475</v>
+        <v>0.2329960948363246</v>
       </c>
       <c r="G13">
-        <v>0.02006929027996958</v>
+        <v>0.02045538334038292</v>
       </c>
       <c r="H13">
-        <v>38.64834798992434</v>
+        <v>38.64915599912337</v>
       </c>
       <c r="I13">
-        <v>1.034159528340414</v>
+        <v>1.019624548951651</v>
       </c>
       <c r="J13">
-        <v>-21.32803559889176</v>
+        <v>-21.3558958117526</v>
       </c>
       <c r="K13">
-        <v>1.365914237862463</v>
+        <v>1.374112156861896</v>
       </c>
       <c r="L13">
-        <v>14.4248711144681</v>
+        <v>14.44891335475693</v>
       </c>
       <c r="M13">
-        <v>1.270939419072018</v>
+        <v>1.281197409108491</v>
       </c>
       <c r="N13">
-        <v>23.27094990477796</v>
+        <v>23.30159422054745</v>
       </c>
       <c r="O13">
-        <v>1.361308949966448</v>
+        <v>1.370867158578331</v>
       </c>
       <c r="P13">
-        <v>308.2411382858003</v>
+        <v>308.2545916232994</v>
       </c>
       <c r="Q13">
-        <v>7.588628906893805</v>
+        <v>7.577001178684114</v>
       </c>
       <c r="R13">
-        <v>0.1023450137468797</v>
+        <v>0.1024358177702716</v>
       </c>
       <c r="S13">
-        <v>0.01019508640621835</v>
+        <v>0.0103960134190661</v>
       </c>
       <c r="T13">
-        <v>16.99095531305074</v>
+        <v>16.97631458595185</v>
       </c>
       <c r="U13">
-        <v>0.5220797277072987</v>
+        <v>0.5256581476726782</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -7032,64 +7032,64 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <v>52.45506855173492</v>
+        <v>52.43665009047493</v>
       </c>
       <c r="C14">
-        <v>3.683617635694338</v>
+        <v>3.716881061024001</v>
       </c>
       <c r="D14">
-        <v>448.150496540553</v>
+        <v>448.1792792970589</v>
       </c>
       <c r="E14">
-        <v>9.346097024119739</v>
+        <v>9.410982636842295</v>
       </c>
       <c r="F14">
-        <v>5.122712442368339</v>
+        <v>5.121375985573139</v>
       </c>
       <c r="G14">
-        <v>0.446534468613713</v>
+        <v>0.4502225368715025</v>
       </c>
       <c r="H14">
-        <v>43.77106043229274</v>
+        <v>43.7705319846964</v>
       </c>
       <c r="I14">
-        <v>1.123791813651821</v>
+        <v>1.113701090796066</v>
       </c>
       <c r="J14">
-        <v>16.58120880537053</v>
+        <v>16.59001954529428</v>
       </c>
       <c r="K14">
-        <v>2.295384557565714</v>
+        <v>2.329395832661472</v>
       </c>
       <c r="L14">
-        <v>31.00607991983858</v>
+        <v>31.03893290005134</v>
       </c>
       <c r="M14">
-        <v>2.333573199176565</v>
+        <v>2.349755166374352</v>
       </c>
       <c r="N14">
-        <v>26.17018389899509</v>
+        <v>26.18973350684689</v>
       </c>
       <c r="O14">
-        <v>1.569236289319844</v>
+        <v>1.591084456156485</v>
       </c>
       <c r="P14">
-        <v>334.4113221847949</v>
+        <v>334.4443251301466</v>
       </c>
       <c r="Q14">
-        <v>7.917845982733176</v>
+        <v>7.904548930801312</v>
       </c>
       <c r="R14">
-        <v>2.248899429465136</v>
+        <v>2.251060369729089</v>
       </c>
       <c r="S14">
-        <v>0.2238405306650775</v>
+        <v>0.2295509220928913</v>
       </c>
       <c r="T14">
-        <v>19.23985474251585</v>
+        <v>19.22737495568103</v>
       </c>
       <c r="U14">
-        <v>0.5685482186796026</v>
+        <v>0.5705836055802179</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -7097,64 +7097,64 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <v>54.79273254651196</v>
+        <v>54.85608922991028</v>
       </c>
       <c r="C15">
-        <v>3.903927487873921</v>
+        <v>3.883325824114611</v>
       </c>
       <c r="D15">
-        <v>502.9432290870661</v>
+        <v>503.0353685269677</v>
       </c>
       <c r="E15">
-        <v>10.14813233167649</v>
+        <v>10.16453472666066</v>
       </c>
       <c r="F15">
-        <v>5.355442415816198</v>
+        <v>5.358291673727682</v>
       </c>
       <c r="G15">
-        <v>0.4693792827746096</v>
+        <v>0.4687354063434357</v>
       </c>
       <c r="H15">
-        <v>49.12650284810888</v>
+        <v>49.12882365842437</v>
       </c>
       <c r="I15">
-        <v>1.219779405820742</v>
+        <v>1.211374354396712</v>
       </c>
       <c r="J15">
-        <v>7.041622231094865</v>
+        <v>7.060447029391267</v>
       </c>
       <c r="K15">
-        <v>2.750551142662597</v>
+        <v>2.733162547571089</v>
       </c>
       <c r="L15">
-        <v>38.04770215093353</v>
+        <v>38.09937992944268</v>
       </c>
       <c r="M15">
-        <v>2.630200162884335</v>
+        <v>2.575560785877967</v>
       </c>
       <c r="N15">
-        <v>37.63939218257786</v>
+        <v>37.66068098992775</v>
       </c>
       <c r="O15">
-        <v>2.108762630462257</v>
+        <v>2.110501344737126</v>
       </c>
       <c r="P15">
-        <v>372.0507143673732</v>
+        <v>372.105006120075</v>
       </c>
       <c r="Q15">
-        <v>8.478663613623469</v>
+        <v>8.445547510006355</v>
       </c>
       <c r="R15">
-        <v>2.353006171387542</v>
+        <v>2.355420737283616</v>
       </c>
       <c r="S15">
-        <v>0.2363571028192178</v>
+        <v>0.2367239290331715</v>
       </c>
       <c r="T15">
-        <v>21.59286091390353</v>
+        <v>21.58279569296452</v>
       </c>
       <c r="U15">
-        <v>0.6151928841725566</v>
+        <v>0.6192020604844771</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -7162,64 +7162,64 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <v>57.19920528476242</v>
+        <v>57.17844623858382</v>
       </c>
       <c r="C16">
-        <v>4.051495947836426</v>
+        <v>4.099734224929174</v>
       </c>
       <c r="D16">
-        <v>560.1424343718305</v>
+        <v>560.2138147655531</v>
       </c>
       <c r="E16">
-        <v>10.88415936281469</v>
+        <v>10.92121324668196</v>
       </c>
       <c r="F16">
-        <v>5.591420914951569</v>
+        <v>5.58322700120165</v>
       </c>
       <c r="G16">
-        <v>0.4859938993609632</v>
+        <v>0.484715293953198</v>
       </c>
       <c r="H16">
-        <v>54.7179237630607</v>
+        <v>54.71205065962582</v>
       </c>
       <c r="I16">
-        <v>1.313558832895849</v>
+        <v>1.303040890837798</v>
       </c>
       <c r="J16">
-        <v>3.875459812495627</v>
+        <v>3.799925868456136</v>
       </c>
       <c r="K16">
-        <v>2.866722052782421</v>
+        <v>2.917108630936907</v>
       </c>
       <c r="L16">
-        <v>41.92316196342909</v>
+        <v>41.89930579789898</v>
       </c>
       <c r="M16">
-        <v>2.783744548852672</v>
+        <v>2.784764938696051</v>
       </c>
       <c r="N16">
-        <v>42.78196579788901</v>
+        <v>42.81869801049559</v>
       </c>
       <c r="O16">
-        <v>2.271423766269312</v>
+        <v>2.239988121536703</v>
       </c>
       <c r="P16">
-        <v>414.8326801652622</v>
+        <v>414.9237041305717</v>
       </c>
       <c r="Q16">
-        <v>9.152255763358099</v>
+        <v>9.105549672431231</v>
       </c>
       <c r="R16">
-        <v>2.458233329164105</v>
+        <v>2.453918393204948</v>
       </c>
       <c r="S16">
-        <v>0.2468238357067699</v>
+        <v>0.2452959611236084</v>
       </c>
       <c r="T16">
-        <v>24.0510942430675</v>
+        <v>24.03671408616957</v>
       </c>
       <c r="U16">
-        <v>0.6658002478014785</v>
+        <v>0.6683561708301721</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -7227,64 +7227,64 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <v>59.53566139547785</v>
+        <v>59.54278976260128</v>
       </c>
       <c r="C17">
-        <v>4.212309336616427</v>
+        <v>4.212087174039156</v>
       </c>
       <c r="D17">
-        <v>619.6780957673064</v>
+        <v>619.756604528152</v>
       </c>
       <c r="E17">
-        <v>11.62279936928076</v>
+        <v>11.68258355798178</v>
       </c>
       <c r="F17">
-        <v>5.814822933712761</v>
+        <v>5.813604256387123</v>
       </c>
       <c r="G17">
-        <v>0.4972645431639177</v>
+        <v>0.5023554283981135</v>
       </c>
       <c r="H17">
-        <v>60.53274669677323</v>
+        <v>60.52565491601305</v>
       </c>
       <c r="I17">
-        <v>1.404793793951957</v>
+        <v>1.394363828478981</v>
       </c>
       <c r="J17">
-        <v>2.5830500502841</v>
+        <v>2.562957052419072</v>
       </c>
       <c r="K17">
-        <v>3.00672844458356</v>
+        <v>3.017690454436639</v>
       </c>
       <c r="L17">
-        <v>44.50621201371308</v>
+        <v>44.46226285031774</v>
       </c>
       <c r="M17">
-        <v>2.886811978818095</v>
+        <v>2.932522990138249</v>
       </c>
       <c r="N17">
-        <v>45.99564760415304</v>
+        <v>45.95188513555671</v>
       </c>
       <c r="O17">
-        <v>2.311461368216584</v>
+        <v>2.375626126665123</v>
       </c>
       <c r="P17">
-        <v>460.8283277694149</v>
+        <v>460.8755892661268</v>
       </c>
       <c r="Q17">
-        <v>9.865692092828741</v>
+        <v>9.81598832929703</v>
       </c>
       <c r="R17">
-        <v>2.555127580163853</v>
+        <v>2.555381304407556</v>
       </c>
       <c r="S17">
-        <v>0.2543633421645163</v>
+        <v>0.2533227081736418</v>
       </c>
       <c r="T17">
-        <v>26.60622182323136</v>
+        <v>26.59209539057712</v>
       </c>
       <c r="U17">
-        <v>0.7116199403510367</v>
+        <v>0.7161029318081152</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -7292,64 +7292,64 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <v>61.93754583513444</v>
+        <v>62.04295087796543</v>
       </c>
       <c r="C18">
-        <v>4.404355327199986</v>
+        <v>4.414387323663642</v>
       </c>
       <c r="D18">
-        <v>681.6156416024379</v>
+        <v>681.7995554061183</v>
       </c>
       <c r="E18">
-        <v>12.40008454567573</v>
+        <v>12.49892952339882</v>
       </c>
       <c r="F18">
-        <v>6.054756944101524</v>
+        <v>6.053975483994565</v>
       </c>
       <c r="G18">
-        <v>0.5229101287239564</v>
+        <v>0.5292332410705399</v>
       </c>
       <c r="H18">
-        <v>66.58750364087476</v>
+        <v>66.57963040000772</v>
       </c>
       <c r="I18">
-        <v>1.504628096320892</v>
+        <v>1.496302312053116</v>
       </c>
       <c r="J18">
-        <v>2.195303014945987</v>
+        <v>2.178682105282623</v>
       </c>
       <c r="K18">
-        <v>3.118729589925455</v>
+        <v>3.183425307909463</v>
       </c>
       <c r="L18">
-        <v>46.70151502865924</v>
+        <v>46.64094495560067</v>
       </c>
       <c r="M18">
-        <v>3.041581996752021</v>
+        <v>3.052607999737715</v>
       </c>
       <c r="N18">
-        <v>48.40993392919829</v>
+        <v>48.35844416390171</v>
       </c>
       <c r="O18">
-        <v>2.427481225274507</v>
+        <v>2.42942167993284</v>
       </c>
       <c r="P18">
-        <v>509.2382616986143</v>
+        <v>509.234033430032</v>
       </c>
       <c r="Q18">
-        <v>10.60677238558234</v>
+        <v>10.555006080344</v>
       </c>
       <c r="R18">
-        <v>2.665721196587269</v>
+        <v>2.661708618187751</v>
       </c>
       <c r="S18">
-        <v>0.2664506123283641</v>
+        <v>0.2668674669321967</v>
       </c>
       <c r="T18">
-        <v>29.27194301981867</v>
+        <v>29.25380400876471</v>
       </c>
       <c r="U18">
-        <v>0.7606284186656884</v>
+        <v>0.762837921516205</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -7357,64 +7357,64 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <v>64.35156826521754</v>
+        <v>64.3140497674304</v>
       </c>
       <c r="C19">
-        <v>4.541734128145903</v>
+        <v>4.546887884339941</v>
       </c>
       <c r="D19">
-        <v>745.9672098676574</v>
+        <v>746.1136051735502</v>
       </c>
       <c r="E19">
-        <v>13.19471257295484</v>
+        <v>13.35877813621232</v>
       </c>
       <c r="F19">
-        <v>6.279945650224317</v>
+        <v>6.284766099031955</v>
       </c>
       <c r="G19">
-        <v>0.544785348694264</v>
+        <v>0.5489106772101043</v>
       </c>
       <c r="H19">
-        <v>72.86744929109967</v>
+        <v>72.86439649903903</v>
       </c>
       <c r="I19">
-        <v>1.60355086973955</v>
+        <v>1.599111066158477</v>
       </c>
       <c r="J19">
-        <v>1.911821669124586</v>
+        <v>1.997212304823349</v>
       </c>
       <c r="K19">
-        <v>3.206899532507522</v>
+        <v>3.275276062515148</v>
       </c>
       <c r="L19">
-        <v>48.61333669778386</v>
+        <v>48.63815726042378</v>
       </c>
       <c r="M19">
-        <v>3.182987212216205</v>
+        <v>3.176091159419878</v>
       </c>
       <c r="N19">
-        <v>50.53924989161438</v>
+        <v>50.52586649201017</v>
       </c>
       <c r="O19">
-        <v>2.52797718697107</v>
+        <v>2.519643783715369</v>
       </c>
       <c r="P19">
-        <v>559.7775115902276</v>
+        <v>559.7598999220387</v>
       </c>
       <c r="Q19">
-        <v>11.36015111907556</v>
+        <v>11.31420608965983</v>
       </c>
       <c r="R19">
-        <v>2.757400496712327</v>
+        <v>2.764754167077525</v>
       </c>
       <c r="S19">
-        <v>0.2759841670583768</v>
+        <v>0.2774475143118234</v>
       </c>
       <c r="T19">
-        <v>32.02934351653101</v>
+        <v>32.01855817584224</v>
       </c>
       <c r="U19">
-        <v>0.8186851269507693</v>
+        <v>0.8130131090909245</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -7422,64 +7422,64 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <v>66.80680186284521</v>
+        <v>66.71269399115533</v>
       </c>
       <c r="C20">
-        <v>4.711475413689504</v>
+        <v>4.690450984455704</v>
       </c>
       <c r="D20">
-        <v>812.7740117305</v>
+        <v>812.8262991647061</v>
       </c>
       <c r="E20">
-        <v>13.97441729216115</v>
+        <v>14.07496605252881</v>
       </c>
       <c r="F20">
-        <v>6.515840256589682</v>
+        <v>6.508234265257164</v>
       </c>
       <c r="G20">
-        <v>0.5710745229233068</v>
+        <v>0.5561355908821475</v>
       </c>
       <c r="H20">
-        <v>79.38328954768861</v>
+        <v>79.37263076429655</v>
       </c>
       <c r="I20">
-        <v>1.698431721060235</v>
+        <v>1.6970000584813</v>
       </c>
       <c r="J20">
-        <v>1.900799127429017</v>
+        <v>1.825314755966935</v>
       </c>
       <c r="K20">
-        <v>3.411335057945129</v>
+        <v>3.343055228873993</v>
       </c>
       <c r="L20">
-        <v>50.51413582521257</v>
+        <v>50.46347201639079</v>
       </c>
       <c r="M20">
-        <v>3.310371932279909</v>
+        <v>3.288054516821436</v>
       </c>
       <c r="N20">
-        <v>52.53164980026281</v>
+        <v>52.51778984506208</v>
       </c>
       <c r="O20">
-        <v>2.631944467214377</v>
+        <v>2.609750483131772</v>
       </c>
       <c r="P20">
-        <v>612.3091613904877</v>
+        <v>612.2776897671029</v>
       </c>
       <c r="Q20">
-        <v>12.13700879785037</v>
+        <v>12.0534433738436</v>
       </c>
       <c r="R20">
-        <v>2.868952985299087</v>
+        <v>2.862836011363663</v>
       </c>
       <c r="S20">
-        <v>0.2902272034985223</v>
+        <v>0.284051704627575</v>
       </c>
       <c r="T20">
-        <v>34.89829650183009</v>
+        <v>34.88139418720592</v>
       </c>
       <c r="U20">
-        <v>0.8648570652493707</v>
+        <v>0.8608775608290734</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -7487,64 +7487,64 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <v>69.14868406953603</v>
+        <v>69.08109947043485</v>
       </c>
       <c r="C21">
-        <v>4.936847058391118</v>
+        <v>4.869684133020578</v>
       </c>
       <c r="D21">
-        <v>881.9226958000373</v>
+        <v>881.9073986351401</v>
       </c>
       <c r="E21">
-        <v>14.80669861985647</v>
+        <v>14.95476342265107</v>
       </c>
       <c r="F21">
-        <v>6.75542659745118</v>
+        <v>6.752770251276498</v>
       </c>
       <c r="G21">
-        <v>0.5876692450938527</v>
+        <v>0.5755540398553901</v>
       </c>
       <c r="H21">
-        <v>86.13871614514012</v>
+        <v>86.12540101557337</v>
       </c>
       <c r="I21">
-        <v>1.79602961064828</v>
+        <v>1.795857398123719</v>
       </c>
       <c r="J21">
-        <v>1.882870287451582</v>
+        <v>1.871658635224333</v>
       </c>
       <c r="K21">
-        <v>3.548113223985135</v>
+        <v>3.470810334322114</v>
       </c>
       <c r="L21">
-        <v>52.39700611266422</v>
+        <v>52.33513065161523</v>
       </c>
       <c r="M21">
-        <v>3.473433977525995</v>
+        <v>3.42722982127884</v>
       </c>
       <c r="N21">
-        <v>54.52886730985746</v>
+        <v>54.49682996566135</v>
       </c>
       <c r="O21">
-        <v>2.732052979083059</v>
+        <v>2.701888040137914</v>
       </c>
       <c r="P21">
-        <v>666.838028700349</v>
+        <v>666.774519732763</v>
       </c>
       <c r="Q21">
-        <v>12.91581433895134</v>
+        <v>12.7849199013834</v>
       </c>
       <c r="R21">
-        <v>2.96789505011537</v>
+        <v>2.968284767347083</v>
       </c>
       <c r="S21">
-        <v>0.2966385556788367</v>
+        <v>0.2951700904011333</v>
       </c>
       <c r="T21">
-        <v>37.86619155194537</v>
+        <v>37.84967895455298</v>
       </c>
       <c r="U21">
-        <v>0.9170030297971686</v>
+        <v>0.9088035751971806</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -7552,64 +7552,64 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <v>71.5159961135427</v>
+        <v>71.44539000492829</v>
       </c>
       <c r="C22">
-        <v>5.14102274827082</v>
+        <v>5.078350986081107</v>
       </c>
       <c r="D22">
-        <v>953.4386919135832</v>
+        <v>953.3527886400634</v>
       </c>
       <c r="E22">
-        <v>15.70369452712003</v>
+        <v>15.83099814112603</v>
       </c>
       <c r="F22">
-        <v>6.985768157492709</v>
+        <v>6.985358927774109</v>
       </c>
       <c r="G22">
-        <v>0.6043997167731834</v>
+        <v>0.6008017586673196</v>
       </c>
       <c r="H22">
-        <v>93.12448430263294</v>
+        <v>93.11075994334713</v>
       </c>
       <c r="I22">
-        <v>1.898480474418396</v>
+        <v>1.897384629777457</v>
       </c>
       <c r="J22">
-        <v>1.839126631681352</v>
+        <v>1.871457689910305</v>
       </c>
       <c r="K22">
-        <v>3.645167065734534</v>
+        <v>3.581819172547654</v>
       </c>
       <c r="L22">
-        <v>54.2361327443458</v>
+        <v>54.20658834152549</v>
       </c>
       <c r="M22">
-        <v>3.547871119710534</v>
+        <v>3.517759760882049</v>
       </c>
       <c r="N22">
-        <v>56.48275506184805</v>
+        <v>56.41861110308737</v>
       </c>
       <c r="O22">
-        <v>2.827031012349463</v>
+        <v>2.812584831126277</v>
       </c>
       <c r="P22">
-        <v>723.3207837621951</v>
+        <v>723.1931308358486</v>
       </c>
       <c r="Q22">
-        <v>13.70745113429521</v>
+        <v>13.53973150654437</v>
       </c>
       <c r="R22">
-        <v>3.068052692280147</v>
+        <v>3.068029645202896</v>
       </c>
       <c r="S22">
-        <v>0.3059852218877083</v>
+        <v>0.3072316060286903</v>
       </c>
       <c r="T22">
-        <v>40.93424424422538</v>
+        <v>40.91770859975607</v>
       </c>
       <c r="U22">
-        <v>0.968816683953446</v>
+        <v>0.9605245058293416</v>
       </c>
     </row>
   </sheetData>

--- a/case_study_results/Case_study_results_MC_mean.xlsx
+++ b/case_study_results/Case_study_results_MC_mean.xlsx
@@ -1,24 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7388C50D-624E-BF43-B709-425C097036F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656CEC28-7AE4-FB4D-BA19-7A0517070F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MC_FlowDict_Good" sheetId="1" r:id="rId1"/>
-    <sheet name="MC_StockDict_Good" sheetId="2" r:id="rId2"/>
+    <sheet name="MC_FlowDict_Biomass" sheetId="1" r:id="rId1"/>
+    <sheet name="MC_StockDict_Biomass" sheetId="2" r:id="rId2"/>
     <sheet name="MC_FlowDict_Carbon" sheetId="3" r:id="rId3"/>
     <sheet name="MC_StockDict_Carbon" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -580,11 +593,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="31" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -686,88 +705,88 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>97.683157260600751</v>
+        <v>97.681485564808384</v>
       </c>
       <c r="C2" s="2">
-        <v>4.8444763274883327</v>
+        <v>4.8810400210425158</v>
       </c>
       <c r="D2" s="2">
-        <v>47.723380519650682</v>
+        <v>47.660225994812343</v>
       </c>
       <c r="E2" s="2">
-        <v>3.391970947048117</v>
+        <v>3.3501738893114941</v>
       </c>
       <c r="F2" s="2">
-        <v>47.64468066676578</v>
+        <v>47.686828077478978</v>
       </c>
       <c r="G2" s="2">
-        <v>3.3619396570331408</v>
+        <v>3.41184200072904</v>
       </c>
       <c r="H2" s="2">
-        <v>13.96562553045176</v>
+        <v>13.96535310853441</v>
       </c>
       <c r="I2" s="2">
-        <v>1.2058889488132489</v>
+        <v>1.2240739923300521</v>
       </c>
       <c r="J2" s="2">
-        <v>13.963210705579881</v>
+        <v>13.973099075242979</v>
       </c>
       <c r="K2" s="2">
-        <v>1.2021970629775549</v>
+        <v>1.208589123188883</v>
       </c>
       <c r="L2" s="2">
-        <v>4.6538764316706214</v>
+        <v>4.6558515738085866</v>
       </c>
       <c r="M2" s="2">
-        <v>0.405777810674541</v>
+        <v>0.40097178121146659</v>
       </c>
       <c r="N2" s="2">
-        <v>9.3038070359102729</v>
+        <v>9.3120287408356113</v>
       </c>
       <c r="O2" s="2">
-        <v>0.80516184419803805</v>
+        <v>0.81613612094706955</v>
       </c>
       <c r="P2" s="2">
-        <v>4.6511505424405346</v>
+        <v>4.6538937457122911</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.40467989902595741</v>
+        <v>0.40641228111807359</v>
       </c>
       <c r="R2" s="2">
-        <v>13.6366270506385</v>
+        <v>13.65034253616057</v>
       </c>
       <c r="S2" s="2">
-        <v>1.363825572378861</v>
+        <v>1.380796885724054</v>
       </c>
       <c r="T2" s="2">
-        <v>9.546564618749402</v>
+        <v>9.549404430930748</v>
       </c>
       <c r="U2" s="2">
-        <v>0.95690632117974062</v>
+        <v>0.95443524058740659</v>
       </c>
       <c r="V2" s="2">
-        <v>2.046676072284674</v>
+        <v>2.0473056076561842</v>
       </c>
       <c r="W2" s="2">
-        <v>0.2053500309884933</v>
+        <v>0.204934095314945</v>
       </c>
       <c r="X2" s="2">
-        <v>2.0456003858801468</v>
+        <v>2.0472943296256569</v>
       </c>
       <c r="Y2" s="2">
-        <v>0.2020810848195409</v>
+        <v>0.20434388340317111</v>
       </c>
       <c r="Z2" s="2">
-        <v>4.5465995743256693</v>
+        <v>4.5507817503776558</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.45799955833456818</v>
+        <v>0.45030176852623782</v>
       </c>
       <c r="AB2" s="2">
-        <v>9.082493741908241</v>
+        <v>9.0898336993969835</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.91377504379799102</v>
+        <v>0.9137003993934012</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -781,94 +800,94 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>107.4999799108608</v>
+        <v>107.3689953804649</v>
       </c>
       <c r="C3" s="2">
-        <v>5.3339625609443306</v>
+        <v>5.3849160772749132</v>
       </c>
       <c r="D3" s="2">
-        <v>52.466757443302647</v>
+        <v>52.422054798665933</v>
       </c>
       <c r="E3" s="2">
-        <v>3.7284640199885262</v>
+        <v>3.742894461307412</v>
       </c>
       <c r="F3" s="2">
-        <v>52.470185796976573</v>
+        <v>52.442361375026763</v>
       </c>
       <c r="G3" s="2">
-        <v>3.6623131103652051</v>
+        <v>3.740857072980623</v>
       </c>
       <c r="H3" s="2">
-        <v>15.36348564810022</v>
+        <v>15.36724586275581</v>
       </c>
       <c r="I3" s="2">
-        <v>1.319142946668338</v>
+        <v>1.3367853529903659</v>
       </c>
       <c r="J3" s="2">
-        <v>15.377257228785311</v>
+        <v>15.34427090178955</v>
       </c>
       <c r="K3" s="2">
-        <v>1.3119592691967721</v>
+        <v>1.3463203117112701</v>
       </c>
       <c r="L3" s="2">
-        <v>5.1280869801063362</v>
+        <v>5.1190590482025016</v>
       </c>
       <c r="M3" s="2">
-        <v>0.44114445628056109</v>
+        <v>0.44560401411680212</v>
       </c>
       <c r="N3" s="2">
-        <v>10.247461308627321</v>
+        <v>10.237467480926091</v>
       </c>
       <c r="O3" s="2">
-        <v>0.88212215882933676</v>
+        <v>0.89566988779977708</v>
       </c>
       <c r="P3" s="2">
-        <v>5.1237454543116243</v>
+        <v>5.1221944336542444</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.44072774431423428</v>
+        <v>0.44633093925054418</v>
       </c>
       <c r="R3" s="2">
-        <v>15.006269054180301</v>
+        <v>15.00018379586942</v>
       </c>
       <c r="S3" s="2">
-        <v>1.507876519925806</v>
+        <v>1.502354394313117</v>
       </c>
       <c r="T3" s="2">
-        <v>10.515275270400309</v>
+        <v>10.488528612536671</v>
       </c>
       <c r="U3" s="2">
-        <v>1.040384523506886</v>
+        <v>1.0535009632514409</v>
       </c>
       <c r="V3" s="2">
-        <v>2.2505907344945681</v>
+        <v>2.2483489634643941</v>
       </c>
       <c r="W3" s="2">
-        <v>0.22216959928203939</v>
+        <v>0.2272385105694659</v>
       </c>
       <c r="X3" s="2">
-        <v>2.2534617475144829</v>
+        <v>2.248668212211284</v>
       </c>
       <c r="Y3" s="2">
-        <v>0.2229190836859074</v>
+        <v>0.2276957355094818</v>
       </c>
       <c r="Z3" s="2">
-        <v>5.0063595478316447</v>
+        <v>4.9968595609359179</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.49995729937425709</v>
+        <v>0.50471250151885616</v>
       </c>
       <c r="AB3" s="2">
-        <v>10.00862963391957</v>
+        <v>9.9949649140581815</v>
       </c>
       <c r="AC3" s="2">
-        <v>0.99287019835084478</v>
+        <v>1.00956900566862</v>
       </c>
       <c r="AD3" s="2">
-        <v>7.3681557855757243</v>
+        <v>7.3768575912455816</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.68459124626827039</v>
+        <v>0.6789996595180825</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -876,94 +895,94 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>117.0886844932693</v>
+        <v>117.2008975008</v>
       </c>
       <c r="C4" s="2">
-        <v>5.804913916764229</v>
+        <v>5.9829315063018944</v>
       </c>
       <c r="D4" s="2">
-        <v>57.149370244972957</v>
+        <v>57.257319142294207</v>
       </c>
       <c r="E4" s="2">
-        <v>4.0401966980980797</v>
+        <v>4.0935649335307964</v>
       </c>
       <c r="F4" s="2">
-        <v>57.215602683905772</v>
+        <v>57.292141298113627</v>
       </c>
       <c r="G4" s="2">
-        <v>4.0324952047669784</v>
+        <v>4.0958792489437057</v>
       </c>
       <c r="H4" s="2">
-        <v>16.76158040815135</v>
+        <v>16.783559507425348</v>
       </c>
       <c r="I4" s="2">
-        <v>1.4537445525266599</v>
+        <v>1.473069453554456</v>
       </c>
       <c r="J4" s="2">
-        <v>16.758987278634429</v>
+        <v>16.775404803174389</v>
       </c>
       <c r="K4" s="2">
-        <v>1.4525614404661</v>
+        <v>1.465794027300668</v>
       </c>
       <c r="L4" s="2">
-        <v>5.5902143783616598</v>
+        <v>5.5960533648531046</v>
       </c>
       <c r="M4" s="2">
-        <v>0.48704086030270372</v>
+        <v>0.48607347371015919</v>
       </c>
       <c r="N4" s="2">
-        <v>11.17457666523501</v>
+        <v>11.186035736739971</v>
       </c>
       <c r="O4" s="2">
-        <v>0.96819121912430506</v>
+        <v>0.97361173125826828</v>
       </c>
       <c r="P4" s="2">
-        <v>5.578352898197692</v>
+        <v>5.5968563172856429</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.47928793839906869</v>
+        <v>0.48793681308133019</v>
       </c>
       <c r="R4" s="2">
-        <v>16.3584227707492</v>
+        <v>16.394172915011591</v>
       </c>
       <c r="S4" s="2">
-        <v>1.646129499623449</v>
+        <v>1.660966174220061</v>
       </c>
       <c r="T4" s="2">
-        <v>11.462629470734109</v>
+        <v>11.456023665741929</v>
       </c>
       <c r="U4" s="2">
-        <v>1.1449114352486449</v>
+        <v>1.150512902456807</v>
       </c>
       <c r="V4" s="2">
-        <v>2.455669153050422</v>
+        <v>2.4585624249091591</v>
       </c>
       <c r="W4" s="2">
-        <v>0.24693641716935749</v>
+        <v>0.24893277675357231</v>
       </c>
       <c r="X4" s="2">
-        <v>2.4546223509285139</v>
+        <v>2.4570424668450821</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.24438202804589121</v>
+        <v>0.24605400078685249</v>
       </c>
       <c r="Z4" s="2">
-        <v>5.4633605966194283</v>
+        <v>5.4657081025411376</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.54648264779077693</v>
+        <v>0.54839219179174636</v>
       </c>
       <c r="AB4" s="2">
-        <v>10.916903483578309</v>
+        <v>10.90652973580635</v>
       </c>
       <c r="AC4" s="2">
-        <v>1.0983195745082319</v>
+        <v>1.092462200285085</v>
       </c>
       <c r="AD4" s="2">
-        <v>10.70674171193367</v>
+        <v>10.735454747031319</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.76709084379316883</v>
+        <v>0.74956104979811067</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -971,94 +990,94 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>126.846932461862</v>
+        <v>126.9209988759885</v>
       </c>
       <c r="C5" s="2">
-        <v>6.3448852459726011</v>
+        <v>6.3315900280719024</v>
       </c>
       <c r="D5" s="2">
-        <v>61.915980696368209</v>
+        <v>61.949649506431221</v>
       </c>
       <c r="E5" s="2">
-        <v>4.3898009049043063</v>
+        <v>4.4057131759736414</v>
       </c>
       <c r="F5" s="2">
-        <v>61.916927806319819</v>
+        <v>61.924159385262897</v>
       </c>
       <c r="G5" s="2">
-        <v>4.4197034623988447</v>
+        <v>4.3663139075072426</v>
       </c>
       <c r="H5" s="2">
-        <v>18.155613523758898</v>
+        <v>18.144503691109371</v>
       </c>
       <c r="I5" s="2">
-        <v>1.588771468690505</v>
+        <v>1.554772907814586</v>
       </c>
       <c r="J5" s="2">
-        <v>18.12678086879939</v>
+        <v>18.152162009670921</v>
       </c>
       <c r="K5" s="2">
-        <v>1.5861711208160101</v>
+        <v>1.564805338964957</v>
       </c>
       <c r="L5" s="2">
-        <v>6.0453288942334042</v>
+        <v>6.0476914392195349</v>
       </c>
       <c r="M5" s="2">
-        <v>0.52724372131951891</v>
+        <v>0.51905894697995947</v>
       </c>
       <c r="N5" s="2">
-        <v>12.08421642041775</v>
+        <v>12.086583075368999</v>
       </c>
       <c r="O5" s="2">
-        <v>1.0548883262142521</v>
+        <v>1.036212555172032</v>
       </c>
       <c r="P5" s="2">
-        <v>6.0470068273757747</v>
+        <v>6.0458088310121934</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.52301269097831593</v>
+        <v>0.52646482216496715</v>
       </c>
       <c r="R5" s="2">
-        <v>17.72684990756796</v>
+        <v>17.716033604339021</v>
       </c>
       <c r="S5" s="2">
-        <v>1.778452601054604</v>
+        <v>1.751071468672674</v>
       </c>
       <c r="T5" s="2">
-        <v>12.40377150891795</v>
+        <v>12.411581264259191</v>
       </c>
       <c r="U5" s="2">
-        <v>1.2495523847980901</v>
+        <v>1.2422102084123821</v>
       </c>
       <c r="V5" s="2">
-        <v>2.652360580659209</v>
+        <v>2.659907521428456</v>
       </c>
       <c r="W5" s="2">
-        <v>0.26618716040214307</v>
+        <v>0.2644584751861081</v>
       </c>
       <c r="X5" s="2">
-        <v>2.6546137052185381</v>
+        <v>2.656067818602589</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.26909106487827877</v>
+        <v>0.26478984260305921</v>
       </c>
       <c r="Z5" s="2">
-        <v>5.9004131409314118</v>
+        <v>5.9037815919903611</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.59299367255912083</v>
+        <v>0.58132482429290644</v>
       </c>
       <c r="AB5" s="2">
-        <v>11.804729947909481</v>
+        <v>11.80810328951747</v>
       </c>
       <c r="AC5" s="2">
-        <v>1.187497809116342</v>
+        <v>1.1734249925574101</v>
       </c>
       <c r="AD5" s="2">
-        <v>12.695829192169731</v>
+        <v>12.729835349752131</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.81380351295106479</v>
+        <v>0.81756893063494773</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -1066,94 +1085,94 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>136.5705129247857</v>
+        <v>136.70096561321131</v>
       </c>
       <c r="C6" s="2">
-        <v>6.7597061217350696</v>
+        <v>6.913417332176877</v>
       </c>
       <c r="D6" s="2">
-        <v>66.690556447261386</v>
+        <v>66.825151437325218</v>
       </c>
       <c r="E6" s="2">
-        <v>4.6884184665708117</v>
+        <v>4.7044551183556136</v>
       </c>
       <c r="F6" s="2">
-        <v>66.733135932625615</v>
+        <v>66.717711242063444</v>
       </c>
       <c r="G6" s="2">
-        <v>4.6491751089120452</v>
+        <v>4.7067612197741306</v>
       </c>
       <c r="H6" s="2">
-        <v>19.54980108606982</v>
+        <v>19.546847079511789</v>
       </c>
       <c r="I6" s="2">
-        <v>1.689407366541243</v>
+        <v>1.6956802710833589</v>
       </c>
       <c r="J6" s="2">
-        <v>19.55463759248638</v>
+        <v>19.544584612852741</v>
       </c>
       <c r="K6" s="2">
-        <v>1.672606049189457</v>
+        <v>1.686152826936258</v>
       </c>
       <c r="L6" s="2">
-        <v>6.5216203890170652</v>
+        <v>6.5182521183993378</v>
       </c>
       <c r="M6" s="2">
-        <v>0.56418521625059515</v>
+        <v>0.56298246378162031</v>
       </c>
       <c r="N6" s="2">
-        <v>13.044423520842329</v>
+        <v>13.02860598806342</v>
       </c>
       <c r="O6" s="2">
-        <v>1.118692284419742</v>
+        <v>1.1340780410203519</v>
       </c>
       <c r="P6" s="2">
-        <v>6.5100629760296354</v>
+        <v>6.5146034216308841</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.55554537903497525</v>
+        <v>0.56915514040194715</v>
       </c>
       <c r="R6" s="2">
-        <v>19.08086449778672</v>
+        <v>19.088725746929899</v>
       </c>
       <c r="S6" s="2">
-        <v>1.8860441305737989</v>
+        <v>1.9030857439857709</v>
       </c>
       <c r="T6" s="2">
-        <v>13.366061350975039</v>
+        <v>13.35699504270722</v>
       </c>
       <c r="U6" s="2">
-        <v>1.31750866461807</v>
+        <v>1.330094308945746</v>
       </c>
       <c r="V6" s="2">
-        <v>2.8654303537545709</v>
+        <v>2.863693906771835</v>
       </c>
       <c r="W6" s="2">
-        <v>0.28419326355355151</v>
+        <v>0.2871630257710559</v>
       </c>
       <c r="X6" s="2">
-        <v>2.8641052735159409</v>
+        <v>2.8616955009519218</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.28202440539055479</v>
+        <v>0.28603860504829431</v>
       </c>
       <c r="Z6" s="2">
-        <v>6.3701285580341809</v>
+        <v>6.3672506247840266</v>
       </c>
       <c r="AA6" s="2">
-        <v>0.63946721993933675</v>
+        <v>0.63381155666336886</v>
       </c>
       <c r="AB6" s="2">
-        <v>12.74534564521791</v>
+        <v>12.737263606154221</v>
       </c>
       <c r="AC6" s="2">
-        <v>1.2640252512630641</v>
+        <v>1.287166216493886</v>
       </c>
       <c r="AD6" s="2">
-        <v>14.172978335775539</v>
+        <v>14.193292177717559</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.88357244360422826</v>
+        <v>0.89703096193452636</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1161,94 +1180,94 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>146.52676560948359</v>
+        <v>146.4099132145956</v>
       </c>
       <c r="C7" s="2">
-        <v>7.3054724414656098</v>
+        <v>7.3373228732549496</v>
       </c>
       <c r="D7" s="2">
-        <v>71.551866439447821</v>
+        <v>71.498713361492818</v>
       </c>
       <c r="E7" s="2">
-        <v>5.0710905813044622</v>
+        <v>5.055125473759829</v>
       </c>
       <c r="F7" s="2">
-        <v>71.540185334708369</v>
+        <v>71.440549447363125</v>
       </c>
       <c r="G7" s="2">
-        <v>5.0546002518532323</v>
+        <v>5.0427718099506667</v>
       </c>
       <c r="H7" s="2">
-        <v>20.95908526821945</v>
+        <v>20.932154698597159</v>
       </c>
       <c r="I7" s="2">
-        <v>1.819001043070207</v>
+        <v>1.82283017566866</v>
       </c>
       <c r="J7" s="2">
-        <v>20.97247913229295</v>
+        <v>20.94719497782237</v>
       </c>
       <c r="K7" s="2">
-        <v>1.8249417224193261</v>
+        <v>1.7992491969965509</v>
       </c>
       <c r="L7" s="2">
-        <v>6.990191278357714</v>
+        <v>6.9687848752574721</v>
       </c>
       <c r="M7" s="2">
-        <v>0.60847254371224335</v>
+        <v>0.6008356502797163</v>
       </c>
       <c r="N7" s="2">
-        <v>13.97037361091941</v>
+        <v>13.956256583409029</v>
       </c>
       <c r="O7" s="2">
-        <v>1.2093057477171529</v>
+        <v>1.2162802295983779</v>
       </c>
       <c r="P7" s="2">
-        <v>6.987848768172535</v>
+        <v>6.9740612886170039</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.60333878081707759</v>
+        <v>0.59637870499688528</v>
       </c>
       <c r="R7" s="2">
-        <v>20.468453153842269</v>
+        <v>20.44716846144863</v>
       </c>
       <c r="S7" s="2">
-        <v>2.0560463454227409</v>
+        <v>2.0477594410481879</v>
       </c>
       <c r="T7" s="2">
-        <v>14.33265411237959</v>
+        <v>14.32396664250251</v>
       </c>
       <c r="U7" s="2">
-        <v>1.4271069852980549</v>
+        <v>1.4303340560299429</v>
       </c>
       <c r="V7" s="2">
-        <v>3.0730756114300108</v>
+        <v>3.0701808076674268</v>
       </c>
       <c r="W7" s="2">
-        <v>0.30811065786788511</v>
+        <v>0.30201806704110679</v>
       </c>
       <c r="X7" s="2">
-        <v>3.0726867348784879</v>
+        <v>3.0668741613731112</v>
       </c>
       <c r="Y7" s="2">
-        <v>0.30753810411652649</v>
+        <v>0.30107784640248741</v>
       </c>
       <c r="Z7" s="2">
-        <v>6.8225803938101572</v>
+        <v>6.8050117617844972</v>
       </c>
       <c r="AA7" s="2">
-        <v>0.6860221378268152</v>
+        <v>0.68060471102964359</v>
       </c>
       <c r="AB7" s="2">
-        <v>13.64248915230988</v>
+        <v>13.63047532236715</v>
       </c>
       <c r="AC7" s="2">
-        <v>1.3656611508122469</v>
+        <v>1.3603186432731711</v>
       </c>
       <c r="AD7" s="2">
-        <v>15.45487332909488</v>
+        <v>15.475497676234321</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.96328059165810809</v>
+        <v>0.94829156458831765</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -1256,94 +1275,94 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>156.18487264183739</v>
+        <v>156.23565157220861</v>
       </c>
       <c r="C8" s="2">
-        <v>7.7810306110147609</v>
+        <v>7.8336616607578113</v>
       </c>
       <c r="D8" s="2">
-        <v>76.265540817715575</v>
+        <v>76.330931374452703</v>
       </c>
       <c r="E8" s="2">
-        <v>5.4150049732069334</v>
+        <v>5.3458302577854431</v>
       </c>
       <c r="F8" s="2">
-        <v>76.230487140055303</v>
+        <v>76.235003864419838</v>
       </c>
       <c r="G8" s="2">
-        <v>5.4341897692684453</v>
+        <v>5.4115825649826066</v>
       </c>
       <c r="H8" s="2">
-        <v>22.312768181449229</v>
+        <v>22.352721164824018</v>
       </c>
       <c r="I8" s="2">
-        <v>1.948024335872671</v>
+        <v>1.9539694376272609</v>
       </c>
       <c r="J8" s="2">
-        <v>22.322713815558998</v>
+        <v>22.348354359918211</v>
       </c>
       <c r="K8" s="2">
-        <v>1.9416622057879369</v>
+        <v>1.9497894801136431</v>
       </c>
       <c r="L8" s="2">
-        <v>7.4443779619166506</v>
+        <v>7.448617781042981</v>
       </c>
       <c r="M8" s="2">
-        <v>0.65188181340785367</v>
+        <v>0.64946736053810583</v>
       </c>
       <c r="N8" s="2">
-        <v>14.88461268148798</v>
+        <v>14.887217782462409</v>
       </c>
       <c r="O8" s="2">
-        <v>1.2972506359692191</v>
+        <v>1.3012428299839129</v>
       </c>
       <c r="P8" s="2">
-        <v>7.4442490479020531</v>
+        <v>7.4385934925386596</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.64965321274404642</v>
+        <v>0.6459825067338284</v>
       </c>
       <c r="R8" s="2">
-        <v>21.787829839187179</v>
+        <v>21.827642371790951</v>
       </c>
       <c r="S8" s="2">
-        <v>2.187531519396166</v>
+        <v>2.1836867586885029</v>
       </c>
       <c r="T8" s="2">
-        <v>15.264491721314521</v>
+        <v>15.291301417647921</v>
       </c>
       <c r="U8" s="2">
-        <v>1.529403310828618</v>
+        <v>1.543215893094813</v>
       </c>
       <c r="V8" s="2">
-        <v>3.270806935856406</v>
+        <v>3.2750888375889722</v>
       </c>
       <c r="W8" s="2">
-        <v>0.33176976176267459</v>
+        <v>0.32830049931072308</v>
       </c>
       <c r="X8" s="2">
-        <v>3.2677222297663659</v>
+        <v>3.2744773437967551</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.32971722792408709</v>
+        <v>0.32864269558402393</v>
       </c>
       <c r="Z8" s="2">
-        <v>7.2665126558921589</v>
+        <v>7.2717810535997076</v>
       </c>
       <c r="AA8" s="2">
-        <v>0.72892709961672597</v>
+        <v>0.72379431969499941</v>
       </c>
       <c r="AB8" s="2">
-        <v>14.54696655227376</v>
+        <v>14.54364457122551</v>
       </c>
       <c r="AC8" s="2">
-        <v>1.4771338620835719</v>
+        <v>1.470769338962328</v>
       </c>
       <c r="AD8" s="2">
-        <v>16.68358807642494</v>
+        <v>16.686462858768241</v>
       </c>
       <c r="AE8" s="2">
-        <v>1.025915226558094</v>
+        <v>1.026397028156866</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -1351,94 +1370,94 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>166.0194743236419</v>
+        <v>165.9757242583689</v>
       </c>
       <c r="C9" s="2">
-        <v>8.3810570212145823</v>
+        <v>8.3021857588639136</v>
       </c>
       <c r="D9" s="2">
-        <v>80.973319919967139</v>
+        <v>81.047981047306592</v>
       </c>
       <c r="E9" s="2">
-        <v>5.8145275223135284</v>
+        <v>5.8004757660693977</v>
       </c>
       <c r="F9" s="2">
-        <v>81.033217902556459</v>
+        <v>81.056596523726782</v>
       </c>
       <c r="G9" s="2">
-        <v>5.7973273059794002</v>
+        <v>5.7858209077449576</v>
       </c>
       <c r="H9" s="2">
-        <v>23.743567122716609</v>
+        <v>23.7529083183152</v>
       </c>
       <c r="I9" s="2">
-        <v>2.0781997811730588</v>
+        <v>2.053536124940103</v>
       </c>
       <c r="J9" s="2">
-        <v>23.752483005546669</v>
+        <v>23.742073767641301</v>
       </c>
       <c r="K9" s="2">
-        <v>2.0871292453407708</v>
+        <v>2.085064853394706</v>
       </c>
       <c r="L9" s="2">
-        <v>7.9160816043434981</v>
+        <v>7.9114362221334043</v>
       </c>
       <c r="M9" s="2">
-        <v>0.69742738044256924</v>
+        <v>0.68783282921446998</v>
       </c>
       <c r="N9" s="2">
-        <v>15.831770542626479</v>
+        <v>15.85325355590121</v>
       </c>
       <c r="O9" s="2">
-        <v>1.3985079856041649</v>
+        <v>1.369689431377054</v>
       </c>
       <c r="P9" s="2">
-        <v>7.9174375794828507</v>
+        <v>7.9162133151853773</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.68620787139973261</v>
+        <v>0.69318481263118548</v>
       </c>
       <c r="R9" s="2">
-        <v>23.170148651868669</v>
+        <v>23.204188796921621</v>
       </c>
       <c r="S9" s="2">
-        <v>2.3535241686007788</v>
+        <v>2.3135017354136669</v>
       </c>
       <c r="T9" s="2">
-        <v>16.22572801421606</v>
+        <v>16.217457968743279</v>
       </c>
       <c r="U9" s="2">
-        <v>1.6415504711022391</v>
+        <v>1.6329554634924881</v>
       </c>
       <c r="V9" s="2">
-        <v>3.4794018700423179</v>
+        <v>3.475542569184944</v>
       </c>
       <c r="W9" s="2">
-        <v>0.34986327338051842</v>
+        <v>0.35172862972653818</v>
       </c>
       <c r="X9" s="2">
-        <v>3.4745638196521891</v>
+        <v>3.4807107325500022</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.35043632283376619</v>
+        <v>0.35261011975709372</v>
       </c>
       <c r="Z9" s="2">
-        <v>7.7336697756398989</v>
+        <v>7.7240449659185888</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.79149482490973166</v>
+        <v>0.77074539020946131</v>
       </c>
       <c r="AB9" s="2">
-        <v>15.46659456334293</v>
+        <v>15.48092253806157</v>
       </c>
       <c r="AC9" s="2">
-        <v>1.560989320626252</v>
+        <v>1.544724878868472</v>
       </c>
       <c r="AD9" s="2">
-        <v>17.859547965598001</v>
+        <v>17.861614868904152</v>
       </c>
       <c r="AE9" s="2">
-        <v>1.093229915544613</v>
+        <v>1.101763956612664</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -1446,94 +1465,94 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>175.8717798629194</v>
+        <v>175.9084578696845</v>
       </c>
       <c r="C10" s="2">
-        <v>8.8102132531532789</v>
+        <v>8.8016871287966012</v>
       </c>
       <c r="D10" s="2">
-        <v>85.898686067065427</v>
+        <v>85.879874954935218</v>
       </c>
       <c r="E10" s="2">
-        <v>6.0584831537665123</v>
+        <v>6.0802539626037397</v>
       </c>
       <c r="F10" s="2">
-        <v>85.935560734982417</v>
+        <v>85.969906708308088</v>
       </c>
       <c r="G10" s="2">
-        <v>6.1052812259894296</v>
+        <v>6.0902234656790384</v>
       </c>
       <c r="H10" s="2">
-        <v>25.175461221491751</v>
+        <v>25.171345873849081</v>
       </c>
       <c r="I10" s="2">
-        <v>2.190209455679724</v>
+        <v>2.1818840983286152</v>
       </c>
       <c r="J10" s="2">
-        <v>25.190678417976841</v>
+        <v>25.157570763843779</v>
       </c>
       <c r="K10" s="2">
-        <v>2.180853434816485</v>
+        <v>2.180768645876642</v>
       </c>
       <c r="L10" s="2">
-        <v>8.3926172902349876</v>
+        <v>8.3965297581252099</v>
       </c>
       <c r="M10" s="2">
-        <v>0.73042662711989947</v>
+        <v>0.72791748194635442</v>
       </c>
       <c r="N10" s="2">
-        <v>16.776459226266741</v>
+        <v>16.79391123075969</v>
       </c>
       <c r="O10" s="2">
-        <v>1.4534435773847609</v>
+        <v>1.4600968311543621</v>
       </c>
       <c r="P10" s="2">
-        <v>8.3968376007423657</v>
+        <v>8.389520053965116</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.72897003959919671</v>
+        <v>0.72819110828662781</v>
       </c>
       <c r="R10" s="2">
-        <v>24.58132705219057</v>
+        <v>24.599978531706061</v>
       </c>
       <c r="S10" s="2">
-        <v>2.4623305137893232</v>
+        <v>2.453611525374106</v>
       </c>
       <c r="T10" s="2">
-        <v>17.212504450551549</v>
+        <v>17.20548217354488</v>
       </c>
       <c r="U10" s="2">
-        <v>1.717798252150587</v>
+        <v>1.7248496768195409</v>
       </c>
       <c r="V10" s="2">
-        <v>3.6898258843009941</v>
+        <v>3.6829435085933651</v>
       </c>
       <c r="W10" s="2">
-        <v>0.3710864215437481</v>
+        <v>0.37093551687670068</v>
       </c>
       <c r="X10" s="2">
-        <v>3.690583077043434</v>
+        <v>3.6874931733950649</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.37073967416519032</v>
+        <v>0.37041462159297239</v>
       </c>
       <c r="Z10" s="2">
-        <v>8.2015782786806817</v>
+        <v>8.1995198296657961</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.82189243820145674</v>
+        <v>0.82562312016604944</v>
       </c>
       <c r="AB10" s="2">
-        <v>16.382426937836058</v>
+        <v>16.391376798912241</v>
       </c>
       <c r="AC10" s="2">
-        <v>1.637284573172439</v>
+        <v>1.636405001203731</v>
       </c>
       <c r="AD10" s="2">
-        <v>19.02892981571738</v>
+        <v>19.03636674564175</v>
       </c>
       <c r="AE10" s="2">
-        <v>1.1655851690524099</v>
+        <v>1.172773075350042</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -1541,94 +1560,94 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>185.64376676527061</v>
+        <v>185.4942912047097</v>
       </c>
       <c r="C11" s="2">
-        <v>9.2398513986693231</v>
+        <v>9.323649568215604</v>
       </c>
       <c r="D11" s="2">
-        <v>90.621486628152965</v>
+        <v>90.563304169764237</v>
       </c>
       <c r="E11" s="2">
-        <v>6.3770147257570207</v>
+        <v>6.4503199473324644</v>
       </c>
       <c r="F11" s="2">
-        <v>90.618317098069923</v>
+        <v>90.550070444728135</v>
       </c>
       <c r="G11" s="2">
-        <v>6.3915746593378788</v>
+        <v>6.4041109571504364</v>
       </c>
       <c r="H11" s="2">
-        <v>26.55571202744601</v>
+        <v>26.511473323617778</v>
       </c>
       <c r="I11" s="2">
-        <v>2.2731614438165701</v>
+        <v>2.2987566472248</v>
       </c>
       <c r="J11" s="2">
-        <v>26.524773813216139</v>
+        <v>26.520892241621151</v>
       </c>
       <c r="K11" s="2">
-        <v>2.2885435438301389</v>
+        <v>2.3016122916604531</v>
       </c>
       <c r="L11" s="2">
-        <v>8.8482533778287102</v>
+        <v>8.8366901872787782</v>
       </c>
       <c r="M11" s="2">
-        <v>0.76496931517225797</v>
+        <v>0.76567965217268086</v>
       </c>
       <c r="N11" s="2">
-        <v>17.69973598954239</v>
+        <v>17.677005067272759</v>
       </c>
       <c r="O11" s="2">
-        <v>1.527593515339456</v>
+        <v>1.514768745227584</v>
       </c>
       <c r="P11" s="2">
-        <v>8.8558866474907951</v>
+        <v>8.8462932834621899</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.76605771631394148</v>
+        <v>0.76571382455421633</v>
       </c>
       <c r="R11" s="2">
-        <v>25.959868320737069</v>
+        <v>25.885705106760401</v>
       </c>
       <c r="S11" s="2">
-        <v>2.5525389290679379</v>
+        <v>2.5901155129515119</v>
       </c>
       <c r="T11" s="2">
-        <v>18.11175241055502</v>
+        <v>18.12480331959566</v>
       </c>
       <c r="U11" s="2">
-        <v>1.807878193546204</v>
+        <v>1.812906208377113</v>
       </c>
       <c r="V11" s="2">
-        <v>3.8866408899494802</v>
+        <v>3.8836176124998461</v>
       </c>
       <c r="W11" s="2">
-        <v>0.38659329399140691</v>
+        <v>0.38623029556175659</v>
       </c>
       <c r="X11" s="2">
-        <v>3.887631886797168</v>
+        <v>3.8824454810079989</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.38732838100280859</v>
+        <v>0.38997553859448503</v>
       </c>
       <c r="Z11" s="2">
-        <v>8.6370204984827268</v>
+        <v>8.6292839232977077</v>
       </c>
       <c r="AA11" s="2">
-        <v>0.86932874120471926</v>
+        <v>0.86382029911949942</v>
       </c>
       <c r="AB11" s="2">
-        <v>17.288021488773641</v>
+        <v>17.261219356934109</v>
       </c>
       <c r="AC11" s="2">
-        <v>1.7247381874692771</v>
+        <v>1.7209385367115839</v>
       </c>
       <c r="AD11" s="2">
-        <v>20.179816220743898</v>
+        <v>20.162534141798499</v>
       </c>
       <c r="AE11" s="2">
-        <v>1.216782664107201</v>
+        <v>1.2385530512287739</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -1636,94 +1655,94 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>195.3205732961485</v>
+        <v>195.19963494133191</v>
       </c>
       <c r="C12" s="2">
-        <v>9.7249421230815702</v>
+        <v>9.6614076190385365</v>
       </c>
       <c r="D12" s="2">
-        <v>95.315868051456576</v>
+        <v>95.357972741660106</v>
       </c>
       <c r="E12" s="2">
-        <v>6.6783205422301597</v>
+        <v>6.7774080239436749</v>
       </c>
       <c r="F12" s="2">
-        <v>95.424199941100724</v>
+        <v>95.229085682538951</v>
       </c>
       <c r="G12" s="2">
-        <v>6.8055902275485582</v>
+        <v>6.7032724754266066</v>
       </c>
       <c r="H12" s="2">
-        <v>27.954450568899752</v>
+        <v>27.885058513950479</v>
       </c>
       <c r="I12" s="2">
-        <v>2.440940224354863</v>
+        <v>2.437728907898209</v>
       </c>
       <c r="J12" s="2">
-        <v>27.95660279749524</v>
+        <v>27.878441150978261</v>
       </c>
       <c r="K12" s="2">
-        <v>2.4314039634691849</v>
+        <v>2.385951469098496</v>
       </c>
       <c r="L12" s="2">
-        <v>9.3223982072946168</v>
+        <v>9.2988700697733737</v>
       </c>
       <c r="M12" s="2">
-        <v>0.81212273269530977</v>
+        <v>0.79745836174670726</v>
       </c>
       <c r="N12" s="2">
-        <v>18.630816885328201</v>
+        <v>18.600353720116331</v>
       </c>
       <c r="O12" s="2">
-        <v>1.638326420394173</v>
+        <v>1.5915972725362539</v>
       </c>
       <c r="P12" s="2">
-        <v>9.318301745843895</v>
+        <v>9.3021842604495539</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.81617849700342959</v>
+        <v>0.80666765963048848</v>
       </c>
       <c r="R12" s="2">
-        <v>27.30157770974791</v>
+        <v>27.2318468063553</v>
       </c>
       <c r="S12" s="2">
-        <v>2.726208143416704</v>
+        <v>2.7373898239783729</v>
       </c>
       <c r="T12" s="2">
-        <v>19.1088266977928</v>
+        <v>19.05689062688695</v>
       </c>
       <c r="U12" s="2">
-        <v>1.916954083753347</v>
+        <v>1.882026874976388</v>
       </c>
       <c r="V12" s="2">
-        <v>4.093502307868456</v>
+        <v>4.0847703370850477</v>
       </c>
       <c r="W12" s="2">
-        <v>0.41216467423425018</v>
+        <v>0.40877613607825852</v>
       </c>
       <c r="X12" s="2">
-        <v>4.0964734114079882</v>
+        <v>4.0867020063564068</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.41006344181677612</v>
+        <v>0.4060502431520509</v>
       </c>
       <c r="Z12" s="2">
-        <v>9.1068374602945834</v>
+        <v>9.0861388262852216</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.90957727483524753</v>
+        <v>0.90187424069253253</v>
       </c>
       <c r="AB12" s="2">
-        <v>18.186452622088911</v>
+        <v>18.16923911856713</v>
       </c>
       <c r="AC12" s="2">
-        <v>1.8379504089737839</v>
+        <v>1.8078306041341381</v>
       </c>
       <c r="AD12" s="2">
-        <v>21.35369320020526</v>
+        <v>21.323426999652941</v>
       </c>
       <c r="AE12" s="2">
-        <v>1.295722822129171</v>
+        <v>1.277867558529342</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -1731,94 +1750,94 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>9.7736467477036459</v>
+        <v>9.7667980111498895</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48525243240654098</v>
+        <v>0.48485472237655491</v>
       </c>
       <c r="D13" s="2">
-        <v>4.7730236003618582</v>
+        <v>4.7684330338121548</v>
       </c>
       <c r="E13" s="2">
-        <v>0.33686813456762699</v>
+        <v>0.33257182913105598</v>
       </c>
       <c r="F13" s="2">
-        <v>4.7718697391917511</v>
+        <v>4.7744559368202477</v>
       </c>
       <c r="G13" s="2">
-        <v>0.33660275072014262</v>
+        <v>0.33381195615216919</v>
       </c>
       <c r="H13" s="2">
-        <v>1.398672870126207</v>
+        <v>1.3988655756074271</v>
       </c>
       <c r="I13" s="2">
-        <v>0.1202542538710446</v>
+        <v>0.1201630388513401</v>
       </c>
       <c r="J13" s="2">
-        <v>1.3990380342084701</v>
+        <v>1.3976606794392701</v>
       </c>
       <c r="K13" s="2">
-        <v>0.1206410081149758</v>
+        <v>0.12050133563783361</v>
       </c>
       <c r="L13" s="2">
-        <v>0.46555051706255252</v>
+        <v>0.4660423793664889</v>
       </c>
       <c r="M13" s="2">
-        <v>3.9873756261641843E-2</v>
+        <v>4.0210209797026379E-2</v>
       </c>
       <c r="N13" s="2">
-        <v>0.93228070463496404</v>
+        <v>0.93245621745732021</v>
       </c>
       <c r="O13" s="2">
-        <v>8.1319251403830811E-2</v>
+        <v>7.9234842104922196E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.46608657948253118</v>
+        <v>0.4664675500940117</v>
       </c>
       <c r="Q13" s="2">
-        <v>4.0511378022558331E-2</v>
+        <v>4.0062519381763653E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>1.365356699113033</v>
+        <v>1.366714122222578</v>
       </c>
       <c r="S13" s="2">
-        <v>0.1353274390634078</v>
+        <v>0.1353684046298137</v>
       </c>
       <c r="T13" s="2">
-        <v>0.95615425834196399</v>
+        <v>0.95535346600187609</v>
       </c>
       <c r="U13" s="2">
-        <v>9.5326433357155252E-2</v>
+        <v>9.4623213933365799E-2</v>
       </c>
       <c r="V13" s="2">
-        <v>0.20491382735684621</v>
+        <v>0.2045938920421497</v>
       </c>
       <c r="W13" s="2">
-        <v>2.038015981881133E-2</v>
+        <v>2.052825321812023E-2</v>
       </c>
       <c r="X13" s="2">
-        <v>0.20470428877249991</v>
+        <v>0.20467780432154439</v>
       </c>
       <c r="Y13" s="2">
-        <v>2.04869731882583E-2</v>
+        <v>2.0374891187377429E-2</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.45464573010482351</v>
+        <v>0.45513940772294792</v>
       </c>
       <c r="AA13" s="2">
-        <v>4.4879795426679983E-2</v>
+        <v>4.5395608492510273E-2</v>
       </c>
       <c r="AB13" s="2">
-        <v>0.91140962341120246</v>
+        <v>0.90989201336455483</v>
       </c>
       <c r="AC13" s="2">
-        <v>9.1656900008034656E-2</v>
+        <v>8.9355023081557489E-2</v>
       </c>
       <c r="AD13" s="2">
-        <v>22.516668640611599</v>
+        <v>22.491548751718071</v>
       </c>
       <c r="AE13" s="2">
-        <v>1.3685543931945341</v>
+        <v>1.3692655707656869</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -1826,94 +1845,94 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>214.84170548498221</v>
+        <v>214.7064559983184</v>
       </c>
       <c r="C14" s="2">
-        <v>10.595973764040741</v>
+        <v>10.687502329037599</v>
       </c>
       <c r="D14" s="2">
-        <v>104.88802575637099</v>
+        <v>104.83152232905429</v>
       </c>
       <c r="E14" s="2">
-        <v>7.2996719995266997</v>
+        <v>7.3720061135542103</v>
       </c>
       <c r="F14" s="2">
-        <v>104.9371598688431</v>
+        <v>104.8457677675179</v>
       </c>
       <c r="G14" s="2">
-        <v>7.3306498247699636</v>
+        <v>7.3988020679071766</v>
       </c>
       <c r="H14" s="2">
-        <v>30.726474164990169</v>
+        <v>30.67466604504699</v>
       </c>
       <c r="I14" s="2">
-        <v>2.637495399473988</v>
+        <v>2.663392276930804</v>
       </c>
       <c r="J14" s="2">
-        <v>30.707906433977339</v>
+        <v>30.688915831063149</v>
       </c>
       <c r="K14" s="2">
-        <v>2.64033073449832</v>
+        <v>2.6591102265308382</v>
       </c>
       <c r="L14" s="2">
-        <v>10.23959035465376</v>
+        <v>10.23811185296548</v>
       </c>
       <c r="M14" s="2">
-        <v>0.87749725000642675</v>
+        <v>0.8849311635782271</v>
       </c>
       <c r="N14" s="2">
-        <v>20.477149671120941</v>
+        <v>20.461176534194969</v>
       </c>
       <c r="O14" s="2">
-        <v>1.7815709374465141</v>
+        <v>1.776344207258624</v>
       </c>
       <c r="P14" s="2">
-        <v>10.24319546520589</v>
+        <v>10.247891225090131</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.87538980375019904</v>
+        <v>0.88828562558299318</v>
       </c>
       <c r="R14" s="2">
-        <v>30.00835813077056</v>
+        <v>29.979334506988749</v>
       </c>
       <c r="S14" s="2">
-        <v>2.9757328153037421</v>
+        <v>3.0038846307907572</v>
       </c>
       <c r="T14" s="2">
-        <v>20.98060935058923</v>
+        <v>20.981433945899461</v>
       </c>
       <c r="U14" s="2">
-        <v>2.0932768565382691</v>
+        <v>2.1172170543408502</v>
       </c>
       <c r="V14" s="2">
-        <v>4.4982068370120434</v>
+        <v>4.4982234336285014</v>
       </c>
       <c r="W14" s="2">
-        <v>0.44412788593039632</v>
+        <v>0.45003612348622762</v>
       </c>
       <c r="X14" s="2">
-        <v>4.493975674511363</v>
+        <v>4.4936748250798262</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.44693823377619712</v>
+        <v>0.44982735985388339</v>
       </c>
       <c r="Z14" s="2">
-        <v>10.00545598085799</v>
+        <v>9.994353263196901</v>
       </c>
       <c r="AA14" s="2">
-        <v>0.99395450135376706</v>
+        <v>1.002651978412199</v>
       </c>
       <c r="AB14" s="2">
-        <v>20.004469644687401</v>
+        <v>19.981950934703431</v>
       </c>
       <c r="AC14" s="2">
-        <v>2.0133304704479218</v>
+        <v>2.0075752127602788</v>
       </c>
       <c r="AD14" s="2">
-        <v>8.9285293837305097</v>
+        <v>8.9210271698214374</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.60776784806711237</v>
+        <v>0.60731969420964005</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -1921,94 +1940,94 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>224.66164684917339</v>
+        <v>224.49438674694201</v>
       </c>
       <c r="C15" s="2">
-        <v>11.205666804599201</v>
+        <v>11.08002020077549</v>
       </c>
       <c r="D15" s="2">
-        <v>109.796189683582</v>
+        <v>109.5678270266741</v>
       </c>
       <c r="E15" s="2">
-        <v>7.7927504566658881</v>
+        <v>7.7861241710343227</v>
       </c>
       <c r="F15" s="2">
-        <v>109.6644732761595</v>
+        <v>109.59140763098689</v>
       </c>
       <c r="G15" s="2">
-        <v>7.8250092282648058</v>
+        <v>7.6279128233411289</v>
       </c>
       <c r="H15" s="2">
-        <v>32.123726552484001</v>
+        <v>32.107976645440893</v>
       </c>
       <c r="I15" s="2">
-        <v>2.8243007603261838</v>
+        <v>2.746950585604143</v>
       </c>
       <c r="J15" s="2">
-        <v>32.111518517490993</v>
+        <v>32.109655804587852</v>
       </c>
       <c r="K15" s="2">
-        <v>2.8068212393391909</v>
+        <v>2.762752388127939</v>
       </c>
       <c r="L15" s="2">
-        <v>10.709852281229621</v>
+        <v>10.69275434845348</v>
       </c>
       <c r="M15" s="2">
-        <v>0.93058793682366758</v>
+        <v>0.92123521564684496</v>
       </c>
       <c r="N15" s="2">
-        <v>21.407485215742859</v>
+        <v>21.396702658623131</v>
       </c>
       <c r="O15" s="2">
-        <v>1.8568831069925069</v>
+        <v>1.8353597254394871</v>
       </c>
       <c r="P15" s="2">
-        <v>10.71380314816736</v>
+        <v>10.715305995017159</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.93538306487198042</v>
+        <v>0.92281601878898201</v>
       </c>
       <c r="R15" s="2">
-        <v>31.36714260359792</v>
+        <v>31.344499162483469</v>
       </c>
       <c r="S15" s="2">
-        <v>3.1668164528610339</v>
+        <v>3.1196355572714292</v>
       </c>
       <c r="T15" s="2">
-        <v>21.967033690714761</v>
+        <v>21.94150558530286</v>
       </c>
       <c r="U15" s="2">
-        <v>2.2121230206862541</v>
+        <v>2.1691303180202079</v>
       </c>
       <c r="V15" s="2">
-        <v>4.7070518699117354</v>
+        <v>4.7041773209895448</v>
       </c>
       <c r="W15" s="2">
-        <v>0.47501934896917047</v>
+        <v>0.46834150600465518</v>
       </c>
       <c r="X15" s="2">
-        <v>4.702073949895019</v>
+        <v>4.7023952984089759</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.47020093687600778</v>
+        <v>0.46627795000993838</v>
       </c>
       <c r="Z15" s="2">
-        <v>10.455922058598381</v>
+        <v>10.4524253163961</v>
       </c>
       <c r="AA15" s="2">
-        <v>1.053001880724064</v>
+        <v>1.04275391289846</v>
       </c>
       <c r="AB15" s="2">
-        <v>20.914399625111859</v>
+        <v>20.890996821743471</v>
       </c>
       <c r="AC15" s="2">
-        <v>2.1070661259940788</v>
+        <v>2.0867263071567792</v>
       </c>
       <c r="AD15" s="2">
-        <v>19.619796789966859</v>
+        <v>19.58349772989364</v>
       </c>
       <c r="AE15" s="2">
-        <v>1.4440836048962249</v>
+        <v>1.43409907659096</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -2016,94 +2035,94 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>234.29564378889631</v>
+        <v>234.52653265557251</v>
       </c>
       <c r="C16" s="2">
-        <v>11.81597192560938</v>
+        <v>11.812290747303379</v>
       </c>
       <c r="D16" s="2">
-        <v>114.4697605972943</v>
+        <v>114.5944687622215</v>
       </c>
       <c r="E16" s="2">
-        <v>8.0692051643517058</v>
+        <v>8.1682103927385334</v>
       </c>
       <c r="F16" s="2">
-        <v>114.4121575891766</v>
+        <v>114.38178367856609</v>
       </c>
       <c r="G16" s="2">
-        <v>8.1366778064134682</v>
+        <v>8.0390000261218617</v>
       </c>
       <c r="H16" s="2">
-        <v>33.514015916270061</v>
+        <v>33.519430465725932</v>
       </c>
       <c r="I16" s="2">
-        <v>2.9082434666501178</v>
+        <v>2.8799305802011852</v>
       </c>
       <c r="J16" s="2">
-        <v>33.552070285981998</v>
+        <v>33.487808326132289</v>
       </c>
       <c r="K16" s="2">
-        <v>2.9255191946606591</v>
+        <v>2.867587194452323</v>
       </c>
       <c r="L16" s="2">
-        <v>11.179661116382119</v>
+        <v>11.165199113869971</v>
       </c>
       <c r="M16" s="2">
-        <v>0.97289977999451949</v>
+        <v>0.96686138547566358</v>
       </c>
       <c r="N16" s="2">
-        <v>22.328144183012039</v>
+        <v>22.327135245021729</v>
       </c>
       <c r="O16" s="2">
-        <v>1.942179984242197</v>
+        <v>1.933795689416498</v>
       </c>
       <c r="P16" s="2">
-        <v>11.169154330645259</v>
+        <v>11.16788766474774</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.97872435284689585</v>
+        <v>0.97094559128685154</v>
       </c>
       <c r="R16" s="2">
-        <v>32.754609051623042</v>
+        <v>32.741426273470992</v>
       </c>
       <c r="S16" s="2">
-        <v>3.295199391528989</v>
+        <v>3.2465103849091239</v>
       </c>
       <c r="T16" s="2">
-        <v>22.93936231360221</v>
+        <v>22.903892035629241</v>
       </c>
       <c r="U16" s="2">
-        <v>2.308121584073811</v>
+        <v>2.2786142936666849</v>
       </c>
       <c r="V16" s="2">
-        <v>4.9148810651687302</v>
+        <v>4.9066618599554266</v>
       </c>
       <c r="W16" s="2">
-        <v>0.49283598194505512</v>
+        <v>0.4843159119082931</v>
       </c>
       <c r="X16" s="2">
-        <v>4.9135316899659784</v>
+        <v>4.9041829057349888</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.49164349836220578</v>
+        <v>0.48993159424243282</v>
       </c>
       <c r="Z16" s="2">
-        <v>10.920121761354549</v>
+        <v>10.90098873298423</v>
       </c>
       <c r="AA16" s="2">
-        <v>1.0997268488216909</v>
+        <v>1.084728504437056</v>
       </c>
       <c r="AB16" s="2">
-        <v>21.804445345857921</v>
+        <v>21.79813750593916</v>
       </c>
       <c r="AC16" s="2">
-        <v>2.1831544306382602</v>
+        <v>2.1809028829534181</v>
       </c>
       <c r="AD16" s="2">
-        <v>24.000196965174371</v>
+        <v>23.977088461028661</v>
       </c>
       <c r="AE16" s="2">
-        <v>1.5745926461839359</v>
+        <v>1.567793946128027</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -2111,94 +2130,94 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>244.00497286253099</v>
+        <v>244.05499761158711</v>
       </c>
       <c r="C17" s="2">
-        <v>12.28576413480627</v>
+        <v>12.324723582217571</v>
       </c>
       <c r="D17" s="2">
-        <v>119.16880536249759</v>
+        <v>119.10894213667819</v>
       </c>
       <c r="E17" s="2">
-        <v>8.4485557614891711</v>
+        <v>8.3811614803235166</v>
       </c>
       <c r="F17" s="2">
-        <v>119.1718804273348</v>
+        <v>119.30427284668011</v>
       </c>
       <c r="G17" s="2">
-        <v>8.4572661659684947</v>
+        <v>8.4532345359973213</v>
       </c>
       <c r="H17" s="2">
-        <v>34.895424073017622</v>
+        <v>34.945892003677521</v>
       </c>
       <c r="I17" s="2">
-        <v>3.0460343744643699</v>
+        <v>2.9942862551512168</v>
       </c>
       <c r="J17" s="2">
-        <v>34.877777602372277</v>
+        <v>34.977438952934982</v>
       </c>
       <c r="K17" s="2">
-        <v>3.018397159431641</v>
+        <v>3.0394874111381629</v>
       </c>
       <c r="L17" s="2">
-        <v>11.648501439780979</v>
+        <v>11.647018561346639</v>
       </c>
       <c r="M17" s="2">
-        <v>1.014851869655963</v>
+        <v>1.014060301135745</v>
       </c>
       <c r="N17" s="2">
-        <v>23.268405354900089</v>
+        <v>23.30496039382982</v>
       </c>
       <c r="O17" s="2">
-        <v>2.0128118873028331</v>
+        <v>2.0096500973553999</v>
       </c>
       <c r="P17" s="2">
-        <v>11.64290132727022</v>
+        <v>11.658084413717731</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.0047171808430591</v>
+        <v>1.0181308179325841</v>
       </c>
       <c r="R17" s="2">
-        <v>34.039770393959103</v>
+        <v>34.163420498911769</v>
       </c>
       <c r="S17" s="2">
-        <v>3.3993320852064102</v>
+        <v>3.4104295856625439</v>
       </c>
       <c r="T17" s="2">
-        <v>23.845485021994548</v>
+        <v>23.920124828626879</v>
       </c>
       <c r="U17" s="2">
-        <v>2.3605386409907929</v>
+        <v>2.3952728022077432</v>
       </c>
       <c r="V17" s="2">
-        <v>5.1076800049810114</v>
+        <v>5.124943101849512</v>
       </c>
       <c r="W17" s="2">
-        <v>0.50881774902800436</v>
+        <v>0.51133249941038272</v>
       </c>
       <c r="X17" s="2">
-        <v>5.1124345998189851</v>
+        <v>5.1254243746689552</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.50955940559807211</v>
+        <v>0.51334586931642823</v>
       </c>
       <c r="Z17" s="2">
-        <v>11.37701503477315</v>
+        <v>11.377199931380551</v>
       </c>
       <c r="AA17" s="2">
-        <v>1.144059611766884</v>
+        <v>1.136565140645994</v>
       </c>
       <c r="AB17" s="2">
-        <v>22.719487559821012</v>
+        <v>22.771136335626959</v>
       </c>
       <c r="AC17" s="2">
-        <v>2.2737895898789211</v>
+        <v>2.2760440425439641</v>
       </c>
       <c r="AD17" s="2">
-        <v>26.364100390766261</v>
+        <v>26.41051610628196</v>
       </c>
       <c r="AE17" s="2">
-        <v>1.664010320657584</v>
+        <v>1.6484844011574109</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -2206,94 +2225,94 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>253.90392781199239</v>
+        <v>253.71865723891941</v>
       </c>
       <c r="C18" s="2">
-        <v>12.559488243840519</v>
+        <v>12.70279638434697</v>
       </c>
       <c r="D18" s="2">
-        <v>123.92244443839949</v>
+        <v>123.8294598497861</v>
       </c>
       <c r="E18" s="2">
-        <v>8.8209732922791506</v>
+        <v>8.875494810529025</v>
       </c>
       <c r="F18" s="2">
-        <v>123.96229792304359</v>
+        <v>123.85009749918881</v>
       </c>
       <c r="G18" s="2">
-        <v>8.6543020060976374</v>
+        <v>8.6840296589394601</v>
       </c>
       <c r="H18" s="2">
-        <v>36.324414699657453</v>
+        <v>36.287367732176293</v>
       </c>
       <c r="I18" s="2">
-        <v>3.124617204109494</v>
+        <v>3.1377944049721771</v>
       </c>
       <c r="J18" s="2">
-        <v>36.330762205026403</v>
+        <v>36.271789530388993</v>
       </c>
       <c r="K18" s="2">
-        <v>3.133104938085344</v>
+        <v>3.1281217377427382</v>
       </c>
       <c r="L18" s="2">
-        <v>12.108263148942459</v>
+        <v>12.09639047855894</v>
       </c>
       <c r="M18" s="2">
-        <v>1.042860778450265</v>
+        <v>1.0411019362332019</v>
       </c>
       <c r="N18" s="2">
-        <v>24.19560027955335</v>
+        <v>24.172925882196559</v>
       </c>
       <c r="O18" s="2">
-        <v>2.0766558839983169</v>
+        <v>2.0870881011123852</v>
       </c>
       <c r="P18" s="2">
-        <v>12.10628603710483</v>
+        <v>12.10151459657</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.0445868436643699</v>
+        <v>1.047001223248748</v>
       </c>
       <c r="R18" s="2">
-        <v>35.458409494749667</v>
+        <v>35.435226678787942</v>
       </c>
       <c r="S18" s="2">
-        <v>3.5499925629994729</v>
+        <v>3.5488007211321428</v>
       </c>
       <c r="T18" s="2">
-        <v>24.84513543829954</v>
+        <v>24.791350831224982</v>
       </c>
       <c r="U18" s="2">
-        <v>2.47664251201974</v>
+        <v>2.4633123863475568</v>
       </c>
       <c r="V18" s="2">
-        <v>5.323119726826036</v>
+        <v>5.3124783714458621</v>
       </c>
       <c r="W18" s="2">
-        <v>0.5321684277759251</v>
+        <v>0.53102546667015571</v>
       </c>
       <c r="X18" s="2">
-        <v>5.3207576097330902</v>
+        <v>5.3100571954637168</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.52983166372931911</v>
+        <v>0.52855427140117062</v>
       </c>
       <c r="Z18" s="2">
-        <v>11.82636796927518</v>
+        <v>11.80830402358465</v>
       </c>
       <c r="AA18" s="2">
-        <v>1.1805741866984349</v>
+        <v>1.179722014825102</v>
       </c>
       <c r="AB18" s="2">
-        <v>23.6196100565639</v>
+        <v>23.603991143057339</v>
       </c>
       <c r="AC18" s="2">
-        <v>2.3473541485926979</v>
+        <v>2.3662801849175539</v>
       </c>
       <c r="AD18" s="2">
-        <v>27.964901864189219</v>
+        <v>28.017456368678999</v>
       </c>
       <c r="AE18" s="2">
-        <v>1.726018478674219</v>
+        <v>1.7421970455045781</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -2301,94 +2320,94 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>263.51410790132309</v>
+        <v>263.46082059374339</v>
       </c>
       <c r="C19" s="2">
-        <v>13.200971978078471</v>
+        <v>13.178058988984359</v>
       </c>
       <c r="D19" s="2">
-        <v>128.73124661693711</v>
+        <v>128.5715243955465</v>
       </c>
       <c r="E19" s="2">
-        <v>9.1580808972940861</v>
+        <v>9.1318769245272016</v>
       </c>
       <c r="F19" s="2">
-        <v>128.69147763494371</v>
+        <v>128.61472535827889</v>
       </c>
       <c r="G19" s="2">
-        <v>9.0696215169571239</v>
+        <v>9.079780685662751</v>
       </c>
       <c r="H19" s="2">
-        <v>37.72757062948132</v>
+        <v>37.677997991830217</v>
       </c>
       <c r="I19" s="2">
-        <v>3.263578246471599</v>
+        <v>3.250009387781343</v>
       </c>
       <c r="J19" s="2">
-        <v>37.69550834192502</v>
+        <v>37.665209413866307</v>
       </c>
       <c r="K19" s="2">
-        <v>3.238732621030961</v>
+        <v>3.2427219367904638</v>
       </c>
       <c r="L19" s="2">
-        <v>12.558783268639599</v>
+        <v>12.537945296929699</v>
       </c>
       <c r="M19" s="2">
-        <v>1.0902315044401061</v>
+        <v>1.082070658946112</v>
       </c>
       <c r="N19" s="2">
-        <v>25.136957398809809</v>
+        <v>25.111645290741858</v>
       </c>
       <c r="O19" s="2">
-        <v>2.1866979951718299</v>
+        <v>2.1864395302348911</v>
       </c>
       <c r="P19" s="2">
-        <v>12.55930972561721</v>
+        <v>12.56283714075483</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.09627213717298</v>
+        <v>1.0965455827533661</v>
       </c>
       <c r="R19" s="2">
-        <v>36.829451674291988</v>
+        <v>36.780350870428499</v>
       </c>
       <c r="S19" s="2">
-        <v>3.6537966119666812</v>
+        <v>3.651587783475573</v>
       </c>
       <c r="T19" s="2">
-        <v>25.766598714656411</v>
+        <v>25.72615638774171</v>
       </c>
       <c r="U19" s="2">
-        <v>2.5626486854103101</v>
+        <v>2.5495536052449128</v>
       </c>
       <c r="V19" s="2">
-        <v>5.5275249048998916</v>
+        <v>5.5130872639404611</v>
       </c>
       <c r="W19" s="2">
-        <v>0.55035243017499902</v>
+        <v>0.5493593099917059</v>
       </c>
       <c r="X19" s="2">
-        <v>5.5220820549598928</v>
+        <v>5.5203230345378396</v>
       </c>
       <c r="Y19" s="2">
-        <v>0.5514953558782516</v>
+        <v>0.54680479844916274</v>
       </c>
       <c r="Z19" s="2">
-        <v>12.25184162742676</v>
+        <v>12.24117962828303</v>
       </c>
       <c r="AA19" s="2">
-        <v>1.2166208187901559</v>
+        <v>1.227096302905442</v>
       </c>
       <c r="AB19" s="2">
-        <v>24.562257375401309</v>
+        <v>24.54089447693849</v>
       </c>
       <c r="AC19" s="2">
-        <v>2.4758676527716879</v>
+        <v>2.46661185962612</v>
       </c>
       <c r="AD19" s="2">
-        <v>29.330639282433388</v>
+        <v>29.34738225170759</v>
       </c>
       <c r="AE19" s="2">
-        <v>1.7776064655085331</v>
+        <v>1.797476870635202</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -2396,94 +2415,94 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>273.46329306028798</v>
+        <v>273.38219001075782</v>
       </c>
       <c r="C20" s="2">
-        <v>13.66527999499943</v>
+        <v>13.467474647589221</v>
       </c>
       <c r="D20" s="2">
-        <v>133.52497715122331</v>
+        <v>133.527971568411</v>
       </c>
       <c r="E20" s="2">
-        <v>9.4717216757360596</v>
+        <v>9.4030506294365281</v>
       </c>
       <c r="F20" s="2">
-        <v>133.46228412485979</v>
+        <v>133.4567973934499</v>
       </c>
       <c r="G20" s="2">
-        <v>9.3989225968333656</v>
+        <v>9.4237396138156324</v>
       </c>
       <c r="H20" s="2">
-        <v>39.117163110262091</v>
+        <v>39.107472241840803</v>
       </c>
       <c r="I20" s="2">
-        <v>3.3710651307452082</v>
+        <v>3.4052571232549012</v>
       </c>
       <c r="J20" s="2">
-        <v>39.122946323526492</v>
+        <v>39.089202264094332</v>
       </c>
       <c r="K20" s="2">
-        <v>3.3937027837624951</v>
+        <v>3.3826006559261801</v>
       </c>
       <c r="L20" s="2">
-        <v>13.01794132876746</v>
+        <v>13.03622815048101</v>
       </c>
       <c r="M20" s="2">
-        <v>1.125121778687908</v>
+        <v>1.1270397297279191</v>
       </c>
       <c r="N20" s="2">
-        <v>26.046753800036271</v>
+        <v>26.058946383122869</v>
       </c>
       <c r="O20" s="2">
-        <v>2.2615633437032101</v>
+        <v>2.2754401390378849</v>
       </c>
       <c r="P20" s="2">
-        <v>13.02963044817942</v>
+        <v>13.023219680873691</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.116961349311888</v>
+        <v>1.128587287785435</v>
       </c>
       <c r="R20" s="2">
-        <v>38.208069098703717</v>
+        <v>38.193987158843179</v>
       </c>
       <c r="S20" s="2">
-        <v>3.800657862045989</v>
+        <v>3.8600587949115308</v>
       </c>
       <c r="T20" s="2">
-        <v>26.7345961770862</v>
+        <v>26.713930941570389</v>
       </c>
       <c r="U20" s="2">
-        <v>2.680181119645213</v>
+        <v>2.6863937268524629</v>
       </c>
       <c r="V20" s="2">
-        <v>5.7309472373411712</v>
+        <v>5.7297271034684529</v>
       </c>
       <c r="W20" s="2">
-        <v>0.57237122514528649</v>
+        <v>0.57403467846238254</v>
       </c>
       <c r="X20" s="2">
-        <v>5.7347439723926863</v>
+        <v>5.7302651895236956</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.57221400682648271</v>
+        <v>0.57685256148884845</v>
       </c>
       <c r="Z20" s="2">
-        <v>12.716112144139769</v>
+        <v>12.72840639954639</v>
       </c>
       <c r="AA20" s="2">
-        <v>1.269490306756347</v>
+        <v>1.2785639930605091</v>
       </c>
       <c r="AB20" s="2">
-        <v>25.412485808818779</v>
+        <v>25.447786021811471</v>
       </c>
       <c r="AC20" s="2">
-        <v>2.5461100987119121</v>
+        <v>2.5588370514286312</v>
       </c>
       <c r="AD20" s="2">
-        <v>30.584048868092751</v>
+        <v>30.533249516401689</v>
       </c>
       <c r="AE20" s="2">
-        <v>1.837405396340571</v>
+        <v>1.8291778848824229</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -2491,94 +2510,94 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>283.18960775801241</v>
+        <v>283.12652366882611</v>
       </c>
       <c r="C21" s="2">
-        <v>14.205078958382551</v>
+        <v>14.054779596327499</v>
       </c>
       <c r="D21" s="2">
-        <v>138.16529932433349</v>
+        <v>138.20899250017251</v>
       </c>
       <c r="E21" s="2">
-        <v>9.6599815474966064</v>
+        <v>9.6629065866523458</v>
       </c>
       <c r="F21" s="2">
-        <v>138.2603543212453</v>
+        <v>138.27219306273159</v>
       </c>
       <c r="G21" s="2">
-        <v>9.8953918477612639</v>
+        <v>9.70882475129984</v>
       </c>
       <c r="H21" s="2">
-        <v>40.505209427661242</v>
+        <v>40.524357406215998</v>
       </c>
       <c r="I21" s="2">
-        <v>3.532586914090071</v>
+        <v>3.5016566588170761</v>
       </c>
       <c r="J21" s="2">
-        <v>40.533529834099419</v>
+        <v>40.489979103776101</v>
       </c>
       <c r="K21" s="2">
-        <v>3.55673326119974</v>
+        <v>3.514771809009916</v>
       </c>
       <c r="L21" s="2">
-        <v>13.507112641022291</v>
+        <v>13.494402257207531</v>
       </c>
       <c r="M21" s="2">
-        <v>1.179855940664291</v>
+        <v>1.1533068300944209</v>
       </c>
       <c r="N21" s="2">
-        <v>26.990113265286361</v>
+        <v>27.007721587863831</v>
       </c>
       <c r="O21" s="2">
-        <v>2.335154589648841</v>
+        <v>2.3173242740443061</v>
       </c>
       <c r="P21" s="2">
-        <v>13.496133305366291</v>
+        <v>13.50069207875627</v>
       </c>
       <c r="Q21" s="2">
-        <v>1.187432522803979</v>
+        <v>1.1675905706764531</v>
       </c>
       <c r="R21" s="2">
-        <v>39.540175973518707</v>
+        <v>39.543225357477773</v>
       </c>
       <c r="S21" s="2">
-        <v>3.9724311657026208</v>
+        <v>3.957646258839818</v>
       </c>
       <c r="T21" s="2">
-        <v>27.713595473272012</v>
+        <v>27.682141336336699</v>
       </c>
       <c r="U21" s="2">
-        <v>2.8139456047940761</v>
+        <v>2.774543802195689</v>
       </c>
       <c r="V21" s="2">
-        <v>5.9343086664709688</v>
+        <v>5.9313315310938446</v>
       </c>
       <c r="W21" s="2">
-        <v>0.5989754380458826</v>
+        <v>0.59865316697738469</v>
       </c>
       <c r="X21" s="2">
-        <v>5.9396317913804877</v>
+        <v>5.9315533896936303</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.59815471054025782</v>
+        <v>0.5927507248573648</v>
       </c>
       <c r="Z21" s="2">
-        <v>13.175635848635951</v>
+        <v>13.1772446941174</v>
       </c>
       <c r="AA21" s="2">
-        <v>1.3296514695001149</v>
+        <v>1.308292887497307</v>
       </c>
       <c r="AB21" s="2">
-        <v>26.359457082081171</v>
+        <v>26.377191872922111</v>
       </c>
       <c r="AC21" s="2">
-        <v>2.6655461523940081</v>
+        <v>2.6232512749763042</v>
       </c>
       <c r="AD21" s="2">
-        <v>31.730301490424178</v>
+        <v>31.735522966184298</v>
       </c>
       <c r="AE21" s="2">
-        <v>1.9049999877092589</v>
+        <v>1.9151849321637371</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -2586,94 +2605,94 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>292.7764720141634</v>
+        <v>292.95227021602471</v>
       </c>
       <c r="C22" s="2">
-        <v>14.63125245142319</v>
+        <v>14.54426285705247</v>
       </c>
       <c r="D22" s="2">
-        <v>142.9915822248621</v>
+        <v>143.0786156765561</v>
       </c>
       <c r="E22" s="2">
-        <v>10.05884875247148</v>
+        <v>9.9037298340207176</v>
       </c>
       <c r="F22" s="2">
-        <v>143.02161342871631</v>
+        <v>143.09827396952869</v>
       </c>
       <c r="G22" s="2">
-        <v>10.113259332898121</v>
+        <v>10.102440425954169</v>
       </c>
       <c r="H22" s="2">
-        <v>41.90820764479848</v>
+        <v>41.932971350801061</v>
       </c>
       <c r="I22" s="2">
-        <v>3.6378671535188412</v>
+        <v>3.614343898242288</v>
       </c>
       <c r="J22" s="2">
-        <v>41.911637082182409</v>
+        <v>41.860265183198017</v>
       </c>
       <c r="K22" s="2">
-        <v>3.6311588542423219</v>
+        <v>3.6588106172000638</v>
       </c>
       <c r="L22" s="2">
-        <v>13.976978014524089</v>
+        <v>13.97228569370961</v>
       </c>
       <c r="M22" s="2">
-        <v>1.208735320246781</v>
+        <v>1.2218298552815079</v>
       </c>
       <c r="N22" s="2">
-        <v>27.943752793299701</v>
+        <v>27.916165427142499</v>
       </c>
       <c r="O22" s="2">
-        <v>2.4316454100691161</v>
+        <v>2.4199967846822501</v>
       </c>
       <c r="P22" s="2">
-        <v>13.96779498096736</v>
+        <v>13.978887059506</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.2188251431444079</v>
+        <v>1.2153431786095039</v>
       </c>
       <c r="R22" s="2">
-        <v>40.93994085943595</v>
+        <v>40.939536239480887</v>
       </c>
       <c r="S22" s="2">
-        <v>4.09027785080628</v>
+        <v>4.0825999288622468</v>
       </c>
       <c r="T22" s="2">
-        <v>28.660003210866869</v>
+        <v>28.59160273501584</v>
       </c>
       <c r="U22" s="2">
-        <v>2.8650875898100869</v>
+        <v>2.9072395924814201</v>
       </c>
       <c r="V22" s="2">
-        <v>6.14481994904349</v>
+        <v>6.1327395951064227</v>
       </c>
       <c r="W22" s="2">
-        <v>0.61843966402791739</v>
+        <v>0.61575489957795737</v>
       </c>
       <c r="X22" s="2">
-        <v>6.1368467164717631</v>
+        <v>6.1362965690831599</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.60799107171583888</v>
+        <v>0.62293595263879875</v>
       </c>
       <c r="Z22" s="2">
-        <v>13.65285239299819</v>
+        <v>13.64438772247456</v>
       </c>
       <c r="AA22" s="2">
-        <v>1.3680177367813511</v>
+        <v>1.381713693595265</v>
       </c>
       <c r="AB22" s="2">
-        <v>27.281945092836018</v>
+        <v>27.250481060854732</v>
       </c>
       <c r="AC22" s="2">
-        <v>2.7372667591703341</v>
+        <v>2.7462691696763608</v>
       </c>
       <c r="AD22" s="2">
-        <v>32.90648852780614</v>
+        <v>32.932202127567592</v>
       </c>
       <c r="AE22" s="2">
-        <v>1.9793056319358331</v>
+        <v>2.003946389031118</v>
       </c>
     </row>
   </sheetData>
@@ -2685,9 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2768,64 +2785,64 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>47.723380519650682</v>
+        <v>47.660225994812343</v>
       </c>
       <c r="C2" s="2">
-        <v>3.391970947048117</v>
+        <v>3.3501738893114941</v>
       </c>
       <c r="D2" s="2">
-        <v>47.723380519650682</v>
+        <v>47.660225994812343</v>
       </c>
       <c r="E2" s="2">
-        <v>3.391970947048117</v>
+        <v>3.3501738893114941</v>
       </c>
       <c r="F2" s="2">
-        <v>4.6511505424405346</v>
+        <v>4.6538937457122911</v>
       </c>
       <c r="G2" s="2">
-        <v>0.40467989902595741</v>
+        <v>0.40641228111807359</v>
       </c>
       <c r="H2" s="2">
-        <v>4.6511505424405346</v>
+        <v>4.6538937457122911</v>
       </c>
       <c r="I2" s="2">
-        <v>0.40467989902595741</v>
+        <v>0.40641228111807359</v>
       </c>
       <c r="J2" s="2">
-        <v>23.183191669387991</v>
+        <v>23.199746967091261</v>
       </c>
       <c r="K2" s="2">
-        <v>2.0204671148954851</v>
+        <v>2.030108627432881</v>
       </c>
       <c r="L2" s="2">
-        <v>23.183191669387991</v>
+        <v>23.199746967091261</v>
       </c>
       <c r="M2" s="2">
-        <v>2.0204671148954851</v>
+        <v>2.030108627432881</v>
       </c>
       <c r="N2" s="2">
-        <v>15.675769388518651</v>
+        <v>15.687921057430829</v>
       </c>
       <c r="O2" s="2">
-        <v>1.3356724026361859</v>
+        <v>1.3352030452516741</v>
       </c>
       <c r="P2" s="2">
-        <v>15.675769388518651</v>
+        <v>15.687921057430829</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.3356724026361859</v>
+        <v>1.3352030452516741</v>
       </c>
       <c r="R2" s="2">
-        <v>2.0456003858801468</v>
+        <v>2.0472943296256569</v>
       </c>
       <c r="S2" s="2">
-        <v>0.2020810848195409</v>
+        <v>0.20434388340317111</v>
       </c>
       <c r="T2" s="2">
-        <v>2.0456003858801468</v>
+        <v>2.0472943296256569</v>
       </c>
       <c r="U2" s="2">
-        <v>0.2020810848195409</v>
+        <v>0.20434388340317111</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2833,64 +2850,64 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>52.466757443302647</v>
+        <v>52.422054798665933</v>
       </c>
       <c r="C3" s="2">
-        <v>3.7284640199885262</v>
+        <v>3.742894461307412</v>
       </c>
       <c r="D3" s="2">
-        <v>100.1901379629532</v>
+        <v>100.0822807934786</v>
       </c>
       <c r="E3" s="2">
-        <v>5.0278566671423954</v>
+        <v>5.0083302175577069</v>
       </c>
       <c r="F3" s="2">
-        <v>5.1237454543116243</v>
+        <v>5.1221944336542444</v>
       </c>
       <c r="G3" s="2">
-        <v>0.44072774431423428</v>
+        <v>0.44633093925054418</v>
       </c>
       <c r="H3" s="2">
-        <v>9.7748959967521447</v>
+        <v>9.7760881793666101</v>
       </c>
       <c r="I3" s="2">
-        <v>0.60349107595664719</v>
+        <v>0.60125861933508395</v>
       </c>
       <c r="J3" s="2">
-        <v>18.153388539004862</v>
+        <v>18.11185481716053</v>
       </c>
       <c r="K3" s="2">
-        <v>2.3168859791438972</v>
+        <v>2.334021859215071</v>
       </c>
       <c r="L3" s="2">
-        <v>41.336580208392768</v>
+        <v>41.311601784251827</v>
       </c>
       <c r="M3" s="2">
-        <v>3.093543690444875</v>
+        <v>3.075393001995534</v>
       </c>
       <c r="N3" s="2">
-        <v>24.633735701821401</v>
+        <v>24.61703102970414</v>
       </c>
       <c r="O3" s="2">
-        <v>1.6025188348515349</v>
+        <v>1.613863711496857</v>
       </c>
       <c r="P3" s="2">
-        <v>40.309505090340053</v>
+        <v>40.304952087135163</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.088105983372718</v>
+        <v>2.0942432239844089</v>
       </c>
       <c r="R3" s="2">
-        <v>2.2534617475144829</v>
+        <v>2.248668212211284</v>
       </c>
       <c r="S3" s="2">
-        <v>0.2229190836859074</v>
+        <v>0.2276957355094818</v>
       </c>
       <c r="T3" s="2">
-        <v>4.2990621333946333</v>
+        <v>4.2959625418369516</v>
       </c>
       <c r="U3" s="2">
-        <v>0.30080175314526819</v>
+        <v>0.30317806737750952</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -2898,64 +2915,64 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>57.149370244972957</v>
+        <v>57.257319142294207</v>
       </c>
       <c r="C4" s="2">
-        <v>4.0401966980980797</v>
+        <v>4.0935649335307964</v>
       </c>
       <c r="D4" s="2">
-        <v>157.33950820792629</v>
+        <v>157.33959993577221</v>
       </c>
       <c r="E4" s="2">
-        <v>6.473146848325313</v>
+        <v>6.469956999994217</v>
       </c>
       <c r="F4" s="2">
-        <v>5.578352898197692</v>
+        <v>5.5968563172856429</v>
       </c>
       <c r="G4" s="2">
-        <v>0.47928793839906869</v>
+        <v>0.48793681308133019</v>
       </c>
       <c r="H4" s="2">
-        <v>15.353248894949839</v>
+        <v>15.37294449665219</v>
       </c>
       <c r="I4" s="2">
-        <v>0.7701959034473248</v>
+        <v>0.77164169106175229</v>
       </c>
       <c r="J4" s="2">
-        <v>17.114310529549702</v>
+        <v>17.11474183372227</v>
       </c>
       <c r="K4" s="2">
-        <v>2.5437562758283998</v>
+        <v>2.5532116642446989</v>
       </c>
       <c r="L4" s="2">
-        <v>58.450890737942629</v>
+        <v>58.426343617974233</v>
       </c>
       <c r="M4" s="2">
-        <v>4.0522045411565157</v>
+        <v>4.0521693162786354</v>
       </c>
       <c r="N4" s="2">
-        <v>29.542674945181751</v>
+        <v>29.566255010287939</v>
       </c>
       <c r="O4" s="2">
-        <v>1.7765720730688981</v>
+        <v>1.7799506989151459</v>
       </c>
       <c r="P4" s="2">
-        <v>69.852180035522153</v>
+        <v>69.871207097422953</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.807466498665439</v>
+        <v>2.7910943492955842</v>
       </c>
       <c r="R4" s="2">
-        <v>2.4546223509285139</v>
+        <v>2.4570424668450821</v>
       </c>
       <c r="S4" s="2">
-        <v>0.24438202804589121</v>
+        <v>0.24605400078685249</v>
       </c>
       <c r="T4" s="2">
-        <v>6.7536844843231094</v>
+        <v>6.7530050086820239</v>
       </c>
       <c r="U4" s="2">
-        <v>0.38593069835445798</v>
+        <v>0.39195274879831488</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -2963,64 +2980,64 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>61.915980696368209</v>
+        <v>61.949649506431221</v>
       </c>
       <c r="C5" s="2">
-        <v>4.3898009049043063</v>
+        <v>4.4057131759736414</v>
       </c>
       <c r="D5" s="2">
-        <v>219.25548890429459</v>
+        <v>219.28924944220341</v>
       </c>
       <c r="E5" s="2">
-        <v>7.8301818384657036</v>
+        <v>7.8269376672042243</v>
       </c>
       <c r="F5" s="2">
-        <v>6.0470068273757747</v>
+        <v>6.0458088310121934</v>
       </c>
       <c r="G5" s="2">
-        <v>0.52301269097831593</v>
+        <v>0.52646482216496715</v>
       </c>
       <c r="H5" s="2">
-        <v>21.400255722325571</v>
+        <v>21.418753327664341</v>
       </c>
       <c r="I5" s="2">
-        <v>0.93007229957780624</v>
+        <v>0.93804843587518927</v>
       </c>
       <c r="J5" s="2">
-        <v>17.434792224316169</v>
+        <v>17.397779518846299</v>
       </c>
       <c r="K5" s="2">
-        <v>2.757913171262953</v>
+        <v>2.7268201424211149</v>
       </c>
       <c r="L5" s="2">
-        <v>75.885682962258628</v>
+        <v>75.824123136820418</v>
       </c>
       <c r="M5" s="2">
-        <v>4.9342837988162991</v>
+        <v>4.9332275879379646</v>
       </c>
       <c r="N5" s="2">
-        <v>33.053332861669851</v>
+        <v>33.101627752688387</v>
       </c>
       <c r="O5" s="2">
-        <v>1.9233908270807969</v>
+        <v>1.882271712892539</v>
       </c>
       <c r="P5" s="2">
-        <v>102.905512897192</v>
+        <v>102.9728348501112</v>
       </c>
       <c r="Q5" s="2">
-        <v>3.4828099477172931</v>
+        <v>3.4647265786060291</v>
       </c>
       <c r="R5" s="2">
-        <v>2.6546137052185381</v>
+        <v>2.656067818602589</v>
       </c>
       <c r="S5" s="2">
-        <v>0.26909106487827877</v>
+        <v>0.26478984260305921</v>
       </c>
       <c r="T5" s="2">
-        <v>9.4082981895417408</v>
+        <v>9.4090728272846107</v>
       </c>
       <c r="U5" s="2">
-        <v>0.46942013187887172</v>
+        <v>0.47582192976145721</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -3028,64 +3045,64 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>66.690556447261386</v>
+        <v>66.825151437325218</v>
       </c>
       <c r="C6" s="2">
-        <v>4.6884184665708117</v>
+        <v>4.7044551183556136</v>
       </c>
       <c r="D6" s="2">
-        <v>285.94604535155588</v>
+        <v>286.11440087952911</v>
       </c>
       <c r="E6" s="2">
-        <v>9.1170565897162597</v>
+        <v>9.1621771652204096</v>
       </c>
       <c r="F6" s="2">
-        <v>6.5100629760296354</v>
+        <v>6.5146034216308841</v>
       </c>
       <c r="G6" s="2">
-        <v>0.55554537903497525</v>
+        <v>0.56915514040194715</v>
       </c>
       <c r="H6" s="2">
-        <v>27.910318698355301</v>
+        <v>27.933356749295179</v>
       </c>
       <c r="I6" s="2">
-        <v>1.085691173209115</v>
+        <v>1.0962343941413339</v>
       </c>
       <c r="J6" s="2">
-        <v>18.273947512986169</v>
+        <v>18.252428611919662</v>
       </c>
       <c r="K6" s="2">
-        <v>2.8981305808690738</v>
+        <v>2.9703847573605739</v>
       </c>
       <c r="L6" s="2">
-        <v>94.15963047524474</v>
+        <v>94.0765517487404</v>
       </c>
       <c r="M6" s="2">
-        <v>5.7631418669231707</v>
+        <v>5.8134294105837618</v>
       </c>
       <c r="N6" s="2">
-        <v>36.153882892782249</v>
+        <v>36.161500315427467</v>
       </c>
       <c r="O6" s="2">
-        <v>2.0467840233654311</v>
+        <v>2.068673875335135</v>
       </c>
       <c r="P6" s="2">
-        <v>139.05939578997399</v>
+        <v>139.13433516553931</v>
       </c>
       <c r="Q6" s="2">
-        <v>4.1280152194460253</v>
+        <v>4.1009805723021771</v>
       </c>
       <c r="R6" s="2">
-        <v>2.8641052735159409</v>
+        <v>2.8616955009519218</v>
       </c>
       <c r="S6" s="2">
-        <v>0.28202440539055479</v>
+        <v>0.28603860504829431</v>
       </c>
       <c r="T6" s="2">
-        <v>12.27240346305766</v>
+        <v>12.270768328236549</v>
       </c>
       <c r="U6" s="2">
-        <v>0.54253675207035579</v>
+        <v>0.55328510238327766</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -3093,64 +3110,64 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>71.551866439447821</v>
+        <v>71.498713361492818</v>
       </c>
       <c r="C7" s="2">
-        <v>5.0710905813044622</v>
+        <v>5.055125473759829</v>
       </c>
       <c r="D7" s="2">
-        <v>357.49791179100413</v>
+        <v>357.6131142410207</v>
       </c>
       <c r="E7" s="2">
-        <v>10.415904776918319</v>
+        <v>10.385954238887949</v>
       </c>
       <c r="F7" s="2">
-        <v>6.987848768172535</v>
+        <v>6.9740612886170039</v>
       </c>
       <c r="G7" s="2">
-        <v>0.60333878081707759</v>
+        <v>0.59637870499688528</v>
       </c>
       <c r="H7" s="2">
-        <v>34.898167466527532</v>
+        <v>34.907418037912286</v>
       </c>
       <c r="I7" s="2">
-        <v>1.2379847899945671</v>
+        <v>1.2474030732560211</v>
       </c>
       <c r="J7" s="2">
-        <v>19.346233937127071</v>
+        <v>19.295637427716741</v>
       </c>
       <c r="K7" s="2">
-        <v>3.1867903154963089</v>
+        <v>3.1699436345366578</v>
       </c>
       <c r="L7" s="2">
-        <v>113.50586441237169</v>
+        <v>113.3721891764567</v>
       </c>
       <c r="M7" s="2">
-        <v>6.633391122688959</v>
+        <v>6.6474707081877202</v>
       </c>
       <c r="N7" s="2">
-        <v>38.993018486644942</v>
+        <v>38.981165568053179</v>
       </c>
       <c r="O7" s="2">
-        <v>2.219695530461598</v>
+        <v>2.1990760444121742</v>
       </c>
       <c r="P7" s="2">
-        <v>178.05241427661929</v>
+        <v>178.115500733593</v>
       </c>
       <c r="Q7" s="2">
-        <v>4.766975741547844</v>
+        <v>4.7185775482548227</v>
       </c>
       <c r="R7" s="2">
-        <v>3.0726867348784879</v>
+        <v>3.0668741613731112</v>
       </c>
       <c r="S7" s="2">
-        <v>0.30753810411652649</v>
+        <v>0.30107784640248741</v>
       </c>
       <c r="T7" s="2">
-        <v>15.34509019793615</v>
+        <v>15.337642489609649</v>
       </c>
       <c r="U7" s="2">
-        <v>0.61935091649867768</v>
+        <v>0.63029371026244208</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -3158,64 +3175,64 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>76.265540817715575</v>
+        <v>76.330931374452703</v>
       </c>
       <c r="C8" s="2">
-        <v>5.4150049732069334</v>
+        <v>5.3458302577854431</v>
       </c>
       <c r="D8" s="2">
-        <v>433.76345260871921</v>
+        <v>433.94404561547532</v>
       </c>
       <c r="E8" s="2">
-        <v>11.744655408722201</v>
+        <v>11.61688502475749</v>
       </c>
       <c r="F8" s="2">
-        <v>7.4442490479020531</v>
+        <v>7.4385934925386596</v>
       </c>
       <c r="G8" s="2">
-        <v>0.64965321274404642</v>
+        <v>0.6459825067338284</v>
       </c>
       <c r="H8" s="2">
-        <v>42.342416514429843</v>
+        <v>42.346011530451086</v>
       </c>
       <c r="I8" s="2">
-        <v>1.4007994671674771</v>
+        <v>1.3981506548100491</v>
       </c>
       <c r="J8" s="2">
-        <v>20.368733484076849</v>
+        <v>20.432480930670518</v>
       </c>
       <c r="K8" s="2">
-        <v>3.3954307517383522</v>
+        <v>3.4280669507153672</v>
       </c>
       <c r="L8" s="2">
-        <v>133.8745978964489</v>
+        <v>133.80467010712721</v>
       </c>
       <c r="M8" s="2">
-        <v>7.5586505715609924</v>
+        <v>7.5163973500740919</v>
       </c>
       <c r="N8" s="2">
-        <v>41.767874220447197</v>
+        <v>41.776977321182507</v>
       </c>
       <c r="O8" s="2">
-        <v>2.387119286148673</v>
+        <v>2.3742457736036608</v>
       </c>
       <c r="P8" s="2">
-        <v>219.82028849706589</v>
+        <v>219.8924780547749</v>
       </c>
       <c r="Q8" s="2">
-        <v>5.4580116987799956</v>
+        <v>5.3574077961883813</v>
       </c>
       <c r="R8" s="2">
-        <v>3.2677222297663659</v>
+        <v>3.2744773437967551</v>
       </c>
       <c r="S8" s="2">
-        <v>0.32971722792408709</v>
+        <v>0.32864269558402393</v>
       </c>
       <c r="T8" s="2">
-        <v>18.61281242770249</v>
+        <v>18.612119833406432</v>
       </c>
       <c r="U8" s="2">
-        <v>0.69799940706625796</v>
+        <v>0.71104263346815832</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -3223,64 +3240,64 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>80.973319919967139</v>
+        <v>81.047981047306592</v>
       </c>
       <c r="C9" s="2">
-        <v>5.8145275223135284</v>
+        <v>5.8004757660693977</v>
       </c>
       <c r="D9" s="2">
-        <v>514.73677252868526</v>
+        <v>514.99202666278143</v>
       </c>
       <c r="E9" s="2">
-        <v>13.018145208107629</v>
+        <v>12.950116069913051</v>
       </c>
       <c r="F9" s="2">
-        <v>7.9174375794828507</v>
+        <v>7.9162133151853773</v>
       </c>
       <c r="G9" s="2">
-        <v>0.68620787139973261</v>
+        <v>0.69318481263118548</v>
       </c>
       <c r="H9" s="2">
-        <v>50.259854093912708</v>
+        <v>50.262224845636283</v>
       </c>
       <c r="I9" s="2">
-        <v>1.5478886332405311</v>
+        <v>1.5519630069344741</v>
       </c>
       <c r="J9" s="2">
-        <v>21.536328700486681</v>
+        <v>21.56003189676073</v>
       </c>
       <c r="K9" s="2">
-        <v>3.6519227036260902</v>
+        <v>3.6122168220039632</v>
       </c>
       <c r="L9" s="2">
-        <v>155.41092659693501</v>
+        <v>155.36470200388919</v>
       </c>
       <c r="M9" s="2">
-        <v>8.4714959631514226</v>
+        <v>8.3887610689178356</v>
       </c>
       <c r="N9" s="2">
-        <v>44.539214174623261</v>
+        <v>44.542124942069243</v>
       </c>
       <c r="O9" s="2">
-        <v>2.5413188305451522</v>
+        <v>2.5098901576089609</v>
       </c>
       <c r="P9" s="2">
-        <v>264.35950267168931</v>
+        <v>264.43460299684449</v>
       </c>
       <c r="Q9" s="2">
-        <v>6.1114682276720194</v>
+        <v>6.0092335744323657</v>
       </c>
       <c r="R9" s="2">
-        <v>3.4745638196521891</v>
+        <v>3.4807107325500022</v>
       </c>
       <c r="S9" s="2">
-        <v>0.35043632283376619</v>
+        <v>0.35261011975709372</v>
       </c>
       <c r="T9" s="2">
-        <v>22.087376247354729</v>
+        <v>22.092830565956461</v>
       </c>
       <c r="U9" s="2">
-        <v>0.78180387473646917</v>
+        <v>0.7910561567459079</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -3288,64 +3305,64 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>85.898686067065427</v>
+        <v>85.879874954935218</v>
       </c>
       <c r="C10" s="2">
-        <v>6.0584831537665123</v>
+        <v>6.0802539626037397</v>
       </c>
       <c r="D10" s="2">
-        <v>600.63545859575106</v>
+        <v>600.87190161771696</v>
       </c>
       <c r="E10" s="2">
-        <v>14.454319040524981</v>
+        <v>14.30322578422591</v>
       </c>
       <c r="F10" s="2">
-        <v>8.3968376007423657</v>
+        <v>8.389520053965116</v>
       </c>
       <c r="G10" s="2">
-        <v>0.72897003959919671</v>
+        <v>0.72819110828662781</v>
       </c>
       <c r="H10" s="2">
-        <v>58.656691694654818</v>
+        <v>58.65174489960129</v>
       </c>
       <c r="I10" s="2">
-        <v>1.7208317359441929</v>
+        <v>1.7119104208584459</v>
       </c>
       <c r="J10" s="2">
-        <v>22.76490168702458</v>
+        <v>22.76909395960924</v>
       </c>
       <c r="K10" s="2">
-        <v>3.8021025424651782</v>
+        <v>3.808873463800154</v>
       </c>
       <c r="L10" s="2">
-        <v>178.17582828396019</v>
+        <v>178.13379596349779</v>
       </c>
       <c r="M10" s="2">
-        <v>9.4407711841907513</v>
+        <v>9.3171105944581409</v>
       </c>
       <c r="N10" s="2">
-        <v>47.3027609165351</v>
+        <v>47.310206882813013</v>
       </c>
       <c r="O10" s="2">
-        <v>2.6667365676789241</v>
+        <v>2.6820230635462918</v>
       </c>
       <c r="P10" s="2">
-        <v>311.66226358822507</v>
+        <v>311.74480987965899</v>
       </c>
       <c r="Q10" s="2">
-        <v>6.8156738114739346</v>
+        <v>6.6654015374047706</v>
       </c>
       <c r="R10" s="2">
-        <v>3.690583077043434</v>
+        <v>3.6874931733950649</v>
       </c>
       <c r="S10" s="2">
-        <v>0.37073967416519032</v>
+        <v>0.37041462159297239</v>
       </c>
       <c r="T10" s="2">
-        <v>25.777959324398111</v>
+        <v>25.780323739351459</v>
       </c>
       <c r="U10" s="2">
-        <v>0.86640716672774942</v>
+        <v>0.88087884643113235</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -3353,64 +3370,64 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>90.621486628152965</v>
+        <v>90.563304169764237</v>
       </c>
       <c r="C11" s="2">
-        <v>6.3770147257570207</v>
+        <v>6.4503199473324644</v>
       </c>
       <c r="D11" s="2">
-        <v>691.25694522390131</v>
+        <v>691.43520578748178</v>
       </c>
       <c r="E11" s="2">
-        <v>15.84957573177663</v>
+        <v>15.631452849550969</v>
       </c>
       <c r="F11" s="2">
-        <v>8.8558866474907951</v>
+        <v>8.8462932834621899</v>
       </c>
       <c r="G11" s="2">
-        <v>0.76605771631394148</v>
+        <v>0.76571382455421633</v>
       </c>
       <c r="H11" s="2">
-        <v>67.512578342145886</v>
+        <v>67.498038183063542</v>
       </c>
       <c r="I11" s="2">
-        <v>1.8933511513197121</v>
+        <v>1.867482017302013</v>
       </c>
       <c r="J11" s="2">
-        <v>23.89180451054823</v>
+        <v>23.847974284557761</v>
       </c>
       <c r="K11" s="2">
-        <v>3.9560113693695831</v>
+        <v>4.0115378414188942</v>
       </c>
       <c r="L11" s="2">
-        <v>202.0676327945086</v>
+        <v>201.98177024805449</v>
       </c>
       <c r="M11" s="2">
-        <v>10.343612401814671</v>
+        <v>10.18941777543114</v>
       </c>
       <c r="N11" s="2">
-        <v>49.9914990979496</v>
+        <v>49.936655034530183</v>
       </c>
       <c r="O11" s="2">
-        <v>2.825017315619021</v>
+        <v>2.813856057957357</v>
       </c>
       <c r="P11" s="2">
-        <v>361.65376268617388</v>
+        <v>361.68146491418798</v>
       </c>
       <c r="Q11" s="2">
-        <v>7.490583053503995</v>
+        <v>7.3667391439677168</v>
       </c>
       <c r="R11" s="2">
-        <v>3.887631886797168</v>
+        <v>3.8824454810079989</v>
       </c>
       <c r="S11" s="2">
-        <v>0.38732838100280859</v>
+        <v>0.38997553859448503</v>
       </c>
       <c r="T11" s="2">
-        <v>29.665591211195132</v>
+        <v>29.662769220359419</v>
       </c>
       <c r="U11" s="2">
-        <v>0.95178275983050398</v>
+        <v>0.96278155958634626</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -3418,64 +3435,64 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>95.315868051456576</v>
+        <v>95.357972741660106</v>
       </c>
       <c r="C12" s="2">
-        <v>6.6783205422301597</v>
+        <v>6.7774080239436749</v>
       </c>
       <c r="D12" s="2">
-        <v>786.57281327535804</v>
+        <v>786.7931785291363</v>
       </c>
       <c r="E12" s="2">
-        <v>17.156499243101258</v>
+        <v>17.026458122303591</v>
       </c>
       <c r="F12" s="2">
-        <v>9.318301745843895</v>
+        <v>9.3021842604495539</v>
       </c>
       <c r="G12" s="2">
-        <v>0.81617849700342959</v>
+        <v>0.80666765963048848</v>
       </c>
       <c r="H12" s="2">
-        <v>76.830880087989925</v>
+        <v>76.800222443513519</v>
       </c>
       <c r="I12" s="2">
-        <v>2.0683148582657211</v>
+        <v>2.0343849970130661</v>
       </c>
       <c r="J12" s="2">
-        <v>25.056711207335471</v>
+        <v>24.965310433589192</v>
       </c>
       <c r="K12" s="2">
-        <v>4.2675017329579488</v>
+        <v>4.2117433002642697</v>
       </c>
       <c r="L12" s="2">
-        <v>227.12434400184389</v>
+        <v>226.94708068164451</v>
       </c>
       <c r="M12" s="2">
-        <v>11.30524268189834</v>
+        <v>11.16258999192978</v>
       </c>
       <c r="N12" s="2">
-        <v>52.740485590457361</v>
+        <v>52.663575281590269</v>
       </c>
       <c r="O12" s="2">
-        <v>2.974501725303794</v>
+        <v>2.9323498569383788</v>
       </c>
       <c r="P12" s="2">
-        <v>414.39424827663072</v>
+        <v>414.34504019577798</v>
       </c>
       <c r="Q12" s="2">
-        <v>8.2006383188218326</v>
+        <v>8.0279471937618965</v>
       </c>
       <c r="R12" s="2">
-        <v>4.0964734114079882</v>
+        <v>4.0867020063564068</v>
       </c>
       <c r="S12" s="2">
-        <v>0.41006344181677612</v>
+        <v>0.4060502431520509</v>
       </c>
       <c r="T12" s="2">
-        <v>33.762064622603113</v>
+        <v>33.749471226715777</v>
       </c>
       <c r="U12" s="2">
-        <v>1.04495536584797</v>
+        <v>1.0462361977326839</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -3483,64 +3500,64 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>4.7730236003618582</v>
+        <v>4.7684330338121548</v>
       </c>
       <c r="C13" s="2">
-        <v>0.33686813456762699</v>
+        <v>0.33257182913105598</v>
       </c>
       <c r="D13" s="2">
-        <v>791.34583687572103</v>
+        <v>791.56161156295195</v>
       </c>
       <c r="E13" s="2">
-        <v>17.16213997769206</v>
+        <v>17.02928770616607</v>
       </c>
       <c r="F13" s="2">
-        <v>0.46608657948253118</v>
+        <v>0.4664675500940117</v>
       </c>
       <c r="G13" s="2">
-        <v>4.0511378022558331E-2</v>
+        <v>4.0062519381763653E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>77.296966667472404</v>
+        <v>77.266689993607102</v>
       </c>
       <c r="I13" s="2">
-        <v>2.0685851269694639</v>
+        <v>2.0346052422348149</v>
       </c>
       <c r="J13" s="2">
-        <v>-20.19515768315668</v>
+        <v>-20.169481163493671</v>
       </c>
       <c r="K13" s="2">
-        <v>1.3845395803763949</v>
+        <v>1.3812611259295331</v>
       </c>
       <c r="L13" s="2">
-        <v>206.92918631868761</v>
+        <v>206.7775995181502</v>
       </c>
       <c r="M13" s="2">
-        <v>11.47905646253618</v>
+        <v>11.311863623624239</v>
       </c>
       <c r="N13" s="2">
-        <v>24.087637821484531</v>
+        <v>24.061174064847819</v>
       </c>
       <c r="O13" s="2">
-        <v>1.3745653875924611</v>
+        <v>1.377472766890492</v>
       </c>
       <c r="P13" s="2">
-        <v>438.48188609811689</v>
+        <v>438.40621426062398</v>
       </c>
       <c r="Q13" s="2">
-        <v>8.4389907594111655</v>
+        <v>8.2759175642404035</v>
       </c>
       <c r="R13" s="2">
-        <v>0.20470428877249991</v>
+        <v>0.20467780432154439</v>
       </c>
       <c r="S13" s="2">
-        <v>2.04869731882583E-2</v>
+        <v>2.0374891187377429E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>33.966768911375873</v>
+        <v>33.954149031037417</v>
       </c>
       <c r="U13" s="2">
-        <v>1.0452210160540301</v>
+        <v>1.0466903905514049</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -3548,64 +3565,64 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>104.88802575637099</v>
+        <v>104.83152232905429</v>
       </c>
       <c r="C14" s="2">
-        <v>7.2996719995266997</v>
+        <v>7.3720061135542103</v>
       </c>
       <c r="D14" s="2">
-        <v>896.23386263209113</v>
+        <v>896.39313389201197</v>
       </c>
       <c r="E14" s="2">
-        <v>18.686288038004701</v>
+        <v>18.569862200646352</v>
       </c>
       <c r="F14" s="2">
-        <v>10.24319546520589</v>
+        <v>10.247891225090131</v>
       </c>
       <c r="G14" s="2">
-        <v>0.87538980375019904</v>
+        <v>0.88828562558299318</v>
       </c>
       <c r="H14" s="2">
-        <v>87.54016213267839</v>
+        <v>87.514581218697415</v>
       </c>
       <c r="I14" s="2">
-        <v>2.246053353276285</v>
+        <v>2.2270250017875481</v>
       </c>
       <c r="J14" s="2">
-        <v>42.060438097629152</v>
+        <v>42.039741283066817</v>
       </c>
       <c r="K14" s="2">
-        <v>4.4232934365767456</v>
+        <v>4.500850431655949</v>
       </c>
       <c r="L14" s="2">
-        <v>248.98962441631659</v>
+        <v>248.8173408012172</v>
       </c>
       <c r="M14" s="2">
-        <v>12.360406768944189</v>
+        <v>12.232907532462161</v>
       </c>
       <c r="N14" s="2">
-        <v>43.436661846287883</v>
+        <v>43.395554801350301</v>
       </c>
       <c r="O14" s="2">
-        <v>2.9902652321795462</v>
+        <v>2.9913782088673249</v>
       </c>
       <c r="P14" s="2">
-        <v>481.91854794440468</v>
+        <v>481.80176906197693</v>
       </c>
       <c r="Q14" s="2">
-        <v>9.0233933004206683</v>
+        <v>8.8957910926067889</v>
       </c>
       <c r="R14" s="2">
-        <v>4.493975674511363</v>
+        <v>4.4936748250798262</v>
       </c>
       <c r="S14" s="2">
-        <v>0.44693823377619712</v>
+        <v>0.44982735985388339</v>
       </c>
       <c r="T14" s="2">
-        <v>38.460744585887113</v>
+        <v>38.447823856117381</v>
       </c>
       <c r="U14" s="2">
-        <v>1.132965384909614</v>
+        <v>1.135824862505538</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -3613,64 +3630,64 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>109.796189683582</v>
+        <v>109.5678270266741</v>
       </c>
       <c r="C15" s="2">
-        <v>7.7927504566658881</v>
+        <v>7.7861241710343227</v>
       </c>
       <c r="D15" s="2">
-        <v>1006.0300523156779</v>
+        <v>1005.960960918679</v>
       </c>
       <c r="E15" s="2">
-        <v>20.341573527768109</v>
+        <v>20.171094751509241</v>
       </c>
       <c r="F15" s="2">
-        <v>10.71380314816736</v>
+        <v>10.715305995017159</v>
       </c>
       <c r="G15" s="2">
-        <v>0.93538306487198042</v>
+        <v>0.92281601878898201</v>
       </c>
       <c r="H15" s="2">
-        <v>98.25396528084508</v>
+        <v>98.229887213714974</v>
       </c>
       <c r="I15" s="2">
-        <v>2.4321766527372009</v>
+        <v>2.417964398845224</v>
       </c>
       <c r="J15" s="2">
-        <v>33.714379504345807</v>
+        <v>33.702507017892543</v>
       </c>
       <c r="K15" s="2">
-        <v>4.8818808476640942</v>
+        <v>4.792342831320437</v>
       </c>
       <c r="L15" s="2">
-        <v>282.70400392066409</v>
+        <v>282.51984781910829</v>
       </c>
       <c r="M15" s="2">
-        <v>13.406865038841991</v>
+        <v>13.12989723444514</v>
       </c>
       <c r="N15" s="2">
-        <v>55.697170343588581</v>
+        <v>55.631097189022718</v>
       </c>
       <c r="O15" s="2">
-        <v>3.4171709120822471</v>
+        <v>3.3755696043013712</v>
       </c>
       <c r="P15" s="2">
-        <v>537.61571828799322</v>
+        <v>537.43286625099631</v>
       </c>
       <c r="Q15" s="2">
-        <v>9.7390749543010955</v>
+        <v>9.5729329576416742</v>
       </c>
       <c r="R15" s="2">
-        <v>4.702073949895019</v>
+        <v>4.7023952984089759</v>
       </c>
       <c r="S15" s="2">
-        <v>0.47020093687600778</v>
+        <v>0.46627795000993838</v>
       </c>
       <c r="T15" s="2">
-        <v>43.162818535782378</v>
+        <v>43.150219154526212</v>
       </c>
       <c r="U15" s="2">
-        <v>1.230657457844585</v>
+        <v>1.2221656037253079</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -3678,64 +3695,64 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>114.4697605972943</v>
+        <v>114.5944687622215</v>
       </c>
       <c r="C16" s="2">
-        <v>8.0692051643517058</v>
+        <v>8.1682103927385334</v>
       </c>
       <c r="D16" s="2">
-        <v>1120.4998129129719</v>
+        <v>1120.5554296809021</v>
       </c>
       <c r="E16" s="2">
-        <v>22.1112847335169</v>
+        <v>21.88164247128929</v>
       </c>
       <c r="F16" s="2">
-        <v>11.169154330645259</v>
+        <v>11.16788766474774</v>
       </c>
       <c r="G16" s="2">
-        <v>0.97872435284689585</v>
+        <v>0.97094559128685154</v>
       </c>
       <c r="H16" s="2">
-        <v>109.4231196114912</v>
+        <v>109.3977748784627</v>
       </c>
       <c r="I16" s="2">
-        <v>2.613998639119345</v>
+        <v>2.6079416354847771</v>
       </c>
       <c r="J16" s="2">
-        <v>31.69377440005071</v>
+        <v>31.66822984807126</v>
       </c>
       <c r="K16" s="2">
-        <v>5.1291561231902492</v>
+        <v>5.065281022419077</v>
       </c>
       <c r="L16" s="2">
-        <v>314.39777832071309</v>
+        <v>314.18807766718243</v>
       </c>
       <c r="M16" s="2">
-        <v>14.49654619522838</v>
+        <v>14.17984347730216</v>
       </c>
       <c r="N16" s="2">
-        <v>61.639645137555661</v>
+        <v>61.58287655990766</v>
       </c>
       <c r="O16" s="2">
-        <v>3.5804339031327821</v>
+        <v>3.5118316023018381</v>
       </c>
       <c r="P16" s="2">
-        <v>599.25536342554619</v>
+        <v>599.01574281090291</v>
       </c>
       <c r="Q16" s="2">
-        <v>10.44446316444032</v>
+        <v>10.312303583673931</v>
       </c>
       <c r="R16" s="2">
-        <v>4.9135316899659784</v>
+        <v>4.9041829057349888</v>
       </c>
       <c r="S16" s="2">
-        <v>0.49164349836220578</v>
+        <v>0.48993159424243282</v>
       </c>
       <c r="T16" s="2">
-        <v>48.076350225748051</v>
+        <v>48.054402060261403</v>
       </c>
       <c r="U16" s="2">
-        <v>1.321816007819943</v>
+        <v>1.313538707589845</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -3743,64 +3760,64 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>119.16880536249759</v>
+        <v>119.10894213667819</v>
       </c>
       <c r="C17" s="2">
-        <v>8.4485557614891711</v>
+        <v>8.3811614803235166</v>
       </c>
       <c r="D17" s="2">
-        <v>1239.6686182754711</v>
+        <v>1239.664371817581</v>
       </c>
       <c r="E17" s="2">
-        <v>23.7720191865156</v>
+        <v>23.450412417554649</v>
       </c>
       <c r="F17" s="2">
-        <v>11.64290132727022</v>
+        <v>11.658084413717731</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0047171808430591</v>
+        <v>1.0181308179325841</v>
       </c>
       <c r="H17" s="2">
-        <v>121.0660209387604</v>
+        <v>121.05585929218</v>
       </c>
       <c r="I17" s="2">
-        <v>2.8050980716579161</v>
+        <v>2.8075418392778229</v>
       </c>
       <c r="J17" s="2">
-        <v>31.521155025187479</v>
+        <v>31.673029221256471</v>
       </c>
       <c r="K17" s="2">
-        <v>5.2805467230397456</v>
+        <v>5.2895921791953846</v>
       </c>
       <c r="L17" s="2">
-        <v>345.91893334589901</v>
+        <v>345.86110688843843</v>
       </c>
       <c r="M17" s="2">
-        <v>15.567880513365539</v>
+        <v>15.25920591428825</v>
       </c>
       <c r="N17" s="2">
-        <v>65.5682829903418</v>
+        <v>65.683795475139078</v>
       </c>
       <c r="O17" s="2">
-        <v>3.724755712154185</v>
+        <v>3.697112422085278</v>
       </c>
       <c r="P17" s="2">
-        <v>664.82364641589061</v>
+        <v>664.69953828604355</v>
       </c>
       <c r="Q17" s="2">
-        <v>11.16252390475</v>
+        <v>11.06366237599304</v>
       </c>
       <c r="R17" s="2">
-        <v>5.1124345998189851</v>
+        <v>5.1254243746689552</v>
       </c>
       <c r="S17" s="2">
-        <v>0.50955940559807211</v>
+        <v>0.51334586931642823</v>
       </c>
       <c r="T17" s="2">
-        <v>53.188784825567147</v>
+        <v>53.179826434930128</v>
       </c>
       <c r="U17" s="2">
-        <v>1.411330882997337</v>
+        <v>1.4061785825182</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -3808,64 +3825,64 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>123.92244443839949</v>
+        <v>123.8294598497861</v>
       </c>
       <c r="C18" s="2">
-        <v>8.8209732922791506</v>
+        <v>8.875494810529025</v>
       </c>
       <c r="D18" s="2">
-        <v>1363.591062713868</v>
+        <v>1363.4938316673799</v>
       </c>
       <c r="E18" s="2">
-        <v>25.31354429732108</v>
+        <v>25.072184637719481</v>
       </c>
       <c r="F18" s="2">
-        <v>12.10628603710483</v>
+        <v>12.10151459657</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0445868436643699</v>
+        <v>1.047001223248748</v>
       </c>
       <c r="H18" s="2">
-        <v>133.17230697586609</v>
+        <v>133.15737388875101</v>
       </c>
       <c r="I18" s="2">
-        <v>2.9904039122658101</v>
+        <v>2.9766793044319391</v>
       </c>
       <c r="J18" s="2">
-        <v>32.338643068860179</v>
+        <v>32.209121141333753</v>
       </c>
       <c r="K18" s="2">
-        <v>5.4884846651613239</v>
+        <v>5.5387595205688376</v>
       </c>
       <c r="L18" s="2">
-        <v>378.25757641476321</v>
+        <v>378.07022802977292</v>
       </c>
       <c r="M18" s="2">
-        <v>16.57056814601729</v>
+        <v>16.240277846099961</v>
       </c>
       <c r="N18" s="2">
-        <v>68.733999616854248</v>
+        <v>68.742229906766738</v>
       </c>
       <c r="O18" s="2">
-        <v>3.8722360625473882</v>
+        <v>3.8609288789318228</v>
       </c>
       <c r="P18" s="2">
-        <v>733.55764603274577</v>
+        <v>733.44176819281438</v>
       </c>
       <c r="Q18" s="2">
-        <v>12.004106346744591</v>
+        <v>11.871251568410919</v>
       </c>
       <c r="R18" s="2">
-        <v>5.3207576097330902</v>
+        <v>5.3100571954637168</v>
       </c>
       <c r="S18" s="2">
-        <v>0.52983166372931911</v>
+        <v>0.52855427140117062</v>
       </c>
       <c r="T18" s="2">
-        <v>58.509542435300247</v>
+        <v>58.489883630393699</v>
       </c>
       <c r="U18" s="2">
-        <v>1.509357996103978</v>
+        <v>1.5036116024223329</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -3873,64 +3890,64 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>128.73124661693711</v>
+        <v>128.5715243955465</v>
       </c>
       <c r="C19" s="2">
-        <v>9.1580808972940861</v>
+        <v>9.1318769245272016</v>
       </c>
       <c r="D19" s="2">
-        <v>1492.322309330809</v>
+        <v>1492.065356062915</v>
       </c>
       <c r="E19" s="2">
-        <v>26.732009344019311</v>
+        <v>26.672662811008131</v>
       </c>
       <c r="F19" s="2">
-        <v>12.55930972561721</v>
+        <v>12.56283714075483</v>
       </c>
       <c r="G19" s="2">
-        <v>1.09627213717298</v>
+        <v>1.0965455827533661</v>
       </c>
       <c r="H19" s="2">
-        <v>145.73161670148309</v>
+        <v>145.72021102950421</v>
       </c>
       <c r="I19" s="2">
-        <v>3.178253487876507</v>
+        <v>3.1859877409801891</v>
       </c>
       <c r="J19" s="2">
-        <v>33.265411106515103</v>
+        <v>33.15912500646251</v>
       </c>
       <c r="K19" s="2">
-        <v>5.6767046140443602</v>
+        <v>5.7086171776848218</v>
       </c>
       <c r="L19" s="2">
-        <v>411.52298752127479</v>
+        <v>411.22935303623268</v>
       </c>
       <c r="M19" s="2">
-        <v>17.555350161701089</v>
+        <v>17.423084836670029</v>
       </c>
       <c r="N19" s="2">
-        <v>71.672263190161502</v>
+        <v>71.64254362086939</v>
       </c>
       <c r="O19" s="2">
-        <v>4.0068714673717087</v>
+        <v>4.0203032221169108</v>
       </c>
       <c r="P19" s="2">
-        <v>805.22990922290512</v>
+        <v>805.08431181368064</v>
       </c>
       <c r="Q19" s="2">
-        <v>12.754292383245691</v>
+        <v>12.742225741524409</v>
       </c>
       <c r="R19" s="2">
-        <v>5.5220820549598928</v>
+        <v>5.5203230345378396</v>
       </c>
       <c r="S19" s="2">
-        <v>0.5514953558782516</v>
+        <v>0.54680479844916274</v>
       </c>
       <c r="T19" s="2">
-        <v>64.031624490259787</v>
+        <v>64.010206664931886</v>
       </c>
       <c r="U19" s="2">
-        <v>1.599163104043241</v>
+        <v>1.607234339637607</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -3938,64 +3955,64 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>133.52497715122331</v>
+        <v>133.527971568411</v>
       </c>
       <c r="C20" s="2">
-        <v>9.4717216757360596</v>
+        <v>9.4030506294365281</v>
       </c>
       <c r="D20" s="2">
-        <v>1625.8472864820219</v>
+        <v>1625.5933276313219</v>
       </c>
       <c r="E20" s="2">
-        <v>28.22157158457847</v>
+        <v>28.36447461171748</v>
       </c>
       <c r="F20" s="2">
-        <v>13.02963044817942</v>
+        <v>13.023219680873691</v>
       </c>
       <c r="G20" s="2">
-        <v>1.116961349311888</v>
+        <v>1.128587287785435</v>
       </c>
       <c r="H20" s="2">
-        <v>158.76124714966289</v>
+        <v>158.74343071037879</v>
       </c>
       <c r="I20" s="2">
-        <v>3.368456524384893</v>
+        <v>3.378568331339193</v>
       </c>
       <c r="J20" s="2">
-        <v>34.358616407696978</v>
+        <v>34.374668584011857</v>
       </c>
       <c r="K20" s="2">
-        <v>5.923431875180813</v>
+        <v>5.9817700595689098</v>
       </c>
       <c r="L20" s="2">
-        <v>445.88160392897169</v>
+        <v>445.60402162024559</v>
       </c>
       <c r="M20" s="2">
-        <v>18.599264875767471</v>
+        <v>18.59945185050054</v>
       </c>
       <c r="N20" s="2">
-        <v>74.443594058392577</v>
+        <v>74.439169041227785</v>
       </c>
       <c r="O20" s="2">
-        <v>4.1388513821402766</v>
+        <v>4.1767146558428374</v>
       </c>
       <c r="P20" s="2">
-        <v>879.67350328129828</v>
+        <v>879.52348085490894</v>
       </c>
       <c r="Q20" s="2">
-        <v>13.552704184682851</v>
+        <v>13.607944471335561</v>
       </c>
       <c r="R20" s="2">
-        <v>5.7347439723926863</v>
+        <v>5.7302651895236956</v>
       </c>
       <c r="S20" s="2">
-        <v>0.57221400682648271</v>
+        <v>0.57685256148884845</v>
       </c>
       <c r="T20" s="2">
-        <v>69.766368462652508</v>
+        <v>69.740471854455919</v>
       </c>
       <c r="U20" s="2">
-        <v>1.696867110921132</v>
+        <v>1.719831917672364</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -4003,64 +4020,64 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>138.16529932433349</v>
+        <v>138.20899250017251</v>
       </c>
       <c r="C21" s="2">
-        <v>9.6599815474966064</v>
+        <v>9.6629065866523458</v>
       </c>
       <c r="D21" s="2">
-        <v>1764.0125858063541</v>
+        <v>1763.8023201315009</v>
       </c>
       <c r="E21" s="2">
-        <v>29.959898891034719</v>
+        <v>30.02927248162726</v>
       </c>
       <c r="F21" s="2">
-        <v>13.496133305366291</v>
+        <v>13.50069207875627</v>
       </c>
       <c r="G21" s="2">
-        <v>1.187432522803979</v>
+        <v>1.1675905706764531</v>
       </c>
       <c r="H21" s="2">
-        <v>172.25738045502891</v>
+        <v>172.2441227891355</v>
       </c>
       <c r="I21" s="2">
-        <v>3.570523483421713</v>
+        <v>3.58003702734573</v>
       </c>
       <c r="J21" s="2">
-        <v>35.523469956366867</v>
+        <v>35.489843727630252</v>
       </c>
       <c r="K21" s="2">
-        <v>6.2384843008034947</v>
+        <v>6.1317954475210454</v>
       </c>
       <c r="L21" s="2">
-        <v>481.40507388534058</v>
+        <v>481.09386534787677</v>
       </c>
       <c r="M21" s="2">
-        <v>19.74416798412155</v>
+        <v>19.64905076205013</v>
       </c>
       <c r="N21" s="2">
-        <v>77.199703087611937</v>
+        <v>77.221291064317825</v>
       </c>
       <c r="O21" s="2">
-        <v>4.3150710273525199</v>
+        <v>4.3087759324585981</v>
       </c>
       <c r="P21" s="2">
-        <v>956.87320636891207</v>
+        <v>956.74477191922324</v>
       </c>
       <c r="Q21" s="2">
-        <v>14.31440998927622</v>
+        <v>14.41932020322071</v>
       </c>
       <c r="R21" s="2">
-        <v>5.9396317913804877</v>
+        <v>5.9315533896936303</v>
       </c>
       <c r="S21" s="2">
-        <v>0.59815471054025782</v>
+        <v>0.5927507248573648</v>
       </c>
       <c r="T21" s="2">
-        <v>75.706000254032986</v>
+        <v>75.672025244148898</v>
       </c>
       <c r="U21" s="2">
-        <v>1.796920057973981</v>
+        <v>1.8158208866914221</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -4068,64 +4085,64 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>142.9915822248621</v>
+        <v>143.0786156765561</v>
       </c>
       <c r="C22" s="2">
-        <v>10.05884875247148</v>
+        <v>9.9037298340207176</v>
       </c>
       <c r="D22" s="2">
-        <v>1907.004168031219</v>
+        <v>1906.8809358080509</v>
       </c>
       <c r="E22" s="2">
-        <v>31.473484064750799</v>
+        <v>31.663521093642021</v>
       </c>
       <c r="F22" s="2">
-        <v>13.96779498096736</v>
+        <v>13.978887059506</v>
       </c>
       <c r="G22" s="2">
-        <v>1.2188251431444079</v>
+        <v>1.2153431786095039</v>
       </c>
       <c r="H22" s="2">
-        <v>186.22517543599639</v>
+        <v>186.2230098486416</v>
       </c>
       <c r="I22" s="2">
-        <v>3.7859591805044519</v>
+        <v>3.7780533734878339</v>
       </c>
       <c r="J22" s="2">
-        <v>36.693455542496842</v>
+        <v>36.598936846929178</v>
       </c>
       <c r="K22" s="2">
-        <v>6.3703959850800036</v>
+        <v>6.4299280175078861</v>
       </c>
       <c r="L22" s="2">
-        <v>518.09852942783812</v>
+        <v>517.69280219480493</v>
       </c>
       <c r="M22" s="2">
-        <v>20.927132716040269</v>
+        <v>20.78917495539606</v>
       </c>
       <c r="N22" s="2">
-        <v>79.986105962683752</v>
+        <v>79.959810506002896</v>
       </c>
       <c r="O22" s="2">
-        <v>4.4472266225661814</v>
+        <v>4.4658495230048967</v>
       </c>
       <c r="P22" s="2">
-        <v>1036.859312331595</v>
+        <v>1036.704582425227</v>
       </c>
       <c r="Q22" s="2">
-        <v>15.112128809182479</v>
+        <v>15.237736487832009</v>
       </c>
       <c r="R22" s="2">
-        <v>6.1368467164717631</v>
+        <v>6.1362965690831599</v>
       </c>
       <c r="S22" s="2">
-        <v>0.60799107171583888</v>
+        <v>0.62293595263879875</v>
       </c>
       <c r="T22" s="2">
-        <v>81.842846970505008</v>
+        <v>81.808321813232141</v>
       </c>
       <c r="U22" s="2">
-        <v>1.900697365915254</v>
+        <v>1.914611453092103</v>
       </c>
     </row>
   </sheetData>
@@ -4137,9 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4243,88 +4258,88 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>48.85880231666237</v>
+        <v>48.826084920218307</v>
       </c>
       <c r="C2" s="2">
-        <v>2.4410832355000238</v>
+        <v>2.4270776537859442</v>
       </c>
       <c r="D2" s="2">
-        <v>23.839348890846122</v>
+        <v>23.841381311791039</v>
       </c>
       <c r="E2" s="2">
-        <v>1.6736951463806919</v>
+        <v>1.675201746100941</v>
       </c>
       <c r="F2" s="2">
-        <v>23.84486059550029</v>
+        <v>23.857508157356929</v>
       </c>
       <c r="G2" s="2">
-        <v>1.7047148428382199</v>
+        <v>1.703518531826441</v>
       </c>
       <c r="H2" s="2">
-        <v>6.9828586719782271</v>
+        <v>6.9929146246191234</v>
       </c>
       <c r="I2" s="2">
-        <v>0.61482632795175085</v>
+        <v>0.60916977479788814</v>
       </c>
       <c r="J2" s="2">
-        <v>6.9831843169256258</v>
+        <v>6.9860600126679939</v>
       </c>
       <c r="K2" s="2">
-        <v>0.60568272641775101</v>
+        <v>0.60940428998718132</v>
       </c>
       <c r="L2" s="2">
-        <v>2.328206200012108</v>
+        <v>2.3282491479928682</v>
       </c>
       <c r="M2" s="2">
-        <v>0.20374702862998861</v>
+        <v>0.2020051072511595</v>
       </c>
       <c r="N2" s="2">
-        <v>4.654218033807644</v>
+        <v>4.6596568229297706</v>
       </c>
       <c r="O2" s="2">
-        <v>0.40130942271438619</v>
+        <v>0.40533116392267199</v>
       </c>
       <c r="P2" s="2">
-        <v>2.3278780503097081</v>
+        <v>2.329760289650836</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.20189293995222751</v>
+        <v>0.2032823959883345</v>
       </c>
       <c r="R2" s="2">
-        <v>6.8174341568222534</v>
+        <v>6.8299110212413652</v>
       </c>
       <c r="S2" s="2">
-        <v>0.69382537417506496</v>
+        <v>0.68871576411213886</v>
       </c>
       <c r="T2" s="2">
-        <v>4.7732663596710037</v>
+        <v>4.7779881407913356</v>
       </c>
       <c r="U2" s="2">
-        <v>0.47676212452108152</v>
+        <v>0.4820743938033879</v>
       </c>
       <c r="V2" s="2">
-        <v>1.0225984187438371</v>
+        <v>1.023700216755095</v>
       </c>
       <c r="W2" s="2">
-        <v>0.1023953804843202</v>
+        <v>0.10311291783076081</v>
       </c>
       <c r="X2" s="2">
-        <v>1.023035112486554</v>
+        <v>1.023559005814763</v>
       </c>
       <c r="Y2" s="2">
-        <v>0.1034584375761074</v>
+        <v>0.1036142884911361</v>
       </c>
       <c r="Z2" s="2">
-        <v>2.2753804696254951</v>
+        <v>2.2733271611432868</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.22840772345997959</v>
+        <v>0.2274307651441195</v>
       </c>
       <c r="AB2" s="2">
-        <v>4.5431673822601972</v>
+        <v>4.5533730076051642</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.4530370987540126</v>
+        <v>0.45969050488636032</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -4338,94 +4353,94 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>53.662444829027017</v>
+        <v>53.724520554207999</v>
       </c>
       <c r="C3" s="2">
-        <v>2.6987980366979478</v>
+        <v>2.6578836577427101</v>
       </c>
       <c r="D3" s="2">
-        <v>26.201312963165911</v>
+        <v>26.22014638562387</v>
       </c>
       <c r="E3" s="2">
-        <v>1.8702087816396571</v>
+        <v>1.845178232051814</v>
       </c>
       <c r="F3" s="2">
-        <v>26.193597391019988</v>
+        <v>26.25969265047242</v>
       </c>
       <c r="G3" s="2">
-        <v>1.8709329087594391</v>
+        <v>1.8467794860487741</v>
       </c>
       <c r="H3" s="2">
-        <v>7.673537510691391</v>
+        <v>7.7019774595894708</v>
       </c>
       <c r="I3" s="2">
-        <v>0.66839198448461223</v>
+        <v>0.66062965421712327</v>
       </c>
       <c r="J3" s="2">
-        <v>7.6769360678943466</v>
+        <v>7.6953081357699249</v>
       </c>
       <c r="K3" s="2">
-        <v>0.6709193390237812</v>
+        <v>0.66343919078766489</v>
       </c>
       <c r="L3" s="2">
-        <v>2.558363007464211</v>
+        <v>2.5635591526480548</v>
       </c>
       <c r="M3" s="2">
-        <v>0.2231322591437109</v>
+        <v>0.22300477769328481</v>
       </c>
       <c r="N3" s="2">
-        <v>5.1166763779530511</v>
+        <v>5.1309669775614344</v>
       </c>
       <c r="O3" s="2">
-        <v>0.4466094960903918</v>
+        <v>0.44672459894733779</v>
       </c>
       <c r="P3" s="2">
-        <v>2.5593271635677741</v>
+        <v>2.5656724938416922</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.22159464228387191</v>
+        <v>0.22189426908217061</v>
       </c>
       <c r="R3" s="2">
-        <v>7.4953288123854511</v>
+        <v>7.5246005743218269</v>
       </c>
       <c r="S3" s="2">
-        <v>0.74992659536920292</v>
+        <v>0.74354752360571685</v>
       </c>
       <c r="T3" s="2">
-        <v>5.2498176618161274</v>
+        <v>5.2620531040639751</v>
       </c>
       <c r="U3" s="2">
-        <v>0.53242198027910648</v>
+        <v>0.52008227093420234</v>
       </c>
       <c r="V3" s="2">
-        <v>1.1254270376575199</v>
+        <v>1.1276186400880019</v>
       </c>
       <c r="W3" s="2">
-        <v>0.1131131627632628</v>
+        <v>0.1124740910926592</v>
       </c>
       <c r="X3" s="2">
-        <v>1.1251778663048251</v>
+        <v>1.1267703874969031</v>
       </c>
       <c r="Y3" s="2">
-        <v>0.1133810159544935</v>
+        <v>0.1121462601620285</v>
       </c>
       <c r="Z3" s="2">
-        <v>2.498989667235449</v>
+        <v>2.5031299987682019</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.25195147283049901</v>
+        <v>0.25196927234784872</v>
       </c>
       <c r="AB3" s="2">
-        <v>5.0003138956475892</v>
+        <v>5.0082432446162821</v>
       </c>
       <c r="AC3" s="2">
-        <v>0.50228608317523016</v>
+        <v>0.50308370377289502</v>
       </c>
       <c r="AD3" s="2">
-        <v>7.3681557855757243</v>
+        <v>7.3768575912455816</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.68459124626827039</v>
+        <v>0.6789996595180825</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -4433,94 +4448,94 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>58.58165944113302</v>
+        <v>58.632509096871047</v>
       </c>
       <c r="C4" s="2">
-        <v>2.9226145240923951</v>
+        <v>2.9316332154809248</v>
       </c>
       <c r="D4" s="2">
-        <v>28.613588148068661</v>
+        <v>28.633017184438401</v>
       </c>
       <c r="E4" s="2">
-        <v>2.0397567712275451</v>
+        <v>2.0350571685219672</v>
       </c>
       <c r="F4" s="2">
-        <v>28.588631237089011</v>
+        <v>28.637077342187599</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0084131627605308</v>
+        <v>2.0037851088229099</v>
       </c>
       <c r="H4" s="2">
-        <v>8.3702463551540855</v>
+        <v>8.3936532640044224</v>
       </c>
       <c r="I4" s="2">
-        <v>0.71609443520572225</v>
+        <v>0.72388553021301483</v>
       </c>
       <c r="J4" s="2">
-        <v>8.3682202981863885</v>
+        <v>8.3913964729524579</v>
       </c>
       <c r="K4" s="2">
-        <v>0.71729922553473791</v>
+        <v>0.72143267960636981</v>
       </c>
       <c r="L4" s="2">
-        <v>2.7935327607973721</v>
+        <v>2.7958198685046312</v>
       </c>
       <c r="M4" s="2">
-        <v>0.2399530099066636</v>
+        <v>0.2416172610928963</v>
       </c>
       <c r="N4" s="2">
-        <v>5.579613396728309</v>
+        <v>5.591386755669487</v>
       </c>
       <c r="O4" s="2">
-        <v>0.47776627890246082</v>
+        <v>0.48159478591674199</v>
       </c>
       <c r="P4" s="2">
-        <v>2.7904004920809991</v>
+        <v>2.7973818348287729</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.24116406820674521</v>
+        <v>0.241178639294411</v>
       </c>
       <c r="R4" s="2">
-        <v>8.1741293318041794</v>
+        <v>8.1945823795280699</v>
       </c>
       <c r="S4" s="2">
-        <v>0.80937446890849585</v>
+        <v>0.81750409941719593</v>
       </c>
       <c r="T4" s="2">
-        <v>5.7251566232109594</v>
+        <v>5.7420510227726771</v>
       </c>
       <c r="U4" s="2">
-        <v>0.57025170207399611</v>
+        <v>0.57410702425463278</v>
       </c>
       <c r="V4" s="2">
-        <v>1.22513461999468</v>
+        <v>1.2286775964823291</v>
       </c>
       <c r="W4" s="2">
-        <v>0.12065324742276499</v>
+        <v>0.1225408323038657</v>
       </c>
       <c r="X4" s="2">
-        <v>1.2249263406120969</v>
+        <v>1.229245797299872</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.1215693785564938</v>
+        <v>0.12186918058827061</v>
       </c>
       <c r="Z4" s="2">
-        <v>2.7279620896553851</v>
+        <v>2.7295067810150422</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.27171889469316768</v>
+        <v>0.27437897354119389</v>
       </c>
       <c r="AB4" s="2">
-        <v>5.4526619127178826</v>
+        <v>5.4586922651663654</v>
       </c>
       <c r="AC4" s="2">
-        <v>0.54245230123330013</v>
+        <v>0.53947566199685038</v>
       </c>
       <c r="AD4" s="2">
-        <v>10.70674171193367</v>
+        <v>10.735454747031319</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.76709084379316883</v>
+        <v>0.74956104979811067</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -4528,94 +4543,94 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>63.456573311732022</v>
+        <v>63.443217946223271</v>
       </c>
       <c r="C5" s="2">
-        <v>3.179455833464651</v>
+        <v>3.2012032106181101</v>
       </c>
       <c r="D5" s="2">
-        <v>30.97694714311913</v>
+        <v>30.957881081466859</v>
       </c>
       <c r="E5" s="2">
-        <v>2.1897623783193731</v>
+        <v>2.2155214261945191</v>
       </c>
       <c r="F5" s="2">
-        <v>30.975442491041001</v>
+        <v>30.95885618791144</v>
       </c>
       <c r="G5" s="2">
-        <v>2.2006096482209712</v>
+        <v>2.1992095254965252</v>
       </c>
       <c r="H5" s="2">
-        <v>9.068372163150304</v>
+        <v>9.0750217863719218</v>
       </c>
       <c r="I5" s="2">
-        <v>0.78999608203445315</v>
+        <v>0.79577971016691373</v>
       </c>
       <c r="J5" s="2">
-        <v>9.0730092502691218</v>
+        <v>9.0679511153409589</v>
       </c>
       <c r="K5" s="2">
-        <v>0.78597049019660981</v>
+        <v>0.78789915007423916</v>
       </c>
       <c r="L5" s="2">
-        <v>3.0252162635134612</v>
+        <v>3.0246317604752502</v>
       </c>
       <c r="M5" s="2">
-        <v>0.26195529815777252</v>
+        <v>0.2631007520152841</v>
       </c>
       <c r="N5" s="2">
-        <v>6.0523012404999452</v>
+        <v>6.0448782305497728</v>
       </c>
       <c r="O5" s="2">
-        <v>0.5257865263865753</v>
+        <v>0.52725429075870067</v>
       </c>
       <c r="P5" s="2">
-        <v>3.0240138089890052</v>
+        <v>3.0235500567038218</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.26260174522281188</v>
+        <v>0.26204238141365699</v>
       </c>
       <c r="R5" s="2">
-        <v>8.8544524610911726</v>
+        <v>8.8675779247574003</v>
       </c>
       <c r="S5" s="2">
-        <v>0.88735017467148614</v>
+        <v>0.90505488484151619</v>
       </c>
       <c r="T5" s="2">
-        <v>6.2024942287183338</v>
+        <v>6.203190273834629</v>
       </c>
       <c r="U5" s="2">
-        <v>0.61982232191214148</v>
+        <v>0.62547328946435488</v>
       </c>
       <c r="V5" s="2">
-        <v>1.328110676427962</v>
+        <v>1.3283616173287831</v>
       </c>
       <c r="W5" s="2">
-        <v>0.13398698922416991</v>
+        <v>0.13264256624805079</v>
       </c>
       <c r="X5" s="2">
-        <v>1.3300465597599529</v>
+        <v>1.3285825577488639</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.13356964038557889</v>
+        <v>0.13251560824571521</v>
       </c>
       <c r="Z5" s="2">
-        <v>2.9533721360196989</v>
+        <v>2.9530694481475548</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.29423575554562809</v>
+        <v>0.2957471815575754</v>
       </c>
       <c r="AB5" s="2">
-        <v>5.9124093263922548</v>
+        <v>5.9014043419929472</v>
       </c>
       <c r="AC5" s="2">
-        <v>0.59446949411743666</v>
+        <v>0.59470716688476677</v>
       </c>
       <c r="AD5" s="2">
-        <v>12.695829192169731</v>
+        <v>12.729835349752131</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.81380351295106479</v>
+        <v>0.81756893063494773</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -4623,94 +4638,94 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>68.353657411015632</v>
+        <v>68.324424850217468</v>
       </c>
       <c r="C6" s="2">
-        <v>3.428291895780375</v>
+        <v>3.3605195229287652</v>
       </c>
       <c r="D6" s="2">
-        <v>33.378174790293457</v>
+        <v>33.363195467750003</v>
       </c>
       <c r="E6" s="2">
-        <v>2.373388416331832</v>
+        <v>2.329652887940822</v>
       </c>
       <c r="F6" s="2">
-        <v>33.355843032928327</v>
+        <v>33.369973886077517</v>
       </c>
       <c r="G6" s="2">
-        <v>2.3669364650433429</v>
+        <v>2.3445781196155231</v>
       </c>
       <c r="H6" s="2">
-        <v>9.7695849766952865</v>
+        <v>9.781237426587257</v>
       </c>
       <c r="I6" s="2">
-        <v>0.85000115173385637</v>
+        <v>0.84220291832725214</v>
       </c>
       <c r="J6" s="2">
-        <v>9.7718383606622172</v>
+        <v>9.7696986679018334</v>
       </c>
       <c r="K6" s="2">
-        <v>0.84829823070253407</v>
+        <v>0.83482205894120398</v>
       </c>
       <c r="L6" s="2">
-        <v>3.2569648879378281</v>
+        <v>3.2595172930237042</v>
       </c>
       <c r="M6" s="2">
-        <v>0.28017513775584318</v>
+        <v>0.28049212768053611</v>
       </c>
       <c r="N6" s="2">
-        <v>6.5174677723109884</v>
+        <v>6.5160865643318111</v>
       </c>
       <c r="O6" s="2">
-        <v>0.56387578349560274</v>
+        <v>0.56400786449638451</v>
       </c>
       <c r="P6" s="2">
-        <v>3.2580715940866809</v>
+        <v>3.261162545026163</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.28462010892348433</v>
+        <v>0.28154091797994629</v>
       </c>
       <c r="R6" s="2">
-        <v>9.5415178819916076</v>
+        <v>9.5613255057790152</v>
       </c>
       <c r="S6" s="2">
-        <v>0.95584110303911662</v>
+        <v>0.94958498791099821</v>
       </c>
       <c r="T6" s="2">
-        <v>6.6751543152787347</v>
+        <v>6.6765343659476111</v>
       </c>
       <c r="U6" s="2">
-        <v>0.67330242062747703</v>
+        <v>0.67019258331003173</v>
       </c>
       <c r="V6" s="2">
-        <v>1.431787023626945</v>
+        <v>1.430697509088473</v>
       </c>
       <c r="W6" s="2">
-        <v>0.14418453319315061</v>
+        <v>0.14208233028658071</v>
       </c>
       <c r="X6" s="2">
-        <v>1.431850952419496</v>
+        <v>1.4314593484015741</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.14433460054169861</v>
+        <v>0.14296106298606731</v>
       </c>
       <c r="Z6" s="2">
-        <v>3.1805203713458949</v>
+        <v>3.1801302010113548</v>
       </c>
       <c r="AA6" s="2">
-        <v>0.31851650643803869</v>
+        <v>0.32022217148410592</v>
       </c>
       <c r="AB6" s="2">
-        <v>6.3668051614764281</v>
+        <v>6.362525028010908</v>
       </c>
       <c r="AC6" s="2">
-        <v>0.63792861543961943</v>
+        <v>0.63476916677562045</v>
       </c>
       <c r="AD6" s="2">
-        <v>14.172978335775539</v>
+        <v>14.193292177717559</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.88357244360422826</v>
+        <v>0.89703096193452636</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -4718,94 +4733,94 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>73.255104525565102</v>
+        <v>73.273958679015038</v>
       </c>
       <c r="C7" s="2">
-        <v>3.646949503954847</v>
+        <v>3.6662588667177971</v>
       </c>
       <c r="D7" s="2">
-        <v>35.755015993460702</v>
+        <v>35.75793306788924</v>
       </c>
       <c r="E7" s="2">
-        <v>2.5114619927521442</v>
+        <v>2.5189183196564291</v>
       </c>
       <c r="F7" s="2">
-        <v>35.788666962021217</v>
+        <v>35.80394730750249</v>
       </c>
       <c r="G7" s="2">
-        <v>2.5546112775406939</v>
+        <v>2.540949356188654</v>
       </c>
       <c r="H7" s="2">
-        <v>10.48183043158882</v>
+        <v>10.482499236796061</v>
       </c>
       <c r="I7" s="2">
-        <v>0.91200855769785094</v>
+        <v>0.90478884468812215</v>
       </c>
       <c r="J7" s="2">
-        <v>10.47489592382707</v>
+        <v>10.48568471343135</v>
       </c>
       <c r="K7" s="2">
-        <v>0.9068452166651858</v>
+        <v>0.91762129430997552</v>
       </c>
       <c r="L7" s="2">
-        <v>3.495003184051436</v>
+        <v>3.496431940223296</v>
       </c>
       <c r="M7" s="2">
-        <v>0.30324923882125421</v>
+        <v>0.30467258940212377</v>
       </c>
       <c r="N7" s="2">
-        <v>6.9937247855020326</v>
+        <v>6.996136255885304</v>
       </c>
       <c r="O7" s="2">
-        <v>0.6136511379493641</v>
+        <v>0.60549304337748022</v>
       </c>
       <c r="P7" s="2">
-        <v>3.497729731846857</v>
+        <v>3.495648835170015</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.3048485468076253</v>
+        <v>0.30240285539890133</v>
       </c>
       <c r="R7" s="2">
-        <v>10.24417430542929</v>
+        <v>10.24243840114919</v>
       </c>
       <c r="S7" s="2">
-        <v>1.0297537336556419</v>
+        <v>1.0304728771168541</v>
       </c>
       <c r="T7" s="2">
-        <v>7.1669130278914954</v>
+        <v>7.1618683029653578</v>
       </c>
       <c r="U7" s="2">
-        <v>0.71496429012584839</v>
+        <v>0.72408128631370772</v>
       </c>
       <c r="V7" s="2">
-        <v>1.534549879009047</v>
+        <v>1.5370652530060991</v>
       </c>
       <c r="W7" s="2">
-        <v>0.15414431003196391</v>
+        <v>0.15507525178893691</v>
       </c>
       <c r="X7" s="2">
-        <v>1.5340541930341769</v>
+        <v>1.536126934085954</v>
       </c>
       <c r="Y7" s="2">
-        <v>0.1536265265435528</v>
+        <v>0.15432047695578749</v>
       </c>
       <c r="Z7" s="2">
-        <v>3.413836698075603</v>
+        <v>3.4136631326848872</v>
       </c>
       <c r="AA7" s="2">
-        <v>0.34400952162549892</v>
+        <v>0.34353636998577602</v>
       </c>
       <c r="AB7" s="2">
-        <v>6.8241992655352854</v>
+        <v>6.8302501383713432</v>
       </c>
       <c r="AC7" s="2">
-        <v>0.68736226769878828</v>
+        <v>0.68280463594676954</v>
       </c>
       <c r="AD7" s="2">
-        <v>15.45487332909488</v>
+        <v>15.475497676234321</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.96328059165810809</v>
+        <v>0.94829156458831765</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -4813,94 +4828,94 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>78.131537196925834</v>
+        <v>78.11957887925837</v>
       </c>
       <c r="C8" s="2">
-        <v>3.9599127761353188</v>
+        <v>3.9135193957277781</v>
       </c>
       <c r="D8" s="2">
-        <v>38.16221924722015</v>
+        <v>38.157520163571483</v>
       </c>
       <c r="E8" s="2">
-        <v>2.7063877355521089</v>
+        <v>2.6830597771549001</v>
       </c>
       <c r="F8" s="2">
-        <v>38.161747830370658</v>
+        <v>38.150216664519071</v>
       </c>
       <c r="G8" s="2">
-        <v>2.7274710484707572</v>
+        <v>2.713746287921321</v>
       </c>
       <c r="H8" s="2">
-        <v>11.175647334682081</v>
+        <v>11.17409583955463</v>
       </c>
       <c r="I8" s="2">
-        <v>0.96771342168288677</v>
+        <v>0.97430551254399744</v>
       </c>
       <c r="J8" s="2">
-        <v>11.1804281340522</v>
+        <v>11.18116437831638</v>
       </c>
       <c r="K8" s="2">
-        <v>0.97313984427314393</v>
+        <v>0.97650340355868426</v>
       </c>
       <c r="L8" s="2">
-        <v>3.7266895192244691</v>
+        <v>3.727293158586948</v>
       </c>
       <c r="M8" s="2">
-        <v>0.32445694860330038</v>
+        <v>0.32749351718107578</v>
       </c>
       <c r="N8" s="2">
-        <v>7.4491005234536836</v>
+        <v>7.4487548034904956</v>
       </c>
       <c r="O8" s="2">
-        <v>0.64408540549422</v>
+        <v>0.6468242259837309</v>
       </c>
       <c r="P8" s="2">
-        <v>3.7304943106263591</v>
+        <v>3.7276296750962739</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.32539385121556241</v>
+        <v>0.32551969141167081</v>
       </c>
       <c r="R8" s="2">
-        <v>10.913676101959959</v>
+        <v>10.9102414484269</v>
       </c>
       <c r="S8" s="2">
-        <v>1.088589276426847</v>
+        <v>1.09511214523825</v>
       </c>
       <c r="T8" s="2">
-        <v>7.6420459530411886</v>
+        <v>7.6471821265137621</v>
       </c>
       <c r="U8" s="2">
-        <v>0.76884238865522769</v>
+        <v>0.77568210419085171</v>
       </c>
       <c r="V8" s="2">
-        <v>1.6374172073475091</v>
+        <v>1.637563732423871</v>
       </c>
       <c r="W8" s="2">
-        <v>0.16348093028672761</v>
+        <v>0.1655531956708835</v>
       </c>
       <c r="X8" s="2">
-        <v>1.638967320134614</v>
+        <v>1.6388128395762751</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.16457359907541899</v>
+        <v>0.1644872306092858</v>
       </c>
       <c r="Z8" s="2">
-        <v>3.639290104294377</v>
+        <v>3.6390639102350288</v>
       </c>
       <c r="AA8" s="2">
-        <v>0.36888517327617543</v>
+        <v>0.36690761989721238</v>
       </c>
       <c r="AB8" s="2">
-        <v>7.273075798792993</v>
+        <v>7.2691890377244226</v>
       </c>
       <c r="AC8" s="2">
-        <v>0.73204707523325707</v>
+        <v>0.73008902632367634</v>
       </c>
       <c r="AD8" s="2">
-        <v>16.68358807642494</v>
+        <v>16.686462858768241</v>
       </c>
       <c r="AE8" s="2">
-        <v>1.025915226558094</v>
+        <v>1.026397028156866</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -4908,94 +4923,94 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>82.999300278512322</v>
+        <v>82.980219049769346</v>
       </c>
       <c r="C9" s="2">
-        <v>4.1425679051674562</v>
+        <v>4.1854627331691834</v>
       </c>
       <c r="D9" s="2">
-        <v>40.543328292440343</v>
+        <v>40.503428146747297</v>
       </c>
       <c r="E9" s="2">
-        <v>2.856937836649164</v>
+        <v>2.877703622213569</v>
       </c>
       <c r="F9" s="2">
-        <v>40.549385873045573</v>
+        <v>40.526121678422882</v>
       </c>
       <c r="G9" s="2">
-        <v>2.852546056766903</v>
+        <v>2.8804818763838371</v>
       </c>
       <c r="H9" s="2">
-        <v>11.87465510427154</v>
+        <v>11.87977914763551</v>
       </c>
       <c r="I9" s="2">
-        <v>1.0232494182536629</v>
+        <v>1.023299776301918</v>
       </c>
       <c r="J9" s="2">
-        <v>11.88501593819986</v>
+        <v>11.872441069569931</v>
       </c>
       <c r="K9" s="2">
-        <v>1.0323697358045141</v>
+        <v>1.0309379959848231</v>
       </c>
       <c r="L9" s="2">
-        <v>3.960602347521534</v>
+        <v>3.9589006643951259</v>
       </c>
       <c r="M9" s="2">
-        <v>0.34096104363172319</v>
+        <v>0.34272328741294689</v>
       </c>
       <c r="N9" s="2">
-        <v>7.9223053064915989</v>
+        <v>7.9203691013849662</v>
       </c>
       <c r="O9" s="2">
-        <v>0.6879970262979519</v>
+        <v>0.69127649743946284</v>
       </c>
       <c r="P9" s="2">
-        <v>3.9609700541628321</v>
+        <v>3.957970573181921</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.34276611268493801</v>
+        <v>0.34664621345014029</v>
       </c>
       <c r="R9" s="2">
-        <v>11.59059448831713</v>
+        <v>11.6044908052833</v>
       </c>
       <c r="S9" s="2">
-        <v>1.1639118340451911</v>
+        <v>1.167267332170302</v>
       </c>
       <c r="T9" s="2">
-        <v>8.1296583745629913</v>
+        <v>8.1267586572191881</v>
       </c>
       <c r="U9" s="2">
-        <v>0.81961433147987384</v>
+        <v>0.82144285091122626</v>
       </c>
       <c r="V9" s="2">
-        <v>1.741746938847464</v>
+        <v>1.738570392876061</v>
       </c>
       <c r="W9" s="2">
-        <v>0.17406393775016349</v>
+        <v>0.17455783019111529</v>
       </c>
       <c r="X9" s="2">
-        <v>1.741005636455297</v>
+        <v>1.7367126848270149</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.17456732846182341</v>
+        <v>0.1734941546142566</v>
       </c>
       <c r="Z9" s="2">
-        <v>3.8668492398454739</v>
+        <v>3.8658318373664402</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.38684313565683032</v>
+        <v>0.3862220774460921</v>
       </c>
       <c r="AB9" s="2">
-        <v>7.7347214705344944</v>
+        <v>7.7373058198586664</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.7762032745387214</v>
+        <v>0.77138985542340155</v>
       </c>
       <c r="AD9" s="2">
-        <v>17.859547965598001</v>
+        <v>17.861614868904152</v>
       </c>
       <c r="AE9" s="2">
-        <v>1.093229915544613</v>
+        <v>1.101763956612664</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -5003,94 +5018,94 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>87.811942307109334</v>
+        <v>87.832495709687294</v>
       </c>
       <c r="C10" s="2">
-        <v>4.4371348437689306</v>
+        <v>4.3702633142586524</v>
       </c>
       <c r="D10" s="2">
-        <v>42.904879519814429</v>
+        <v>42.91167382776284</v>
       </c>
       <c r="E10" s="2">
-        <v>3.0847554247777311</v>
+        <v>3.0528661390694229</v>
       </c>
       <c r="F10" s="2">
-        <v>42.879542072851301</v>
+        <v>42.863258629486403</v>
       </c>
       <c r="G10" s="2">
-        <v>3.0359926374085768</v>
+        <v>3.0398591705526128</v>
       </c>
       <c r="H10" s="2">
-        <v>12.567061426319849</v>
+        <v>12.553146753787781</v>
       </c>
       <c r="I10" s="2">
-        <v>1.0830336341731159</v>
+        <v>1.096419700435789</v>
       </c>
       <c r="J10" s="2">
-        <v>12.55755118251955</v>
+        <v>12.545347957825561</v>
       </c>
       <c r="K10" s="2">
-        <v>1.095387726033793</v>
+        <v>1.078183688540111</v>
       </c>
       <c r="L10" s="2">
-        <v>4.1876694397239476</v>
+        <v>4.1887416430003501</v>
       </c>
       <c r="M10" s="2">
-        <v>0.36554698787365519</v>
+        <v>0.36789378388683752</v>
       </c>
       <c r="N10" s="2">
-        <v>8.3770720836742534</v>
+        <v>8.3675182718994421</v>
       </c>
       <c r="O10" s="2">
-        <v>0.72049756000387832</v>
+        <v>0.72384610063532573</v>
       </c>
       <c r="P10" s="2">
-        <v>4.1870874706938919</v>
+        <v>4.1913030079397444</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.3607262565580906</v>
+        <v>0.36142922153936652</v>
       </c>
       <c r="R10" s="2">
-        <v>12.27510284837671</v>
+        <v>12.25281414249196</v>
       </c>
       <c r="S10" s="2">
-        <v>1.2177773272042289</v>
+        <v>1.2320709359447779</v>
       </c>
       <c r="T10" s="2">
-        <v>8.5848299103029539</v>
+        <v>8.5778553765047416</v>
       </c>
       <c r="U10" s="2">
-        <v>0.86067217760868953</v>
+        <v>0.85907635592590104</v>
       </c>
       <c r="V10" s="2">
-        <v>1.8405054266587639</v>
+        <v>1.8389765992117519</v>
       </c>
       <c r="W10" s="2">
-        <v>0.18345346420726411</v>
+        <v>0.18406656837311081</v>
       </c>
       <c r="X10" s="2">
-        <v>1.8390475399961641</v>
+        <v>1.8379294232505969</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.18493384775184971</v>
+        <v>0.18279521626592971</v>
       </c>
       <c r="Z10" s="2">
-        <v>4.0928738187320732</v>
+        <v>4.0915083303833946</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.41691092709579092</v>
+        <v>0.4123428621225016</v>
       </c>
       <c r="AB10" s="2">
-        <v>8.1790941408609861</v>
+        <v>8.1662413032629289</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.81724731110806204</v>
+        <v>0.81295097922689163</v>
       </c>
       <c r="AD10" s="2">
-        <v>19.02892981571738</v>
+        <v>19.03636674564175</v>
       </c>
       <c r="AE10" s="2">
-        <v>1.1655851690524099</v>
+        <v>1.172773075350042</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -5098,94 +5113,94 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>92.775391227744151</v>
+        <v>92.759595807715598</v>
       </c>
       <c r="C11" s="2">
-        <v>4.6338449462843672</v>
+        <v>4.6207948882361443</v>
       </c>
       <c r="D11" s="2">
-        <v>45.310525406476451</v>
+        <v>45.290350164608093</v>
       </c>
       <c r="E11" s="2">
-        <v>3.1823707640687831</v>
+        <v>3.220428417225035</v>
       </c>
       <c r="F11" s="2">
-        <v>45.336218281230117</v>
+        <v>45.274179623769463</v>
       </c>
       <c r="G11" s="2">
-        <v>3.210476608961303</v>
+        <v>3.171616766189481</v>
       </c>
       <c r="H11" s="2">
-        <v>13.28575209751232</v>
+        <v>13.267669639841071</v>
       </c>
       <c r="I11" s="2">
-        <v>1.1502094764436741</v>
+        <v>1.1445504015118331</v>
       </c>
       <c r="J11" s="2">
-        <v>13.27193164601468</v>
+        <v>13.2611951304351</v>
       </c>
       <c r="K11" s="2">
-        <v>1.1493114865898471</v>
+        <v>1.1357707213774551</v>
       </c>
       <c r="L11" s="2">
-        <v>4.4275122306083832</v>
+        <v>4.4247550866358951</v>
       </c>
       <c r="M11" s="2">
-        <v>0.38297800993492981</v>
+        <v>0.38302147554457011</v>
       </c>
       <c r="N11" s="2">
-        <v>8.8569705232422518</v>
+        <v>8.8416221088792533</v>
       </c>
       <c r="O11" s="2">
-        <v>0.76913397148534013</v>
+        <v>0.76111289174844454</v>
       </c>
       <c r="P11" s="2">
-        <v>4.4244244742106966</v>
+        <v>4.424062016941142</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.37844246127011261</v>
+        <v>0.38121511634459732</v>
       </c>
       <c r="R11" s="2">
-        <v>12.96937448828948</v>
+        <v>12.94956472323711</v>
       </c>
       <c r="S11" s="2">
-        <v>1.2995335300149939</v>
+        <v>1.2792825132531349</v>
       </c>
       <c r="T11" s="2">
-        <v>9.0785664110554638</v>
+        <v>9.0594731260745736</v>
       </c>
       <c r="U11" s="2">
-        <v>0.90835839237193272</v>
+        <v>0.89700417474977368</v>
       </c>
       <c r="V11" s="2">
-        <v>1.9424657911013881</v>
+        <v>1.9427603046149009</v>
       </c>
       <c r="W11" s="2">
-        <v>0.1930200075274589</v>
+        <v>0.19249754565709559</v>
       </c>
       <c r="X11" s="2">
-        <v>1.9415670578181159</v>
+        <v>1.9422706333874351</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.1958086504177281</v>
+        <v>0.19175340339239211</v>
       </c>
       <c r="Z11" s="2">
-        <v>4.325905196333502</v>
+        <v>4.3217434683500056</v>
       </c>
       <c r="AA11" s="2">
-        <v>0.43204855515774948</v>
+        <v>0.42917660349361392</v>
       </c>
       <c r="AB11" s="2">
-        <v>8.6571107110919296</v>
+        <v>8.6328791660711346</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.87573016361223077</v>
+        <v>0.85501513351987657</v>
       </c>
       <c r="AD11" s="2">
-        <v>20.179816220743898</v>
+        <v>20.162534141798499</v>
       </c>
       <c r="AE11" s="2">
-        <v>1.216782664107201</v>
+        <v>1.2385530512287739</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -5193,94 +5208,94 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>97.671384489941659</v>
+        <v>97.576129236919869</v>
       </c>
       <c r="C12" s="2">
-        <v>4.8655330019776208</v>
+        <v>4.8500422539839212</v>
       </c>
       <c r="D12" s="2">
-        <v>47.671836074414102</v>
+        <v>47.653914121100733</v>
       </c>
       <c r="E12" s="2">
-        <v>3.401118657575636</v>
+        <v>3.3587475453049218</v>
       </c>
       <c r="F12" s="2">
-        <v>47.709374133900802</v>
+        <v>47.664556941552881</v>
       </c>
       <c r="G12" s="2">
-        <v>3.3514240010855421</v>
+        <v>3.3820232000413739</v>
       </c>
       <c r="H12" s="2">
-        <v>13.981440892311269</v>
+        <v>13.96392908932183</v>
       </c>
       <c r="I12" s="2">
-        <v>1.204511324966461</v>
+        <v>1.20179201642782</v>
       </c>
       <c r="J12" s="2">
-        <v>13.969468213215849</v>
+        <v>13.95523105560952</v>
       </c>
       <c r="K12" s="2">
-        <v>1.190911851174461</v>
+        <v>1.21177777821902</v>
       </c>
       <c r="L12" s="2">
-        <v>4.6601754196522958</v>
+        <v>4.6515076311287133</v>
       </c>
       <c r="M12" s="2">
-        <v>0.39821214176451819</v>
+        <v>0.40489501446135018</v>
       </c>
       <c r="N12" s="2">
-        <v>9.3165449083096998</v>
+        <v>9.3101947530129863</v>
       </c>
       <c r="O12" s="2">
-        <v>0.80455525758318513</v>
+        <v>0.80561010572513936</v>
       </c>
       <c r="P12" s="2">
-        <v>4.6557627537122626</v>
+        <v>4.6530599453929398</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.39996769485393219</v>
+        <v>0.40135289057269208</v>
       </c>
       <c r="R12" s="2">
-        <v>13.658580919058929</v>
+        <v>13.63903046993072</v>
       </c>
       <c r="S12" s="2">
-        <v>1.378491481601265</v>
+        <v>1.362383367553258</v>
       </c>
       <c r="T12" s="2">
-        <v>9.5466941386730824</v>
+        <v>9.5440115713008584</v>
       </c>
       <c r="U12" s="2">
-        <v>0.9461627772093113</v>
+        <v>0.96507863744469757</v>
       </c>
       <c r="V12" s="2">
-        <v>2.0480608987263</v>
+        <v>2.044060497817199</v>
       </c>
       <c r="W12" s="2">
-        <v>0.20376931893853481</v>
+        <v>0.204623671239619</v>
       </c>
       <c r="X12" s="2">
-        <v>2.044200189160263</v>
+        <v>2.042003576683332</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.20150870978971119</v>
+        <v>0.20416616123431811</v>
       </c>
       <c r="Z12" s="2">
-        <v>4.5531449889593389</v>
+        <v>4.547285851330054</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.45128892369387802</v>
+        <v>0.45643029951063768</v>
       </c>
       <c r="AB12" s="2">
-        <v>9.0993560059401712</v>
+        <v>9.0845727071373545</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.90080254134203364</v>
+        <v>0.90535847549006032</v>
       </c>
       <c r="AD12" s="2">
-        <v>21.35369320020526</v>
+        <v>21.323426999652941</v>
       </c>
       <c r="AE12" s="2">
-        <v>1.295722822129171</v>
+        <v>1.277867558529342</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -5288,94 +5303,94 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>4.8889084420030171</v>
+        <v>4.8813451734269293</v>
       </c>
       <c r="C13" s="2">
-        <v>0.24290503548090581</v>
+        <v>0.24396670689636729</v>
       </c>
       <c r="D13" s="2">
-        <v>2.385452737264762</v>
+        <v>2.3839521295560839</v>
       </c>
       <c r="E13" s="2">
-        <v>0.16892220301017</v>
+        <v>0.1682576335971073</v>
       </c>
       <c r="F13" s="2">
-        <v>2.3856217417748331</v>
+        <v>2.3822543173016388</v>
       </c>
       <c r="G13" s="2">
-        <v>0.16907184764530661</v>
+        <v>0.1673314561413935</v>
       </c>
       <c r="H13" s="2">
-        <v>0.69907780893159355</v>
+        <v>0.69781079809777102</v>
       </c>
       <c r="I13" s="2">
-        <v>6.0986599136654468E-2</v>
+        <v>5.9976893200056162E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>0.69933333158407063</v>
+        <v>0.69802877206361014</v>
       </c>
       <c r="K13" s="2">
-        <v>6.094693156116382E-2</v>
+        <v>6.017584657631371E-2</v>
       </c>
       <c r="L13" s="2">
-        <v>0.23299980527811079</v>
+        <v>0.2324765890092311</v>
       </c>
       <c r="M13" s="2">
-        <v>2.0345429979525629E-2</v>
+        <v>2.0013805964723401E-2</v>
       </c>
       <c r="N13" s="2">
-        <v>0.46553106622539231</v>
+        <v>0.46497889060102909</v>
       </c>
       <c r="O13" s="2">
-        <v>4.0440838380753887E-2</v>
+        <v>4.035578672281824E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.23299609483632461</v>
+        <v>0.2326799226030139</v>
       </c>
       <c r="Q13" s="2">
-        <v>2.045538334038292E-2</v>
+        <v>1.9969766004334699E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>0.68269594684465373</v>
+        <v>0.68110951231436967</v>
       </c>
       <c r="S13" s="2">
-        <v>6.8529956039233647E-2</v>
+        <v>6.7601755919942039E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>0.47807688201431148</v>
+        <v>0.47722925999220078</v>
       </c>
       <c r="U13" s="2">
-        <v>4.8530646506902871E-2</v>
+        <v>4.7515657156084051E-2</v>
       </c>
       <c r="V13" s="2">
-        <v>0.1024600633779349</v>
+        <v>0.10215189575788571</v>
       </c>
       <c r="W13" s="2">
-        <v>1.0229194071061791E-2</v>
+        <v>1.027934422592216E-2</v>
       </c>
       <c r="X13" s="2">
-        <v>0.10243581777027159</v>
+        <v>0.102214395584509</v>
       </c>
       <c r="Y13" s="2">
-        <v>1.03960134190661E-2</v>
+        <v>1.021378059337668E-2</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.22772736369607649</v>
+        <v>0.22708790332394491</v>
       </c>
       <c r="AA13" s="2">
-        <v>2.3087685711439321E-2</v>
+        <v>2.259000433885136E-2</v>
       </c>
       <c r="AB13" s="2">
-        <v>0.45473815286164909</v>
+        <v>0.45436483352644691</v>
       </c>
       <c r="AC13" s="2">
-        <v>4.5612655984084989E-2</v>
+        <v>4.5944414711450339E-2</v>
       </c>
       <c r="AD13" s="2">
-        <v>22.516668640611599</v>
+        <v>22.491548751718071</v>
       </c>
       <c r="AE13" s="2">
-        <v>1.3685543931945341</v>
+        <v>1.3692655707656869</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -5383,94 +5398,94 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>107.3737674504554</v>
+        <v>107.2712310292272</v>
       </c>
       <c r="C14" s="2">
-        <v>5.4629037126052582</v>
+        <v>5.2928164297358364</v>
       </c>
       <c r="D14" s="2">
-        <v>52.436650090474927</v>
+        <v>52.425717084502473</v>
       </c>
       <c r="E14" s="2">
-        <v>3.7168810610240008</v>
+        <v>3.644877917704668</v>
       </c>
       <c r="F14" s="2">
-        <v>52.468441237794792</v>
+        <v>52.37126483190265</v>
       </c>
       <c r="G14" s="2">
-        <v>3.7686291115666708</v>
+        <v>3.6999957919881972</v>
       </c>
       <c r="H14" s="2">
-        <v>15.37137274135088</v>
+        <v>15.347321204205381</v>
       </c>
       <c r="I14" s="2">
-        <v>1.3433735918172289</v>
+        <v>1.333749308162087</v>
       </c>
       <c r="J14" s="2">
-        <v>15.379544054316931</v>
+        <v>15.34516475253702</v>
       </c>
       <c r="K14" s="2">
-        <v>1.352673034813471</v>
+        <v>1.314267916608937</v>
       </c>
       <c r="L14" s="2">
-        <v>5.1215369143513119</v>
+        <v>5.1092172139945502</v>
       </c>
       <c r="M14" s="2">
-        <v>0.44870982538721288</v>
+        <v>0.44186858259269918</v>
       </c>
       <c r="N14" s="2">
-        <v>10.253803867395909</v>
+        <v>10.2254506454984</v>
       </c>
       <c r="O14" s="2">
-        <v>0.8958209520602185</v>
+        <v>0.88019220696283729</v>
       </c>
       <c r="P14" s="2">
-        <v>5.1213759855731391</v>
+        <v>5.1126823651372932</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.45022253687150249</v>
+        <v>0.44333415731244641</v>
       </c>
       <c r="R14" s="2">
-        <v>15.00872768049984</v>
+        <v>14.98457926770708</v>
       </c>
       <c r="S14" s="2">
-        <v>1.5150715417059051</v>
+        <v>1.507441387053218</v>
       </c>
       <c r="T14" s="2">
-        <v>10.509821248525</v>
+        <v>10.48489926124123</v>
       </c>
       <c r="U14" s="2">
-        <v>1.061412535043442</v>
+        <v>1.0396921125467919</v>
       </c>
       <c r="V14" s="2">
-        <v>2.2528056523998639</v>
+        <v>2.25048749234386</v>
       </c>
       <c r="W14" s="2">
-        <v>0.22852113532527821</v>
+        <v>0.22599550822759121</v>
       </c>
       <c r="X14" s="2">
-        <v>2.251060369729089</v>
+        <v>2.2471387013998521</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.2295509220928913</v>
+        <v>0.2232915628209346</v>
       </c>
       <c r="Z14" s="2">
-        <v>4.9969651977386196</v>
+        <v>4.9889700949197042</v>
       </c>
       <c r="AA14" s="2">
-        <v>0.50122969063667444</v>
+        <v>0.49225981649473288</v>
       </c>
       <c r="AB14" s="2">
-        <v>10.01143327297784</v>
+        <v>9.9906767800662504</v>
       </c>
       <c r="AC14" s="2">
-        <v>1.0113416066292511</v>
+        <v>0.9968420613038228</v>
       </c>
       <c r="AD14" s="2">
-        <v>8.9285293837305097</v>
+        <v>8.9210271698214374</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.60776784806711237</v>
+        <v>0.60731969420964005</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -5478,94 +5493,94 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>112.3296593076788</v>
+        <v>112.3351275268742</v>
       </c>
       <c r="C15" s="2">
-        <v>5.7023384442279994</v>
+        <v>5.591669353140551</v>
       </c>
       <c r="D15" s="2">
-        <v>54.856089229910282</v>
+        <v>54.853506929004567</v>
       </c>
       <c r="E15" s="2">
-        <v>3.8833258241146109</v>
+        <v>3.8712118025555342</v>
       </c>
       <c r="F15" s="2">
-        <v>54.860025878034882</v>
+        <v>54.838992893654328</v>
       </c>
       <c r="G15" s="2">
-        <v>3.8963087477869829</v>
+        <v>3.819722983064286</v>
       </c>
       <c r="H15" s="2">
-        <v>16.077040297445389</v>
+        <v>16.07468087789734</v>
       </c>
       <c r="I15" s="2">
-        <v>1.3902645493874961</v>
+        <v>1.380676994800395</v>
       </c>
       <c r="J15" s="2">
-        <v>16.064165525592511</v>
+        <v>16.079296823662592</v>
       </c>
       <c r="K15" s="2">
-        <v>1.3941678736313099</v>
+        <v>1.381897962141742</v>
       </c>
       <c r="L15" s="2">
-        <v>5.3538396353245217</v>
+        <v>5.3480218468889102</v>
       </c>
       <c r="M15" s="2">
-        <v>0.46637030785888761</v>
+        <v>0.45900167590378049</v>
       </c>
       <c r="N15" s="2">
-        <v>10.710350886273689</v>
+        <v>10.716332934847721</v>
       </c>
       <c r="O15" s="2">
-        <v>0.93306503925306628</v>
+        <v>0.92465485799394465</v>
       </c>
       <c r="P15" s="2">
-        <v>5.358291673727682</v>
+        <v>5.3582294124709318</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.46873540634343569</v>
+        <v>0.45857200656757541</v>
       </c>
       <c r="R15" s="2">
-        <v>15.696164724567</v>
+        <v>15.684719944758511</v>
       </c>
       <c r="S15" s="2">
-        <v>1.565429966464184</v>
+        <v>1.564727493738592</v>
       </c>
       <c r="T15" s="2">
-        <v>10.984079094791021</v>
+        <v>10.98257116225118</v>
       </c>
       <c r="U15" s="2">
-        <v>1.095640492957874</v>
+        <v>1.0940182199736539</v>
       </c>
       <c r="V15" s="2">
-        <v>2.351919219562995</v>
+        <v>2.3545970978945721</v>
       </c>
       <c r="W15" s="2">
-        <v>0.2352497676169327</v>
+        <v>0.23209882899998679</v>
       </c>
       <c r="X15" s="2">
-        <v>2.355420737283616</v>
+        <v>2.3542633563639561</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.23672392903317149</v>
+        <v>0.23243015495307601</v>
       </c>
       <c r="Z15" s="2">
-        <v>5.2292125624532844</v>
+        <v>5.2228039839928719</v>
       </c>
       <c r="AA15" s="2">
-        <v>0.52756811389491187</v>
+        <v>0.5237522350024556</v>
       </c>
       <c r="AB15" s="2">
-        <v>10.459752417944561</v>
+        <v>10.462893207901219</v>
       </c>
       <c r="AC15" s="2">
-        <v>1.0487008804080731</v>
+        <v>1.0467325638899929</v>
       </c>
       <c r="AD15" s="2">
-        <v>19.619796789966859</v>
+        <v>19.58349772989364</v>
       </c>
       <c r="AE15" s="2">
-        <v>1.4440836048962249</v>
+        <v>1.43409907659096</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -5573,94 +5588,94 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>117.1165864606771</v>
+        <v>117.25171110019279</v>
       </c>
       <c r="C16" s="2">
-        <v>5.8889761381850061</v>
+        <v>5.835065641572279</v>
       </c>
       <c r="D16" s="2">
-        <v>57.178446238583817</v>
+        <v>57.227254724035078</v>
       </c>
       <c r="E16" s="2">
-        <v>4.0997342249291737</v>
+        <v>4.0737852815564288</v>
       </c>
       <c r="F16" s="2">
-        <v>57.181350326721713</v>
+        <v>57.263966422763431</v>
       </c>
       <c r="G16" s="2">
-        <v>4.0651342483706188</v>
+        <v>3.9934725977586218</v>
       </c>
       <c r="H16" s="2">
-        <v>16.73898434672034</v>
+        <v>16.781626837282449</v>
       </c>
       <c r="I16" s="2">
-        <v>1.467947480538262</v>
+        <v>1.453531245595485</v>
       </c>
       <c r="J16" s="2">
-        <v>16.76142717408564</v>
+        <v>16.788150361646331</v>
       </c>
       <c r="K16" s="2">
-        <v>1.4583694954156921</v>
+        <v>1.4466987132855</v>
       </c>
       <c r="L16" s="2">
-        <v>5.5815127375797386</v>
+        <v>5.591303909999465</v>
       </c>
       <c r="M16" s="2">
-        <v>0.4842916097522309</v>
+        <v>0.47479070474883323</v>
       </c>
       <c r="N16" s="2">
-        <v>11.167042904567669</v>
+        <v>11.186782746162891</v>
       </c>
       <c r="O16" s="2">
-        <v>0.97573299009629355</v>
+        <v>0.9645480966694111</v>
       </c>
       <c r="P16" s="2">
-        <v>5.5832270012016503</v>
+        <v>5.5942383299008096</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.48471529395319801</v>
+        <v>0.48367248434825039</v>
       </c>
       <c r="R16" s="2">
-        <v>16.347354280657221</v>
+        <v>16.40006526284682</v>
       </c>
       <c r="S16" s="2">
-        <v>1.661044116267933</v>
+        <v>1.649504050593388</v>
       </c>
       <c r="T16" s="2">
-        <v>11.452768552973451</v>
+        <v>11.48764495803667</v>
       </c>
       <c r="U16" s="2">
-        <v>1.1462844849337479</v>
+        <v>1.149581912677867</v>
       </c>
       <c r="V16" s="2">
-        <v>2.4556184325149362</v>
+        <v>2.4593657829180819</v>
       </c>
       <c r="W16" s="2">
-        <v>0.24653664933324751</v>
+        <v>0.24398029123216031</v>
       </c>
       <c r="X16" s="2">
-        <v>2.453918393204948</v>
+        <v>2.4591212332009982</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.24529596112360841</v>
+        <v>0.24567084480779919</v>
       </c>
       <c r="Z16" s="2">
-        <v>5.4515634953431151</v>
+        <v>5.4582173701630081</v>
       </c>
       <c r="AA16" s="2">
-        <v>0.54783204926252349</v>
+        <v>0.53486709822917056</v>
       </c>
       <c r="AB16" s="2">
-        <v>10.91131911746311</v>
+        <v>10.927809370949371</v>
       </c>
       <c r="AC16" s="2">
-        <v>1.100688455070236</v>
+        <v>1.083356134190969</v>
       </c>
       <c r="AD16" s="2">
-        <v>24.000196965174371</v>
+        <v>23.977088461028661</v>
       </c>
       <c r="AE16" s="2">
-        <v>1.5745926461839359</v>
+        <v>1.567793946128027</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -5668,94 +5683,94 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>122.03500764763641</v>
+        <v>122.1176783483465</v>
       </c>
       <c r="C17" s="2">
-        <v>6.1009920398403148</v>
+        <v>6.1115842542277292</v>
       </c>
       <c r="D17" s="2">
-        <v>59.542789762601281</v>
+        <v>59.601801326696453</v>
       </c>
       <c r="E17" s="2">
-        <v>4.2120871740391559</v>
+        <v>4.2036782408254183</v>
       </c>
       <c r="F17" s="2">
-        <v>59.530210760245659</v>
+        <v>59.616859906418028</v>
       </c>
       <c r="G17" s="2">
-        <v>4.1975256674516057</v>
+        <v>4.2323251818482834</v>
       </c>
       <c r="H17" s="2">
-        <v>17.433028517797389</v>
+        <v>17.464489091227271</v>
       </c>
       <c r="I17" s="2">
-        <v>1.522456124999841</v>
+        <v>1.522288947092078</v>
       </c>
       <c r="J17" s="2">
-        <v>17.442240582637549</v>
+        <v>17.4512447530789</v>
       </c>
       <c r="K17" s="2">
-        <v>1.506374807202524</v>
+        <v>1.523305051669406</v>
       </c>
       <c r="L17" s="2">
-        <v>5.8130339502857202</v>
+        <v>5.8237718658895874</v>
       </c>
       <c r="M17" s="2">
-        <v>0.50075861867255478</v>
+        <v>0.50489586534740427</v>
       </c>
       <c r="N17" s="2">
-        <v>11.626688327368431</v>
+        <v>11.65491713809053</v>
       </c>
       <c r="O17" s="2">
-        <v>1.004443106739384</v>
+        <v>1.0203458025300329</v>
       </c>
       <c r="P17" s="2">
-        <v>5.8136042563871229</v>
+        <v>5.8233387222773079</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.50235542839811353</v>
+        <v>0.5049284314887732</v>
       </c>
       <c r="R17" s="2">
-        <v>17.012419279961229</v>
+        <v>17.050673837333051</v>
       </c>
       <c r="S17" s="2">
-        <v>1.710926226694927</v>
+        <v>1.7262735413699399</v>
       </c>
       <c r="T17" s="2">
-        <v>11.914638163224151</v>
+        <v>11.9344216033472</v>
       </c>
       <c r="U17" s="2">
-        <v>1.1930562740525139</v>
+        <v>1.20474509341689</v>
       </c>
       <c r="V17" s="2">
-        <v>2.5549015495884722</v>
+        <v>2.5569414928185381</v>
       </c>
       <c r="W17" s="2">
-        <v>0.25326568664753729</v>
+        <v>0.25810177321459821</v>
       </c>
       <c r="X17" s="2">
-        <v>2.5553813044075562</v>
+        <v>2.5575000655969289</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.25332270817364178</v>
+        <v>0.25669126830155448</v>
       </c>
       <c r="Z17" s="2">
-        <v>5.6773507913635211</v>
+        <v>5.6875042508384777</v>
       </c>
       <c r="AA17" s="2">
-        <v>0.56304632260275378</v>
+        <v>0.56977074900546387</v>
       </c>
       <c r="AB17" s="2">
-        <v>11.355532403838639</v>
+        <v>11.375970699818589</v>
       </c>
       <c r="AC17" s="2">
-        <v>1.145120721594252</v>
+        <v>1.144025426708573</v>
       </c>
       <c r="AD17" s="2">
-        <v>26.364100390766261</v>
+        <v>26.41051610628196</v>
       </c>
       <c r="AE17" s="2">
-        <v>1.664010320657584</v>
+        <v>1.6484844011574109</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -5763,94 +5778,94 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>127.0383057609607</v>
+        <v>126.9973734143492</v>
       </c>
       <c r="C18" s="2">
-        <v>6.3773498001921158</v>
+        <v>6.4238544819764556</v>
       </c>
       <c r="D18" s="2">
-        <v>62.042950877965431</v>
+        <v>62.030883606787363</v>
       </c>
       <c r="E18" s="2">
-        <v>4.4143873236636422</v>
+        <v>4.4101970884649857</v>
       </c>
       <c r="F18" s="2">
-        <v>62.007875539074568</v>
+        <v>61.984451804739038</v>
       </c>
       <c r="G18" s="2">
-        <v>4.3960273922421944</v>
+        <v>4.4344263526111094</v>
       </c>
       <c r="H18" s="2">
-        <v>18.16012512210639</v>
+        <v>18.157414921238839</v>
       </c>
       <c r="I18" s="2">
-        <v>1.5862383230542469</v>
+        <v>1.5826803788666819</v>
       </c>
       <c r="J18" s="2">
-        <v>18.168967483327251</v>
+        <v>18.16713046368243</v>
       </c>
       <c r="K18" s="2">
-        <v>1.575761802917137</v>
+        <v>1.6000479250151161</v>
       </c>
       <c r="L18" s="2">
-        <v>6.0495587763478111</v>
+        <v>6.0541467275035767</v>
       </c>
       <c r="M18" s="2">
-        <v>0.52827201995032647</v>
+        <v>0.52959166414069558</v>
       </c>
       <c r="N18" s="2">
-        <v>12.10802584944263</v>
+        <v>12.11017248436197</v>
       </c>
       <c r="O18" s="2">
-        <v>1.0538305672551489</v>
+        <v>1.0663417000236819</v>
       </c>
       <c r="P18" s="2">
-        <v>6.0539754839945648</v>
+        <v>6.0524652681935898</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.52923324107053993</v>
+        <v>0.52511229540060245</v>
       </c>
       <c r="R18" s="2">
-        <v>17.727342708258231</v>
+        <v>17.729712545491552</v>
       </c>
       <c r="S18" s="2">
-        <v>1.789111254683355</v>
+        <v>1.7824074212825809</v>
       </c>
       <c r="T18" s="2">
-        <v>12.416241261213621</v>
+        <v>12.409900622076449</v>
       </c>
       <c r="U18" s="2">
-        <v>1.24536960696109</v>
+        <v>1.2486370529969251</v>
       </c>
       <c r="V18" s="2">
-        <v>2.6599201257819649</v>
+        <v>2.6611562643106388</v>
       </c>
       <c r="W18" s="2">
-        <v>0.26647504984216008</v>
+        <v>0.26914023566340167</v>
       </c>
       <c r="X18" s="2">
-        <v>2.6617086181877512</v>
+        <v>2.6608827970366802</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.26686746693219671</v>
+        <v>0.26822682547848131</v>
       </c>
       <c r="Z18" s="2">
-        <v>5.9115131966261547</v>
+        <v>5.9135031367870674</v>
       </c>
       <c r="AA18" s="2">
-        <v>0.59369555056634682</v>
+        <v>0.5930041062545518</v>
       </c>
       <c r="AB18" s="2">
-        <v>11.822108977304771</v>
+        <v>11.834484199941169</v>
       </c>
       <c r="AC18" s="2">
-        <v>1.182783710140455</v>
+        <v>1.1939189315007031</v>
       </c>
       <c r="AD18" s="2">
-        <v>27.964901864189219</v>
+        <v>28.017456368678999</v>
       </c>
       <c r="AE18" s="2">
-        <v>1.726018478674219</v>
+        <v>1.7421970455045781</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -5858,94 +5873,94 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>131.82383915903429</v>
+        <v>131.71213622578921</v>
       </c>
       <c r="C19" s="2">
-        <v>6.5142366352144574</v>
+        <v>6.5449848572325608</v>
       </c>
       <c r="D19" s="2">
-        <v>64.314049767430404</v>
+        <v>64.332210374472936</v>
       </c>
       <c r="E19" s="2">
-        <v>4.5468878843399407</v>
+        <v>4.4886187103492947</v>
       </c>
       <c r="F19" s="2">
-        <v>64.391401152089557</v>
+        <v>64.286603653264734</v>
       </c>
       <c r="G19" s="2">
-        <v>4.5412541800866784</v>
+        <v>4.5153412207540446</v>
       </c>
       <c r="H19" s="2">
-        <v>18.881425531725469</v>
+        <v>18.828176452671531</v>
       </c>
       <c r="I19" s="2">
-        <v>1.6329504013514571</v>
+        <v>1.6197834908935369</v>
       </c>
       <c r="J19" s="2">
-        <v>18.86218781095328</v>
+        <v>18.841849348014929</v>
       </c>
       <c r="K19" s="2">
-        <v>1.630905495161681</v>
+        <v>1.6181550776112721</v>
       </c>
       <c r="L19" s="2">
-        <v>6.2860254421518356</v>
+        <v>6.2803022158357029</v>
       </c>
       <c r="M19" s="2">
-        <v>0.54098100181089037</v>
+        <v>0.54245969450981979</v>
       </c>
       <c r="N19" s="2">
-        <v>12.57481544754298</v>
+        <v>12.558748272591901</v>
       </c>
       <c r="O19" s="2">
-        <v>1.0930770758920101</v>
+        <v>1.09525725873082</v>
       </c>
       <c r="P19" s="2">
-        <v>6.2847660990319554</v>
+        <v>6.2838976438400316</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.54891067721010434</v>
+        <v>0.54504066051070188</v>
       </c>
       <c r="R19" s="2">
-        <v>18.43882936026921</v>
+        <v>18.371491571861931</v>
       </c>
       <c r="S19" s="2">
-        <v>1.833495070067271</v>
+        <v>1.832476618444377</v>
       </c>
       <c r="T19" s="2">
-        <v>12.88902222698767</v>
+        <v>12.867151471805551</v>
       </c>
       <c r="U19" s="2">
-        <v>1.3076912289968119</v>
+        <v>1.273866667754497</v>
       </c>
       <c r="V19" s="2">
-        <v>2.7647205718627839</v>
+        <v>2.7593756857048271</v>
       </c>
       <c r="W19" s="2">
-        <v>0.27722092181683222</v>
+        <v>0.27321234695366031</v>
       </c>
       <c r="X19" s="2">
-        <v>2.7647541670775251</v>
+        <v>2.7597417467969838</v>
       </c>
       <c r="Y19" s="2">
-        <v>0.27744751431182341</v>
+        <v>0.27486966105025551</v>
       </c>
       <c r="Z19" s="2">
-        <v>6.1459488748081768</v>
+        <v>6.1375054521301102</v>
       </c>
       <c r="AA19" s="2">
-        <v>0.61456097308182456</v>
+        <v>0.61450135388212745</v>
       </c>
       <c r="AB19" s="2">
-        <v>12.28455776290583</v>
+        <v>12.26093278755668</v>
       </c>
       <c r="AC19" s="2">
-        <v>1.2258755982167351</v>
+        <v>1.2223570957985459</v>
       </c>
       <c r="AD19" s="2">
-        <v>29.330639282433388</v>
+        <v>29.34738225170759</v>
       </c>
       <c r="AE19" s="2">
-        <v>1.7776064655085331</v>
+        <v>1.797476870635202</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -5953,94 +5968,94 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>136.68048580252869</v>
+        <v>136.69512637275761</v>
       </c>
       <c r="C20" s="2">
-        <v>6.8285115992460979</v>
+        <v>6.8407096667729146</v>
       </c>
       <c r="D20" s="2">
-        <v>66.712693991155334</v>
+        <v>66.702677713937689</v>
       </c>
       <c r="E20" s="2">
-        <v>4.6904509844557039</v>
+        <v>4.6921214116868457</v>
       </c>
       <c r="F20" s="2">
-        <v>66.655875772308477</v>
+        <v>66.748870314707915</v>
       </c>
       <c r="G20" s="2">
-        <v>4.6480911788440231</v>
+        <v>4.7017584730957589</v>
       </c>
       <c r="H20" s="2">
-        <v>19.530855844218859</v>
+        <v>19.555170599138769</v>
       </c>
       <c r="I20" s="2">
-        <v>1.6681964565327689</v>
+        <v>1.704989006680816</v>
       </c>
       <c r="J20" s="2">
-        <v>19.541294303377981</v>
+        <v>19.54206226870528</v>
       </c>
       <c r="K20" s="2">
-        <v>1.6797167407037381</v>
+        <v>1.6944036273415659</v>
       </c>
       <c r="L20" s="2">
-        <v>6.5150157751819062</v>
+        <v>6.5124268399587573</v>
       </c>
       <c r="M20" s="2">
-        <v>0.55925104377134305</v>
+        <v>0.56050593846094476</v>
       </c>
       <c r="N20" s="2">
-        <v>13.00951291986274</v>
+        <v>13.029623233750049</v>
       </c>
       <c r="O20" s="2">
-        <v>1.121421213119141</v>
+        <v>1.125179405341475</v>
       </c>
       <c r="P20" s="2">
-        <v>6.5082342652571636</v>
+        <v>6.5193679020795487</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.55613559088214748</v>
+        <v>0.55968288784094866</v>
       </c>
       <c r="R20" s="2">
-        <v>19.05524086147599</v>
+        <v>19.096417387825191</v>
       </c>
       <c r="S20" s="2">
-        <v>1.901217638332255</v>
+        <v>1.912667222081285</v>
       </c>
       <c r="T20" s="2">
-        <v>13.354122762583639</v>
+        <v>13.34891207747571</v>
       </c>
       <c r="U20" s="2">
-        <v>1.325781036544047</v>
+        <v>1.3365928064929089</v>
       </c>
       <c r="V20" s="2">
-        <v>2.863225585650869</v>
+        <v>2.8641182959923088</v>
       </c>
       <c r="W20" s="2">
-        <v>0.28471401334382218</v>
+        <v>0.28495101940853512</v>
       </c>
       <c r="X20" s="2">
-        <v>2.8628360113636631</v>
+        <v>2.8636479213039259</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.28405170462757501</v>
+        <v>0.28954886210752512</v>
       </c>
       <c r="Z20" s="2">
-        <v>6.3599817976237532</v>
+        <v>6.3580270488226667</v>
       </c>
       <c r="AA20" s="2">
-        <v>0.62903910753075476</v>
+        <v>0.62890775652206576</v>
       </c>
       <c r="AB20" s="2">
-        <v>12.71053359369477</v>
+        <v>12.72808514119764</v>
       </c>
       <c r="AC20" s="2">
-        <v>1.2595781609168311</v>
+        <v>1.264222809072056</v>
       </c>
       <c r="AD20" s="2">
-        <v>30.584048868092751</v>
+        <v>30.533249516401689</v>
       </c>
       <c r="AE20" s="2">
-        <v>1.837405396340571</v>
+        <v>1.8291778848824229</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -6048,94 +6063,94 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>141.59107645758019</v>
+        <v>141.61161819904461</v>
       </c>
       <c r="C21" s="2">
-        <v>7.0939758342453736</v>
+        <v>7.0513692291379746</v>
       </c>
       <c r="D21" s="2">
-        <v>69.08109947043485</v>
+        <v>69.136104055345825</v>
       </c>
       <c r="E21" s="2">
-        <v>4.869684133020578</v>
+        <v>4.929552469695877</v>
       </c>
       <c r="F21" s="2">
-        <v>69.137152852829772</v>
+        <v>69.172715380634827</v>
       </c>
       <c r="G21" s="2">
-        <v>4.8323407356683568</v>
+        <v>4.8665466145762988</v>
       </c>
       <c r="H21" s="2">
-        <v>20.248666513856481</v>
+        <v>20.27394294811295</v>
       </c>
       <c r="I21" s="2">
-        <v>1.7438406821509009</v>
+        <v>1.7636308094499971</v>
       </c>
       <c r="J21" s="2">
-        <v>20.247005339857431</v>
+        <v>20.262931872621071</v>
       </c>
       <c r="K21" s="2">
-        <v>1.749537851488141</v>
+        <v>1.762178869179966</v>
       </c>
       <c r="L21" s="2">
-        <v>6.7521847405575226</v>
+        <v>6.7571612019628544</v>
       </c>
       <c r="M21" s="2">
-        <v>0.5872288503580837</v>
+        <v>0.584620158640073</v>
       </c>
       <c r="N21" s="2">
-        <v>13.509727503596761</v>
+        <v>13.50685447958926</v>
       </c>
       <c r="O21" s="2">
-        <v>1.1607389784737221</v>
+        <v>1.167546952818461</v>
       </c>
       <c r="P21" s="2">
-        <v>6.7527702512764982</v>
+        <v>6.7552571255653877</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.57555403985539011</v>
+        <v>0.58436892763505754</v>
       </c>
       <c r="R21" s="2">
-        <v>19.764459556531239</v>
+        <v>19.792957006225461</v>
       </c>
       <c r="S21" s="2">
-        <v>1.96052381550334</v>
+        <v>1.984655027078253</v>
       </c>
       <c r="T21" s="2">
-        <v>13.837500569117241</v>
+        <v>13.84764120908619</v>
       </c>
       <c r="U21" s="2">
-        <v>1.3929485796004659</v>
+        <v>1.4007788511566801</v>
       </c>
       <c r="V21" s="2">
-        <v>2.9652759104664321</v>
+        <v>2.9677389994031049</v>
       </c>
       <c r="W21" s="2">
-        <v>0.29210193344265412</v>
+        <v>0.29904160965635368</v>
       </c>
       <c r="X21" s="2">
-        <v>2.9682847673470829</v>
+        <v>2.9698592946409019</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.29517009040113329</v>
+        <v>0.29916889555643872</v>
       </c>
       <c r="Z21" s="2">
-        <v>6.5966354959736853</v>
+        <v>6.5971257517754607</v>
       </c>
       <c r="AA21" s="2">
-        <v>0.66108740121640219</v>
+        <v>0.66246511752867399</v>
       </c>
       <c r="AB21" s="2">
-        <v>13.2046170687972</v>
+        <v>13.195400480401711</v>
       </c>
       <c r="AC21" s="2">
-        <v>1.3126957982286169</v>
+        <v>1.3220215014409811</v>
       </c>
       <c r="AD21" s="2">
-        <v>31.730301490424178</v>
+        <v>31.735522966184298</v>
       </c>
       <c r="AE21" s="2">
-        <v>1.9049999877092589</v>
+        <v>1.9151849321637371</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -6143,94 +6158,94 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>146.43929440973349</v>
+        <v>146.38454225557081</v>
       </c>
       <c r="C22" s="2">
-        <v>7.2581661812574261</v>
+        <v>7.3060789550480294</v>
       </c>
       <c r="D22" s="2">
-        <v>71.445390004928285</v>
+        <v>71.447196933256294</v>
       </c>
       <c r="E22" s="2">
-        <v>5.0783509860811069</v>
+        <v>5.1071711938296458</v>
       </c>
       <c r="F22" s="2">
-        <v>71.526957963479489</v>
+        <v>71.447588058838662</v>
       </c>
       <c r="G22" s="2">
-        <v>5.0306461692850473</v>
+        <v>5.0736861603077186</v>
       </c>
       <c r="H22" s="2">
-        <v>20.960261960787069</v>
+        <v>20.92905817313348</v>
       </c>
       <c r="I22" s="2">
-        <v>1.8072589521904669</v>
+        <v>1.819788417420757</v>
       </c>
       <c r="J22" s="2">
-        <v>20.941831858879539</v>
+        <v>20.922293962537019</v>
       </c>
       <c r="K22" s="2">
-        <v>1.8078406289832141</v>
+        <v>1.810510336858457</v>
       </c>
       <c r="L22" s="2">
-        <v>6.983760159939747</v>
+        <v>6.9762431941560017</v>
       </c>
       <c r="M22" s="2">
-        <v>0.60164388125976842</v>
+        <v>0.60433282426511303</v>
       </c>
       <c r="N22" s="2">
-        <v>13.96677229932196</v>
+        <v>13.960736263230791</v>
       </c>
       <c r="O22" s="2">
-        <v>1.206796963044551</v>
+        <v>1.2152269529204249</v>
       </c>
       <c r="P22" s="2">
-        <v>6.9853589277741088</v>
+        <v>6.9765025135365857</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.60080175866731955</v>
+        <v>0.60738399666901421</v>
       </c>
       <c r="R22" s="2">
-        <v>20.45947541355573</v>
+        <v>20.450890337887639</v>
       </c>
       <c r="S22" s="2">
-        <v>2.0369902147006789</v>
+        <v>2.0604459299531519</v>
       </c>
       <c r="T22" s="2">
-        <v>14.318470804160549</v>
+        <v>14.318898082181709</v>
       </c>
       <c r="U22" s="2">
-        <v>1.4175409160146131</v>
+        <v>1.4190075798745361</v>
       </c>
       <c r="V22" s="2">
-        <v>3.0656951002459678</v>
+        <v>3.0639753592978929</v>
       </c>
       <c r="W22" s="2">
-        <v>0.30670035216450109</v>
+        <v>0.30718985317198011</v>
       </c>
       <c r="X22" s="2">
-        <v>3.0680296452028961</v>
+        <v>3.0657415666440531</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.30723160602869032</v>
+        <v>0.30594626220233601</v>
       </c>
       <c r="Z22" s="2">
-        <v>6.8205800308799258</v>
+        <v>6.8094753178936216</v>
       </c>
       <c r="AA22" s="2">
-        <v>0.68591739083977654</v>
+        <v>0.68170985272481754</v>
       </c>
       <c r="AB22" s="2">
-        <v>13.625847444155429</v>
+        <v>13.629826784502001</v>
       </c>
       <c r="AC22" s="2">
-        <v>1.358145436362945</v>
+        <v>1.3647970972932271</v>
       </c>
       <c r="AD22" s="2">
-        <v>32.90648852780614</v>
+        <v>32.932202127567592</v>
       </c>
       <c r="AE22" s="2">
-        <v>1.9793056319358331</v>
+        <v>2.003946389031118</v>
       </c>
     </row>
   </sheetData>
@@ -6242,9 +6257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6318,64 +6331,64 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>23.839348890846122</v>
+        <v>23.841381311791039</v>
       </c>
       <c r="C2" s="2">
-        <v>1.6736951463806919</v>
+        <v>1.675201746100941</v>
       </c>
       <c r="D2" s="2">
-        <v>23.839348890846122</v>
+        <v>23.841381311791039</v>
       </c>
       <c r="E2" s="2">
-        <v>1.6736951463806919</v>
+        <v>1.675201746100941</v>
       </c>
       <c r="F2" s="2">
-        <v>2.3278780503097081</v>
+        <v>2.329760289650836</v>
       </c>
       <c r="G2" s="2">
-        <v>0.20189293995222751</v>
+        <v>0.2032823959883345</v>
       </c>
       <c r="H2" s="2">
-        <v>2.3278780503097081</v>
+        <v>2.329760289650836</v>
       </c>
       <c r="I2" s="2">
-        <v>0.20189293995222751</v>
+        <v>0.2032823959883345</v>
       </c>
       <c r="J2" s="2">
-        <v>11.590700516493269</v>
+        <v>11.607899162032719</v>
       </c>
       <c r="K2" s="2">
-        <v>1.021690785012018</v>
+        <v>1.022177445419139</v>
       </c>
       <c r="L2" s="2">
-        <v>11.590700516493269</v>
+        <v>11.607899162032719</v>
       </c>
       <c r="M2" s="2">
-        <v>1.021690785012018</v>
+        <v>1.022177445419139</v>
       </c>
       <c r="N2" s="2">
-        <v>7.8411462706295296</v>
+        <v>7.8504003855035833</v>
       </c>
       <c r="O2" s="2">
-        <v>0.66299291888398859</v>
+        <v>0.66979242131479166</v>
       </c>
       <c r="P2" s="2">
-        <v>7.8411462706295296</v>
+        <v>7.8504003855035833</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.66299291888398859</v>
+        <v>0.66979242131479166</v>
       </c>
       <c r="R2" s="2">
-        <v>1.023035112486554</v>
+        <v>1.023559005814763</v>
       </c>
       <c r="S2" s="2">
-        <v>0.1034584375761074</v>
+        <v>0.1036142884911361</v>
       </c>
       <c r="T2" s="2">
-        <v>1.023035112486554</v>
+        <v>1.023559005814763</v>
       </c>
       <c r="U2" s="2">
-        <v>0.1034584375761074</v>
+        <v>0.1036142884911361</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -6383,64 +6396,64 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>26.201312963165911</v>
+        <v>26.22014638562387</v>
       </c>
       <c r="C3" s="2">
-        <v>1.8702087816396571</v>
+        <v>1.845178232051814</v>
       </c>
       <c r="D3" s="2">
-        <v>50.040661854012122</v>
+        <v>50.061527697414988</v>
       </c>
       <c r="E3" s="2">
-        <v>2.5187726858838189</v>
+        <v>2.487842350102067</v>
       </c>
       <c r="F3" s="2">
-        <v>2.5593271635677741</v>
+        <v>2.5656724938416922</v>
       </c>
       <c r="G3" s="2">
-        <v>0.22159464228387191</v>
+        <v>0.22189426908217061</v>
       </c>
       <c r="H3" s="2">
-        <v>4.8872052138774738</v>
+        <v>4.8954327834925397</v>
       </c>
       <c r="I3" s="2">
-        <v>0.29944477592292179</v>
+        <v>0.29895192411533961</v>
       </c>
       <c r="J3" s="2">
-        <v>5.3769906886258543</v>
+        <v>5.409796087140192</v>
       </c>
       <c r="K3" s="2">
-        <v>1.3098049268901379</v>
+        <v>1.291130395132267</v>
       </c>
       <c r="L3" s="2">
-        <v>16.967691205119159</v>
+        <v>17.017695249172871</v>
       </c>
       <c r="M3" s="2">
-        <v>1.1894996011987959</v>
+        <v>1.166140671290294</v>
       </c>
       <c r="N3" s="2">
-        <v>15.99288638611622</v>
+        <v>16.015849474718021</v>
       </c>
       <c r="O3" s="2">
-        <v>0.99853321809288864</v>
+        <v>0.99319496328097012</v>
       </c>
       <c r="P3" s="2">
-        <v>23.834032656745858</v>
+        <v>23.866249860221739</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.427945569923081</v>
+        <v>1.4241183984201209</v>
       </c>
       <c r="R3" s="2">
-        <v>1.1251778663048251</v>
+        <v>1.1267703874969031</v>
       </c>
       <c r="S3" s="2">
-        <v>0.1133810159544935</v>
+        <v>0.1121462601620285</v>
       </c>
       <c r="T3" s="2">
-        <v>2.1482129787913808</v>
+        <v>2.150329393311663</v>
       </c>
       <c r="U3" s="2">
-        <v>0.15347542378938989</v>
+        <v>0.15314804162580309</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -6448,64 +6461,64 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>28.613588148068661</v>
+        <v>28.633017184438401</v>
       </c>
       <c r="C4" s="2">
-        <v>2.0397567712275451</v>
+        <v>2.0350571685219672</v>
       </c>
       <c r="D4" s="2">
-        <v>78.654250002080204</v>
+        <v>78.694544881853275</v>
       </c>
       <c r="E4" s="2">
-        <v>3.2467403435822848</v>
+        <v>3.228794759667946</v>
       </c>
       <c r="F4" s="2">
-        <v>2.7904004920809991</v>
+        <v>2.7973818348287729</v>
       </c>
       <c r="G4" s="2">
-        <v>0.24116406820674521</v>
+        <v>0.241178639294411</v>
       </c>
       <c r="H4" s="2">
-        <v>7.6776057059584568</v>
+        <v>7.6928146183212958</v>
       </c>
       <c r="I4" s="2">
-        <v>0.38522633848399213</v>
+        <v>0.38444304426474279</v>
       </c>
       <c r="J4" s="2">
-        <v>3.192544243081548</v>
+        <v>3.2011786552694499</v>
       </c>
       <c r="K4" s="2">
-        <v>1.4223141176167571</v>
+        <v>1.4195794192785991</v>
       </c>
       <c r="L4" s="2">
-        <v>20.160235448200641</v>
+        <v>20.21887390444239</v>
       </c>
       <c r="M4" s="2">
-        <v>1.33307350538139</v>
+        <v>1.32873503713551</v>
       </c>
       <c r="N4" s="2">
-        <v>20.11250033430165</v>
+        <v>20.152331389695039</v>
       </c>
       <c r="O4" s="2">
-        <v>1.102855682255576</v>
+        <v>1.0828498564429609</v>
       </c>
       <c r="P4" s="2">
-        <v>43.946532991047313</v>
+        <v>44.018581249916643</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.1383882842199151</v>
+        <v>2.1101501825052931</v>
       </c>
       <c r="R4" s="2">
-        <v>1.2249263406120969</v>
+        <v>1.229245797299872</v>
       </c>
       <c r="S4" s="2">
-        <v>0.1215693785564938</v>
+        <v>0.12186918058827061</v>
       </c>
       <c r="T4" s="2">
-        <v>3.3731393194034971</v>
+        <v>3.379575190611547</v>
       </c>
       <c r="U4" s="2">
-        <v>0.19624471297859991</v>
+        <v>0.1962618717278595</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -6513,64 +6526,64 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>30.97694714311913</v>
+        <v>30.957881081466859</v>
       </c>
       <c r="C5" s="2">
-        <v>2.1897623783193731</v>
+        <v>2.2155214261945191</v>
       </c>
       <c r="D5" s="2">
-        <v>109.63119714519949</v>
+        <v>109.6524259633202</v>
       </c>
       <c r="E5" s="2">
-        <v>3.9419079559492989</v>
+        <v>3.9150869706495661</v>
       </c>
       <c r="F5" s="2">
-        <v>3.0240138089890052</v>
+        <v>3.0235500567038218</v>
       </c>
       <c r="G5" s="2">
-        <v>0.26260174522281188</v>
+        <v>0.26204238141365699</v>
       </c>
       <c r="H5" s="2">
-        <v>10.70161951494747</v>
+        <v>10.71636467502511</v>
       </c>
       <c r="I5" s="2">
-        <v>0.46550519787918521</v>
+        <v>0.46538243453710082</v>
       </c>
       <c r="J5" s="2">
-        <v>2.361117497639742</v>
+        <v>2.340932848839965</v>
       </c>
       <c r="K5" s="2">
-        <v>1.5502385241629599</v>
+        <v>1.570387396563214</v>
       </c>
       <c r="L5" s="2">
-        <v>22.521352945840359</v>
+        <v>22.559806753282221</v>
       </c>
       <c r="M5" s="2">
-        <v>1.482497641472168</v>
+        <v>1.5015940297731269</v>
       </c>
       <c r="N5" s="2">
-        <v>22.88972133100971</v>
+        <v>22.912670757221381</v>
       </c>
       <c r="O5" s="2">
-        <v>1.1865589082013051</v>
+        <v>1.193980577574254</v>
       </c>
       <c r="P5" s="2">
-        <v>66.8362543220573</v>
+        <v>66.931252007138056</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.7942520449124828</v>
+        <v>2.7711799298621149</v>
       </c>
       <c r="R5" s="2">
-        <v>1.3300465597599529</v>
+        <v>1.3285825577488639</v>
       </c>
       <c r="S5" s="2">
-        <v>0.13356964038557889</v>
+        <v>0.13251560824571521</v>
       </c>
       <c r="T5" s="2">
-        <v>4.7031858791634287</v>
+        <v>4.7081577483604127</v>
       </c>
       <c r="U5" s="2">
-        <v>0.23926791498573291</v>
+        <v>0.23526172918790669</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -6578,64 +6591,64 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>33.378174790293457</v>
+        <v>33.363195467750003</v>
       </c>
       <c r="C6" s="2">
-        <v>2.373388416331832</v>
+        <v>2.329652887940822</v>
       </c>
       <c r="D6" s="2">
-        <v>143.00937193549319</v>
+        <v>143.01562143106929</v>
       </c>
       <c r="E6" s="2">
-        <v>4.6082340383088036</v>
+        <v>4.5245147445314879</v>
       </c>
       <c r="F6" s="2">
-        <v>3.2580715940866809</v>
+        <v>3.261162545026163</v>
       </c>
       <c r="G6" s="2">
-        <v>0.28462010892348433</v>
+        <v>0.28154091797994629</v>
       </c>
       <c r="H6" s="2">
-        <v>13.959691109034219</v>
+        <v>13.977527220051311</v>
       </c>
       <c r="I6" s="2">
-        <v>0.54704014490237463</v>
+        <v>0.54125002749350615</v>
       </c>
       <c r="J6" s="2">
-        <v>2.0436938614948619</v>
+        <v>2.0445676940091491</v>
       </c>
       <c r="K6" s="2">
-        <v>1.6681232282296929</v>
+        <v>1.6787617680951969</v>
       </c>
       <c r="L6" s="2">
-        <v>24.565046807335278</v>
+        <v>24.604374447291459</v>
       </c>
       <c r="M6" s="2">
-        <v>1.628455044707964</v>
+        <v>1.606332934702285</v>
       </c>
       <c r="N6" s="2">
-        <v>25.152090892224781</v>
+        <v>25.1666449158283</v>
       </c>
       <c r="O6" s="2">
-        <v>1.286771128302334</v>
+        <v>1.289206032270396</v>
       </c>
       <c r="P6" s="2">
-        <v>91.988345214281665</v>
+        <v>92.097896922966044</v>
       </c>
       <c r="Q6" s="2">
-        <v>3.406366360002846</v>
+        <v>3.3934325639725111</v>
       </c>
       <c r="R6" s="2">
-        <v>1.431850952419496</v>
+        <v>1.4314593484015741</v>
       </c>
       <c r="S6" s="2">
-        <v>0.14433460054169861</v>
+        <v>0.14296106298606731</v>
       </c>
       <c r="T6" s="2">
-        <v>6.1350368315829229</v>
+        <v>6.1396170967619756</v>
       </c>
       <c r="U6" s="2">
-        <v>0.2789236205944165</v>
+        <v>0.27319085291638451</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -6643,64 +6656,64 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>35.755015993460702</v>
+        <v>35.75793306788924</v>
       </c>
       <c r="C7" s="2">
-        <v>2.5114619927521442</v>
+        <v>2.5189183196564291</v>
       </c>
       <c r="D7" s="2">
-        <v>178.76438792895411</v>
+        <v>178.7735544989595</v>
       </c>
       <c r="E7" s="2">
-        <v>5.249972997821045</v>
+        <v>5.1524832715027866</v>
       </c>
       <c r="F7" s="2">
-        <v>3.497729731846857</v>
+        <v>3.495648835170015</v>
       </c>
       <c r="G7" s="2">
-        <v>0.3048485468076253</v>
+        <v>0.30240285539890133</v>
       </c>
       <c r="H7" s="2">
-        <v>17.457420840880999</v>
+        <v>17.473176055221249</v>
       </c>
       <c r="I7" s="2">
-        <v>0.62385415932848332</v>
+        <v>0.61996029390900387</v>
       </c>
       <c r="J7" s="2">
-        <v>1.956214004226053</v>
+        <v>1.928809027880126</v>
       </c>
       <c r="K7" s="2">
-        <v>1.795607937644347</v>
+        <v>1.8036957288743261</v>
       </c>
       <c r="L7" s="2">
-        <v>26.52126081156138</v>
+        <v>26.533183475171601</v>
       </c>
       <c r="M7" s="2">
-        <v>1.7433639018965419</v>
+        <v>1.7445062499667201</v>
       </c>
       <c r="N7" s="2">
-        <v>27.227459171714631</v>
+        <v>27.256476200296579</v>
       </c>
       <c r="O7" s="2">
-        <v>1.3898912778744621</v>
+        <v>1.3734207908385561</v>
       </c>
       <c r="P7" s="2">
-        <v>119.2158043859971</v>
+        <v>119.3543731232632</v>
       </c>
       <c r="Q7" s="2">
-        <v>4.0035721199894772</v>
+        <v>3.9786714967863159</v>
       </c>
       <c r="R7" s="2">
-        <v>1.5340541930341769</v>
+        <v>1.536126934085954</v>
       </c>
       <c r="S7" s="2">
-        <v>0.1536265265435528</v>
+        <v>0.15432047695578749</v>
       </c>
       <c r="T7" s="2">
-        <v>7.669091024617094</v>
+        <v>7.6757440308479561</v>
       </c>
       <c r="U7" s="2">
-        <v>0.31883807210029042</v>
+        <v>0.31156948395804213</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -6708,64 +6721,64 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>38.16221924722015</v>
+        <v>38.157520163571483</v>
       </c>
       <c r="C8" s="2">
-        <v>2.7063877355521089</v>
+        <v>2.6830597771549001</v>
       </c>
       <c r="D8" s="2">
-        <v>216.9266071761742</v>
+        <v>216.9310746625313</v>
       </c>
       <c r="E8" s="2">
-        <v>5.9295407262959836</v>
+        <v>5.8212677792759964</v>
       </c>
       <c r="F8" s="2">
-        <v>3.7304943106263591</v>
+        <v>3.7276296750962739</v>
       </c>
       <c r="G8" s="2">
-        <v>0.32539385121556241</v>
+        <v>0.32551969141167081</v>
       </c>
       <c r="H8" s="2">
-        <v>21.187915151507362</v>
+        <v>21.2008057303177</v>
       </c>
       <c r="I8" s="2">
-        <v>0.70353971653931957</v>
+        <v>0.70306338493163167</v>
       </c>
       <c r="J8" s="2">
-        <v>1.872133978576237</v>
+        <v>1.8709607161723609</v>
       </c>
       <c r="K8" s="2">
-        <v>1.9178090165096049</v>
+        <v>1.915960719825643</v>
       </c>
       <c r="L8" s="2">
-        <v>28.393394790137581</v>
+        <v>28.404144191343988</v>
       </c>
       <c r="M8" s="2">
-        <v>1.864057596603315</v>
+        <v>1.8762743322578019</v>
       </c>
       <c r="N8" s="2">
-        <v>29.233371186859689</v>
+        <v>29.232279539151659</v>
       </c>
       <c r="O8" s="2">
-        <v>1.476712616577224</v>
+        <v>1.4900634705269979</v>
       </c>
       <c r="P8" s="2">
-        <v>148.44917557285589</v>
+        <v>148.58665266241459</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.6066125900431478</v>
+        <v>4.5929948810691998</v>
       </c>
       <c r="R8" s="2">
-        <v>1.638967320134614</v>
+        <v>1.6388128395762751</v>
       </c>
       <c r="S8" s="2">
-        <v>0.16457359907541899</v>
+        <v>0.1644872306092858</v>
       </c>
       <c r="T8" s="2">
-        <v>9.3080583447516947</v>
+        <v>9.314556870424191</v>
       </c>
       <c r="U8" s="2">
-        <v>0.35985413059419591</v>
+        <v>0.35416535947749361</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -6773,64 +6786,64 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>40.543328292440343</v>
+        <v>40.503428146747297</v>
       </c>
       <c r="C9" s="2">
-        <v>2.856937836649164</v>
+        <v>2.877703622213569</v>
       </c>
       <c r="D9" s="2">
-        <v>257.46993546861569</v>
+        <v>257.43450280927902</v>
       </c>
       <c r="E9" s="2">
-        <v>6.6363871539850319</v>
+        <v>6.5009639082100499</v>
       </c>
       <c r="F9" s="2">
-        <v>3.9609700541628321</v>
+        <v>3.957970573181921</v>
       </c>
       <c r="G9" s="2">
-        <v>0.34276611268493801</v>
+        <v>0.34664621345014029</v>
       </c>
       <c r="H9" s="2">
-        <v>25.14888520567024</v>
+        <v>25.158776303499572</v>
       </c>
       <c r="I9" s="2">
-        <v>0.77883086666074708</v>
+        <v>0.77996972203535053</v>
       </c>
       <c r="J9" s="2">
-        <v>1.8607048972820559</v>
+        <v>1.869634593598372</v>
       </c>
       <c r="K9" s="2">
-        <v>2.033429261303489</v>
+        <v>2.0506569469661029</v>
       </c>
       <c r="L9" s="2">
-        <v>30.254099687419629</v>
+        <v>30.273778784942269</v>
       </c>
       <c r="M9" s="2">
-        <v>1.9891209028008301</v>
+        <v>1.9996352457561239</v>
       </c>
       <c r="N9" s="2">
-        <v>31.202865614825619</v>
+        <v>31.20332291900522</v>
       </c>
       <c r="O9" s="2">
-        <v>1.583415456201577</v>
+        <v>1.5875455630652551</v>
       </c>
       <c r="P9" s="2">
-        <v>179.65204118768199</v>
+        <v>179.78997558142009</v>
       </c>
       <c r="Q9" s="2">
-        <v>5.207641938575887</v>
+        <v>5.2243113758314426</v>
       </c>
       <c r="R9" s="2">
-        <v>1.741005636455297</v>
+        <v>1.7367126848270149</v>
       </c>
       <c r="S9" s="2">
-        <v>0.17456732846182341</v>
+        <v>0.1734941546142566</v>
       </c>
       <c r="T9" s="2">
-        <v>11.049063981207039</v>
+        <v>11.05126955525126</v>
       </c>
       <c r="U9" s="2">
-        <v>0.40193188383387007</v>
+        <v>0.39490565790554782</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -6838,64 +6851,64 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>42.904879519814429</v>
+        <v>42.91167382776284</v>
       </c>
       <c r="C10" s="2">
-        <v>3.0847554247777311</v>
+        <v>3.0528661390694229</v>
       </c>
       <c r="D10" s="2">
-        <v>300.3748149884301</v>
+        <v>300.34617663703949</v>
       </c>
       <c r="E10" s="2">
-        <v>7.2786752959426044</v>
+        <v>7.203834364461402</v>
       </c>
       <c r="F10" s="2">
-        <v>4.1870874706938919</v>
+        <v>4.1913030079397444</v>
       </c>
       <c r="G10" s="2">
-        <v>0.3607262565580906</v>
+        <v>0.36142922153936652</v>
       </c>
       <c r="H10" s="2">
-        <v>29.335972676364062</v>
+        <v>29.35007931143938</v>
       </c>
       <c r="I10" s="2">
-        <v>0.85940237991497237</v>
+        <v>0.85692125316710488</v>
       </c>
       <c r="J10" s="2">
-        <v>1.8310029429622099</v>
+        <v>1.7943027733550321</v>
       </c>
       <c r="K10" s="2">
-        <v>2.182417195019668</v>
+        <v>2.162099841362414</v>
       </c>
       <c r="L10" s="2">
-        <v>32.085102630381733</v>
+        <v>32.068081558297287</v>
       </c>
       <c r="M10" s="2">
-        <v>2.0750340057412542</v>
+        <v>2.1333129703732929</v>
       </c>
       <c r="N10" s="2">
-        <v>33.141403201969332</v>
+        <v>33.133092978499732</v>
       </c>
       <c r="O10" s="2">
-        <v>1.6597786884313379</v>
+        <v>1.6751713946456499</v>
       </c>
       <c r="P10" s="2">
-        <v>212.79344438965211</v>
+        <v>212.9230685599189</v>
       </c>
       <c r="Q10" s="2">
-        <v>5.8335385702314921</v>
+        <v>5.8418042569273538</v>
       </c>
       <c r="R10" s="2">
-        <v>1.8390475399961641</v>
+        <v>1.8379294232505969</v>
       </c>
       <c r="S10" s="2">
-        <v>0.18493384775184971</v>
+        <v>0.18279521626592971</v>
       </c>
       <c r="T10" s="2">
-        <v>12.88811152120322</v>
+        <v>12.889198978501719</v>
       </c>
       <c r="U10" s="2">
-        <v>0.4455176986142822</v>
+        <v>0.43538271602659612</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -6903,64 +6916,64 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>45.310525406476451</v>
+        <v>45.290350164608093</v>
       </c>
       <c r="C11" s="2">
-        <v>3.1823707640687831</v>
+        <v>3.220428417225035</v>
       </c>
       <c r="D11" s="2">
-        <v>345.68534039490442</v>
+        <v>345.63652680164972</v>
       </c>
       <c r="E11" s="2">
-        <v>7.9556612389811594</v>
+        <v>7.9025255274199049</v>
       </c>
       <c r="F11" s="2">
-        <v>4.4244244742106966</v>
+        <v>4.424062016941142</v>
       </c>
       <c r="G11" s="2">
-        <v>0.37844246127011261</v>
+        <v>0.38121511634459732</v>
       </c>
       <c r="H11" s="2">
-        <v>33.760397150574732</v>
+        <v>33.774141328380381</v>
       </c>
       <c r="I11" s="2">
-        <v>0.93890900605170247</v>
+        <v>0.93106446610789217</v>
       </c>
       <c r="J11" s="2">
-        <v>1.8681246786011301</v>
+        <v>1.846503707513141</v>
       </c>
       <c r="K11" s="2">
-        <v>2.27774978033219</v>
+        <v>2.2577801411838969</v>
       </c>
       <c r="L11" s="2">
-        <v>33.953227308983067</v>
+        <v>33.914585265810643</v>
       </c>
       <c r="M11" s="2">
-        <v>2.2250482078297171</v>
+        <v>2.204556693649474</v>
       </c>
       <c r="N11" s="2">
-        <v>35.105297919270463</v>
+        <v>35.05991708083458</v>
       </c>
       <c r="O11" s="2">
-        <v>1.7572610849229771</v>
+        <v>1.752153447941744</v>
       </c>
       <c r="P11" s="2">
-        <v>247.89874230892241</v>
+        <v>247.98298564075529</v>
       </c>
       <c r="Q11" s="2">
-        <v>6.4653504418658061</v>
+        <v>6.458489768360665</v>
       </c>
       <c r="R11" s="2">
-        <v>1.9415670578181159</v>
+        <v>1.9422706333874351</v>
       </c>
       <c r="S11" s="2">
-        <v>0.1958086504177281</v>
+        <v>0.19175340339239211</v>
       </c>
       <c r="T11" s="2">
-        <v>14.82967857902133</v>
+        <v>14.831469611889229</v>
       </c>
       <c r="U11" s="2">
-        <v>0.48599426732356898</v>
+        <v>0.47270792777921089</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -6968,64 +6981,64 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>47.671836074414102</v>
+        <v>47.653914121100733</v>
       </c>
       <c r="C12" s="2">
-        <v>3.401118657575636</v>
+        <v>3.3587475453049218</v>
       </c>
       <c r="D12" s="2">
-        <v>393.35717646931971</v>
+        <v>393.29044092274933</v>
       </c>
       <c r="E12" s="2">
-        <v>8.6433911690646088</v>
+        <v>8.5220459879218762</v>
       </c>
       <c r="F12" s="2">
-        <v>4.6557627537122626</v>
+        <v>4.6530599453929398</v>
       </c>
       <c r="G12" s="2">
-        <v>0.39996769485393219</v>
+        <v>0.40135289057269208</v>
       </c>
       <c r="H12" s="2">
-        <v>38.416159904287007</v>
+        <v>38.427201273773363</v>
       </c>
       <c r="I12" s="2">
-        <v>1.0196733688029791</v>
+        <v>1.0100255357436549</v>
       </c>
       <c r="J12" s="2">
-        <v>1.8515818575268119</v>
+        <v>1.859615041578583</v>
       </c>
       <c r="K12" s="2">
-        <v>2.418919319098801</v>
+        <v>2.375609483384908</v>
       </c>
       <c r="L12" s="2">
-        <v>35.804809166509713</v>
+        <v>35.774200307389137</v>
       </c>
       <c r="M12" s="2">
-        <v>2.3659022011031738</v>
+        <v>2.3656865441257748</v>
       </c>
       <c r="N12" s="2">
-        <v>37.054255093831252</v>
+        <v>36.999346055937522</v>
       </c>
       <c r="O12" s="2">
-        <v>1.838474145402389</v>
+        <v>1.857338679130649</v>
       </c>
       <c r="P12" s="2">
-        <v>284.95299740275283</v>
+        <v>284.98233169669021</v>
       </c>
       <c r="Q12" s="2">
-        <v>7.0794452061574837</v>
+        <v>7.0641228875485984</v>
       </c>
       <c r="R12" s="2">
-        <v>2.044200189160263</v>
+        <v>2.042003576683332</v>
       </c>
       <c r="S12" s="2">
-        <v>0.20150870978971119</v>
+        <v>0.20416616123431811</v>
       </c>
       <c r="T12" s="2">
-        <v>16.873878768181569</v>
+        <v>16.873473188572572</v>
       </c>
       <c r="U12" s="2">
-        <v>0.52560657210865436</v>
+        <v>0.52049265193919925</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -7033,64 +7046,64 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>2.385452737264762</v>
+        <v>2.3839521295560839</v>
       </c>
       <c r="C13" s="2">
-        <v>0.16892220301017</v>
+        <v>0.1682576335971073</v>
       </c>
       <c r="D13" s="2">
-        <v>395.74262920658367</v>
+        <v>395.67439305230579</v>
       </c>
       <c r="E13" s="2">
-        <v>8.6447170594493006</v>
+        <v>8.5252235994079477</v>
       </c>
       <c r="F13" s="2">
-        <v>0.23299609483632461</v>
+        <v>0.2326799226030139</v>
       </c>
       <c r="G13" s="2">
-        <v>2.045538334038292E-2</v>
+        <v>1.9969766004334699E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>38.649155999123373</v>
+        <v>38.659881196376404</v>
       </c>
       <c r="I13" s="2">
-        <v>1.0196245489516511</v>
+        <v>1.0099775382370111</v>
       </c>
       <c r="J13" s="2">
-        <v>-21.3558958117526</v>
+        <v>-21.333209979411521</v>
       </c>
       <c r="K13" s="2">
-        <v>1.3741121568618959</v>
+        <v>1.37279285907333</v>
       </c>
       <c r="L13" s="2">
-        <v>14.448913354756931</v>
+        <v>14.440990327977561</v>
       </c>
       <c r="M13" s="2">
-        <v>1.281197409108491</v>
+        <v>1.279663385576034</v>
       </c>
       <c r="N13" s="2">
-        <v>23.30159422054745</v>
+        <v>23.275153384326469</v>
       </c>
       <c r="O13" s="2">
-        <v>1.370867158578331</v>
+        <v>1.371141784615842</v>
       </c>
       <c r="P13" s="2">
-        <v>308.2545916232994</v>
+        <v>308.25748508101867</v>
       </c>
       <c r="Q13" s="2">
-        <v>7.5770011786841138</v>
+        <v>7.5638797683442869</v>
       </c>
       <c r="R13" s="2">
-        <v>0.10243581777027159</v>
+        <v>0.102214395584509</v>
       </c>
       <c r="S13" s="2">
-        <v>1.03960134190661E-2</v>
+        <v>1.021378059337668E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>16.976314585951851</v>
+        <v>16.97568758415704</v>
       </c>
       <c r="U13" s="2">
-        <v>0.52565814767267816</v>
+        <v>0.52053143632714549</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -7098,64 +7111,64 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>52.436650090474927</v>
+        <v>52.425717084502473</v>
       </c>
       <c r="C14" s="2">
-        <v>3.7168810610240008</v>
+        <v>3.644877917704668</v>
       </c>
       <c r="D14" s="2">
-        <v>448.17927929705888</v>
+        <v>448.10011013680821</v>
       </c>
       <c r="E14" s="2">
-        <v>9.4109826368422951</v>
+        <v>9.2607755014103592</v>
       </c>
       <c r="F14" s="2">
-        <v>5.1213759855731391</v>
+        <v>5.1126823651372932</v>
       </c>
       <c r="G14" s="2">
-        <v>0.45022253687150249</v>
+        <v>0.44333415731244641</v>
       </c>
       <c r="H14" s="2">
-        <v>43.770531984696397</v>
+        <v>43.772563561513699</v>
       </c>
       <c r="I14" s="2">
-        <v>1.1137010907960661</v>
+        <v>1.106991509662582</v>
       </c>
       <c r="J14" s="2">
-        <v>16.590019545294279</v>
+        <v>16.548451359126851</v>
       </c>
       <c r="K14" s="2">
-        <v>2.3293958326614721</v>
+        <v>2.30361870217591</v>
       </c>
       <c r="L14" s="2">
-        <v>31.038932900051339</v>
+        <v>30.98944168710446</v>
       </c>
       <c r="M14" s="2">
-        <v>2.3497551663743521</v>
+        <v>2.334162372520459</v>
       </c>
       <c r="N14" s="2">
-        <v>26.189733506846888</v>
+        <v>26.151161537151289</v>
       </c>
       <c r="O14" s="2">
-        <v>1.591084456156485</v>
+        <v>1.5776876417072929</v>
       </c>
       <c r="P14" s="2">
-        <v>334.44432513014658</v>
+        <v>334.4086466181713</v>
       </c>
       <c r="Q14" s="2">
-        <v>7.9045489308013117</v>
+        <v>7.8735301889363258</v>
       </c>
       <c r="R14" s="2">
-        <v>2.251060369729089</v>
+        <v>2.2471387013998521</v>
       </c>
       <c r="S14" s="2">
-        <v>0.2295509220928913</v>
+        <v>0.2232915628209346</v>
       </c>
       <c r="T14" s="2">
-        <v>19.227374955681029</v>
+        <v>19.222826285557041</v>
       </c>
       <c r="U14" s="2">
-        <v>0.57058360558021792</v>
+        <v>0.56200551844353575</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -7163,64 +7176,64 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>54.856089229910282</v>
+        <v>54.853506929004567</v>
       </c>
       <c r="C15" s="2">
-        <v>3.8833258241146109</v>
+        <v>3.8712118025555342</v>
       </c>
       <c r="D15" s="2">
-        <v>503.03536852696772</v>
+        <v>502.95361706581122</v>
       </c>
       <c r="E15" s="2">
-        <v>10.16453472666066</v>
+        <v>10.05383916698174</v>
       </c>
       <c r="F15" s="2">
-        <v>5.358291673727682</v>
+        <v>5.3582294124709318</v>
       </c>
       <c r="G15" s="2">
-        <v>0.46873540634343569</v>
+        <v>0.45857200656757541</v>
       </c>
       <c r="H15" s="2">
-        <v>49.128823658424373</v>
+        <v>49.130792973984597</v>
       </c>
       <c r="I15" s="2">
-        <v>1.2113743543967119</v>
+        <v>1.196874887724257</v>
       </c>
       <c r="J15" s="2">
-        <v>7.0604470293912671</v>
+        <v>7.0837933771159838</v>
       </c>
       <c r="K15" s="2">
-        <v>2.733162547571089</v>
+        <v>2.7259885813491551</v>
       </c>
       <c r="L15" s="2">
-        <v>38.099379929442676</v>
+        <v>38.073235064220363</v>
       </c>
       <c r="M15" s="2">
-        <v>2.575560785877967</v>
+        <v>2.5791490626839169</v>
       </c>
       <c r="N15" s="2">
-        <v>37.660680989927748</v>
+        <v>37.623792019682341</v>
       </c>
       <c r="O15" s="2">
-        <v>2.1105013447371261</v>
+        <v>2.101452833817024</v>
       </c>
       <c r="P15" s="2">
-        <v>372.10500612007502</v>
+        <v>372.03243863785212</v>
       </c>
       <c r="Q15" s="2">
-        <v>8.4455475100063548</v>
+        <v>8.4036544194210574</v>
       </c>
       <c r="R15" s="2">
-        <v>2.355420737283616</v>
+        <v>2.3542633563639561</v>
       </c>
       <c r="S15" s="2">
-        <v>0.23672392903317149</v>
+        <v>0.23243015495307601</v>
       </c>
       <c r="T15" s="2">
-        <v>21.58279569296452</v>
+        <v>21.577089641920949</v>
       </c>
       <c r="U15" s="2">
-        <v>0.61920206048447712</v>
+        <v>0.60450447182699751</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -7228,64 +7241,64 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>57.178446238583817</v>
+        <v>57.227254724035078</v>
       </c>
       <c r="C16" s="2">
-        <v>4.0997342249291737</v>
+        <v>4.0737852815564288</v>
       </c>
       <c r="D16" s="2">
-        <v>560.21381476555314</v>
+        <v>560.18087178984649</v>
       </c>
       <c r="E16" s="2">
-        <v>10.92121324668196</v>
+        <v>10.836338059346341</v>
       </c>
       <c r="F16" s="2">
-        <v>5.5832270012016503</v>
+        <v>5.5942383299008096</v>
       </c>
       <c r="G16" s="2">
-        <v>0.48471529395319801</v>
+        <v>0.48367248434825039</v>
       </c>
       <c r="H16" s="2">
-        <v>54.712050659625817</v>
+        <v>54.725031303885437</v>
       </c>
       <c r="I16" s="2">
-        <v>1.3030408908377979</v>
+        <v>1.2860546666138879</v>
       </c>
       <c r="J16" s="2">
-        <v>3.7999258684561359</v>
+        <v>3.9106217598548429</v>
       </c>
       <c r="K16" s="2">
-        <v>2.917108630936907</v>
+        <v>2.8987006629697931</v>
       </c>
       <c r="L16" s="2">
-        <v>41.899305797898982</v>
+        <v>41.983856824075353</v>
       </c>
       <c r="M16" s="2">
-        <v>2.7847649386960511</v>
+        <v>2.7729361760445639</v>
       </c>
       <c r="N16" s="2">
-        <v>42.818698010495588</v>
+        <v>42.82248098505913</v>
       </c>
       <c r="O16" s="2">
-        <v>2.2399881215367028</v>
+        <v>2.215233290231641</v>
       </c>
       <c r="P16" s="2">
-        <v>414.92370413057171</v>
+        <v>414.85491962291047</v>
       </c>
       <c r="Q16" s="2">
-        <v>9.1055496724312306</v>
+        <v>9.0164084636410937</v>
       </c>
       <c r="R16" s="2">
-        <v>2.453918393204948</v>
+        <v>2.4591212332009982</v>
       </c>
       <c r="S16" s="2">
-        <v>0.24529596112360841</v>
+        <v>0.24567084480779919</v>
       </c>
       <c r="T16" s="2">
-        <v>24.036714086169571</v>
+        <v>24.03621087512186</v>
       </c>
       <c r="U16" s="2">
-        <v>0.66835617083017207</v>
+        <v>0.64441008510396203</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -7293,64 +7306,64 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>59.542789762601281</v>
+        <v>59.601801326696453</v>
       </c>
       <c r="C17" s="2">
-        <v>4.2120871740391559</v>
+        <v>4.2036782408254183</v>
       </c>
       <c r="D17" s="2">
-        <v>619.75660452815202</v>
+        <v>619.78267311654224</v>
       </c>
       <c r="E17" s="2">
-        <v>11.682583557981779</v>
+        <v>11.675479601510681</v>
       </c>
       <c r="F17" s="2">
-        <v>5.8136042563871229</v>
+        <v>5.8233387222773079</v>
       </c>
       <c r="G17" s="2">
-        <v>0.50235542839811353</v>
+        <v>0.5049284314887732</v>
       </c>
       <c r="H17" s="2">
-        <v>60.525654916013053</v>
+        <v>60.548370026162573</v>
       </c>
       <c r="I17" s="2">
-        <v>1.394363828478981</v>
+        <v>1.387335537923188</v>
       </c>
       <c r="J17" s="2">
-        <v>2.5629570524190721</v>
+        <v>2.5745793343982468</v>
       </c>
       <c r="K17" s="2">
-        <v>3.017690454436639</v>
+        <v>3.0068591210603519</v>
       </c>
       <c r="L17" s="2">
-        <v>44.462262850317742</v>
+        <v>44.558436158473633</v>
       </c>
       <c r="M17" s="2">
-        <v>2.9325229901382488</v>
+        <v>2.9720723137088649</v>
       </c>
       <c r="N17" s="2">
-        <v>45.951885135556708</v>
+        <v>46.030932549757608</v>
       </c>
       <c r="O17" s="2">
-        <v>2.3756261266651229</v>
+        <v>2.3634719884198878</v>
       </c>
       <c r="P17" s="2">
-        <v>460.87558926612678</v>
+        <v>460.88585217266979</v>
       </c>
       <c r="Q17" s="2">
-        <v>9.8159883292970296</v>
+        <v>9.7371703047600509</v>
       </c>
       <c r="R17" s="2">
-        <v>2.5553813044075562</v>
+        <v>2.5575000655969289</v>
       </c>
       <c r="S17" s="2">
-        <v>0.25332270817364178</v>
+        <v>0.25669126830155448</v>
       </c>
       <c r="T17" s="2">
-        <v>26.592095390577121</v>
+        <v>26.593710940718839</v>
       </c>
       <c r="U17" s="2">
-        <v>0.71610293180811524</v>
+        <v>0.69752595494907732</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -7358,64 +7371,64 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>62.042950877965431</v>
+        <v>62.030883606787363</v>
       </c>
       <c r="C18" s="2">
-        <v>4.4143873236636422</v>
+        <v>4.4101970884649857</v>
       </c>
       <c r="D18" s="2">
-        <v>681.79955540611832</v>
+        <v>681.81355672333166</v>
       </c>
       <c r="E18" s="2">
-        <v>12.49892952339882</v>
+        <v>12.468318762468421</v>
       </c>
       <c r="F18" s="2">
-        <v>6.0539754839945648</v>
+        <v>6.0524652681935898</v>
       </c>
       <c r="G18" s="2">
-        <v>0.52923324107053993</v>
+        <v>0.52511229540060245</v>
       </c>
       <c r="H18" s="2">
-        <v>66.579630400007716</v>
+        <v>66.600835294356401</v>
       </c>
       <c r="I18" s="2">
-        <v>1.496302312053116</v>
+        <v>1.486303519558442</v>
       </c>
       <c r="J18" s="2">
-        <v>2.1786821052826228</v>
+        <v>2.122156798888942</v>
       </c>
       <c r="K18" s="2">
-        <v>3.183425307909463</v>
+        <v>3.1581173441571302</v>
       </c>
       <c r="L18" s="2">
-        <v>46.640944955600673</v>
+        <v>46.680592957362329</v>
       </c>
       <c r="M18" s="2">
-        <v>3.0526079997377149</v>
+        <v>3.081767081271773</v>
       </c>
       <c r="N18" s="2">
-        <v>48.358444163901709</v>
+        <v>48.426599969717991</v>
       </c>
       <c r="O18" s="2">
-        <v>2.4294216799328399</v>
+        <v>2.467919114222954</v>
       </c>
       <c r="P18" s="2">
-        <v>509.23403343003201</v>
+        <v>509.31245214238709</v>
       </c>
       <c r="Q18" s="2">
-        <v>10.555006080344</v>
+        <v>10.517166072178281</v>
       </c>
       <c r="R18" s="2">
-        <v>2.6617086181877512</v>
+        <v>2.6608827970366802</v>
       </c>
       <c r="S18" s="2">
-        <v>0.26686746693219671</v>
+        <v>0.26822682547848131</v>
       </c>
       <c r="T18" s="2">
-        <v>29.25380400876471</v>
+        <v>29.25459373775535</v>
       </c>
       <c r="U18" s="2">
-        <v>0.762837921516205</v>
+        <v>0.74631562762204107</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -7423,64 +7436,64 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>64.314049767430404</v>
+        <v>64.332210374472936</v>
       </c>
       <c r="C19" s="2">
-        <v>4.5468878843399407</v>
+        <v>4.4886187103492947</v>
       </c>
       <c r="D19" s="2">
-        <v>746.11360517355024</v>
+        <v>746.14576709780329</v>
       </c>
       <c r="E19" s="2">
-        <v>13.358778136212321</v>
+        <v>13.21354456854597</v>
       </c>
       <c r="F19" s="2">
-        <v>6.2847660990319554</v>
+        <v>6.2838976438400316</v>
       </c>
       <c r="G19" s="2">
-        <v>0.54891067721010434</v>
+        <v>0.54504066051070188</v>
       </c>
       <c r="H19" s="2">
-        <v>72.864396499039032</v>
+        <v>72.88473293819662</v>
       </c>
       <c r="I19" s="2">
-        <v>1.5991110661584771</v>
+        <v>1.5876323733370401</v>
       </c>
       <c r="J19" s="2">
-        <v>1.997212304823349</v>
+        <v>1.8912607919597511</v>
       </c>
       <c r="K19" s="2">
-        <v>3.275276062515148</v>
+        <v>3.243189832918818</v>
       </c>
       <c r="L19" s="2">
-        <v>48.638157260423782</v>
+        <v>48.571853749322017</v>
       </c>
       <c r="M19" s="2">
-        <v>3.1760911594198782</v>
+        <v>3.170761774718216</v>
       </c>
       <c r="N19" s="2">
-        <v>50.525866492010167</v>
+        <v>50.505196177099258</v>
       </c>
       <c r="O19" s="2">
-        <v>2.5196437837153689</v>
+        <v>2.531305365927655</v>
       </c>
       <c r="P19" s="2">
-        <v>559.7598999220387</v>
+        <v>559.81764831948715</v>
       </c>
       <c r="Q19" s="2">
-        <v>11.31420608965983</v>
+        <v>11.28849229126561</v>
       </c>
       <c r="R19" s="2">
-        <v>2.7647541670775251</v>
+        <v>2.7597417467969838</v>
       </c>
       <c r="S19" s="2">
-        <v>0.27744751431182341</v>
+        <v>0.27486966105025551</v>
       </c>
       <c r="T19" s="2">
-        <v>32.018558175842237</v>
+        <v>32.014335484552511</v>
       </c>
       <c r="U19" s="2">
-        <v>0.8130131090909245</v>
+        <v>0.79542112753324246</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -7488,64 +7501,64 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>66.712693991155334</v>
+        <v>66.702677713937689</v>
       </c>
       <c r="C20" s="2">
-        <v>4.6904509844557039</v>
+        <v>4.6921214116868457</v>
       </c>
       <c r="D20" s="2">
-        <v>812.82629916470614</v>
+        <v>812.84844481174071</v>
       </c>
       <c r="E20" s="2">
-        <v>14.07496605252881</v>
+        <v>14.07887375446554</v>
       </c>
       <c r="F20" s="2">
-        <v>6.5082342652571636</v>
+        <v>6.5193679020795487</v>
       </c>
       <c r="G20" s="2">
-        <v>0.55613559088214748</v>
+        <v>0.55968288784094866</v>
       </c>
       <c r="H20" s="2">
-        <v>79.372630764296545</v>
+        <v>79.404100840275447</v>
       </c>
       <c r="I20" s="2">
-        <v>1.6970000584813001</v>
+        <v>1.6825037929876989</v>
       </c>
       <c r="J20" s="2">
-        <v>1.8253147559669349</v>
+        <v>1.9120799488993709</v>
       </c>
       <c r="K20" s="2">
-        <v>3.3430552288739932</v>
+        <v>3.3494490416326852</v>
       </c>
       <c r="L20" s="2">
-        <v>50.463472016390789</v>
+        <v>50.483933698221662</v>
       </c>
       <c r="M20" s="2">
-        <v>3.2880545168214361</v>
+        <v>3.298202418547532</v>
       </c>
       <c r="N20" s="2">
-        <v>52.517789845062083</v>
+        <v>52.483480002414403</v>
       </c>
       <c r="O20" s="2">
-        <v>2.6097504831317719</v>
+        <v>2.6206538861598809</v>
       </c>
       <c r="P20" s="2">
-        <v>612.27768976710286</v>
+        <v>612.30112832189889</v>
       </c>
       <c r="Q20" s="2">
-        <v>12.053443373843599</v>
+        <v>12.027415507427721</v>
       </c>
       <c r="R20" s="2">
-        <v>2.8628360113636631</v>
+        <v>2.8636479213039259</v>
       </c>
       <c r="S20" s="2">
-        <v>0.28405170462757501</v>
+        <v>0.28954886210752512</v>
       </c>
       <c r="T20" s="2">
-        <v>34.88139418720592</v>
+        <v>34.877983405856448</v>
       </c>
       <c r="U20" s="2">
-        <v>0.86087756082907341</v>
+        <v>0.84877949646567397</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -7553,64 +7566,64 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>69.08109947043485</v>
+        <v>69.136104055345825</v>
       </c>
       <c r="C21" s="2">
-        <v>4.869684133020578</v>
+        <v>4.929552469695877</v>
       </c>
       <c r="D21" s="2">
-        <v>881.90739863514011</v>
+        <v>881.98454886708646</v>
       </c>
       <c r="E21" s="2">
-        <v>14.95476342265107</v>
+        <v>14.882163020932079</v>
       </c>
       <c r="F21" s="2">
-        <v>6.7527702512764982</v>
+        <v>6.7552571255653877</v>
       </c>
       <c r="G21" s="2">
-        <v>0.57555403985539011</v>
+        <v>0.58436892763505754</v>
       </c>
       <c r="H21" s="2">
-        <v>86.125401015573374</v>
+        <v>86.159357965841068</v>
       </c>
       <c r="I21" s="2">
-        <v>1.7958573981237189</v>
+        <v>1.7848089606752819</v>
       </c>
       <c r="J21" s="2">
-        <v>1.871658635224333</v>
+        <v>1.905075249127258</v>
       </c>
       <c r="K21" s="2">
-        <v>3.4708103343221142</v>
+        <v>3.4677635257978618</v>
       </c>
       <c r="L21" s="2">
-        <v>52.335130651615231</v>
+        <v>52.389008947348941</v>
       </c>
       <c r="M21" s="2">
-        <v>3.4272298212788401</v>
+        <v>3.455658172193985</v>
       </c>
       <c r="N21" s="2">
-        <v>54.496829965661348</v>
+        <v>54.495788197764583</v>
       </c>
       <c r="O21" s="2">
-        <v>2.7018880401379142</v>
+        <v>2.7377271076087282</v>
       </c>
       <c r="P21" s="2">
-        <v>666.774519732763</v>
+        <v>666.79691651966687</v>
       </c>
       <c r="Q21" s="2">
-        <v>12.7849199013834</v>
+        <v>12.77656422963658</v>
       </c>
       <c r="R21" s="2">
-        <v>2.9682847673470829</v>
+        <v>2.9698592946409019</v>
       </c>
       <c r="S21" s="2">
-        <v>0.29517009040113329</v>
+        <v>0.29916889555643872</v>
       </c>
       <c r="T21" s="2">
-        <v>37.849678954552978</v>
+        <v>37.847842700497253</v>
       </c>
       <c r="U21" s="2">
-        <v>0.90880357519718058</v>
+        <v>0.90130225833648614</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -7618,64 +7631,64 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>71.445390004928285</v>
+        <v>71.447196933256294</v>
       </c>
       <c r="C22" s="2">
-        <v>5.0783509860811069</v>
+        <v>5.1071711938296458</v>
       </c>
       <c r="D22" s="2">
-        <v>953.35278864006341</v>
+        <v>953.43174580034452</v>
       </c>
       <c r="E22" s="2">
-        <v>15.830998141126029</v>
+        <v>15.72026848010592</v>
       </c>
       <c r="F22" s="2">
-        <v>6.9853589277741088</v>
+        <v>6.9765025135365857</v>
       </c>
       <c r="G22" s="2">
-        <v>0.60080175866731955</v>
+        <v>0.60738399666901421</v>
       </c>
       <c r="H22" s="2">
-        <v>93.110759943347134</v>
+        <v>93.135860479377669</v>
       </c>
       <c r="I22" s="2">
-        <v>1.897384629777457</v>
+        <v>1.88796182857326</v>
       </c>
       <c r="J22" s="2">
-        <v>1.871457689910305</v>
+        <v>1.837586292502001</v>
       </c>
       <c r="K22" s="2">
-        <v>3.5818191725476538</v>
+        <v>3.6396507551767239</v>
       </c>
       <c r="L22" s="2">
-        <v>54.206588341525489</v>
+        <v>54.226595239850631</v>
       </c>
       <c r="M22" s="2">
-        <v>3.5177597608820488</v>
+        <v>3.5355238426219868</v>
       </c>
       <c r="N22" s="2">
-        <v>56.418611103087372</v>
+        <v>56.435479589261</v>
       </c>
       <c r="O22" s="2">
-        <v>2.8125848311262769</v>
+        <v>2.821888358399844</v>
       </c>
       <c r="P22" s="2">
-        <v>723.19313083584859</v>
+        <v>723.23239610892642</v>
       </c>
       <c r="Q22" s="2">
-        <v>13.539731506544371</v>
+        <v>13.568962011311459</v>
       </c>
       <c r="R22" s="2">
-        <v>3.0680296452028961</v>
+        <v>3.0657415666440531</v>
       </c>
       <c r="S22" s="2">
-        <v>0.30723160602869032</v>
+        <v>0.30594626220233601</v>
       </c>
       <c r="T22" s="2">
-        <v>40.917708599756068</v>
+        <v>40.913584267141381</v>
       </c>
       <c r="U22" s="2">
-        <v>0.96052450582934157</v>
+        <v>0.95660144014977788</v>
       </c>
     </row>
   </sheetData>

--- a/case_study_results/Case_study_results_MC_mean.xlsx
+++ b/case_study_results/Case_study_results_MC_mean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656CEC28-7AE4-FB4D-BA19-7A0517070F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74682E8-6D50-DD4C-96A4-54B5CB46530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MC_FlowDict_Biomass" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,7 @@
     <sheet name="MC_FlowDict_Carbon" sheetId="3" r:id="rId3"/>
     <sheet name="MC_StockDict_Carbon" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -596,14 +583,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="31" width="9" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -705,88 +684,88 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>97.681485564808384</v>
+        <v>97.727150249342245</v>
       </c>
       <c r="C2" s="2">
-        <v>4.8810400210425158</v>
+        <v>4.8823298125399646</v>
       </c>
       <c r="D2" s="2">
-        <v>47.660225994812343</v>
+        <v>47.705753115107058</v>
       </c>
       <c r="E2" s="2">
-        <v>3.3501738893114941</v>
+        <v>3.3440706868455949</v>
       </c>
       <c r="F2" s="2">
-        <v>47.686828077478978</v>
+        <v>47.716471051412732</v>
       </c>
       <c r="G2" s="2">
-        <v>3.41184200072904</v>
+        <v>3.3626881051371709</v>
       </c>
       <c r="H2" s="2">
-        <v>13.96535310853441</v>
+        <v>13.999433045073371</v>
       </c>
       <c r="I2" s="2">
-        <v>1.2240739923300521</v>
+        <v>1.2141780028936171</v>
       </c>
       <c r="J2" s="2">
-        <v>13.973099075242979</v>
+        <v>13.974130965160869</v>
       </c>
       <c r="K2" s="2">
-        <v>1.208589123188883</v>
+        <v>1.2016324347628671</v>
       </c>
       <c r="L2" s="2">
-        <v>4.6558515738085866</v>
+        <v>4.6570593659216462</v>
       </c>
       <c r="M2" s="2">
-        <v>0.40097178121146659</v>
+        <v>0.40536189082261359</v>
       </c>
       <c r="N2" s="2">
-        <v>9.3120287408356113</v>
+        <v>9.331112807058064</v>
       </c>
       <c r="O2" s="2">
-        <v>0.81613612094706955</v>
+        <v>0.80747421352029891</v>
       </c>
       <c r="P2" s="2">
-        <v>4.6538937457122911</v>
+        <v>4.6610575367831721</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.40641228111807359</v>
+        <v>0.40478595444020071</v>
       </c>
       <c r="R2" s="2">
-        <v>13.65034253616057</v>
+        <v>13.678052406415469</v>
       </c>
       <c r="S2" s="2">
-        <v>1.380796885724054</v>
+        <v>1.372198390138136</v>
       </c>
       <c r="T2" s="2">
-        <v>9.549404430930748</v>
+        <v>9.5504303135574133</v>
       </c>
       <c r="U2" s="2">
-        <v>0.95443524058740659</v>
+        <v>0.94979779958064769</v>
       </c>
       <c r="V2" s="2">
-        <v>2.0473056076561842</v>
+        <v>2.046271141771673</v>
       </c>
       <c r="W2" s="2">
-        <v>0.204934095314945</v>
+        <v>0.2042165285475718</v>
       </c>
       <c r="X2" s="2">
-        <v>2.0472943296256569</v>
+        <v>2.0456591699557638</v>
       </c>
       <c r="Y2" s="2">
-        <v>0.20434388340317111</v>
+        <v>0.2044348388148296</v>
       </c>
       <c r="Z2" s="2">
-        <v>4.5507817503776558</v>
+        <v>4.5497665326272978</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.45030176852623782</v>
+        <v>0.46133474527976731</v>
       </c>
       <c r="AB2" s="2">
-        <v>9.0898336993969835</v>
+        <v>9.1159926725602727</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.9137003993934012</v>
+        <v>0.91552441855389344</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -800,94 +779,94 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>107.3689953804649</v>
+        <v>107.33119054096819</v>
       </c>
       <c r="C3" s="2">
-        <v>5.3849160772749132</v>
+        <v>5.4217582746788988</v>
       </c>
       <c r="D3" s="2">
-        <v>52.422054798665933</v>
+        <v>52.436210198709659</v>
       </c>
       <c r="E3" s="2">
-        <v>3.742894461307412</v>
+        <v>3.710071885667908</v>
       </c>
       <c r="F3" s="2">
-        <v>52.442361375026763</v>
+        <v>52.425147306553598</v>
       </c>
       <c r="G3" s="2">
-        <v>3.740857072980623</v>
+        <v>3.733625205864187</v>
       </c>
       <c r="H3" s="2">
-        <v>15.36724586275581</v>
+        <v>15.360185608601499</v>
       </c>
       <c r="I3" s="2">
-        <v>1.3367853529903659</v>
+        <v>1.337014522739062</v>
       </c>
       <c r="J3" s="2">
-        <v>15.34427090178955</v>
+        <v>15.36520536573704</v>
       </c>
       <c r="K3" s="2">
-        <v>1.3463203117112701</v>
+        <v>1.336465958307457</v>
       </c>
       <c r="L3" s="2">
-        <v>5.1190590482025016</v>
+        <v>5.1186818496660456</v>
       </c>
       <c r="M3" s="2">
-        <v>0.44560401411680212</v>
+        <v>0.44696067802953821</v>
       </c>
       <c r="N3" s="2">
-        <v>10.237467480926091</v>
+        <v>10.244861904030889</v>
       </c>
       <c r="O3" s="2">
-        <v>0.89566988779977708</v>
+        <v>0.89589430021912908</v>
       </c>
       <c r="P3" s="2">
-        <v>5.1221944336542444</v>
+        <v>5.1211541405378176</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.44633093925054418</v>
+        <v>0.44630409914697622</v>
       </c>
       <c r="R3" s="2">
-        <v>15.00018379586942</v>
+        <v>14.99266620942476</v>
       </c>
       <c r="S3" s="2">
-        <v>1.502354394313117</v>
+        <v>1.5150863953163509</v>
       </c>
       <c r="T3" s="2">
-        <v>10.488528612536671</v>
+        <v>10.498638976003569</v>
       </c>
       <c r="U3" s="2">
-        <v>1.0535009632514409</v>
+        <v>1.0513957111838541</v>
       </c>
       <c r="V3" s="2">
-        <v>2.2483489634643941</v>
+        <v>2.2500884224853168</v>
       </c>
       <c r="W3" s="2">
-        <v>0.2272385105694659</v>
+        <v>0.22566907431889699</v>
       </c>
       <c r="X3" s="2">
-        <v>2.248668212211284</v>
+        <v>2.2515621291379229</v>
       </c>
       <c r="Y3" s="2">
-        <v>0.2276957355094818</v>
+        <v>0.22790720082378729</v>
       </c>
       <c r="Z3" s="2">
-        <v>4.9968595609359179</v>
+        <v>5.0002916369880177</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.50471250151885616</v>
+        <v>0.50802563407748891</v>
       </c>
       <c r="AB3" s="2">
-        <v>9.9949649140581815</v>
+        <v>10.008439535488121</v>
       </c>
       <c r="AC3" s="2">
-        <v>1.00956900566862</v>
+        <v>1.008330850894793</v>
       </c>
       <c r="AD3" s="2">
-        <v>7.3768575912455816</v>
+        <v>7.3611907586088972</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.6789996595180825</v>
+        <v>0.680206067924777</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -895,94 +874,94 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>117.2008975008</v>
+        <v>117.10384438444039</v>
       </c>
       <c r="C4" s="2">
-        <v>5.9829315063018944</v>
+        <v>5.7931691534829994</v>
       </c>
       <c r="D4" s="2">
-        <v>57.257319142294207</v>
+        <v>57.200861143503047</v>
       </c>
       <c r="E4" s="2">
-        <v>4.0935649335307964</v>
+        <v>4.0438891364278504</v>
       </c>
       <c r="F4" s="2">
-        <v>57.292141298113627</v>
+        <v>57.17639119892722</v>
       </c>
       <c r="G4" s="2">
-        <v>4.0958792489437057</v>
+        <v>4.0150743867014391</v>
       </c>
       <c r="H4" s="2">
-        <v>16.783559507425348</v>
+        <v>16.761379646260529</v>
       </c>
       <c r="I4" s="2">
-        <v>1.473069453554456</v>
+        <v>1.442914839313566</v>
       </c>
       <c r="J4" s="2">
-        <v>16.775404803174389</v>
+        <v>16.750403685174408</v>
       </c>
       <c r="K4" s="2">
-        <v>1.465794027300668</v>
+        <v>1.450475977455244</v>
       </c>
       <c r="L4" s="2">
-        <v>5.5960533648531046</v>
+        <v>5.5771120100195946</v>
       </c>
       <c r="M4" s="2">
-        <v>0.48607347371015919</v>
+        <v>0.48374124506809918</v>
       </c>
       <c r="N4" s="2">
-        <v>11.186035736739971</v>
+        <v>11.169318145151941</v>
       </c>
       <c r="O4" s="2">
-        <v>0.97361173125826828</v>
+        <v>0.96786162744508208</v>
       </c>
       <c r="P4" s="2">
-        <v>5.5968563172856429</v>
+        <v>5.5850132399250088</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.48793681308133019</v>
+        <v>0.48151338335313892</v>
       </c>
       <c r="R4" s="2">
-        <v>16.394172915011591</v>
+        <v>16.34761600947817</v>
       </c>
       <c r="S4" s="2">
-        <v>1.660966174220061</v>
+        <v>1.624133408008934</v>
       </c>
       <c r="T4" s="2">
-        <v>11.456023665741929</v>
+        <v>11.44995814151607</v>
       </c>
       <c r="U4" s="2">
-        <v>1.150512902456807</v>
+        <v>1.154822501493002</v>
       </c>
       <c r="V4" s="2">
-        <v>2.4585624249091591</v>
+        <v>2.4539310117528408</v>
       </c>
       <c r="W4" s="2">
-        <v>0.24893277675357231</v>
+        <v>0.2462096718438605</v>
       </c>
       <c r="X4" s="2">
-        <v>2.4570424668450821</v>
+        <v>2.451019579887824</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.24605400078685249</v>
+        <v>0.24383917485978521</v>
       </c>
       <c r="Z4" s="2">
-        <v>5.4657081025411376</v>
+        <v>5.4505899426069897</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.54839219179174636</v>
+        <v>0.54536473859561096</v>
       </c>
       <c r="AB4" s="2">
-        <v>10.90652973580635</v>
+        <v>10.901796600710099</v>
       </c>
       <c r="AC4" s="2">
-        <v>1.092462200285085</v>
+        <v>1.092198766516606</v>
       </c>
       <c r="AD4" s="2">
-        <v>10.735454747031319</v>
+        <v>10.700433445981581</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.74956104979811067</v>
+        <v>0.76264902067640994</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -990,94 +969,94 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>126.9209988759885</v>
+        <v>126.9243410494573</v>
       </c>
       <c r="C5" s="2">
-        <v>6.3315900280719024</v>
+        <v>6.3595958159293362</v>
       </c>
       <c r="D5" s="2">
-        <v>61.949649506431221</v>
+        <v>61.957634785297628</v>
       </c>
       <c r="E5" s="2">
-        <v>4.4057131759736414</v>
+        <v>4.3667196909190702</v>
       </c>
       <c r="F5" s="2">
-        <v>61.924159385262897</v>
+        <v>62.031057496371837</v>
       </c>
       <c r="G5" s="2">
-        <v>4.3663139075072426</v>
+        <v>4.3499129532798069</v>
       </c>
       <c r="H5" s="2">
-        <v>18.144503691109371</v>
+        <v>18.16022392079676</v>
       </c>
       <c r="I5" s="2">
-        <v>1.554772907814586</v>
+        <v>1.5641685826209599</v>
       </c>
       <c r="J5" s="2">
-        <v>18.152162009670921</v>
+        <v>18.17189295640307</v>
       </c>
       <c r="K5" s="2">
-        <v>1.564805338964957</v>
+        <v>1.5549091251804199</v>
       </c>
       <c r="L5" s="2">
-        <v>6.0476914392195349</v>
+        <v>6.0559302055647466</v>
       </c>
       <c r="M5" s="2">
-        <v>0.51905894697995947</v>
+        <v>0.52825963692104849</v>
       </c>
       <c r="N5" s="2">
-        <v>12.086583075368999</v>
+        <v>12.103035743232891</v>
       </c>
       <c r="O5" s="2">
-        <v>1.036212555172032</v>
+        <v>1.034097957790963</v>
       </c>
       <c r="P5" s="2">
-        <v>6.0458088310121934</v>
+        <v>6.0551973917095756</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.52646482216496715</v>
+        <v>0.52156488503954068</v>
       </c>
       <c r="R5" s="2">
-        <v>17.716033604339021</v>
+        <v>17.727772219028392</v>
       </c>
       <c r="S5" s="2">
-        <v>1.751071468672674</v>
+        <v>1.7782602136642121</v>
       </c>
       <c r="T5" s="2">
-        <v>12.411581264259191</v>
+        <v>12.410305384992499</v>
       </c>
       <c r="U5" s="2">
-        <v>1.2422102084123821</v>
+        <v>1.228734030924205</v>
       </c>
       <c r="V5" s="2">
-        <v>2.659907521428456</v>
+        <v>2.6626916229539841</v>
       </c>
       <c r="W5" s="2">
-        <v>0.2644584751861081</v>
+        <v>0.26238997956245241</v>
       </c>
       <c r="X5" s="2">
-        <v>2.656067818602589</v>
+        <v>2.6634923682493801</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.26478984260305921</v>
+        <v>0.26630824149060328</v>
       </c>
       <c r="Z5" s="2">
-        <v>5.9037815919903611</v>
+        <v>5.9221067143302406</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.58132482429290644</v>
+        <v>0.60061438233679454</v>
       </c>
       <c r="AB5" s="2">
-        <v>11.80810328951747</v>
+        <v>11.81187799975527</v>
       </c>
       <c r="AC5" s="2">
-        <v>1.1734249925574101</v>
+        <v>1.1692749427115821</v>
       </c>
       <c r="AD5" s="2">
-        <v>12.729835349752131</v>
+        <v>12.700708517156521</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.81756893063494773</v>
+        <v>0.82117791531847617</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -1085,94 +1064,94 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>136.70096561321131</v>
+        <v>136.7126949147152</v>
       </c>
       <c r="C6" s="2">
-        <v>6.913417332176877</v>
+        <v>6.8249797972646808</v>
       </c>
       <c r="D6" s="2">
-        <v>66.825151437325218</v>
+        <v>66.746354533200517</v>
       </c>
       <c r="E6" s="2">
-        <v>4.7044551183556136</v>
+        <v>4.6927302907365078</v>
       </c>
       <c r="F6" s="2">
-        <v>66.717711242063444</v>
+        <v>66.685255388354904</v>
       </c>
       <c r="G6" s="2">
-        <v>4.7067612197741306</v>
+        <v>4.7341865039105029</v>
       </c>
       <c r="H6" s="2">
-        <v>19.546847079511789</v>
+        <v>19.546446615571892</v>
       </c>
       <c r="I6" s="2">
-        <v>1.6956802710833589</v>
+        <v>1.6945171961392149</v>
       </c>
       <c r="J6" s="2">
-        <v>19.544584612852741</v>
+        <v>19.524631598138509</v>
       </c>
       <c r="K6" s="2">
-        <v>1.686152826936258</v>
+        <v>1.684019296249843</v>
       </c>
       <c r="L6" s="2">
-        <v>6.5182521183993378</v>
+        <v>6.5108834968894227</v>
       </c>
       <c r="M6" s="2">
-        <v>0.56298246378162031</v>
+        <v>0.56698026501880472</v>
       </c>
       <c r="N6" s="2">
-        <v>13.02860598806342</v>
+        <v>13.02993958198606</v>
       </c>
       <c r="O6" s="2">
-        <v>1.1340780410203519</v>
+        <v>1.135710205943808</v>
       </c>
       <c r="P6" s="2">
-        <v>6.5146034216308841</v>
+        <v>6.5109480483732289</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.56915514040194715</v>
+        <v>0.56739468439309404</v>
       </c>
       <c r="R6" s="2">
-        <v>19.088725746929899</v>
+        <v>19.091091694967449</v>
       </c>
       <c r="S6" s="2">
-        <v>1.9030857439857709</v>
+        <v>1.904597590033146</v>
       </c>
       <c r="T6" s="2">
-        <v>13.35699504270722</v>
+        <v>13.343724753253801</v>
       </c>
       <c r="U6" s="2">
-        <v>1.330094308945746</v>
+        <v>1.3269465308853019</v>
       </c>
       <c r="V6" s="2">
-        <v>2.863693906771835</v>
+        <v>2.8603816376606139</v>
       </c>
       <c r="W6" s="2">
-        <v>0.2871630257710559</v>
+        <v>0.28448018855834589</v>
       </c>
       <c r="X6" s="2">
-        <v>2.8616955009519218</v>
+        <v>2.8617219352299199</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.28603860504829431</v>
+        <v>0.28609268437888358</v>
       </c>
       <c r="Z6" s="2">
-        <v>6.3672506247840266</v>
+        <v>6.360749638462301</v>
       </c>
       <c r="AA6" s="2">
-        <v>0.63381155666336886</v>
+        <v>0.63622462517942568</v>
       </c>
       <c r="AB6" s="2">
-        <v>12.737263606154221</v>
+        <v>12.731764799435849</v>
       </c>
       <c r="AC6" s="2">
-        <v>1.287166216493886</v>
+        <v>1.2770274604461109</v>
       </c>
       <c r="AD6" s="2">
-        <v>14.193292177717559</v>
+        <v>14.18965788944455</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.89703096193452636</v>
+        <v>0.88915611646762538</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1180,94 +1159,94 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>146.4099132145956</v>
+        <v>146.5586408084846</v>
       </c>
       <c r="C7" s="2">
-        <v>7.3373228732549496</v>
+        <v>7.279465147791802</v>
       </c>
       <c r="D7" s="2">
-        <v>71.498713361492818</v>
+        <v>71.509944160235847</v>
       </c>
       <c r="E7" s="2">
-        <v>5.055125473759829</v>
+        <v>5.0474330130424523</v>
       </c>
       <c r="F7" s="2">
-        <v>71.440549447363125</v>
+        <v>71.585236353748414</v>
       </c>
       <c r="G7" s="2">
-        <v>5.0427718099506667</v>
+        <v>5.0375801675497609</v>
       </c>
       <c r="H7" s="2">
-        <v>20.932154698597159</v>
+        <v>20.953832607520422</v>
       </c>
       <c r="I7" s="2">
-        <v>1.82283017566866</v>
+        <v>1.793750348743524</v>
       </c>
       <c r="J7" s="2">
-        <v>20.94719497782237</v>
+        <v>20.957009181920231</v>
       </c>
       <c r="K7" s="2">
-        <v>1.7992491969965509</v>
+        <v>1.821723351865379</v>
       </c>
       <c r="L7" s="2">
-        <v>6.9687848752574721</v>
+        <v>6.9923053493617813</v>
       </c>
       <c r="M7" s="2">
-        <v>0.6008356502797163</v>
+        <v>0.60887205729729044</v>
       </c>
       <c r="N7" s="2">
-        <v>13.956256583409029</v>
+        <v>13.990292633715359</v>
       </c>
       <c r="O7" s="2">
-        <v>1.2162802295983779</v>
+        <v>1.2185129031084689</v>
       </c>
       <c r="P7" s="2">
-        <v>6.9740612886170039</v>
+        <v>6.9856387253716257</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.59637870499688528</v>
+        <v>0.60047229673951552</v>
       </c>
       <c r="R7" s="2">
-        <v>20.44716846144863</v>
+        <v>20.4603660142295</v>
       </c>
       <c r="S7" s="2">
-        <v>2.0477594410481879</v>
+        <v>2.0209976872258082</v>
       </c>
       <c r="T7" s="2">
-        <v>14.32396664250251</v>
+        <v>14.32262222460143</v>
       </c>
       <c r="U7" s="2">
-        <v>1.4303340560299429</v>
+        <v>1.4346188703772531</v>
       </c>
       <c r="V7" s="2">
-        <v>3.0701808076674268</v>
+        <v>3.071843418586969</v>
       </c>
       <c r="W7" s="2">
-        <v>0.30201806704110679</v>
+        <v>0.30743345238629222</v>
       </c>
       <c r="X7" s="2">
-        <v>3.0668741613731112</v>
+        <v>3.0695634887416579</v>
       </c>
       <c r="Y7" s="2">
-        <v>0.30107784640248741</v>
+        <v>0.306943113525533</v>
       </c>
       <c r="Z7" s="2">
-        <v>6.8050117617844972</v>
+        <v>6.8232742064653893</v>
       </c>
       <c r="AA7" s="2">
-        <v>0.68060471102964359</v>
+        <v>0.68343428139420415</v>
       </c>
       <c r="AB7" s="2">
-        <v>13.63047532236715</v>
+        <v>13.665550119725991</v>
       </c>
       <c r="AC7" s="2">
-        <v>1.3603186432731711</v>
+        <v>1.3692148475578949</v>
       </c>
       <c r="AD7" s="2">
-        <v>15.475497676234321</v>
+        <v>15.461429466752691</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.94829156458831765</v>
+        <v>0.96051672409159028</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -1275,94 +1254,94 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>156.23565157220861</v>
+        <v>156.16766391845749</v>
       </c>
       <c r="C8" s="2">
-        <v>7.8336616607578113</v>
+        <v>7.7590600239687522</v>
       </c>
       <c r="D8" s="2">
-        <v>76.330931374452703</v>
+        <v>76.270292695695971</v>
       </c>
       <c r="E8" s="2">
-        <v>5.3458302577854431</v>
+        <v>5.4052795260461206</v>
       </c>
       <c r="F8" s="2">
-        <v>76.235003864419838</v>
+        <v>76.215467924059595</v>
       </c>
       <c r="G8" s="2">
-        <v>5.4115825649826066</v>
+        <v>5.42828223729932</v>
       </c>
       <c r="H8" s="2">
-        <v>22.352721164824018</v>
+        <v>22.318126061571519</v>
       </c>
       <c r="I8" s="2">
-        <v>1.9539694376272609</v>
+        <v>1.927238427037574</v>
       </c>
       <c r="J8" s="2">
-        <v>22.348354359918211</v>
+        <v>22.333274416014689</v>
       </c>
       <c r="K8" s="2">
-        <v>1.9497894801136431</v>
+        <v>1.9482803920374909</v>
       </c>
       <c r="L8" s="2">
-        <v>7.448617781042981</v>
+        <v>7.437819818015158</v>
       </c>
       <c r="M8" s="2">
-        <v>0.64946736053810583</v>
+        <v>0.64697381582613334</v>
       </c>
       <c r="N8" s="2">
-        <v>14.887217782462409</v>
+        <v>14.889387456124791</v>
       </c>
       <c r="O8" s="2">
-        <v>1.3012428299839129</v>
+        <v>1.297729421140253</v>
       </c>
       <c r="P8" s="2">
-        <v>7.4385934925386596</v>
+        <v>7.4452850477051706</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.6459825067338284</v>
+        <v>0.64836182970648859</v>
       </c>
       <c r="R8" s="2">
-        <v>21.827642371790951</v>
+        <v>21.807350105952089</v>
       </c>
       <c r="S8" s="2">
-        <v>2.1836867586885029</v>
+        <v>2.182897868186731</v>
       </c>
       <c r="T8" s="2">
-        <v>15.291301417647921</v>
+        <v>15.272716839779919</v>
       </c>
       <c r="U8" s="2">
-        <v>1.543215893094813</v>
+        <v>1.5439755321088751</v>
       </c>
       <c r="V8" s="2">
-        <v>3.2750888375889722</v>
+        <v>3.2723997299560241</v>
       </c>
       <c r="W8" s="2">
-        <v>0.32830049931072308</v>
+        <v>0.32753047385591783</v>
       </c>
       <c r="X8" s="2">
-        <v>3.2744773437967551</v>
+        <v>3.2729923216408219</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.32864269558402393</v>
+        <v>0.33065561355211381</v>
       </c>
       <c r="Z8" s="2">
-        <v>7.2717810535997076</v>
+        <v>7.2672512644450649</v>
       </c>
       <c r="AA8" s="2">
-        <v>0.72379431969499941</v>
+        <v>0.72801953357430904</v>
       </c>
       <c r="AB8" s="2">
-        <v>14.54364457122551</v>
+        <v>14.537486433553759</v>
       </c>
       <c r="AC8" s="2">
-        <v>1.470769338962328</v>
+        <v>1.4668393672820299</v>
       </c>
       <c r="AD8" s="2">
-        <v>16.686462858768241</v>
+        <v>16.666946962143719</v>
       </c>
       <c r="AE8" s="2">
-        <v>1.026397028156866</v>
+        <v>1.008955180706308</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -1370,94 +1349,94 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>165.9757242583689</v>
+        <v>166.06867739420181</v>
       </c>
       <c r="C9" s="2">
-        <v>8.3021857588639136</v>
+        <v>8.4214652964182921</v>
       </c>
       <c r="D9" s="2">
-        <v>81.047981047306592</v>
+        <v>81.04863119798452</v>
       </c>
       <c r="E9" s="2">
-        <v>5.8004757660693977</v>
+        <v>5.8584750288818972</v>
       </c>
       <c r="F9" s="2">
-        <v>81.056596523726782</v>
+        <v>81.148256523811042</v>
       </c>
       <c r="G9" s="2">
-        <v>5.7858209077449576</v>
+        <v>5.7441725911928154</v>
       </c>
       <c r="H9" s="2">
-        <v>23.7529083183152</v>
+        <v>23.77419624040504</v>
       </c>
       <c r="I9" s="2">
-        <v>2.053536124940103</v>
+        <v>2.0571088344882931</v>
       </c>
       <c r="J9" s="2">
-        <v>23.742073767641301</v>
+        <v>23.770357168719961</v>
       </c>
       <c r="K9" s="2">
-        <v>2.085064853394706</v>
+        <v>2.0648554378656101</v>
       </c>
       <c r="L9" s="2">
-        <v>7.9114362221334043</v>
+        <v>7.9227595350543458</v>
       </c>
       <c r="M9" s="2">
-        <v>0.68783282921446998</v>
+        <v>0.68909433625555017</v>
       </c>
       <c r="N9" s="2">
-        <v>15.85325355590121</v>
+        <v>15.8439995980814</v>
       </c>
       <c r="O9" s="2">
-        <v>1.369689431377054</v>
+        <v>1.3674422787804621</v>
       </c>
       <c r="P9" s="2">
-        <v>7.9162133151853773</v>
+        <v>7.9266557751068776</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.69318481263118548</v>
+        <v>0.68054495058206332</v>
       </c>
       <c r="R9" s="2">
-        <v>23.204188796921621</v>
+        <v>23.21374506096922</v>
       </c>
       <c r="S9" s="2">
-        <v>2.3135017354136669</v>
+        <v>2.3260252944034159</v>
       </c>
       <c r="T9" s="2">
-        <v>16.217457968743279</v>
+        <v>16.240827072900199</v>
       </c>
       <c r="U9" s="2">
-        <v>1.6329554634924881</v>
+        <v>1.6214549901314299</v>
       </c>
       <c r="V9" s="2">
-        <v>3.475542569184944</v>
+        <v>3.48264218396212</v>
       </c>
       <c r="W9" s="2">
-        <v>0.35172862972653818</v>
+        <v>0.34946065751763811</v>
       </c>
       <c r="X9" s="2">
-        <v>3.4807107325500022</v>
+        <v>3.4845365392351519</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.35261011975709372</v>
+        <v>0.34956804537139102</v>
       </c>
       <c r="Z9" s="2">
-        <v>7.7240449659185888</v>
+        <v>7.7419651717419704</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.77074539020946131</v>
+        <v>0.78210166476994314</v>
       </c>
       <c r="AB9" s="2">
-        <v>15.48092253806157</v>
+        <v>15.46681823052365</v>
       </c>
       <c r="AC9" s="2">
-        <v>1.544724878868472</v>
+        <v>1.548983019778059</v>
       </c>
       <c r="AD9" s="2">
-        <v>17.861614868904152</v>
+        <v>17.839484093895859</v>
       </c>
       <c r="AE9" s="2">
-        <v>1.101763956612664</v>
+        <v>1.0932007589229209</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -1465,94 +1444,94 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>175.9084578696845</v>
+        <v>175.6482999527403</v>
       </c>
       <c r="C10" s="2">
-        <v>8.8016871287966012</v>
+        <v>8.8415199848501942</v>
       </c>
       <c r="D10" s="2">
-        <v>85.879874954935218</v>
+        <v>85.899438744605007</v>
       </c>
       <c r="E10" s="2">
-        <v>6.0802539626037397</v>
+        <v>6.109114374102032</v>
       </c>
       <c r="F10" s="2">
-        <v>85.969906708308088</v>
+        <v>85.770772925380996</v>
       </c>
       <c r="G10" s="2">
-        <v>6.0902234656790384</v>
+        <v>6.0852290209159001</v>
       </c>
       <c r="H10" s="2">
-        <v>25.171345873849081</v>
+        <v>25.127190585712409</v>
       </c>
       <c r="I10" s="2">
-        <v>2.1818840983286152</v>
+        <v>2.184481250889807</v>
       </c>
       <c r="J10" s="2">
-        <v>25.157570763843779</v>
+        <v>25.132518105517981</v>
       </c>
       <c r="K10" s="2">
-        <v>2.180768645876642</v>
+        <v>2.1726785985855162</v>
       </c>
       <c r="L10" s="2">
-        <v>8.3965297581252099</v>
+        <v>8.3716870974420559</v>
       </c>
       <c r="M10" s="2">
-        <v>0.72791748194635442</v>
+        <v>0.72785320202725545</v>
       </c>
       <c r="N10" s="2">
-        <v>16.79391123075969</v>
+        <v>16.756210921008659</v>
       </c>
       <c r="O10" s="2">
-        <v>1.4600968311543621</v>
+        <v>1.4563133407048969</v>
       </c>
       <c r="P10" s="2">
-        <v>8.389520053965116</v>
+        <v>8.374218359158311</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.72819110828662781</v>
+        <v>0.73660089528705275</v>
       </c>
       <c r="R10" s="2">
-        <v>24.599978531706061</v>
+        <v>24.526384757465021</v>
       </c>
       <c r="S10" s="2">
-        <v>2.453611525374106</v>
+        <v>2.4728489959179791</v>
       </c>
       <c r="T10" s="2">
-        <v>17.20548217354488</v>
+        <v>17.177352343066289</v>
       </c>
       <c r="U10" s="2">
-        <v>1.7248496768195409</v>
+        <v>1.7206825821370371</v>
       </c>
       <c r="V10" s="2">
-        <v>3.6829435085933651</v>
+        <v>3.6826498906749898</v>
       </c>
       <c r="W10" s="2">
-        <v>0.37093551687670068</v>
+        <v>0.36631185985204862</v>
       </c>
       <c r="X10" s="2">
-        <v>3.6874931733950649</v>
+        <v>3.6833455507509711</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.37041462159297239</v>
+        <v>0.36888995777206879</v>
       </c>
       <c r="Z10" s="2">
-        <v>8.1995198296657961</v>
+        <v>8.1690364103358686</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.82562312016604944</v>
+        <v>0.81775101449017862</v>
       </c>
       <c r="AB10" s="2">
-        <v>16.391376798912241</v>
+        <v>16.362138443488959</v>
       </c>
       <c r="AC10" s="2">
-        <v>1.636405001203731</v>
+        <v>1.647498418559102</v>
       </c>
       <c r="AD10" s="2">
-        <v>19.03636674564175</v>
+        <v>19.00221012005634</v>
       </c>
       <c r="AE10" s="2">
-        <v>1.172773075350042</v>
+        <v>1.1609388590557059</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -1560,94 +1539,94 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>185.4942912047097</v>
+        <v>185.4396720621113</v>
       </c>
       <c r="C11" s="2">
-        <v>9.323649568215604</v>
+        <v>9.3904137543922879</v>
       </c>
       <c r="D11" s="2">
-        <v>90.563304169764237</v>
+        <v>90.588229737779159</v>
       </c>
       <c r="E11" s="2">
-        <v>6.4503199473324644</v>
+        <v>6.5107256902954749</v>
       </c>
       <c r="F11" s="2">
-        <v>90.550070444728135</v>
+        <v>90.555897371695352</v>
       </c>
       <c r="G11" s="2">
-        <v>6.4041109571504364</v>
+        <v>6.4291061845921513</v>
       </c>
       <c r="H11" s="2">
-        <v>26.511473323617778</v>
+        <v>26.534020418275389</v>
       </c>
       <c r="I11" s="2">
-        <v>2.2987566472248</v>
+        <v>2.2976505262092628</v>
       </c>
       <c r="J11" s="2">
-        <v>26.520892241621151</v>
+        <v>26.54067751220094</v>
       </c>
       <c r="K11" s="2">
-        <v>2.3016122916604531</v>
+        <v>2.292361576709395</v>
       </c>
       <c r="L11" s="2">
-        <v>8.8366901872787782</v>
+        <v>8.8422466268176905</v>
       </c>
       <c r="M11" s="2">
-        <v>0.76567965217268086</v>
+        <v>0.76853558544850664</v>
       </c>
       <c r="N11" s="2">
-        <v>17.677005067272759</v>
+        <v>17.684268130816189</v>
       </c>
       <c r="O11" s="2">
-        <v>1.514768745227584</v>
+        <v>1.5397031691370071</v>
       </c>
       <c r="P11" s="2">
-        <v>8.8462932834621899</v>
+        <v>8.8407967549476236</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.76571382455421633</v>
+        <v>0.7650993310958254</v>
       </c>
       <c r="R11" s="2">
-        <v>25.885705106760401</v>
+        <v>25.918500671111911</v>
       </c>
       <c r="S11" s="2">
-        <v>2.5901155129515119</v>
+        <v>2.6007000251074039</v>
       </c>
       <c r="T11" s="2">
-        <v>18.12480331959566</v>
+        <v>18.136638326984631</v>
       </c>
       <c r="U11" s="2">
-        <v>1.812906208377113</v>
+        <v>1.7997890237247971</v>
       </c>
       <c r="V11" s="2">
-        <v>3.8836176124998461</v>
+        <v>3.8869329230511469</v>
       </c>
       <c r="W11" s="2">
-        <v>0.38623029556175659</v>
+        <v>0.38669294862235198</v>
       </c>
       <c r="X11" s="2">
-        <v>3.8824454810079989</v>
+        <v>3.8875321687475348</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.38997553859448503</v>
+        <v>0.39022258863164849</v>
       </c>
       <c r="Z11" s="2">
-        <v>8.6292839232977077</v>
+        <v>8.6323593075887644</v>
       </c>
       <c r="AA11" s="2">
-        <v>0.86382029911949942</v>
+        <v>0.86975175136273009</v>
       </c>
       <c r="AB11" s="2">
-        <v>17.261219356934109</v>
+        <v>17.276728074248879</v>
       </c>
       <c r="AC11" s="2">
-        <v>1.7209385367115839</v>
+        <v>1.7446454771117259</v>
       </c>
       <c r="AD11" s="2">
-        <v>20.162534141798499</v>
+        <v>20.180952387098049</v>
       </c>
       <c r="AE11" s="2">
-        <v>1.2385530512287739</v>
+        <v>1.2455297926603901</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -1655,94 +1634,94 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>195.19963494133191</v>
+        <v>195.33319545032799</v>
       </c>
       <c r="C12" s="2">
-        <v>9.6614076190385365</v>
+        <v>9.6930700156370886</v>
       </c>
       <c r="D12" s="2">
-        <v>95.357972741660106</v>
+        <v>95.348937856633967</v>
       </c>
       <c r="E12" s="2">
-        <v>6.7774080239436749</v>
+        <v>6.6678752309778808</v>
       </c>
       <c r="F12" s="2">
-        <v>95.229085682538951</v>
+        <v>95.40062004049976</v>
       </c>
       <c r="G12" s="2">
-        <v>6.7032724754266066</v>
+        <v>6.6693681452210747</v>
       </c>
       <c r="H12" s="2">
-        <v>27.885058513950479</v>
+        <v>27.944791712653519</v>
       </c>
       <c r="I12" s="2">
-        <v>2.437728907898209</v>
+        <v>2.393511047022312</v>
       </c>
       <c r="J12" s="2">
-        <v>27.878441150978261</v>
+        <v>27.950318866764601</v>
       </c>
       <c r="K12" s="2">
-        <v>2.385951469098496</v>
+        <v>2.3983584238525988</v>
       </c>
       <c r="L12" s="2">
-        <v>9.2988700697733737</v>
+        <v>9.3153356460879859</v>
       </c>
       <c r="M12" s="2">
-        <v>0.79745836174670726</v>
+        <v>0.79827234959183402</v>
       </c>
       <c r="N12" s="2">
-        <v>18.600353720116331</v>
+        <v>18.6390041326963</v>
       </c>
       <c r="O12" s="2">
-        <v>1.5915972725362539</v>
+        <v>1.6107646849453829</v>
       </c>
       <c r="P12" s="2">
-        <v>9.3021842604495539</v>
+        <v>9.3139661926221109</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.80666765963048848</v>
+        <v>0.80047677857526722</v>
       </c>
       <c r="R12" s="2">
-        <v>27.2318468063553</v>
+        <v>27.31187381534906</v>
       </c>
       <c r="S12" s="2">
-        <v>2.7373898239783729</v>
+        <v>2.7071114275570012</v>
       </c>
       <c r="T12" s="2">
-        <v>19.05689062688695</v>
+        <v>19.113327359073431</v>
       </c>
       <c r="U12" s="2">
-        <v>1.882026874976388</v>
+        <v>1.9054450323198071</v>
       </c>
       <c r="V12" s="2">
-        <v>4.0847703370850477</v>
+        <v>4.0982496575987382</v>
       </c>
       <c r="W12" s="2">
-        <v>0.40877613607825852</v>
+        <v>0.40648465824572128</v>
       </c>
       <c r="X12" s="2">
-        <v>4.0867020063564068</v>
+        <v>4.0915390450716469</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.4060502431520509</v>
+        <v>0.40315739013811708</v>
       </c>
       <c r="Z12" s="2">
-        <v>9.0861388262852216</v>
+        <v>9.0947218322500358</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.90187424069253253</v>
+        <v>0.90248762475731159</v>
       </c>
       <c r="AB12" s="2">
-        <v>18.16923911856713</v>
+        <v>18.206004416362131</v>
       </c>
       <c r="AC12" s="2">
-        <v>1.8078306041341381</v>
+        <v>1.823457231308365</v>
       </c>
       <c r="AD12" s="2">
-        <v>21.323426999652941</v>
+        <v>21.345428673223829</v>
       </c>
       <c r="AE12" s="2">
-        <v>1.277867558529342</v>
+        <v>1.2910309946535541</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -1750,94 +1729,94 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>9.7667980111498895</v>
+        <v>9.7607125066049267</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48485472237655491</v>
+        <v>0.48845112357004111</v>
       </c>
       <c r="D13" s="2">
-        <v>4.7684330338121548</v>
+        <v>4.7683396496814323</v>
       </c>
       <c r="E13" s="2">
-        <v>0.33257182913105598</v>
+        <v>0.33867270382961279</v>
       </c>
       <c r="F13" s="2">
-        <v>4.7744559368202477</v>
+        <v>4.7657321773548231</v>
       </c>
       <c r="G13" s="2">
-        <v>0.33381195615216919</v>
+        <v>0.33805786996490189</v>
       </c>
       <c r="H13" s="2">
-        <v>1.3988655756074271</v>
+        <v>1.3962151322722081</v>
       </c>
       <c r="I13" s="2">
-        <v>0.1201630388513401</v>
+        <v>0.1211256383248645</v>
       </c>
       <c r="J13" s="2">
-        <v>1.3976606794392701</v>
+        <v>1.3971862271052811</v>
       </c>
       <c r="K13" s="2">
-        <v>0.12050133563783361</v>
+        <v>0.121390848535758</v>
       </c>
       <c r="L13" s="2">
-        <v>0.4660423793664889</v>
+        <v>0.46516454177888322</v>
       </c>
       <c r="M13" s="2">
-        <v>4.0210209797026379E-2</v>
+        <v>4.0316941362352872E-2</v>
       </c>
       <c r="N13" s="2">
-        <v>0.93245621745732021</v>
+        <v>0.93039627570521755</v>
       </c>
       <c r="O13" s="2">
-        <v>7.9234842104922196E-2</v>
+        <v>8.1237850461023442E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.4664675500940117</v>
+        <v>0.46531994495663193</v>
       </c>
       <c r="Q13" s="2">
-        <v>4.0062519381763653E-2</v>
+        <v>4.0698304349919917E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>1.366714122222578</v>
+        <v>1.363340705305621</v>
       </c>
       <c r="S13" s="2">
-        <v>0.1353684046298137</v>
+        <v>0.13688838200078421</v>
       </c>
       <c r="T13" s="2">
-        <v>0.95535346600187609</v>
+        <v>0.95580658599414781</v>
       </c>
       <c r="U13" s="2">
-        <v>9.4623213933365799E-2</v>
+        <v>9.5985372453899681E-2</v>
       </c>
       <c r="V13" s="2">
-        <v>0.2045938920421497</v>
+        <v>0.20470733240499089</v>
       </c>
       <c r="W13" s="2">
-        <v>2.052825321812023E-2</v>
+        <v>2.0408153260832011E-2</v>
       </c>
       <c r="X13" s="2">
-        <v>0.20467780432154439</v>
+        <v>0.20479916607583701</v>
       </c>
       <c r="Y13" s="2">
-        <v>2.0374891187377429E-2</v>
+        <v>2.062032551966932E-2</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.45513940772294792</v>
+        <v>0.45388447805439552</v>
       </c>
       <c r="AA13" s="2">
-        <v>4.5395608492510273E-2</v>
+        <v>4.5870561990022277E-2</v>
       </c>
       <c r="AB13" s="2">
-        <v>0.90989201336455483</v>
+        <v>0.90850892241346515</v>
       </c>
       <c r="AC13" s="2">
-        <v>8.9355023081557489E-2</v>
+        <v>9.1873553441597006E-2</v>
       </c>
       <c r="AD13" s="2">
-        <v>22.491548751718071</v>
+        <v>22.514704155539789</v>
       </c>
       <c r="AE13" s="2">
-        <v>1.3692655707656869</v>
+        <v>1.3601816021088979</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -1845,94 +1824,94 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>214.7064559983184</v>
+        <v>214.98315821457999</v>
       </c>
       <c r="C14" s="2">
-        <v>10.687502329037599</v>
+        <v>10.650954425698369</v>
       </c>
       <c r="D14" s="2">
-        <v>104.83152232905429</v>
+        <v>105.0613491191297</v>
       </c>
       <c r="E14" s="2">
-        <v>7.3720061135542103</v>
+        <v>7.367263262713724</v>
       </c>
       <c r="F14" s="2">
-        <v>104.8457677675179</v>
+        <v>104.8928205584637</v>
       </c>
       <c r="G14" s="2">
-        <v>7.3988020679071766</v>
+        <v>7.4123209857637287</v>
       </c>
       <c r="H14" s="2">
-        <v>30.67466604504699</v>
+        <v>30.72421020033498</v>
       </c>
       <c r="I14" s="2">
-        <v>2.663392276930804</v>
+        <v>2.6407076800978961</v>
       </c>
       <c r="J14" s="2">
-        <v>30.688915831063149</v>
+        <v>30.730215443401072</v>
       </c>
       <c r="K14" s="2">
-        <v>2.6591102265308382</v>
+        <v>2.6837795830221309</v>
       </c>
       <c r="L14" s="2">
-        <v>10.23811185296548</v>
+        <v>10.248923037049581</v>
       </c>
       <c r="M14" s="2">
-        <v>0.8849311635782271</v>
+        <v>0.88190881199452464</v>
       </c>
       <c r="N14" s="2">
-        <v>20.461176534194969</v>
+        <v>20.50360202564142</v>
       </c>
       <c r="O14" s="2">
-        <v>1.776344207258624</v>
+        <v>1.764644911109126</v>
       </c>
       <c r="P14" s="2">
-        <v>10.247891225090131</v>
+        <v>10.24806279624692</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.88828562558299318</v>
+        <v>0.88754807674390923</v>
       </c>
       <c r="R14" s="2">
-        <v>29.979334506988749</v>
+        <v>30.010925341708521</v>
       </c>
       <c r="S14" s="2">
-        <v>3.0038846307907572</v>
+        <v>3.0092775164354588</v>
       </c>
       <c r="T14" s="2">
-        <v>20.981433945899461</v>
+        <v>21.030556766731181</v>
       </c>
       <c r="U14" s="2">
-        <v>2.1172170543408502</v>
+        <v>2.1075039895127299</v>
       </c>
       <c r="V14" s="2">
-        <v>4.4982234336285014</v>
+        <v>4.4988481016071518</v>
       </c>
       <c r="W14" s="2">
-        <v>0.45003612348622762</v>
+        <v>0.45294592271353018</v>
       </c>
       <c r="X14" s="2">
-        <v>4.4936748250798262</v>
+        <v>4.5021027872715207</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.44982735985388339</v>
+        <v>0.45228275629444081</v>
       </c>
       <c r="Z14" s="2">
-        <v>9.994353263196901</v>
+        <v>10.009266311664559</v>
       </c>
       <c r="AA14" s="2">
-        <v>1.002651978412199</v>
+        <v>0.99165557429454798</v>
       </c>
       <c r="AB14" s="2">
-        <v>19.981950934703431</v>
+        <v>20.032844466302929</v>
       </c>
       <c r="AC14" s="2">
-        <v>2.0075752127602788</v>
+        <v>2.014137535965892</v>
       </c>
       <c r="AD14" s="2">
-        <v>8.9210271698214374</v>
+        <v>8.9294167093823997</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.60731969420964005</v>
+        <v>0.60428013347672005</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -1940,94 +1919,94 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>224.49438674694201</v>
+        <v>224.53217114245959</v>
       </c>
       <c r="C15" s="2">
-        <v>11.08002020077549</v>
+        <v>11.20827504764236</v>
       </c>
       <c r="D15" s="2">
-        <v>109.5678270266741</v>
+        <v>109.5993866520855</v>
       </c>
       <c r="E15" s="2">
-        <v>7.7861241710343227</v>
+        <v>7.6950840224640524</v>
       </c>
       <c r="F15" s="2">
-        <v>109.59140763098689</v>
+        <v>109.6479994062184</v>
       </c>
       <c r="G15" s="2">
-        <v>7.6279128233411289</v>
+        <v>7.7912455730292631</v>
       </c>
       <c r="H15" s="2">
-        <v>32.107976645440893</v>
+        <v>32.090396474316421</v>
       </c>
       <c r="I15" s="2">
-        <v>2.746950585604143</v>
+        <v>2.7836323204469822</v>
       </c>
       <c r="J15" s="2">
-        <v>32.109655804587852</v>
+        <v>32.110933978394833</v>
       </c>
       <c r="K15" s="2">
-        <v>2.762752388127939</v>
+        <v>2.787081668708193</v>
       </c>
       <c r="L15" s="2">
-        <v>10.69275434845348</v>
+        <v>10.707279723541591</v>
       </c>
       <c r="M15" s="2">
-        <v>0.92123521564684496</v>
+        <v>0.92684418931001222</v>
       </c>
       <c r="N15" s="2">
-        <v>21.396702658623131</v>
+        <v>21.436004379872969</v>
       </c>
       <c r="O15" s="2">
-        <v>1.8353597254394871</v>
+        <v>1.8769801889112541</v>
       </c>
       <c r="P15" s="2">
-        <v>10.715305995017159</v>
+        <v>10.71243911729384</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.92281601878898201</v>
+        <v>0.93116902443117144</v>
       </c>
       <c r="R15" s="2">
-        <v>31.344499162483469</v>
+        <v>31.356545658507731</v>
       </c>
       <c r="S15" s="2">
-        <v>3.1196355572714292</v>
+        <v>3.135354961324154</v>
       </c>
       <c r="T15" s="2">
-        <v>21.94150558530286</v>
+        <v>21.963131009402609</v>
       </c>
       <c r="U15" s="2">
-        <v>2.1691303180202079</v>
+        <v>2.2183356622151922</v>
       </c>
       <c r="V15" s="2">
-        <v>4.7041773209895448</v>
+        <v>4.7005565806859204</v>
       </c>
       <c r="W15" s="2">
-        <v>0.46834150600465518</v>
+        <v>0.47297914698846683</v>
       </c>
       <c r="X15" s="2">
-        <v>4.7023952984089759</v>
+        <v>4.7014523698813298</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.46627795000993838</v>
+        <v>0.47115810420573728</v>
       </c>
       <c r="Z15" s="2">
-        <v>10.4524253163961</v>
+        <v>10.461049765435011</v>
       </c>
       <c r="AA15" s="2">
-        <v>1.04275391289846</v>
+        <v>1.049034384478408</v>
       </c>
       <c r="AB15" s="2">
-        <v>20.890996821743471</v>
+        <v>20.933877190859931</v>
       </c>
       <c r="AC15" s="2">
-        <v>2.0867263071567792</v>
+        <v>2.1201011523310829</v>
       </c>
       <c r="AD15" s="2">
-        <v>19.58349772989364</v>
+        <v>19.627095603236011</v>
       </c>
       <c r="AE15" s="2">
-        <v>1.43409907659096</v>
+        <v>1.435726574076182</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -2035,94 +2014,94 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>234.52653265557251</v>
+        <v>234.2349921502819</v>
       </c>
       <c r="C16" s="2">
-        <v>11.812290747303379</v>
+        <v>11.640561588627349</v>
       </c>
       <c r="D16" s="2">
-        <v>114.5944687622215</v>
+        <v>114.253022854419</v>
       </c>
       <c r="E16" s="2">
-        <v>8.1682103927385334</v>
+        <v>8.0079123378293691</v>
       </c>
       <c r="F16" s="2">
-        <v>114.38178367856609</v>
+        <v>114.27166869875261</v>
       </c>
       <c r="G16" s="2">
-        <v>8.0390000261218617</v>
+        <v>8.0265455012930182</v>
       </c>
       <c r="H16" s="2">
-        <v>33.519430465725932</v>
+        <v>33.462302204265939</v>
       </c>
       <c r="I16" s="2">
-        <v>2.8799305802011852</v>
+        <v>2.8957621531620412</v>
       </c>
       <c r="J16" s="2">
-        <v>33.487808326132289</v>
+        <v>33.486276603468582</v>
       </c>
       <c r="K16" s="2">
-        <v>2.867587194452323</v>
+        <v>2.904987176996209</v>
       </c>
       <c r="L16" s="2">
-        <v>11.165199113869971</v>
+        <v>11.148108123544739</v>
       </c>
       <c r="M16" s="2">
-        <v>0.96686138547566358</v>
+        <v>0.96531253607789669</v>
       </c>
       <c r="N16" s="2">
-        <v>22.327135245021729</v>
+        <v>22.318012683801591</v>
       </c>
       <c r="O16" s="2">
-        <v>1.933795689416498</v>
+        <v>1.917044870799437</v>
       </c>
       <c r="P16" s="2">
-        <v>11.16788766474774</v>
+        <v>11.16154578820518</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.97094559128685154</v>
+        <v>0.9623821137524563</v>
       </c>
       <c r="R16" s="2">
-        <v>32.741426273470992</v>
+        <v>32.684853703679167</v>
       </c>
       <c r="S16" s="2">
-        <v>3.2465103849091239</v>
+        <v>3.2727269168046891</v>
       </c>
       <c r="T16" s="2">
-        <v>22.903892035629241</v>
+        <v>22.901516898247351</v>
       </c>
       <c r="U16" s="2">
-        <v>2.2786142936666849</v>
+        <v>2.2675341754007019</v>
       </c>
       <c r="V16" s="2">
-        <v>4.9066618599554266</v>
+        <v>4.9030506986819873</v>
       </c>
       <c r="W16" s="2">
-        <v>0.4843159119082931</v>
+        <v>0.49286584672936101</v>
       </c>
       <c r="X16" s="2">
-        <v>4.9041829057349888</v>
+        <v>4.9086185379262526</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.48993159424243282</v>
+        <v>0.48915902375007031</v>
       </c>
       <c r="Z16" s="2">
-        <v>10.90098873298423</v>
+        <v>10.89451486879222</v>
       </c>
       <c r="AA16" s="2">
-        <v>1.084728504437056</v>
+        <v>1.086979340125501</v>
       </c>
       <c r="AB16" s="2">
-        <v>21.79813750593916</v>
+        <v>21.786600209349452</v>
       </c>
       <c r="AC16" s="2">
-        <v>2.1809028829534181</v>
+        <v>2.1429976223116149</v>
       </c>
       <c r="AD16" s="2">
-        <v>23.977088461028661</v>
+        <v>24.012234279418479</v>
       </c>
       <c r="AE16" s="2">
-        <v>1.567793946128027</v>
+        <v>1.5563197371088811</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -2130,94 +2109,94 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>244.05499761158711</v>
+        <v>244.2107777685502</v>
       </c>
       <c r="C17" s="2">
-        <v>12.324723582217571</v>
+        <v>12.174412714308961</v>
       </c>
       <c r="D17" s="2">
-        <v>119.10894213667819</v>
+        <v>119.14293630588431</v>
       </c>
       <c r="E17" s="2">
-        <v>8.3811614803235166</v>
+        <v>8.4308940813810089</v>
       </c>
       <c r="F17" s="2">
-        <v>119.30427284668011</v>
+        <v>119.22757496737781</v>
       </c>
       <c r="G17" s="2">
-        <v>8.4532345359973213</v>
+        <v>8.5319900124860926</v>
       </c>
       <c r="H17" s="2">
-        <v>34.945892003677521</v>
+        <v>34.91146673807188</v>
       </c>
       <c r="I17" s="2">
-        <v>2.9942862551512168</v>
+        <v>3.0357274170533199</v>
       </c>
       <c r="J17" s="2">
-        <v>34.977438952934982</v>
+        <v>34.932512859402422</v>
       </c>
       <c r="K17" s="2">
-        <v>3.0394874111381629</v>
+        <v>3.0413079776699701</v>
       </c>
       <c r="L17" s="2">
-        <v>11.647018561346639</v>
+        <v>11.63689772258825</v>
       </c>
       <c r="M17" s="2">
-        <v>1.014060301135745</v>
+        <v>1.0231724022629269</v>
       </c>
       <c r="N17" s="2">
-        <v>23.30496039382982</v>
+        <v>23.302099013657742</v>
       </c>
       <c r="O17" s="2">
-        <v>2.0096500973553999</v>
+        <v>2.033904306774736</v>
       </c>
       <c r="P17" s="2">
-        <v>11.658084413717731</v>
+        <v>11.65232539620791</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.0181308179325841</v>
+        <v>1.0215018110719249</v>
       </c>
       <c r="R17" s="2">
-        <v>34.163420498911769</v>
+        <v>34.063734732549023</v>
       </c>
       <c r="S17" s="2">
-        <v>3.4104295856625439</v>
+        <v>3.4389147216833291</v>
       </c>
       <c r="T17" s="2">
-        <v>23.920124828626879</v>
+        <v>23.870511917685459</v>
       </c>
       <c r="U17" s="2">
-        <v>2.3952728022077432</v>
+        <v>2.3828855973160752</v>
       </c>
       <c r="V17" s="2">
-        <v>5.124943101849512</v>
+        <v>5.1143252635262204</v>
       </c>
       <c r="W17" s="2">
-        <v>0.51133249941038272</v>
+        <v>0.51468329041792071</v>
       </c>
       <c r="X17" s="2">
-        <v>5.1254243746689552</v>
+        <v>5.1157694437993424</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.51334586931642823</v>
+        <v>0.51416320926292969</v>
       </c>
       <c r="Z17" s="2">
-        <v>11.377199931380551</v>
+        <v>11.36388865546067</v>
       </c>
       <c r="AA17" s="2">
-        <v>1.136565140645994</v>
+        <v>1.16128122016056</v>
       </c>
       <c r="AB17" s="2">
-        <v>22.771136335626959</v>
+        <v>22.754390496676329</v>
       </c>
       <c r="AC17" s="2">
-        <v>2.2760440425439641</v>
+        <v>2.2905334985575361</v>
       </c>
       <c r="AD17" s="2">
-        <v>26.41051610628196</v>
+        <v>26.385821742548199</v>
       </c>
       <c r="AE17" s="2">
-        <v>1.6484844011574109</v>
+        <v>1.6331938764437459</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -2225,94 +2204,94 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>253.71865723891941</v>
+        <v>253.96749102877109</v>
       </c>
       <c r="C18" s="2">
-        <v>12.70279638434697</v>
+        <v>12.52407556726901</v>
       </c>
       <c r="D18" s="2">
-        <v>123.8294598497861</v>
+        <v>123.94254262343171</v>
       </c>
       <c r="E18" s="2">
-        <v>8.875494810529025</v>
+        <v>8.6302135079946964</v>
       </c>
       <c r="F18" s="2">
-        <v>123.85009749918881</v>
+        <v>124.0412959512074</v>
       </c>
       <c r="G18" s="2">
-        <v>8.6840296589394601</v>
+        <v>8.74212334211086</v>
       </c>
       <c r="H18" s="2">
-        <v>36.287367732176293</v>
+        <v>36.346186024334671</v>
       </c>
       <c r="I18" s="2">
-        <v>3.1377944049721771</v>
+        <v>3.1416976053443211</v>
       </c>
       <c r="J18" s="2">
-        <v>36.271789530388993</v>
+        <v>36.316628883123236</v>
       </c>
       <c r="K18" s="2">
-        <v>3.1281217377427382</v>
+        <v>3.1306756817087851</v>
       </c>
       <c r="L18" s="2">
-        <v>12.09639047855894</v>
+        <v>12.11572318202705</v>
       </c>
       <c r="M18" s="2">
-        <v>1.0411019362332019</v>
+        <v>1.0497339934873871</v>
       </c>
       <c r="N18" s="2">
-        <v>24.172925882196559</v>
+        <v>24.233038157991551</v>
       </c>
       <c r="O18" s="2">
-        <v>2.0870881011123852</v>
+        <v>2.0965414074644291</v>
       </c>
       <c r="P18" s="2">
-        <v>12.10151459657</v>
+        <v>12.105545870593319</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.047001223248748</v>
+        <v>1.049349013469367</v>
       </c>
       <c r="R18" s="2">
-        <v>35.435226678787942</v>
+        <v>35.486833947590029</v>
       </c>
       <c r="S18" s="2">
-        <v>3.5488007211321428</v>
+        <v>3.5293189211363138</v>
       </c>
       <c r="T18" s="2">
-        <v>24.791350831224982</v>
+        <v>24.81996589492519</v>
       </c>
       <c r="U18" s="2">
-        <v>2.4633123863475568</v>
+        <v>2.4706448717522052</v>
       </c>
       <c r="V18" s="2">
-        <v>5.3124783714458621</v>
+        <v>5.3167378656213087</v>
       </c>
       <c r="W18" s="2">
-        <v>0.53102546667015571</v>
+        <v>0.53169879702000422</v>
       </c>
       <c r="X18" s="2">
-        <v>5.3100571954637168</v>
+        <v>5.3197238927542774</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.52855427140117062</v>
+        <v>0.53295202172037093</v>
       </c>
       <c r="Z18" s="2">
-        <v>11.80830402358465</v>
+        <v>11.84259239230142</v>
       </c>
       <c r="AA18" s="2">
-        <v>1.179722014825102</v>
+        <v>1.189327636129444</v>
       </c>
       <c r="AB18" s="2">
-        <v>23.603991143057339</v>
+        <v>23.662155848013409</v>
       </c>
       <c r="AC18" s="2">
-        <v>2.3662801849175539</v>
+        <v>2.3771271050853731</v>
       </c>
       <c r="AD18" s="2">
-        <v>28.017456368678999</v>
+        <v>28.005144596154111</v>
       </c>
       <c r="AE18" s="2">
-        <v>1.7421970455045781</v>
+        <v>1.709531240336033</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -2320,94 +2299,94 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>263.46082059374339</v>
+        <v>263.46150645827441</v>
       </c>
       <c r="C19" s="2">
-        <v>13.178058988984359</v>
+        <v>13.24053585236889</v>
       </c>
       <c r="D19" s="2">
-        <v>128.5715243955465</v>
+        <v>128.64289902218599</v>
       </c>
       <c r="E19" s="2">
-        <v>9.1318769245272016</v>
+        <v>9.1552340684689053</v>
       </c>
       <c r="F19" s="2">
-        <v>128.61472535827889</v>
+        <v>128.71345277079331</v>
       </c>
       <c r="G19" s="2">
-        <v>9.079780685662751</v>
+        <v>9.1134115691640769</v>
       </c>
       <c r="H19" s="2">
-        <v>37.677997991830217</v>
+        <v>37.728610326832403</v>
       </c>
       <c r="I19" s="2">
-        <v>3.250009387781343</v>
+        <v>3.2736064996068168</v>
       </c>
       <c r="J19" s="2">
-        <v>37.665209413866307</v>
+        <v>37.728390213535583</v>
       </c>
       <c r="K19" s="2">
-        <v>3.2427219367904638</v>
+        <v>3.260448651234428</v>
       </c>
       <c r="L19" s="2">
-        <v>12.537945296929699</v>
+        <v>12.560969085953589</v>
       </c>
       <c r="M19" s="2">
-        <v>1.082070658946112</v>
+        <v>1.0905687425743309</v>
       </c>
       <c r="N19" s="2">
-        <v>25.111645290741858</v>
+        <v>25.129356207794501</v>
       </c>
       <c r="O19" s="2">
-        <v>2.1864395302348911</v>
+        <v>2.1968971588428459</v>
       </c>
       <c r="P19" s="2">
-        <v>12.56283714075483</v>
+        <v>12.56042678417</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.0965455827533661</v>
+        <v>1.085874675294884</v>
       </c>
       <c r="R19" s="2">
-        <v>36.780350870428499</v>
+        <v>36.856340898470272</v>
       </c>
       <c r="S19" s="2">
-        <v>3.651587783475573</v>
+        <v>3.700124826382571</v>
       </c>
       <c r="T19" s="2">
-        <v>25.72615638774171</v>
+        <v>25.795720101937039</v>
       </c>
       <c r="U19" s="2">
-        <v>2.5495536052449128</v>
+        <v>2.5674317131287601</v>
       </c>
       <c r="V19" s="2">
-        <v>5.5130872639404611</v>
+        <v>5.5263543516393678</v>
       </c>
       <c r="W19" s="2">
-        <v>0.5493593099917059</v>
+        <v>0.55508957471915121</v>
       </c>
       <c r="X19" s="2">
-        <v>5.5203230345378396</v>
+        <v>5.5260023842399226</v>
       </c>
       <c r="Y19" s="2">
-        <v>0.54680479844916274</v>
+        <v>0.55048152590752308</v>
       </c>
       <c r="Z19" s="2">
-        <v>12.24117962828303</v>
+        <v>12.265018107522691</v>
       </c>
       <c r="AA19" s="2">
-        <v>1.227096302905442</v>
+        <v>1.2350041676647261</v>
       </c>
       <c r="AB19" s="2">
-        <v>24.54089447693849</v>
+        <v>24.536612313727758</v>
       </c>
       <c r="AC19" s="2">
-        <v>2.46661185962612</v>
+        <v>2.495710598866125</v>
       </c>
       <c r="AD19" s="2">
-        <v>29.34738225170759</v>
+        <v>29.339194483131909</v>
       </c>
       <c r="AE19" s="2">
-        <v>1.797476870635202</v>
+        <v>1.775506013662649</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -2415,94 +2394,94 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>273.38219001075782</v>
+        <v>273.08449405749661</v>
       </c>
       <c r="C20" s="2">
-        <v>13.467474647589221</v>
+        <v>13.77776433477452</v>
       </c>
       <c r="D20" s="2">
-        <v>133.527971568411</v>
+        <v>133.279275923347</v>
       </c>
       <c r="E20" s="2">
-        <v>9.4030506294365281</v>
+        <v>9.5197022627928138</v>
       </c>
       <c r="F20" s="2">
-        <v>133.4567973934499</v>
+        <v>133.38069021670489</v>
       </c>
       <c r="G20" s="2">
-        <v>9.4237396138156324</v>
+        <v>9.4335414943509495</v>
       </c>
       <c r="H20" s="2">
-        <v>39.107472241840803</v>
+        <v>39.083017895039028</v>
       </c>
       <c r="I20" s="2">
-        <v>3.4052571232549012</v>
+        <v>3.3873131079448702</v>
       </c>
       <c r="J20" s="2">
-        <v>39.089202264094332</v>
+        <v>39.037110766234527</v>
       </c>
       <c r="K20" s="2">
-        <v>3.3826006559261801</v>
+        <v>3.4070508951472451</v>
       </c>
       <c r="L20" s="2">
-        <v>13.03622815048101</v>
+        <v>13.027415140026079</v>
       </c>
       <c r="M20" s="2">
-        <v>1.1270397297279191</v>
+        <v>1.1370866308767691</v>
       </c>
       <c r="N20" s="2">
-        <v>26.058946383122869</v>
+        <v>26.048231249502319</v>
       </c>
       <c r="O20" s="2">
-        <v>2.2754401390378849</v>
+        <v>2.2545932675070222</v>
       </c>
       <c r="P20" s="2">
-        <v>13.023219680873691</v>
+        <v>13.032419415523281</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.128587287785435</v>
+        <v>1.1378494332669049</v>
       </c>
       <c r="R20" s="2">
-        <v>38.193987158843179</v>
+        <v>38.157700907727843</v>
       </c>
       <c r="S20" s="2">
-        <v>3.8600587949115308</v>
+        <v>3.8096989688873539</v>
       </c>
       <c r="T20" s="2">
-        <v>26.713930941570389</v>
+        <v>26.71150885993104</v>
       </c>
       <c r="U20" s="2">
-        <v>2.6863937268524629</v>
+        <v>2.7029198999839652</v>
       </c>
       <c r="V20" s="2">
-        <v>5.7297271034684529</v>
+        <v>5.7218792083361816</v>
       </c>
       <c r="W20" s="2">
-        <v>0.57403467846238254</v>
+        <v>0.57915726420935654</v>
       </c>
       <c r="X20" s="2">
-        <v>5.7302651895236956</v>
+        <v>5.7116516083181583</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.57685256148884845</v>
+        <v>0.57639986101521412</v>
       </c>
       <c r="Z20" s="2">
-        <v>12.72840639954639</v>
+        <v>12.71139232815492</v>
       </c>
       <c r="AA20" s="2">
-        <v>1.2785639930605091</v>
+        <v>1.2875086281849339</v>
       </c>
       <c r="AB20" s="2">
-        <v>25.447786021811471</v>
+        <v>25.452664052032969</v>
       </c>
       <c r="AC20" s="2">
-        <v>2.5588370514286312</v>
+        <v>2.5629817809757429</v>
       </c>
       <c r="AD20" s="2">
-        <v>30.533249516401689</v>
+        <v>30.55135262262764</v>
       </c>
       <c r="AE20" s="2">
-        <v>1.8291778848824229</v>
+        <v>1.8415465670429589</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -2510,94 +2489,94 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>283.12652366882611</v>
+        <v>283.27350790574792</v>
       </c>
       <c r="C21" s="2">
-        <v>14.054779596327499</v>
+        <v>14.13334727825689</v>
       </c>
       <c r="D21" s="2">
-        <v>138.20899250017251</v>
+        <v>138.36122962427399</v>
       </c>
       <c r="E21" s="2">
-        <v>9.6629065866523458</v>
+        <v>9.8334281352522019</v>
       </c>
       <c r="F21" s="2">
-        <v>138.27219306273159</v>
+        <v>138.38474015038639</v>
       </c>
       <c r="G21" s="2">
-        <v>9.70882475129984</v>
+        <v>9.8549529173668855</v>
       </c>
       <c r="H21" s="2">
-        <v>40.524357406215998</v>
+        <v>40.529242772163293</v>
       </c>
       <c r="I21" s="2">
-        <v>3.5016566588170761</v>
+        <v>3.5521322795448391</v>
       </c>
       <c r="J21" s="2">
-        <v>40.489979103776101</v>
+        <v>40.552743715949269</v>
       </c>
       <c r="K21" s="2">
-        <v>3.514771809009916</v>
+        <v>3.5223740714833331</v>
       </c>
       <c r="L21" s="2">
-        <v>13.494402257207531</v>
+        <v>13.519718357123679</v>
       </c>
       <c r="M21" s="2">
-        <v>1.1533068300944209</v>
+        <v>1.1783460338026319</v>
       </c>
       <c r="N21" s="2">
-        <v>27.007721587863831</v>
+        <v>27.04979992769611</v>
       </c>
       <c r="O21" s="2">
-        <v>2.3173242740443061</v>
+        <v>2.3711578996219962</v>
       </c>
       <c r="P21" s="2">
-        <v>13.50069207875627</v>
+        <v>13.515371776305869</v>
       </c>
       <c r="Q21" s="2">
-        <v>1.1675905706764531</v>
+        <v>1.1727356355077381</v>
       </c>
       <c r="R21" s="2">
-        <v>39.543225357477773</v>
+        <v>39.591446207914437</v>
       </c>
       <c r="S21" s="2">
-        <v>3.957646258839818</v>
+        <v>3.993925068659399</v>
       </c>
       <c r="T21" s="2">
-        <v>27.682141336336699</v>
+        <v>27.712870021286079</v>
       </c>
       <c r="U21" s="2">
-        <v>2.774543802195689</v>
+        <v>2.7787611238026391</v>
       </c>
       <c r="V21" s="2">
-        <v>5.9313315310938446</v>
+        <v>5.9445216324735011</v>
       </c>
       <c r="W21" s="2">
-        <v>0.59865316697738469</v>
+        <v>0.59513716048684528</v>
       </c>
       <c r="X21" s="2">
-        <v>5.9315533896936303</v>
+        <v>5.9320259424282602</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.5927507248573648</v>
+        <v>0.59162734048485788</v>
       </c>
       <c r="Z21" s="2">
-        <v>13.1772446941174</v>
+        <v>13.203042252594379</v>
       </c>
       <c r="AA21" s="2">
-        <v>1.308292887497307</v>
+        <v>1.3284002340590111</v>
       </c>
       <c r="AB21" s="2">
-        <v>26.377191872922111</v>
+        <v>26.415083913137071</v>
       </c>
       <c r="AC21" s="2">
-        <v>2.6232512749763042</v>
+        <v>2.666808284813694</v>
       </c>
       <c r="AD21" s="2">
-        <v>31.735522966184298</v>
+        <v>31.7461352685782</v>
       </c>
       <c r="AE21" s="2">
-        <v>1.9151849321637371</v>
+        <v>1.8949003387851151</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -2605,94 +2584,94 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>292.95227021602471</v>
+        <v>293.24660094938508</v>
       </c>
       <c r="C22" s="2">
-        <v>14.54426285705247</v>
+        <v>14.55669499585124</v>
       </c>
       <c r="D22" s="2">
-        <v>143.0786156765561</v>
+        <v>143.0943954632267</v>
       </c>
       <c r="E22" s="2">
-        <v>9.9037298340207176</v>
+        <v>10.05248888208804</v>
       </c>
       <c r="F22" s="2">
-        <v>143.09827396952869</v>
+        <v>143.05818297183609</v>
       </c>
       <c r="G22" s="2">
-        <v>10.102440425954169</v>
+        <v>10.09755385747674</v>
       </c>
       <c r="H22" s="2">
-        <v>41.932971350801061</v>
+        <v>41.941074959740376</v>
       </c>
       <c r="I22" s="2">
-        <v>3.614343898242288</v>
+        <v>3.6038518501664059</v>
       </c>
       <c r="J22" s="2">
-        <v>41.860265183198017</v>
+        <v>41.864421619319387</v>
       </c>
       <c r="K22" s="2">
-        <v>3.6588106172000638</v>
+        <v>3.606268767629583</v>
       </c>
       <c r="L22" s="2">
-        <v>13.97228569370961</v>
+        <v>13.98205288882995</v>
       </c>
       <c r="M22" s="2">
-        <v>1.2218298552815079</v>
+        <v>1.2033669305737831</v>
       </c>
       <c r="N22" s="2">
-        <v>27.916165427142499</v>
+        <v>27.954350708372171</v>
       </c>
       <c r="O22" s="2">
-        <v>2.4199967846822501</v>
+        <v>2.442217077861728</v>
       </c>
       <c r="P22" s="2">
-        <v>13.978887059506</v>
+        <v>13.97230333436684</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.2153431786095039</v>
+        <v>1.216736101009549</v>
       </c>
       <c r="R22" s="2">
-        <v>40.939536239480887</v>
+        <v>40.968479731920091</v>
       </c>
       <c r="S22" s="2">
-        <v>4.0825999288622468</v>
+        <v>4.0667873731513113</v>
       </c>
       <c r="T22" s="2">
-        <v>28.59160273501584</v>
+        <v>28.604904851772201</v>
       </c>
       <c r="U22" s="2">
-        <v>2.9072395924814201</v>
+        <v>2.871221797139655</v>
       </c>
       <c r="V22" s="2">
-        <v>6.1327395951064227</v>
+        <v>6.1330960583342664</v>
       </c>
       <c r="W22" s="2">
-        <v>0.61575489957795737</v>
+        <v>0.61127560692648175</v>
       </c>
       <c r="X22" s="2">
-        <v>6.1362965690831599</v>
+        <v>6.1313546578234126</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.62293595263879875</v>
+        <v>0.61278207346147673</v>
       </c>
       <c r="Z22" s="2">
-        <v>13.64438772247456</v>
+        <v>13.65434768276968</v>
       </c>
       <c r="AA22" s="2">
-        <v>1.381713693595265</v>
+        <v>1.3550758973953381</v>
       </c>
       <c r="AB22" s="2">
-        <v>27.250481060854732</v>
+        <v>27.272961761971558</v>
       </c>
       <c r="AC22" s="2">
-        <v>2.7462691696763608</v>
+        <v>2.7534472197438808</v>
       </c>
       <c r="AD22" s="2">
-        <v>32.932202127567592</v>
+        <v>32.939525201476741</v>
       </c>
       <c r="AE22" s="2">
-        <v>2.003946389031118</v>
+        <v>1.985658125968391</v>
       </c>
     </row>
   </sheetData>
@@ -2785,64 +2764,64 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>47.660225994812343</v>
+        <v>47.705753115107058</v>
       </c>
       <c r="C2" s="2">
-        <v>3.3501738893114941</v>
+        <v>3.3440706868455949</v>
       </c>
       <c r="D2" s="2">
-        <v>47.660225994812343</v>
+        <v>47.705753115107058</v>
       </c>
       <c r="E2" s="2">
-        <v>3.3501738893114941</v>
+        <v>3.3440706868455949</v>
       </c>
       <c r="F2" s="2">
-        <v>4.6538937457122911</v>
+        <v>4.6610575367831721</v>
       </c>
       <c r="G2" s="2">
-        <v>0.40641228111807359</v>
+        <v>0.40478595444020071</v>
       </c>
       <c r="H2" s="2">
-        <v>4.6538937457122911</v>
+        <v>4.6610575367831721</v>
       </c>
       <c r="I2" s="2">
-        <v>0.40641228111807359</v>
+        <v>0.40478595444020071</v>
       </c>
       <c r="J2" s="2">
-        <v>23.199746967091261</v>
+        <v>23.228482719972909</v>
       </c>
       <c r="K2" s="2">
-        <v>2.030108627432881</v>
+        <v>2.0219551676547791</v>
       </c>
       <c r="L2" s="2">
-        <v>23.199746967091261</v>
+        <v>23.228482719972909</v>
       </c>
       <c r="M2" s="2">
-        <v>2.030108627432881</v>
+        <v>2.0219551676547791</v>
       </c>
       <c r="N2" s="2">
-        <v>15.687921057430829</v>
+        <v>15.71203034695924</v>
       </c>
       <c r="O2" s="2">
-        <v>1.3352030452516741</v>
+        <v>1.339579149560113</v>
       </c>
       <c r="P2" s="2">
-        <v>15.687921057430829</v>
+        <v>15.71203034695924</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.3352030452516741</v>
+        <v>1.339579149560113</v>
       </c>
       <c r="R2" s="2">
-        <v>2.0472943296256569</v>
+        <v>2.0456591699557638</v>
       </c>
       <c r="S2" s="2">
-        <v>0.20434388340317111</v>
+        <v>0.2044348388148296</v>
       </c>
       <c r="T2" s="2">
-        <v>2.0472943296256569</v>
+        <v>2.0456591699557638</v>
       </c>
       <c r="U2" s="2">
-        <v>0.20434388340317111</v>
+        <v>0.2044348388148296</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2850,64 +2829,64 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>52.422054798665933</v>
+        <v>52.436210198709659</v>
       </c>
       <c r="C3" s="2">
-        <v>3.742894461307412</v>
+        <v>3.710071885667908</v>
       </c>
       <c r="D3" s="2">
-        <v>100.0822807934786</v>
+        <v>100.141963313817</v>
       </c>
       <c r="E3" s="2">
-        <v>5.0083302175577069</v>
+        <v>4.9792578925317521</v>
       </c>
       <c r="F3" s="2">
-        <v>5.1221944336542444</v>
+        <v>5.1211541405378176</v>
       </c>
       <c r="G3" s="2">
-        <v>0.44633093925054418</v>
+        <v>0.44630409914697622</v>
       </c>
       <c r="H3" s="2">
-        <v>9.7760881793666101</v>
+        <v>9.7822116773210155</v>
       </c>
       <c r="I3" s="2">
-        <v>0.60125861933508395</v>
+        <v>0.60817608413777802</v>
       </c>
       <c r="J3" s="2">
-        <v>18.11185481716053</v>
+        <v>18.130114426819329</v>
       </c>
       <c r="K3" s="2">
-        <v>2.334021859215071</v>
+        <v>2.3352750577234489</v>
       </c>
       <c r="L3" s="2">
-        <v>41.311601784251827</v>
+        <v>41.358597146792391</v>
       </c>
       <c r="M3" s="2">
-        <v>3.075393001995534</v>
+        <v>3.078674927849768</v>
       </c>
       <c r="N3" s="2">
-        <v>24.61703102970414</v>
+        <v>24.620010353570301</v>
       </c>
       <c r="O3" s="2">
-        <v>1.613863711496857</v>
+        <v>1.6359619140038111</v>
       </c>
       <c r="P3" s="2">
-        <v>40.304952087135163</v>
+        <v>40.332040700529312</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0942432239844089</v>
+        <v>2.1339875573771949</v>
       </c>
       <c r="R3" s="2">
-        <v>2.248668212211284</v>
+        <v>2.2515621291379229</v>
       </c>
       <c r="S3" s="2">
-        <v>0.2276957355094818</v>
+        <v>0.22790720082378729</v>
       </c>
       <c r="T3" s="2">
-        <v>4.2959625418369516</v>
+        <v>4.2972212990937013</v>
       </c>
       <c r="U3" s="2">
-        <v>0.30317806737750952</v>
+        <v>0.30759514556348527</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -2915,64 +2894,64 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>57.257319142294207</v>
+        <v>57.200861143503047</v>
       </c>
       <c r="C4" s="2">
-        <v>4.0935649335307964</v>
+        <v>4.0438891364278504</v>
       </c>
       <c r="D4" s="2">
-        <v>157.33959993577221</v>
+        <v>157.34282445731921</v>
       </c>
       <c r="E4" s="2">
-        <v>6.469956999994217</v>
+        <v>6.4458202625091756</v>
       </c>
       <c r="F4" s="2">
-        <v>5.5968563172856429</v>
+        <v>5.5850132399250088</v>
       </c>
       <c r="G4" s="2">
-        <v>0.48793681308133019</v>
+        <v>0.48151338335313892</v>
       </c>
       <c r="H4" s="2">
-        <v>15.37294449665219</v>
+        <v>15.367224917245929</v>
       </c>
       <c r="I4" s="2">
-        <v>0.77164169106175229</v>
+        <v>0.77432401560629005</v>
       </c>
       <c r="J4" s="2">
-        <v>17.11474183372227</v>
+        <v>17.097140705012631</v>
       </c>
       <c r="K4" s="2">
-        <v>2.5532116642446989</v>
+        <v>2.5390052637743268</v>
       </c>
       <c r="L4" s="2">
-        <v>58.426343617974233</v>
+        <v>58.455737851804813</v>
       </c>
       <c r="M4" s="2">
-        <v>4.0521693162786354</v>
+        <v>4.063355610607787</v>
       </c>
       <c r="N4" s="2">
-        <v>29.566255010287939</v>
+        <v>29.506751001051679</v>
       </c>
       <c r="O4" s="2">
-        <v>1.7799506989151459</v>
+        <v>1.7709676058866111</v>
       </c>
       <c r="P4" s="2">
-        <v>69.871207097422953</v>
+        <v>69.838791701581187</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.7910943492955842</v>
+        <v>2.847389183478144</v>
       </c>
       <c r="R4" s="2">
-        <v>2.4570424668450821</v>
+        <v>2.451019579887824</v>
       </c>
       <c r="S4" s="2">
-        <v>0.24605400078685249</v>
+        <v>0.24383917485978521</v>
       </c>
       <c r="T4" s="2">
-        <v>6.7530050086820239</v>
+        <v>6.7482408789814734</v>
       </c>
       <c r="U4" s="2">
-        <v>0.39195274879831488</v>
+        <v>0.3926781120694835</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -2980,64 +2959,64 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>61.949649506431221</v>
+        <v>61.957634785297628</v>
       </c>
       <c r="C5" s="2">
-        <v>4.4057131759736414</v>
+        <v>4.3667196909190702</v>
       </c>
       <c r="D5" s="2">
-        <v>219.28924944220341</v>
+        <v>219.30045924261731</v>
       </c>
       <c r="E5" s="2">
-        <v>7.8269376672042243</v>
+        <v>7.7714931601674584</v>
       </c>
       <c r="F5" s="2">
-        <v>6.0458088310121934</v>
+        <v>6.0551973917095756</v>
       </c>
       <c r="G5" s="2">
-        <v>0.52646482216496715</v>
+        <v>0.52156488503954068</v>
       </c>
       <c r="H5" s="2">
-        <v>21.418753327664341</v>
+        <v>21.422422308955738</v>
       </c>
       <c r="I5" s="2">
-        <v>0.93804843587518927</v>
+        <v>0.93017006756366871</v>
       </c>
       <c r="J5" s="2">
-        <v>17.397779518846299</v>
+        <v>17.437369086864461</v>
       </c>
       <c r="K5" s="2">
-        <v>2.7268201424211149</v>
+        <v>2.7381987309632909</v>
       </c>
       <c r="L5" s="2">
-        <v>75.824123136820418</v>
+        <v>75.893106938669021</v>
       </c>
       <c r="M5" s="2">
-        <v>4.9332275879379646</v>
+        <v>4.968558440279133</v>
       </c>
       <c r="N5" s="2">
-        <v>33.101627752688387</v>
+        <v>33.097384854195937</v>
       </c>
       <c r="O5" s="2">
-        <v>1.882271712892539</v>
+        <v>1.9059323085942821</v>
       </c>
       <c r="P5" s="2">
-        <v>102.9728348501112</v>
+        <v>102.93617655577771</v>
       </c>
       <c r="Q5" s="2">
-        <v>3.4647265786060291</v>
+        <v>3.5060952925633631</v>
       </c>
       <c r="R5" s="2">
-        <v>2.656067818602589</v>
+        <v>2.6634923682493801</v>
       </c>
       <c r="S5" s="2">
-        <v>0.26478984260305921</v>
+        <v>0.26630824149060328</v>
       </c>
       <c r="T5" s="2">
-        <v>9.4090728272846107</v>
+        <v>9.4117332472309041</v>
       </c>
       <c r="U5" s="2">
-        <v>0.47582192976145721</v>
+        <v>0.47464209250361478</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -3045,64 +3024,64 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>66.825151437325218</v>
+        <v>66.746354533200517</v>
       </c>
       <c r="C6" s="2">
-        <v>4.7044551183556136</v>
+        <v>4.6927302907365078</v>
       </c>
       <c r="D6" s="2">
-        <v>286.11440087952911</v>
+        <v>286.04681377581829</v>
       </c>
       <c r="E6" s="2">
-        <v>9.1621771652204096</v>
+        <v>8.9798204597730891</v>
       </c>
       <c r="F6" s="2">
-        <v>6.5146034216308841</v>
+        <v>6.5109480483732289</v>
       </c>
       <c r="G6" s="2">
-        <v>0.56915514040194715</v>
+        <v>0.56739468439309404</v>
       </c>
       <c r="H6" s="2">
-        <v>27.933356749295179</v>
+        <v>27.933370357328759</v>
       </c>
       <c r="I6" s="2">
-        <v>1.0962343941413339</v>
+        <v>1.079299864515298</v>
       </c>
       <c r="J6" s="2">
-        <v>18.252428611919662</v>
+        <v>18.245158558776829</v>
       </c>
       <c r="K6" s="2">
-        <v>2.9703847573605739</v>
+        <v>2.9377994213373548</v>
       </c>
       <c r="L6" s="2">
-        <v>94.0765517487404</v>
+        <v>94.138265497446199</v>
       </c>
       <c r="M6" s="2">
-        <v>5.8134294105837618</v>
+        <v>5.8279042450252474</v>
       </c>
       <c r="N6" s="2">
-        <v>36.161500315427467</v>
+        <v>36.142553965003167</v>
       </c>
       <c r="O6" s="2">
-        <v>2.068673875335135</v>
+        <v>2.0733424239585938</v>
       </c>
       <c r="P6" s="2">
-        <v>139.13433516553931</v>
+        <v>139.07873052078071</v>
       </c>
       <c r="Q6" s="2">
-        <v>4.1009805723021771</v>
+        <v>4.1699627820859746</v>
       </c>
       <c r="R6" s="2">
-        <v>2.8616955009519218</v>
+        <v>2.8617219352299199</v>
       </c>
       <c r="S6" s="2">
-        <v>0.28603860504829431</v>
+        <v>0.28609268437888358</v>
       </c>
       <c r="T6" s="2">
-        <v>12.270768328236549</v>
+        <v>12.273455182460809</v>
       </c>
       <c r="U6" s="2">
-        <v>0.55328510238327766</v>
+        <v>0.55240155839116578</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -3110,64 +3089,64 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>71.498713361492818</v>
+        <v>71.509944160235847</v>
       </c>
       <c r="C7" s="2">
-        <v>5.055125473759829</v>
+        <v>5.0474330130424523</v>
       </c>
       <c r="D7" s="2">
-        <v>357.6131142410207</v>
+        <v>357.55675793605388</v>
       </c>
       <c r="E7" s="2">
-        <v>10.385954238887949</v>
+        <v>10.1773398725825</v>
       </c>
       <c r="F7" s="2">
-        <v>6.9740612886170039</v>
+        <v>6.9856387253716257</v>
       </c>
       <c r="G7" s="2">
-        <v>0.59637870499688528</v>
+        <v>0.60047229673951552</v>
       </c>
       <c r="H7" s="2">
-        <v>34.907418037912286</v>
+        <v>34.919009082700327</v>
       </c>
       <c r="I7" s="2">
-        <v>1.2474030732560211</v>
+        <v>1.2336485739922209</v>
       </c>
       <c r="J7" s="2">
-        <v>19.295637427716741</v>
+        <v>19.32155877207823</v>
       </c>
       <c r="K7" s="2">
-        <v>3.1699436345366578</v>
+        <v>3.1526125842701451</v>
       </c>
       <c r="L7" s="2">
-        <v>113.3721891764567</v>
+        <v>113.45982426952391</v>
       </c>
       <c r="M7" s="2">
-        <v>6.6474707081877202</v>
+        <v>6.7114633459158757</v>
       </c>
       <c r="N7" s="2">
-        <v>38.981165568053179</v>
+        <v>39.022097211531118</v>
       </c>
       <c r="O7" s="2">
-        <v>2.1990760444121742</v>
+        <v>2.21404565127825</v>
       </c>
       <c r="P7" s="2">
-        <v>178.115500733593</v>
+        <v>178.10082773231159</v>
       </c>
       <c r="Q7" s="2">
-        <v>4.7185775482548227</v>
+        <v>4.7838368908889866</v>
       </c>
       <c r="R7" s="2">
-        <v>3.0668741613731112</v>
+        <v>3.0695634887416579</v>
       </c>
       <c r="S7" s="2">
-        <v>0.30107784640248741</v>
+        <v>0.306943113525533</v>
       </c>
       <c r="T7" s="2">
-        <v>15.337642489609649</v>
+        <v>15.343018671202501</v>
       </c>
       <c r="U7" s="2">
-        <v>0.63029371026244208</v>
+        <v>0.62958021001468223</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -3175,64 +3154,64 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>76.330931374452703</v>
+        <v>76.270292695695971</v>
       </c>
       <c r="C8" s="2">
-        <v>5.3458302577854431</v>
+        <v>5.4052795260461206</v>
       </c>
       <c r="D8" s="2">
-        <v>433.94404561547532</v>
+        <v>433.82705063174978</v>
       </c>
       <c r="E8" s="2">
-        <v>11.61688502475749</v>
+        <v>11.62167841064589</v>
       </c>
       <c r="F8" s="2">
-        <v>7.4385934925386596</v>
+        <v>7.4452850477051706</v>
       </c>
       <c r="G8" s="2">
-        <v>0.6459825067338284</v>
+        <v>0.64836182970648859</v>
       </c>
       <c r="H8" s="2">
-        <v>42.346011530451086</v>
+        <v>42.364294130405497</v>
       </c>
       <c r="I8" s="2">
-        <v>1.3981506548100491</v>
+        <v>1.3998272352538159</v>
       </c>
       <c r="J8" s="2">
-        <v>20.432480930670518</v>
+        <v>20.413119983588409</v>
       </c>
       <c r="K8" s="2">
-        <v>3.4280669507153672</v>
+        <v>3.4246704343430192</v>
       </c>
       <c r="L8" s="2">
-        <v>133.80467010712721</v>
+        <v>133.87294425311279</v>
       </c>
       <c r="M8" s="2">
-        <v>7.5163973500740919</v>
+        <v>7.6611765537034966</v>
       </c>
       <c r="N8" s="2">
-        <v>41.776977321182507</v>
+        <v>41.744084390098351</v>
       </c>
       <c r="O8" s="2">
-        <v>2.3742457736036608</v>
+        <v>2.349681363732981</v>
       </c>
       <c r="P8" s="2">
-        <v>219.8924780547749</v>
+        <v>219.84491212240891</v>
       </c>
       <c r="Q8" s="2">
-        <v>5.3574077961883813</v>
+        <v>5.434841213080805</v>
       </c>
       <c r="R8" s="2">
-        <v>3.2744773437967551</v>
+        <v>3.2729923216408219</v>
       </c>
       <c r="S8" s="2">
-        <v>0.32864269558402393</v>
+        <v>0.33065561355211381</v>
       </c>
       <c r="T8" s="2">
-        <v>18.612119833406432</v>
+        <v>18.61601099284325</v>
       </c>
       <c r="U8" s="2">
-        <v>0.71104263346815832</v>
+        <v>0.71304011419550417</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -3240,64 +3219,64 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>81.047981047306592</v>
+        <v>81.04863119798452</v>
       </c>
       <c r="C9" s="2">
-        <v>5.8004757660693977</v>
+        <v>5.8584750288818972</v>
       </c>
       <c r="D9" s="2">
-        <v>514.99202666278143</v>
+        <v>514.87568182973666</v>
       </c>
       <c r="E9" s="2">
-        <v>12.950116069913051</v>
+        <v>13.105791100482641</v>
       </c>
       <c r="F9" s="2">
-        <v>7.9162133151853773</v>
+        <v>7.9266557751068776</v>
       </c>
       <c r="G9" s="2">
-        <v>0.69318481263118548</v>
+        <v>0.68054495058206332</v>
       </c>
       <c r="H9" s="2">
-        <v>50.262224845636283</v>
+        <v>50.290949905512392</v>
       </c>
       <c r="I9" s="2">
-        <v>1.5519630069344741</v>
+        <v>1.564051478058762</v>
       </c>
       <c r="J9" s="2">
-        <v>21.56003189676073</v>
+        <v>21.615088039973529</v>
       </c>
       <c r="K9" s="2">
-        <v>3.6122168220039632</v>
+        <v>3.5975402381037949</v>
       </c>
       <c r="L9" s="2">
-        <v>155.36470200388919</v>
+        <v>155.48803229308541</v>
       </c>
       <c r="M9" s="2">
-        <v>8.3887610689178356</v>
+        <v>8.484723118540888</v>
       </c>
       <c r="N9" s="2">
-        <v>44.542124942069243</v>
+        <v>44.530909680123649</v>
       </c>
       <c r="O9" s="2">
-        <v>2.5098901576089609</v>
+        <v>2.5385028758913122</v>
       </c>
       <c r="P9" s="2">
-        <v>264.43460299684449</v>
+        <v>264.37582180253412</v>
       </c>
       <c r="Q9" s="2">
-        <v>6.0092335744323657</v>
+        <v>6.1204524280021726</v>
       </c>
       <c r="R9" s="2">
-        <v>3.4807107325500022</v>
+        <v>3.4845365392351519</v>
       </c>
       <c r="S9" s="2">
-        <v>0.35261011975709372</v>
+        <v>0.34956804537139102</v>
       </c>
       <c r="T9" s="2">
-        <v>22.092830565956461</v>
+        <v>22.100547532078451</v>
       </c>
       <c r="U9" s="2">
-        <v>0.7910561567459079</v>
+        <v>0.79450454115282532</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -3305,64 +3284,64 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>85.879874954935218</v>
+        <v>85.899438744605007</v>
       </c>
       <c r="C10" s="2">
-        <v>6.0802539626037397</v>
+        <v>6.109114374102032</v>
       </c>
       <c r="D10" s="2">
-        <v>600.87190161771696</v>
+        <v>600.77512057434103</v>
       </c>
       <c r="E10" s="2">
-        <v>14.30322578422591</v>
+        <v>14.414193661129071</v>
       </c>
       <c r="F10" s="2">
-        <v>8.389520053965116</v>
+        <v>8.374218359158311</v>
       </c>
       <c r="G10" s="2">
-        <v>0.72819110828662781</v>
+        <v>0.73660089528705275</v>
       </c>
       <c r="H10" s="2">
-        <v>58.65174489960129</v>
+        <v>58.665168264670733</v>
       </c>
       <c r="I10" s="2">
-        <v>1.7119104208584459</v>
+        <v>1.7241563236631769</v>
       </c>
       <c r="J10" s="2">
-        <v>22.76909395960924</v>
+        <v>22.701526980475041</v>
       </c>
       <c r="K10" s="2">
-        <v>3.808873463800154</v>
+        <v>3.8143871389919179</v>
       </c>
       <c r="L10" s="2">
-        <v>178.13379596349779</v>
+        <v>178.18955927356129</v>
       </c>
       <c r="M10" s="2">
-        <v>9.3171105944581409</v>
+        <v>9.3526174001669951</v>
       </c>
       <c r="N10" s="2">
-        <v>47.310206882813013</v>
+        <v>47.216034864556107</v>
       </c>
       <c r="O10" s="2">
-        <v>2.6820230635462918</v>
+        <v>2.6648704244125092</v>
       </c>
       <c r="P10" s="2">
-        <v>311.74480987965899</v>
+        <v>311.59185666708998</v>
       </c>
       <c r="Q10" s="2">
-        <v>6.6654015374047706</v>
+        <v>6.7900558392705799</v>
       </c>
       <c r="R10" s="2">
-        <v>3.6874931733950649</v>
+        <v>3.6833455507509711</v>
       </c>
       <c r="S10" s="2">
-        <v>0.37041462159297239</v>
+        <v>0.36888995777206879</v>
       </c>
       <c r="T10" s="2">
-        <v>25.780323739351459</v>
+        <v>25.783893082829469</v>
       </c>
       <c r="U10" s="2">
-        <v>0.88087884643113235</v>
+        <v>0.87978306617007762</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -3370,64 +3349,64 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>90.563304169764237</v>
+        <v>90.588229737779159</v>
       </c>
       <c r="C11" s="2">
-        <v>6.4503199473324644</v>
+        <v>6.5107256902954749</v>
       </c>
       <c r="D11" s="2">
-        <v>691.43520578748178</v>
+        <v>691.3633503121182</v>
       </c>
       <c r="E11" s="2">
-        <v>15.631452849550969</v>
+        <v>15.842731512501141</v>
       </c>
       <c r="F11" s="2">
-        <v>8.8462932834621899</v>
+        <v>8.8407967549476236</v>
       </c>
       <c r="G11" s="2">
-        <v>0.76571382455421633</v>
+        <v>0.7650993310958254</v>
       </c>
       <c r="H11" s="2">
-        <v>67.498038183063542</v>
+        <v>67.505965019618316</v>
       </c>
       <c r="I11" s="2">
-        <v>1.867482017302013</v>
+        <v>1.884439320076803</v>
       </c>
       <c r="J11" s="2">
-        <v>23.847974284557761</v>
+        <v>23.874186610998532</v>
       </c>
       <c r="K11" s="2">
-        <v>4.0115378414188942</v>
+        <v>4.0280173332313467</v>
       </c>
       <c r="L11" s="2">
-        <v>201.98177024805449</v>
+        <v>202.06374588455941</v>
       </c>
       <c r="M11" s="2">
-        <v>10.18941777543114</v>
+        <v>10.271821162639361</v>
       </c>
       <c r="N11" s="2">
-        <v>49.936655034530183</v>
+        <v>49.976972691986717</v>
       </c>
       <c r="O11" s="2">
-        <v>2.813856057957357</v>
+        <v>2.8243604485483291</v>
       </c>
       <c r="P11" s="2">
-        <v>361.68146491418798</v>
+        <v>361.56882935907538</v>
       </c>
       <c r="Q11" s="2">
-        <v>7.3667391439677168</v>
+        <v>7.4811949176614529</v>
       </c>
       <c r="R11" s="2">
-        <v>3.8824454810079989</v>
+        <v>3.8875321687475348</v>
       </c>
       <c r="S11" s="2">
-        <v>0.38997553859448503</v>
+        <v>0.39022258863164849</v>
       </c>
       <c r="T11" s="2">
-        <v>29.662769220359419</v>
+        <v>29.671425251577169</v>
       </c>
       <c r="U11" s="2">
-        <v>0.96278155958634626</v>
+        <v>0.9626034339435009</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -3435,64 +3414,64 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>95.357972741660106</v>
+        <v>95.348937856633967</v>
       </c>
       <c r="C12" s="2">
-        <v>6.7774080239436749</v>
+        <v>6.6678752309778808</v>
       </c>
       <c r="D12" s="2">
-        <v>786.7931785291363</v>
+        <v>786.71228816875328</v>
       </c>
       <c r="E12" s="2">
-        <v>17.026458122303591</v>
+        <v>17.12677934555683</v>
       </c>
       <c r="F12" s="2">
-        <v>9.3021842604495539</v>
+        <v>9.3139661926221109</v>
       </c>
       <c r="G12" s="2">
-        <v>0.80666765963048848</v>
+        <v>0.80047677857526722</v>
       </c>
       <c r="H12" s="2">
-        <v>76.800222443513519</v>
+        <v>76.81993121224086</v>
       </c>
       <c r="I12" s="2">
-        <v>2.0343849970130661</v>
+        <v>2.062168293618778</v>
       </c>
       <c r="J12" s="2">
-        <v>24.965310433589192</v>
+        <v>25.079772501198729</v>
       </c>
       <c r="K12" s="2">
-        <v>4.2117433002642697</v>
+        <v>4.2308279861043276</v>
       </c>
       <c r="L12" s="2">
-        <v>226.94708068164451</v>
+        <v>227.1435183857586</v>
       </c>
       <c r="M12" s="2">
-        <v>11.16258999192978</v>
+        <v>11.20756799041467</v>
       </c>
       <c r="N12" s="2">
-        <v>52.663575281590269</v>
+        <v>52.744404579434622</v>
       </c>
       <c r="O12" s="2">
-        <v>2.9323498569383788</v>
+        <v>2.950119053236536</v>
       </c>
       <c r="P12" s="2">
-        <v>414.34504019577798</v>
+        <v>414.31323393851079</v>
       </c>
       <c r="Q12" s="2">
-        <v>8.0279471937618965</v>
+        <v>8.1968812509021891</v>
       </c>
       <c r="R12" s="2">
-        <v>4.0867020063564068</v>
+        <v>4.0915390450716469</v>
       </c>
       <c r="S12" s="2">
-        <v>0.4060502431520509</v>
+        <v>0.40315739013811708</v>
       </c>
       <c r="T12" s="2">
-        <v>33.749471226715777</v>
+        <v>33.762964296648583</v>
       </c>
       <c r="U12" s="2">
-        <v>1.0462361977326839</v>
+        <v>1.048048809790435</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -3500,64 +3479,64 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>4.7684330338121548</v>
+        <v>4.7683396496814323</v>
       </c>
       <c r="C13" s="2">
-        <v>0.33257182913105598</v>
+        <v>0.33867270382961279</v>
       </c>
       <c r="D13" s="2">
-        <v>791.56161156295195</v>
+        <v>791.48062781843896</v>
       </c>
       <c r="E13" s="2">
-        <v>17.02928770616607</v>
+        <v>17.133461615871731</v>
       </c>
       <c r="F13" s="2">
-        <v>0.4664675500940117</v>
+        <v>0.46531994495663193</v>
       </c>
       <c r="G13" s="2">
-        <v>4.0062519381763653E-2</v>
+        <v>4.0698304349919917E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>77.266689993607102</v>
+        <v>77.285251157196782</v>
       </c>
       <c r="I13" s="2">
-        <v>2.0346052422348149</v>
+        <v>2.0631296989241892</v>
       </c>
       <c r="J13" s="2">
-        <v>-20.169481163493671</v>
+        <v>-20.19555686423999</v>
       </c>
       <c r="K13" s="2">
-        <v>1.3812611259295331</v>
+        <v>1.372636328833674</v>
       </c>
       <c r="L13" s="2">
-        <v>206.7775995181502</v>
+        <v>206.9479615215177</v>
       </c>
       <c r="M13" s="2">
-        <v>11.311863623624239</v>
+        <v>11.383959726837309</v>
       </c>
       <c r="N13" s="2">
-        <v>24.061174064847819</v>
+        <v>24.081804888412609</v>
       </c>
       <c r="O13" s="2">
-        <v>1.377472766890492</v>
+        <v>1.3690363384404269</v>
       </c>
       <c r="P13" s="2">
-        <v>438.40621426062398</v>
+        <v>438.39503882692418</v>
       </c>
       <c r="Q13" s="2">
-        <v>8.2759175642404035</v>
+        <v>8.426830597624603</v>
       </c>
       <c r="R13" s="2">
-        <v>0.20467780432154439</v>
+        <v>0.20479916607583701</v>
       </c>
       <c r="S13" s="2">
-        <v>2.0374891187377429E-2</v>
+        <v>2.062032551966932E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>33.954149031037417</v>
+        <v>33.967763462724371</v>
       </c>
       <c r="U13" s="2">
-        <v>1.0466903905514049</v>
+        <v>1.04850793587643</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -3565,64 +3544,64 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>104.83152232905429</v>
+        <v>105.0613491191297</v>
       </c>
       <c r="C14" s="2">
-        <v>7.3720061135542103</v>
+        <v>7.367263262713724</v>
       </c>
       <c r="D14" s="2">
-        <v>896.39313389201197</v>
+        <v>896.54197693756282</v>
       </c>
       <c r="E14" s="2">
-        <v>18.569862200646352</v>
+        <v>18.689585059609701</v>
       </c>
       <c r="F14" s="2">
-        <v>10.247891225090131</v>
+        <v>10.24806279624692</v>
       </c>
       <c r="G14" s="2">
-        <v>0.88828562558299318</v>
+        <v>0.88754807674390923</v>
       </c>
       <c r="H14" s="2">
-        <v>87.514581218697415</v>
+        <v>87.533313953444349</v>
       </c>
       <c r="I14" s="2">
-        <v>2.2270250017875481</v>
+        <v>2.2341355168831418</v>
       </c>
       <c r="J14" s="2">
-        <v>42.039741283066817</v>
+        <v>42.112065399057137</v>
       </c>
       <c r="K14" s="2">
-        <v>4.500850431655949</v>
+        <v>4.4872504116129832</v>
       </c>
       <c r="L14" s="2">
-        <v>248.8173408012172</v>
+        <v>249.06002692057589</v>
       </c>
       <c r="M14" s="2">
-        <v>12.232907532462161</v>
+        <v>12.249953299884909</v>
       </c>
       <c r="N14" s="2">
-        <v>43.395554801350301</v>
+        <v>43.470375588956792</v>
       </c>
       <c r="O14" s="2">
-        <v>2.9913782088673249</v>
+        <v>2.9926484951516739</v>
       </c>
       <c r="P14" s="2">
-        <v>481.80176906197693</v>
+        <v>481.86541441587968</v>
       </c>
       <c r="Q14" s="2">
-        <v>8.8957910926067889</v>
+        <v>8.9948895226116807</v>
       </c>
       <c r="R14" s="2">
-        <v>4.4936748250798262</v>
+        <v>4.5021027872715207</v>
       </c>
       <c r="S14" s="2">
-        <v>0.44982735985388339</v>
+        <v>0.45228275629444081</v>
       </c>
       <c r="T14" s="2">
-        <v>38.447823856117381</v>
+        <v>38.46986624999596</v>
       </c>
       <c r="U14" s="2">
-        <v>1.135824862505538</v>
+        <v>1.142448770513218</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -3630,64 +3609,64 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>109.5678270266741</v>
+        <v>109.5993866520855</v>
       </c>
       <c r="C15" s="2">
-        <v>7.7861241710343227</v>
+        <v>7.6950840224640524</v>
       </c>
       <c r="D15" s="2">
-        <v>1005.960960918679</v>
+        <v>1006.1413635896459</v>
       </c>
       <c r="E15" s="2">
-        <v>20.171094751509241</v>
+        <v>20.184318157114291</v>
       </c>
       <c r="F15" s="2">
-        <v>10.715305995017159</v>
+        <v>10.71243911729384</v>
       </c>
       <c r="G15" s="2">
-        <v>0.92281601878898201</v>
+        <v>0.93116902443117144</v>
       </c>
       <c r="H15" s="2">
-        <v>98.229887213714974</v>
+        <v>98.245753070738019</v>
       </c>
       <c r="I15" s="2">
-        <v>2.417964398845224</v>
+        <v>2.4041053838997479</v>
       </c>
       <c r="J15" s="2">
-        <v>33.702507017892543</v>
+        <v>33.692581064674272</v>
       </c>
       <c r="K15" s="2">
-        <v>4.792342831320437</v>
+        <v>4.8973047354284027</v>
       </c>
       <c r="L15" s="2">
-        <v>282.51984781910829</v>
+        <v>282.75260798525022</v>
       </c>
       <c r="M15" s="2">
-        <v>13.12989723444514</v>
+        <v>13.221152398234031</v>
       </c>
       <c r="N15" s="2">
-        <v>55.631097189022718</v>
+        <v>55.722579140216652</v>
       </c>
       <c r="O15" s="2">
-        <v>3.3755696043013712</v>
+        <v>3.3910160814401569</v>
       </c>
       <c r="P15" s="2">
-        <v>537.43286625099631</v>
+        <v>537.58799355609585</v>
       </c>
       <c r="Q15" s="2">
-        <v>9.5729329576416742</v>
+        <v>9.6914156575552308</v>
       </c>
       <c r="R15" s="2">
-        <v>4.7023952984089759</v>
+        <v>4.7014523698813298</v>
       </c>
       <c r="S15" s="2">
-        <v>0.46627795000993838</v>
+        <v>0.47115810420573728</v>
       </c>
       <c r="T15" s="2">
-        <v>43.150219154526212</v>
+        <v>43.171318619877447</v>
       </c>
       <c r="U15" s="2">
-        <v>1.2221656037253079</v>
+        <v>1.235559587067252</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -3695,64 +3674,64 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>114.5944687622215</v>
+        <v>114.253022854419</v>
       </c>
       <c r="C16" s="2">
-        <v>8.1682103927385334</v>
+        <v>8.0079123378293691</v>
       </c>
       <c r="D16" s="2">
-        <v>1120.5554296809021</v>
+        <v>1120.394386444065</v>
       </c>
       <c r="E16" s="2">
-        <v>21.88164247128929</v>
+        <v>21.71161832647967</v>
       </c>
       <c r="F16" s="2">
-        <v>11.16788766474774</v>
+        <v>11.16154578820518</v>
       </c>
       <c r="G16" s="2">
-        <v>0.97094559128685154</v>
+        <v>0.9623821137524563</v>
       </c>
       <c r="H16" s="2">
-        <v>109.3977748784627</v>
+        <v>109.40729885894289</v>
       </c>
       <c r="I16" s="2">
-        <v>2.6079416354847771</v>
+        <v>2.5930791982093151</v>
       </c>
       <c r="J16" s="2">
-        <v>31.66822984807126</v>
+        <v>31.57413632250816</v>
       </c>
       <c r="K16" s="2">
-        <v>5.065281022419077</v>
+        <v>5.0662304293940137</v>
       </c>
       <c r="L16" s="2">
-        <v>314.18807766718243</v>
+        <v>314.32674430775887</v>
       </c>
       <c r="M16" s="2">
-        <v>14.17984347730216</v>
+        <v>14.27106770996096</v>
       </c>
       <c r="N16" s="2">
-        <v>61.58287655990766</v>
+        <v>61.596400056241947</v>
       </c>
       <c r="O16" s="2">
-        <v>3.5118316023018381</v>
+        <v>3.509454157288288</v>
       </c>
       <c r="P16" s="2">
-        <v>599.01574281090291</v>
+        <v>599.1843936123413</v>
       </c>
       <c r="Q16" s="2">
-        <v>10.312303583673931</v>
+        <v>10.414254295545931</v>
       </c>
       <c r="R16" s="2">
-        <v>4.9041829057349888</v>
+        <v>4.9086185379262526</v>
       </c>
       <c r="S16" s="2">
-        <v>0.48993159424243282</v>
+        <v>0.48915902375007031</v>
       </c>
       <c r="T16" s="2">
-        <v>48.054402060261403</v>
+        <v>48.079937157803421</v>
       </c>
       <c r="U16" s="2">
-        <v>1.313538707589845</v>
+        <v>1.333136926089151</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -3760,64 +3739,64 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>119.10894213667819</v>
+        <v>119.14293630588431</v>
       </c>
       <c r="C17" s="2">
-        <v>8.3811614803235166</v>
+        <v>8.4308940813810089</v>
       </c>
       <c r="D17" s="2">
-        <v>1239.664371817581</v>
+        <v>1239.5373227499549</v>
       </c>
       <c r="E17" s="2">
-        <v>23.450412417554649</v>
+        <v>23.42249696755632</v>
       </c>
       <c r="F17" s="2">
-        <v>11.658084413717731</v>
+        <v>11.65232539620791</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0181308179325841</v>
+        <v>1.0215018110719249</v>
       </c>
       <c r="H17" s="2">
-        <v>121.05585929218</v>
+        <v>121.05962425515121</v>
       </c>
       <c r="I17" s="2">
-        <v>2.8075418392778229</v>
+        <v>2.78074377268962</v>
       </c>
       <c r="J17" s="2">
-        <v>31.673029221256471</v>
+        <v>31.548424907686371</v>
       </c>
       <c r="K17" s="2">
-        <v>5.2895921791953846</v>
+        <v>5.3202572418363232</v>
       </c>
       <c r="L17" s="2">
-        <v>345.86110688843843</v>
+        <v>345.8751692154446</v>
       </c>
       <c r="M17" s="2">
-        <v>15.25920591428825</v>
+        <v>15.271808795286329</v>
       </c>
       <c r="N17" s="2">
-        <v>65.683795475139078</v>
+        <v>65.618426158211236</v>
       </c>
       <c r="O17" s="2">
-        <v>3.697112422085278</v>
+        <v>3.736889186579889</v>
       </c>
       <c r="P17" s="2">
-        <v>664.69953828604355</v>
+        <v>664.80281977054995</v>
       </c>
       <c r="Q17" s="2">
-        <v>11.06366237599304</v>
+        <v>11.19446925148128</v>
       </c>
       <c r="R17" s="2">
-        <v>5.1254243746689552</v>
+        <v>5.1157694437993424</v>
       </c>
       <c r="S17" s="2">
-        <v>0.51334586931642823</v>
+        <v>0.51416320926292969</v>
       </c>
       <c r="T17" s="2">
-        <v>53.179826434930128</v>
+        <v>53.195706601602907</v>
       </c>
       <c r="U17" s="2">
-        <v>1.4061785825182</v>
+        <v>1.4255956531717651</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -3825,64 +3804,64 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>123.8294598497861</v>
+        <v>123.94254262343171</v>
       </c>
       <c r="C18" s="2">
-        <v>8.875494810529025</v>
+        <v>8.6302135079946964</v>
       </c>
       <c r="D18" s="2">
-        <v>1363.4938316673799</v>
+        <v>1363.4798653733831</v>
       </c>
       <c r="E18" s="2">
-        <v>25.072184637719481</v>
+        <v>25.090120297265589</v>
       </c>
       <c r="F18" s="2">
-        <v>12.10151459657</v>
+        <v>12.105545870593319</v>
       </c>
       <c r="G18" s="2">
-        <v>1.047001223248748</v>
+        <v>1.049349013469367</v>
       </c>
       <c r="H18" s="2">
-        <v>133.15737388875101</v>
+        <v>133.16517012574479</v>
       </c>
       <c r="I18" s="2">
-        <v>2.9766793044319391</v>
+        <v>2.9839891814914341</v>
       </c>
       <c r="J18" s="2">
-        <v>32.209121141333753</v>
+        <v>32.301655246361427</v>
       </c>
       <c r="K18" s="2">
-        <v>5.5387595205688376</v>
+        <v>5.4792105844381194</v>
       </c>
       <c r="L18" s="2">
-        <v>378.07022802977292</v>
+        <v>378.17682446180538</v>
       </c>
       <c r="M18" s="2">
-        <v>16.240277846099961</v>
+        <v>16.413052607042591</v>
       </c>
       <c r="N18" s="2">
-        <v>68.742229906766738</v>
+        <v>68.826630702090569</v>
       </c>
       <c r="O18" s="2">
-        <v>3.8609288789318228</v>
+        <v>3.8581870352207162</v>
       </c>
       <c r="P18" s="2">
-        <v>733.44176819281438</v>
+        <v>733.62945047264225</v>
       </c>
       <c r="Q18" s="2">
-        <v>11.871251568410919</v>
+        <v>12.03128181522421</v>
       </c>
       <c r="R18" s="2">
-        <v>5.3100571954637168</v>
+        <v>5.3197238927542774</v>
       </c>
       <c r="S18" s="2">
-        <v>0.52855427140117062</v>
+        <v>0.53295202172037093</v>
       </c>
       <c r="T18" s="2">
-        <v>58.489883630393699</v>
+        <v>58.515430494357261</v>
       </c>
       <c r="U18" s="2">
-        <v>1.5036116024223329</v>
+        <v>1.5357226287114241</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -3890,64 +3869,64 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>128.5715243955465</v>
+        <v>128.64289902218599</v>
       </c>
       <c r="C19" s="2">
-        <v>9.1318769245272016</v>
+        <v>9.1552340684689053</v>
       </c>
       <c r="D19" s="2">
-        <v>1492.065356062915</v>
+        <v>1492.1227643955699</v>
       </c>
       <c r="E19" s="2">
-        <v>26.672662811008131</v>
+        <v>26.785286823475449</v>
       </c>
       <c r="F19" s="2">
-        <v>12.56283714075483</v>
+        <v>12.56042678417</v>
       </c>
       <c r="G19" s="2">
-        <v>1.0965455827533661</v>
+        <v>1.085874675294884</v>
       </c>
       <c r="H19" s="2">
-        <v>145.72021102950421</v>
+        <v>145.72559690991449</v>
       </c>
       <c r="I19" s="2">
-        <v>3.1859877409801891</v>
+        <v>3.194833088933875</v>
       </c>
       <c r="J19" s="2">
-        <v>33.15912500646251</v>
+        <v>33.31286651727558</v>
       </c>
       <c r="K19" s="2">
-        <v>5.7086171776848218</v>
+        <v>5.731202912449108</v>
       </c>
       <c r="L19" s="2">
-        <v>411.22935303623268</v>
+        <v>411.48969097908139</v>
       </c>
       <c r="M19" s="2">
-        <v>17.423084836670029</v>
+        <v>17.620971471164442</v>
       </c>
       <c r="N19" s="2">
-        <v>71.64254362086939</v>
+        <v>71.667179256021598</v>
       </c>
       <c r="O19" s="2">
-        <v>4.0203032221169108</v>
+        <v>4.0773563882472397</v>
       </c>
       <c r="P19" s="2">
-        <v>805.08431181368064</v>
+        <v>805.2966297286606</v>
       </c>
       <c r="Q19" s="2">
-        <v>12.742225741524409</v>
+        <v>12.82950090602659</v>
       </c>
       <c r="R19" s="2">
-        <v>5.5203230345378396</v>
+        <v>5.5260023842399226</v>
       </c>
       <c r="S19" s="2">
-        <v>0.54680479844916274</v>
+        <v>0.55048152590752308</v>
       </c>
       <c r="T19" s="2">
-        <v>64.010206664931886</v>
+        <v>64.041432878597391</v>
       </c>
       <c r="U19" s="2">
-        <v>1.607234339637607</v>
+        <v>1.637911378221218</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -3955,64 +3934,64 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>133.527971568411</v>
+        <v>133.279275923347</v>
       </c>
       <c r="C20" s="2">
-        <v>9.4030506294365281</v>
+        <v>9.5197022627928138</v>
       </c>
       <c r="D20" s="2">
-        <v>1625.5933276313219</v>
+        <v>1625.4020403189161</v>
       </c>
       <c r="E20" s="2">
-        <v>28.36447461171748</v>
+        <v>28.515621458000972</v>
       </c>
       <c r="F20" s="2">
-        <v>13.023219680873691</v>
+        <v>13.032419415523281</v>
       </c>
       <c r="G20" s="2">
-        <v>1.128587287785435</v>
+        <v>1.1378494332669049</v>
       </c>
       <c r="H20" s="2">
-        <v>158.74343071037879</v>
+        <v>158.75801632543769</v>
       </c>
       <c r="I20" s="2">
-        <v>3.378568331339193</v>
+        <v>3.3828991628477461</v>
       </c>
       <c r="J20" s="2">
-        <v>34.374668584011857</v>
+        <v>34.317857145031063</v>
       </c>
       <c r="K20" s="2">
-        <v>5.9817700595689098</v>
+        <v>5.9810764118080506</v>
       </c>
       <c r="L20" s="2">
-        <v>445.60402162024559</v>
+        <v>445.80754812411408</v>
       </c>
       <c r="M20" s="2">
-        <v>18.59945185050054</v>
+        <v>18.62251940411721</v>
       </c>
       <c r="N20" s="2">
-        <v>74.439169041227785</v>
+        <v>74.437288211151454</v>
       </c>
       <c r="O20" s="2">
-        <v>4.1767146558428374</v>
+        <v>4.1854026606403796</v>
       </c>
       <c r="P20" s="2">
-        <v>879.52348085490894</v>
+        <v>879.73391793981193</v>
       </c>
       <c r="Q20" s="2">
-        <v>13.607944471335561</v>
+        <v>13.5726944081837</v>
       </c>
       <c r="R20" s="2">
-        <v>5.7302651895236956</v>
+        <v>5.7116516083181583</v>
       </c>
       <c r="S20" s="2">
-        <v>0.57685256148884845</v>
+        <v>0.57639986101521412</v>
       </c>
       <c r="T20" s="2">
-        <v>69.740471854455919</v>
+        <v>69.753084486915597</v>
       </c>
       <c r="U20" s="2">
-        <v>1.719831917672364</v>
+        <v>1.7325258973438491</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -4020,64 +3999,64 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>138.20899250017251</v>
+        <v>138.36122962427399</v>
       </c>
       <c r="C21" s="2">
-        <v>9.6629065866523458</v>
+        <v>9.8334281352522019</v>
       </c>
       <c r="D21" s="2">
-        <v>1763.8023201315009</v>
+        <v>1763.763269943192</v>
       </c>
       <c r="E21" s="2">
-        <v>30.02927248162726</v>
+        <v>30.037092075592291</v>
       </c>
       <c r="F21" s="2">
-        <v>13.50069207875627</v>
+        <v>13.515371776305869</v>
       </c>
       <c r="G21" s="2">
-        <v>1.1675905706764531</v>
+        <v>1.1727356355077381</v>
       </c>
       <c r="H21" s="2">
-        <v>172.2441227891355</v>
+        <v>172.27338810174399</v>
       </c>
       <c r="I21" s="2">
-        <v>3.58003702734573</v>
+        <v>3.5880421769135231</v>
       </c>
       <c r="J21" s="2">
-        <v>35.489843727630252</v>
+        <v>35.558180960622522</v>
       </c>
       <c r="K21" s="2">
-        <v>6.1317954475210454</v>
+        <v>6.2387372652400144</v>
       </c>
       <c r="L21" s="2">
-        <v>481.09386534787677</v>
+        <v>481.3657290847359</v>
       </c>
       <c r="M21" s="2">
-        <v>19.64905076205013</v>
+        <v>19.809594392231588</v>
       </c>
       <c r="N21" s="2">
-        <v>77.221291064317825</v>
+        <v>77.308783066783406</v>
       </c>
       <c r="O21" s="2">
-        <v>4.3087759324585981</v>
+        <v>4.3211729202374114</v>
       </c>
       <c r="P21" s="2">
-        <v>956.74477191922324</v>
+        <v>957.04270100659335</v>
       </c>
       <c r="Q21" s="2">
-        <v>14.41932020322071</v>
+        <v>14.32948255778156</v>
       </c>
       <c r="R21" s="2">
-        <v>5.9315533896936303</v>
+        <v>5.9320259424282602</v>
       </c>
       <c r="S21" s="2">
-        <v>0.5927507248573648</v>
+        <v>0.59162734048485788</v>
       </c>
       <c r="T21" s="2">
-        <v>75.672025244148898</v>
+        <v>75.685110429343808</v>
       </c>
       <c r="U21" s="2">
-        <v>1.8158208866914221</v>
+        <v>1.830340056471824</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -4085,64 +4064,64 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>143.0786156765561</v>
+        <v>143.0943954632267</v>
       </c>
       <c r="C22" s="2">
-        <v>9.9037298340207176</v>
+        <v>10.05248888208804</v>
       </c>
       <c r="D22" s="2">
-        <v>1906.8809358080509</v>
+        <v>1906.8576654064241</v>
       </c>
       <c r="E22" s="2">
-        <v>31.663521093642021</v>
+        <v>31.597197410359179</v>
       </c>
       <c r="F22" s="2">
-        <v>13.978887059506</v>
+        <v>13.97230333436684</v>
       </c>
       <c r="G22" s="2">
-        <v>1.2153431786095039</v>
+        <v>1.216736101009549</v>
       </c>
       <c r="H22" s="2">
-        <v>186.2230098486416</v>
+        <v>186.24569143611001</v>
       </c>
       <c r="I22" s="2">
-        <v>3.7780533734878339</v>
+        <v>3.7885103401645992</v>
       </c>
       <c r="J22" s="2">
-        <v>36.598936846929178</v>
+        <v>36.633859382215668</v>
       </c>
       <c r="K22" s="2">
-        <v>6.4299280175078861</v>
+        <v>6.3556712520858438</v>
       </c>
       <c r="L22" s="2">
-        <v>517.69280219480493</v>
+        <v>517.99958846695426</v>
       </c>
       <c r="M22" s="2">
-        <v>20.78917495539606</v>
+        <v>20.863585894863132</v>
       </c>
       <c r="N22" s="2">
-        <v>79.959810506002896</v>
+        <v>79.999930704552327</v>
       </c>
       <c r="O22" s="2">
-        <v>4.4658495230048967</v>
+        <v>4.4415355754058812</v>
       </c>
       <c r="P22" s="2">
-        <v>1036.704582425227</v>
+        <v>1037.042631711151</v>
       </c>
       <c r="Q22" s="2">
-        <v>15.237736487832009</v>
+        <v>15.12852082376706</v>
       </c>
       <c r="R22" s="2">
-        <v>6.1362965690831599</v>
+        <v>6.1313546578234126</v>
       </c>
       <c r="S22" s="2">
-        <v>0.62293595263879875</v>
+        <v>0.61278207346147673</v>
       </c>
       <c r="T22" s="2">
-        <v>81.808321813232141</v>
+        <v>81.816465087166947</v>
       </c>
       <c r="U22" s="2">
-        <v>1.914611453092103</v>
+        <v>1.9353250820954651</v>
       </c>
     </row>
   </sheetData>
@@ -4258,88 +4237,88 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>48.826084920218307</v>
+        <v>48.803063836356962</v>
       </c>
       <c r="C2" s="2">
-        <v>2.4270776537859442</v>
+        <v>2.4718555054925848</v>
       </c>
       <c r="D2" s="2">
-        <v>23.841381311791039</v>
+        <v>23.824735280296071</v>
       </c>
       <c r="E2" s="2">
-        <v>1.675201746100941</v>
+        <v>1.6840127266889839</v>
       </c>
       <c r="F2" s="2">
-        <v>23.857508157356929</v>
+        <v>23.825256168741401</v>
       </c>
       <c r="G2" s="2">
-        <v>1.703518531826441</v>
+        <v>1.7021467129036749</v>
       </c>
       <c r="H2" s="2">
-        <v>6.9929146246191234</v>
+        <v>6.97866179235172</v>
       </c>
       <c r="I2" s="2">
-        <v>0.60916977479788814</v>
+        <v>0.60718487740141736</v>
       </c>
       <c r="J2" s="2">
-        <v>6.9860600126679939</v>
+        <v>6.9787605309711394</v>
       </c>
       <c r="K2" s="2">
-        <v>0.60940428998718132</v>
+        <v>0.61291239633141614</v>
       </c>
       <c r="L2" s="2">
-        <v>2.3282491479928682</v>
+        <v>2.3289587761962358</v>
       </c>
       <c r="M2" s="2">
-        <v>0.2020051072511595</v>
+        <v>0.20328420674016989</v>
       </c>
       <c r="N2" s="2">
-        <v>4.6596568229297706</v>
+        <v>4.652496927119544</v>
       </c>
       <c r="O2" s="2">
-        <v>0.40533116392267199</v>
+        <v>0.4032173375375136</v>
       </c>
       <c r="P2" s="2">
-        <v>2.329760289650836</v>
+        <v>2.3230307799092622</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.2032823959883345</v>
+        <v>0.20369394644298339</v>
       </c>
       <c r="R2" s="2">
-        <v>6.8299110212413652</v>
+        <v>6.8174964187432288</v>
       </c>
       <c r="S2" s="2">
-        <v>0.68871576411213886</v>
+        <v>0.68524759006016678</v>
       </c>
       <c r="T2" s="2">
-        <v>4.7779881407913356</v>
+        <v>4.7657145059527179</v>
       </c>
       <c r="U2" s="2">
-        <v>0.4820743938033879</v>
+        <v>0.48225700666440702</v>
       </c>
       <c r="V2" s="2">
-        <v>1.023700216755095</v>
+        <v>1.0213459401953799</v>
       </c>
       <c r="W2" s="2">
-        <v>0.10311291783076081</v>
+        <v>0.10384302853535569</v>
       </c>
       <c r="X2" s="2">
-        <v>1.023559005814763</v>
+        <v>1.0225726785335769</v>
       </c>
       <c r="Y2" s="2">
-        <v>0.1036142884911361</v>
+        <v>0.1030536950018841</v>
       </c>
       <c r="Z2" s="2">
-        <v>2.2733271611432868</v>
+        <v>2.2732976782592749</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.2274307651441195</v>
+        <v>0.22773008380216</v>
       </c>
       <c r="AB2" s="2">
-        <v>4.5533730076051642</v>
+        <v>4.5429100028268126</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.45969050488636032</v>
+        <v>0.45402150464319613</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -4353,94 +4332,94 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>53.724520554207999</v>
+        <v>53.716538588641377</v>
       </c>
       <c r="C3" s="2">
-        <v>2.6578836577427101</v>
+        <v>2.6770693294576771</v>
       </c>
       <c r="D3" s="2">
-        <v>26.22014638562387</v>
+        <v>26.202048140467259</v>
       </c>
       <c r="E3" s="2">
-        <v>1.845178232051814</v>
+        <v>1.838902665436974</v>
       </c>
       <c r="F3" s="2">
-        <v>26.25969265047242</v>
+        <v>26.21874045954651</v>
       </c>
       <c r="G3" s="2">
-        <v>1.8467794860487741</v>
+        <v>1.8598516680532911</v>
       </c>
       <c r="H3" s="2">
-        <v>7.7019774595894708</v>
+        <v>7.679223860642705</v>
       </c>
       <c r="I3" s="2">
-        <v>0.66062965421712327</v>
+        <v>0.66932830835260382</v>
       </c>
       <c r="J3" s="2">
-        <v>7.6953081357699249</v>
+        <v>7.6746304546594679</v>
       </c>
       <c r="K3" s="2">
-        <v>0.66343919078766489</v>
+        <v>0.66816977523441312</v>
       </c>
       <c r="L3" s="2">
-        <v>2.5635591526480548</v>
+        <v>2.5617739479615529</v>
       </c>
       <c r="M3" s="2">
-        <v>0.22300477769328481</v>
+        <v>0.22129830987901039</v>
       </c>
       <c r="N3" s="2">
-        <v>5.1309669775614344</v>
+        <v>5.1205508664094292</v>
       </c>
       <c r="O3" s="2">
-        <v>0.44672459894733779</v>
+        <v>0.44476988695224462</v>
       </c>
       <c r="P3" s="2">
-        <v>2.5656724938416922</v>
+        <v>2.5599377577630911</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.22189426908217061</v>
+        <v>0.22204864598610191</v>
       </c>
       <c r="R3" s="2">
-        <v>7.5246005743218269</v>
+        <v>7.4979826863334056</v>
       </c>
       <c r="S3" s="2">
-        <v>0.74354752360571685</v>
+        <v>0.75252468774058912</v>
       </c>
       <c r="T3" s="2">
-        <v>5.2620531040639751</v>
+        <v>5.2430027472816594</v>
       </c>
       <c r="U3" s="2">
-        <v>0.52008227093420234</v>
+        <v>0.52828656838447596</v>
       </c>
       <c r="V3" s="2">
-        <v>1.1276186400880019</v>
+        <v>1.1242784473717069</v>
       </c>
       <c r="W3" s="2">
-        <v>0.1124740910926592</v>
+        <v>0.1146349329444053</v>
       </c>
       <c r="X3" s="2">
-        <v>1.1267703874969031</v>
+        <v>1.1237767364209199</v>
       </c>
       <c r="Y3" s="2">
-        <v>0.1121462601620285</v>
+        <v>0.11348908585404339</v>
       </c>
       <c r="Z3" s="2">
-        <v>2.5031299987682019</v>
+        <v>2.5003088530612381</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.25196927234784872</v>
+        <v>0.25043392537577602</v>
       </c>
       <c r="AB3" s="2">
-        <v>5.0082432446162821</v>
+        <v>4.9987453939415767</v>
       </c>
       <c r="AC3" s="2">
-        <v>0.50308370377289502</v>
+        <v>0.50380150183734373</v>
       </c>
       <c r="AD3" s="2">
-        <v>7.3768575912455816</v>
+        <v>7.3611907586088972</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.6789996595180825</v>
+        <v>0.680206067924777</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -4448,94 +4427,94 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>58.632509096871047</v>
+        <v>58.59490325593972</v>
       </c>
       <c r="C4" s="2">
-        <v>2.9316332154809248</v>
+        <v>2.9304820222454468</v>
       </c>
       <c r="D4" s="2">
-        <v>28.633017184438401</v>
+        <v>28.611155429297138</v>
       </c>
       <c r="E4" s="2">
-        <v>2.0350571685219672</v>
+        <v>2.0370822604913168</v>
       </c>
       <c r="F4" s="2">
-        <v>28.637077342187599</v>
+        <v>28.598473579269481</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0037851088229099</v>
+        <v>2.0398139654917662</v>
       </c>
       <c r="H4" s="2">
-        <v>8.3936532640044224</v>
+        <v>8.3826864203687652</v>
       </c>
       <c r="I4" s="2">
-        <v>0.72388553021301483</v>
+        <v>0.73004652772606438</v>
       </c>
       <c r="J4" s="2">
-        <v>8.3913964729524579</v>
+        <v>8.3780067479867348</v>
       </c>
       <c r="K4" s="2">
-        <v>0.72143267960636981</v>
+        <v>0.72756921274000086</v>
       </c>
       <c r="L4" s="2">
-        <v>2.7958198685046312</v>
+        <v>2.791317032637032</v>
       </c>
       <c r="M4" s="2">
-        <v>0.2416172610928963</v>
+        <v>0.24146978723989071</v>
       </c>
       <c r="N4" s="2">
-        <v>5.591386755669487</v>
+        <v>5.5913966387230332</v>
       </c>
       <c r="O4" s="2">
-        <v>0.48159478591674199</v>
+        <v>0.48788945509322612</v>
       </c>
       <c r="P4" s="2">
-        <v>2.7973818348287729</v>
+        <v>2.7946801108117092</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.241178639294411</v>
+        <v>0.24283203602309181</v>
       </c>
       <c r="R4" s="2">
-        <v>8.1945823795280699</v>
+        <v>8.1851460870353847</v>
       </c>
       <c r="S4" s="2">
-        <v>0.81750409941719593</v>
+        <v>0.8279308491229731</v>
       </c>
       <c r="T4" s="2">
-        <v>5.7420510227726771</v>
+        <v>5.7258808374046577</v>
       </c>
       <c r="U4" s="2">
-        <v>0.57410702425463278</v>
+        <v>0.56946723473812133</v>
       </c>
       <c r="V4" s="2">
-        <v>1.2286775964823291</v>
+        <v>1.2270375927284289</v>
       </c>
       <c r="W4" s="2">
-        <v>0.1225408323038657</v>
+        <v>0.12376079252838421</v>
       </c>
       <c r="X4" s="2">
-        <v>1.229245797299872</v>
+        <v>1.226470900294053</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.12186918058827061</v>
+        <v>0.1227360297243849</v>
       </c>
       <c r="Z4" s="2">
-        <v>2.7295067810150422</v>
+        <v>2.7249030169721968</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.27437897354119389</v>
+        <v>0.27394979196289188</v>
       </c>
       <c r="AB4" s="2">
-        <v>5.4586922651663654</v>
+        <v>5.4638869435170099</v>
       </c>
       <c r="AC4" s="2">
-        <v>0.53947566199685038</v>
+        <v>0.54588748215802085</v>
       </c>
       <c r="AD4" s="2">
-        <v>10.735454747031319</v>
+        <v>10.700433445981581</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.74956104979811067</v>
+        <v>0.76264902067640994</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -4543,94 +4522,94 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>63.443217946223271</v>
+        <v>63.505838192198958</v>
       </c>
       <c r="C5" s="2">
-        <v>3.2012032106181101</v>
+        <v>3.1907447367893851</v>
       </c>
       <c r="D5" s="2">
-        <v>30.957881081466859</v>
+        <v>30.996245309999079</v>
       </c>
       <c r="E5" s="2">
-        <v>2.2155214261945191</v>
+        <v>2.1955778808623401</v>
       </c>
       <c r="F5" s="2">
-        <v>30.95885618791144</v>
+        <v>31.026877727494892</v>
       </c>
       <c r="G5" s="2">
-        <v>2.1992095254965252</v>
+        <v>2.206143503718422</v>
       </c>
       <c r="H5" s="2">
-        <v>9.0750217863719218</v>
+        <v>9.0836086962167553</v>
       </c>
       <c r="I5" s="2">
-        <v>0.79577971016691373</v>
+        <v>0.78605589085805094</v>
       </c>
       <c r="J5" s="2">
-        <v>9.0679511153409589</v>
+        <v>9.087680784965011</v>
       </c>
       <c r="K5" s="2">
-        <v>0.78789915007423916</v>
+        <v>0.79172723410461221</v>
       </c>
       <c r="L5" s="2">
-        <v>3.0246317604752502</v>
+        <v>3.0310595506406668</v>
       </c>
       <c r="M5" s="2">
-        <v>0.2631007520152841</v>
+        <v>0.26267192746056112</v>
       </c>
       <c r="N5" s="2">
-        <v>6.0448782305497728</v>
+        <v>6.0588597955802852</v>
       </c>
       <c r="O5" s="2">
-        <v>0.52725429075870067</v>
+        <v>0.52524965725866679</v>
       </c>
       <c r="P5" s="2">
-        <v>3.0235500567038218</v>
+        <v>3.028972270116487</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.26204238141365699</v>
+        <v>0.26315661069582208</v>
       </c>
       <c r="R5" s="2">
-        <v>8.8675779247574003</v>
+        <v>8.8692025734346558</v>
       </c>
       <c r="S5" s="2">
-        <v>0.90505488484151619</v>
+        <v>0.88887110449805729</v>
       </c>
       <c r="T5" s="2">
-        <v>6.203190273834629</v>
+        <v>6.2118905458517171</v>
       </c>
       <c r="U5" s="2">
-        <v>0.62547328946435488</v>
+        <v>0.6244508188792921</v>
       </c>
       <c r="V5" s="2">
-        <v>1.3283616173287831</v>
+        <v>1.3307861680690769</v>
       </c>
       <c r="W5" s="2">
-        <v>0.13264256624805079</v>
+        <v>0.13429354485184369</v>
       </c>
       <c r="X5" s="2">
-        <v>1.3285825577488639</v>
+        <v>1.331442040187528</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.13251560824571521</v>
+        <v>0.1345431804266124</v>
       </c>
       <c r="Z5" s="2">
-        <v>2.9530694481475548</v>
+        <v>2.9608159852674398</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.2957471815575754</v>
+        <v>0.29713342915966878</v>
       </c>
       <c r="AB5" s="2">
-        <v>5.9014043419929472</v>
+        <v>5.920375406758839</v>
       </c>
       <c r="AC5" s="2">
-        <v>0.59470716688476677</v>
+        <v>0.58885236473318225</v>
       </c>
       <c r="AD5" s="2">
-        <v>12.729835349752131</v>
+        <v>12.700708517156521</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.81756893063494773</v>
+        <v>0.82117791531847617</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -4638,94 +4617,94 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>68.324424850217468</v>
+        <v>68.340253494900736</v>
       </c>
       <c r="C6" s="2">
-        <v>3.3605195229287652</v>
+        <v>3.4376199724908809</v>
       </c>
       <c r="D6" s="2">
-        <v>33.363195467750003</v>
+        <v>33.358272755596673</v>
       </c>
       <c r="E6" s="2">
-        <v>2.329652887940822</v>
+        <v>2.3677912724512979</v>
       </c>
       <c r="F6" s="2">
-        <v>33.369973886077517</v>
+        <v>33.368807281807598</v>
       </c>
       <c r="G6" s="2">
-        <v>2.3445781196155231</v>
+        <v>2.356250983162437</v>
       </c>
       <c r="H6" s="2">
-        <v>9.781237426587257</v>
+        <v>9.7753429922368387</v>
       </c>
       <c r="I6" s="2">
-        <v>0.84220291832725214</v>
+        <v>0.85226784837828984</v>
       </c>
       <c r="J6" s="2">
-        <v>9.7696986679018334</v>
+        <v>9.7791819863636871</v>
       </c>
       <c r="K6" s="2">
-        <v>0.83482205894120398</v>
+        <v>0.84357109374564676</v>
       </c>
       <c r="L6" s="2">
-        <v>3.2595172930237042</v>
+        <v>3.256892663513443</v>
       </c>
       <c r="M6" s="2">
-        <v>0.28049212768053611</v>
+        <v>0.28109675042832921</v>
       </c>
       <c r="N6" s="2">
-        <v>6.5160865643318111</v>
+        <v>6.5190540807441906</v>
       </c>
       <c r="O6" s="2">
-        <v>0.56400786449638451</v>
+        <v>0.56355373418779253</v>
       </c>
       <c r="P6" s="2">
-        <v>3.261162545026163</v>
+        <v>3.257723299886488</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.28154091797994629</v>
+        <v>0.27933834298155341</v>
       </c>
       <c r="R6" s="2">
-        <v>9.5613255057790152</v>
+        <v>9.5393440176078599</v>
       </c>
       <c r="S6" s="2">
-        <v>0.94958498791099821</v>
+        <v>0.96326430931853113</v>
       </c>
       <c r="T6" s="2">
-        <v>6.6765343659476111</v>
+        <v>6.6791638584683799</v>
       </c>
       <c r="U6" s="2">
-        <v>0.67019258331003173</v>
+        <v>0.66710137310274698</v>
       </c>
       <c r="V6" s="2">
-        <v>1.430697509088473</v>
+        <v>1.4330796074312739</v>
       </c>
       <c r="W6" s="2">
-        <v>0.14208233028658071</v>
+        <v>0.14212329451047309</v>
       </c>
       <c r="X6" s="2">
-        <v>1.4314593484015741</v>
+        <v>1.4325652504413879</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.14296106298606731</v>
+        <v>0.14287595555638799</v>
       </c>
       <c r="Z6" s="2">
-        <v>3.1801302010113548</v>
+        <v>3.1763063885189369</v>
       </c>
       <c r="AA6" s="2">
-        <v>0.32022217148410592</v>
+        <v>0.31662545395556663</v>
       </c>
       <c r="AB6" s="2">
-        <v>6.362525028010908</v>
+        <v>6.3652870418390153</v>
       </c>
       <c r="AC6" s="2">
-        <v>0.63476916677562045</v>
+        <v>0.63754233023119555</v>
       </c>
       <c r="AD6" s="2">
-        <v>14.193292177717559</v>
+        <v>14.18965788944455</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.89703096193452636</v>
+        <v>0.88915611646762538</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -4733,94 +4712,94 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>73.273958679015038</v>
+        <v>73.248555525798125</v>
       </c>
       <c r="C7" s="2">
-        <v>3.6662588667177971</v>
+        <v>3.6807801263518338</v>
       </c>
       <c r="D7" s="2">
-        <v>35.75793306788924</v>
+        <v>35.77771376827598</v>
       </c>
       <c r="E7" s="2">
-        <v>2.5189183196564291</v>
+        <v>2.5186803864461011</v>
       </c>
       <c r="F7" s="2">
-        <v>35.80394730750249</v>
+        <v>35.75933514697919</v>
       </c>
       <c r="G7" s="2">
-        <v>2.540949356188654</v>
+        <v>2.5139075375645539</v>
       </c>
       <c r="H7" s="2">
-        <v>10.482499236796061</v>
+        <v>10.469070595064251</v>
       </c>
       <c r="I7" s="2">
-        <v>0.90478884468812215</v>
+        <v>0.90359932676566701</v>
       </c>
       <c r="J7" s="2">
-        <v>10.48568471343135</v>
+        <v>10.47343200302741</v>
       </c>
       <c r="K7" s="2">
-        <v>0.91762129430997552</v>
+        <v>0.90795667369553568</v>
       </c>
       <c r="L7" s="2">
-        <v>3.496431940223296</v>
+        <v>3.492825326025129</v>
       </c>
       <c r="M7" s="2">
-        <v>0.30467258940212377</v>
+        <v>0.29985779189227463</v>
       </c>
       <c r="N7" s="2">
-        <v>6.996136255885304</v>
+        <v>6.9815549101440819</v>
       </c>
       <c r="O7" s="2">
-        <v>0.60549304337748022</v>
+        <v>0.60107545682987162</v>
       </c>
       <c r="P7" s="2">
-        <v>3.495648835170015</v>
+        <v>3.488108026620091</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.30240285539890133</v>
+        <v>0.29876713808988342</v>
       </c>
       <c r="R7" s="2">
-        <v>10.24243840114919</v>
+        <v>10.22564224767809</v>
       </c>
       <c r="S7" s="2">
-        <v>1.0304728771168541</v>
+        <v>1.0143841650258789</v>
       </c>
       <c r="T7" s="2">
-        <v>7.1618683029653578</v>
+        <v>7.1561112006052108</v>
       </c>
       <c r="U7" s="2">
-        <v>0.72408128631370772</v>
+        <v>0.71305374249680631</v>
       </c>
       <c r="V7" s="2">
-        <v>1.5370652530060991</v>
+        <v>1.5335719590049</v>
       </c>
       <c r="W7" s="2">
-        <v>0.15507525178893691</v>
+        <v>0.15372212303992019</v>
       </c>
       <c r="X7" s="2">
-        <v>1.536126934085954</v>
+        <v>1.534552736332041</v>
       </c>
       <c r="Y7" s="2">
-        <v>0.15432047695578749</v>
+        <v>0.15407558742197419</v>
       </c>
       <c r="Z7" s="2">
-        <v>3.4136631326848872</v>
+        <v>3.4105017076602802</v>
       </c>
       <c r="AA7" s="2">
-        <v>0.34353636998577602</v>
+        <v>0.34166698388513111</v>
       </c>
       <c r="AB7" s="2">
-        <v>6.8302501383713432</v>
+        <v>6.8140405428332977</v>
       </c>
       <c r="AC7" s="2">
-        <v>0.68280463594676954</v>
+        <v>0.67972152900015403</v>
       </c>
       <c r="AD7" s="2">
-        <v>15.475497676234321</v>
+        <v>15.461429466752691</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.94829156458831765</v>
+        <v>0.96051672409159028</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -4828,94 +4807,94 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>78.11957887925837</v>
+        <v>78.094736510843759</v>
       </c>
       <c r="C8" s="2">
-        <v>3.9135193957277781</v>
+        <v>3.9014251222701031</v>
       </c>
       <c r="D8" s="2">
-        <v>38.157520163571483</v>
+        <v>38.125758523686692</v>
       </c>
       <c r="E8" s="2">
-        <v>2.6830597771549001</v>
+        <v>2.693906773749343</v>
       </c>
       <c r="F8" s="2">
-        <v>38.150216664519071</v>
+        <v>38.147992191760331</v>
       </c>
       <c r="G8" s="2">
-        <v>2.713746287921321</v>
+        <v>2.6984978303058118</v>
       </c>
       <c r="H8" s="2">
-        <v>11.17409583955463</v>
+        <v>11.16464059921355</v>
       </c>
       <c r="I8" s="2">
-        <v>0.97430551254399744</v>
+        <v>0.96858930559854084</v>
       </c>
       <c r="J8" s="2">
-        <v>11.18116437831638</v>
+        <v>11.17025384277507</v>
       </c>
       <c r="K8" s="2">
-        <v>0.97650340355868426</v>
+        <v>0.97459042545582153</v>
       </c>
       <c r="L8" s="2">
-        <v>3.727293158586948</v>
+        <v>3.7246964670926048</v>
       </c>
       <c r="M8" s="2">
-        <v>0.32749351718107578</v>
+        <v>0.32401496535563951</v>
       </c>
       <c r="N8" s="2">
-        <v>7.4487548034904956</v>
+        <v>7.4468534729347082</v>
       </c>
       <c r="O8" s="2">
-        <v>0.6468242259837309</v>
+        <v>0.63918280359624702</v>
       </c>
       <c r="P8" s="2">
-        <v>3.7276296750962739</v>
+        <v>3.7264587119396291</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.32551969141167081</v>
+        <v>0.32244354481979692</v>
       </c>
       <c r="R8" s="2">
-        <v>10.9102414484269</v>
+        <v>10.894039672979909</v>
       </c>
       <c r="S8" s="2">
-        <v>1.09511214523825</v>
+        <v>1.0916775838577999</v>
       </c>
       <c r="T8" s="2">
-        <v>7.6471821265137621</v>
+        <v>7.6394213019776407</v>
       </c>
       <c r="U8" s="2">
-        <v>0.77568210419085171</v>
+        <v>0.77009399092482367</v>
       </c>
       <c r="V8" s="2">
-        <v>1.637563732423871</v>
+        <v>1.636267964258131</v>
       </c>
       <c r="W8" s="2">
-        <v>0.1655531956708835</v>
+        <v>0.16523381937151591</v>
       </c>
       <c r="X8" s="2">
-        <v>1.6388128395762751</v>
+        <v>1.636587983148988</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.1644872306092858</v>
+        <v>0.1640217638185166</v>
       </c>
       <c r="Z8" s="2">
-        <v>3.6390639102350288</v>
+        <v>3.6374724213973519</v>
       </c>
       <c r="AA8" s="2">
-        <v>0.36690761989721238</v>
+        <v>0.36439888941618098</v>
       </c>
       <c r="AB8" s="2">
-        <v>7.2691890377244226</v>
+        <v>7.2751881740864368</v>
       </c>
       <c r="AC8" s="2">
-        <v>0.73008902632367634</v>
+        <v>0.72598882547761034</v>
       </c>
       <c r="AD8" s="2">
-        <v>16.686462858768241</v>
+        <v>16.666946962143719</v>
       </c>
       <c r="AE8" s="2">
-        <v>1.026397028156866</v>
+        <v>1.008955180706308</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -4923,94 +4902,94 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>82.980219049769346</v>
+        <v>83.01650091862264</v>
       </c>
       <c r="C9" s="2">
-        <v>4.1854627331691834</v>
+        <v>4.1588986785433519</v>
       </c>
       <c r="D9" s="2">
-        <v>40.503428146747297</v>
+        <v>40.560749316261358</v>
       </c>
       <c r="E9" s="2">
-        <v>2.877703622213569</v>
+        <v>2.8404154391048611</v>
       </c>
       <c r="F9" s="2">
-        <v>40.526121678422882</v>
+        <v>40.520662240186319</v>
       </c>
       <c r="G9" s="2">
-        <v>2.8804818763838371</v>
+        <v>2.8661062407983571</v>
       </c>
       <c r="H9" s="2">
-        <v>11.87977914763551</v>
+        <v>11.870661159820431</v>
       </c>
       <c r="I9" s="2">
-        <v>1.023299776301918</v>
+        <v>1.032146763423522</v>
       </c>
       <c r="J9" s="2">
-        <v>11.872441069569931</v>
+        <v>11.86362298099005</v>
       </c>
       <c r="K9" s="2">
-        <v>1.0309379959848231</v>
+        <v>1.0291224403073</v>
       </c>
       <c r="L9" s="2">
-        <v>3.9589006643951259</v>
+        <v>3.959260932572771</v>
       </c>
       <c r="M9" s="2">
-        <v>0.34272328741294689</v>
+        <v>0.34160474418020043</v>
       </c>
       <c r="N9" s="2">
-        <v>7.9203691013849662</v>
+        <v>7.9127917660097049</v>
       </c>
       <c r="O9" s="2">
-        <v>0.69127649743946284</v>
+        <v>0.69140863876801251</v>
       </c>
       <c r="P9" s="2">
-        <v>3.957970573181921</v>
+        <v>3.9587039348504929</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.34664621345014029</v>
+        <v>0.34101797986244931</v>
       </c>
       <c r="R9" s="2">
-        <v>11.6044908052833</v>
+        <v>11.58106458185949</v>
       </c>
       <c r="S9" s="2">
-        <v>1.167267332170302</v>
+        <v>1.158813760788546</v>
       </c>
       <c r="T9" s="2">
-        <v>8.1267586572191881</v>
+        <v>8.1092909142026564</v>
       </c>
       <c r="U9" s="2">
-        <v>0.82144285091122626</v>
+        <v>0.81185516192947516</v>
       </c>
       <c r="V9" s="2">
-        <v>1.738570392876061</v>
+        <v>1.736544173273743</v>
       </c>
       <c r="W9" s="2">
-        <v>0.17455783019111529</v>
+        <v>0.17310530417908809</v>
       </c>
       <c r="X9" s="2">
-        <v>1.7367126848270149</v>
+        <v>1.7368481207547271</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.1734941546142566</v>
+        <v>0.17255683415814951</v>
       </c>
       <c r="Z9" s="2">
-        <v>3.8658318373664402</v>
+        <v>3.8655313118220631</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.3862220774460921</v>
+        <v>0.38713995244997218</v>
       </c>
       <c r="AB9" s="2">
-        <v>7.7373058198586664</v>
+        <v>7.7268067627855173</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.77138985542340155</v>
+        <v>0.77683554201305671</v>
       </c>
       <c r="AD9" s="2">
-        <v>17.861614868904152</v>
+        <v>17.839484093895859</v>
       </c>
       <c r="AE9" s="2">
-        <v>1.101763956612664</v>
+        <v>1.0932007589229209</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -5018,94 +4997,94 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>87.832495709687294</v>
+        <v>87.909610894364164</v>
       </c>
       <c r="C10" s="2">
-        <v>4.3702633142586524</v>
+        <v>4.4955458375467474</v>
       </c>
       <c r="D10" s="2">
-        <v>42.91167382776284</v>
+        <v>42.935234836033821</v>
       </c>
       <c r="E10" s="2">
-        <v>3.0528661390694229</v>
+        <v>3.0537608253363469</v>
       </c>
       <c r="F10" s="2">
-        <v>42.863258629486403</v>
+        <v>42.933087218690588</v>
       </c>
       <c r="G10" s="2">
-        <v>3.0398591705526128</v>
+        <v>3.0783858234981181</v>
       </c>
       <c r="H10" s="2">
-        <v>12.553146753787781</v>
+        <v>12.57476432868653</v>
       </c>
       <c r="I10" s="2">
-        <v>1.096419700435789</v>
+        <v>1.106533787701945</v>
       </c>
       <c r="J10" s="2">
-        <v>12.545347957825561</v>
+        <v>12.57283735270752</v>
       </c>
       <c r="K10" s="2">
-        <v>1.078183688540111</v>
+        <v>1.1030027953967581</v>
       </c>
       <c r="L10" s="2">
-        <v>4.1887416430003501</v>
+        <v>4.1952139176309986</v>
       </c>
       <c r="M10" s="2">
-        <v>0.36789378388683752</v>
+        <v>0.36842810329076331</v>
       </c>
       <c r="N10" s="2">
-        <v>8.3675182718994421</v>
+        <v>8.3822921199681613</v>
       </c>
       <c r="O10" s="2">
-        <v>0.72384610063532573</v>
+        <v>0.72738531287862329</v>
       </c>
       <c r="P10" s="2">
-        <v>4.1913030079397444</v>
+        <v>4.1922946285573257</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.36142922153936652</v>
+        <v>0.36613700286203787</v>
       </c>
       <c r="R10" s="2">
-        <v>12.25281414249196</v>
+        <v>12.28248724277671</v>
       </c>
       <c r="S10" s="2">
-        <v>1.2320709359447779</v>
+        <v>1.2438645911087221</v>
       </c>
       <c r="T10" s="2">
-        <v>8.5778553765047416</v>
+        <v>8.5952997052327778</v>
       </c>
       <c r="U10" s="2">
-        <v>0.85907635592590104</v>
+        <v>0.87218386790412283</v>
       </c>
       <c r="V10" s="2">
-        <v>1.8389765992117519</v>
+        <v>1.843155618669277</v>
       </c>
       <c r="W10" s="2">
-        <v>0.18406656837311081</v>
+        <v>0.18790097593358479</v>
       </c>
       <c r="X10" s="2">
-        <v>1.8379294232505969</v>
+        <v>1.843383576787984</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.18279521626592971</v>
+        <v>0.1848171162462692</v>
       </c>
       <c r="Z10" s="2">
-        <v>4.0915083303833946</v>
+        <v>4.0936247043143217</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.4123428621225016</v>
+        <v>0.41447295110905219</v>
       </c>
       <c r="AB10" s="2">
-        <v>8.1662413032629289</v>
+        <v>8.1881359588940263</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.81295097922689163</v>
+        <v>0.81917611751782349</v>
       </c>
       <c r="AD10" s="2">
-        <v>19.03636674564175</v>
+        <v>19.00221012005634</v>
       </c>
       <c r="AE10" s="2">
-        <v>1.172773075350042</v>
+        <v>1.1609388590557059</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -5113,94 +5092,94 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>92.759595807715598</v>
+        <v>92.80949596806164</v>
       </c>
       <c r="C11" s="2">
-        <v>4.6207948882361443</v>
+        <v>4.6651785181439802</v>
       </c>
       <c r="D11" s="2">
-        <v>45.290350164608093</v>
+        <v>45.314744119032163</v>
       </c>
       <c r="E11" s="2">
-        <v>3.220428417225035</v>
+        <v>3.2128785794933692</v>
       </c>
       <c r="F11" s="2">
-        <v>45.274179623769463</v>
+        <v>45.32461993527707</v>
       </c>
       <c r="G11" s="2">
-        <v>3.171616766189481</v>
+        <v>3.2160208136272801</v>
       </c>
       <c r="H11" s="2">
-        <v>13.267669639841071</v>
+        <v>13.272232349159831</v>
       </c>
       <c r="I11" s="2">
-        <v>1.1445504015118331</v>
+        <v>1.1513378917632799</v>
       </c>
       <c r="J11" s="2">
-        <v>13.2611951304351</v>
+        <v>13.278284756432431</v>
       </c>
       <c r="K11" s="2">
-        <v>1.1357707213774551</v>
+        <v>1.144356445459132</v>
       </c>
       <c r="L11" s="2">
-        <v>4.4247550866358951</v>
+        <v>4.4249428148778351</v>
       </c>
       <c r="M11" s="2">
-        <v>0.38302147554457011</v>
+        <v>0.38366488911776758</v>
       </c>
       <c r="N11" s="2">
-        <v>8.8416221088792533</v>
+        <v>8.8525055769501382</v>
       </c>
       <c r="O11" s="2">
-        <v>0.76111289174844454</v>
+        <v>0.76899884817226261</v>
       </c>
       <c r="P11" s="2">
-        <v>4.424062016941142</v>
+        <v>4.4259350241079263</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.38121511634459732</v>
+        <v>0.38258225263870688</v>
       </c>
       <c r="R11" s="2">
-        <v>12.94956472323711</v>
+        <v>12.956766994272639</v>
       </c>
       <c r="S11" s="2">
-        <v>1.2792825132531349</v>
+        <v>1.296039847462827</v>
       </c>
       <c r="T11" s="2">
-        <v>9.0594731260745736</v>
+        <v>9.0787399488276215</v>
       </c>
       <c r="U11" s="2">
-        <v>0.89700417474977368</v>
+        <v>0.89834480062812172</v>
       </c>
       <c r="V11" s="2">
-        <v>1.9427603046149009</v>
+        <v>1.945450137685504</v>
       </c>
       <c r="W11" s="2">
-        <v>0.19249754565709559</v>
+        <v>0.1938223779616649</v>
       </c>
       <c r="X11" s="2">
-        <v>1.9422706333874351</v>
+        <v>1.9440932763531369</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.19175340339239211</v>
+        <v>0.19407902105891531</v>
       </c>
       <c r="Z11" s="2">
-        <v>4.3217434683500056</v>
+        <v>4.3217968622839091</v>
       </c>
       <c r="AA11" s="2">
-        <v>0.42917660349361392</v>
+        <v>0.43745079642210521</v>
       </c>
       <c r="AB11" s="2">
-        <v>8.6328791660711346</v>
+        <v>8.6422651249944344</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.85501513351987657</v>
+        <v>0.85980206993224273</v>
       </c>
       <c r="AD11" s="2">
-        <v>20.162534141798499</v>
+        <v>20.180952387098049</v>
       </c>
       <c r="AE11" s="2">
-        <v>1.2385530512287739</v>
+        <v>1.2455297926603901</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -5208,94 +5187,94 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>97.576129236919869</v>
+        <v>97.726834268597003</v>
       </c>
       <c r="C12" s="2">
-        <v>4.8500422539839212</v>
+        <v>4.8853195442538384</v>
       </c>
       <c r="D12" s="2">
-        <v>47.653914121100733</v>
+        <v>47.679207638714423</v>
       </c>
       <c r="E12" s="2">
-        <v>3.3587475453049218</v>
+        <v>3.3888697953906308</v>
       </c>
       <c r="F12" s="2">
-        <v>47.664556941552881</v>
+        <v>47.756266462254267</v>
       </c>
       <c r="G12" s="2">
-        <v>3.3820232000413739</v>
+        <v>3.3709171957598918</v>
       </c>
       <c r="H12" s="2">
-        <v>13.96392908932183</v>
+        <v>13.985737131746831</v>
       </c>
       <c r="I12" s="2">
-        <v>1.20179201642782</v>
+        <v>1.2054614069504641</v>
       </c>
       <c r="J12" s="2">
-        <v>13.95523105560952</v>
+        <v>13.99269208083032</v>
       </c>
       <c r="K12" s="2">
-        <v>1.21177777821902</v>
+        <v>1.207478021572935</v>
       </c>
       <c r="L12" s="2">
-        <v>4.6515076311287133</v>
+        <v>4.6619659976122394</v>
       </c>
       <c r="M12" s="2">
-        <v>0.40489501446135018</v>
+        <v>0.4005931932819175</v>
       </c>
       <c r="N12" s="2">
-        <v>9.3101947530129863</v>
+        <v>9.3237743967935707</v>
       </c>
       <c r="O12" s="2">
-        <v>0.80561010572513936</v>
+        <v>0.80672184173271388</v>
       </c>
       <c r="P12" s="2">
-        <v>4.6530599453929398</v>
+        <v>4.6650356408301841</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.40135289057269208</v>
+        <v>0.40439197250357362</v>
       </c>
       <c r="R12" s="2">
-        <v>13.63903046993072</v>
+        <v>13.64676650923729</v>
       </c>
       <c r="S12" s="2">
-        <v>1.362383367553258</v>
+        <v>1.3622217846014191</v>
       </c>
       <c r="T12" s="2">
-        <v>9.5440115713008584</v>
+        <v>9.5593040144528256</v>
       </c>
       <c r="U12" s="2">
-        <v>0.96507863744469757</v>
+        <v>0.95334313883416033</v>
       </c>
       <c r="V12" s="2">
-        <v>2.044060497817199</v>
+        <v>2.0503781451452152</v>
       </c>
       <c r="W12" s="2">
-        <v>0.204623671239619</v>
+        <v>0.20430670465698439</v>
       </c>
       <c r="X12" s="2">
-        <v>2.042003576683332</v>
+        <v>2.0508261037601359</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.20416616123431811</v>
+        <v>0.20520415291761579</v>
       </c>
       <c r="Z12" s="2">
-        <v>4.547285851330054</v>
+        <v>4.5579370379152513</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.45643029951063768</v>
+        <v>0.45513557790434078</v>
       </c>
       <c r="AB12" s="2">
-        <v>9.0845727071373545</v>
+        <v>9.1015791029182473</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.90535847549006032</v>
+        <v>0.9095536092721207</v>
       </c>
       <c r="AD12" s="2">
-        <v>21.323426999652941</v>
+        <v>21.345428673223829</v>
       </c>
       <c r="AE12" s="2">
-        <v>1.277867558529342</v>
+        <v>1.2910309946535541</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -5303,94 +5282,94 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>4.8813451734269293</v>
+        <v>4.8814526469935187</v>
       </c>
       <c r="C13" s="2">
-        <v>0.24396670689636729</v>
+        <v>0.24170056352579239</v>
       </c>
       <c r="D13" s="2">
-        <v>2.3839521295560839</v>
+        <v>2.382131782850323</v>
       </c>
       <c r="E13" s="2">
-        <v>0.1682576335971073</v>
+        <v>0.16773126424595819</v>
       </c>
       <c r="F13" s="2">
-        <v>2.3822543173016388</v>
+        <v>2.382518640930221</v>
       </c>
       <c r="G13" s="2">
-        <v>0.1673314561413935</v>
+        <v>0.16614943965409551</v>
       </c>
       <c r="H13" s="2">
-        <v>0.69781079809777102</v>
+        <v>0.69732680344425813</v>
       </c>
       <c r="I13" s="2">
-        <v>5.9976893200056162E-2</v>
+        <v>5.9702361602412699E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>0.69802877206361014</v>
+        <v>0.69827150282756756</v>
       </c>
       <c r="K13" s="2">
-        <v>6.017584657631371E-2</v>
+        <v>6.0052919038486689E-2</v>
       </c>
       <c r="L13" s="2">
-        <v>0.2324765890092311</v>
+        <v>0.23236832720456749</v>
       </c>
       <c r="M13" s="2">
-        <v>2.0013805964723401E-2</v>
+        <v>2.0142014686722869E-2</v>
       </c>
       <c r="N13" s="2">
-        <v>0.46497889060102909</v>
+        <v>0.46563559905050628</v>
       </c>
       <c r="O13" s="2">
-        <v>4.035578672281824E-2</v>
+        <v>4.0102628530900443E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.2326799226030139</v>
+        <v>0.23273876488928999</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.9969766004334699E-2</v>
+        <v>2.0018746301156892E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>0.68110951231436967</v>
+        <v>0.68078817392552327</v>
       </c>
       <c r="S13" s="2">
-        <v>6.7601755919942039E-2</v>
+        <v>6.7399158275555995E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>0.47722925999220078</v>
+        <v>0.47745621119534037</v>
       </c>
       <c r="U13" s="2">
-        <v>4.7515657156084051E-2</v>
+        <v>4.7177213807074389E-2</v>
       </c>
       <c r="V13" s="2">
-        <v>0.10215189575788571</v>
+        <v>0.10216387482683489</v>
       </c>
       <c r="W13" s="2">
-        <v>1.027934422592216E-2</v>
+        <v>1.0209203225727289E-2</v>
       </c>
       <c r="X13" s="2">
-        <v>0.102214395584509</v>
+        <v>0.10240527441480191</v>
       </c>
       <c r="Y13" s="2">
-        <v>1.021378059337668E-2</v>
+        <v>1.024091253323736E-2</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.22708790332394491</v>
+        <v>0.22666436393217471</v>
       </c>
       <c r="AA13" s="2">
-        <v>2.259000433885136E-2</v>
+        <v>2.2767521543764251E-2</v>
       </c>
       <c r="AB13" s="2">
-        <v>0.45436483352644691</v>
+        <v>0.45509712146552272</v>
       </c>
       <c r="AC13" s="2">
-        <v>4.5944414711450339E-2</v>
+        <v>4.5498181350301342E-2</v>
       </c>
       <c r="AD13" s="2">
-        <v>22.491548751718071</v>
+        <v>22.514704155539789</v>
       </c>
       <c r="AE13" s="2">
-        <v>1.3692655707656869</v>
+        <v>1.3601816021088979</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -5398,94 +5377,94 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>107.2712310292272</v>
+        <v>107.4548707668835</v>
       </c>
       <c r="C14" s="2">
-        <v>5.2928164297358364</v>
+        <v>5.3904012076677112</v>
       </c>
       <c r="D14" s="2">
-        <v>52.425717084502473</v>
+        <v>52.455255082762413</v>
       </c>
       <c r="E14" s="2">
-        <v>3.644877917704668</v>
+        <v>3.7001207199423378</v>
       </c>
       <c r="F14" s="2">
-        <v>52.37126483190265</v>
+        <v>52.494172819546733</v>
       </c>
       <c r="G14" s="2">
-        <v>3.6999957919881972</v>
+        <v>3.7386575186965398</v>
       </c>
       <c r="H14" s="2">
-        <v>15.347321204205381</v>
+        <v>15.378414933151159</v>
       </c>
       <c r="I14" s="2">
-        <v>1.333749308162087</v>
+        <v>1.336034397114396</v>
       </c>
       <c r="J14" s="2">
-        <v>15.34516475253702</v>
+        <v>15.381929556253739</v>
       </c>
       <c r="K14" s="2">
-        <v>1.314267916608937</v>
+        <v>1.3298409160990561</v>
       </c>
       <c r="L14" s="2">
-        <v>5.1092172139945502</v>
+        <v>5.1270174261815402</v>
       </c>
       <c r="M14" s="2">
-        <v>0.44186858259269918</v>
+        <v>0.4475705038969317</v>
       </c>
       <c r="N14" s="2">
-        <v>10.2254506454984</v>
+        <v>10.254999977172339</v>
       </c>
       <c r="O14" s="2">
-        <v>0.88019220696283729</v>
+        <v>0.89170201576525654</v>
       </c>
       <c r="P14" s="2">
-        <v>5.1126823651372932</v>
+        <v>5.124062467591485</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.44333415731244641</v>
+        <v>0.44352294542180881</v>
       </c>
       <c r="R14" s="2">
-        <v>14.98457926770708</v>
+        <v>15.02028789291197</v>
       </c>
       <c r="S14" s="2">
-        <v>1.507441387053218</v>
+        <v>1.5115864286776359</v>
       </c>
       <c r="T14" s="2">
-        <v>10.48489926124123</v>
+        <v>10.51437728591457</v>
       </c>
       <c r="U14" s="2">
-        <v>1.0396921125467919</v>
+        <v>1.051751353283394</v>
       </c>
       <c r="V14" s="2">
-        <v>2.25048749234386</v>
+        <v>2.252960793441809</v>
       </c>
       <c r="W14" s="2">
-        <v>0.22599550822759121</v>
+        <v>0.2270616343146846</v>
       </c>
       <c r="X14" s="2">
-        <v>2.2471387013998521</v>
+        <v>2.253558986632882</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.2232915628209346</v>
+        <v>0.2260658574349475</v>
       </c>
       <c r="Z14" s="2">
-        <v>4.9889700949197042</v>
+        <v>5.0084336722489029</v>
       </c>
       <c r="AA14" s="2">
-        <v>0.49225981649473288</v>
+        <v>0.50212668024646401</v>
       </c>
       <c r="AB14" s="2">
-        <v>9.9906767800662504</v>
+        <v>10.016230991901111</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.9968420613038228</v>
+        <v>1.0082700091612891</v>
       </c>
       <c r="AD14" s="2">
-        <v>8.9210271698214374</v>
+        <v>8.9294167093823997</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.60731969420964005</v>
+        <v>0.60428013347672005</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -5493,94 +5472,94 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>112.3351275268742</v>
+        <v>112.2922801579617</v>
       </c>
       <c r="C15" s="2">
-        <v>5.591669353140551</v>
+        <v>5.595500263322001</v>
       </c>
       <c r="D15" s="2">
-        <v>54.853506929004567</v>
+        <v>54.857199745088629</v>
       </c>
       <c r="E15" s="2">
-        <v>3.8712118025555342</v>
+        <v>3.8551136029916688</v>
       </c>
       <c r="F15" s="2">
-        <v>54.838992893654328</v>
+        <v>54.854620022313533</v>
       </c>
       <c r="G15" s="2">
-        <v>3.819722983064286</v>
+        <v>3.858764353436535</v>
       </c>
       <c r="H15" s="2">
-        <v>16.07468087789734</v>
+        <v>16.083846354478808</v>
       </c>
       <c r="I15" s="2">
-        <v>1.380676994800395</v>
+        <v>1.3850946988355151</v>
       </c>
       <c r="J15" s="2">
-        <v>16.079296823662592</v>
+        <v>16.07654763842735</v>
       </c>
       <c r="K15" s="2">
-        <v>1.381897962141742</v>
+        <v>1.374420543125551</v>
       </c>
       <c r="L15" s="2">
-        <v>5.3480218468889102</v>
+        <v>5.3515006406570569</v>
       </c>
       <c r="M15" s="2">
-        <v>0.45900167590378049</v>
+        <v>0.46223632267822129</v>
       </c>
       <c r="N15" s="2">
-        <v>10.716332934847721</v>
+        <v>10.71662566947464</v>
       </c>
       <c r="O15" s="2">
-        <v>0.92465485799394465</v>
+        <v>0.93096131082882094</v>
       </c>
       <c r="P15" s="2">
-        <v>5.3582294124709318</v>
+        <v>5.3502233059971394</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.45857200656757541</v>
+        <v>0.45965812335831019</v>
       </c>
       <c r="R15" s="2">
-        <v>15.684719944758511</v>
+        <v>15.70702881715118</v>
       </c>
       <c r="S15" s="2">
-        <v>1.564727493738592</v>
+        <v>1.568476551001778</v>
       </c>
       <c r="T15" s="2">
-        <v>10.98257116225118</v>
+        <v>10.99075914374858</v>
       </c>
       <c r="U15" s="2">
-        <v>1.0940182199736539</v>
+        <v>1.0833641679241901</v>
       </c>
       <c r="V15" s="2">
-        <v>2.3545970978945721</v>
+        <v>2.3549444494929701</v>
       </c>
       <c r="W15" s="2">
-        <v>0.23209882899998679</v>
+        <v>0.23446838800989761</v>
       </c>
       <c r="X15" s="2">
-        <v>2.3542633563639561</v>
+        <v>2.3537776114962119</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.23243015495307601</v>
+        <v>0.2314798299724983</v>
       </c>
       <c r="Z15" s="2">
-        <v>5.2228039839928719</v>
+        <v>5.22286298438783</v>
       </c>
       <c r="AA15" s="2">
-        <v>0.5237522350024556</v>
+        <v>0.5215952369169542</v>
       </c>
       <c r="AB15" s="2">
-        <v>10.462893207901219</v>
+        <v>10.468442275502021</v>
       </c>
       <c r="AC15" s="2">
-        <v>1.0467325638899929</v>
+        <v>1.0474261626273189</v>
       </c>
       <c r="AD15" s="2">
-        <v>19.58349772989364</v>
+        <v>19.627095603236011</v>
       </c>
       <c r="AE15" s="2">
-        <v>1.43409907659096</v>
+        <v>1.435726574076182</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -5588,94 +5567,94 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>117.25171110019279</v>
+        <v>117.2535948554474</v>
       </c>
       <c r="C16" s="2">
-        <v>5.835065641572279</v>
+        <v>5.8349210298158418</v>
       </c>
       <c r="D16" s="2">
-        <v>57.227254724035078</v>
+        <v>57.26960937109444</v>
       </c>
       <c r="E16" s="2">
-        <v>4.0737852815564288</v>
+        <v>4.046986580939306</v>
       </c>
       <c r="F16" s="2">
-        <v>57.263966422763431</v>
+        <v>57.244290998305019</v>
       </c>
       <c r="G16" s="2">
-        <v>3.9934725977586218</v>
+        <v>4.0605831346700718</v>
       </c>
       <c r="H16" s="2">
-        <v>16.781626837282449</v>
+        <v>16.762811748325909</v>
       </c>
       <c r="I16" s="2">
-        <v>1.453531245595485</v>
+        <v>1.450587320742984</v>
       </c>
       <c r="J16" s="2">
-        <v>16.788150361646331</v>
+        <v>16.758018947973579</v>
       </c>
       <c r="K16" s="2">
-        <v>1.4466987132855</v>
+        <v>1.443724081993679</v>
       </c>
       <c r="L16" s="2">
-        <v>5.591303909999465</v>
+        <v>5.5877487119626226</v>
       </c>
       <c r="M16" s="2">
-        <v>0.47479070474883323</v>
+        <v>0.48508928167277737</v>
       </c>
       <c r="N16" s="2">
-        <v>11.186782746162891</v>
+        <v>11.18663306993313</v>
       </c>
       <c r="O16" s="2">
-        <v>0.9645480966694111</v>
+        <v>0.97206363021117481</v>
       </c>
       <c r="P16" s="2">
-        <v>5.5942383299008096</v>
+        <v>5.5875738628888971</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.48367248434825039</v>
+        <v>0.48420021981878092</v>
       </c>
       <c r="R16" s="2">
-        <v>16.40006526284682</v>
+        <v>16.379879895818139</v>
       </c>
       <c r="S16" s="2">
-        <v>1.649504050593388</v>
+        <v>1.6297427196515371</v>
       </c>
       <c r="T16" s="2">
-        <v>11.48764495803667</v>
+        <v>11.447699059491701</v>
       </c>
       <c r="U16" s="2">
-        <v>1.149581912677867</v>
+        <v>1.1433742395231721</v>
       </c>
       <c r="V16" s="2">
-        <v>2.4593657829180819</v>
+        <v>2.4553752527424821</v>
       </c>
       <c r="W16" s="2">
-        <v>0.24398029123216031</v>
+        <v>0.2420026619230376</v>
       </c>
       <c r="X16" s="2">
-        <v>2.4591212332009982</v>
+        <v>2.4543685983090242</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.24567084480779919</v>
+        <v>0.24395415293607989</v>
       </c>
       <c r="Z16" s="2">
-        <v>5.4582173701630081</v>
+        <v>5.452504704185448</v>
       </c>
       <c r="AA16" s="2">
-        <v>0.53486709822917056</v>
+        <v>0.54665111892200746</v>
       </c>
       <c r="AB16" s="2">
-        <v>10.927809370949371</v>
+        <v>10.92222344851667</v>
       </c>
       <c r="AC16" s="2">
-        <v>1.083356134190969</v>
+        <v>1.0924830478881891</v>
       </c>
       <c r="AD16" s="2">
-        <v>23.977088461028661</v>
+        <v>24.012234279418479</v>
       </c>
       <c r="AE16" s="2">
-        <v>1.567793946128027</v>
+        <v>1.5563197371088811</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -5683,94 +5662,94 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>122.1176783483465</v>
+        <v>122.05509385288509</v>
       </c>
       <c r="C17" s="2">
-        <v>6.1115842542277292</v>
+        <v>6.1047589962010207</v>
       </c>
       <c r="D17" s="2">
-        <v>59.601801326696453</v>
+        <v>59.588929911531707</v>
       </c>
       <c r="E17" s="2">
-        <v>4.2036782408254183</v>
+        <v>4.1944947188574266</v>
       </c>
       <c r="F17" s="2">
-        <v>59.616859906418028</v>
+        <v>59.580908648910913</v>
       </c>
       <c r="G17" s="2">
-        <v>4.2323251818482834</v>
+        <v>4.2171206368078762</v>
       </c>
       <c r="H17" s="2">
-        <v>17.464489091227271</v>
+        <v>17.461924834711141</v>
       </c>
       <c r="I17" s="2">
-        <v>1.522288947092078</v>
+        <v>1.5173845822526371</v>
       </c>
       <c r="J17" s="2">
-        <v>17.4512447530789</v>
+        <v>17.472363574985081</v>
       </c>
       <c r="K17" s="2">
-        <v>1.523305051669406</v>
+        <v>1.527920960937402</v>
       </c>
       <c r="L17" s="2">
-        <v>5.8237718658895874</v>
+        <v>5.8185197564626074</v>
       </c>
       <c r="M17" s="2">
-        <v>0.50489586534740427</v>
+        <v>0.50379425497742525</v>
       </c>
       <c r="N17" s="2">
-        <v>11.65491713809053</v>
+        <v>11.63533482895682</v>
       </c>
       <c r="O17" s="2">
-        <v>1.0203458025300329</v>
+        <v>1.008241219822495</v>
       </c>
       <c r="P17" s="2">
-        <v>5.8233387222773079</v>
+        <v>5.8149706662103782</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.5049284314887732</v>
+        <v>0.50619992649335444</v>
       </c>
       <c r="R17" s="2">
-        <v>17.050673837333051</v>
+        <v>17.039555228918619</v>
       </c>
       <c r="S17" s="2">
-        <v>1.7262735413699399</v>
+        <v>1.7000201975860001</v>
       </c>
       <c r="T17" s="2">
-        <v>11.9344216033472</v>
+        <v>11.93961132686856</v>
       </c>
       <c r="U17" s="2">
-        <v>1.20474509341689</v>
+        <v>1.1980539137074271</v>
       </c>
       <c r="V17" s="2">
-        <v>2.5569414928185381</v>
+        <v>2.5604265186022408</v>
       </c>
       <c r="W17" s="2">
-        <v>0.25810177321459821</v>
+        <v>0.25838937685886593</v>
       </c>
       <c r="X17" s="2">
-        <v>2.5575000655969289</v>
+        <v>2.559701203913777</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.25669126830155448</v>
+        <v>0.25867183052300791</v>
       </c>
       <c r="Z17" s="2">
-        <v>5.6875042508384777</v>
+        <v>5.6857452886421012</v>
       </c>
       <c r="AA17" s="2">
-        <v>0.56977074900546387</v>
+        <v>0.57045677370191739</v>
       </c>
       <c r="AB17" s="2">
-        <v>11.375970699818589</v>
+        <v>11.36490854138701</v>
       </c>
       <c r="AC17" s="2">
-        <v>1.144025426708573</v>
+        <v>1.137917800993073</v>
       </c>
       <c r="AD17" s="2">
-        <v>26.41051610628196</v>
+        <v>26.385821742548199</v>
       </c>
       <c r="AE17" s="2">
-        <v>1.6484844011574109</v>
+        <v>1.6331938764437459</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -5778,94 +5757,94 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>126.9973734143492</v>
+        <v>126.91289939945671</v>
       </c>
       <c r="C18" s="2">
-        <v>6.4238544819764556</v>
+        <v>6.2014328645771961</v>
       </c>
       <c r="D18" s="2">
-        <v>62.030883606787363</v>
+        <v>62.045498792313921</v>
       </c>
       <c r="E18" s="2">
-        <v>4.4101970884649857</v>
+        <v>4.2930313103470654</v>
       </c>
       <c r="F18" s="2">
-        <v>61.984451804739038</v>
+        <v>61.973506336711381</v>
       </c>
       <c r="G18" s="2">
-        <v>4.4344263526111094</v>
+        <v>4.3748300338833754</v>
       </c>
       <c r="H18" s="2">
-        <v>18.157414921238839</v>
+        <v>18.15907109805925</v>
       </c>
       <c r="I18" s="2">
-        <v>1.5826803788666819</v>
+        <v>1.574331911637852</v>
       </c>
       <c r="J18" s="2">
-        <v>18.16713046368243</v>
+        <v>18.14874889279027</v>
       </c>
       <c r="K18" s="2">
-        <v>1.6000479250151161</v>
+        <v>1.5678708593125219</v>
       </c>
       <c r="L18" s="2">
-        <v>6.0541467275035767</v>
+        <v>6.0542942816209919</v>
       </c>
       <c r="M18" s="2">
-        <v>0.52959166414069558</v>
+        <v>0.52766076751331126</v>
       </c>
       <c r="N18" s="2">
-        <v>12.11017248436197</v>
+        <v>12.097394071704</v>
       </c>
       <c r="O18" s="2">
-        <v>1.0663417000236819</v>
+        <v>1.0413077778201121</v>
       </c>
       <c r="P18" s="2">
-        <v>6.0524652681935898</v>
+        <v>6.0559755384561109</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.52511229540060245</v>
+        <v>0.52750419258317915</v>
       </c>
       <c r="R18" s="2">
-        <v>17.729712545491552</v>
+        <v>17.733849068852781</v>
       </c>
       <c r="S18" s="2">
-        <v>1.7824074212825809</v>
+        <v>1.7619473475474461</v>
       </c>
       <c r="T18" s="2">
-        <v>12.409900622076449</v>
+        <v>12.40084660705377</v>
       </c>
       <c r="U18" s="2">
-        <v>1.2486370529969251</v>
+        <v>1.24258993084159</v>
       </c>
       <c r="V18" s="2">
-        <v>2.6611562643106388</v>
+        <v>2.6574836660914838</v>
       </c>
       <c r="W18" s="2">
-        <v>0.26914023566340167</v>
+        <v>0.26211516042865668</v>
       </c>
       <c r="X18" s="2">
-        <v>2.6608827970366802</v>
+        <v>2.6592307436550788</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.26822682547848131</v>
+        <v>0.26586901067396779</v>
       </c>
       <c r="Z18" s="2">
-        <v>5.9135031367870674</v>
+        <v>5.9176430780644083</v>
       </c>
       <c r="AA18" s="2">
-        <v>0.5930041062545518</v>
+        <v>0.59624031403646216</v>
       </c>
       <c r="AB18" s="2">
-        <v>11.834484199941169</v>
+        <v>11.82323909564021</v>
       </c>
       <c r="AC18" s="2">
-        <v>1.1939189315007031</v>
+        <v>1.182576958724469</v>
       </c>
       <c r="AD18" s="2">
-        <v>28.017456368678999</v>
+        <v>28.005144596154111</v>
       </c>
       <c r="AE18" s="2">
-        <v>1.7421970455045781</v>
+        <v>1.709531240336033</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -5873,94 +5852,94 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>131.71213622578921</v>
+        <v>131.79521320550731</v>
       </c>
       <c r="C19" s="2">
-        <v>6.5449848572325608</v>
+        <v>6.4959342564772777</v>
       </c>
       <c r="D19" s="2">
-        <v>64.332210374472936</v>
+        <v>64.384954173720871</v>
       </c>
       <c r="E19" s="2">
-        <v>4.4886187103492947</v>
+        <v>4.5263148194641118</v>
       </c>
       <c r="F19" s="2">
-        <v>64.286603653264734</v>
+        <v>64.313326841722656</v>
       </c>
       <c r="G19" s="2">
-        <v>4.5153412207540446</v>
+        <v>4.5077997070113183</v>
       </c>
       <c r="H19" s="2">
-        <v>18.828176452671531</v>
+        <v>18.831062850151451</v>
       </c>
       <c r="I19" s="2">
-        <v>1.6197834908935369</v>
+        <v>1.632453142740125</v>
       </c>
       <c r="J19" s="2">
-        <v>18.841849348014929</v>
+        <v>18.84599423407143</v>
       </c>
       <c r="K19" s="2">
-        <v>1.6181550776112721</v>
+        <v>1.6279605966982791</v>
       </c>
       <c r="L19" s="2">
-        <v>6.2803022158357029</v>
+        <v>6.282791713173884</v>
       </c>
       <c r="M19" s="2">
-        <v>0.54245969450981979</v>
+        <v>0.54063953030531553</v>
       </c>
       <c r="N19" s="2">
-        <v>12.558748272591901</v>
+        <v>12.55899181564579</v>
       </c>
       <c r="O19" s="2">
-        <v>1.09525725873082</v>
+        <v>1.082013761075322</v>
       </c>
       <c r="P19" s="2">
-        <v>6.2838976438400316</v>
+        <v>6.2814024572007003</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.54504066051070188</v>
+        <v>0.53818563700692024</v>
       </c>
       <c r="R19" s="2">
-        <v>18.371491571861931</v>
+        <v>18.388187076044481</v>
       </c>
       <c r="S19" s="2">
-        <v>1.832476618444377</v>
+        <v>1.8443420103379069</v>
       </c>
       <c r="T19" s="2">
-        <v>12.867151471805551</v>
+        <v>12.8829411986203</v>
       </c>
       <c r="U19" s="2">
-        <v>1.273866667754497</v>
+        <v>1.275712378522033</v>
       </c>
       <c r="V19" s="2">
-        <v>2.7593756857048271</v>
+        <v>2.7620744377602819</v>
       </c>
       <c r="W19" s="2">
-        <v>0.27321234695366031</v>
+        <v>0.27742455102949759</v>
       </c>
       <c r="X19" s="2">
-        <v>2.7597417467969838</v>
+        <v>2.7592673920040269</v>
       </c>
       <c r="Y19" s="2">
-        <v>0.27486966105025551</v>
+        <v>0.27453422792287407</v>
       </c>
       <c r="Z19" s="2">
-        <v>6.1375054521301102</v>
+        <v>6.138482272098897</v>
       </c>
       <c r="AA19" s="2">
-        <v>0.61450135388212745</v>
+        <v>0.61120499604072687</v>
       </c>
       <c r="AB19" s="2">
-        <v>12.26093278755668</v>
+        <v>12.25989318123014</v>
       </c>
       <c r="AC19" s="2">
-        <v>1.2223570957985459</v>
+        <v>1.2090312727161401</v>
       </c>
       <c r="AD19" s="2">
-        <v>29.34738225170759</v>
+        <v>29.339194483131909</v>
       </c>
       <c r="AE19" s="2">
-        <v>1.797476870635202</v>
+        <v>1.775506013662649</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -5968,94 +5947,94 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>136.69512637275761</v>
+        <v>136.69515342062459</v>
       </c>
       <c r="C20" s="2">
-        <v>6.8407096667729146</v>
+        <v>6.8212068404281707</v>
       </c>
       <c r="D20" s="2">
-        <v>66.702677713937689</v>
+        <v>66.709198404892064</v>
       </c>
       <c r="E20" s="2">
-        <v>4.6921214116868457</v>
+        <v>4.7226310714939199</v>
       </c>
       <c r="F20" s="2">
-        <v>66.748870314707915</v>
+        <v>66.779564949555962</v>
       </c>
       <c r="G20" s="2">
-        <v>4.7017584730957589</v>
+        <v>4.7174906968077988</v>
       </c>
       <c r="H20" s="2">
-        <v>19.555170599138769</v>
+        <v>19.55147975139359</v>
       </c>
       <c r="I20" s="2">
-        <v>1.704989006680816</v>
+        <v>1.6924629033010681</v>
       </c>
       <c r="J20" s="2">
-        <v>19.54206226870528</v>
+        <v>19.55999171102167</v>
       </c>
       <c r="K20" s="2">
-        <v>1.6944036273415659</v>
+        <v>1.683117042323883</v>
       </c>
       <c r="L20" s="2">
-        <v>6.5124268399587573</v>
+        <v>6.524168068812128</v>
       </c>
       <c r="M20" s="2">
-        <v>0.56050593846094476</v>
+        <v>0.56576144342557388</v>
       </c>
       <c r="N20" s="2">
-        <v>13.029623233750049</v>
+        <v>13.04902474435251</v>
       </c>
       <c r="O20" s="2">
-        <v>1.125179405341475</v>
+        <v>1.1238347715081629</v>
       </c>
       <c r="P20" s="2">
-        <v>6.5193679020795487</v>
+        <v>6.5190546952813753</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.55968288784094866</v>
+        <v>0.56188577557450481</v>
       </c>
       <c r="R20" s="2">
-        <v>19.096417387825191</v>
+        <v>19.07939790797646</v>
       </c>
       <c r="S20" s="2">
-        <v>1.912667222081285</v>
+        <v>1.895453551938614</v>
       </c>
       <c r="T20" s="2">
-        <v>13.34891207747571</v>
+        <v>13.3732869547206</v>
       </c>
       <c r="U20" s="2">
-        <v>1.3365928064929089</v>
+        <v>1.3287910892965771</v>
       </c>
       <c r="V20" s="2">
-        <v>2.8641182959923088</v>
+        <v>2.8653097732261958</v>
       </c>
       <c r="W20" s="2">
-        <v>0.28495101940853512</v>
+        <v>0.28799417078107659</v>
       </c>
       <c r="X20" s="2">
-        <v>2.8636479213039259</v>
+        <v>2.866464813238224</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.28954886210752512</v>
+        <v>0.2872194295971387</v>
       </c>
       <c r="Z20" s="2">
-        <v>6.3580270488226667</v>
+        <v>6.3754572536974132</v>
       </c>
       <c r="AA20" s="2">
-        <v>0.62890775652206576</v>
+        <v>0.63574418804431954</v>
       </c>
       <c r="AB20" s="2">
-        <v>12.72808514119764</v>
+        <v>12.74490815215171</v>
       </c>
       <c r="AC20" s="2">
-        <v>1.264222809072056</v>
+        <v>1.280243361672347</v>
       </c>
       <c r="AD20" s="2">
-        <v>30.533249516401689</v>
+        <v>30.55135262262764</v>
       </c>
       <c r="AE20" s="2">
-        <v>1.8291778848824229</v>
+        <v>1.8415465670429589</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -6063,94 +6042,94 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>141.61161819904461</v>
+        <v>141.6481444574776</v>
       </c>
       <c r="C21" s="2">
-        <v>7.0513692291379746</v>
+        <v>7.0550799239140813</v>
       </c>
       <c r="D21" s="2">
-        <v>69.136104055345825</v>
+        <v>69.157609488600983</v>
       </c>
       <c r="E21" s="2">
-        <v>4.929552469695877</v>
+        <v>4.8600702370806026</v>
       </c>
       <c r="F21" s="2">
-        <v>69.172715380634827</v>
+        <v>69.182452397447591</v>
       </c>
       <c r="G21" s="2">
-        <v>4.8665466145762988</v>
+        <v>4.9457146215939831</v>
       </c>
       <c r="H21" s="2">
-        <v>20.27394294811295</v>
+        <v>20.27618144291046</v>
       </c>
       <c r="I21" s="2">
-        <v>1.7636308094499971</v>
+        <v>1.7717285063496759</v>
       </c>
       <c r="J21" s="2">
-        <v>20.262931872621071</v>
+        <v>20.27008021959643</v>
       </c>
       <c r="K21" s="2">
-        <v>1.762178869179966</v>
+        <v>1.7704500272513199</v>
       </c>
       <c r="L21" s="2">
-        <v>6.7571612019628544</v>
+        <v>6.7526549463036476</v>
       </c>
       <c r="M21" s="2">
-        <v>0.584620158640073</v>
+        <v>0.59729423645803359</v>
       </c>
       <c r="N21" s="2">
-        <v>13.50685447958926</v>
+        <v>13.519213647637301</v>
       </c>
       <c r="O21" s="2">
-        <v>1.167546952818461</v>
+        <v>1.178879306973414</v>
       </c>
       <c r="P21" s="2">
-        <v>6.7552571255653877</v>
+        <v>6.7615818947481179</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.58436892763505754</v>
+        <v>0.59207310457486195</v>
       </c>
       <c r="R21" s="2">
-        <v>19.792957006225461</v>
+        <v>19.797713128412791</v>
       </c>
       <c r="S21" s="2">
-        <v>1.984655027078253</v>
+        <v>1.984678815874644</v>
       </c>
       <c r="T21" s="2">
-        <v>13.84764120908619</v>
+        <v>13.8486272750272</v>
       </c>
       <c r="U21" s="2">
-        <v>1.4007788511566801</v>
+        <v>1.393980729597639</v>
       </c>
       <c r="V21" s="2">
-        <v>2.9677389994031049</v>
+        <v>2.970076640488267</v>
       </c>
       <c r="W21" s="2">
-        <v>0.29904160965635368</v>
+        <v>0.29924576497290889</v>
       </c>
       <c r="X21" s="2">
-        <v>2.9698592946409019</v>
+        <v>2.9677624795333082</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.29916889555643872</v>
+        <v>0.29745472440523468</v>
       </c>
       <c r="Z21" s="2">
-        <v>6.5971257517754607</v>
+        <v>6.5976108873742927</v>
       </c>
       <c r="AA21" s="2">
-        <v>0.66246511752867399</v>
+        <v>0.67279078512867496</v>
       </c>
       <c r="AB21" s="2">
-        <v>13.195400480401711</v>
+        <v>13.21101568994737</v>
       </c>
       <c r="AC21" s="2">
-        <v>1.3220215014409811</v>
+        <v>1.3291953953750391</v>
       </c>
       <c r="AD21" s="2">
-        <v>31.735522966184298</v>
+        <v>31.7461352685782</v>
       </c>
       <c r="AE21" s="2">
-        <v>1.9151849321637371</v>
+        <v>1.8949003387851151</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -6158,94 +6137,94 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>146.38454225557081</v>
+        <v>146.4562485435126</v>
       </c>
       <c r="C22" s="2">
-        <v>7.3060789550480294</v>
+        <v>7.2420391972163562</v>
       </c>
       <c r="D22" s="2">
-        <v>71.447196933256294</v>
+        <v>71.460363262994406</v>
       </c>
       <c r="E22" s="2">
-        <v>5.1071711938296458</v>
+        <v>5.0540566964702034</v>
       </c>
       <c r="F22" s="2">
-        <v>71.447588058838662</v>
+        <v>71.520261481855641</v>
       </c>
       <c r="G22" s="2">
-        <v>5.0736861603077186</v>
+        <v>4.9973065047268008</v>
       </c>
       <c r="H22" s="2">
-        <v>20.92905817313348</v>
+        <v>20.958167045437019</v>
       </c>
       <c r="I22" s="2">
-        <v>1.819788417420757</v>
+        <v>1.785829407191053</v>
       </c>
       <c r="J22" s="2">
-        <v>20.922293962537019</v>
+        <v>20.94831415451107</v>
       </c>
       <c r="K22" s="2">
-        <v>1.810510336858457</v>
+        <v>1.78640093513456</v>
       </c>
       <c r="L22" s="2">
-        <v>6.9762431941560017</v>
+        <v>6.9809152684656306</v>
       </c>
       <c r="M22" s="2">
-        <v>0.60433282426511303</v>
+        <v>0.60282852089906291</v>
       </c>
       <c r="N22" s="2">
-        <v>13.960736263230791</v>
+        <v>13.958949169170509</v>
       </c>
       <c r="O22" s="2">
-        <v>1.2152269529204249</v>
+        <v>1.201059473249753</v>
       </c>
       <c r="P22" s="2">
-        <v>6.9765025135365857</v>
+        <v>6.9859076609683051</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.60738399666901421</v>
+        <v>0.60503883262273384</v>
       </c>
       <c r="R22" s="2">
-        <v>20.450890337887639</v>
+        <v>20.48028025662984</v>
       </c>
       <c r="S22" s="2">
-        <v>2.0604459299531519</v>
+        <v>2.013946979151251</v>
       </c>
       <c r="T22" s="2">
-        <v>14.318898082181709</v>
+        <v>14.312933739320529</v>
       </c>
       <c r="U22" s="2">
-        <v>1.4190075798745361</v>
+        <v>1.4254032290679559</v>
       </c>
       <c r="V22" s="2">
-        <v>3.0639753592978929</v>
+        <v>3.0702191419708309</v>
       </c>
       <c r="W22" s="2">
-        <v>0.30718985317198011</v>
+        <v>0.30205000893192768</v>
       </c>
       <c r="X22" s="2">
-        <v>3.0657415666440531</v>
+        <v>3.0703980225325731</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.30594626220233601</v>
+        <v>0.30329057948254462</v>
       </c>
       <c r="Z22" s="2">
-        <v>6.8094753178936216</v>
+        <v>6.8202699757719181</v>
       </c>
       <c r="AA22" s="2">
-        <v>0.68170985272481754</v>
+        <v>0.67815282453135317</v>
       </c>
       <c r="AB22" s="2">
-        <v>13.629826784502001</v>
+        <v>13.641032380155821</v>
       </c>
       <c r="AC22" s="2">
-        <v>1.3647970972932271</v>
+        <v>1.362794865263482</v>
       </c>
       <c r="AD22" s="2">
-        <v>32.932202127567592</v>
+        <v>32.939525201476741</v>
       </c>
       <c r="AE22" s="2">
-        <v>2.003946389031118</v>
+        <v>1.985658125968391</v>
       </c>
     </row>
   </sheetData>
@@ -6331,64 +6310,64 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2">
-        <v>23.841381311791039</v>
+        <v>23.824735280296071</v>
       </c>
       <c r="C2" s="2">
-        <v>1.675201746100941</v>
+        <v>1.6840127266889839</v>
       </c>
       <c r="D2" s="2">
-        <v>23.841381311791039</v>
+        <v>23.824735280296071</v>
       </c>
       <c r="E2" s="2">
-        <v>1.675201746100941</v>
+        <v>1.6840127266889839</v>
       </c>
       <c r="F2" s="2">
-        <v>2.329760289650836</v>
+        <v>2.3230307799092622</v>
       </c>
       <c r="G2" s="2">
-        <v>0.2032823959883345</v>
+        <v>0.20369394644298339</v>
       </c>
       <c r="H2" s="2">
-        <v>2.329760289650836</v>
+        <v>2.3230307799092622</v>
       </c>
       <c r="I2" s="2">
-        <v>0.2032823959883345</v>
+        <v>0.20369394644298339</v>
       </c>
       <c r="J2" s="2">
-        <v>11.607899162032719</v>
+        <v>11.5832109246959</v>
       </c>
       <c r="K2" s="2">
-        <v>1.022177445419139</v>
+        <v>1.0185230787439641</v>
       </c>
       <c r="L2" s="2">
-        <v>11.607899162032719</v>
+        <v>11.5832109246959</v>
       </c>
       <c r="M2" s="2">
-        <v>1.022177445419139</v>
+        <v>1.0185230787439641</v>
       </c>
       <c r="N2" s="2">
-        <v>7.8504003855035833</v>
+        <v>7.8375536212814971</v>
       </c>
       <c r="O2" s="2">
-        <v>0.66979242131479166</v>
+        <v>0.66871495052840513</v>
       </c>
       <c r="P2" s="2">
-        <v>7.8504003855035833</v>
+        <v>7.8375536212814971</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.66979242131479166</v>
+        <v>0.66871495052840513</v>
       </c>
       <c r="R2" s="2">
-        <v>1.023559005814763</v>
+        <v>1.0225726785335769</v>
       </c>
       <c r="S2" s="2">
-        <v>0.1036142884911361</v>
+        <v>0.1030536950018841</v>
       </c>
       <c r="T2" s="2">
-        <v>1.023559005814763</v>
+        <v>1.0225726785335769</v>
       </c>
       <c r="U2" s="2">
-        <v>0.1036142884911361</v>
+        <v>0.1030536950018841</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -6396,64 +6375,64 @@
         <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>26.22014638562387</v>
+        <v>26.202048140467259</v>
       </c>
       <c r="C3" s="2">
-        <v>1.845178232051814</v>
+        <v>1.838902665436974</v>
       </c>
       <c r="D3" s="2">
-        <v>50.061527697414988</v>
+        <v>50.026783420763181</v>
       </c>
       <c r="E3" s="2">
-        <v>2.487842350102067</v>
+        <v>2.5068881030576509</v>
       </c>
       <c r="F3" s="2">
-        <v>2.5656724938416922</v>
+        <v>2.5599377577630911</v>
       </c>
       <c r="G3" s="2">
-        <v>0.22189426908217061</v>
+        <v>0.22204864598610191</v>
       </c>
       <c r="H3" s="2">
-        <v>4.8954327834925397</v>
+        <v>4.8829685376723404</v>
       </c>
       <c r="I3" s="2">
-        <v>0.29895192411533961</v>
+        <v>0.30080505035096128</v>
       </c>
       <c r="J3" s="2">
-        <v>5.409796087140192</v>
+        <v>5.3797946750061918</v>
       </c>
       <c r="K3" s="2">
-        <v>1.291130395132267</v>
+        <v>1.302817350407889</v>
       </c>
       <c r="L3" s="2">
-        <v>17.017695249172871</v>
+        <v>16.963005599702079</v>
       </c>
       <c r="M3" s="2">
-        <v>1.166140671290294</v>
+        <v>1.191239468509127</v>
       </c>
       <c r="N3" s="2">
-        <v>16.015849474718021</v>
+        <v>15.98452345298344</v>
       </c>
       <c r="O3" s="2">
-        <v>0.99319496328097012</v>
+        <v>1.0053630677670251</v>
       </c>
       <c r="P3" s="2">
-        <v>23.866249860221739</v>
+        <v>23.822077074264818</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.4241183984201209</v>
+        <v>1.4379455552710121</v>
       </c>
       <c r="R3" s="2">
-        <v>1.1267703874969031</v>
+        <v>1.1237767364209199</v>
       </c>
       <c r="S3" s="2">
-        <v>0.1121462601620285</v>
+        <v>0.11348908585404339</v>
       </c>
       <c r="T3" s="2">
-        <v>2.150329393311663</v>
+        <v>2.1463494149544902</v>
       </c>
       <c r="U3" s="2">
-        <v>0.15314804162580309</v>
+        <v>0.15432959601021509</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -6461,64 +6440,64 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>28.633017184438401</v>
+        <v>28.611155429297138</v>
       </c>
       <c r="C4" s="2">
-        <v>2.0350571685219672</v>
+        <v>2.0370822604913168</v>
       </c>
       <c r="D4" s="2">
-        <v>78.694544881853275</v>
+        <v>78.637938850060507</v>
       </c>
       <c r="E4" s="2">
-        <v>3.228794759667946</v>
+        <v>3.2135275965513448</v>
       </c>
       <c r="F4" s="2">
-        <v>2.7973818348287729</v>
+        <v>2.7946801108117092</v>
       </c>
       <c r="G4" s="2">
-        <v>0.241178639294411</v>
+        <v>0.24283203602309181</v>
       </c>
       <c r="H4" s="2">
-        <v>7.6928146183212958</v>
+        <v>7.6776486484840252</v>
       </c>
       <c r="I4" s="2">
-        <v>0.38444304426474279</v>
+        <v>0.38640319681420182</v>
       </c>
       <c r="J4" s="2">
-        <v>3.2011786552694499</v>
+        <v>3.2105934784584309</v>
       </c>
       <c r="K4" s="2">
-        <v>1.4195794192785991</v>
+        <v>1.4512721628359759</v>
       </c>
       <c r="L4" s="2">
-        <v>20.21887390444239</v>
+        <v>20.173599078160549</v>
       </c>
       <c r="M4" s="2">
-        <v>1.32873503713551</v>
+        <v>1.344353980100927</v>
       </c>
       <c r="N4" s="2">
-        <v>20.152331389695039</v>
+        <v>20.116260999199209</v>
       </c>
       <c r="O4" s="2">
-        <v>1.0828498564429609</v>
+        <v>1.090037207906956</v>
       </c>
       <c r="P4" s="2">
-        <v>44.018581249916643</v>
+        <v>43.938338073463989</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.1101501825052931</v>
+        <v>2.1234153574537058</v>
       </c>
       <c r="R4" s="2">
-        <v>1.229245797299872</v>
+        <v>1.226470900294053</v>
       </c>
       <c r="S4" s="2">
-        <v>0.12186918058827061</v>
+        <v>0.1227360297243849</v>
       </c>
       <c r="T4" s="2">
-        <v>3.379575190611547</v>
+        <v>3.372820315248545</v>
       </c>
       <c r="U4" s="2">
-        <v>0.1962618717278595</v>
+        <v>0.19474524356600029</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -6526,64 +6505,64 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2">
-        <v>30.957881081466859</v>
+        <v>30.996245309999079</v>
       </c>
       <c r="C5" s="2">
-        <v>2.2155214261945191</v>
+        <v>2.1955778808623401</v>
       </c>
       <c r="D5" s="2">
-        <v>109.6524259633202</v>
+        <v>109.6341841600601</v>
       </c>
       <c r="E5" s="2">
-        <v>3.9150869706495661</v>
+        <v>3.8635459133633678</v>
       </c>
       <c r="F5" s="2">
-        <v>3.0235500567038218</v>
+        <v>3.028972270116487</v>
       </c>
       <c r="G5" s="2">
-        <v>0.26204238141365699</v>
+        <v>0.26315661069582208</v>
       </c>
       <c r="H5" s="2">
-        <v>10.71636467502511</v>
+        <v>10.70662091860056</v>
       </c>
       <c r="I5" s="2">
-        <v>0.46538243453710082</v>
+        <v>0.46146075211146759</v>
       </c>
       <c r="J5" s="2">
-        <v>2.340932848839965</v>
+        <v>2.3803846021298378</v>
       </c>
       <c r="K5" s="2">
-        <v>1.570387396563214</v>
+        <v>1.5508316777693589</v>
       </c>
       <c r="L5" s="2">
-        <v>22.559806753282221</v>
+        <v>22.553983680290369</v>
       </c>
       <c r="M5" s="2">
-        <v>1.5015940297731269</v>
+        <v>1.4884682485219189</v>
       </c>
       <c r="N5" s="2">
-        <v>22.912670757221381</v>
+        <v>22.912686077251909</v>
       </c>
       <c r="O5" s="2">
-        <v>1.193980577574254</v>
+        <v>1.1917479776054489</v>
       </c>
       <c r="P5" s="2">
-        <v>66.931252007138056</v>
+        <v>66.851024150716043</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.7711799298621149</v>
+        <v>2.759768323906838</v>
       </c>
       <c r="R5" s="2">
-        <v>1.3285825577488639</v>
+        <v>1.331442040187528</v>
       </c>
       <c r="S5" s="2">
-        <v>0.13251560824571521</v>
+        <v>0.1345431804266124</v>
       </c>
       <c r="T5" s="2">
-        <v>4.7081577483604127</v>
+        <v>4.7042623554360867</v>
       </c>
       <c r="U5" s="2">
-        <v>0.23526172918790669</v>
+        <v>0.23801528389274809</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -6591,64 +6570,64 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2">
-        <v>33.363195467750003</v>
+        <v>33.358272755596673</v>
       </c>
       <c r="C6" s="2">
-        <v>2.329652887940822</v>
+        <v>2.3677912724512979</v>
       </c>
       <c r="D6" s="2">
-        <v>143.01562143106929</v>
+        <v>142.9924569156567</v>
       </c>
       <c r="E6" s="2">
-        <v>4.5245147445314879</v>
+        <v>4.5237359542607694</v>
       </c>
       <c r="F6" s="2">
-        <v>3.261162545026163</v>
+        <v>3.257723299886488</v>
       </c>
       <c r="G6" s="2">
-        <v>0.28154091797994629</v>
+        <v>0.27933834298155341</v>
       </c>
       <c r="H6" s="2">
-        <v>13.977527220051311</v>
+        <v>13.964344218487019</v>
       </c>
       <c r="I6" s="2">
-        <v>0.54125002749350615</v>
+        <v>0.53915541169387493</v>
       </c>
       <c r="J6" s="2">
-        <v>2.0445676940091491</v>
+        <v>2.0288499866317551</v>
       </c>
       <c r="K6" s="2">
-        <v>1.6787617680951969</v>
+        <v>1.679245482690193</v>
       </c>
       <c r="L6" s="2">
-        <v>24.604374447291459</v>
+        <v>24.582833666922081</v>
       </c>
       <c r="M6" s="2">
-        <v>1.606332934702285</v>
+        <v>1.626495367332307</v>
       </c>
       <c r="N6" s="2">
-        <v>25.1666449158283</v>
+        <v>25.164330927233639</v>
       </c>
       <c r="O6" s="2">
-        <v>1.289206032270396</v>
+        <v>1.289577260651428</v>
       </c>
       <c r="P6" s="2">
-        <v>92.097896922966044</v>
+        <v>92.015355077949806</v>
       </c>
       <c r="Q6" s="2">
-        <v>3.3934325639725111</v>
+        <v>3.380442154942497</v>
       </c>
       <c r="R6" s="2">
-        <v>1.4314593484015741</v>
+        <v>1.4325652504413879</v>
       </c>
       <c r="S6" s="2">
-        <v>0.14296106298606731</v>
+        <v>0.14287595555638799</v>
       </c>
       <c r="T6" s="2">
-        <v>6.1396170967619756</v>
+        <v>6.1368276058774498</v>
       </c>
       <c r="U6" s="2">
-        <v>0.27319085291638451</v>
+        <v>0.27704043653415789</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -6656,64 +6635,64 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2">
-        <v>35.75793306788924</v>
+        <v>35.77771376827598</v>
       </c>
       <c r="C7" s="2">
-        <v>2.5189183196564291</v>
+        <v>2.5186803864461011</v>
       </c>
       <c r="D7" s="2">
-        <v>178.7735544989595</v>
+        <v>178.7701706839317</v>
       </c>
       <c r="E7" s="2">
-        <v>5.1524832715027866</v>
+        <v>5.1674482961187573</v>
       </c>
       <c r="F7" s="2">
-        <v>3.495648835170015</v>
+        <v>3.488108026620091</v>
       </c>
       <c r="G7" s="2">
-        <v>0.30240285539890133</v>
+        <v>0.29876713808988342</v>
       </c>
       <c r="H7" s="2">
-        <v>17.473176055221249</v>
+        <v>17.452452245107281</v>
       </c>
       <c r="I7" s="2">
-        <v>0.61996029390900387</v>
+        <v>0.61143551830777365</v>
       </c>
       <c r="J7" s="2">
-        <v>1.928809027880126</v>
+        <v>1.9203239815305939</v>
       </c>
       <c r="K7" s="2">
-        <v>1.8036957288743261</v>
+        <v>1.792534791360388</v>
       </c>
       <c r="L7" s="2">
-        <v>26.533183475171601</v>
+        <v>26.503157648452671</v>
       </c>
       <c r="M7" s="2">
-        <v>1.7445062499667201</v>
+        <v>1.725094627561307</v>
       </c>
       <c r="N7" s="2">
-        <v>27.256476200296579</v>
+        <v>27.21954367625117</v>
       </c>
       <c r="O7" s="2">
-        <v>1.3734207908385561</v>
+        <v>1.3677169665500719</v>
       </c>
       <c r="P7" s="2">
-        <v>119.3543731232632</v>
+        <v>119.2348987542007</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.9786714967863159</v>
+        <v>3.9775541702561732</v>
       </c>
       <c r="R7" s="2">
-        <v>1.536126934085954</v>
+        <v>1.534552736332041</v>
       </c>
       <c r="S7" s="2">
-        <v>0.15432047695578749</v>
+        <v>0.15407558742197419</v>
       </c>
       <c r="T7" s="2">
-        <v>7.6757440308479561</v>
+        <v>7.6713803422095026</v>
       </c>
       <c r="U7" s="2">
-        <v>0.31156948395804213</v>
+        <v>0.31482134604796808</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -6721,64 +6700,64 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2">
-        <v>38.157520163571483</v>
+        <v>38.125758523686692</v>
       </c>
       <c r="C8" s="2">
-        <v>2.6830597771549001</v>
+        <v>2.693906773749343</v>
       </c>
       <c r="D8" s="2">
-        <v>216.9310746625313</v>
+        <v>216.89592920761831</v>
       </c>
       <c r="E8" s="2">
-        <v>5.8212677792759964</v>
+        <v>5.8468251204025954</v>
       </c>
       <c r="F8" s="2">
-        <v>3.7276296750962739</v>
+        <v>3.7264587119396291</v>
       </c>
       <c r="G8" s="2">
-        <v>0.32551969141167081</v>
+        <v>0.32244354481979692</v>
       </c>
       <c r="H8" s="2">
-        <v>21.2008057303177</v>
+        <v>21.178910957046821</v>
       </c>
       <c r="I8" s="2">
-        <v>0.70306338493163167</v>
+        <v>0.69556420908871808</v>
       </c>
       <c r="J8" s="2">
-        <v>1.8709607161723609</v>
+        <v>1.86651401281389</v>
       </c>
       <c r="K8" s="2">
-        <v>1.915960719825643</v>
+        <v>1.8960078341139159</v>
       </c>
       <c r="L8" s="2">
-        <v>28.404144191343988</v>
+        <v>28.369671661266619</v>
       </c>
       <c r="M8" s="2">
-        <v>1.8762743322578019</v>
+        <v>1.8646531003685121</v>
       </c>
       <c r="N8" s="2">
-        <v>29.232279539151659</v>
+        <v>29.215875521885589</v>
       </c>
       <c r="O8" s="2">
-        <v>1.4900634705269979</v>
+        <v>1.473951697988835</v>
       </c>
       <c r="P8" s="2">
-        <v>148.58665266241459</v>
+        <v>148.45077427608669</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.5929948810691998</v>
+        <v>4.5706677656943002</v>
       </c>
       <c r="R8" s="2">
-        <v>1.6388128395762751</v>
+        <v>1.636587983148988</v>
       </c>
       <c r="S8" s="2">
-        <v>0.1644872306092858</v>
+        <v>0.1640217638185166</v>
       </c>
       <c r="T8" s="2">
-        <v>9.314556870424191</v>
+        <v>9.3079683253584804</v>
       </c>
       <c r="U8" s="2">
-        <v>0.35416535947749361</v>
+        <v>0.35813644439149539</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -6786,64 +6765,64 @@
         <v>2027</v>
       </c>
       <c r="B9" s="2">
-        <v>40.503428146747297</v>
+        <v>40.560749316261358</v>
       </c>
       <c r="C9" s="2">
-        <v>2.877703622213569</v>
+        <v>2.8404154391048611</v>
       </c>
       <c r="D9" s="2">
-        <v>257.43450280927902</v>
+        <v>257.45667852388033</v>
       </c>
       <c r="E9" s="2">
-        <v>6.5009639082100499</v>
+        <v>6.5116410402700211</v>
       </c>
       <c r="F9" s="2">
-        <v>3.957970573181921</v>
+        <v>3.9587039348504929</v>
       </c>
       <c r="G9" s="2">
-        <v>0.34664621345014029</v>
+        <v>0.34101797986244931</v>
       </c>
       <c r="H9" s="2">
-        <v>25.158776303499572</v>
+        <v>25.137614891897279</v>
       </c>
       <c r="I9" s="2">
-        <v>0.77996972203535053</v>
+        <v>0.77544808744920146</v>
       </c>
       <c r="J9" s="2">
-        <v>1.869634593598372</v>
+        <v>1.850871402166262</v>
       </c>
       <c r="K9" s="2">
-        <v>2.0506569469661029</v>
+        <v>2.0350652138625378</v>
       </c>
       <c r="L9" s="2">
-        <v>30.273778784942269</v>
+        <v>30.220543063432739</v>
       </c>
       <c r="M9" s="2">
-        <v>1.9996352457561239</v>
+        <v>1.9865713527559179</v>
       </c>
       <c r="N9" s="2">
-        <v>31.20332291900522</v>
+        <v>31.16836634177734</v>
       </c>
       <c r="O9" s="2">
-        <v>1.5875455630652551</v>
+        <v>1.577427401929153</v>
       </c>
       <c r="P9" s="2">
-        <v>179.78997558142009</v>
+        <v>179.61914061786331</v>
       </c>
       <c r="Q9" s="2">
-        <v>5.2243113758314426</v>
+        <v>5.1769007725171834</v>
       </c>
       <c r="R9" s="2">
-        <v>1.7367126848270149</v>
+        <v>1.7368481207547271</v>
       </c>
       <c r="S9" s="2">
-        <v>0.1734941546142566</v>
+        <v>0.17255683415814951</v>
       </c>
       <c r="T9" s="2">
-        <v>11.05126955525126</v>
+        <v>11.04481644611325</v>
       </c>
       <c r="U9" s="2">
-        <v>0.39490565790554782</v>
+        <v>0.39873544074280443</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -6851,64 +6830,64 @@
         <v>2028</v>
       </c>
       <c r="B10" s="2">
-        <v>42.91167382776284</v>
+        <v>42.935234836033821</v>
       </c>
       <c r="C10" s="2">
-        <v>3.0528661390694229</v>
+        <v>3.0537608253363469</v>
       </c>
       <c r="D10" s="2">
-        <v>300.34617663703949</v>
+        <v>300.39191335991421</v>
       </c>
       <c r="E10" s="2">
-        <v>7.203834364461402</v>
+        <v>7.2262756810464204</v>
       </c>
       <c r="F10" s="2">
-        <v>4.1913030079397444</v>
+        <v>4.1922946285573257</v>
       </c>
       <c r="G10" s="2">
-        <v>0.36142922153936652</v>
+        <v>0.36613700286203787</v>
       </c>
       <c r="H10" s="2">
-        <v>29.35007931143938</v>
+        <v>29.329909520454549</v>
       </c>
       <c r="I10" s="2">
-        <v>0.85692125316710488</v>
+        <v>0.85456886100665319</v>
       </c>
       <c r="J10" s="2">
-        <v>1.7943027733550321</v>
+        <v>1.8755768279531999</v>
       </c>
       <c r="K10" s="2">
-        <v>2.162099841362414</v>
+        <v>2.1864336136849238</v>
       </c>
       <c r="L10" s="2">
-        <v>32.068081558297287</v>
+        <v>32.096119891386209</v>
       </c>
       <c r="M10" s="2">
-        <v>2.1333129703732929</v>
+        <v>2.1274669751664601</v>
       </c>
       <c r="N10" s="2">
-        <v>33.133092978499732</v>
+        <v>33.127126401934113</v>
       </c>
       <c r="O10" s="2">
-        <v>1.6751713946456499</v>
+        <v>1.670337921281368</v>
       </c>
       <c r="P10" s="2">
-        <v>212.9230685599189</v>
+        <v>212.74626701979801</v>
       </c>
       <c r="Q10" s="2">
-        <v>5.8418042569273538</v>
+        <v>5.7890686100451116</v>
       </c>
       <c r="R10" s="2">
-        <v>1.8379294232505969</v>
+        <v>1.843383576787984</v>
       </c>
       <c r="S10" s="2">
-        <v>0.18279521626592971</v>
+        <v>0.1848171162462692</v>
       </c>
       <c r="T10" s="2">
-        <v>12.889198978501719</v>
+        <v>12.888200022901231</v>
       </c>
       <c r="U10" s="2">
-        <v>0.43538271602659612</v>
+        <v>0.43753101064087119</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -6916,64 +6895,64 @@
         <v>2029</v>
       </c>
       <c r="B11" s="2">
-        <v>45.290350164608093</v>
+        <v>45.314744119032163</v>
       </c>
       <c r="C11" s="2">
-        <v>3.220428417225035</v>
+        <v>3.2128785794933692</v>
       </c>
       <c r="D11" s="2">
-        <v>345.63652680164972</v>
+        <v>345.70665747894509</v>
       </c>
       <c r="E11" s="2">
-        <v>7.9025255274199049</v>
+        <v>7.9259500351502163</v>
       </c>
       <c r="F11" s="2">
-        <v>4.424062016941142</v>
+        <v>4.4259350241079263</v>
       </c>
       <c r="G11" s="2">
-        <v>0.38121511634459732</v>
+        <v>0.38258225263870688</v>
       </c>
       <c r="H11" s="2">
-        <v>33.774141328380381</v>
+        <v>33.75584454456245</v>
       </c>
       <c r="I11" s="2">
-        <v>0.93106446610789217</v>
+        <v>0.93547723365975866</v>
       </c>
       <c r="J11" s="2">
-        <v>1.846503707513141</v>
+        <v>1.854554556002268</v>
       </c>
       <c r="K11" s="2">
-        <v>2.2577801411838969</v>
+        <v>2.27750338039638</v>
       </c>
       <c r="L11" s="2">
-        <v>33.914585265810643</v>
+        <v>33.950674447388351</v>
       </c>
       <c r="M11" s="2">
-        <v>2.204556693649474</v>
+        <v>2.2308778953559578</v>
       </c>
       <c r="N11" s="2">
-        <v>35.05991708083458</v>
+        <v>35.090464512061708</v>
       </c>
       <c r="O11" s="2">
-        <v>1.752153447941744</v>
+        <v>1.7820804847339879</v>
       </c>
       <c r="P11" s="2">
-        <v>247.98298564075529</v>
+        <v>247.83673153185961</v>
       </c>
       <c r="Q11" s="2">
-        <v>6.458489768360665</v>
+        <v>6.4112422981520547</v>
       </c>
       <c r="R11" s="2">
-        <v>1.9422706333874351</v>
+        <v>1.9440932763531369</v>
       </c>
       <c r="S11" s="2">
-        <v>0.19175340339239211</v>
+        <v>0.19407902105891531</v>
       </c>
       <c r="T11" s="2">
-        <v>14.831469611889229</v>
+        <v>14.83229329925433</v>
       </c>
       <c r="U11" s="2">
-        <v>0.47270792777921089</v>
+        <v>0.47825565119711178</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -6981,64 +6960,64 @@
         <v>2030</v>
       </c>
       <c r="B12" s="2">
-        <v>47.653914121100733</v>
+        <v>47.679207638714423</v>
       </c>
       <c r="C12" s="2">
-        <v>3.3587475453049218</v>
+        <v>3.3888697953906308</v>
       </c>
       <c r="D12" s="2">
-        <v>393.29044092274933</v>
+        <v>393.38586511765982</v>
       </c>
       <c r="E12" s="2">
-        <v>8.5220459879218762</v>
+        <v>8.6231486293797062</v>
       </c>
       <c r="F12" s="2">
-        <v>4.6530599453929398</v>
+        <v>4.6650356408301841</v>
       </c>
       <c r="G12" s="2">
-        <v>0.40135289057269208</v>
+        <v>0.40439197250357362</v>
       </c>
       <c r="H12" s="2">
-        <v>38.427201273773363</v>
+        <v>38.420880185392683</v>
       </c>
       <c r="I12" s="2">
-        <v>1.0100255357436549</v>
+        <v>1.024157078216166</v>
       </c>
       <c r="J12" s="2">
-        <v>1.859615041578583</v>
+        <v>1.8606418504661879</v>
       </c>
       <c r="K12" s="2">
-        <v>2.375609483384908</v>
+        <v>2.397461912380499</v>
       </c>
       <c r="L12" s="2">
-        <v>35.774200307389137</v>
+        <v>35.811316297854518</v>
       </c>
       <c r="M12" s="2">
-        <v>2.3656865441257748</v>
+        <v>2.3472336952422341</v>
       </c>
       <c r="N12" s="2">
-        <v>36.999346055937522</v>
+        <v>37.055322959202663</v>
       </c>
       <c r="O12" s="2">
-        <v>1.857338679130649</v>
+        <v>1.8550880797886551</v>
       </c>
       <c r="P12" s="2">
-        <v>284.98233169669021</v>
+        <v>284.89205449106157</v>
       </c>
       <c r="Q12" s="2">
-        <v>7.0641228875485984</v>
+        <v>7.0440683138597491</v>
       </c>
       <c r="R12" s="2">
-        <v>2.042003576683332</v>
+        <v>2.0508261037601359</v>
       </c>
       <c r="S12" s="2">
-        <v>0.20416616123431811</v>
+        <v>0.20520415291761579</v>
       </c>
       <c r="T12" s="2">
-        <v>16.873473188572572</v>
+        <v>16.88311940301449</v>
       </c>
       <c r="U12" s="2">
-        <v>0.52049265193919925</v>
+        <v>0.52090511003021223</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -7046,64 +7025,64 @@
         <v>2031</v>
       </c>
       <c r="B13" s="2">
-        <v>2.3839521295560839</v>
+        <v>2.382131782850323</v>
       </c>
       <c r="C13" s="2">
-        <v>0.1682576335971073</v>
+        <v>0.16773126424595819</v>
       </c>
       <c r="D13" s="2">
-        <v>395.67439305230579</v>
+        <v>395.76799690051178</v>
       </c>
       <c r="E13" s="2">
-        <v>8.5252235994079477</v>
+        <v>8.6253380936749249</v>
       </c>
       <c r="F13" s="2">
-        <v>0.2326799226030139</v>
+        <v>0.23273876488928999</v>
       </c>
       <c r="G13" s="2">
-        <v>1.9969766004334699E-2</v>
+        <v>2.0018746301156892E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>38.659881196376404</v>
+        <v>38.653618950281803</v>
       </c>
       <c r="I13" s="2">
-        <v>1.0099775382370111</v>
+        <v>1.024329397832032</v>
       </c>
       <c r="J13" s="2">
-        <v>-21.333209979411521</v>
+        <v>-21.35645977041888</v>
       </c>
       <c r="K13" s="2">
-        <v>1.37279285907333</v>
+        <v>1.363981605244041</v>
       </c>
       <c r="L13" s="2">
-        <v>14.440990327977561</v>
+        <v>14.454856527435609</v>
       </c>
       <c r="M13" s="2">
-        <v>1.279663385576034</v>
+        <v>1.280744805288522</v>
       </c>
       <c r="N13" s="2">
-        <v>23.275153384326469</v>
+        <v>23.298629515764269</v>
       </c>
       <c r="O13" s="2">
-        <v>1.371141784615842</v>
+        <v>1.3613543242596291</v>
       </c>
       <c r="P13" s="2">
-        <v>308.25748508101867</v>
+        <v>308.19068400682619</v>
       </c>
       <c r="Q13" s="2">
-        <v>7.5638797683442869</v>
+        <v>7.5462476545583197</v>
       </c>
       <c r="R13" s="2">
-        <v>0.102214395584509</v>
+        <v>0.10240527441480191</v>
       </c>
       <c r="S13" s="2">
-        <v>1.021378059337668E-2</v>
+        <v>1.024091253323736E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>16.97568758415704</v>
+        <v>16.98552467742924</v>
       </c>
       <c r="U13" s="2">
-        <v>0.52053143632714549</v>
+        <v>0.52093209599912416</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -7111,64 +7090,64 @@
         <v>2032</v>
       </c>
       <c r="B14" s="2">
-        <v>52.425717084502473</v>
+        <v>52.455255082762413</v>
       </c>
       <c r="C14" s="2">
-        <v>3.644877917704668</v>
+        <v>3.7001207199423378</v>
       </c>
       <c r="D14" s="2">
-        <v>448.10011013680821</v>
+        <v>448.22325198327258</v>
       </c>
       <c r="E14" s="2">
-        <v>9.2607755014103592</v>
+        <v>9.4815702512534958</v>
       </c>
       <c r="F14" s="2">
-        <v>5.1126823651372932</v>
+        <v>5.124062467591485</v>
       </c>
       <c r="G14" s="2">
-        <v>0.44333415731244641</v>
+        <v>0.44352294542180881</v>
       </c>
       <c r="H14" s="2">
-        <v>43.772563561513699</v>
+        <v>43.777681417873517</v>
       </c>
       <c r="I14" s="2">
-        <v>1.106991509662582</v>
+        <v>1.115988187926257</v>
       </c>
       <c r="J14" s="2">
-        <v>16.548451359126851</v>
+        <v>16.60524846944412</v>
       </c>
       <c r="K14" s="2">
-        <v>2.30361870217591</v>
+        <v>2.3009132570139368</v>
       </c>
       <c r="L14" s="2">
-        <v>30.98944168710446</v>
+        <v>31.060104996879961</v>
       </c>
       <c r="M14" s="2">
-        <v>2.334162372520459</v>
+        <v>2.3517989252909182</v>
       </c>
       <c r="N14" s="2">
-        <v>26.151161537151289</v>
+        <v>26.207042166974212</v>
       </c>
       <c r="O14" s="2">
-        <v>1.5776876417072929</v>
+        <v>1.6013342716179979</v>
       </c>
       <c r="P14" s="2">
-        <v>334.4086466181713</v>
+        <v>334.39772617379992</v>
       </c>
       <c r="Q14" s="2">
-        <v>7.8735301889363258</v>
+        <v>7.8765470186891653</v>
       </c>
       <c r="R14" s="2">
-        <v>2.2471387013998521</v>
+        <v>2.253558986632882</v>
       </c>
       <c r="S14" s="2">
-        <v>0.2232915628209346</v>
+        <v>0.2260658574349475</v>
       </c>
       <c r="T14" s="2">
-        <v>19.222826285557041</v>
+        <v>19.23908366406204</v>
       </c>
       <c r="U14" s="2">
-        <v>0.56200551844353575</v>
+        <v>0.56821388094771785</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -7176,64 +7155,64 @@
         <v>2033</v>
       </c>
       <c r="B15" s="2">
-        <v>54.853506929004567</v>
+        <v>54.857199745088629</v>
       </c>
       <c r="C15" s="2">
-        <v>3.8712118025555342</v>
+        <v>3.8551136029916688</v>
       </c>
       <c r="D15" s="2">
-        <v>502.95361706581122</v>
+        <v>503.08045172836029</v>
       </c>
       <c r="E15" s="2">
-        <v>10.05383916698174</v>
+        <v>10.25600316013842</v>
       </c>
       <c r="F15" s="2">
-        <v>5.3582294124709318</v>
+        <v>5.3502233059971394</v>
       </c>
       <c r="G15" s="2">
-        <v>0.45857200656757541</v>
+        <v>0.45965812335831019</v>
       </c>
       <c r="H15" s="2">
-        <v>49.130792973984597</v>
+        <v>49.127904723870479</v>
       </c>
       <c r="I15" s="2">
-        <v>1.196874887724257</v>
+        <v>1.204783504959718</v>
       </c>
       <c r="J15" s="2">
-        <v>7.0837933771159838</v>
+        <v>7.0706923576637779</v>
       </c>
       <c r="K15" s="2">
-        <v>2.7259885813491551</v>
+        <v>2.699573394545689</v>
       </c>
       <c r="L15" s="2">
-        <v>38.073235064220363</v>
+        <v>38.130797354543503</v>
       </c>
       <c r="M15" s="2">
-        <v>2.5791490626839169</v>
+        <v>2.5711792727793039</v>
       </c>
       <c r="N15" s="2">
-        <v>37.623792019682341</v>
+        <v>37.673345312618792</v>
       </c>
       <c r="O15" s="2">
-        <v>2.101452833817024</v>
+        <v>2.0902690869848439</v>
       </c>
       <c r="P15" s="2">
-        <v>372.03243863785212</v>
+        <v>372.07107148641961</v>
       </c>
       <c r="Q15" s="2">
-        <v>8.4036544194210574</v>
+        <v>8.4148126888680626</v>
       </c>
       <c r="R15" s="2">
-        <v>2.3542633563639561</v>
+        <v>2.3537776114962119</v>
       </c>
       <c r="S15" s="2">
-        <v>0.23243015495307601</v>
+        <v>0.2314798299724983</v>
       </c>
       <c r="T15" s="2">
-        <v>21.577089641920949</v>
+        <v>21.592861275558359</v>
       </c>
       <c r="U15" s="2">
-        <v>0.60450447182699751</v>
+        <v>0.61071729306983458</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -7241,64 +7220,64 @@
         <v>2034</v>
       </c>
       <c r="B16" s="2">
-        <v>57.227254724035078</v>
+        <v>57.26960937109444</v>
       </c>
       <c r="C16" s="2">
-        <v>4.0737852815564288</v>
+        <v>4.046986580939306</v>
       </c>
       <c r="D16" s="2">
-        <v>560.18087178984649</v>
+        <v>560.35006109945857</v>
       </c>
       <c r="E16" s="2">
-        <v>10.836338059346341</v>
+        <v>11.068886780578939</v>
       </c>
       <c r="F16" s="2">
-        <v>5.5942383299008096</v>
+        <v>5.5875738628888971</v>
       </c>
       <c r="G16" s="2">
-        <v>0.48367248434825039</v>
+        <v>0.48420021981878092</v>
       </c>
       <c r="H16" s="2">
-        <v>54.725031303885437</v>
+        <v>54.715478586759382</v>
       </c>
       <c r="I16" s="2">
-        <v>1.2860546666138879</v>
+        <v>1.290258609112682</v>
       </c>
       <c r="J16" s="2">
-        <v>3.9106217598548429</v>
+        <v>3.8153446758914029</v>
       </c>
       <c r="K16" s="2">
-        <v>2.8987006629697931</v>
+        <v>2.8686370585437739</v>
       </c>
       <c r="L16" s="2">
-        <v>41.983856824075353</v>
+        <v>41.946142030434963</v>
       </c>
       <c r="M16" s="2">
-        <v>2.7729361760445639</v>
+        <v>2.7442374006277599</v>
       </c>
       <c r="N16" s="2">
-        <v>42.82248098505913</v>
+        <v>42.842337684862819</v>
       </c>
       <c r="O16" s="2">
-        <v>2.215233290231641</v>
+        <v>2.2263305193304741</v>
       </c>
       <c r="P16" s="2">
-        <v>414.85491962291047</v>
+        <v>414.91340917128332</v>
       </c>
       <c r="Q16" s="2">
-        <v>9.0164084636410937</v>
+        <v>9.0510810561845343</v>
       </c>
       <c r="R16" s="2">
-        <v>2.4591212332009982</v>
+        <v>2.4543685983090242</v>
       </c>
       <c r="S16" s="2">
-        <v>0.24567084480779919</v>
+        <v>0.24395415293607989</v>
       </c>
       <c r="T16" s="2">
-        <v>24.03621087512186</v>
+        <v>24.047229873867419</v>
       </c>
       <c r="U16" s="2">
-        <v>0.64441008510396203</v>
+        <v>0.65509416820356037</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -7306,64 +7285,64 @@
         <v>2035</v>
       </c>
       <c r="B17" s="2">
-        <v>59.601801326696453</v>
+        <v>59.588929911531707</v>
       </c>
       <c r="C17" s="2">
-        <v>4.2036782408254183</v>
+        <v>4.1944947188574266</v>
       </c>
       <c r="D17" s="2">
-        <v>619.78267311654224</v>
+        <v>619.93899101098725</v>
       </c>
       <c r="E17" s="2">
-        <v>11.675479601510681</v>
+        <v>11.875336300848099</v>
       </c>
       <c r="F17" s="2">
-        <v>5.8233387222773079</v>
+        <v>5.8149706662103782</v>
       </c>
       <c r="G17" s="2">
-        <v>0.5049284314887732</v>
+        <v>0.50619992649335444</v>
       </c>
       <c r="H17" s="2">
-        <v>60.548370026162573</v>
+        <v>60.530449252970051</v>
       </c>
       <c r="I17" s="2">
-        <v>1.387335537923188</v>
+        <v>1.38887925503864</v>
       </c>
       <c r="J17" s="2">
-        <v>2.5745793343982468</v>
+        <v>2.5933448132390429</v>
       </c>
       <c r="K17" s="2">
-        <v>3.0068591210603519</v>
+        <v>3.000042633260346</v>
       </c>
       <c r="L17" s="2">
-        <v>44.558436158473633</v>
+        <v>44.539486843673963</v>
       </c>
       <c r="M17" s="2">
-        <v>2.9720723137088649</v>
+        <v>2.9199586094943561</v>
       </c>
       <c r="N17" s="2">
-        <v>46.030932549757608</v>
+        <v>45.996902091179358</v>
       </c>
       <c r="O17" s="2">
-        <v>2.3634719884198878</v>
+        <v>2.342011687901782</v>
       </c>
       <c r="P17" s="2">
-        <v>460.88585217266979</v>
+        <v>460.91031126246099</v>
       </c>
       <c r="Q17" s="2">
-        <v>9.7371703047600509</v>
+        <v>9.7192228686534783</v>
       </c>
       <c r="R17" s="2">
-        <v>2.5575000655969289</v>
+        <v>2.559701203913777</v>
       </c>
       <c r="S17" s="2">
-        <v>0.25669126830155448</v>
+        <v>0.25867183052300791</v>
       </c>
       <c r="T17" s="2">
-        <v>26.593710940718839</v>
+        <v>26.60693107778113</v>
       </c>
       <c r="U17" s="2">
-        <v>0.69752595494907732</v>
+        <v>0.704077248994183</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -7371,64 +7350,64 @@
         <v>2036</v>
       </c>
       <c r="B18" s="2">
-        <v>62.030883606787363</v>
+        <v>62.045498792313921</v>
       </c>
       <c r="C18" s="2">
-        <v>4.4101970884649857</v>
+        <v>4.2930313103470654</v>
       </c>
       <c r="D18" s="2">
-        <v>681.81355672333166</v>
+        <v>681.98448980329692</v>
       </c>
       <c r="E18" s="2">
-        <v>12.468318762468421</v>
+        <v>12.589483534509769</v>
       </c>
       <c r="F18" s="2">
-        <v>6.0524652681935898</v>
+        <v>6.0559755384561109</v>
       </c>
       <c r="G18" s="2">
-        <v>0.52511229540060245</v>
+        <v>0.52750419258317915</v>
       </c>
       <c r="H18" s="2">
-        <v>66.600835294356401</v>
+        <v>66.586424791426182</v>
       </c>
       <c r="I18" s="2">
-        <v>1.486303519558442</v>
+        <v>1.4893563906927261</v>
       </c>
       <c r="J18" s="2">
-        <v>2.122156798888942</v>
+        <v>2.1295510797525301</v>
       </c>
       <c r="K18" s="2">
-        <v>3.1581173441571302</v>
+        <v>3.1029697500270368</v>
       </c>
       <c r="L18" s="2">
-        <v>46.680592957362329</v>
+        <v>46.669037923426501</v>
       </c>
       <c r="M18" s="2">
-        <v>3.081767081271773</v>
+        <v>3.0594516725806709</v>
       </c>
       <c r="N18" s="2">
-        <v>48.426599969717991</v>
+        <v>48.403510435950118</v>
       </c>
       <c r="O18" s="2">
-        <v>2.467919114222954</v>
+        <v>2.4371876676954769</v>
       </c>
       <c r="P18" s="2">
-        <v>509.31245214238709</v>
+        <v>509.31382169841203</v>
       </c>
       <c r="Q18" s="2">
-        <v>10.517166072178281</v>
+        <v>10.426505570523579</v>
       </c>
       <c r="R18" s="2">
-        <v>2.6608827970366802</v>
+        <v>2.6592307436550788</v>
       </c>
       <c r="S18" s="2">
-        <v>0.26822682547848131</v>
+        <v>0.26586901067396779</v>
       </c>
       <c r="T18" s="2">
-        <v>29.25459373775535</v>
+        <v>29.266161821436189</v>
       </c>
       <c r="U18" s="2">
-        <v>0.74631562762204107</v>
+        <v>0.7544792063976169</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -7436,64 +7415,64 @@
         <v>2037</v>
       </c>
       <c r="B19" s="2">
-        <v>64.332210374472936</v>
+        <v>64.384954173720871</v>
       </c>
       <c r="C19" s="2">
-        <v>4.4886187103492947</v>
+        <v>4.5263148194641118</v>
       </c>
       <c r="D19" s="2">
-        <v>746.14576709780329</v>
+        <v>746.36944397702155</v>
       </c>
       <c r="E19" s="2">
-        <v>13.21354456854597</v>
+        <v>13.388770696816151</v>
       </c>
       <c r="F19" s="2">
-        <v>6.2838976438400316</v>
+        <v>6.2814024572007003</v>
       </c>
       <c r="G19" s="2">
-        <v>0.54504066051070188</v>
+        <v>0.53818563700692024</v>
       </c>
       <c r="H19" s="2">
-        <v>72.88473293819662</v>
+        <v>72.867827248626952</v>
       </c>
       <c r="I19" s="2">
-        <v>1.5876323733370401</v>
+        <v>1.5811241115539989</v>
       </c>
       <c r="J19" s="2">
-        <v>1.8912607919597511</v>
+        <v>1.9319337915328489</v>
       </c>
       <c r="K19" s="2">
-        <v>3.243189832918818</v>
+        <v>3.241869248723432</v>
       </c>
       <c r="L19" s="2">
-        <v>48.571853749322017</v>
+        <v>48.600971714959321</v>
       </c>
       <c r="M19" s="2">
-        <v>3.170761774718216</v>
+        <v>3.1837730656249179</v>
       </c>
       <c r="N19" s="2">
-        <v>50.505196177099258</v>
+        <v>50.499644374221162</v>
       </c>
       <c r="O19" s="2">
-        <v>2.531305365927655</v>
+        <v>2.5067714689176821</v>
       </c>
       <c r="P19" s="2">
-        <v>559.81764831948715</v>
+        <v>559.81346607263197</v>
       </c>
       <c r="Q19" s="2">
-        <v>11.28849229126561</v>
+        <v>11.16975916786209</v>
       </c>
       <c r="R19" s="2">
-        <v>2.7597417467969838</v>
+        <v>2.7592673920040269</v>
       </c>
       <c r="S19" s="2">
-        <v>0.27486966105025551</v>
+        <v>0.27453422792287407</v>
       </c>
       <c r="T19" s="2">
-        <v>32.014335484552511</v>
+        <v>32.02542921344034</v>
       </c>
       <c r="U19" s="2">
-        <v>0.79542112753324246</v>
+        <v>0.80259455226210108</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -7501,64 +7480,64 @@
         <v>2038</v>
       </c>
       <c r="B20" s="2">
-        <v>66.702677713937689</v>
+        <v>66.709198404892064</v>
       </c>
       <c r="C20" s="2">
-        <v>4.6921214116868457</v>
+        <v>4.7226310714939199</v>
       </c>
       <c r="D20" s="2">
-        <v>812.84844481174071</v>
+        <v>813.07864238191587</v>
       </c>
       <c r="E20" s="2">
-        <v>14.07887375446554</v>
+        <v>14.21125651091161</v>
       </c>
       <c r="F20" s="2">
-        <v>6.5193679020795487</v>
+        <v>6.5190546952813753</v>
       </c>
       <c r="G20" s="2">
-        <v>0.55968288784094866</v>
+        <v>0.56188577557450481</v>
       </c>
       <c r="H20" s="2">
-        <v>79.404100840275447</v>
+        <v>79.386881943908207</v>
       </c>
       <c r="I20" s="2">
-        <v>1.6825037929876989</v>
+        <v>1.6740876275987719</v>
       </c>
       <c r="J20" s="2">
-        <v>1.9120799488993709</v>
+        <v>1.901332240069376</v>
       </c>
       <c r="K20" s="2">
-        <v>3.3494490416326852</v>
+        <v>3.3615452861570572</v>
       </c>
       <c r="L20" s="2">
-        <v>50.483933698221662</v>
+        <v>50.502303955028751</v>
       </c>
       <c r="M20" s="2">
-        <v>3.298202418547532</v>
+        <v>3.2753192451197179</v>
       </c>
       <c r="N20" s="2">
-        <v>52.483480002414403</v>
+        <v>52.537027801703069</v>
       </c>
       <c r="O20" s="2">
-        <v>2.6206538861598809</v>
+        <v>2.6004234761140892</v>
       </c>
       <c r="P20" s="2">
-        <v>612.30112832189889</v>
+        <v>612.35049387433457</v>
       </c>
       <c r="Q20" s="2">
-        <v>12.027415507427721</v>
+        <v>11.88494046623128</v>
       </c>
       <c r="R20" s="2">
-        <v>2.8636479213039259</v>
+        <v>2.866464813238224</v>
       </c>
       <c r="S20" s="2">
-        <v>0.28954886210752512</v>
+        <v>0.2872194295971387</v>
       </c>
       <c r="T20" s="2">
-        <v>34.877983405856448</v>
+        <v>34.891894026678543</v>
       </c>
       <c r="U20" s="2">
-        <v>0.84877949646567397</v>
+        <v>0.85462102712991772</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -7566,64 +7545,64 @@
         <v>2039</v>
       </c>
       <c r="B21" s="2">
-        <v>69.136104055345825</v>
+        <v>69.157609488600983</v>
       </c>
       <c r="C21" s="2">
-        <v>4.929552469695877</v>
+        <v>4.8600702370806026</v>
       </c>
       <c r="D21" s="2">
-        <v>881.98454886708646</v>
+        <v>882.23625187051562</v>
       </c>
       <c r="E21" s="2">
-        <v>14.882163020932079</v>
+        <v>15.055696231018921</v>
       </c>
       <c r="F21" s="2">
-        <v>6.7552571255653877</v>
+        <v>6.7615818947481179</v>
       </c>
       <c r="G21" s="2">
-        <v>0.58436892763505754</v>
+        <v>0.59207310457486195</v>
       </c>
       <c r="H21" s="2">
-        <v>86.159357965841068</v>
+        <v>86.148463838656497</v>
       </c>
       <c r="I21" s="2">
-        <v>1.7848089606752819</v>
+        <v>1.776202226377342</v>
       </c>
       <c r="J21" s="2">
-        <v>1.905075249127258</v>
+        <v>1.90020513486186</v>
       </c>
       <c r="K21" s="2">
-        <v>3.4677635257978618</v>
+        <v>3.5229886592063329</v>
       </c>
       <c r="L21" s="2">
-        <v>52.389008947348941</v>
+        <v>52.402509089890827</v>
       </c>
       <c r="M21" s="2">
-        <v>3.455658172193985</v>
+        <v>3.4375974899977848</v>
       </c>
       <c r="N21" s="2">
-        <v>54.495788197764583</v>
+        <v>54.524838486387942</v>
       </c>
       <c r="O21" s="2">
-        <v>2.7377271076087282</v>
+        <v>2.7159638013717862</v>
       </c>
       <c r="P21" s="2">
-        <v>666.79691651966687</v>
+        <v>666.87533236072647</v>
       </c>
       <c r="Q21" s="2">
-        <v>12.77656422963658</v>
+        <v>12.601644226406981</v>
       </c>
       <c r="R21" s="2">
-        <v>2.9698592946409019</v>
+        <v>2.9677624795333082</v>
       </c>
       <c r="S21" s="2">
-        <v>0.29916889555643872</v>
+        <v>0.29745472440523468</v>
       </c>
       <c r="T21" s="2">
-        <v>37.847842700497253</v>
+        <v>37.859656506211827</v>
       </c>
       <c r="U21" s="2">
-        <v>0.90130225833648614</v>
+        <v>0.90637006809174314</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -7631,64 +7610,64 @@
         <v>2040</v>
       </c>
       <c r="B22" s="2">
-        <v>71.447196933256294</v>
+        <v>71.460363262994406</v>
       </c>
       <c r="C22" s="2">
-        <v>5.1071711938296458</v>
+        <v>5.0540566964702034</v>
       </c>
       <c r="D22" s="2">
-        <v>953.43174580034452</v>
+        <v>953.69661513351161</v>
       </c>
       <c r="E22" s="2">
-        <v>15.72026848010592</v>
+        <v>15.85519633912358</v>
       </c>
       <c r="F22" s="2">
-        <v>6.9765025135365857</v>
+        <v>6.9859076609683051</v>
       </c>
       <c r="G22" s="2">
-        <v>0.60738399666901421</v>
+        <v>0.60503883262273384</v>
       </c>
       <c r="H22" s="2">
-        <v>93.135860479377669</v>
+        <v>93.134371499624436</v>
       </c>
       <c r="I22" s="2">
-        <v>1.88796182857326</v>
+        <v>1.8739861156464861</v>
       </c>
       <c r="J22" s="2">
-        <v>1.837586292502001</v>
+        <v>1.853688794473656</v>
       </c>
       <c r="K22" s="2">
-        <v>3.6396507551767239</v>
+        <v>3.567971683551602</v>
       </c>
       <c r="L22" s="2">
-        <v>54.226595239850631</v>
+        <v>54.256197884364333</v>
       </c>
       <c r="M22" s="2">
-        <v>3.5355238426219868</v>
+        <v>3.5552193034760471</v>
       </c>
       <c r="N22" s="2">
-        <v>56.435479589261</v>
+        <v>56.471046699375343</v>
       </c>
       <c r="O22" s="2">
-        <v>2.821888358399844</v>
+        <v>2.8361080050487009</v>
       </c>
       <c r="P22" s="2">
-        <v>723.23239610892642</v>
+        <v>723.34637906009823</v>
       </c>
       <c r="Q22" s="2">
-        <v>13.568962011311459</v>
+        <v>13.33863918439889</v>
       </c>
       <c r="R22" s="2">
-        <v>3.0657415666440531</v>
+        <v>3.0703980225325731</v>
       </c>
       <c r="S22" s="2">
-        <v>0.30594626220233601</v>
+        <v>0.30329057948254462</v>
       </c>
       <c r="T22" s="2">
-        <v>40.913584267141381</v>
+        <v>40.930054528744357</v>
       </c>
       <c r="U22" s="2">
-        <v>0.95660144014977788</v>
+        <v>0.95761838313697401</v>
       </c>
     </row>
   </sheetData>
